--- a/Scotland Premiership/Scotland Premiership.xlsx
+++ b/Scotland Premiership/Scotland Premiership.xlsx
@@ -14583,7 +14583,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>3634315</v>
+        <v>3634664</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14595,55 +14595,55 @@
         <v>44485.45833333334</v>
       </c>
       <c r="F159" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G159" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J159" t="s">
         <v>45</v>
       </c>
       <c r="K159">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="L159">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M159">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="N159">
+        <v>9.5</v>
+      </c>
+      <c r="O159">
+        <v>5</v>
+      </c>
+      <c r="P159">
+        <v>1.333</v>
+      </c>
+      <c r="Q159">
+        <v>1.5</v>
+      </c>
+      <c r="R159">
+        <v>1.85</v>
+      </c>
+      <c r="S159">
+        <v>2</v>
+      </c>
+      <c r="T159">
         <v>3</v>
       </c>
-      <c r="O159">
-        <v>3.25</v>
-      </c>
-      <c r="P159">
-        <v>2.4</v>
-      </c>
-      <c r="Q159">
-        <v>0</v>
-      </c>
-      <c r="R159">
-        <v>2.05</v>
-      </c>
-      <c r="S159">
-        <v>1.8</v>
-      </c>
-      <c r="T159">
-        <v>2.25</v>
-      </c>
       <c r="U159">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V159">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W159">
         <v>-1</v>
@@ -14652,19 +14652,19 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>1.4</v>
+        <v>0.333</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB159">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14672,7 +14672,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>3634663</v>
+        <v>3634315</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14684,13 +14684,13 @@
         <v>44485.45833333334</v>
       </c>
       <c r="F160" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G160" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160">
         <v>3</v>
@@ -14699,40 +14699,40 @@
         <v>45</v>
       </c>
       <c r="K160">
-        <v>1.75</v>
+        <v>2.875</v>
       </c>
       <c r="L160">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M160">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="N160">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="O160">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P160">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q160">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R160">
+        <v>2.05</v>
+      </c>
+      <c r="S160">
         <v>1.8</v>
-      </c>
-      <c r="S160">
-        <v>2.05</v>
       </c>
       <c r="T160">
         <v>2.25</v>
       </c>
       <c r="U160">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V160">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W160">
         <v>-1</v>
@@ -14741,16 +14741,16 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>4.25</v>
+        <v>1.4</v>
       </c>
       <c r="Z160">
         <v>-1</v>
       </c>
       <c r="AA160">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB160">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC160">
         <v>-1</v>
@@ -14761,7 +14761,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>3634664</v>
+        <v>3634665</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14773,76 +14773,76 @@
         <v>44485.45833333334</v>
       </c>
       <c r="F161" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G161" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K161">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L161">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M161">
-        <v>1.666</v>
+        <v>6.5</v>
       </c>
       <c r="N161">
-        <v>9.5</v>
+        <v>1.4</v>
       </c>
       <c r="O161">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P161">
-        <v>1.333</v>
+        <v>8</v>
       </c>
       <c r="Q161">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R161">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S161">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T161">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U161">
+        <v>1.825</v>
+      </c>
+      <c r="V161">
         <v>2.025</v>
       </c>
-      <c r="V161">
-        <v>1.825</v>
-      </c>
       <c r="W161">
         <v>-1</v>
       </c>
       <c r="X161">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y161">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
         <v>-1</v>
       </c>
       <c r="AA161">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB161">
         <v>-1</v>
       </c>
       <c r="AC161">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14850,7 +14850,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>3634665</v>
+        <v>3634663</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14862,76 +14862,76 @@
         <v>44485.45833333334</v>
       </c>
       <c r="F162" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G162" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J162" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K162">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="L162">
+        <v>3.5</v>
+      </c>
+      <c r="M162">
+        <v>4.75</v>
+      </c>
+      <c r="N162">
+        <v>1.615</v>
+      </c>
+      <c r="O162">
         <v>4</v>
       </c>
-      <c r="M162">
-        <v>6.5</v>
-      </c>
-      <c r="N162">
-        <v>1.4</v>
-      </c>
-      <c r="O162">
-        <v>4.5</v>
-      </c>
       <c r="P162">
-        <v>8</v>
+        <v>5.25</v>
       </c>
       <c r="Q162">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R162">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S162">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T162">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U162">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V162">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W162">
         <v>-1</v>
       </c>
       <c r="X162">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z162">
         <v>-1</v>
       </c>
       <c r="AA162">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AB162">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC162">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -18054,7 +18054,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>3634328</v>
+        <v>3634327</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18066,76 +18066,76 @@
         <v>44531.69791666666</v>
       </c>
       <c r="F198" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G198" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I198">
         <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K198">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="L198">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M198">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N198">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="O198">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P198">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q198">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R198">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S198">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T198">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U198">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V198">
+        <v>1.8</v>
+      </c>
+      <c r="W198">
         <v>1.9</v>
       </c>
-      <c r="W198">
-        <v>-1</v>
-      </c>
       <c r="X198">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y198">
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA198">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB198">
         <v>-1</v>
       </c>
       <c r="AC198">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18143,7 +18143,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>3634327</v>
+        <v>3634328</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18155,76 +18155,76 @@
         <v>44531.69791666666</v>
       </c>
       <c r="F199" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G199" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199">
         <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K199">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="L199">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M199">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N199">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="O199">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P199">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q199">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R199">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S199">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T199">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U199">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V199">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W199">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X199">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y199">
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA199">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB199">
         <v>-1</v>
       </c>
       <c r="AC199">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -20012,7 +20012,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>3634332</v>
+        <v>3634696</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20024,76 +20024,76 @@
         <v>44548.5</v>
       </c>
       <c r="F220" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G220" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K220">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="L220">
+        <v>3.2</v>
+      </c>
+      <c r="M220">
+        <v>3.4</v>
+      </c>
+      <c r="N220">
+        <v>2.4</v>
+      </c>
+      <c r="O220">
+        <v>3.1</v>
+      </c>
+      <c r="P220">
         <v>3.25</v>
       </c>
-      <c r="M220">
-        <v>2.1</v>
-      </c>
-      <c r="N220">
-        <v>4</v>
-      </c>
-      <c r="O220">
-        <v>3.6</v>
-      </c>
-      <c r="P220">
-        <v>1.833</v>
-      </c>
       <c r="Q220">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R220">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S220">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T220">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U220">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V220">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W220">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X220">
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA220">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB220">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC220">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20101,7 +20101,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>3634696</v>
+        <v>3634332</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20113,76 +20113,76 @@
         <v>44548.5</v>
       </c>
       <c r="F221" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G221" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K221">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="L221">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M221">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="N221">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="O221">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P221">
-        <v>3.25</v>
+        <v>1.833</v>
       </c>
       <c r="Q221">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R221">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S221">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T221">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U221">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V221">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W221">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X221">
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z221">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB221">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC221">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20190,7 +20190,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>3634698</v>
+        <v>4446655</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20202,76 +20202,76 @@
         <v>44552.69791666666</v>
       </c>
       <c r="F222" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G222" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J222" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K222">
-        <v>10</v>
+        <v>2.45</v>
       </c>
       <c r="L222">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="M222">
-        <v>1.285</v>
+        <v>3</v>
       </c>
       <c r="N222">
-        <v>17</v>
+        <v>2.45</v>
       </c>
       <c r="O222">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="P222">
-        <v>1.181</v>
+        <v>3.1</v>
       </c>
       <c r="Q222">
-        <v>2</v>
+        <v>-0.25</v>
       </c>
       <c r="R222">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S222">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T222">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="U222">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V222">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W222">
         <v>-1</v>
       </c>
       <c r="X222">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y222">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z222">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC222">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20279,7 +20279,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>4446655</v>
+        <v>3634698</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20291,76 +20291,76 @@
         <v>44552.69791666666</v>
       </c>
       <c r="F223" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G223" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J223" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K223">
-        <v>2.45</v>
+        <v>10</v>
       </c>
       <c r="L223">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="M223">
-        <v>3</v>
+        <v>1.285</v>
       </c>
       <c r="N223">
-        <v>2.45</v>
+        <v>17</v>
       </c>
       <c r="O223">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="P223">
-        <v>3.1</v>
+        <v>1.181</v>
       </c>
       <c r="Q223">
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="R223">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S223">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T223">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U223">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V223">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W223">
         <v>-1</v>
       </c>
       <c r="X223">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y223">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA223">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB223">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC223">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -21080,7 +21080,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>3634703</v>
+        <v>3634337</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21092,58 +21092,58 @@
         <v>44579.69791666666</v>
       </c>
       <c r="F232" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G232" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J232" t="s">
         <v>43</v>
       </c>
       <c r="K232">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="L232">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M232">
-        <v>6.5</v>
+        <v>2.9</v>
       </c>
       <c r="N232">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="O232">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P232">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q232">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R232">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S232">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T232">
         <v>2.25</v>
       </c>
       <c r="U232">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V232">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W232">
-        <v>0.6000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="X232">
         <v>-1</v>
@@ -21152,16 +21152,16 @@
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA232">
         <v>-1</v>
       </c>
       <c r="AB232">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC232">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21169,7 +21169,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>3634337</v>
+        <v>3634703</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21181,58 +21181,58 @@
         <v>44579.69791666666</v>
       </c>
       <c r="F233" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G233" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H233">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J233" t="s">
         <v>43</v>
       </c>
       <c r="K233">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="L233">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M233">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="N233">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="O233">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P233">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="Q233">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R233">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S233">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T233">
         <v>2.25</v>
       </c>
       <c r="U233">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V233">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W233">
-        <v>1.2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X233">
         <v>-1</v>
@@ -21241,16 +21241,16 @@
         <v>-1</v>
       </c>
       <c r="Z233">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA233">
         <v>-1</v>
       </c>
       <c r="AB233">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC233">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21614,7 +21614,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>3634341</v>
+        <v>3634709</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21626,76 +21626,76 @@
         <v>44587.69791666666</v>
       </c>
       <c r="F238" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G238" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I238">
         <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K238">
-        <v>2.15</v>
+        <v>1.166</v>
       </c>
       <c r="L238">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="M238">
-        <v>3.3</v>
+        <v>15</v>
       </c>
       <c r="N238">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="O238">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="P238">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="Q238">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R238">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S238">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T238">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U238">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V238">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W238">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X238">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y238">
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA238">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AB238">
         <v>-1</v>
       </c>
       <c r="AC238">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21703,7 +21703,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>3634340</v>
+        <v>3634708</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21715,40 +21715,40 @@
         <v>44587.69791666666</v>
       </c>
       <c r="F239" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G239" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J239" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K239">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L239">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M239">
-        <v>3.25</v>
+        <v>2.45</v>
       </c>
       <c r="N239">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="O239">
         <v>3.25</v>
       </c>
       <c r="P239">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="Q239">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R239">
         <v>1.775</v>
@@ -21760,31 +21760,31 @@
         <v>2.25</v>
       </c>
       <c r="U239">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V239">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W239">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X239">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0.7749999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AA239">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB239">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC239">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21881,7 +21881,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>3634708</v>
+        <v>3634341</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21893,10 +21893,10 @@
         <v>44587.69791666666</v>
       </c>
       <c r="F241" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G241" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H241">
         <v>0</v>
@@ -21908,61 +21908,61 @@
         <v>44</v>
       </c>
       <c r="K241">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="L241">
         <v>3.1</v>
       </c>
       <c r="M241">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="N241">
+        <v>2.3</v>
+      </c>
+      <c r="O241">
         <v>3</v>
       </c>
-      <c r="O241">
-        <v>3.25</v>
-      </c>
       <c r="P241">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q241">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R241">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S241">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="T241">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U241">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V241">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W241">
         <v>-1</v>
       </c>
       <c r="X241">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Y241">
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>0.3875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA241">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB241">
         <v>-1</v>
       </c>
       <c r="AC241">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -21970,7 +21970,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>3634709</v>
+        <v>3634340</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21982,58 +21982,58 @@
         <v>44587.69791666666</v>
       </c>
       <c r="F242" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G242" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H242">
+        <v>2</v>
+      </c>
+      <c r="I242">
         <v>1</v>
-      </c>
-      <c r="I242">
-        <v>0</v>
       </c>
       <c r="J242" t="s">
         <v>43</v>
       </c>
       <c r="K242">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="L242">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="M242">
-        <v>15</v>
+        <v>3.25</v>
       </c>
       <c r="N242">
-        <v>1.3</v>
+        <v>2.55</v>
       </c>
       <c r="O242">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="P242">
-        <v>10</v>
+        <v>2.875</v>
       </c>
       <c r="Q242">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R242">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="S242">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="T242">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U242">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V242">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W242">
-        <v>0.3</v>
+        <v>1.55</v>
       </c>
       <c r="X242">
         <v>-1</v>
@@ -22042,16 +22042,16 @@
         <v>-1</v>
       </c>
       <c r="Z242">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA242">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB242">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC242">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -23483,7 +23483,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>3634720</v>
+        <v>3634345</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23495,76 +23495,76 @@
         <v>44601.69791666666</v>
       </c>
       <c r="F259" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G259" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I259">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J259" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K259">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="L259">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M259">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N259">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="O259">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P259">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q259">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R259">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S259">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T259">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U259">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V259">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W259">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X259">
         <v>-1</v>
       </c>
       <c r="Y259">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z259">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA259">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB259">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC259">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="260" spans="1:29">
@@ -23572,7 +23572,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>3634345</v>
+        <v>3634720</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23584,76 +23584,76 @@
         <v>44601.69791666666</v>
       </c>
       <c r="F260" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G260" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I260">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J260" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K260">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="L260">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M260">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N260">
-        <v>1.533</v>
+        <v>2.6</v>
       </c>
       <c r="O260">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P260">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q260">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R260">
+        <v>1.775</v>
+      </c>
+      <c r="S260">
+        <v>2.1</v>
+      </c>
+      <c r="T260">
+        <v>2</v>
+      </c>
+      <c r="U260">
+        <v>1.975</v>
+      </c>
+      <c r="V260">
         <v>1.875</v>
       </c>
-      <c r="S260">
-        <v>1.975</v>
-      </c>
-      <c r="T260">
-        <v>2.5</v>
-      </c>
-      <c r="U260">
-        <v>1.9</v>
-      </c>
-      <c r="V260">
-        <v>1.95</v>
-      </c>
       <c r="W260">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X260">
         <v>-1</v>
       </c>
       <c r="Y260">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z260">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA260">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB260">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC260">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="261" spans="1:29">
@@ -23839,7 +23839,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>3636346</v>
+        <v>3636347</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23851,76 +23851,76 @@
         <v>44601.69791666666</v>
       </c>
       <c r="F263" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G263" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H263">
         <v>2</v>
       </c>
       <c r="I263">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J263" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K263">
-        <v>4.5</v>
+        <v>1.285</v>
       </c>
       <c r="L263">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M263">
-        <v>1.666</v>
+        <v>9.5</v>
       </c>
       <c r="N263">
-        <v>6</v>
+        <v>1.285</v>
       </c>
       <c r="O263">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P263">
-        <v>1.533</v>
+        <v>12</v>
       </c>
       <c r="Q263">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R263">
+        <v>1.9</v>
+      </c>
+      <c r="S263">
+        <v>1.95</v>
+      </c>
+      <c r="T263">
+        <v>2.75</v>
+      </c>
+      <c r="U263">
         <v>1.875</v>
       </c>
-      <c r="S263">
+      <c r="V263">
         <v>1.975</v>
       </c>
-      <c r="T263">
-        <v>2.5</v>
-      </c>
-      <c r="U263">
-        <v>2</v>
-      </c>
-      <c r="V263">
-        <v>1.85</v>
-      </c>
       <c r="W263">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X263">
         <v>-1</v>
       </c>
       <c r="Y263">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z263">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA263">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB263">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC263">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23928,7 +23928,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>3636347</v>
+        <v>3636346</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23940,76 +23940,76 @@
         <v>44601.69791666666</v>
       </c>
       <c r="F264" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G264" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H264">
         <v>2</v>
       </c>
       <c r="I264">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J264" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K264">
-        <v>1.285</v>
+        <v>4.5</v>
       </c>
       <c r="L264">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M264">
-        <v>9.5</v>
+        <v>1.666</v>
       </c>
       <c r="N264">
-        <v>1.285</v>
+        <v>6</v>
       </c>
       <c r="O264">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P264">
-        <v>12</v>
+        <v>1.533</v>
       </c>
       <c r="Q264">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R264">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S264">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T264">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U264">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V264">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W264">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X264">
         <v>-1</v>
       </c>
       <c r="Y264">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z264">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA264">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB264">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC264">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24284,7 +24284,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>3750514</v>
+        <v>3636352</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24296,76 +24296,76 @@
         <v>44611.5</v>
       </c>
       <c r="F268" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G268" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I268">
         <v>1</v>
       </c>
       <c r="J268" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K268">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="L268">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M268">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="N268">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="O268">
         <v>3.2</v>
       </c>
       <c r="P268">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="Q268">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R268">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S268">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T268">
         <v>2</v>
       </c>
       <c r="U268">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V268">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W268">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X268">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y268">
         <v>-1</v>
       </c>
       <c r="Z268">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA268">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB268">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC268">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24373,7 +24373,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>3636352</v>
+        <v>3750514</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24385,76 +24385,76 @@
         <v>44611.5</v>
       </c>
       <c r="F269" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G269" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I269">
         <v>1</v>
       </c>
       <c r="J269" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K269">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="L269">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M269">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="N269">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="O269">
         <v>3.2</v>
       </c>
       <c r="P269">
-        <v>1.95</v>
+        <v>3.4</v>
       </c>
       <c r="Q269">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R269">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S269">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T269">
         <v>2</v>
       </c>
       <c r="U269">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V269">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W269">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X269">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y269">
         <v>-1</v>
       </c>
       <c r="Z269">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA269">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB269">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC269">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24729,7 +24729,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>3636356</v>
+        <v>3768853</v>
       </c>
       <c r="C273" t="s">
         <v>28</v>
@@ -24741,76 +24741,76 @@
         <v>44618.5</v>
       </c>
       <c r="F273" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G273" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H273">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I273">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J273" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K273">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="L273">
         <v>3</v>
       </c>
       <c r="M273">
+        <v>2.45</v>
+      </c>
+      <c r="N273">
         <v>3.4</v>
-      </c>
-      <c r="N273">
-        <v>2.375</v>
       </c>
       <c r="O273">
         <v>3.1</v>
       </c>
       <c r="P273">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="Q273">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R273">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S273">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T273">
         <v>2.25</v>
       </c>
       <c r="U273">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V273">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W273">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X273">
         <v>-1</v>
       </c>
       <c r="Y273">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z273">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA273">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB273">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AC273">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="274" spans="1:29">
@@ -24818,7 +24818,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>3636353</v>
+        <v>3636356</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24830,76 +24830,76 @@
         <v>44618.5</v>
       </c>
       <c r="F274" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G274" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I274">
         <v>1</v>
       </c>
       <c r="J274" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K274">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="L274">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M274">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="N274">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="O274">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P274">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q274">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R274">
+        <v>2</v>
+      </c>
+      <c r="S274">
         <v>1.85</v>
       </c>
-      <c r="S274">
-        <v>2</v>
-      </c>
       <c r="T274">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U274">
+        <v>2.05</v>
+      </c>
+      <c r="V274">
         <v>1.8</v>
       </c>
-      <c r="V274">
-        <v>2.05</v>
-      </c>
       <c r="W274">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X274">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y274">
         <v>-1</v>
       </c>
       <c r="Z274">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA274">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB274">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AC274">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="275" spans="1:29">
@@ -24907,7 +24907,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>3768853</v>
+        <v>3636353</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24919,76 +24919,76 @@
         <v>44618.5</v>
       </c>
       <c r="F275" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G275" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I275">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J275" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K275">
-        <v>2.8</v>
+        <v>1.666</v>
       </c>
       <c r="L275">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M275">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="N275">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="O275">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P275">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q275">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R275">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S275">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T275">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U275">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V275">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W275">
         <v>-1</v>
       </c>
       <c r="X275">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y275">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z275">
         <v>-1</v>
       </c>
       <c r="AA275">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB275">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC275">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="276" spans="1:29">
@@ -25352,7 +25352,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>3636359</v>
+        <v>3636357</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25364,10 +25364,10 @@
         <v>44622.69791666666</v>
       </c>
       <c r="F280" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G280" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H280">
         <v>2</v>
@@ -25379,61 +25379,61 @@
         <v>43</v>
       </c>
       <c r="K280">
-        <v>1.909</v>
+        <v>1.181</v>
       </c>
       <c r="L280">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M280">
-        <v>3.75</v>
+        <v>10</v>
       </c>
       <c r="N280">
-        <v>1.95</v>
+        <v>1.142</v>
       </c>
       <c r="O280">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="P280">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="Q280">
+        <v>-2.25</v>
+      </c>
+      <c r="R280">
+        <v>1.975</v>
+      </c>
+      <c r="S280">
+        <v>1.875</v>
+      </c>
+      <c r="T280">
+        <v>3.25</v>
+      </c>
+      <c r="U280">
+        <v>2</v>
+      </c>
+      <c r="V280">
+        <v>1.85</v>
+      </c>
+      <c r="W280">
+        <v>0.1419999999999999</v>
+      </c>
+      <c r="X280">
+        <v>-1</v>
+      </c>
+      <c r="Y280">
+        <v>-1</v>
+      </c>
+      <c r="Z280">
         <v>-0.5</v>
       </c>
-      <c r="R280">
-        <v>1.95</v>
-      </c>
-      <c r="S280">
-        <v>1.9</v>
-      </c>
-      <c r="T280">
-        <v>2.25</v>
-      </c>
-      <c r="U280">
-        <v>1.85</v>
-      </c>
-      <c r="V280">
-        <v>2</v>
-      </c>
-      <c r="W280">
-        <v>0.95</v>
-      </c>
-      <c r="X280">
-        <v>-1</v>
-      </c>
-      <c r="Y280">
-        <v>-1</v>
-      </c>
-      <c r="Z280">
-        <v>0.95</v>
-      </c>
       <c r="AA280">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB280">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC280">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -25441,7 +25441,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>3636358</v>
+        <v>3636360</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25453,76 +25453,76 @@
         <v>44622.69791666666</v>
       </c>
       <c r="F281" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G281" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H281">
         <v>0</v>
       </c>
       <c r="I281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J281" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K281">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L281">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M281">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="N281">
-        <v>3.2</v>
+        <v>11</v>
       </c>
       <c r="O281">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="P281">
-        <v>2.375</v>
+        <v>1.285</v>
       </c>
       <c r="Q281">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R281">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S281">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T281">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U281">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V281">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W281">
         <v>-1</v>
       </c>
       <c r="X281">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y281">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z281">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AA281">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB281">
         <v>-1</v>
       </c>
       <c r="AC281">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25530,7 +25530,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>3636357</v>
+        <v>3636359</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25542,10 +25542,10 @@
         <v>44622.69791666666</v>
       </c>
       <c r="F282" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G282" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H282">
         <v>2</v>
@@ -25557,43 +25557,43 @@
         <v>43</v>
       </c>
       <c r="K282">
-        <v>1.181</v>
+        <v>1.909</v>
       </c>
       <c r="L282">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M282">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="N282">
-        <v>1.142</v>
+        <v>1.95</v>
       </c>
       <c r="O282">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="P282">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="Q282">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R282">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S282">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T282">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U282">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V282">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W282">
-        <v>0.1419999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X282">
         <v>-1</v>
@@ -25602,16 +25602,16 @@
         <v>-1</v>
       </c>
       <c r="Z282">
+        <v>0.95</v>
+      </c>
+      <c r="AA282">
+        <v>-1</v>
+      </c>
+      <c r="AB282">
         <v>-0.5</v>
       </c>
-      <c r="AA282">
-        <v>0.4375</v>
-      </c>
-      <c r="AB282">
-        <v>-1</v>
-      </c>
       <c r="AC282">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25619,7 +25619,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>3636360</v>
+        <v>3636358</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25631,76 +25631,76 @@
         <v>44622.69791666666</v>
       </c>
       <c r="F283" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G283" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H283">
         <v>0</v>
       </c>
       <c r="I283">
+        <v>0</v>
+      </c>
+      <c r="J283" t="s">
+        <v>44</v>
+      </c>
+      <c r="K283">
+        <v>3</v>
+      </c>
+      <c r="L283">
+        <v>3.25</v>
+      </c>
+      <c r="M283">
+        <v>2.375</v>
+      </c>
+      <c r="N283">
+        <v>3.2</v>
+      </c>
+      <c r="O283">
+        <v>3.1</v>
+      </c>
+      <c r="P283">
+        <v>2.375</v>
+      </c>
+      <c r="Q283">
+        <v>0.25</v>
+      </c>
+      <c r="R283">
+        <v>1.825</v>
+      </c>
+      <c r="S283">
+        <v>2.025</v>
+      </c>
+      <c r="T283">
+        <v>2</v>
+      </c>
+      <c r="U283">
+        <v>1.85</v>
+      </c>
+      <c r="V283">
+        <v>2</v>
+      </c>
+      <c r="W283">
+        <v>-1</v>
+      </c>
+      <c r="X283">
+        <v>2.1</v>
+      </c>
+      <c r="Y283">
+        <v>-1</v>
+      </c>
+      <c r="Z283">
+        <v>0.4125</v>
+      </c>
+      <c r="AA283">
+        <v>-0.5</v>
+      </c>
+      <c r="AB283">
+        <v>-1</v>
+      </c>
+      <c r="AC283">
         <v>1</v>
-      </c>
-      <c r="J283" t="s">
-        <v>45</v>
-      </c>
-      <c r="K283">
-        <v>7</v>
-      </c>
-      <c r="L283">
-        <v>4.75</v>
-      </c>
-      <c r="M283">
-        <v>1.363</v>
-      </c>
-      <c r="N283">
-        <v>11</v>
-      </c>
-      <c r="O283">
-        <v>5.25</v>
-      </c>
-      <c r="P283">
-        <v>1.285</v>
-      </c>
-      <c r="Q283">
-        <v>1.5</v>
-      </c>
-      <c r="R283">
-        <v>1.95</v>
-      </c>
-      <c r="S283">
-        <v>1.9</v>
-      </c>
-      <c r="T283">
-        <v>2.5</v>
-      </c>
-      <c r="U283">
-        <v>1.875</v>
-      </c>
-      <c r="V283">
-        <v>1.975</v>
-      </c>
-      <c r="W283">
-        <v>-1</v>
-      </c>
-      <c r="X283">
-        <v>-1</v>
-      </c>
-      <c r="Y283">
-        <v>0.2849999999999999</v>
-      </c>
-      <c r="Z283">
-        <v>0.95</v>
-      </c>
-      <c r="AA283">
-        <v>-1</v>
-      </c>
-      <c r="AB283">
-        <v>-1</v>
-      </c>
-      <c r="AC283">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -25708,7 +25708,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>3636363</v>
+        <v>3636361</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25720,61 +25720,61 @@
         <v>44625.5</v>
       </c>
       <c r="F284" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G284" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284">
         <v>0</v>
       </c>
       <c r="J284" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K284">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="L284">
-        <v>5.5</v>
+        <v>3.7</v>
       </c>
       <c r="M284">
-        <v>12</v>
+        <v>4.2</v>
       </c>
       <c r="N284">
-        <v>1.3</v>
+        <v>1.909</v>
       </c>
       <c r="O284">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="P284">
-        <v>11</v>
+        <v>4.75</v>
       </c>
       <c r="Q284">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R284">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S284">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T284">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U284">
+        <v>2.025</v>
+      </c>
+      <c r="V284">
         <v>1.825</v>
       </c>
-      <c r="V284">
-        <v>2.025</v>
-      </c>
       <c r="W284">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X284">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y284">
         <v>-1</v>
@@ -25783,13 +25783,13 @@
         <v>-1</v>
       </c>
       <c r="AA284">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB284">
         <v>-1</v>
       </c>
       <c r="AC284">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -25797,7 +25797,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>3636361</v>
+        <v>3636363</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25809,61 +25809,61 @@
         <v>44625.5</v>
       </c>
       <c r="F285" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G285" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I285">
         <v>0</v>
       </c>
       <c r="J285" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K285">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="L285">
-        <v>3.7</v>
+        <v>5.5</v>
       </c>
       <c r="M285">
-        <v>4.2</v>
+        <v>12</v>
       </c>
       <c r="N285">
-        <v>1.909</v>
+        <v>1.3</v>
       </c>
       <c r="O285">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="P285">
-        <v>4.75</v>
+        <v>11</v>
       </c>
       <c r="Q285">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R285">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S285">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T285">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U285">
+        <v>1.825</v>
+      </c>
+      <c r="V285">
         <v>2.025</v>
       </c>
-      <c r="V285">
-        <v>1.825</v>
-      </c>
       <c r="W285">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X285">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y285">
         <v>-1</v>
@@ -25872,13 +25872,13 @@
         <v>-1</v>
       </c>
       <c r="AA285">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB285">
         <v>-1</v>
       </c>
       <c r="AC285">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -26509,7 +26509,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>3883264</v>
+        <v>3883263</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26521,76 +26521,76 @@
         <v>44639.5</v>
       </c>
       <c r="F293" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G293" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I293">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J293" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K293">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L293">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M293">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N293">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O293">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P293">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q293">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R293">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S293">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T293">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U293">
+        <v>1.875</v>
+      </c>
+      <c r="V293">
         <v>1.975</v>
       </c>
-      <c r="V293">
-        <v>1.875</v>
-      </c>
       <c r="W293">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X293">
         <v>-1</v>
       </c>
       <c r="Y293">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z293">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA293">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB293">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC293">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="294" spans="1:29">
@@ -26598,7 +26598,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>3883263</v>
+        <v>3853912</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26610,13 +26610,13 @@
         <v>44639.5</v>
       </c>
       <c r="F294" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G294" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I294">
         <v>0</v>
@@ -26625,34 +26625,34 @@
         <v>43</v>
       </c>
       <c r="K294">
-        <v>1.727</v>
+        <v>1.166</v>
       </c>
       <c r="L294">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="M294">
-        <v>4.5</v>
+        <v>17</v>
       </c>
       <c r="N294">
-        <v>1.909</v>
+        <v>1.125</v>
       </c>
       <c r="O294">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="P294">
-        <v>4.2</v>
+        <v>23</v>
       </c>
       <c r="Q294">
-        <v>-0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R294">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S294">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T294">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U294">
         <v>1.875</v>
@@ -26661,7 +26661,7 @@
         <v>1.975</v>
       </c>
       <c r="W294">
-        <v>0.909</v>
+        <v>0.125</v>
       </c>
       <c r="X294">
         <v>-1</v>
@@ -26670,16 +26670,16 @@
         <v>-1</v>
       </c>
       <c r="Z294">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA294">
         <v>-1</v>
       </c>
       <c r="AB294">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC294">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="295" spans="1:29">
@@ -26687,7 +26687,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>3853912</v>
+        <v>3883264</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26699,40 +26699,40 @@
         <v>44639.5</v>
       </c>
       <c r="F295" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G295" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H295">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I295">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J295" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K295">
-        <v>1.166</v>
+        <v>2.3</v>
       </c>
       <c r="L295">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="M295">
-        <v>17</v>
+        <v>3.1</v>
       </c>
       <c r="N295">
-        <v>1.125</v>
+        <v>2.15</v>
       </c>
       <c r="O295">
-        <v>8.5</v>
+        <v>3.1</v>
       </c>
       <c r="P295">
-        <v>23</v>
+        <v>3.6</v>
       </c>
       <c r="Q295">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R295">
         <v>1.825</v>
@@ -26741,31 +26741,31 @@
         <v>2.025</v>
       </c>
       <c r="T295">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="U295">
+        <v>1.975</v>
+      </c>
+      <c r="V295">
         <v>1.875</v>
       </c>
-      <c r="V295">
-        <v>1.975</v>
-      </c>
       <c r="W295">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X295">
         <v>-1</v>
       </c>
       <c r="Y295">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z295">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA295">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB295">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC295">
         <v>-1</v>
@@ -27399,7 +27399,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>3984738</v>
+        <v>3958353</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27411,73 +27411,73 @@
         <v>44660.45833333334</v>
       </c>
       <c r="F303" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G303" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I303">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J303" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K303">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L303">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M303">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N303">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="O303">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P303">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q303">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R303">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S303">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T303">
         <v>2.25</v>
       </c>
       <c r="U303">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V303">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W303">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X303">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y303">
         <v>-1</v>
       </c>
       <c r="Z303">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA303">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB303">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC303">
         <v>-1</v>
@@ -27488,7 +27488,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>3988422</v>
+        <v>3984738</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27500,73 +27500,73 @@
         <v>44660.45833333334</v>
       </c>
       <c r="F304" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G304" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H304">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I304">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J304" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K304">
-        <v>1.111</v>
+        <v>2.1</v>
       </c>
       <c r="L304">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="M304">
-        <v>21</v>
+        <v>3.4</v>
       </c>
       <c r="N304">
-        <v>1.142</v>
+        <v>2.3</v>
       </c>
       <c r="O304">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="P304">
-        <v>21</v>
+        <v>3.2</v>
       </c>
       <c r="Q304">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R304">
+        <v>1.975</v>
+      </c>
+      <c r="S304">
+        <v>1.875</v>
+      </c>
+      <c r="T304">
+        <v>2.25</v>
+      </c>
+      <c r="U304">
+        <v>2.025</v>
+      </c>
+      <c r="V304">
         <v>1.825</v>
       </c>
-      <c r="S304">
-        <v>2.025</v>
-      </c>
-      <c r="T304">
-        <v>3</v>
-      </c>
-      <c r="U304">
-        <v>2.05</v>
-      </c>
-      <c r="V304">
-        <v>1.8</v>
-      </c>
       <c r="W304">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X304">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y304">
         <v>-1</v>
       </c>
       <c r="Z304">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA304">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB304">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC304">
         <v>-1</v>
@@ -27577,7 +27577,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>3958353</v>
+        <v>3988422</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27589,58 +27589,58 @@
         <v>44660.45833333334</v>
       </c>
       <c r="F305" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G305" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H305">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I305">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J305" t="s">
         <v>43</v>
       </c>
       <c r="K305">
-        <v>2</v>
+        <v>1.111</v>
       </c>
       <c r="L305">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="M305">
-        <v>3.6</v>
+        <v>21</v>
       </c>
       <c r="N305">
-        <v>1.95</v>
+        <v>1.142</v>
       </c>
       <c r="O305">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="P305">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="Q305">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R305">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S305">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T305">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U305">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V305">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W305">
-        <v>0.95</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X305">
         <v>-1</v>
@@ -27649,13 +27649,13 @@
         <v>-1</v>
       </c>
       <c r="Z305">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA305">
         <v>-1</v>
       </c>
       <c r="AB305">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AC305">
         <v>-1</v>
@@ -29090,7 +29090,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>4897796</v>
+        <v>4897795</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29102,76 +29102,76 @@
         <v>44688.45833333334</v>
       </c>
       <c r="F322" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G322" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I322">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J322" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K322">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L322">
+        <v>3.2</v>
+      </c>
+      <c r="M322">
         <v>3.4</v>
       </c>
-      <c r="M322">
-        <v>3.5</v>
-      </c>
       <c r="N322">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="O322">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P322">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="Q322">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R322">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S322">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T322">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U322">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V322">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W322">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X322">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y322">
         <v>-1</v>
       </c>
       <c r="Z322">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA322">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB322">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC322">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="323" spans="1:29">
@@ -29179,7 +29179,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>4897795</v>
+        <v>4897796</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29191,76 +29191,76 @@
         <v>44688.45833333334</v>
       </c>
       <c r="F323" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G323" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I323">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J323" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K323">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L323">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M323">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N323">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="O323">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="P323">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="Q323">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R323">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S323">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T323">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U323">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V323">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W323">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X323">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y323">
         <v>-1</v>
       </c>
       <c r="Z323">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA323">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB323">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC323">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="324" spans="1:29">
@@ -29891,7 +29891,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>4897798</v>
+        <v>4897789</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29903,76 +29903,76 @@
         <v>44692.65625</v>
       </c>
       <c r="F331" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G331" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I331">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J331" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K331">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="L331">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M331">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="N331">
-        <v>2.5</v>
+        <v>1.222</v>
       </c>
       <c r="O331">
-        <v>2.875</v>
+        <v>6.5</v>
       </c>
       <c r="P331">
-        <v>3.25</v>
+        <v>11</v>
       </c>
       <c r="Q331">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R331">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S331">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="T331">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U331">
+        <v>1.8</v>
+      </c>
+      <c r="V331">
         <v>2.05</v>
       </c>
-      <c r="V331">
-        <v>1.75</v>
-      </c>
       <c r="W331">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X331">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y331">
         <v>-1</v>
       </c>
       <c r="Z331">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA331">
-        <v>0.35</v>
+        <v>-1</v>
       </c>
       <c r="AB331">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC331">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="332" spans="1:29">
@@ -29980,7 +29980,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>4897789</v>
+        <v>4897798</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -29992,76 +29992,76 @@
         <v>44692.65625</v>
       </c>
       <c r="F332" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G332" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H332">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I332">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J332" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K332">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="L332">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M332">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="N332">
-        <v>1.222</v>
+        <v>2.5</v>
       </c>
       <c r="O332">
-        <v>6.5</v>
+        <v>2.875</v>
       </c>
       <c r="P332">
-        <v>11</v>
+        <v>3.25</v>
       </c>
       <c r="Q332">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R332">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S332">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="T332">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U332">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="V332">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="W332">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X332">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y332">
         <v>-1</v>
       </c>
       <c r="Z332">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA332">
-        <v>-1</v>
+        <v>0.35</v>
       </c>
       <c r="AB332">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC332">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="333" spans="1:29">
@@ -30069,7 +30069,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>4897780</v>
+        <v>4897730</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30081,49 +30081,49 @@
         <v>44695.34375</v>
       </c>
       <c r="F333" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G333" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I333">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J333" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K333">
-        <v>2.9</v>
+        <v>1.125</v>
       </c>
       <c r="L333">
-        <v>3.6</v>
+        <v>8.5</v>
       </c>
       <c r="M333">
-        <v>2.25</v>
+        <v>17</v>
       </c>
       <c r="N333">
-        <v>2.7</v>
+        <v>1.166</v>
       </c>
       <c r="O333">
-        <v>3.6</v>
+        <v>8.5</v>
       </c>
       <c r="P333">
-        <v>2.45</v>
+        <v>12</v>
       </c>
       <c r="Q333">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R333">
+        <v>1.825</v>
+      </c>
+      <c r="S333">
         <v>2.025</v>
       </c>
-      <c r="S333">
-        <v>1.825</v>
-      </c>
       <c r="T333">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U333">
         <v>1.875</v>
@@ -30132,19 +30132,19 @@
         <v>1.975</v>
       </c>
       <c r="W333">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X333">
         <v>-1</v>
       </c>
       <c r="Y333">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z333">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA333">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB333">
         <v>0.875</v>
@@ -30158,7 +30158,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>4897730</v>
+        <v>4897790</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30170,40 +30170,40 @@
         <v>44695.34375</v>
       </c>
       <c r="F334" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G334" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H334">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I334">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J334" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K334">
-        <v>1.125</v>
+        <v>2.1</v>
       </c>
       <c r="L334">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="M334">
-        <v>17</v>
+        <v>3.6</v>
       </c>
       <c r="N334">
-        <v>1.166</v>
+        <v>3.2</v>
       </c>
       <c r="O334">
-        <v>8.5</v>
+        <v>3.3</v>
       </c>
       <c r="P334">
-        <v>12</v>
+        <v>2.25</v>
       </c>
       <c r="Q334">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R334">
         <v>1.825</v>
@@ -30212,31 +30212,31 @@
         <v>2.025</v>
       </c>
       <c r="T334">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U334">
+        <v>1.975</v>
+      </c>
+      <c r="V334">
         <v>1.875</v>
       </c>
-      <c r="V334">
-        <v>1.975</v>
-      </c>
       <c r="W334">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X334">
         <v>-1</v>
       </c>
       <c r="Y334">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z334">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA334">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB334">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC334">
         <v>-1</v>
@@ -30247,7 +30247,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>4897790</v>
+        <v>4897780</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30259,56 +30259,56 @@
         <v>44695.34375</v>
       </c>
       <c r="F335" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G335" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H335">
         <v>1</v>
       </c>
       <c r="I335">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J335" t="s">
         <v>45</v>
       </c>
       <c r="K335">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="L335">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M335">
+        <v>2.25</v>
+      </c>
+      <c r="N335">
+        <v>2.7</v>
+      </c>
+      <c r="O335">
         <v>3.6</v>
       </c>
-      <c r="N335">
-        <v>3.2</v>
-      </c>
-      <c r="O335">
-        <v>3.3</v>
-      </c>
       <c r="P335">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="Q335">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R335">
+        <v>2.025</v>
+      </c>
+      <c r="S335">
         <v>1.825</v>
       </c>
-      <c r="S335">
-        <v>2.025</v>
-      </c>
       <c r="T335">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U335">
+        <v>1.875</v>
+      </c>
+      <c r="V335">
         <v>1.975</v>
       </c>
-      <c r="V335">
-        <v>1.875</v>
-      </c>
       <c r="W335">
         <v>-1</v>
       </c>
@@ -30316,16 +30316,16 @@
         <v>-1</v>
       </c>
       <c r="Y335">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="Z335">
         <v>-1</v>
       </c>
       <c r="AA335">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB335">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC335">
         <v>-1</v>
@@ -30336,7 +30336,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>4897785</v>
+        <v>4897799</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30348,76 +30348,76 @@
         <v>44696.33333333334</v>
       </c>
       <c r="F336" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G336" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H336">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I336">
         <v>0</v>
       </c>
       <c r="J336" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K336">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="L336">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M336">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="N336">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O336">
         <v>3.6</v>
       </c>
       <c r="P336">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="Q336">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R336">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S336">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T336">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U336">
+        <v>2.025</v>
+      </c>
+      <c r="V336">
         <v>1.825</v>
       </c>
-      <c r="V336">
-        <v>2.025</v>
-      </c>
       <c r="W336">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X336">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y336">
         <v>-1</v>
       </c>
       <c r="Z336">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA336">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB336">
+        <v>-1</v>
+      </c>
+      <c r="AC336">
         <v>0.825</v>
-      </c>
-      <c r="AC336">
-        <v>-1</v>
       </c>
     </row>
     <row r="337" spans="1:29">
@@ -30425,7 +30425,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>4897799</v>
+        <v>4897785</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30437,76 +30437,76 @@
         <v>44696.33333333334</v>
       </c>
       <c r="F337" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G337" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I337">
         <v>0</v>
       </c>
       <c r="J337" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K337">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="L337">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M337">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="N337">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O337">
         <v>3.6</v>
       </c>
       <c r="P337">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="Q337">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R337">
+        <v>1.85</v>
+      </c>
+      <c r="S337">
+        <v>2</v>
+      </c>
+      <c r="T337">
+        <v>2</v>
+      </c>
+      <c r="U337">
         <v>1.825</v>
       </c>
-      <c r="S337">
+      <c r="V337">
         <v>2.025</v>
       </c>
-      <c r="T337">
-        <v>2.5</v>
-      </c>
-      <c r="U337">
-        <v>2.025</v>
-      </c>
-      <c r="V337">
-        <v>1.825</v>
-      </c>
       <c r="W337">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X337">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y337">
         <v>-1</v>
       </c>
       <c r="Z337">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA337">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB337">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC337">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="338" spans="1:29">
@@ -31137,7 +31137,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>5169595</v>
+        <v>5169596</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -31149,64 +31149,64 @@
         <v>44779.45833333334</v>
       </c>
       <c r="F345" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G345" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I345">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J345" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K345">
-        <v>1.25</v>
+        <v>8</v>
       </c>
       <c r="L345">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M345">
-        <v>11</v>
+        <v>1.333</v>
       </c>
       <c r="N345">
-        <v>1.153</v>
+        <v>12</v>
       </c>
       <c r="O345">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P345">
-        <v>15</v>
+        <v>1.2</v>
       </c>
       <c r="Q345">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="R345">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S345">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T345">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U345">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V345">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W345">
-        <v>0.153</v>
+        <v>-1</v>
       </c>
       <c r="X345">
         <v>-1</v>
       </c>
       <c r="Y345">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z345">
         <v>0</v>
@@ -31215,10 +31215,10 @@
         <v>-0</v>
       </c>
       <c r="AB345">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC345">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="346" spans="1:29">
@@ -31226,7 +31226,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>5169596</v>
+        <v>5169595</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31238,64 +31238,64 @@
         <v>44779.45833333334</v>
       </c>
       <c r="F346" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G346" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I346">
+        <v>0</v>
+      </c>
+      <c r="J346" t="s">
+        <v>43</v>
+      </c>
+      <c r="K346">
+        <v>1.25</v>
+      </c>
+      <c r="L346">
+        <v>5.5</v>
+      </c>
+      <c r="M346">
+        <v>11</v>
+      </c>
+      <c r="N346">
+        <v>1.153</v>
+      </c>
+      <c r="O346">
+        <v>8</v>
+      </c>
+      <c r="P346">
+        <v>15</v>
+      </c>
+      <c r="Q346">
+        <v>-2</v>
+      </c>
+      <c r="R346">
+        <v>2</v>
+      </c>
+      <c r="S346">
+        <v>1.85</v>
+      </c>
+      <c r="T346">
         <v>3</v>
       </c>
-      <c r="J346" t="s">
-        <v>45</v>
-      </c>
-      <c r="K346">
-        <v>8</v>
-      </c>
-      <c r="L346">
-        <v>5</v>
-      </c>
-      <c r="M346">
-        <v>1.333</v>
-      </c>
-      <c r="N346">
-        <v>12</v>
-      </c>
-      <c r="O346">
-        <v>7</v>
-      </c>
-      <c r="P346">
-        <v>1.2</v>
-      </c>
-      <c r="Q346">
-        <v>2</v>
-      </c>
-      <c r="R346">
+      <c r="U346">
         <v>1.875</v>
       </c>
-      <c r="S346">
+      <c r="V346">
         <v>1.975</v>
       </c>
-      <c r="T346">
-        <v>3.25</v>
-      </c>
-      <c r="U346">
-        <v>2.05</v>
-      </c>
-      <c r="V346">
-        <v>1.8</v>
-      </c>
       <c r="W346">
-        <v>-1</v>
+        <v>0.153</v>
       </c>
       <c r="X346">
         <v>-1</v>
       </c>
       <c r="Y346">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z346">
         <v>0</v>
@@ -31304,10 +31304,10 @@
         <v>-0</v>
       </c>
       <c r="AB346">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC346">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -34430,7 +34430,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>5169610</v>
+        <v>5169299</v>
       </c>
       <c r="C382" t="s">
         <v>28</v>
@@ -34442,13 +34442,13 @@
         <v>44835.45833333334</v>
       </c>
       <c r="F382" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G382" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I382">
         <v>2</v>
@@ -34457,40 +34457,40 @@
         <v>45</v>
       </c>
       <c r="K382">
-        <v>2.875</v>
+        <v>2.6</v>
       </c>
       <c r="L382">
         <v>3.2</v>
       </c>
       <c r="M382">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="N382">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="O382">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P382">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="Q382">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R382">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S382">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T382">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U382">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V382">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W382">
         <v>-1</v>
@@ -34499,19 +34499,19 @@
         <v>-1</v>
       </c>
       <c r="Y382">
-        <v>0.909</v>
+        <v>2.3</v>
       </c>
       <c r="Z382">
         <v>-1</v>
       </c>
       <c r="AA382">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB382">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC382">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="383" spans="1:29">
@@ -34697,7 +34697,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>5169299</v>
+        <v>5169610</v>
       </c>
       <c r="C385" t="s">
         <v>28</v>
@@ -34709,13 +34709,13 @@
         <v>44835.45833333334</v>
       </c>
       <c r="F385" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G385" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H385">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I385">
         <v>2</v>
@@ -34724,40 +34724,40 @@
         <v>45</v>
       </c>
       <c r="K385">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="L385">
         <v>3.2</v>
       </c>
       <c r="M385">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="N385">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="O385">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P385">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="Q385">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R385">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S385">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T385">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U385">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V385">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W385">
         <v>-1</v>
@@ -34766,19 +34766,19 @@
         <v>-1</v>
       </c>
       <c r="Y385">
-        <v>2.3</v>
+        <v>0.909</v>
       </c>
       <c r="Z385">
         <v>-1</v>
       </c>
       <c r="AA385">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB385">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC385">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="386" spans="1:29">
@@ -36744,7 +36744,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>5169311</v>
+        <v>5169619</v>
       </c>
       <c r="C408" t="s">
         <v>28</v>
@@ -36756,58 +36756,58 @@
         <v>44863.45833333334</v>
       </c>
       <c r="F408" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G408" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H408">
+        <v>4</v>
+      </c>
+      <c r="I408">
         <v>1</v>
-      </c>
-      <c r="I408">
-        <v>0</v>
       </c>
       <c r="J408" t="s">
         <v>43</v>
       </c>
       <c r="K408">
-        <v>2.45</v>
+        <v>1.333</v>
       </c>
       <c r="L408">
+        <v>5.5</v>
+      </c>
+      <c r="M408">
+        <v>8</v>
+      </c>
+      <c r="N408">
+        <v>1.4</v>
+      </c>
+      <c r="O408">
+        <v>5.25</v>
+      </c>
+      <c r="P408">
+        <v>6.5</v>
+      </c>
+      <c r="Q408">
+        <v>-1.25</v>
+      </c>
+      <c r="R408">
+        <v>1.825</v>
+      </c>
+      <c r="S408">
+        <v>2.025</v>
+      </c>
+      <c r="T408">
         <v>3</v>
       </c>
-      <c r="M408">
-        <v>3.1</v>
-      </c>
-      <c r="N408">
-        <v>2.4</v>
-      </c>
-      <c r="O408">
-        <v>2.9</v>
-      </c>
-      <c r="P408">
-        <v>3.4</v>
-      </c>
-      <c r="Q408">
-        <v>-0.25</v>
-      </c>
-      <c r="R408">
-        <v>2</v>
-      </c>
-      <c r="S408">
-        <v>1.85</v>
-      </c>
-      <c r="T408">
-        <v>2</v>
-      </c>
       <c r="U408">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V408">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W408">
-        <v>1.4</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X408">
         <v>-1</v>
@@ -36816,16 +36816,16 @@
         <v>-1</v>
       </c>
       <c r="Z408">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA408">
         <v>-1</v>
       </c>
       <c r="AB408">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC408">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="409" spans="1:29">
@@ -36833,7 +36833,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>5169619</v>
+        <v>5169859</v>
       </c>
       <c r="C409" t="s">
         <v>28</v>
@@ -36845,76 +36845,76 @@
         <v>44863.45833333334</v>
       </c>
       <c r="F409" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G409" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H409">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I409">
         <v>1</v>
       </c>
       <c r="J409" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K409">
-        <v>1.333</v>
+        <v>2.625</v>
       </c>
       <c r="L409">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="M409">
-        <v>8</v>
+        <v>2.7</v>
       </c>
       <c r="N409">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="O409">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="P409">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q409">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R409">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="S409">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="T409">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U409">
+        <v>1.9</v>
+      </c>
+      <c r="V409">
         <v>1.95</v>
       </c>
-      <c r="V409">
-        <v>1.9</v>
-      </c>
       <c r="W409">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X409">
         <v>-1</v>
       </c>
       <c r="Y409">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z409">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA409">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB409">
+        <v>-1</v>
+      </c>
+      <c r="AC409">
         <v>0.95</v>
-      </c>
-      <c r="AC409">
-        <v>-1</v>
       </c>
     </row>
     <row r="410" spans="1:29">
@@ -36922,7 +36922,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>5169859</v>
+        <v>5169311</v>
       </c>
       <c r="C410" t="s">
         <v>28</v>
@@ -36934,76 +36934,76 @@
         <v>44863.45833333334</v>
       </c>
       <c r="F410" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G410" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I410">
+        <v>0</v>
+      </c>
+      <c r="J410" t="s">
+        <v>43</v>
+      </c>
+      <c r="K410">
+        <v>2.45</v>
+      </c>
+      <c r="L410">
+        <v>3</v>
+      </c>
+      <c r="M410">
+        <v>3.1</v>
+      </c>
+      <c r="N410">
+        <v>2.4</v>
+      </c>
+      <c r="O410">
+        <v>2.9</v>
+      </c>
+      <c r="P410">
+        <v>3.4</v>
+      </c>
+      <c r="Q410">
+        <v>-0.25</v>
+      </c>
+      <c r="R410">
+        <v>2</v>
+      </c>
+      <c r="S410">
+        <v>1.85</v>
+      </c>
+      <c r="T410">
+        <v>2</v>
+      </c>
+      <c r="U410">
+        <v>2</v>
+      </c>
+      <c r="V410">
+        <v>1.85</v>
+      </c>
+      <c r="W410">
+        <v>1.4</v>
+      </c>
+      <c r="X410">
+        <v>-1</v>
+      </c>
+      <c r="Y410">
+        <v>-1</v>
+      </c>
+      <c r="Z410">
         <v>1</v>
       </c>
-      <c r="J410" t="s">
-        <v>45</v>
-      </c>
-      <c r="K410">
-        <v>2.625</v>
-      </c>
-      <c r="L410">
-        <v>3.2</v>
-      </c>
-      <c r="M410">
-        <v>2.7</v>
-      </c>
-      <c r="N410">
-        <v>3</v>
-      </c>
-      <c r="O410">
-        <v>3.2</v>
-      </c>
-      <c r="P410">
-        <v>2.5</v>
-      </c>
-      <c r="Q410">
-        <v>0</v>
-      </c>
-      <c r="R410">
-        <v>2.1</v>
-      </c>
-      <c r="S410">
-        <v>1.775</v>
-      </c>
-      <c r="T410">
-        <v>2.25</v>
-      </c>
-      <c r="U410">
-        <v>1.9</v>
-      </c>
-      <c r="V410">
-        <v>1.95</v>
-      </c>
-      <c r="W410">
-        <v>-1</v>
-      </c>
-      <c r="X410">
-        <v>-1</v>
-      </c>
-      <c r="Y410">
-        <v>1.5</v>
-      </c>
-      <c r="Z410">
-        <v>-1</v>
-      </c>
       <c r="AA410">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB410">
         <v>-1</v>
       </c>
       <c r="AC410">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="411" spans="1:29">
@@ -37812,7 +37812,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>5169623</v>
+        <v>5169315</v>
       </c>
       <c r="C420" t="s">
         <v>28</v>
@@ -37824,76 +37824,76 @@
         <v>44873.69791666666</v>
       </c>
       <c r="F420" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G420" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J420" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K420">
-        <v>1.6</v>
+        <v>2.625</v>
       </c>
       <c r="L420">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M420">
-        <v>5.75</v>
+        <v>2.625</v>
       </c>
       <c r="N420">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="O420">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P420">
-        <v>8</v>
+        <v>2.875</v>
       </c>
       <c r="Q420">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R420">
+        <v>1.775</v>
+      </c>
+      <c r="S420">
+        <v>2.1</v>
+      </c>
+      <c r="T420">
+        <v>2.25</v>
+      </c>
+      <c r="U420">
+        <v>1.9</v>
+      </c>
+      <c r="V420">
         <v>1.95</v>
       </c>
-      <c r="S420">
-        <v>1.9</v>
-      </c>
-      <c r="T420">
-        <v>2.5</v>
-      </c>
-      <c r="U420">
-        <v>1.95</v>
-      </c>
-      <c r="V420">
-        <v>1.9</v>
-      </c>
       <c r="W420">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X420">
         <v>-1</v>
       </c>
       <c r="Y420">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z420">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA420">
+        <v>-1</v>
+      </c>
+      <c r="AB420">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB420">
-        <v>-1</v>
-      </c>
       <c r="AC420">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="421" spans="1:29">
@@ -37901,7 +37901,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>5169315</v>
+        <v>5169623</v>
       </c>
       <c r="C421" t="s">
         <v>28</v>
@@ -37913,76 +37913,76 @@
         <v>44873.69791666666</v>
       </c>
       <c r="F421" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G421" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J421" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K421">
-        <v>2.625</v>
+        <v>1.6</v>
       </c>
       <c r="L421">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M421">
-        <v>2.625</v>
+        <v>5.75</v>
       </c>
       <c r="N421">
-        <v>2.45</v>
+        <v>1.4</v>
       </c>
       <c r="O421">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P421">
-        <v>2.875</v>
+        <v>8</v>
       </c>
       <c r="Q421">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R421">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S421">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="T421">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U421">
+        <v>1.95</v>
+      </c>
+      <c r="V421">
         <v>1.9</v>
       </c>
-      <c r="V421">
-        <v>1.95</v>
-      </c>
       <c r="W421">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X421">
         <v>-1</v>
       </c>
       <c r="Y421">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z421">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA421">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB421">
+        <v>-1</v>
+      </c>
+      <c r="AC421">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC421">
-        <v>-1</v>
       </c>
     </row>
     <row r="422" spans="1:29">
@@ -37990,7 +37990,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>5169863</v>
+        <v>5169862</v>
       </c>
       <c r="C422" t="s">
         <v>28</v>
@@ -38002,49 +38002,49 @@
         <v>44874.69791666666</v>
       </c>
       <c r="F422" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G422" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H422">
         <v>1</v>
       </c>
       <c r="I422">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J422" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K422">
-        <v>1.285</v>
+        <v>9</v>
       </c>
       <c r="L422">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M422">
-        <v>9.5</v>
+        <v>1.333</v>
       </c>
       <c r="N422">
-        <v>1.2</v>
+        <v>9</v>
       </c>
       <c r="O422">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="P422">
-        <v>11</v>
+        <v>1.25</v>
       </c>
       <c r="Q422">
-        <v>-2</v>
+        <v>1.75</v>
       </c>
       <c r="R422">
+        <v>2</v>
+      </c>
+      <c r="S422">
         <v>1.85</v>
       </c>
-      <c r="S422">
-        <v>2</v>
-      </c>
       <c r="T422">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U422">
         <v>1.9</v>
@@ -38053,25 +38053,25 @@
         <v>1.95</v>
       </c>
       <c r="W422">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X422">
         <v>-1</v>
       </c>
       <c r="Y422">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z422">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA422">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB422">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC422">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="423" spans="1:29">
@@ -38079,7 +38079,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>5169862</v>
+        <v>5169863</v>
       </c>
       <c r="C423" t="s">
         <v>28</v>
@@ -38091,49 +38091,49 @@
         <v>44874.69791666666</v>
       </c>
       <c r="F423" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G423" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H423">
         <v>1</v>
       </c>
       <c r="I423">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J423" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K423">
-        <v>9</v>
+        <v>1.285</v>
       </c>
       <c r="L423">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M423">
-        <v>1.333</v>
+        <v>9.5</v>
       </c>
       <c r="N423">
-        <v>9</v>
+        <v>1.2</v>
       </c>
       <c r="O423">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="P423">
-        <v>1.25</v>
+        <v>11</v>
       </c>
       <c r="Q423">
-        <v>1.75</v>
+        <v>-2</v>
       </c>
       <c r="R423">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S423">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T423">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U423">
         <v>1.9</v>
@@ -38142,25 +38142,25 @@
         <v>1.95</v>
       </c>
       <c r="W423">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X423">
         <v>-1</v>
       </c>
       <c r="Y423">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z423">
+        <v>-1</v>
+      </c>
+      <c r="AA423">
         <v>1</v>
       </c>
-      <c r="AA423">
-        <v>-1</v>
-      </c>
       <c r="AB423">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC423">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="424" spans="1:29">
@@ -38435,7 +38435,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>5169317</v>
+        <v>5169625</v>
       </c>
       <c r="C427" t="s">
         <v>28</v>
@@ -38447,61 +38447,61 @@
         <v>44877.5</v>
       </c>
       <c r="F427" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G427" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I427">
         <v>1</v>
       </c>
       <c r="J427" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K427">
-        <v>2.05</v>
+        <v>1.09</v>
       </c>
       <c r="L427">
-        <v>3.25</v>
+        <v>9</v>
       </c>
       <c r="M427">
-        <v>3.6</v>
+        <v>23</v>
       </c>
       <c r="N427">
-        <v>1.8</v>
+        <v>1.071</v>
       </c>
       <c r="O427">
-        <v>3.75</v>
+        <v>15</v>
       </c>
       <c r="P427">
-        <v>4.5</v>
+        <v>21</v>
       </c>
       <c r="Q427">
-        <v>-0.75</v>
+        <v>-3</v>
       </c>
       <c r="R427">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S427">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T427">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U427">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V427">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W427">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="X427">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y427">
         <v>-1</v>
@@ -38510,13 +38510,13 @@
         <v>-1</v>
       </c>
       <c r="AA427">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB427">
         <v>-1</v>
       </c>
       <c r="AC427">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="428" spans="1:29">
@@ -38613,7 +38613,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>5169625</v>
+        <v>5169317</v>
       </c>
       <c r="C429" t="s">
         <v>28</v>
@@ -38625,61 +38625,61 @@
         <v>44877.5</v>
       </c>
       <c r="F429" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G429" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I429">
         <v>1</v>
       </c>
       <c r="J429" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K429">
-        <v>1.09</v>
+        <v>2.05</v>
       </c>
       <c r="L429">
-        <v>9</v>
+        <v>3.25</v>
       </c>
       <c r="M429">
-        <v>23</v>
+        <v>3.6</v>
       </c>
       <c r="N429">
-        <v>1.071</v>
+        <v>1.8</v>
       </c>
       <c r="O429">
-        <v>15</v>
+        <v>3.75</v>
       </c>
       <c r="P429">
-        <v>21</v>
+        <v>4.5</v>
       </c>
       <c r="Q429">
-        <v>-3</v>
+        <v>-0.75</v>
       </c>
       <c r="R429">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S429">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T429">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="U429">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V429">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W429">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="X429">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y429">
         <v>-1</v>
@@ -38688,13 +38688,13 @@
         <v>-1</v>
       </c>
       <c r="AA429">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB429">
         <v>-1</v>
       </c>
       <c r="AC429">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="430" spans="1:29">
@@ -46712,7 +46712,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>5394839</v>
+        <v>5423542</v>
       </c>
       <c r="C520" t="s">
         <v>28</v>
@@ -46724,49 +46724,49 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F520" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G520" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I520">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J520" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K520">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L520">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M520">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="N520">
         <v>2.2</v>
       </c>
       <c r="O520">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P520">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q520">
         <v>-0.25</v>
       </c>
       <c r="R520">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S520">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T520">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U520">
         <v>2.05</v>
@@ -46775,25 +46775,25 @@
         <v>1.8</v>
       </c>
       <c r="W520">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X520">
         <v>-1</v>
       </c>
       <c r="Y520">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z520">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA520">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB520">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC520">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="521" spans="1:29">
@@ -46801,7 +46801,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>5390404</v>
+        <v>5394839</v>
       </c>
       <c r="C521" t="s">
         <v>28</v>
@@ -46813,10 +46813,10 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F521" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G521" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H521">
         <v>0</v>
@@ -46828,41 +46828,41 @@
         <v>45</v>
       </c>
       <c r="K521">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="L521">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M521">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N521">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="O521">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P521">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q521">
         <v>-0.25</v>
       </c>
       <c r="R521">
+        <v>1.9</v>
+      </c>
+      <c r="S521">
+        <v>1.95</v>
+      </c>
+      <c r="T521">
+        <v>2.5</v>
+      </c>
+      <c r="U521">
         <v>2.05</v>
       </c>
-      <c r="S521">
+      <c r="V521">
         <v>1.8</v>
       </c>
-      <c r="T521">
-        <v>2.25</v>
-      </c>
-      <c r="U521">
-        <v>2.1</v>
-      </c>
-      <c r="V521">
-        <v>1.775</v>
-      </c>
       <c r="W521">
         <v>-1</v>
       </c>
@@ -46870,19 +46870,19 @@
         <v>-1</v>
       </c>
       <c r="Y521">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Z521">
         <v>-1</v>
       </c>
       <c r="AA521">
+        <v>0.95</v>
+      </c>
+      <c r="AB521">
+        <v>-1</v>
+      </c>
+      <c r="AC521">
         <v>0.8</v>
-      </c>
-      <c r="AB521">
-        <v>-0.5</v>
-      </c>
-      <c r="AC521">
-        <v>0.3875</v>
       </c>
     </row>
     <row r="522" spans="1:29">
@@ -46890,7 +46890,7 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>5356127</v>
+        <v>5390404</v>
       </c>
       <c r="C522" t="s">
         <v>28</v>
@@ -46902,76 +46902,76 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F522" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G522" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J522" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K522">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L522">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M522">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N522">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="O522">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P522">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q522">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R522">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S522">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T522">
         <v>2.25</v>
       </c>
       <c r="U522">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="V522">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W522">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X522">
         <v>-1</v>
       </c>
       <c r="Y522">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z522">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA522">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB522">
         <v>-0.5</v>
       </c>
       <c r="AC522">
-        <v>0.5</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="523" spans="1:29">
@@ -46979,7 +46979,7 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>5423542</v>
+        <v>5356127</v>
       </c>
       <c r="C523" t="s">
         <v>28</v>
@@ -46991,13 +46991,13 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F523" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G523" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H523">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I523">
         <v>0</v>
@@ -47006,43 +47006,43 @@
         <v>43</v>
       </c>
       <c r="K523">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="L523">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M523">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="N523">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O523">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P523">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q523">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R523">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S523">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T523">
         <v>2.25</v>
       </c>
       <c r="U523">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V523">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W523">
-        <v>1.2</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X523">
         <v>-1</v>
@@ -47051,16 +47051,16 @@
         <v>-1</v>
       </c>
       <c r="Z523">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA523">
         <v>-1</v>
       </c>
       <c r="AB523">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AC523">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="524" spans="1:29">
@@ -48225,7 +48225,7 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>6575426</v>
+        <v>6575425</v>
       </c>
       <c r="C537" t="s">
         <v>28</v>
@@ -48237,13 +48237,13 @@
         <v>45052.45833333334</v>
       </c>
       <c r="F537" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G537" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H537">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I537">
         <v>0</v>
@@ -48252,43 +48252,43 @@
         <v>43</v>
       </c>
       <c r="K537">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="L537">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M537">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="N537">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="O537">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P537">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q537">
         <v>-0.25</v>
       </c>
       <c r="R537">
+        <v>1.825</v>
+      </c>
+      <c r="S537">
         <v>2.025</v>
-      </c>
-      <c r="S537">
-        <v>1.825</v>
       </c>
       <c r="T537">
         <v>2.25</v>
       </c>
       <c r="U537">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V537">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W537">
-        <v>1.375</v>
+        <v>1.1</v>
       </c>
       <c r="X537">
         <v>-1</v>
@@ -48297,16 +48297,16 @@
         <v>-1</v>
       </c>
       <c r="Z537">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AA537">
         <v>-1</v>
       </c>
       <c r="AB537">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC537">
-        <v>0.75</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="538" spans="1:29">
@@ -48314,7 +48314,7 @@
         <v>536</v>
       </c>
       <c r="B538">
-        <v>6575425</v>
+        <v>6575426</v>
       </c>
       <c r="C538" t="s">
         <v>28</v>
@@ -48326,13 +48326,13 @@
         <v>45052.45833333334</v>
       </c>
       <c r="F538" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G538" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I538">
         <v>0</v>
@@ -48341,43 +48341,43 @@
         <v>43</v>
       </c>
       <c r="K538">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="L538">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M538">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N538">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="O538">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P538">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q538">
         <v>-0.25</v>
       </c>
       <c r="R538">
+        <v>2.025</v>
+      </c>
+      <c r="S538">
         <v>1.825</v>
-      </c>
-      <c r="S538">
-        <v>2.025</v>
       </c>
       <c r="T538">
         <v>2.25</v>
       </c>
       <c r="U538">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V538">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W538">
-        <v>1.1</v>
+        <v>1.375</v>
       </c>
       <c r="X538">
         <v>-1</v>
@@ -48386,16 +48386,16 @@
         <v>-1</v>
       </c>
       <c r="Z538">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA538">
         <v>-1</v>
       </c>
       <c r="AB538">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC538">
-        <v>0.4125</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="539" spans="1:29">
@@ -48848,7 +48848,7 @@
         <v>542</v>
       </c>
       <c r="B544">
-        <v>6576082</v>
+        <v>6576081</v>
       </c>
       <c r="C544" t="s">
         <v>28</v>
@@ -48860,76 +48860,76 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F544" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G544" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I544">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J544" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K544">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L544">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M544">
         <v>3.1</v>
       </c>
       <c r="N544">
+        <v>2.2</v>
+      </c>
+      <c r="O544">
+        <v>3.25</v>
+      </c>
+      <c r="P544">
+        <v>3.2</v>
+      </c>
+      <c r="Q544">
+        <v>-0.25</v>
+      </c>
+      <c r="R544">
+        <v>1.95</v>
+      </c>
+      <c r="S544">
+        <v>1.9</v>
+      </c>
+      <c r="T544">
+        <v>2.5</v>
+      </c>
+      <c r="U544">
+        <v>2.05</v>
+      </c>
+      <c r="V544">
         <v>1.8</v>
       </c>
-      <c r="O544">
-        <v>3.6</v>
-      </c>
-      <c r="P544">
-        <v>4.2</v>
-      </c>
-      <c r="Q544">
-        <v>-0.5</v>
-      </c>
-      <c r="R544">
-        <v>1.8</v>
-      </c>
-      <c r="S544">
-        <v>2.05</v>
-      </c>
-      <c r="T544">
-        <v>2.25</v>
-      </c>
-      <c r="U544">
-        <v>1.975</v>
-      </c>
-      <c r="V544">
-        <v>1.875</v>
-      </c>
       <c r="W544">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X544">
         <v>-1</v>
       </c>
       <c r="Y544">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z544">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA544">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB544">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC544">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="545" spans="1:29">
@@ -48937,7 +48937,7 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>6576081</v>
+        <v>6576083</v>
       </c>
       <c r="C545" t="s">
         <v>28</v>
@@ -48949,55 +48949,55 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F545" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G545" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H545">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I545">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J545" t="s">
         <v>45</v>
       </c>
       <c r="K545">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="L545">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M545">
+        <v>2.55</v>
+      </c>
+      <c r="N545">
+        <v>2.8</v>
+      </c>
+      <c r="O545">
         <v>3.1</v>
       </c>
-      <c r="N545">
-        <v>2.2</v>
-      </c>
-      <c r="O545">
-        <v>3.25</v>
-      </c>
       <c r="P545">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q545">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R545">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S545">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T545">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U545">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V545">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W545">
         <v>-1</v>
@@ -49006,19 +49006,19 @@
         <v>-1</v>
       </c>
       <c r="Y545">
-        <v>2.2</v>
+        <v>1.625</v>
       </c>
       <c r="Z545">
         <v>-1</v>
       </c>
       <c r="AA545">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB545">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AC545">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="546" spans="1:29">
@@ -49026,7 +49026,7 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>6576071</v>
+        <v>6576070</v>
       </c>
       <c r="C546" t="s">
         <v>28</v>
@@ -49038,76 +49038,76 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F546" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G546" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J546" t="s">
         <v>44</v>
       </c>
       <c r="K546">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="L546">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M546">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="N546">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="O546">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P546">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="Q546">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R546">
+        <v>1.825</v>
+      </c>
+      <c r="S546">
         <v>2.025</v>
       </c>
-      <c r="S546">
-        <v>1.825</v>
-      </c>
       <c r="T546">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U546">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V546">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W546">
         <v>-1</v>
       </c>
       <c r="X546">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Y546">
         <v>-1</v>
       </c>
       <c r="Z546">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA546">
-        <v>-0</v>
+        <v>0.5125</v>
       </c>
       <c r="AB546">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC546">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="547" spans="1:29">
@@ -49115,7 +49115,7 @@
         <v>545</v>
       </c>
       <c r="B547">
-        <v>6576083</v>
+        <v>6576082</v>
       </c>
       <c r="C547" t="s">
         <v>28</v>
@@ -49127,46 +49127,46 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F547" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G547" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J547" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K547">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="L547">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M547">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="N547">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="O547">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P547">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="Q547">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R547">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S547">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T547">
         <v>2.25</v>
@@ -49178,19 +49178,19 @@
         <v>1.875</v>
       </c>
       <c r="W547">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X547">
         <v>-1</v>
       </c>
       <c r="Y547">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z547">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA547">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB547">
         <v>-0.5</v>
@@ -49204,7 +49204,7 @@
         <v>546</v>
       </c>
       <c r="B548">
-        <v>6576070</v>
+        <v>6576071</v>
       </c>
       <c r="C548" t="s">
         <v>28</v>
@@ -49216,76 +49216,76 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F548" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G548" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J548" t="s">
         <v>44</v>
       </c>
       <c r="K548">
+        <v>2.45</v>
+      </c>
+      <c r="L548">
+        <v>3.1</v>
+      </c>
+      <c r="M548">
+        <v>2.625</v>
+      </c>
+      <c r="N548">
+        <v>2.8</v>
+      </c>
+      <c r="O548">
+        <v>3.3</v>
+      </c>
+      <c r="P548">
+        <v>2.55</v>
+      </c>
+      <c r="Q548">
+        <v>0</v>
+      </c>
+      <c r="R548">
+        <v>2.025</v>
+      </c>
+      <c r="S548">
+        <v>1.825</v>
+      </c>
+      <c r="T548">
+        <v>2.25</v>
+      </c>
+      <c r="U548">
+        <v>1.8</v>
+      </c>
+      <c r="V548">
         <v>2.05</v>
       </c>
-      <c r="L548">
-        <v>3.2</v>
-      </c>
-      <c r="M548">
-        <v>3.2</v>
-      </c>
-      <c r="N548">
-        <v>2.05</v>
-      </c>
-      <c r="O548">
-        <v>3.5</v>
-      </c>
-      <c r="P548">
-        <v>3.4</v>
-      </c>
-      <c r="Q548">
-        <v>-0.25</v>
-      </c>
-      <c r="R548">
-        <v>1.825</v>
-      </c>
-      <c r="S548">
-        <v>2.025</v>
-      </c>
-      <c r="T548">
-        <v>2.5</v>
-      </c>
-      <c r="U548">
-        <v>1.925</v>
-      </c>
-      <c r="V548">
-        <v>1.925</v>
-      </c>
       <c r="W548">
         <v>-1</v>
       </c>
       <c r="X548">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="Y548">
         <v>-1</v>
       </c>
       <c r="Z548">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA548">
-        <v>0.5125</v>
+        <v>-0</v>
       </c>
       <c r="AB548">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC548">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="549" spans="1:29">
@@ -49827,7 +49827,7 @@
         <v>553</v>
       </c>
       <c r="B555">
-        <v>6576076</v>
+        <v>6576087</v>
       </c>
       <c r="C555" t="s">
         <v>28</v>
@@ -49839,73 +49839,73 @@
         <v>45070.65625</v>
       </c>
       <c r="F555" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G555" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H555">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I555">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J555" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K555">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="L555">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M555">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="N555">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="O555">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P555">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="Q555">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R555">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S555">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T555">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U555">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V555">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W555">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="X555">
         <v>-1</v>
       </c>
       <c r="Y555">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z555">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA555">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB555">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC555">
         <v>-1</v>
@@ -50005,7 +50005,7 @@
         <v>555</v>
       </c>
       <c r="B557">
-        <v>6576087</v>
+        <v>6576076</v>
       </c>
       <c r="C557" t="s">
         <v>28</v>
@@ -50017,73 +50017,73 @@
         <v>45070.65625</v>
       </c>
       <c r="F557" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G557" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I557">
+        <v>2</v>
+      </c>
+      <c r="J557" t="s">
+        <v>43</v>
+      </c>
+      <c r="K557">
+        <v>6.5</v>
+      </c>
+      <c r="L557">
+        <v>5</v>
+      </c>
+      <c r="M557">
+        <v>1.4</v>
+      </c>
+      <c r="N557">
+        <v>5</v>
+      </c>
+      <c r="O557">
+        <v>4.2</v>
+      </c>
+      <c r="P557">
+        <v>1.666</v>
+      </c>
+      <c r="Q557">
+        <v>0.75</v>
+      </c>
+      <c r="R557">
+        <v>2.05</v>
+      </c>
+      <c r="S557">
+        <v>1.8</v>
+      </c>
+      <c r="T557">
         <v>3</v>
       </c>
-      <c r="J557" t="s">
-        <v>45</v>
-      </c>
-      <c r="K557">
-        <v>2.3</v>
-      </c>
-      <c r="L557">
-        <v>3.2</v>
-      </c>
-      <c r="M557">
-        <v>3</v>
-      </c>
-      <c r="N557">
-        <v>2.45</v>
-      </c>
-      <c r="O557">
-        <v>3.25</v>
-      </c>
-      <c r="P557">
-        <v>3</v>
-      </c>
-      <c r="Q557">
-        <v>0</v>
-      </c>
-      <c r="R557">
-        <v>1.775</v>
-      </c>
-      <c r="S557">
-        <v>2.1</v>
-      </c>
-      <c r="T557">
-        <v>2.25</v>
-      </c>
       <c r="U557">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V557">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W557">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="X557">
         <v>-1</v>
       </c>
       <c r="Y557">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z557">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA557">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB557">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC557">
         <v>-1</v>
@@ -50628,7 +50628,7 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>6576090</v>
+        <v>6576091</v>
       </c>
       <c r="C564" t="s">
         <v>28</v>
@@ -50640,58 +50640,58 @@
         <v>45074.45833333334</v>
       </c>
       <c r="F564" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G564" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H564">
         <v>3</v>
       </c>
       <c r="I564">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J564" t="s">
         <v>43</v>
       </c>
       <c r="K564">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L564">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M564">
         <v>3.6</v>
       </c>
       <c r="N564">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O564">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P564">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q564">
         <v>-0.5</v>
       </c>
       <c r="R564">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S564">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T564">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U564">
+        <v>1.875</v>
+      </c>
+      <c r="V564">
         <v>1.975</v>
       </c>
-      <c r="V564">
-        <v>1.875</v>
-      </c>
       <c r="W564">
-        <v>0.909</v>
+        <v>0.8</v>
       </c>
       <c r="X564">
         <v>-1</v>
@@ -50700,13 +50700,13 @@
         <v>-1</v>
       </c>
       <c r="Z564">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA564">
         <v>-1</v>
       </c>
       <c r="AB564">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC564">
         <v>-1</v>
@@ -50717,7 +50717,7 @@
         <v>563</v>
       </c>
       <c r="B565">
-        <v>6576091</v>
+        <v>6576090</v>
       </c>
       <c r="C565" t="s">
         <v>28</v>
@@ -50729,58 +50729,58 @@
         <v>45074.45833333334</v>
       </c>
       <c r="F565" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G565" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H565">
         <v>3</v>
       </c>
       <c r="I565">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J565" t="s">
         <v>43</v>
       </c>
       <c r="K565">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L565">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M565">
         <v>3.6</v>
       </c>
       <c r="N565">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O565">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P565">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q565">
         <v>-0.5</v>
       </c>
       <c r="R565">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S565">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T565">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U565">
+        <v>1.975</v>
+      </c>
+      <c r="V565">
         <v>1.875</v>
       </c>
-      <c r="V565">
-        <v>1.975</v>
-      </c>
       <c r="W565">
-        <v>0.8</v>
+        <v>0.909</v>
       </c>
       <c r="X565">
         <v>-1</v>
@@ -50789,13 +50789,13 @@
         <v>-1</v>
       </c>
       <c r="Z565">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA565">
         <v>-1</v>
       </c>
       <c r="AB565">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC565">
         <v>-1</v>
@@ -55612,7 +55612,7 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>6845509</v>
+        <v>6844753</v>
       </c>
       <c r="C620" t="s">
         <v>28</v>
@@ -55624,76 +55624,76 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F620" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G620" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I620">
         <v>0</v>
       </c>
       <c r="J620" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K620">
-        <v>7.5</v>
+        <v>1.666</v>
       </c>
       <c r="L620">
+        <v>3.8</v>
+      </c>
+      <c r="M620">
         <v>5</v>
       </c>
-      <c r="M620">
-        <v>1.363</v>
-      </c>
       <c r="N620">
-        <v>5.75</v>
+        <v>1.727</v>
       </c>
       <c r="O620">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P620">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q620">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R620">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S620">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T620">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U620">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="V620">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W620">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X620">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y620">
         <v>-1</v>
       </c>
       <c r="Z620">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA620">
         <v>-1</v>
       </c>
       <c r="AB620">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AC620">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="621" spans="1:29">
@@ -55701,7 +55701,7 @@
         <v>619</v>
       </c>
       <c r="B621">
-        <v>6844753</v>
+        <v>6845509</v>
       </c>
       <c r="C621" t="s">
         <v>28</v>
@@ -55713,76 +55713,76 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F621" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G621" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H621">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I621">
         <v>0</v>
       </c>
       <c r="J621" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K621">
-        <v>1.666</v>
+        <v>7.5</v>
       </c>
       <c r="L621">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="M621">
-        <v>5</v>
+        <v>1.363</v>
       </c>
       <c r="N621">
-        <v>1.727</v>
+        <v>5.75</v>
       </c>
       <c r="O621">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P621">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q621">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R621">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S621">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T621">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U621">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="V621">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W621">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X621">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y621">
         <v>-1</v>
       </c>
       <c r="Z621">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA621">
         <v>-1</v>
       </c>
       <c r="AB621">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AC621">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="622" spans="1:29">
@@ -56057,7 +56057,7 @@
         <v>623</v>
       </c>
       <c r="B625">
-        <v>6844757</v>
+        <v>6844837</v>
       </c>
       <c r="C625" t="s">
         <v>28</v>
@@ -56069,49 +56069,49 @@
         <v>45231.69791666666</v>
       </c>
       <c r="F625" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G625" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I625">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J625" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K625">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="L625">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M625">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="N625">
-        <v>2.45</v>
+        <v>1.45</v>
       </c>
       <c r="O625">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="P625">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="Q625">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R625">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S625">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T625">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U625">
         <v>1.9</v>
@@ -56120,25 +56120,25 @@
         <v>1.95</v>
       </c>
       <c r="W625">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X625">
         <v>-1</v>
       </c>
       <c r="Y625">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z625">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA625">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB625">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC625">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="626" spans="1:29">
@@ -56146,7 +56146,7 @@
         <v>624</v>
       </c>
       <c r="B626">
-        <v>6844758</v>
+        <v>6844757</v>
       </c>
       <c r="C626" t="s">
         <v>28</v>
@@ -56158,73 +56158,73 @@
         <v>45231.69791666666</v>
       </c>
       <c r="F626" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G626" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H626">
         <v>2</v>
       </c>
       <c r="I626">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J626" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K626">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="L626">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M626">
+        <v>2.7</v>
+      </c>
+      <c r="N626">
+        <v>2.45</v>
+      </c>
+      <c r="O626">
+        <v>3.25</v>
+      </c>
+      <c r="P626">
         <v>2.9</v>
       </c>
-      <c r="N626">
-        <v>3.75</v>
-      </c>
-      <c r="O626">
-        <v>3.1</v>
-      </c>
-      <c r="P626">
-        <v>2.15</v>
-      </c>
       <c r="Q626">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R626">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S626">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T626">
         <v>2.25</v>
       </c>
       <c r="U626">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V626">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W626">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X626">
         <v>-1</v>
       </c>
       <c r="Y626">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z626">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA626">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB626">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC626">
         <v>-1</v>
@@ -56235,7 +56235,7 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>6844837</v>
+        <v>6844754</v>
       </c>
       <c r="C627" t="s">
         <v>28</v>
@@ -56247,58 +56247,58 @@
         <v>45231.69791666666</v>
       </c>
       <c r="F627" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G627" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H627">
+        <v>2</v>
+      </c>
+      <c r="I627">
         <v>1</v>
-      </c>
-      <c r="I627">
-        <v>0</v>
       </c>
       <c r="J627" t="s">
         <v>43</v>
       </c>
       <c r="K627">
-        <v>1.727</v>
+        <v>1.181</v>
       </c>
       <c r="L627">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="M627">
-        <v>4.5</v>
+        <v>13</v>
       </c>
       <c r="N627">
-        <v>1.45</v>
+        <v>1.2</v>
       </c>
       <c r="O627">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="P627">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="Q627">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R627">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S627">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T627">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U627">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V627">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W627">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="X627">
         <v>-1</v>
@@ -56307,16 +56307,16 @@
         <v>-1</v>
       </c>
       <c r="Z627">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA627">
+        <v>1</v>
+      </c>
+      <c r="AB627">
+        <v>0</v>
+      </c>
+      <c r="AC627">
         <v>-0</v>
-      </c>
-      <c r="AB627">
-        <v>-1</v>
-      </c>
-      <c r="AC627">
-        <v>0.95</v>
       </c>
     </row>
     <row r="628" spans="1:29">
@@ -56324,7 +56324,7 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>6844754</v>
+        <v>6844758</v>
       </c>
       <c r="C628" t="s">
         <v>28</v>
@@ -56336,10 +56336,10 @@
         <v>45231.69791666666</v>
       </c>
       <c r="F628" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G628" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H628">
         <v>2</v>
@@ -56351,43 +56351,43 @@
         <v>43</v>
       </c>
       <c r="K628">
-        <v>1.181</v>
+        <v>2.5</v>
       </c>
       <c r="L628">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="M628">
-        <v>13</v>
+        <v>2.9</v>
       </c>
       <c r="N628">
-        <v>1.2</v>
+        <v>3.75</v>
       </c>
       <c r="O628">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="P628">
-        <v>13</v>
+        <v>2.15</v>
       </c>
       <c r="Q628">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R628">
+        <v>2</v>
+      </c>
+      <c r="S628">
         <v>1.85</v>
       </c>
-      <c r="S628">
-        <v>2</v>
-      </c>
       <c r="T628">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U628">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V628">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W628">
-        <v>0.2</v>
+        <v>2.75</v>
       </c>
       <c r="X628">
         <v>-1</v>
@@ -56396,16 +56396,16 @@
         <v>-1</v>
       </c>
       <c r="Z628">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA628">
+        <v>-1</v>
+      </c>
+      <c r="AB628">
         <v>1</v>
       </c>
-      <c r="AB628">
-        <v>0</v>
-      </c>
       <c r="AC628">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="629" spans="1:29">
@@ -58104,7 +58104,7 @@
         <v>646</v>
       </c>
       <c r="B648">
-        <v>6844775</v>
+        <v>6844773</v>
       </c>
       <c r="C648" t="s">
         <v>28</v>
@@ -58116,76 +58116,76 @@
         <v>45262.5</v>
       </c>
       <c r="F648" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G648" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H648">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I648">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J648" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K648">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="L648">
         <v>3.25</v>
       </c>
       <c r="M648">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="N648">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="O648">
         <v>3.3</v>
       </c>
       <c r="P648">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q648">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R648">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S648">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T648">
         <v>2.25</v>
       </c>
       <c r="U648">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V648">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W648">
         <v>-1</v>
       </c>
       <c r="X648">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y648">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z648">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA648">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AB648">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC648">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:29">
@@ -58193,7 +58193,7 @@
         <v>647</v>
       </c>
       <c r="B649">
-        <v>6844773</v>
+        <v>6844775</v>
       </c>
       <c r="C649" t="s">
         <v>28</v>
@@ -58205,76 +58205,76 @@
         <v>45262.5</v>
       </c>
       <c r="F649" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G649" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I649">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J649" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K649">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="L649">
         <v>3.25</v>
       </c>
       <c r="M649">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="N649">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="O649">
         <v>3.3</v>
       </c>
       <c r="P649">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q649">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R649">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S649">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T649">
         <v>2.25</v>
       </c>
       <c r="U649">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V649">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W649">
         <v>-1</v>
       </c>
       <c r="X649">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y649">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z649">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA649">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AB649">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC649">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="650" spans="1:29">
@@ -59795,7 +59795,7 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>6845517</v>
+        <v>6844805</v>
       </c>
       <c r="C667" t="s">
         <v>28</v>
@@ -59807,76 +59807,76 @@
         <v>45276.5</v>
       </c>
       <c r="F667" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G667" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I667">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J667" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K667">
-        <v>1.25</v>
+        <v>3.5</v>
       </c>
       <c r="L667">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M667">
-        <v>10</v>
+        <v>2.1</v>
       </c>
       <c r="N667">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="O667">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P667">
-        <v>12</v>
+        <v>2.05</v>
       </c>
       <c r="Q667">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R667">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S667">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T667">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U667">
+        <v>1.825</v>
+      </c>
+      <c r="V667">
         <v>2.025</v>
       </c>
-      <c r="V667">
-        <v>1.825</v>
-      </c>
       <c r="W667">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X667">
         <v>-1</v>
       </c>
       <c r="Y667">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="Z667">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA667">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB667">
         <v>-1</v>
       </c>
       <c r="AC667">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="668" spans="1:29">
@@ -59884,7 +59884,7 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>6844805</v>
+        <v>6845517</v>
       </c>
       <c r="C668" t="s">
         <v>28</v>
@@ -59896,76 +59896,76 @@
         <v>45276.5</v>
       </c>
       <c r="F668" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G668" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H668">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I668">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J668" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K668">
+        <v>1.25</v>
+      </c>
+      <c r="L668">
+        <v>6</v>
+      </c>
+      <c r="M668">
+        <v>10</v>
+      </c>
+      <c r="N668">
+        <v>1.2</v>
+      </c>
+      <c r="O668">
+        <v>7</v>
+      </c>
+      <c r="P668">
+        <v>12</v>
+      </c>
+      <c r="Q668">
+        <v>-2</v>
+      </c>
+      <c r="R668">
+        <v>1.95</v>
+      </c>
+      <c r="S668">
+        <v>1.9</v>
+      </c>
+      <c r="T668">
         <v>3.5</v>
       </c>
-      <c r="L668">
-        <v>3.25</v>
-      </c>
-      <c r="M668">
-        <v>2.1</v>
-      </c>
-      <c r="N668">
-        <v>3.6</v>
-      </c>
-      <c r="O668">
-        <v>3.4</v>
-      </c>
-      <c r="P668">
-        <v>2.05</v>
-      </c>
-      <c r="Q668">
-        <v>0.5</v>
-      </c>
-      <c r="R668">
-        <v>1.8</v>
-      </c>
-      <c r="S668">
-        <v>2.05</v>
-      </c>
-      <c r="T668">
-        <v>2.25</v>
-      </c>
       <c r="U668">
+        <v>2.025</v>
+      </c>
+      <c r="V668">
         <v>1.825</v>
       </c>
-      <c r="V668">
-        <v>2.025</v>
-      </c>
       <c r="W668">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X668">
         <v>-1</v>
       </c>
       <c r="Y668">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="Z668">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA668">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB668">
         <v>-1</v>
       </c>
       <c r="AC668">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="669" spans="1:29">
@@ -60596,7 +60596,7 @@
         <v>674</v>
       </c>
       <c r="B676">
-        <v>6844800</v>
+        <v>6844798</v>
       </c>
       <c r="C676" t="s">
         <v>28</v>
@@ -60608,76 +60608,76 @@
         <v>45287.69791666666</v>
       </c>
       <c r="F676" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G676" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H676">
         <v>0</v>
       </c>
       <c r="I676">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J676" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K676">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="L676">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M676">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="N676">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="O676">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P676">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q676">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R676">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S676">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T676">
         <v>2</v>
       </c>
       <c r="U676">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V676">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W676">
         <v>-1</v>
       </c>
       <c r="X676">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y676">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z676">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA676">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
       <c r="AB676">
         <v>-1</v>
       </c>
       <c r="AC676">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="677" spans="1:29">
@@ -60685,7 +60685,7 @@
         <v>675</v>
       </c>
       <c r="B677">
-        <v>6844798</v>
+        <v>6844800</v>
       </c>
       <c r="C677" t="s">
         <v>28</v>
@@ -60697,76 +60697,76 @@
         <v>45287.69791666666</v>
       </c>
       <c r="F677" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G677" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H677">
         <v>0</v>
       </c>
       <c r="I677">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J677" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K677">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="L677">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M677">
+        <v>2.625</v>
+      </c>
+      <c r="N677">
+        <v>2.875</v>
+      </c>
+      <c r="O677">
+        <v>2.9</v>
+      </c>
+      <c r="P677">
         <v>2.75</v>
       </c>
-      <c r="N677">
-        <v>2.3</v>
-      </c>
-      <c r="O677">
-        <v>3</v>
-      </c>
-      <c r="P677">
-        <v>3.4</v>
-      </c>
       <c r="Q677">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R677">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S677">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T677">
         <v>2</v>
       </c>
       <c r="U677">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V677">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W677">
         <v>-1</v>
       </c>
       <c r="X677">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y677">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z677">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA677">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
       <c r="AB677">
         <v>-1</v>
       </c>
       <c r="AC677">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="678" spans="1:29">
@@ -61486,7 +61486,7 @@
         <v>684</v>
       </c>
       <c r="B686">
-        <v>6844809</v>
+        <v>6844807</v>
       </c>
       <c r="C686" t="s">
         <v>28</v>
@@ -61498,73 +61498,73 @@
         <v>45293.5</v>
       </c>
       <c r="F686" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G686" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J686" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K686">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L686">
+        <v>3.25</v>
+      </c>
+      <c r="M686">
+        <v>5</v>
+      </c>
+      <c r="N686">
+        <v>1.909</v>
+      </c>
+      <c r="O686">
         <v>3.4</v>
       </c>
-      <c r="M686">
-        <v>2.3</v>
-      </c>
-      <c r="N686">
-        <v>3.25</v>
-      </c>
-      <c r="O686">
-        <v>3.3</v>
-      </c>
       <c r="P686">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="Q686">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R686">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S686">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T686">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U686">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V686">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W686">
         <v>-1</v>
       </c>
       <c r="X686">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y686">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z686">
         <v>-1</v>
       </c>
       <c r="AA686">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB686">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC686">
         <v>-1</v>
@@ -61575,7 +61575,7 @@
         <v>685</v>
       </c>
       <c r="B687">
-        <v>6844807</v>
+        <v>6844809</v>
       </c>
       <c r="C687" t="s">
         <v>28</v>
@@ -61587,73 +61587,73 @@
         <v>45293.5</v>
       </c>
       <c r="F687" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G687" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J687" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K687">
+        <v>3</v>
+      </c>
+      <c r="L687">
+        <v>3.4</v>
+      </c>
+      <c r="M687">
+        <v>2.3</v>
+      </c>
+      <c r="N687">
+        <v>3.25</v>
+      </c>
+      <c r="O687">
+        <v>3.3</v>
+      </c>
+      <c r="P687">
+        <v>2.3</v>
+      </c>
+      <c r="Q687">
+        <v>0.25</v>
+      </c>
+      <c r="R687">
+        <v>1.85</v>
+      </c>
+      <c r="S687">
+        <v>2</v>
+      </c>
+      <c r="T687">
+        <v>2.25</v>
+      </c>
+      <c r="U687">
         <v>1.8</v>
       </c>
-      <c r="L687">
-        <v>3.25</v>
-      </c>
-      <c r="M687">
-        <v>5</v>
-      </c>
-      <c r="N687">
-        <v>1.909</v>
-      </c>
-      <c r="O687">
-        <v>3.4</v>
-      </c>
-      <c r="P687">
-        <v>4</v>
-      </c>
-      <c r="Q687">
-        <v>-0.5</v>
-      </c>
-      <c r="R687">
-        <v>1.975</v>
-      </c>
-      <c r="S687">
-        <v>1.875</v>
-      </c>
-      <c r="T687">
-        <v>2.5</v>
-      </c>
-      <c r="U687">
-        <v>1.975</v>
-      </c>
       <c r="V687">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W687">
         <v>-1</v>
       </c>
       <c r="X687">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y687">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z687">
         <v>-1</v>
       </c>
       <c r="AA687">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB687">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC687">
         <v>-1</v>
@@ -62554,7 +62554,7 @@
         <v>696</v>
       </c>
       <c r="B698">
-        <v>7668001</v>
+        <v>7572459</v>
       </c>
       <c r="C698" t="s">
         <v>28</v>
@@ -62566,46 +62566,46 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F698" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G698" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="K698">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="L698">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M698">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="N698">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="O698">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P698">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="Q698">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R698">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="S698">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T698">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U698">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V698">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W698">
         <v>0</v>
@@ -62628,7 +62628,7 @@
         <v>697</v>
       </c>
       <c r="B699">
-        <v>7572459</v>
+        <v>7668001</v>
       </c>
       <c r="C699" t="s">
         <v>28</v>
@@ -62640,46 +62640,46 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F699" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G699" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="K699">
+        <v>1.75</v>
+      </c>
+      <c r="L699">
+        <v>3.5</v>
+      </c>
+      <c r="M699">
+        <v>4.75</v>
+      </c>
+      <c r="N699">
+        <v>1.7</v>
+      </c>
+      <c r="O699">
+        <v>3.6</v>
+      </c>
+      <c r="P699">
+        <v>5.25</v>
+      </c>
+      <c r="Q699">
+        <v>-0.75</v>
+      </c>
+      <c r="R699">
+        <v>1.925</v>
+      </c>
+      <c r="S699">
+        <v>1.925</v>
+      </c>
+      <c r="T699">
         <v>2.5</v>
       </c>
-      <c r="L699">
-        <v>3.2</v>
-      </c>
-      <c r="M699">
-        <v>2.8</v>
-      </c>
-      <c r="N699">
-        <v>2.4</v>
-      </c>
-      <c r="O699">
-        <v>3.25</v>
-      </c>
-      <c r="P699">
-        <v>3</v>
-      </c>
-      <c r="Q699">
-        <v>-0.25</v>
-      </c>
-      <c r="R699">
-        <v>2.1</v>
-      </c>
-      <c r="S699">
-        <v>1.775</v>
-      </c>
-      <c r="T699">
-        <v>2.25</v>
-      </c>
       <c r="U699">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V699">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W699">
         <v>0</v>
@@ -62972,10 +62972,10 @@
         <v>2.25</v>
       </c>
       <c r="U703">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V703">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W703">
         <v>0</v>

--- a/Scotland Premiership/Scotland Premiership.xlsx
+++ b/Scotland Premiership/Scotland Premiership.xlsx
@@ -30692,7 +30692,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>5169276</v>
+        <v>5169591</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -30704,76 +30704,76 @@
         <v>44772.45833333334</v>
       </c>
       <c r="F340" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G340" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340">
         <v>1</v>
       </c>
       <c r="J340" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K340">
-        <v>2.625</v>
+        <v>1.666</v>
       </c>
       <c r="L340">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M340">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="N340">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="O340">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P340">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q340">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R340">
+        <v>1.9</v>
+      </c>
+      <c r="S340">
+        <v>1.95</v>
+      </c>
+      <c r="T340">
+        <v>2.5</v>
+      </c>
+      <c r="U340">
         <v>1.85</v>
       </c>
-      <c r="S340">
-        <v>2</v>
-      </c>
-      <c r="T340">
-        <v>2</v>
-      </c>
-      <c r="U340">
-        <v>1.925</v>
-      </c>
       <c r="V340">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W340">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X340">
         <v>-1</v>
       </c>
       <c r="Y340">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z340">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA340">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB340">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC340">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="341" spans="1:29">
@@ -30781,7 +30781,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>5169591</v>
+        <v>5169276</v>
       </c>
       <c r="C341" t="s">
         <v>28</v>
@@ -30793,76 +30793,76 @@
         <v>44772.45833333334</v>
       </c>
       <c r="F341" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G341" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341">
         <v>1</v>
       </c>
       <c r="J341" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K341">
-        <v>1.666</v>
+        <v>2.625</v>
       </c>
       <c r="L341">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M341">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="N341">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="O341">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P341">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q341">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R341">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S341">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T341">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U341">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V341">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W341">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X341">
         <v>-1</v>
       </c>
       <c r="Y341">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z341">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA341">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB341">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC341">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="342" spans="1:29">
@@ -35231,7 +35231,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>5169302</v>
+        <v>5169301</v>
       </c>
       <c r="C391" t="s">
         <v>28</v>
@@ -35243,76 +35243,76 @@
         <v>44842.45833333334</v>
       </c>
       <c r="F391" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G391" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H391">
+        <v>0</v>
+      </c>
+      <c r="I391">
+        <v>1</v>
+      </c>
+      <c r="J391" t="s">
+        <v>45</v>
+      </c>
+      <c r="K391">
+        <v>1.909</v>
+      </c>
+      <c r="L391">
+        <v>3.2</v>
+      </c>
+      <c r="M391">
         <v>4</v>
       </c>
-      <c r="I391">
-        <v>0</v>
-      </c>
-      <c r="J391" t="s">
-        <v>43</v>
-      </c>
-      <c r="K391">
-        <v>1.25</v>
-      </c>
-      <c r="L391">
-        <v>5.5</v>
-      </c>
-      <c r="M391">
-        <v>11</v>
-      </c>
       <c r="N391">
-        <v>1.2</v>
+        <v>1.909</v>
       </c>
       <c r="O391">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="P391">
-        <v>15</v>
+        <v>4.333</v>
       </c>
       <c r="Q391">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R391">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S391">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T391">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U391">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V391">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W391">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X391">
         <v>-1</v>
       </c>
       <c r="Y391">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z391">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA391">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB391">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC391">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="392" spans="1:29">
@@ -35320,7 +35320,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>5169301</v>
+        <v>5169302</v>
       </c>
       <c r="C392" t="s">
         <v>28</v>
@@ -35332,76 +35332,76 @@
         <v>44842.45833333334</v>
       </c>
       <c r="F392" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G392" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I392">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J392" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K392">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="L392">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="M392">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N392">
-        <v>1.909</v>
+        <v>1.2</v>
       </c>
       <c r="O392">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="P392">
-        <v>4.333</v>
+        <v>15</v>
       </c>
       <c r="Q392">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R392">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S392">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T392">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U392">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V392">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W392">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X392">
         <v>-1</v>
       </c>
       <c r="Y392">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z392">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA392">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB392">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC392">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="393" spans="1:29">
@@ -36566,7 +36566,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>5169308</v>
+        <v>5169617</v>
       </c>
       <c r="C406" t="s">
         <v>28</v>
@@ -36578,58 +36578,58 @@
         <v>44856.45833333334</v>
       </c>
       <c r="F406" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G406" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I406">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J406" t="s">
         <v>43</v>
       </c>
       <c r="K406">
+        <v>2.1</v>
+      </c>
+      <c r="L406">
+        <v>3.2</v>
+      </c>
+      <c r="M406">
+        <v>3.6</v>
+      </c>
+      <c r="N406">
         <v>1.909</v>
-      </c>
-      <c r="L406">
-        <v>3.25</v>
-      </c>
-      <c r="M406">
-        <v>4.5</v>
-      </c>
-      <c r="N406">
-        <v>2.05</v>
       </c>
       <c r="O406">
         <v>3.3</v>
       </c>
       <c r="P406">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q406">
         <v>-0.5</v>
       </c>
       <c r="R406">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S406">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T406">
         <v>2.25</v>
       </c>
       <c r="U406">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V406">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W406">
-        <v>1.05</v>
+        <v>0.909</v>
       </c>
       <c r="X406">
         <v>-1</v>
@@ -36638,16 +36638,16 @@
         <v>-1</v>
       </c>
       <c r="Z406">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA406">
         <v>-1</v>
       </c>
       <c r="AB406">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC406">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="407" spans="1:29">
@@ -36655,7 +36655,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>5169617</v>
+        <v>5169308</v>
       </c>
       <c r="C407" t="s">
         <v>28</v>
@@ -36667,58 +36667,58 @@
         <v>44856.45833333334</v>
       </c>
       <c r="F407" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G407" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H407">
+        <v>2</v>
+      </c>
+      <c r="I407">
         <v>1</v>
-      </c>
-      <c r="I407">
-        <v>0</v>
       </c>
       <c r="J407" t="s">
         <v>43</v>
       </c>
       <c r="K407">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L407">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M407">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N407">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O407">
         <v>3.3</v>
       </c>
       <c r="P407">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q407">
         <v>-0.5</v>
       </c>
       <c r="R407">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S407">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T407">
         <v>2.25</v>
       </c>
       <c r="U407">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V407">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W407">
-        <v>0.909</v>
+        <v>1.05</v>
       </c>
       <c r="X407">
         <v>-1</v>
@@ -36727,16 +36727,16 @@
         <v>-1</v>
       </c>
       <c r="Z407">
+        <v>1</v>
+      </c>
+      <c r="AA407">
+        <v>-1</v>
+      </c>
+      <c r="AB407">
         <v>0.925</v>
       </c>
-      <c r="AA407">
-        <v>-1</v>
-      </c>
-      <c r="AB407">
-        <v>-1</v>
-      </c>
       <c r="AC407">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="408" spans="1:29">
@@ -39058,7 +39058,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>5169322</v>
+        <v>5169628</v>
       </c>
       <c r="C434" t="s">
         <v>28</v>
@@ -39070,73 +39070,73 @@
         <v>44912.5</v>
       </c>
       <c r="F434" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G434" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H434">
+        <v>3</v>
+      </c>
+      <c r="I434">
         <v>1</v>
       </c>
-      <c r="I434">
-        <v>2</v>
-      </c>
       <c r="J434" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K434">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="L434">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M434">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N434">
+        <v>1.666</v>
+      </c>
+      <c r="O434">
+        <v>3.8</v>
+      </c>
+      <c r="P434">
+        <v>5</v>
+      </c>
+      <c r="Q434">
+        <v>-0.75</v>
+      </c>
+      <c r="R434">
+        <v>1.8</v>
+      </c>
+      <c r="S434">
+        <v>2.05</v>
+      </c>
+      <c r="T434">
         <v>2.5</v>
       </c>
-      <c r="O434">
-        <v>3.2</v>
-      </c>
-      <c r="P434">
-        <v>3</v>
-      </c>
-      <c r="Q434">
-        <v>-0.25</v>
-      </c>
-      <c r="R434">
-        <v>2.075</v>
-      </c>
-      <c r="S434">
-        <v>1.725</v>
-      </c>
-      <c r="T434">
-        <v>2</v>
-      </c>
       <c r="U434">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V434">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W434">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X434">
         <v>-1</v>
       </c>
       <c r="Y434">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z434">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA434">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB434">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC434">
         <v>-1</v>
@@ -39147,7 +39147,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>5169628</v>
+        <v>5169322</v>
       </c>
       <c r="C435" t="s">
         <v>28</v>
@@ -39159,73 +39159,73 @@
         <v>44912.5</v>
       </c>
       <c r="F435" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G435" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H435">
+        <v>1</v>
+      </c>
+      <c r="I435">
+        <v>2</v>
+      </c>
+      <c r="J435" t="s">
+        <v>45</v>
+      </c>
+      <c r="K435">
+        <v>2.6</v>
+      </c>
+      <c r="L435">
+        <v>3.2</v>
+      </c>
+      <c r="M435">
+        <v>2.75</v>
+      </c>
+      <c r="N435">
+        <v>2.5</v>
+      </c>
+      <c r="O435">
+        <v>3.2</v>
+      </c>
+      <c r="P435">
         <v>3</v>
       </c>
-      <c r="I435">
-        <v>1</v>
-      </c>
-      <c r="J435" t="s">
-        <v>43</v>
-      </c>
-      <c r="K435">
-        <v>1.7</v>
-      </c>
-      <c r="L435">
-        <v>3.6</v>
-      </c>
-      <c r="M435">
-        <v>5</v>
-      </c>
-      <c r="N435">
-        <v>1.666</v>
-      </c>
-      <c r="O435">
-        <v>3.8</v>
-      </c>
-      <c r="P435">
-        <v>5</v>
-      </c>
       <c r="Q435">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R435">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="S435">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="T435">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U435">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V435">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W435">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X435">
         <v>-1</v>
       </c>
       <c r="Y435">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z435">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA435">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB435">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC435">
         <v>-1</v>
@@ -39770,7 +39770,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>5169864</v>
+        <v>5169324</v>
       </c>
       <c r="C442" t="s">
         <v>28</v>
@@ -39782,73 +39782,73 @@
         <v>44919.45833333334</v>
       </c>
       <c r="F442" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G442" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I442">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J442" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K442">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="L442">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M442">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N442">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="O442">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P442">
-        <v>2.15</v>
+        <v>4.8</v>
       </c>
       <c r="Q442">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R442">
+        <v>1.875</v>
+      </c>
+      <c r="S442">
         <v>1.975</v>
       </c>
-      <c r="S442">
-        <v>1.875</v>
-      </c>
       <c r="T442">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U442">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V442">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W442">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X442">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y442">
         <v>-1</v>
       </c>
       <c r="Z442">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AA442">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB442">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC442">
         <v>-1</v>
@@ -39859,7 +39859,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>5169324</v>
+        <v>5169864</v>
       </c>
       <c r="C443" t="s">
         <v>28</v>
@@ -39871,73 +39871,73 @@
         <v>44919.45833333334</v>
       </c>
       <c r="F443" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G443" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H443">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I443">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J443" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K443">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="L443">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M443">
+        <v>2</v>
+      </c>
+      <c r="N443">
+        <v>3.1</v>
+      </c>
+      <c r="O443">
         <v>3.6</v>
       </c>
-      <c r="N443">
-        <v>1.666</v>
-      </c>
-      <c r="O443">
-        <v>4</v>
-      </c>
       <c r="P443">
-        <v>4.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q443">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R443">
+        <v>1.975</v>
+      </c>
+      <c r="S443">
         <v>1.875</v>
       </c>
-      <c r="S443">
-        <v>1.975</v>
-      </c>
       <c r="T443">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U443">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V443">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W443">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X443">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y443">
         <v>-1</v>
       </c>
       <c r="Z443">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AA443">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB443">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC443">
         <v>-1</v>
@@ -39948,7 +39948,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>5169632</v>
+        <v>5169865</v>
       </c>
       <c r="C444" t="s">
         <v>28</v>
@@ -39960,10 +39960,10 @@
         <v>44923.69791666666</v>
       </c>
       <c r="F444" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G444" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H444">
         <v>3</v>
@@ -39975,34 +39975,34 @@
         <v>43</v>
       </c>
       <c r="K444">
-        <v>2.6</v>
+        <v>1.25</v>
       </c>
       <c r="L444">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="M444">
-        <v>2.75</v>
+        <v>12</v>
       </c>
       <c r="N444">
-        <v>1.909</v>
+        <v>1.2</v>
       </c>
       <c r="O444">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="P444">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="Q444">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R444">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S444">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T444">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U444">
         <v>1.95</v>
@@ -40011,7 +40011,7 @@
         <v>1.9</v>
       </c>
       <c r="W444">
-        <v>0.909</v>
+        <v>0.2</v>
       </c>
       <c r="X444">
         <v>-1</v>
@@ -40020,16 +40020,16 @@
         <v>-1</v>
       </c>
       <c r="Z444">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA444">
         <v>-1</v>
       </c>
       <c r="AB444">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC444">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="445" spans="1:29">
@@ -40037,7 +40037,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>5169327</v>
+        <v>5169326</v>
       </c>
       <c r="C445" t="s">
         <v>28</v>
@@ -40049,76 +40049,76 @@
         <v>44923.69791666666</v>
       </c>
       <c r="F445" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G445" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I445">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J445" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K445">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="L445">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M445">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="N445">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="O445">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P445">
+        <v>2.625</v>
+      </c>
+      <c r="Q445">
+        <v>0</v>
+      </c>
+      <c r="R445">
+        <v>2.025</v>
+      </c>
+      <c r="S445">
+        <v>1.825</v>
+      </c>
+      <c r="T445">
+        <v>2.25</v>
+      </c>
+      <c r="U445">
+        <v>1.975</v>
+      </c>
+      <c r="V445">
+        <v>1.875</v>
+      </c>
+      <c r="W445">
+        <v>-1</v>
+      </c>
+      <c r="X445">
         <v>2.2</v>
       </c>
-      <c r="Q445">
-        <v>0.25</v>
-      </c>
-      <c r="R445">
-        <v>1.95</v>
-      </c>
-      <c r="S445">
-        <v>1.9</v>
-      </c>
-      <c r="T445">
-        <v>2.5</v>
-      </c>
-      <c r="U445">
-        <v>1.925</v>
-      </c>
-      <c r="V445">
-        <v>1.925</v>
-      </c>
-      <c r="W445">
-        <v>-1</v>
-      </c>
-      <c r="X445">
-        <v>-1</v>
-      </c>
       <c r="Y445">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z445">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA445">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB445">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC445">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="446" spans="1:29">
@@ -40126,7 +40126,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>5169326</v>
+        <v>5169634</v>
       </c>
       <c r="C446" t="s">
         <v>28</v>
@@ -40138,76 +40138,76 @@
         <v>44923.69791666666</v>
       </c>
       <c r="F446" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G446" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H446">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I446">
         <v>1</v>
       </c>
       <c r="J446" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K446">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="L446">
         <v>3.4</v>
       </c>
       <c r="M446">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="N446">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="O446">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P446">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="Q446">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R446">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S446">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T446">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U446">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V446">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W446">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X446">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y446">
         <v>-1</v>
       </c>
       <c r="Z446">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA446">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB446">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC446">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="447" spans="1:29">
@@ -40215,7 +40215,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>5169634</v>
+        <v>5169632</v>
       </c>
       <c r="C447" t="s">
         <v>28</v>
@@ -40227,40 +40227,40 @@
         <v>44923.69791666666</v>
       </c>
       <c r="F447" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G447" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I447">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J447" t="s">
         <v>43</v>
       </c>
       <c r="K447">
+        <v>2.6</v>
+      </c>
+      <c r="L447">
         <v>3.2</v>
       </c>
-      <c r="L447">
+      <c r="M447">
+        <v>2.75</v>
+      </c>
+      <c r="N447">
+        <v>1.909</v>
+      </c>
+      <c r="O447">
         <v>3.4</v>
       </c>
-      <c r="M447">
-        <v>2.2</v>
-      </c>
-      <c r="N447">
-        <v>3</v>
-      </c>
-      <c r="O447">
-        <v>3.6</v>
-      </c>
       <c r="P447">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q447">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R447">
         <v>1.925</v>
@@ -40269,7 +40269,7 @@
         <v>1.925</v>
       </c>
       <c r="T447">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U447">
         <v>1.95</v>
@@ -40278,7 +40278,7 @@
         <v>1.9</v>
       </c>
       <c r="W447">
-        <v>2</v>
+        <v>0.909</v>
       </c>
       <c r="X447">
         <v>-1</v>
@@ -40304,7 +40304,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>5169865</v>
+        <v>5169327</v>
       </c>
       <c r="C448" t="s">
         <v>28</v>
@@ -40316,76 +40316,76 @@
         <v>44923.69791666666</v>
       </c>
       <c r="F448" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G448" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H448">
+        <v>2</v>
+      </c>
+      <c r="I448">
         <v>3</v>
       </c>
-      <c r="I448">
-        <v>0</v>
-      </c>
       <c r="J448" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K448">
-        <v>1.25</v>
+        <v>2.7</v>
       </c>
       <c r="L448">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M448">
-        <v>12</v>
+        <v>2.6</v>
       </c>
       <c r="N448">
+        <v>3.1</v>
+      </c>
+      <c r="O448">
+        <v>3.6</v>
+      </c>
+      <c r="P448">
+        <v>2.2</v>
+      </c>
+      <c r="Q448">
+        <v>0.25</v>
+      </c>
+      <c r="R448">
+        <v>1.95</v>
+      </c>
+      <c r="S448">
+        <v>1.9</v>
+      </c>
+      <c r="T448">
+        <v>2.5</v>
+      </c>
+      <c r="U448">
+        <v>1.925</v>
+      </c>
+      <c r="V448">
+        <v>1.925</v>
+      </c>
+      <c r="W448">
+        <v>-1</v>
+      </c>
+      <c r="X448">
+        <v>-1</v>
+      </c>
+      <c r="Y448">
         <v>1.2</v>
       </c>
-      <c r="O448">
-        <v>8</v>
-      </c>
-      <c r="P448">
-        <v>10</v>
-      </c>
-      <c r="Q448">
-        <v>-2</v>
-      </c>
-      <c r="R448">
-        <v>2.05</v>
-      </c>
-      <c r="S448">
-        <v>1.8</v>
-      </c>
-      <c r="T448">
-        <v>3.25</v>
-      </c>
-      <c r="U448">
-        <v>1.95</v>
-      </c>
-      <c r="V448">
-        <v>1.9</v>
-      </c>
-      <c r="W448">
-        <v>0.2</v>
-      </c>
-      <c r="X448">
-        <v>-1</v>
-      </c>
-      <c r="Y448">
-        <v>-1</v>
-      </c>
       <c r="Z448">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA448">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB448">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC448">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="449" spans="1:29">
@@ -41016,7 +41016,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>5169331</v>
+        <v>5169332</v>
       </c>
       <c r="C456" t="s">
         <v>28</v>
@@ -41028,40 +41028,40 @@
         <v>44933.5</v>
       </c>
       <c r="F456" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G456" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J456" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K456">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L456">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M456">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="N456">
-        <v>1.615</v>
+        <v>2.7</v>
       </c>
       <c r="O456">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P456">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q456">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R456">
         <v>1.875</v>
@@ -41070,34 +41070,34 @@
         <v>1.975</v>
       </c>
       <c r="T456">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U456">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V456">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W456">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X456">
         <v>-1</v>
       </c>
       <c r="Y456">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z456">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA456">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB456">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC456">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="457" spans="1:29">
@@ -41105,7 +41105,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>5169332</v>
+        <v>5169333</v>
       </c>
       <c r="C457" t="s">
         <v>28</v>
@@ -41117,76 +41117,76 @@
         <v>44933.5</v>
       </c>
       <c r="F457" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G457" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I457">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J457" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K457">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="L457">
         <v>3.1</v>
       </c>
       <c r="M457">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="N457">
         <v>2.7</v>
       </c>
       <c r="O457">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P457">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Q457">
         <v>0</v>
       </c>
       <c r="R457">
+        <v>1.975</v>
+      </c>
+      <c r="S457">
         <v>1.875</v>
       </c>
-      <c r="S457">
-        <v>1.975</v>
-      </c>
       <c r="T457">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U457">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V457">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W457">
         <v>-1</v>
       </c>
       <c r="X457">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y457">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z457">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA457">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB457">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC457">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:29">
@@ -41194,7 +41194,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>5169333</v>
+        <v>5169331</v>
       </c>
       <c r="C458" t="s">
         <v>28</v>
@@ -41206,76 +41206,76 @@
         <v>44933.5</v>
       </c>
       <c r="F458" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G458" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H458">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I458">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J458" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K458">
+        <v>2.1</v>
+      </c>
+      <c r="L458">
+        <v>3.25</v>
+      </c>
+      <c r="M458">
         <v>3.5</v>
       </c>
-      <c r="L458">
-        <v>3.1</v>
-      </c>
-      <c r="M458">
-        <v>2.15</v>
-      </c>
       <c r="N458">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="O458">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P458">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q458">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R458">
+        <v>1.875</v>
+      </c>
+      <c r="S458">
         <v>1.975</v>
-      </c>
-      <c r="S458">
-        <v>1.875</v>
       </c>
       <c r="T458">
         <v>2.5</v>
       </c>
       <c r="U458">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V458">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W458">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X458">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y458">
         <v>-1</v>
       </c>
       <c r="Z458">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA458">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB458">
         <v>-1</v>
       </c>
       <c r="AC458">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="459" spans="1:29">
@@ -41906,7 +41906,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>5169334</v>
+        <v>5169639</v>
       </c>
       <c r="C466" t="s">
         <v>28</v>
@@ -41918,13 +41918,13 @@
         <v>44944.69791666666</v>
       </c>
       <c r="F466" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G466" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H466">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I466">
         <v>0</v>
@@ -41933,44 +41933,44 @@
         <v>43</v>
       </c>
       <c r="K466">
-        <v>1.111</v>
+        <v>2.375</v>
       </c>
       <c r="L466">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="M466">
-        <v>21</v>
+        <v>2.9</v>
       </c>
       <c r="N466">
+        <v>2.1</v>
+      </c>
+      <c r="O466">
+        <v>3.5</v>
+      </c>
+      <c r="P466">
+        <v>3.5</v>
+      </c>
+      <c r="Q466">
+        <v>-0.25</v>
+      </c>
+      <c r="R466">
+        <v>1.8</v>
+      </c>
+      <c r="S466">
+        <v>2.05</v>
+      </c>
+      <c r="T466">
+        <v>2.75</v>
+      </c>
+      <c r="U466">
+        <v>1.925</v>
+      </c>
+      <c r="V466">
+        <v>1.925</v>
+      </c>
+      <c r="W466">
         <v>1.1</v>
       </c>
-      <c r="O466">
-        <v>9</v>
-      </c>
-      <c r="P466">
-        <v>26</v>
-      </c>
-      <c r="Q466">
-        <v>-2.25</v>
-      </c>
-      <c r="R466">
-        <v>1.85</v>
-      </c>
-      <c r="S466">
-        <v>2</v>
-      </c>
-      <c r="T466">
-        <v>3.5</v>
-      </c>
-      <c r="U466">
-        <v>2</v>
-      </c>
-      <c r="V466">
-        <v>1.85</v>
-      </c>
-      <c r="W466">
-        <v>0.1000000000000001</v>
-      </c>
       <c r="X466">
         <v>-1</v>
       </c>
@@ -41978,13 +41978,13 @@
         <v>-1</v>
       </c>
       <c r="Z466">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA466">
         <v>-1</v>
       </c>
       <c r="AB466">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC466">
         <v>-1</v>
@@ -41995,7 +41995,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>5169639</v>
+        <v>5169334</v>
       </c>
       <c r="C467" t="s">
         <v>28</v>
@@ -42007,13 +42007,13 @@
         <v>44944.69791666666</v>
       </c>
       <c r="F467" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G467" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H467">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I467">
         <v>0</v>
@@ -42022,43 +42022,43 @@
         <v>43</v>
       </c>
       <c r="K467">
-        <v>2.375</v>
+        <v>1.111</v>
       </c>
       <c r="L467">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="M467">
-        <v>2.9</v>
+        <v>21</v>
       </c>
       <c r="N467">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="O467">
+        <v>9</v>
+      </c>
+      <c r="P467">
+        <v>26</v>
+      </c>
+      <c r="Q467">
+        <v>-2.25</v>
+      </c>
+      <c r="R467">
+        <v>1.85</v>
+      </c>
+      <c r="S467">
+        <v>2</v>
+      </c>
+      <c r="T467">
         <v>3.5</v>
       </c>
-      <c r="P467">
-        <v>3.5</v>
-      </c>
-      <c r="Q467">
-        <v>-0.25</v>
-      </c>
-      <c r="R467">
-        <v>1.8</v>
-      </c>
-      <c r="S467">
-        <v>2.05</v>
-      </c>
-      <c r="T467">
-        <v>2.75</v>
-      </c>
       <c r="U467">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V467">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W467">
-        <v>1.1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X467">
         <v>-1</v>
@@ -42067,13 +42067,13 @@
         <v>-1</v>
       </c>
       <c r="Z467">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA467">
         <v>-1</v>
       </c>
       <c r="AB467">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC467">
         <v>-1</v>
@@ -42351,7 +42351,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>5169644</v>
+        <v>5169643</v>
       </c>
       <c r="C471" t="s">
         <v>28</v>
@@ -42363,13 +42363,13 @@
         <v>44954.5</v>
       </c>
       <c r="F471" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G471" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H471">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I471">
         <v>0</v>
@@ -42378,43 +42378,43 @@
         <v>43</v>
       </c>
       <c r="K471">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L471">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M471">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N471">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="O471">
+        <v>3.6</v>
+      </c>
+      <c r="P471">
         <v>3</v>
       </c>
-      <c r="P471">
-        <v>2.75</v>
-      </c>
       <c r="Q471">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R471">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S471">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T471">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U471">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V471">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W471">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="X471">
         <v>-1</v>
@@ -42423,13 +42423,13 @@
         <v>-1</v>
       </c>
       <c r="Z471">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA471">
         <v>-1</v>
       </c>
       <c r="AB471">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC471">
         <v>-1</v>
@@ -42440,7 +42440,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>5169643</v>
+        <v>5169644</v>
       </c>
       <c r="C472" t="s">
         <v>28</v>
@@ -42452,13 +42452,13 @@
         <v>44954.5</v>
       </c>
       <c r="F472" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G472" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H472">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I472">
         <v>0</v>
@@ -42467,43 +42467,43 @@
         <v>43</v>
       </c>
       <c r="K472">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L472">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M472">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="N472">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="O472">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P472">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q472">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R472">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S472">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T472">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U472">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V472">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W472">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="X472">
         <v>-1</v>
@@ -42512,13 +42512,13 @@
         <v>-1</v>
       </c>
       <c r="Z472">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA472">
         <v>-1</v>
       </c>
       <c r="AB472">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC472">
         <v>-1</v>
@@ -42974,7 +42974,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>5169341</v>
+        <v>5169340</v>
       </c>
       <c r="C478" t="s">
         <v>28</v>
@@ -42986,76 +42986,76 @@
         <v>44958.69791666666</v>
       </c>
       <c r="F478" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G478" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I478">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J478" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K478">
-        <v>2.25</v>
+        <v>1.125</v>
       </c>
       <c r="L478">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="M478">
-        <v>3.2</v>
+        <v>21</v>
       </c>
       <c r="N478">
-        <v>1.909</v>
+        <v>1.125</v>
       </c>
       <c r="O478">
-        <v>3.3</v>
+        <v>8.5</v>
       </c>
       <c r="P478">
-        <v>4.5</v>
+        <v>21</v>
       </c>
       <c r="Q478">
-        <v>-0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R478">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S478">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T478">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="U478">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V478">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W478">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X478">
         <v>-1</v>
       </c>
       <c r="Y478">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z478">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA478">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB478">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC478">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="479" spans="1:29">
@@ -43063,7 +43063,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>5169340</v>
+        <v>5169341</v>
       </c>
       <c r="C479" t="s">
         <v>28</v>
@@ -43075,76 +43075,76 @@
         <v>44958.69791666666</v>
       </c>
       <c r="F479" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G479" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H479">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I479">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J479" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K479">
-        <v>1.125</v>
+        <v>2.25</v>
       </c>
       <c r="L479">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="M479">
-        <v>21</v>
+        <v>3.2</v>
       </c>
       <c r="N479">
-        <v>1.125</v>
+        <v>1.909</v>
       </c>
       <c r="O479">
-        <v>8.5</v>
+        <v>3.3</v>
       </c>
       <c r="P479">
-        <v>21</v>
+        <v>4.5</v>
       </c>
       <c r="Q479">
-        <v>-2.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R479">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S479">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T479">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U479">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V479">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W479">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X479">
         <v>-1</v>
       </c>
       <c r="Y479">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z479">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA479">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB479">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC479">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="480" spans="1:29">
@@ -43419,7 +43419,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>5169870</v>
+        <v>5169344</v>
       </c>
       <c r="C483" t="s">
         <v>28</v>
@@ -43431,49 +43431,49 @@
         <v>44961.5</v>
       </c>
       <c r="F483" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G483" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H483">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I483">
         <v>1</v>
       </c>
       <c r="J483" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K483">
-        <v>1.533</v>
+        <v>2.8</v>
       </c>
       <c r="L483">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M483">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="N483">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="O483">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P483">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="Q483">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R483">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="S483">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="T483">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U483">
         <v>1.95</v>
@@ -43482,25 +43482,25 @@
         <v>1.9</v>
       </c>
       <c r="W483">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X483">
         <v>-1</v>
       </c>
       <c r="Y483">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z483">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA483">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB483">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC483">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="484" spans="1:29">
@@ -43508,7 +43508,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>5169647</v>
+        <v>5169870</v>
       </c>
       <c r="C484" t="s">
         <v>28</v>
@@ -43520,10 +43520,10 @@
         <v>44961.5</v>
       </c>
       <c r="F484" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G484" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H484">
         <v>3</v>
@@ -43535,34 +43535,34 @@
         <v>43</v>
       </c>
       <c r="K484">
-        <v>1.909</v>
+        <v>1.533</v>
       </c>
       <c r="L484">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M484">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N484">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O484">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P484">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Q484">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R484">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S484">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T484">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U484">
         <v>1.95</v>
@@ -43571,7 +43571,7 @@
         <v>1.9</v>
       </c>
       <c r="W484">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="X484">
         <v>-1</v>
@@ -43580,7 +43580,7 @@
         <v>-1</v>
       </c>
       <c r="Z484">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA484">
         <v>-1</v>
@@ -43597,7 +43597,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>5169344</v>
+        <v>5169647</v>
       </c>
       <c r="C485" t="s">
         <v>28</v>
@@ -43609,49 +43609,49 @@
         <v>44961.5</v>
       </c>
       <c r="F485" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G485" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I485">
         <v>1</v>
       </c>
       <c r="J485" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K485">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="L485">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M485">
+        <v>4</v>
+      </c>
+      <c r="N485">
+        <v>1.8</v>
+      </c>
+      <c r="O485">
+        <v>3.5</v>
+      </c>
+      <c r="P485">
+        <v>4.2</v>
+      </c>
+      <c r="Q485">
+        <v>-0.5</v>
+      </c>
+      <c r="R485">
+        <v>1.85</v>
+      </c>
+      <c r="S485">
+        <v>2</v>
+      </c>
+      <c r="T485">
         <v>2.5</v>
-      </c>
-      <c r="N485">
-        <v>2.45</v>
-      </c>
-      <c r="O485">
-        <v>3.1</v>
-      </c>
-      <c r="P485">
-        <v>2.9</v>
-      </c>
-      <c r="Q485">
-        <v>-0.25</v>
-      </c>
-      <c r="R485">
-        <v>2.075</v>
-      </c>
-      <c r="S485">
-        <v>1.725</v>
-      </c>
-      <c r="T485">
-        <v>2.25</v>
       </c>
       <c r="U485">
         <v>1.95</v>
@@ -43660,25 +43660,25 @@
         <v>1.9</v>
       </c>
       <c r="W485">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X485">
         <v>-1</v>
       </c>
       <c r="Y485">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z485">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA485">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB485">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC485">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="486" spans="1:29">
@@ -43864,7 +43864,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>5169346</v>
+        <v>5169649</v>
       </c>
       <c r="C488" t="s">
         <v>28</v>
@@ -43876,76 +43876,76 @@
         <v>44975.5</v>
       </c>
       <c r="F488" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G488" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I488">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J488" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K488">
-        <v>8</v>
+        <v>1.166</v>
       </c>
       <c r="L488">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="M488">
-        <v>1.363</v>
+        <v>17</v>
       </c>
       <c r="N488">
-        <v>8</v>
+        <v>1.166</v>
       </c>
       <c r="O488">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="P488">
-        <v>1.363</v>
+        <v>17</v>
       </c>
       <c r="Q488">
-        <v>1.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R488">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S488">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T488">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U488">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V488">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W488">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X488">
         <v>-1</v>
       </c>
       <c r="Y488">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z488">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA488">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB488">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC488">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="489" spans="1:29">
@@ -43953,7 +43953,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>5169345</v>
+        <v>5169346</v>
       </c>
       <c r="C489" t="s">
         <v>28</v>
@@ -43965,55 +43965,55 @@
         <v>44975.5</v>
       </c>
       <c r="F489" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G489" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H489">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I489">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J489" t="s">
         <v>45</v>
       </c>
       <c r="K489">
-        <v>2.25</v>
+        <v>8</v>
       </c>
       <c r="L489">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M489">
-        <v>3.25</v>
+        <v>1.363</v>
       </c>
       <c r="N489">
-        <v>2.45</v>
+        <v>8</v>
       </c>
       <c r="O489">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P489">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="Q489">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R489">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S489">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T489">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U489">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V489">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="W489">
         <v>-1</v>
@@ -44022,19 +44022,19 @@
         <v>-1</v>
       </c>
       <c r="Y489">
-        <v>2</v>
+        <v>0.363</v>
       </c>
       <c r="Z489">
         <v>-1</v>
       </c>
       <c r="AA489">
-        <v>0.7749999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB489">
-        <v>1.05</v>
+        <v>0.4625</v>
       </c>
       <c r="AC489">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="490" spans="1:29">
@@ -44042,7 +44042,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>5169649</v>
+        <v>5169345</v>
       </c>
       <c r="C490" t="s">
         <v>28</v>
@@ -44054,73 +44054,73 @@
         <v>44975.5</v>
       </c>
       <c r="F490" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G490" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H490">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I490">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J490" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K490">
-        <v>1.166</v>
+        <v>2.25</v>
       </c>
       <c r="L490">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="M490">
-        <v>17</v>
+        <v>3.25</v>
       </c>
       <c r="N490">
-        <v>1.166</v>
+        <v>2.45</v>
       </c>
       <c r="O490">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="P490">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="Q490">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R490">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="S490">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T490">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U490">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V490">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="W490">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X490">
         <v>-1</v>
       </c>
       <c r="Y490">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z490">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA490">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB490">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AC490">
         <v>-1</v>
@@ -47869,7 +47869,7 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>5498114</v>
+        <v>5428458</v>
       </c>
       <c r="C533" t="s">
         <v>28</v>
@@ -47881,67 +47881,67 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F533" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G533" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I533">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J533" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K533">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="L533">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M533">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="N533">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="O533">
         <v>3.3</v>
       </c>
       <c r="P533">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q533">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R533">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S533">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T533">
         <v>2.25</v>
       </c>
       <c r="U533">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V533">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W533">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X533">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y533">
         <v>-1</v>
       </c>
       <c r="Z533">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA533">
         <v>-1</v>
@@ -47950,7 +47950,7 @@
         <v>-0.5</v>
       </c>
       <c r="AC533">
-        <v>0.475</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="534" spans="1:29">
@@ -47958,7 +47958,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>5428458</v>
+        <v>5498114</v>
       </c>
       <c r="C534" t="s">
         <v>28</v>
@@ -47970,67 +47970,67 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F534" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G534" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H534">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I534">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J534" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K534">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="L534">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M534">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="N534">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="O534">
         <v>3.3</v>
       </c>
       <c r="P534">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="Q534">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R534">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S534">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T534">
         <v>2.25</v>
       </c>
       <c r="U534">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V534">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W534">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X534">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y534">
         <v>-1</v>
       </c>
       <c r="Z534">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA534">
         <v>-1</v>
@@ -48039,7 +48039,7 @@
         <v>-0.5</v>
       </c>
       <c r="AC534">
-        <v>0.4875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="535" spans="1:29">
@@ -54277,7 +54277,7 @@
         <v>603</v>
       </c>
       <c r="B605">
-        <v>6845506</v>
+        <v>6844740</v>
       </c>
       <c r="C605" t="s">
         <v>28</v>
@@ -54289,76 +54289,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F605" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G605" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H605">
         <v>1</v>
       </c>
       <c r="I605">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J605" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K605">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="L605">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M605">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="N605">
-        <v>1.363</v>
+        <v>2.4</v>
       </c>
       <c r="O605">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P605">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="Q605">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R605">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S605">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T605">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U605">
+        <v>1.875</v>
+      </c>
+      <c r="V605">
         <v>1.975</v>
       </c>
-      <c r="V605">
-        <v>1.875</v>
-      </c>
       <c r="W605">
         <v>-1</v>
       </c>
       <c r="X605">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y605">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z605">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA605">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB605">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC605">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="606" spans="1:29">
@@ -54366,7 +54366,7 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>6844740</v>
+        <v>6845506</v>
       </c>
       <c r="C606" t="s">
         <v>28</v>
@@ -54378,76 +54378,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F606" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G606" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H606">
         <v>1</v>
       </c>
       <c r="I606">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J606" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K606">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="L606">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M606">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="N606">
-        <v>2.4</v>
+        <v>1.363</v>
       </c>
       <c r="O606">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="P606">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="Q606">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R606">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S606">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T606">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U606">
+        <v>1.975</v>
+      </c>
+      <c r="V606">
         <v>1.875</v>
       </c>
-      <c r="V606">
-        <v>1.975</v>
-      </c>
       <c r="W606">
         <v>-1</v>
       </c>
       <c r="X606">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y606">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z606">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA606">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB606">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC606">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="607" spans="1:29">
@@ -58638,7 +58638,7 @@
         <v>652</v>
       </c>
       <c r="B654">
-        <v>6844778</v>
+        <v>6844781</v>
       </c>
       <c r="C654" t="s">
         <v>28</v>
@@ -58650,76 +58650,76 @@
         <v>45266.69791666666</v>
       </c>
       <c r="F654" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G654" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I654">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J654" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K654">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="L654">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M654">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="N654">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="O654">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P654">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q654">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R654">
+        <v>1.925</v>
+      </c>
+      <c r="S654">
+        <v>1.925</v>
+      </c>
+      <c r="T654">
+        <v>2</v>
+      </c>
+      <c r="U654">
         <v>2.05</v>
       </c>
-      <c r="S654">
+      <c r="V654">
         <v>1.8</v>
       </c>
-      <c r="T654">
-        <v>2.25</v>
-      </c>
-      <c r="U654">
-        <v>1.9</v>
-      </c>
-      <c r="V654">
-        <v>1.95</v>
-      </c>
       <c r="W654">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X654">
         <v>-1</v>
       </c>
       <c r="Y654">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z654">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA654">
+        <v>-1</v>
+      </c>
+      <c r="AB654">
+        <v>-1</v>
+      </c>
+      <c r="AC654">
         <v>0.8</v>
-      </c>
-      <c r="AB654">
-        <v>-1</v>
-      </c>
-      <c r="AC654">
-        <v>0.95</v>
       </c>
     </row>
     <row r="655" spans="1:29">
@@ -58727,7 +58727,7 @@
         <v>653</v>
       </c>
       <c r="B655">
-        <v>6844781</v>
+        <v>6844778</v>
       </c>
       <c r="C655" t="s">
         <v>28</v>
@@ -58739,76 +58739,76 @@
         <v>45266.69791666666</v>
       </c>
       <c r="F655" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G655" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H655">
+        <v>0</v>
+      </c>
+      <c r="I655">
         <v>1</v>
       </c>
-      <c r="I655">
-        <v>0</v>
-      </c>
       <c r="J655" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K655">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="L655">
+        <v>3.25</v>
+      </c>
+      <c r="M655">
         <v>3.2</v>
       </c>
-      <c r="M655">
+      <c r="N655">
+        <v>2.1</v>
+      </c>
+      <c r="O655">
+        <v>3.4</v>
+      </c>
+      <c r="P655">
+        <v>3.6</v>
+      </c>
+      <c r="Q655">
+        <v>-0.5</v>
+      </c>
+      <c r="R655">
+        <v>2.05</v>
+      </c>
+      <c r="S655">
+        <v>1.8</v>
+      </c>
+      <c r="T655">
+        <v>2.25</v>
+      </c>
+      <c r="U655">
+        <v>1.9</v>
+      </c>
+      <c r="V655">
+        <v>1.95</v>
+      </c>
+      <c r="W655">
+        <v>-1</v>
+      </c>
+      <c r="X655">
+        <v>-1</v>
+      </c>
+      <c r="Y655">
         <v>2.6</v>
       </c>
-      <c r="N655">
-        <v>3</v>
-      </c>
-      <c r="O655">
-        <v>2.9</v>
-      </c>
-      <c r="P655">
-        <v>2.625</v>
-      </c>
-      <c r="Q655">
-        <v>0</v>
-      </c>
-      <c r="R655">
-        <v>1.925</v>
-      </c>
-      <c r="S655">
-        <v>1.925</v>
-      </c>
-      <c r="T655">
-        <v>2</v>
-      </c>
-      <c r="U655">
-        <v>2.05</v>
-      </c>
-      <c r="V655">
-        <v>1.8</v>
-      </c>
-      <c r="W655">
-        <v>2</v>
-      </c>
-      <c r="X655">
-        <v>-1</v>
-      </c>
-      <c r="Y655">
-        <v>-1</v>
-      </c>
       <c r="Z655">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA655">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB655">
         <v>-1</v>
       </c>
       <c r="AC655">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="656" spans="1:29">

--- a/Scotland Premiership/Scotland Premiership.xlsx
+++ b/Scotland Premiership/Scotland Premiership.xlsx
@@ -30692,7 +30692,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>5169591</v>
+        <v>5169276</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -30704,76 +30704,76 @@
         <v>44772.45833333334</v>
       </c>
       <c r="F340" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G340" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340">
         <v>1</v>
       </c>
       <c r="J340" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K340">
-        <v>1.666</v>
+        <v>2.625</v>
       </c>
       <c r="L340">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M340">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="N340">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="O340">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P340">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q340">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R340">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S340">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T340">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U340">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V340">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W340">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X340">
         <v>-1</v>
       </c>
       <c r="Y340">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z340">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA340">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB340">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC340">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="341" spans="1:29">
@@ -30781,7 +30781,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>5169276</v>
+        <v>5169591</v>
       </c>
       <c r="C341" t="s">
         <v>28</v>
@@ -30793,76 +30793,76 @@
         <v>44772.45833333334</v>
       </c>
       <c r="F341" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G341" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341">
         <v>1</v>
       </c>
       <c r="J341" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K341">
-        <v>2.625</v>
+        <v>1.666</v>
       </c>
       <c r="L341">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M341">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="N341">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="O341">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P341">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q341">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R341">
+        <v>1.9</v>
+      </c>
+      <c r="S341">
+        <v>1.95</v>
+      </c>
+      <c r="T341">
+        <v>2.5</v>
+      </c>
+      <c r="U341">
         <v>1.85</v>
       </c>
-      <c r="S341">
-        <v>2</v>
-      </c>
-      <c r="T341">
-        <v>2</v>
-      </c>
-      <c r="U341">
-        <v>1.925</v>
-      </c>
       <c r="V341">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W341">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X341">
         <v>-1</v>
       </c>
       <c r="Y341">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z341">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA341">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB341">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC341">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="342" spans="1:29">
@@ -33362,7 +33362,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>5169852</v>
+        <v>5542385</v>
       </c>
       <c r="C370" t="s">
         <v>28</v>
@@ -33374,76 +33374,76 @@
         <v>44807.45833333334</v>
       </c>
       <c r="F370" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G370" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I370">
         <v>0</v>
       </c>
       <c r="J370" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K370">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="L370">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M370">
+        <v>6.5</v>
+      </c>
+      <c r="N370">
+        <v>1.65</v>
+      </c>
+      <c r="O370">
         <v>3.75</v>
       </c>
-      <c r="N370">
-        <v>1.95</v>
-      </c>
-      <c r="O370">
-        <v>3.3</v>
-      </c>
       <c r="P370">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q370">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R370">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S370">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T370">
         <v>2.25</v>
       </c>
       <c r="U370">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V370">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W370">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X370">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y370">
         <v>-1</v>
       </c>
       <c r="Z370">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA370">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB370">
         <v>-1</v>
       </c>
       <c r="AC370">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:29">
@@ -33451,7 +33451,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>5169604</v>
+        <v>5169852</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33463,40 +33463,40 @@
         <v>44807.45833333334</v>
       </c>
       <c r="F371" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G371" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J371" t="s">
         <v>44</v>
       </c>
       <c r="K371">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="L371">
         <v>3.2</v>
       </c>
       <c r="M371">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="N371">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="O371">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P371">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="Q371">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R371">
         <v>1.95</v>
@@ -33508,31 +33508,31 @@
         <v>2.25</v>
       </c>
       <c r="U371">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V371">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W371">
         <v>-1</v>
       </c>
       <c r="X371">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y371">
         <v>-1</v>
       </c>
       <c r="Z371">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA371">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB371">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC371">
-        <v>0.425</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="372" spans="1:29">
@@ -33540,7 +33540,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>5169292</v>
+        <v>5169604</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33552,76 +33552,76 @@
         <v>44807.45833333334</v>
       </c>
       <c r="F372" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G372" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H372">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I372">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J372" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K372">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="L372">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M372">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="N372">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="O372">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P372">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="Q372">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R372">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S372">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T372">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U372">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V372">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W372">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X372">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y372">
         <v>-1</v>
       </c>
       <c r="Z372">
-        <v>1.025</v>
+        <v>0.475</v>
       </c>
       <c r="AA372">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB372">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC372">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="373" spans="1:29">
@@ -33629,7 +33629,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>5169291</v>
+        <v>5169292</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33641,13 +33641,13 @@
         <v>44807.45833333334</v>
       </c>
       <c r="F373" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G373" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I373">
         <v>0</v>
@@ -33656,44 +33656,44 @@
         <v>43</v>
       </c>
       <c r="K373">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="L373">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M373">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="N373">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="O373">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P373">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q373">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R373">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S373">
+        <v>1.825</v>
+      </c>
+      <c r="T373">
+        <v>2</v>
+      </c>
+      <c r="U373">
+        <v>1.975</v>
+      </c>
+      <c r="V373">
+        <v>1.875</v>
+      </c>
+      <c r="W373">
         <v>1.9</v>
       </c>
-      <c r="T373">
-        <v>2.5</v>
-      </c>
-      <c r="U373">
-        <v>1.925</v>
-      </c>
-      <c r="V373">
-        <v>1.925</v>
-      </c>
-      <c r="W373">
-        <v>2.4</v>
-      </c>
       <c r="X373">
         <v>-1</v>
       </c>
@@ -33701,16 +33701,16 @@
         <v>-1</v>
       </c>
       <c r="Z373">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA373">
         <v>-1</v>
       </c>
       <c r="AB373">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC373">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="374" spans="1:29">
@@ -33718,7 +33718,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>5542385</v>
+        <v>5169291</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33730,10 +33730,10 @@
         <v>44807.45833333334</v>
       </c>
       <c r="F374" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G374" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H374">
         <v>1</v>
@@ -33745,43 +33745,43 @@
         <v>43</v>
       </c>
       <c r="K374">
-        <v>1.533</v>
+        <v>3.5</v>
       </c>
       <c r="L374">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M374">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="N374">
-        <v>1.65</v>
+        <v>3.4</v>
       </c>
       <c r="O374">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P374">
-        <v>5.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q374">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R374">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S374">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T374">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U374">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V374">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W374">
-        <v>0.6499999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="X374">
         <v>-1</v>
@@ -33790,16 +33790,16 @@
         <v>-1</v>
       </c>
       <c r="Z374">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AA374">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB374">
         <v>-1</v>
       </c>
       <c r="AC374">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="375" spans="1:29">
@@ -35231,7 +35231,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>5169301</v>
+        <v>5169302</v>
       </c>
       <c r="C391" t="s">
         <v>28</v>
@@ -35243,76 +35243,76 @@
         <v>44842.45833333334</v>
       </c>
       <c r="F391" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G391" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I391">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J391" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K391">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="L391">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="M391">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N391">
-        <v>1.909</v>
+        <v>1.2</v>
       </c>
       <c r="O391">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="P391">
-        <v>4.333</v>
+        <v>15</v>
       </c>
       <c r="Q391">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R391">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S391">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T391">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U391">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V391">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W391">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X391">
         <v>-1</v>
       </c>
       <c r="Y391">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z391">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA391">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB391">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC391">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="392" spans="1:29">
@@ -35320,7 +35320,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>5169302</v>
+        <v>5169301</v>
       </c>
       <c r="C392" t="s">
         <v>28</v>
@@ -35332,76 +35332,76 @@
         <v>44842.45833333334</v>
       </c>
       <c r="F392" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G392" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H392">
+        <v>0</v>
+      </c>
+      <c r="I392">
+        <v>1</v>
+      </c>
+      <c r="J392" t="s">
+        <v>45</v>
+      </c>
+      <c r="K392">
+        <v>1.909</v>
+      </c>
+      <c r="L392">
+        <v>3.2</v>
+      </c>
+      <c r="M392">
         <v>4</v>
       </c>
-      <c r="I392">
-        <v>0</v>
-      </c>
-      <c r="J392" t="s">
-        <v>43</v>
-      </c>
-      <c r="K392">
-        <v>1.25</v>
-      </c>
-      <c r="L392">
-        <v>5.5</v>
-      </c>
-      <c r="M392">
-        <v>11</v>
-      </c>
       <c r="N392">
-        <v>1.2</v>
+        <v>1.909</v>
       </c>
       <c r="O392">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="P392">
-        <v>15</v>
+        <v>4.333</v>
       </c>
       <c r="Q392">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R392">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S392">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T392">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U392">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V392">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W392">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X392">
         <v>-1</v>
       </c>
       <c r="Y392">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z392">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA392">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB392">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC392">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="393" spans="1:29">
@@ -36566,7 +36566,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>5169617</v>
+        <v>5169308</v>
       </c>
       <c r="C406" t="s">
         <v>28</v>
@@ -36578,58 +36578,58 @@
         <v>44856.45833333334</v>
       </c>
       <c r="F406" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G406" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H406">
+        <v>2</v>
+      </c>
+      <c r="I406">
         <v>1</v>
-      </c>
-      <c r="I406">
-        <v>0</v>
       </c>
       <c r="J406" t="s">
         <v>43</v>
       </c>
       <c r="K406">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L406">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M406">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N406">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O406">
         <v>3.3</v>
       </c>
       <c r="P406">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q406">
         <v>-0.5</v>
       </c>
       <c r="R406">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S406">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T406">
         <v>2.25</v>
       </c>
       <c r="U406">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V406">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W406">
-        <v>0.909</v>
+        <v>1.05</v>
       </c>
       <c r="X406">
         <v>-1</v>
@@ -36638,16 +36638,16 @@
         <v>-1</v>
       </c>
       <c r="Z406">
+        <v>1</v>
+      </c>
+      <c r="AA406">
+        <v>-1</v>
+      </c>
+      <c r="AB406">
         <v>0.925</v>
       </c>
-      <c r="AA406">
-        <v>-1</v>
-      </c>
-      <c r="AB406">
-        <v>-1</v>
-      </c>
       <c r="AC406">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="407" spans="1:29">
@@ -36655,7 +36655,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>5169308</v>
+        <v>5169617</v>
       </c>
       <c r="C407" t="s">
         <v>28</v>
@@ -36667,58 +36667,58 @@
         <v>44856.45833333334</v>
       </c>
       <c r="F407" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G407" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I407">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J407" t="s">
         <v>43</v>
       </c>
       <c r="K407">
+        <v>2.1</v>
+      </c>
+      <c r="L407">
+        <v>3.2</v>
+      </c>
+      <c r="M407">
+        <v>3.6</v>
+      </c>
+      <c r="N407">
         <v>1.909</v>
-      </c>
-      <c r="L407">
-        <v>3.25</v>
-      </c>
-      <c r="M407">
-        <v>4.5</v>
-      </c>
-      <c r="N407">
-        <v>2.05</v>
       </c>
       <c r="O407">
         <v>3.3</v>
       </c>
       <c r="P407">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q407">
         <v>-0.5</v>
       </c>
       <c r="R407">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S407">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T407">
         <v>2.25</v>
       </c>
       <c r="U407">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V407">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W407">
-        <v>1.05</v>
+        <v>0.909</v>
       </c>
       <c r="X407">
         <v>-1</v>
@@ -36727,16 +36727,16 @@
         <v>-1</v>
       </c>
       <c r="Z407">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA407">
         <v>-1</v>
       </c>
       <c r="AB407">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC407">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="408" spans="1:29">
@@ -39058,7 +39058,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>5169628</v>
+        <v>5169322</v>
       </c>
       <c r="C434" t="s">
         <v>28</v>
@@ -39070,73 +39070,73 @@
         <v>44912.5</v>
       </c>
       <c r="F434" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G434" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H434">
+        <v>1</v>
+      </c>
+      <c r="I434">
+        <v>2</v>
+      </c>
+      <c r="J434" t="s">
+        <v>45</v>
+      </c>
+      <c r="K434">
+        <v>2.6</v>
+      </c>
+      <c r="L434">
+        <v>3.2</v>
+      </c>
+      <c r="M434">
+        <v>2.75</v>
+      </c>
+      <c r="N434">
+        <v>2.5</v>
+      </c>
+      <c r="O434">
+        <v>3.2</v>
+      </c>
+      <c r="P434">
         <v>3</v>
       </c>
-      <c r="I434">
-        <v>1</v>
-      </c>
-      <c r="J434" t="s">
-        <v>43</v>
-      </c>
-      <c r="K434">
-        <v>1.7</v>
-      </c>
-      <c r="L434">
-        <v>3.6</v>
-      </c>
-      <c r="M434">
-        <v>5</v>
-      </c>
-      <c r="N434">
-        <v>1.666</v>
-      </c>
-      <c r="O434">
-        <v>3.8</v>
-      </c>
-      <c r="P434">
-        <v>5</v>
-      </c>
       <c r="Q434">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R434">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="S434">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="T434">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U434">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V434">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W434">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X434">
         <v>-1</v>
       </c>
       <c r="Y434">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z434">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA434">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB434">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC434">
         <v>-1</v>
@@ -39147,7 +39147,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>5169322</v>
+        <v>5169628</v>
       </c>
       <c r="C435" t="s">
         <v>28</v>
@@ -39159,73 +39159,73 @@
         <v>44912.5</v>
       </c>
       <c r="F435" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G435" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H435">
+        <v>3</v>
+      </c>
+      <c r="I435">
         <v>1</v>
       </c>
-      <c r="I435">
-        <v>2</v>
-      </c>
       <c r="J435" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K435">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="L435">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M435">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N435">
+        <v>1.666</v>
+      </c>
+      <c r="O435">
+        <v>3.8</v>
+      </c>
+      <c r="P435">
+        <v>5</v>
+      </c>
+      <c r="Q435">
+        <v>-0.75</v>
+      </c>
+      <c r="R435">
+        <v>1.8</v>
+      </c>
+      <c r="S435">
+        <v>2.05</v>
+      </c>
+      <c r="T435">
         <v>2.5</v>
       </c>
-      <c r="O435">
-        <v>3.2</v>
-      </c>
-      <c r="P435">
-        <v>3</v>
-      </c>
-      <c r="Q435">
-        <v>-0.25</v>
-      </c>
-      <c r="R435">
-        <v>2.075</v>
-      </c>
-      <c r="S435">
-        <v>1.725</v>
-      </c>
-      <c r="T435">
-        <v>2</v>
-      </c>
       <c r="U435">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V435">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W435">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X435">
         <v>-1</v>
       </c>
       <c r="Y435">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z435">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA435">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB435">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC435">
         <v>-1</v>
@@ -39770,7 +39770,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>5169324</v>
+        <v>5169864</v>
       </c>
       <c r="C442" t="s">
         <v>28</v>
@@ -39782,73 +39782,73 @@
         <v>44919.45833333334</v>
       </c>
       <c r="F442" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G442" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H442">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I442">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J442" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K442">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="L442">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M442">
+        <v>2</v>
+      </c>
+      <c r="N442">
+        <v>3.1</v>
+      </c>
+      <c r="O442">
         <v>3.6</v>
       </c>
-      <c r="N442">
-        <v>1.666</v>
-      </c>
-      <c r="O442">
-        <v>4</v>
-      </c>
       <c r="P442">
-        <v>4.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q442">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R442">
+        <v>1.975</v>
+      </c>
+      <c r="S442">
         <v>1.875</v>
       </c>
-      <c r="S442">
-        <v>1.975</v>
-      </c>
       <c r="T442">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U442">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V442">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W442">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X442">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y442">
         <v>-1</v>
       </c>
       <c r="Z442">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AA442">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB442">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC442">
         <v>-1</v>
@@ -39859,7 +39859,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>5169864</v>
+        <v>5169324</v>
       </c>
       <c r="C443" t="s">
         <v>28</v>
@@ -39871,73 +39871,73 @@
         <v>44919.45833333334</v>
       </c>
       <c r="F443" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G443" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I443">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J443" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K443">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="L443">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M443">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N443">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="O443">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P443">
-        <v>2.15</v>
+        <v>4.8</v>
       </c>
       <c r="Q443">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R443">
+        <v>1.875</v>
+      </c>
+      <c r="S443">
         <v>1.975</v>
       </c>
-      <c r="S443">
-        <v>1.875</v>
-      </c>
       <c r="T443">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U443">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V443">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W443">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X443">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y443">
         <v>-1</v>
       </c>
       <c r="Z443">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AA443">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB443">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC443">
         <v>-1</v>
@@ -40037,7 +40037,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>5169326</v>
+        <v>5169634</v>
       </c>
       <c r="C445" t="s">
         <v>28</v>
@@ -40049,76 +40049,76 @@
         <v>44923.69791666666</v>
       </c>
       <c r="F445" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G445" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H445">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I445">
         <v>1</v>
       </c>
       <c r="J445" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K445">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="L445">
         <v>3.4</v>
       </c>
       <c r="M445">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="N445">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="O445">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P445">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="Q445">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R445">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S445">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T445">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U445">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V445">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W445">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X445">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y445">
         <v>-1</v>
       </c>
       <c r="Z445">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA445">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB445">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC445">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="446" spans="1:29">
@@ -40126,7 +40126,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>5169634</v>
+        <v>5169326</v>
       </c>
       <c r="C446" t="s">
         <v>28</v>
@@ -40138,76 +40138,76 @@
         <v>44923.69791666666</v>
       </c>
       <c r="F446" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G446" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I446">
         <v>1</v>
       </c>
       <c r="J446" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K446">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="L446">
         <v>3.4</v>
       </c>
       <c r="M446">
+        <v>2.8</v>
+      </c>
+      <c r="N446">
+        <v>2.8</v>
+      </c>
+      <c r="O446">
+        <v>3.2</v>
+      </c>
+      <c r="P446">
+        <v>2.625</v>
+      </c>
+      <c r="Q446">
+        <v>0</v>
+      </c>
+      <c r="R446">
+        <v>2.025</v>
+      </c>
+      <c r="S446">
+        <v>1.825</v>
+      </c>
+      <c r="T446">
+        <v>2.25</v>
+      </c>
+      <c r="U446">
+        <v>1.975</v>
+      </c>
+      <c r="V446">
+        <v>1.875</v>
+      </c>
+      <c r="W446">
+        <v>-1</v>
+      </c>
+      <c r="X446">
         <v>2.2</v>
       </c>
-      <c r="N446">
-        <v>3</v>
-      </c>
-      <c r="O446">
-        <v>3.6</v>
-      </c>
-      <c r="P446">
-        <v>2.25</v>
-      </c>
-      <c r="Q446">
-        <v>0.25</v>
-      </c>
-      <c r="R446">
-        <v>1.925</v>
-      </c>
-      <c r="S446">
-        <v>1.925</v>
-      </c>
-      <c r="T446">
-        <v>2.5</v>
-      </c>
-      <c r="U446">
-        <v>1.95</v>
-      </c>
-      <c r="V446">
-        <v>1.9</v>
-      </c>
-      <c r="W446">
-        <v>2</v>
-      </c>
-      <c r="X446">
-        <v>-1</v>
-      </c>
       <c r="Y446">
         <v>-1</v>
       </c>
       <c r="Z446">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA446">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB446">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC446">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="447" spans="1:29">
@@ -41016,7 +41016,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>5169332</v>
+        <v>5169331</v>
       </c>
       <c r="C456" t="s">
         <v>28</v>
@@ -41028,40 +41028,40 @@
         <v>44933.5</v>
       </c>
       <c r="F456" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G456" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J456" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K456">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L456">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M456">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="N456">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="O456">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P456">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q456">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R456">
         <v>1.875</v>
@@ -41070,34 +41070,34 @@
         <v>1.975</v>
       </c>
       <c r="T456">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U456">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V456">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W456">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X456">
         <v>-1</v>
       </c>
       <c r="Y456">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z456">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA456">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB456">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC456">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="457" spans="1:29">
@@ -41105,7 +41105,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>5169333</v>
+        <v>5169332</v>
       </c>
       <c r="C457" t="s">
         <v>28</v>
@@ -41117,76 +41117,76 @@
         <v>44933.5</v>
       </c>
       <c r="F457" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G457" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H457">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I457">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J457" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K457">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="L457">
         <v>3.1</v>
       </c>
       <c r="M457">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="N457">
         <v>2.7</v>
       </c>
       <c r="O457">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P457">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q457">
         <v>0</v>
       </c>
       <c r="R457">
+        <v>1.875</v>
+      </c>
+      <c r="S457">
         <v>1.975</v>
       </c>
-      <c r="S457">
-        <v>1.875</v>
-      </c>
       <c r="T457">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U457">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V457">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W457">
         <v>-1</v>
       </c>
       <c r="X457">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y457">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z457">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA457">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB457">
+        <v>0</v>
+      </c>
+      <c r="AC457">
         <v>-0</v>
-      </c>
-      <c r="AB457">
-        <v>-1</v>
-      </c>
-      <c r="AC457">
-        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:29">
@@ -41194,7 +41194,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>5169331</v>
+        <v>5169333</v>
       </c>
       <c r="C458" t="s">
         <v>28</v>
@@ -41206,76 +41206,76 @@
         <v>44933.5</v>
       </c>
       <c r="F458" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G458" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I458">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J458" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K458">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="L458">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M458">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="N458">
-        <v>1.615</v>
+        <v>2.7</v>
       </c>
       <c r="O458">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P458">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q458">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R458">
+        <v>1.975</v>
+      </c>
+      <c r="S458">
         <v>1.875</v>
-      </c>
-      <c r="S458">
-        <v>1.975</v>
       </c>
       <c r="T458">
         <v>2.5</v>
       </c>
       <c r="U458">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V458">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W458">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X458">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y458">
         <v>-1</v>
       </c>
       <c r="Z458">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA458">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB458">
         <v>-1</v>
       </c>
       <c r="AC458">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:29">
@@ -41906,7 +41906,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>5169639</v>
+        <v>5169334</v>
       </c>
       <c r="C466" t="s">
         <v>28</v>
@@ -41918,13 +41918,13 @@
         <v>44944.69791666666</v>
       </c>
       <c r="F466" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G466" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H466">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I466">
         <v>0</v>
@@ -41933,43 +41933,43 @@
         <v>43</v>
       </c>
       <c r="K466">
-        <v>2.375</v>
+        <v>1.111</v>
       </c>
       <c r="L466">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="M466">
-        <v>2.9</v>
+        <v>21</v>
       </c>
       <c r="N466">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="O466">
+        <v>9</v>
+      </c>
+      <c r="P466">
+        <v>26</v>
+      </c>
+      <c r="Q466">
+        <v>-2.25</v>
+      </c>
+      <c r="R466">
+        <v>1.85</v>
+      </c>
+      <c r="S466">
+        <v>2</v>
+      </c>
+      <c r="T466">
         <v>3.5</v>
       </c>
-      <c r="P466">
-        <v>3.5</v>
-      </c>
-      <c r="Q466">
-        <v>-0.25</v>
-      </c>
-      <c r="R466">
-        <v>1.8</v>
-      </c>
-      <c r="S466">
-        <v>2.05</v>
-      </c>
-      <c r="T466">
-        <v>2.75</v>
-      </c>
       <c r="U466">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V466">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W466">
-        <v>1.1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X466">
         <v>-1</v>
@@ -41978,13 +41978,13 @@
         <v>-1</v>
       </c>
       <c r="Z466">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA466">
         <v>-1</v>
       </c>
       <c r="AB466">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC466">
         <v>-1</v>
@@ -41995,7 +41995,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>5169334</v>
+        <v>5169639</v>
       </c>
       <c r="C467" t="s">
         <v>28</v>
@@ -42007,13 +42007,13 @@
         <v>44944.69791666666</v>
       </c>
       <c r="F467" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G467" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H467">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I467">
         <v>0</v>
@@ -42022,44 +42022,44 @@
         <v>43</v>
       </c>
       <c r="K467">
-        <v>1.111</v>
+        <v>2.375</v>
       </c>
       <c r="L467">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="M467">
-        <v>21</v>
+        <v>2.9</v>
       </c>
       <c r="N467">
+        <v>2.1</v>
+      </c>
+      <c r="O467">
+        <v>3.5</v>
+      </c>
+      <c r="P467">
+        <v>3.5</v>
+      </c>
+      <c r="Q467">
+        <v>-0.25</v>
+      </c>
+      <c r="R467">
+        <v>1.8</v>
+      </c>
+      <c r="S467">
+        <v>2.05</v>
+      </c>
+      <c r="T467">
+        <v>2.75</v>
+      </c>
+      <c r="U467">
+        <v>1.925</v>
+      </c>
+      <c r="V467">
+        <v>1.925</v>
+      </c>
+      <c r="W467">
         <v>1.1</v>
       </c>
-      <c r="O467">
-        <v>9</v>
-      </c>
-      <c r="P467">
-        <v>26</v>
-      </c>
-      <c r="Q467">
-        <v>-2.25</v>
-      </c>
-      <c r="R467">
-        <v>1.85</v>
-      </c>
-      <c r="S467">
-        <v>2</v>
-      </c>
-      <c r="T467">
-        <v>3.5</v>
-      </c>
-      <c r="U467">
-        <v>2</v>
-      </c>
-      <c r="V467">
-        <v>1.85</v>
-      </c>
-      <c r="W467">
-        <v>0.1000000000000001</v>
-      </c>
       <c r="X467">
         <v>-1</v>
       </c>
@@ -42067,13 +42067,13 @@
         <v>-1</v>
       </c>
       <c r="Z467">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA467">
         <v>-1</v>
       </c>
       <c r="AB467">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC467">
         <v>-1</v>
@@ -42351,7 +42351,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>5169643</v>
+        <v>5169644</v>
       </c>
       <c r="C471" t="s">
         <v>28</v>
@@ -42363,13 +42363,13 @@
         <v>44954.5</v>
       </c>
       <c r="F471" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G471" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H471">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I471">
         <v>0</v>
@@ -42378,43 +42378,43 @@
         <v>43</v>
       </c>
       <c r="K471">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L471">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M471">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="N471">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="O471">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P471">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q471">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R471">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S471">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T471">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U471">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V471">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W471">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="X471">
         <v>-1</v>
@@ -42423,13 +42423,13 @@
         <v>-1</v>
       </c>
       <c r="Z471">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA471">
         <v>-1</v>
       </c>
       <c r="AB471">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC471">
         <v>-1</v>
@@ -42440,7 +42440,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>5169644</v>
+        <v>5169643</v>
       </c>
       <c r="C472" t="s">
         <v>28</v>
@@ -42452,13 +42452,13 @@
         <v>44954.5</v>
       </c>
       <c r="F472" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G472" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H472">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I472">
         <v>0</v>
@@ -42467,43 +42467,43 @@
         <v>43</v>
       </c>
       <c r="K472">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L472">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M472">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N472">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="O472">
+        <v>3.6</v>
+      </c>
+      <c r="P472">
         <v>3</v>
       </c>
-      <c r="P472">
-        <v>2.75</v>
-      </c>
       <c r="Q472">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R472">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S472">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T472">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U472">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V472">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W472">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="X472">
         <v>-1</v>
@@ -42512,13 +42512,13 @@
         <v>-1</v>
       </c>
       <c r="Z472">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA472">
         <v>-1</v>
       </c>
       <c r="AB472">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC472">
         <v>-1</v>
@@ -42974,7 +42974,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>5169340</v>
+        <v>5169341</v>
       </c>
       <c r="C478" t="s">
         <v>28</v>
@@ -42986,76 +42986,76 @@
         <v>44958.69791666666</v>
       </c>
       <c r="F478" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G478" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H478">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I478">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J478" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K478">
-        <v>1.125</v>
+        <v>2.25</v>
       </c>
       <c r="L478">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="M478">
-        <v>21</v>
+        <v>3.2</v>
       </c>
       <c r="N478">
-        <v>1.125</v>
+        <v>1.909</v>
       </c>
       <c r="O478">
-        <v>8.5</v>
+        <v>3.3</v>
       </c>
       <c r="P478">
-        <v>21</v>
+        <v>4.5</v>
       </c>
       <c r="Q478">
-        <v>-2.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R478">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S478">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T478">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U478">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V478">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W478">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X478">
         <v>-1</v>
       </c>
       <c r="Y478">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z478">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA478">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB478">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC478">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="479" spans="1:29">
@@ -43063,7 +43063,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>5169341</v>
+        <v>5169340</v>
       </c>
       <c r="C479" t="s">
         <v>28</v>
@@ -43075,76 +43075,76 @@
         <v>44958.69791666666</v>
       </c>
       <c r="F479" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G479" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I479">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J479" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K479">
-        <v>2.25</v>
+        <v>1.125</v>
       </c>
       <c r="L479">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="M479">
-        <v>3.2</v>
+        <v>21</v>
       </c>
       <c r="N479">
-        <v>1.909</v>
+        <v>1.125</v>
       </c>
       <c r="O479">
-        <v>3.3</v>
+        <v>8.5</v>
       </c>
       <c r="P479">
-        <v>4.5</v>
+        <v>21</v>
       </c>
       <c r="Q479">
-        <v>-0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R479">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S479">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T479">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="U479">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V479">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W479">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X479">
         <v>-1</v>
       </c>
       <c r="Y479">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z479">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA479">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB479">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC479">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="480" spans="1:29">
@@ -43419,7 +43419,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>5169344</v>
+        <v>5169870</v>
       </c>
       <c r="C483" t="s">
         <v>28</v>
@@ -43431,49 +43431,49 @@
         <v>44961.5</v>
       </c>
       <c r="F483" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G483" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I483">
         <v>1</v>
       </c>
       <c r="J483" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K483">
-        <v>2.8</v>
+        <v>1.533</v>
       </c>
       <c r="L483">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M483">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="N483">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="O483">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P483">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="Q483">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R483">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="S483">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="T483">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U483">
         <v>1.95</v>
@@ -43482,25 +43482,25 @@
         <v>1.9</v>
       </c>
       <c r="W483">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X483">
         <v>-1</v>
       </c>
       <c r="Y483">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z483">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA483">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB483">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC483">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="484" spans="1:29">
@@ -43508,7 +43508,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>5169870</v>
+        <v>5169647</v>
       </c>
       <c r="C484" t="s">
         <v>28</v>
@@ -43520,10 +43520,10 @@
         <v>44961.5</v>
       </c>
       <c r="F484" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G484" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H484">
         <v>3</v>
@@ -43535,34 +43535,34 @@
         <v>43</v>
       </c>
       <c r="K484">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="L484">
+        <v>3.4</v>
+      </c>
+      <c r="M484">
         <v>4</v>
       </c>
-      <c r="M484">
-        <v>6</v>
-      </c>
       <c r="N484">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O484">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P484">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q484">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R484">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S484">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T484">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U484">
         <v>1.95</v>
@@ -43571,7 +43571,7 @@
         <v>1.9</v>
       </c>
       <c r="W484">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="X484">
         <v>-1</v>
@@ -43580,7 +43580,7 @@
         <v>-1</v>
       </c>
       <c r="Z484">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA484">
         <v>-1</v>
@@ -43597,7 +43597,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>5169647</v>
+        <v>5169344</v>
       </c>
       <c r="C485" t="s">
         <v>28</v>
@@ -43609,49 +43609,49 @@
         <v>44961.5</v>
       </c>
       <c r="F485" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G485" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H485">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I485">
         <v>1</v>
       </c>
       <c r="J485" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K485">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="L485">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M485">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N485">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="O485">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P485">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q485">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R485">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="S485">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="T485">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U485">
         <v>1.95</v>
@@ -43660,25 +43660,25 @@
         <v>1.9</v>
       </c>
       <c r="W485">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X485">
         <v>-1</v>
       </c>
       <c r="Y485">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z485">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA485">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB485">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC485">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="486" spans="1:29">
@@ -43864,7 +43864,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>5169649</v>
+        <v>5169346</v>
       </c>
       <c r="C488" t="s">
         <v>28</v>
@@ -43876,76 +43876,76 @@
         <v>44975.5</v>
       </c>
       <c r="F488" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G488" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H488">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I488">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J488" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K488">
-        <v>1.166</v>
+        <v>8</v>
       </c>
       <c r="L488">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="M488">
-        <v>17</v>
+        <v>1.363</v>
       </c>
       <c r="N488">
-        <v>1.166</v>
+        <v>8</v>
       </c>
       <c r="O488">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="P488">
-        <v>17</v>
+        <v>1.363</v>
       </c>
       <c r="Q488">
-        <v>-2.25</v>
+        <v>1.5</v>
       </c>
       <c r="R488">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S488">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T488">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U488">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V488">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W488">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X488">
         <v>-1</v>
       </c>
       <c r="Y488">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z488">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA488">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB488">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AC488">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="489" spans="1:29">
@@ -43953,7 +43953,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>5169346</v>
+        <v>5169345</v>
       </c>
       <c r="C489" t="s">
         <v>28</v>
@@ -43965,55 +43965,55 @@
         <v>44975.5</v>
       </c>
       <c r="F489" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G489" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I489">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J489" t="s">
         <v>45</v>
       </c>
       <c r="K489">
-        <v>8</v>
+        <v>2.25</v>
       </c>
       <c r="L489">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M489">
-        <v>1.363</v>
+        <v>3.25</v>
       </c>
       <c r="N489">
-        <v>8</v>
+        <v>2.45</v>
       </c>
       <c r="O489">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P489">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="Q489">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R489">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="S489">
+        <v>1.775</v>
+      </c>
+      <c r="T489">
+        <v>2.25</v>
+      </c>
+      <c r="U489">
         <v>2.05</v>
       </c>
-      <c r="T489">
-        <v>2.75</v>
-      </c>
-      <c r="U489">
-        <v>1.925</v>
-      </c>
       <c r="V489">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="W489">
         <v>-1</v>
@@ -44022,19 +44022,19 @@
         <v>-1</v>
       </c>
       <c r="Y489">
-        <v>0.363</v>
+        <v>2</v>
       </c>
       <c r="Z489">
         <v>-1</v>
       </c>
       <c r="AA489">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB489">
         <v>1.05</v>
       </c>
-      <c r="AB489">
-        <v>0.4625</v>
-      </c>
       <c r="AC489">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="490" spans="1:29">
@@ -44042,7 +44042,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>5169345</v>
+        <v>5169649</v>
       </c>
       <c r="C490" t="s">
         <v>28</v>
@@ -44054,73 +44054,73 @@
         <v>44975.5</v>
       </c>
       <c r="F490" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G490" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H490">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I490">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J490" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K490">
-        <v>2.25</v>
+        <v>1.166</v>
       </c>
       <c r="L490">
-        <v>3.25</v>
+        <v>7.5</v>
       </c>
       <c r="M490">
-        <v>3.25</v>
+        <v>17</v>
       </c>
       <c r="N490">
-        <v>2.45</v>
+        <v>1.166</v>
       </c>
       <c r="O490">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="P490">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="Q490">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R490">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S490">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T490">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U490">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V490">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="W490">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X490">
         <v>-1</v>
       </c>
       <c r="Y490">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z490">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA490">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB490">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC490">
         <v>-1</v>
@@ -47869,7 +47869,7 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>5428458</v>
+        <v>5498114</v>
       </c>
       <c r="C533" t="s">
         <v>28</v>
@@ -47881,67 +47881,67 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F533" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G533" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H533">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I533">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J533" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K533">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="L533">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M533">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="N533">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="O533">
         <v>3.3</v>
       </c>
       <c r="P533">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="Q533">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R533">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S533">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T533">
         <v>2.25</v>
       </c>
       <c r="U533">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V533">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W533">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X533">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y533">
         <v>-1</v>
       </c>
       <c r="Z533">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA533">
         <v>-1</v>
@@ -47950,7 +47950,7 @@
         <v>-0.5</v>
       </c>
       <c r="AC533">
-        <v>0.4875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="534" spans="1:29">
@@ -47958,7 +47958,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>5498114</v>
+        <v>5428458</v>
       </c>
       <c r="C534" t="s">
         <v>28</v>
@@ -47970,67 +47970,67 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F534" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G534" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I534">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J534" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K534">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="L534">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M534">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="N534">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="O534">
         <v>3.3</v>
       </c>
       <c r="P534">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q534">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R534">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S534">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T534">
         <v>2.25</v>
       </c>
       <c r="U534">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V534">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W534">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X534">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y534">
         <v>-1</v>
       </c>
       <c r="Z534">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA534">
         <v>-1</v>
@@ -48039,7 +48039,7 @@
         <v>-0.5</v>
       </c>
       <c r="AC534">
-        <v>0.475</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="535" spans="1:29">
@@ -54277,7 +54277,7 @@
         <v>603</v>
       </c>
       <c r="B605">
-        <v>6844740</v>
+        <v>6845506</v>
       </c>
       <c r="C605" t="s">
         <v>28</v>
@@ -54289,76 +54289,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F605" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G605" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H605">
         <v>1</v>
       </c>
       <c r="I605">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J605" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K605">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="L605">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M605">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="N605">
-        <v>2.4</v>
+        <v>1.363</v>
       </c>
       <c r="O605">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="P605">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="Q605">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R605">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S605">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T605">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U605">
+        <v>1.975</v>
+      </c>
+      <c r="V605">
         <v>1.875</v>
       </c>
-      <c r="V605">
-        <v>1.975</v>
-      </c>
       <c r="W605">
         <v>-1</v>
       </c>
       <c r="X605">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y605">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z605">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA605">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB605">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC605">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="606" spans="1:29">
@@ -54366,7 +54366,7 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>6845506</v>
+        <v>6844740</v>
       </c>
       <c r="C606" t="s">
         <v>28</v>
@@ -54378,76 +54378,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F606" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G606" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H606">
         <v>1</v>
       </c>
       <c r="I606">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J606" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K606">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="L606">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M606">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="N606">
-        <v>1.363</v>
+        <v>2.4</v>
       </c>
       <c r="O606">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P606">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="Q606">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R606">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S606">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T606">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U606">
+        <v>1.875</v>
+      </c>
+      <c r="V606">
         <v>1.975</v>
       </c>
-      <c r="V606">
-        <v>1.875</v>
-      </c>
       <c r="W606">
         <v>-1</v>
       </c>
       <c r="X606">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y606">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z606">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA606">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB606">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC606">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="607" spans="1:29">
@@ -58638,7 +58638,7 @@
         <v>652</v>
       </c>
       <c r="B654">
-        <v>6844781</v>
+        <v>6844778</v>
       </c>
       <c r="C654" t="s">
         <v>28</v>
@@ -58650,76 +58650,76 @@
         <v>45266.69791666666</v>
       </c>
       <c r="F654" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G654" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H654">
+        <v>0</v>
+      </c>
+      <c r="I654">
         <v>1</v>
       </c>
-      <c r="I654">
-        <v>0</v>
-      </c>
       <c r="J654" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K654">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="L654">
+        <v>3.25</v>
+      </c>
+      <c r="M654">
         <v>3.2</v>
       </c>
-      <c r="M654">
+      <c r="N654">
+        <v>2.1</v>
+      </c>
+      <c r="O654">
+        <v>3.4</v>
+      </c>
+      <c r="P654">
+        <v>3.6</v>
+      </c>
+      <c r="Q654">
+        <v>-0.5</v>
+      </c>
+      <c r="R654">
+        <v>2.05</v>
+      </c>
+      <c r="S654">
+        <v>1.8</v>
+      </c>
+      <c r="T654">
+        <v>2.25</v>
+      </c>
+      <c r="U654">
+        <v>1.9</v>
+      </c>
+      <c r="V654">
+        <v>1.95</v>
+      </c>
+      <c r="W654">
+        <v>-1</v>
+      </c>
+      <c r="X654">
+        <v>-1</v>
+      </c>
+      <c r="Y654">
         <v>2.6</v>
       </c>
-      <c r="N654">
-        <v>3</v>
-      </c>
-      <c r="O654">
-        <v>2.9</v>
-      </c>
-      <c r="P654">
-        <v>2.625</v>
-      </c>
-      <c r="Q654">
-        <v>0</v>
-      </c>
-      <c r="R654">
-        <v>1.925</v>
-      </c>
-      <c r="S654">
-        <v>1.925</v>
-      </c>
-      <c r="T654">
-        <v>2</v>
-      </c>
-      <c r="U654">
-        <v>2.05</v>
-      </c>
-      <c r="V654">
-        <v>1.8</v>
-      </c>
-      <c r="W654">
-        <v>2</v>
-      </c>
-      <c r="X654">
-        <v>-1</v>
-      </c>
-      <c r="Y654">
-        <v>-1</v>
-      </c>
       <c r="Z654">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA654">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB654">
         <v>-1</v>
       </c>
       <c r="AC654">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="655" spans="1:29">
@@ -58727,7 +58727,7 @@
         <v>653</v>
       </c>
       <c r="B655">
-        <v>6844778</v>
+        <v>6844781</v>
       </c>
       <c r="C655" t="s">
         <v>28</v>
@@ -58739,76 +58739,76 @@
         <v>45266.69791666666</v>
       </c>
       <c r="F655" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G655" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I655">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J655" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K655">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="L655">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M655">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="N655">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="O655">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P655">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q655">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R655">
+        <v>1.925</v>
+      </c>
+      <c r="S655">
+        <v>1.925</v>
+      </c>
+      <c r="T655">
+        <v>2</v>
+      </c>
+      <c r="U655">
         <v>2.05</v>
       </c>
-      <c r="S655">
+      <c r="V655">
         <v>1.8</v>
       </c>
-      <c r="T655">
-        <v>2.25</v>
-      </c>
-      <c r="U655">
-        <v>1.9</v>
-      </c>
-      <c r="V655">
-        <v>1.95</v>
-      </c>
       <c r="W655">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X655">
         <v>-1</v>
       </c>
       <c r="Y655">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z655">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA655">
+        <v>-1</v>
+      </c>
+      <c r="AB655">
+        <v>-1</v>
+      </c>
+      <c r="AC655">
         <v>0.8</v>
-      </c>
-      <c r="AB655">
-        <v>-1</v>
-      </c>
-      <c r="AC655">
-        <v>0.95</v>
       </c>
     </row>
     <row r="656" spans="1:29">
@@ -59795,7 +59795,7 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>6844805</v>
+        <v>6845517</v>
       </c>
       <c r="C667" t="s">
         <v>28</v>
@@ -59807,76 +59807,76 @@
         <v>45276.5</v>
       </c>
       <c r="F667" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G667" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H667">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I667">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J667" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K667">
+        <v>1.25</v>
+      </c>
+      <c r="L667">
+        <v>6</v>
+      </c>
+      <c r="M667">
+        <v>10</v>
+      </c>
+      <c r="N667">
+        <v>1.2</v>
+      </c>
+      <c r="O667">
+        <v>7</v>
+      </c>
+      <c r="P667">
+        <v>12</v>
+      </c>
+      <c r="Q667">
+        <v>-2</v>
+      </c>
+      <c r="R667">
+        <v>1.95</v>
+      </c>
+      <c r="S667">
+        <v>1.9</v>
+      </c>
+      <c r="T667">
         <v>3.5</v>
       </c>
-      <c r="L667">
-        <v>3.25</v>
-      </c>
-      <c r="M667">
-        <v>2.1</v>
-      </c>
-      <c r="N667">
-        <v>3.6</v>
-      </c>
-      <c r="O667">
-        <v>3.4</v>
-      </c>
-      <c r="P667">
-        <v>2.05</v>
-      </c>
-      <c r="Q667">
-        <v>0.5</v>
-      </c>
-      <c r="R667">
-        <v>1.8</v>
-      </c>
-      <c r="S667">
-        <v>2.05</v>
-      </c>
-      <c r="T667">
-        <v>2.25</v>
-      </c>
       <c r="U667">
+        <v>2.025</v>
+      </c>
+      <c r="V667">
         <v>1.825</v>
       </c>
-      <c r="V667">
-        <v>2.025</v>
-      </c>
       <c r="W667">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X667">
         <v>-1</v>
       </c>
       <c r="Y667">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="Z667">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA667">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB667">
         <v>-1</v>
       </c>
       <c r="AC667">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="668" spans="1:29">
@@ -59884,7 +59884,7 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>6845517</v>
+        <v>6844805</v>
       </c>
       <c r="C668" t="s">
         <v>28</v>
@@ -59896,76 +59896,76 @@
         <v>45276.5</v>
       </c>
       <c r="F668" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G668" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I668">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J668" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K668">
-        <v>1.25</v>
+        <v>3.5</v>
       </c>
       <c r="L668">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M668">
-        <v>10</v>
+        <v>2.1</v>
       </c>
       <c r="N668">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="O668">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P668">
-        <v>12</v>
+        <v>2.05</v>
       </c>
       <c r="Q668">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R668">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S668">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T668">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U668">
+        <v>1.825</v>
+      </c>
+      <c r="V668">
         <v>2.025</v>
       </c>
-      <c r="V668">
-        <v>1.825</v>
-      </c>
       <c r="W668">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X668">
         <v>-1</v>
       </c>
       <c r="Y668">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="Z668">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA668">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB668">
         <v>-1</v>
       </c>
       <c r="AC668">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="669" spans="1:29">
@@ -62667,19 +62667,19 @@
         <v>-0.75</v>
       </c>
       <c r="R699">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S699">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T699">
         <v>2.5</v>
       </c>
       <c r="U699">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V699">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W699">
         <v>0</v>

--- a/Scotland Premiership/Scotland Premiership.xlsx
+++ b/Scotland Premiership/Scotland Premiership.xlsx
@@ -33362,7 +33362,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>5542385</v>
+        <v>5169852</v>
       </c>
       <c r="C370" t="s">
         <v>28</v>
@@ -33374,76 +33374,76 @@
         <v>44807.45833333334</v>
       </c>
       <c r="F370" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G370" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H370">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370">
         <v>0</v>
       </c>
       <c r="J370" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K370">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="L370">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M370">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N370">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="O370">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P370">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q370">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R370">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S370">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T370">
         <v>2.25</v>
       </c>
       <c r="U370">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V370">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W370">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X370">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y370">
         <v>-1</v>
       </c>
       <c r="Z370">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA370">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB370">
         <v>-1</v>
       </c>
       <c r="AC370">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="371" spans="1:29">
@@ -33451,7 +33451,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>5169852</v>
+        <v>5169604</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33463,40 +33463,40 @@
         <v>44807.45833333334</v>
       </c>
       <c r="F371" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G371" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I371">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J371" t="s">
         <v>44</v>
       </c>
       <c r="K371">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="L371">
         <v>3.2</v>
       </c>
       <c r="M371">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="N371">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="O371">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P371">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q371">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R371">
         <v>1.95</v>
@@ -33508,31 +33508,31 @@
         <v>2.25</v>
       </c>
       <c r="U371">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V371">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W371">
         <v>-1</v>
       </c>
       <c r="X371">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y371">
         <v>-1</v>
       </c>
       <c r="Z371">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA371">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB371">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC371">
-        <v>0.925</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="372" spans="1:29">
@@ -33540,7 +33540,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>5169604</v>
+        <v>5169292</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33552,76 +33552,76 @@
         <v>44807.45833333334</v>
       </c>
       <c r="F372" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G372" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I372">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J372" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K372">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="L372">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M372">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="N372">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="O372">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P372">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="Q372">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R372">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S372">
+        <v>1.825</v>
+      </c>
+      <c r="T372">
+        <v>2</v>
+      </c>
+      <c r="U372">
+        <v>1.975</v>
+      </c>
+      <c r="V372">
+        <v>1.875</v>
+      </c>
+      <c r="W372">
         <v>1.9</v>
       </c>
-      <c r="T372">
-        <v>2.25</v>
-      </c>
-      <c r="U372">
-        <v>2</v>
-      </c>
-      <c r="V372">
-        <v>1.85</v>
-      </c>
-      <c r="W372">
-        <v>-1</v>
-      </c>
       <c r="X372">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y372">
         <v>-1</v>
       </c>
       <c r="Z372">
-        <v>0.475</v>
+        <v>1.025</v>
       </c>
       <c r="AA372">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB372">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC372">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="373" spans="1:29">
@@ -33629,7 +33629,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>5169292</v>
+        <v>5169291</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33641,13 +33641,13 @@
         <v>44807.45833333334</v>
       </c>
       <c r="F373" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G373" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H373">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I373">
         <v>0</v>
@@ -33656,43 +33656,43 @@
         <v>43</v>
       </c>
       <c r="K373">
+        <v>3.5</v>
+      </c>
+      <c r="L373">
+        <v>3.2</v>
+      </c>
+      <c r="M373">
+        <v>2.15</v>
+      </c>
+      <c r="N373">
+        <v>3.4</v>
+      </c>
+      <c r="O373">
+        <v>3.4</v>
+      </c>
+      <c r="P373">
+        <v>2.2</v>
+      </c>
+      <c r="Q373">
+        <v>0.25</v>
+      </c>
+      <c r="R373">
+        <v>1.95</v>
+      </c>
+      <c r="S373">
+        <v>1.9</v>
+      </c>
+      <c r="T373">
         <v>2.5</v>
       </c>
-      <c r="L373">
-        <v>3</v>
-      </c>
-      <c r="M373">
-        <v>3</v>
-      </c>
-      <c r="N373">
-        <v>2.9</v>
-      </c>
-      <c r="O373">
-        <v>3</v>
-      </c>
-      <c r="P373">
-        <v>2.625</v>
-      </c>
-      <c r="Q373">
-        <v>0</v>
-      </c>
-      <c r="R373">
-        <v>2.025</v>
-      </c>
-      <c r="S373">
-        <v>1.825</v>
-      </c>
-      <c r="T373">
-        <v>2</v>
-      </c>
       <c r="U373">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V373">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W373">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="X373">
         <v>-1</v>
@@ -33701,16 +33701,16 @@
         <v>-1</v>
       </c>
       <c r="Z373">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA373">
         <v>-1</v>
       </c>
       <c r="AB373">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC373">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="374" spans="1:29">
@@ -33718,7 +33718,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>5169291</v>
+        <v>5542385</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33730,10 +33730,10 @@
         <v>44807.45833333334</v>
       </c>
       <c r="F374" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G374" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H374">
         <v>1</v>
@@ -33745,43 +33745,43 @@
         <v>43</v>
       </c>
       <c r="K374">
-        <v>3.5</v>
+        <v>1.533</v>
       </c>
       <c r="L374">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M374">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
       <c r="N374">
-        <v>3.4</v>
+        <v>1.65</v>
       </c>
       <c r="O374">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P374">
-        <v>2.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q374">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R374">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S374">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T374">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U374">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V374">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W374">
-        <v>2.4</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X374">
         <v>-1</v>
@@ -33790,16 +33790,16 @@
         <v>-1</v>
       </c>
       <c r="Z374">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AA374">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB374">
         <v>-1</v>
       </c>
       <c r="AC374">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:29">
@@ -36744,7 +36744,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>5169619</v>
+        <v>5169311</v>
       </c>
       <c r="C408" t="s">
         <v>28</v>
@@ -36756,59 +36756,59 @@
         <v>44863.45833333334</v>
       </c>
       <c r="F408" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G408" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H408">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I408">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J408" t="s">
         <v>43</v>
       </c>
       <c r="K408">
-        <v>1.333</v>
+        <v>2.45</v>
       </c>
       <c r="L408">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="M408">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="N408">
+        <v>2.4</v>
+      </c>
+      <c r="O408">
+        <v>2.9</v>
+      </c>
+      <c r="P408">
+        <v>3.4</v>
+      </c>
+      <c r="Q408">
+        <v>-0.25</v>
+      </c>
+      <c r="R408">
+        <v>2</v>
+      </c>
+      <c r="S408">
+        <v>1.85</v>
+      </c>
+      <c r="T408">
+        <v>2</v>
+      </c>
+      <c r="U408">
+        <v>2</v>
+      </c>
+      <c r="V408">
+        <v>1.85</v>
+      </c>
+      <c r="W408">
         <v>1.4</v>
       </c>
-      <c r="O408">
-        <v>5.25</v>
-      </c>
-      <c r="P408">
-        <v>6.5</v>
-      </c>
-      <c r="Q408">
-        <v>-1.25</v>
-      </c>
-      <c r="R408">
-        <v>1.825</v>
-      </c>
-      <c r="S408">
-        <v>2.025</v>
-      </c>
-      <c r="T408">
-        <v>3</v>
-      </c>
-      <c r="U408">
-        <v>1.95</v>
-      </c>
-      <c r="V408">
-        <v>1.9</v>
-      </c>
-      <c r="W408">
-        <v>0.3999999999999999</v>
-      </c>
       <c r="X408">
         <v>-1</v>
       </c>
@@ -36816,16 +36816,16 @@
         <v>-1</v>
       </c>
       <c r="Z408">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA408">
         <v>-1</v>
       </c>
       <c r="AB408">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC408">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="409" spans="1:29">
@@ -36833,7 +36833,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>5169859</v>
+        <v>5169619</v>
       </c>
       <c r="C409" t="s">
         <v>28</v>
@@ -36845,76 +36845,76 @@
         <v>44863.45833333334</v>
       </c>
       <c r="F409" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G409" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I409">
         <v>1</v>
       </c>
       <c r="J409" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K409">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="L409">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="M409">
-        <v>2.7</v>
+        <v>8</v>
       </c>
       <c r="N409">
+        <v>1.4</v>
+      </c>
+      <c r="O409">
+        <v>5.25</v>
+      </c>
+      <c r="P409">
+        <v>6.5</v>
+      </c>
+      <c r="Q409">
+        <v>-1.25</v>
+      </c>
+      <c r="R409">
+        <v>1.825</v>
+      </c>
+      <c r="S409">
+        <v>2.025</v>
+      </c>
+      <c r="T409">
         <v>3</v>
       </c>
-      <c r="O409">
-        <v>3.2</v>
-      </c>
-      <c r="P409">
-        <v>2.5</v>
-      </c>
-      <c r="Q409">
-        <v>0</v>
-      </c>
-      <c r="R409">
-        <v>2.1</v>
-      </c>
-      <c r="S409">
-        <v>1.775</v>
-      </c>
-      <c r="T409">
-        <v>2.25</v>
-      </c>
       <c r="U409">
+        <v>1.95</v>
+      </c>
+      <c r="V409">
         <v>1.9</v>
       </c>
-      <c r="V409">
-        <v>1.95</v>
-      </c>
       <c r="W409">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X409">
         <v>-1</v>
       </c>
       <c r="Y409">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z409">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA409">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB409">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC409">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="410" spans="1:29">
@@ -36922,7 +36922,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>5169311</v>
+        <v>5169859</v>
       </c>
       <c r="C410" t="s">
         <v>28</v>
@@ -36934,76 +36934,76 @@
         <v>44863.45833333334</v>
       </c>
       <c r="F410" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G410" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H410">
+        <v>0</v>
+      </c>
+      <c r="I410">
         <v>1</v>
       </c>
-      <c r="I410">
-        <v>0</v>
-      </c>
       <c r="J410" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K410">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="L410">
+        <v>3.2</v>
+      </c>
+      <c r="M410">
+        <v>2.7</v>
+      </c>
+      <c r="N410">
         <v>3</v>
       </c>
-      <c r="M410">
-        <v>3.1</v>
-      </c>
-      <c r="N410">
-        <v>2.4</v>
-      </c>
       <c r="O410">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P410">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="Q410">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R410">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S410">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T410">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U410">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V410">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W410">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X410">
         <v>-1</v>
       </c>
       <c r="Y410">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z410">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA410">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB410">
         <v>-1</v>
       </c>
       <c r="AC410">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="411" spans="1:29">
@@ -37812,7 +37812,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>5169315</v>
+        <v>5169623</v>
       </c>
       <c r="C420" t="s">
         <v>28</v>
@@ -37824,76 +37824,76 @@
         <v>44873.69791666666</v>
       </c>
       <c r="F420" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G420" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J420" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K420">
-        <v>2.625</v>
+        <v>1.6</v>
       </c>
       <c r="L420">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M420">
-        <v>2.625</v>
+        <v>5.75</v>
       </c>
       <c r="N420">
-        <v>2.45</v>
+        <v>1.4</v>
       </c>
       <c r="O420">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P420">
-        <v>2.875</v>
+        <v>8</v>
       </c>
       <c r="Q420">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R420">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S420">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="T420">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U420">
+        <v>1.95</v>
+      </c>
+      <c r="V420">
         <v>1.9</v>
       </c>
-      <c r="V420">
-        <v>1.95</v>
-      </c>
       <c r="W420">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X420">
         <v>-1</v>
       </c>
       <c r="Y420">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z420">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA420">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB420">
+        <v>-1</v>
+      </c>
+      <c r="AC420">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC420">
-        <v>-1</v>
       </c>
     </row>
     <row r="421" spans="1:29">
@@ -37901,7 +37901,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>5169623</v>
+        <v>5169315</v>
       </c>
       <c r="C421" t="s">
         <v>28</v>
@@ -37913,76 +37913,76 @@
         <v>44873.69791666666</v>
       </c>
       <c r="F421" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G421" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J421" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K421">
-        <v>1.6</v>
+        <v>2.625</v>
       </c>
       <c r="L421">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M421">
-        <v>5.75</v>
+        <v>2.625</v>
       </c>
       <c r="N421">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="O421">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P421">
-        <v>8</v>
+        <v>2.875</v>
       </c>
       <c r="Q421">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R421">
+        <v>1.775</v>
+      </c>
+      <c r="S421">
+        <v>2.1</v>
+      </c>
+      <c r="T421">
+        <v>2.25</v>
+      </c>
+      <c r="U421">
+        <v>1.9</v>
+      </c>
+      <c r="V421">
         <v>1.95</v>
       </c>
-      <c r="S421">
-        <v>1.9</v>
-      </c>
-      <c r="T421">
-        <v>2.5</v>
-      </c>
-      <c r="U421">
-        <v>1.95</v>
-      </c>
-      <c r="V421">
-        <v>1.9</v>
-      </c>
       <c r="W421">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X421">
         <v>-1</v>
       </c>
       <c r="Y421">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z421">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA421">
+        <v>-1</v>
+      </c>
+      <c r="AB421">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB421">
-        <v>-1</v>
-      </c>
       <c r="AC421">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="422" spans="1:29">
@@ -37990,7 +37990,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>5169862</v>
+        <v>5169863</v>
       </c>
       <c r="C422" t="s">
         <v>28</v>
@@ -38002,49 +38002,49 @@
         <v>44874.69791666666</v>
       </c>
       <c r="F422" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G422" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H422">
         <v>1</v>
       </c>
       <c r="I422">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J422" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K422">
-        <v>9</v>
+        <v>1.285</v>
       </c>
       <c r="L422">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M422">
-        <v>1.333</v>
+        <v>9.5</v>
       </c>
       <c r="N422">
-        <v>9</v>
+        <v>1.2</v>
       </c>
       <c r="O422">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="P422">
-        <v>1.25</v>
+        <v>11</v>
       </c>
       <c r="Q422">
-        <v>1.75</v>
+        <v>-2</v>
       </c>
       <c r="R422">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S422">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T422">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U422">
         <v>1.9</v>
@@ -38053,25 +38053,25 @@
         <v>1.95</v>
       </c>
       <c r="W422">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X422">
         <v>-1</v>
       </c>
       <c r="Y422">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z422">
+        <v>-1</v>
+      </c>
+      <c r="AA422">
         <v>1</v>
       </c>
-      <c r="AA422">
-        <v>-1</v>
-      </c>
       <c r="AB422">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC422">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="423" spans="1:29">
@@ -38079,7 +38079,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>5169863</v>
+        <v>5169862</v>
       </c>
       <c r="C423" t="s">
         <v>28</v>
@@ -38091,49 +38091,49 @@
         <v>44874.69791666666</v>
       </c>
       <c r="F423" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G423" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H423">
         <v>1</v>
       </c>
       <c r="I423">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J423" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K423">
-        <v>1.285</v>
+        <v>9</v>
       </c>
       <c r="L423">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M423">
-        <v>9.5</v>
+        <v>1.333</v>
       </c>
       <c r="N423">
-        <v>1.2</v>
+        <v>9</v>
       </c>
       <c r="O423">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="P423">
-        <v>11</v>
+        <v>1.25</v>
       </c>
       <c r="Q423">
-        <v>-2</v>
+        <v>1.75</v>
       </c>
       <c r="R423">
+        <v>2</v>
+      </c>
+      <c r="S423">
         <v>1.85</v>
       </c>
-      <c r="S423">
-        <v>2</v>
-      </c>
       <c r="T423">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U423">
         <v>1.9</v>
@@ -38142,25 +38142,25 @@
         <v>1.95</v>
       </c>
       <c r="W423">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X423">
         <v>-1</v>
       </c>
       <c r="Y423">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z423">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA423">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB423">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC423">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="424" spans="1:29">
@@ -38435,7 +38435,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>5169625</v>
+        <v>5169317</v>
       </c>
       <c r="C427" t="s">
         <v>28</v>
@@ -38447,61 +38447,61 @@
         <v>44877.5</v>
       </c>
       <c r="F427" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G427" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I427">
         <v>1</v>
       </c>
       <c r="J427" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K427">
-        <v>1.09</v>
+        <v>2.05</v>
       </c>
       <c r="L427">
-        <v>9</v>
+        <v>3.25</v>
       </c>
       <c r="M427">
-        <v>23</v>
+        <v>3.6</v>
       </c>
       <c r="N427">
-        <v>1.071</v>
+        <v>1.8</v>
       </c>
       <c r="O427">
-        <v>15</v>
+        <v>3.75</v>
       </c>
       <c r="P427">
-        <v>21</v>
+        <v>4.5</v>
       </c>
       <c r="Q427">
-        <v>-3</v>
+        <v>-0.75</v>
       </c>
       <c r="R427">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S427">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T427">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="U427">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V427">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W427">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="X427">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y427">
         <v>-1</v>
@@ -38510,13 +38510,13 @@
         <v>-1</v>
       </c>
       <c r="AA427">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB427">
         <v>-1</v>
       </c>
       <c r="AC427">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="428" spans="1:29">
@@ -38613,7 +38613,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>5169317</v>
+        <v>5169625</v>
       </c>
       <c r="C429" t="s">
         <v>28</v>
@@ -38625,61 +38625,61 @@
         <v>44877.5</v>
       </c>
       <c r="F429" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G429" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I429">
         <v>1</v>
       </c>
       <c r="J429" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K429">
-        <v>2.05</v>
+        <v>1.09</v>
       </c>
       <c r="L429">
-        <v>3.25</v>
+        <v>9</v>
       </c>
       <c r="M429">
-        <v>3.6</v>
+        <v>23</v>
       </c>
       <c r="N429">
-        <v>1.8</v>
+        <v>1.071</v>
       </c>
       <c r="O429">
-        <v>3.75</v>
+        <v>15</v>
       </c>
       <c r="P429">
-        <v>4.5</v>
+        <v>21</v>
       </c>
       <c r="Q429">
-        <v>-0.75</v>
+        <v>-3</v>
       </c>
       <c r="R429">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S429">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T429">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U429">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V429">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W429">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="X429">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y429">
         <v>-1</v>
@@ -38688,13 +38688,13 @@
         <v>-1</v>
       </c>
       <c r="AA429">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB429">
         <v>-1</v>
       </c>
       <c r="AC429">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="430" spans="1:29">
@@ -40215,7 +40215,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>5169632</v>
+        <v>5169327</v>
       </c>
       <c r="C447" t="s">
         <v>28</v>
@@ -40227,73 +40227,73 @@
         <v>44923.69791666666</v>
       </c>
       <c r="F447" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G447" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H447">
+        <v>2</v>
+      </c>
+      <c r="I447">
         <v>3</v>
       </c>
-      <c r="I447">
-        <v>0</v>
-      </c>
       <c r="J447" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K447">
+        <v>2.7</v>
+      </c>
+      <c r="L447">
+        <v>3.25</v>
+      </c>
+      <c r="M447">
         <v>2.6</v>
       </c>
-      <c r="L447">
-        <v>3.2</v>
-      </c>
-      <c r="M447">
-        <v>2.75</v>
-      </c>
       <c r="N447">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="O447">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P447">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="Q447">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R447">
+        <v>1.95</v>
+      </c>
+      <c r="S447">
+        <v>1.9</v>
+      </c>
+      <c r="T447">
+        <v>2.5</v>
+      </c>
+      <c r="U447">
         <v>1.925</v>
       </c>
-      <c r="S447">
+      <c r="V447">
         <v>1.925</v>
       </c>
-      <c r="T447">
-        <v>2.25</v>
-      </c>
-      <c r="U447">
-        <v>1.95</v>
-      </c>
-      <c r="V447">
-        <v>1.9</v>
-      </c>
       <c r="W447">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X447">
         <v>-1</v>
       </c>
       <c r="Y447">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z447">
+        <v>-1</v>
+      </c>
+      <c r="AA447">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB447">
         <v>0.925</v>
-      </c>
-      <c r="AA447">
-        <v>-1</v>
-      </c>
-      <c r="AB447">
-        <v>0.95</v>
       </c>
       <c r="AC447">
         <v>-1</v>
@@ -40304,7 +40304,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>5169327</v>
+        <v>5169632</v>
       </c>
       <c r="C448" t="s">
         <v>28</v>
@@ -40316,73 +40316,73 @@
         <v>44923.69791666666</v>
       </c>
       <c r="F448" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G448" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I448">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J448" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K448">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="L448">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M448">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N448">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="O448">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P448">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q448">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R448">
+        <v>1.925</v>
+      </c>
+      <c r="S448">
+        <v>1.925</v>
+      </c>
+      <c r="T448">
+        <v>2.25</v>
+      </c>
+      <c r="U448">
         <v>1.95</v>
       </c>
-      <c r="S448">
+      <c r="V448">
         <v>1.9</v>
       </c>
-      <c r="T448">
-        <v>2.5</v>
-      </c>
-      <c r="U448">
-        <v>1.925</v>
-      </c>
-      <c r="V448">
-        <v>1.925</v>
-      </c>
       <c r="W448">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X448">
         <v>-1</v>
       </c>
       <c r="Y448">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z448">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA448">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB448">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC448">
         <v>-1</v>
@@ -41906,7 +41906,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>5169334</v>
+        <v>5169639</v>
       </c>
       <c r="C466" t="s">
         <v>28</v>
@@ -41918,13 +41918,13 @@
         <v>44944.69791666666</v>
       </c>
       <c r="F466" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G466" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H466">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I466">
         <v>0</v>
@@ -41933,44 +41933,44 @@
         <v>43</v>
       </c>
       <c r="K466">
-        <v>1.111</v>
+        <v>2.375</v>
       </c>
       <c r="L466">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="M466">
-        <v>21</v>
+        <v>2.9</v>
       </c>
       <c r="N466">
+        <v>2.1</v>
+      </c>
+      <c r="O466">
+        <v>3.5</v>
+      </c>
+      <c r="P466">
+        <v>3.5</v>
+      </c>
+      <c r="Q466">
+        <v>-0.25</v>
+      </c>
+      <c r="R466">
+        <v>1.8</v>
+      </c>
+      <c r="S466">
+        <v>2.05</v>
+      </c>
+      <c r="T466">
+        <v>2.75</v>
+      </c>
+      <c r="U466">
+        <v>1.925</v>
+      </c>
+      <c r="V466">
+        <v>1.925</v>
+      </c>
+      <c r="W466">
         <v>1.1</v>
       </c>
-      <c r="O466">
-        <v>9</v>
-      </c>
-      <c r="P466">
-        <v>26</v>
-      </c>
-      <c r="Q466">
-        <v>-2.25</v>
-      </c>
-      <c r="R466">
-        <v>1.85</v>
-      </c>
-      <c r="S466">
-        <v>2</v>
-      </c>
-      <c r="T466">
-        <v>3.5</v>
-      </c>
-      <c r="U466">
-        <v>2</v>
-      </c>
-      <c r="V466">
-        <v>1.85</v>
-      </c>
-      <c r="W466">
-        <v>0.1000000000000001</v>
-      </c>
       <c r="X466">
         <v>-1</v>
       </c>
@@ -41978,13 +41978,13 @@
         <v>-1</v>
       </c>
       <c r="Z466">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA466">
         <v>-1</v>
       </c>
       <c r="AB466">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC466">
         <v>-1</v>
@@ -41995,7 +41995,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>5169639</v>
+        <v>5169334</v>
       </c>
       <c r="C467" t="s">
         <v>28</v>
@@ -42007,13 +42007,13 @@
         <v>44944.69791666666</v>
       </c>
       <c r="F467" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G467" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H467">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I467">
         <v>0</v>
@@ -42022,43 +42022,43 @@
         <v>43</v>
       </c>
       <c r="K467">
-        <v>2.375</v>
+        <v>1.111</v>
       </c>
       <c r="L467">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="M467">
-        <v>2.9</v>
+        <v>21</v>
       </c>
       <c r="N467">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="O467">
+        <v>9</v>
+      </c>
+      <c r="P467">
+        <v>26</v>
+      </c>
+      <c r="Q467">
+        <v>-2.25</v>
+      </c>
+      <c r="R467">
+        <v>1.85</v>
+      </c>
+      <c r="S467">
+        <v>2</v>
+      </c>
+      <c r="T467">
         <v>3.5</v>
       </c>
-      <c r="P467">
-        <v>3.5</v>
-      </c>
-      <c r="Q467">
-        <v>-0.25</v>
-      </c>
-      <c r="R467">
-        <v>1.8</v>
-      </c>
-      <c r="S467">
-        <v>2.05</v>
-      </c>
-      <c r="T467">
-        <v>2.75</v>
-      </c>
       <c r="U467">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V467">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W467">
-        <v>1.1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X467">
         <v>-1</v>
@@ -42067,13 +42067,13 @@
         <v>-1</v>
       </c>
       <c r="Z467">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA467">
         <v>-1</v>
       </c>
       <c r="AB467">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC467">
         <v>-1</v>
@@ -46356,7 +46356,7 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>5355082</v>
+        <v>5169887</v>
       </c>
       <c r="C516" t="s">
         <v>28</v>
@@ -46368,76 +46368,76 @@
         <v>45017.45833333334</v>
       </c>
       <c r="F516" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G516" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J516" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K516">
-        <v>2.95</v>
+        <v>1.142</v>
       </c>
       <c r="L516">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="M516">
-        <v>2.4</v>
+        <v>15</v>
       </c>
       <c r="N516">
-        <v>3.2</v>
+        <v>1.111</v>
       </c>
       <c r="O516">
-        <v>3.25</v>
+        <v>11</v>
       </c>
       <c r="P516">
-        <v>2.25</v>
+        <v>15</v>
       </c>
       <c r="Q516">
-        <v>0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R516">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S516">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T516">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U516">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V516">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W516">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="X516">
         <v>-1</v>
       </c>
       <c r="Y516">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z516">
         <v>-1</v>
       </c>
       <c r="AA516">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB516">
         <v>-1</v>
       </c>
       <c r="AC516">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="517" spans="1:29">
@@ -46445,7 +46445,7 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>5169887</v>
+        <v>5355082</v>
       </c>
       <c r="C517" t="s">
         <v>28</v>
@@ -46457,76 +46457,76 @@
         <v>45017.45833333334</v>
       </c>
       <c r="F517" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G517" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J517" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K517">
-        <v>1.142</v>
+        <v>2.95</v>
       </c>
       <c r="L517">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="M517">
-        <v>15</v>
+        <v>2.4</v>
       </c>
       <c r="N517">
-        <v>1.111</v>
+        <v>3.2</v>
       </c>
       <c r="O517">
-        <v>11</v>
+        <v>3.25</v>
       </c>
       <c r="P517">
-        <v>15</v>
+        <v>2.25</v>
       </c>
       <c r="Q517">
-        <v>-2.5</v>
+        <v>0.25</v>
       </c>
       <c r="R517">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S517">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T517">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U517">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V517">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W517">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="X517">
         <v>-1</v>
       </c>
       <c r="Y517">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z517">
         <v>-1</v>
       </c>
       <c r="AA517">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB517">
         <v>-1</v>
       </c>
       <c r="AC517">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="518" spans="1:29">
@@ -56057,7 +56057,7 @@
         <v>623</v>
       </c>
       <c r="B625">
-        <v>6844837</v>
+        <v>6844758</v>
       </c>
       <c r="C625" t="s">
         <v>28</v>
@@ -56069,58 +56069,58 @@
         <v>45231.69791666666</v>
       </c>
       <c r="F625" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G625" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H625">
+        <v>2</v>
+      </c>
+      <c r="I625">
         <v>1</v>
-      </c>
-      <c r="I625">
-        <v>0</v>
       </c>
       <c r="J625" t="s">
         <v>43</v>
       </c>
       <c r="K625">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L625">
+        <v>3.1</v>
+      </c>
+      <c r="M625">
+        <v>2.9</v>
+      </c>
+      <c r="N625">
         <v>3.75</v>
       </c>
-      <c r="M625">
-        <v>4.5</v>
-      </c>
-      <c r="N625">
-        <v>1.45</v>
-      </c>
       <c r="O625">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P625">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q625">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R625">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S625">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T625">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U625">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V625">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W625">
-        <v>0.45</v>
+        <v>2.75</v>
       </c>
       <c r="X625">
         <v>-1</v>
@@ -56129,16 +56129,16 @@
         <v>-1</v>
       </c>
       <c r="Z625">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA625">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB625">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC625">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="626" spans="1:29">
@@ -56146,7 +56146,7 @@
         <v>624</v>
       </c>
       <c r="B626">
-        <v>6844757</v>
+        <v>6844837</v>
       </c>
       <c r="C626" t="s">
         <v>28</v>
@@ -56158,49 +56158,49 @@
         <v>45231.69791666666</v>
       </c>
       <c r="F626" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G626" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I626">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J626" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K626">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="L626">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M626">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="N626">
-        <v>2.45</v>
+        <v>1.45</v>
       </c>
       <c r="O626">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="P626">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="Q626">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R626">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S626">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T626">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U626">
         <v>1.9</v>
@@ -56209,25 +56209,25 @@
         <v>1.95</v>
       </c>
       <c r="W626">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X626">
         <v>-1</v>
       </c>
       <c r="Y626">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z626">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA626">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB626">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC626">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="627" spans="1:29">
@@ -56235,7 +56235,7 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>6844754</v>
+        <v>6844757</v>
       </c>
       <c r="C627" t="s">
         <v>28</v>
@@ -56247,76 +56247,76 @@
         <v>45231.69791666666</v>
       </c>
       <c r="F627" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G627" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H627">
         <v>2</v>
       </c>
       <c r="I627">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J627" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K627">
-        <v>1.181</v>
+        <v>2.625</v>
       </c>
       <c r="L627">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="M627">
-        <v>13</v>
+        <v>2.7</v>
       </c>
       <c r="N627">
-        <v>1.2</v>
+        <v>2.45</v>
       </c>
       <c r="O627">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="P627">
-        <v>13</v>
+        <v>2.9</v>
       </c>
       <c r="Q627">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R627">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S627">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T627">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U627">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V627">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W627">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X627">
         <v>-1</v>
       </c>
       <c r="Y627">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z627">
         <v>-1</v>
       </c>
       <c r="AA627">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AB627">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC627">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="628" spans="1:29">
@@ -56324,7 +56324,7 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>6844758</v>
+        <v>6844754</v>
       </c>
       <c r="C628" t="s">
         <v>28</v>
@@ -56336,10 +56336,10 @@
         <v>45231.69791666666</v>
       </c>
       <c r="F628" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G628" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H628">
         <v>2</v>
@@ -56351,43 +56351,43 @@
         <v>43</v>
       </c>
       <c r="K628">
-        <v>2.5</v>
+        <v>1.181</v>
       </c>
       <c r="L628">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="M628">
-        <v>2.9</v>
+        <v>13</v>
       </c>
       <c r="N628">
-        <v>3.75</v>
+        <v>1.2</v>
       </c>
       <c r="O628">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="P628">
-        <v>2.15</v>
+        <v>13</v>
       </c>
       <c r="Q628">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R628">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S628">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T628">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U628">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V628">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W628">
-        <v>2.75</v>
+        <v>0.2</v>
       </c>
       <c r="X628">
         <v>-1</v>
@@ -56396,16 +56396,16 @@
         <v>-1</v>
       </c>
       <c r="Z628">
+        <v>-1</v>
+      </c>
+      <c r="AA628">
         <v>1</v>
       </c>
-      <c r="AA628">
-        <v>-1</v>
-      </c>
       <c r="AB628">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC628">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="629" spans="1:29">
@@ -59973,7 +59973,7 @@
         <v>667</v>
       </c>
       <c r="B669">
-        <v>7451733</v>
+        <v>7451620</v>
       </c>
       <c r="C669" t="s">
         <v>28</v>
@@ -59985,58 +59985,58 @@
         <v>45280.69791666666</v>
       </c>
       <c r="F669" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G669" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H669">
         <v>2</v>
       </c>
       <c r="I669">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J669" t="s">
         <v>43</v>
       </c>
       <c r="K669">
-        <v>1.125</v>
+        <v>1.727</v>
       </c>
       <c r="L669">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="M669">
-        <v>17</v>
+        <v>4.5</v>
       </c>
       <c r="N669">
-        <v>1.125</v>
+        <v>1.6</v>
       </c>
       <c r="O669">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="P669">
-        <v>19</v>
+        <v>5.5</v>
       </c>
       <c r="Q669">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R669">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S669">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T669">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U669">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V669">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W669">
-        <v>0.125</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X669">
         <v>-1</v>
@@ -60045,16 +60045,16 @@
         <v>-1</v>
       </c>
       <c r="Z669">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA669">
-        <v>0.4625</v>
+        <v>-0</v>
       </c>
       <c r="AB669">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC669">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="670" spans="1:29">
@@ -60062,7 +60062,7 @@
         <v>668</v>
       </c>
       <c r="B670">
-        <v>7451620</v>
+        <v>7451733</v>
       </c>
       <c r="C670" t="s">
         <v>28</v>
@@ -60074,58 +60074,58 @@
         <v>45280.69791666666</v>
       </c>
       <c r="F670" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G670" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H670">
         <v>2</v>
       </c>
       <c r="I670">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J670" t="s">
         <v>43</v>
       </c>
       <c r="K670">
-        <v>1.727</v>
+        <v>1.125</v>
       </c>
       <c r="L670">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="M670">
-        <v>4.5</v>
+        <v>17</v>
       </c>
       <c r="N670">
-        <v>1.6</v>
+        <v>1.125</v>
       </c>
       <c r="O670">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="P670">
-        <v>5.5</v>
+        <v>19</v>
       </c>
       <c r="Q670">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R670">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S670">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T670">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U670">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V670">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W670">
-        <v>0.6000000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="X670">
         <v>-1</v>
@@ -60134,16 +60134,16 @@
         <v>-1</v>
       </c>
       <c r="Z670">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA670">
-        <v>-0</v>
+        <v>0.4625</v>
       </c>
       <c r="AB670">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC670">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="671" spans="1:29">
@@ -62581,7 +62581,7 @@
         <v>2.8</v>
       </c>
       <c r="N698">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="O698">
         <v>3.25</v>
@@ -62590,13 +62590,13 @@
         <v>3</v>
       </c>
       <c r="Q698">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R698">
+        <v>1.775</v>
+      </c>
+      <c r="S698">
         <v>2.1</v>
-      </c>
-      <c r="S698">
-        <v>1.775</v>
       </c>
       <c r="T698">
         <v>2.25</v>

--- a/Scotland Premiership/Scotland Premiership.xlsx
+++ b/Scotland Premiership/Scotland Premiership.xlsx
@@ -39948,7 +39948,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>5169865</v>
+        <v>5169632</v>
       </c>
       <c r="C444" t="s">
         <v>28</v>
@@ -39960,10 +39960,10 @@
         <v>44923.69791666666</v>
       </c>
       <c r="F444" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G444" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H444">
         <v>3</v>
@@ -39975,34 +39975,34 @@
         <v>43</v>
       </c>
       <c r="K444">
-        <v>1.25</v>
+        <v>2.6</v>
       </c>
       <c r="L444">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="M444">
-        <v>12</v>
+        <v>2.75</v>
       </c>
       <c r="N444">
-        <v>1.2</v>
+        <v>1.909</v>
       </c>
       <c r="O444">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="P444">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="Q444">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R444">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S444">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T444">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U444">
         <v>1.95</v>
@@ -40011,7 +40011,7 @@
         <v>1.9</v>
       </c>
       <c r="W444">
-        <v>0.2</v>
+        <v>0.909</v>
       </c>
       <c r="X444">
         <v>-1</v>
@@ -40020,16 +40020,16 @@
         <v>-1</v>
       </c>
       <c r="Z444">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA444">
         <v>-1</v>
       </c>
       <c r="AB444">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC444">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="445" spans="1:29">
@@ -40037,7 +40037,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>5169634</v>
+        <v>5169327</v>
       </c>
       <c r="C445" t="s">
         <v>28</v>
@@ -40049,73 +40049,73 @@
         <v>44923.69791666666</v>
       </c>
       <c r="F445" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G445" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H445">
         <v>2</v>
       </c>
       <c r="I445">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J445" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K445">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="L445">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M445">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="N445">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O445">
         <v>3.6</v>
       </c>
       <c r="P445">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q445">
         <v>0.25</v>
       </c>
       <c r="R445">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S445">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T445">
         <v>2.5</v>
       </c>
       <c r="U445">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V445">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W445">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X445">
         <v>-1</v>
       </c>
       <c r="Y445">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z445">
+        <v>-1</v>
+      </c>
+      <c r="AA445">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB445">
         <v>0.925</v>
-      </c>
-      <c r="AA445">
-        <v>-1</v>
-      </c>
-      <c r="AB445">
-        <v>0.95</v>
       </c>
       <c r="AC445">
         <v>-1</v>
@@ -40215,7 +40215,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>5169327</v>
+        <v>5169634</v>
       </c>
       <c r="C447" t="s">
         <v>28</v>
@@ -40227,73 +40227,73 @@
         <v>44923.69791666666</v>
       </c>
       <c r="F447" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G447" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H447">
         <v>2</v>
       </c>
       <c r="I447">
+        <v>1</v>
+      </c>
+      <c r="J447" t="s">
+        <v>43</v>
+      </c>
+      <c r="K447">
+        <v>3.2</v>
+      </c>
+      <c r="L447">
+        <v>3.4</v>
+      </c>
+      <c r="M447">
+        <v>2.2</v>
+      </c>
+      <c r="N447">
         <v>3</v>
-      </c>
-      <c r="J447" t="s">
-        <v>45</v>
-      </c>
-      <c r="K447">
-        <v>2.7</v>
-      </c>
-      <c r="L447">
-        <v>3.25</v>
-      </c>
-      <c r="M447">
-        <v>2.6</v>
-      </c>
-      <c r="N447">
-        <v>3.1</v>
       </c>
       <c r="O447">
         <v>3.6</v>
       </c>
       <c r="P447">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q447">
         <v>0.25</v>
       </c>
       <c r="R447">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S447">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T447">
         <v>2.5</v>
       </c>
       <c r="U447">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V447">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W447">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X447">
         <v>-1</v>
       </c>
       <c r="Y447">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z447">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA447">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB447">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC447">
         <v>-1</v>
@@ -40304,7 +40304,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>5169632</v>
+        <v>5169865</v>
       </c>
       <c r="C448" t="s">
         <v>28</v>
@@ -40316,10 +40316,10 @@
         <v>44923.69791666666</v>
       </c>
       <c r="F448" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G448" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H448">
         <v>3</v>
@@ -40331,34 +40331,34 @@
         <v>43</v>
       </c>
       <c r="K448">
-        <v>2.6</v>
+        <v>1.25</v>
       </c>
       <c r="L448">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="M448">
-        <v>2.75</v>
+        <v>12</v>
       </c>
       <c r="N448">
-        <v>1.909</v>
+        <v>1.2</v>
       </c>
       <c r="O448">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="P448">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="Q448">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R448">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S448">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T448">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U448">
         <v>1.95</v>
@@ -40367,7 +40367,7 @@
         <v>1.9</v>
       </c>
       <c r="W448">
-        <v>0.909</v>
+        <v>0.2</v>
       </c>
       <c r="X448">
         <v>-1</v>
@@ -40376,16 +40376,16 @@
         <v>-1</v>
       </c>
       <c r="Z448">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA448">
         <v>-1</v>
       </c>
       <c r="AB448">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC448">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="449" spans="1:29">
@@ -42173,7 +42173,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>5169337</v>
+        <v>5169338</v>
       </c>
       <c r="C469" t="s">
         <v>28</v>
@@ -42185,13 +42185,13 @@
         <v>44954.5</v>
       </c>
       <c r="F469" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G469" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I469">
         <v>0</v>
@@ -42200,43 +42200,43 @@
         <v>43</v>
       </c>
       <c r="K469">
-        <v>1.2</v>
+        <v>2.375</v>
       </c>
       <c r="L469">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="M469">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="N469">
-        <v>1.142</v>
+        <v>2.4</v>
       </c>
       <c r="O469">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="P469">
-        <v>21</v>
+        <v>3.2</v>
       </c>
       <c r="Q469">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R469">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S469">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T469">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="U469">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V469">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W469">
-        <v>0.1419999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="X469">
         <v>-1</v>
@@ -42245,16 +42245,16 @@
         <v>-1</v>
       </c>
       <c r="Z469">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA469">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB469">
         <v>-1</v>
       </c>
       <c r="AC469">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="470" spans="1:29">
@@ -42262,7 +42262,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>5169338</v>
+        <v>5169644</v>
       </c>
       <c r="C470" t="s">
         <v>28</v>
@@ -42274,13 +42274,13 @@
         <v>44954.5</v>
       </c>
       <c r="F470" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G470" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H470">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I470">
         <v>0</v>
@@ -42289,43 +42289,43 @@
         <v>43</v>
       </c>
       <c r="K470">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="L470">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M470">
+        <v>3.1</v>
+      </c>
+      <c r="N470">
+        <v>2.8</v>
+      </c>
+      <c r="O470">
         <v>3</v>
       </c>
-      <c r="N470">
-        <v>2.4</v>
-      </c>
-      <c r="O470">
-        <v>3.1</v>
-      </c>
       <c r="P470">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q470">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R470">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S470">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T470">
         <v>2</v>
       </c>
       <c r="U470">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V470">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W470">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="X470">
         <v>-1</v>
@@ -42334,16 +42334,16 @@
         <v>-1</v>
       </c>
       <c r="Z470">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA470">
         <v>-1</v>
       </c>
       <c r="AB470">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC470">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="471" spans="1:29">
@@ -42351,7 +42351,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>5169644</v>
+        <v>5169643</v>
       </c>
       <c r="C471" t="s">
         <v>28</v>
@@ -42363,13 +42363,13 @@
         <v>44954.5</v>
       </c>
       <c r="F471" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G471" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H471">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I471">
         <v>0</v>
@@ -42378,43 +42378,43 @@
         <v>43</v>
       </c>
       <c r="K471">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L471">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M471">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N471">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="O471">
+        <v>3.6</v>
+      </c>
+      <c r="P471">
         <v>3</v>
       </c>
-      <c r="P471">
-        <v>2.75</v>
-      </c>
       <c r="Q471">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R471">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S471">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T471">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U471">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V471">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W471">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="X471">
         <v>-1</v>
@@ -42423,13 +42423,13 @@
         <v>-1</v>
       </c>
       <c r="Z471">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA471">
         <v>-1</v>
       </c>
       <c r="AB471">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC471">
         <v>-1</v>
@@ -42440,7 +42440,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>5169643</v>
+        <v>5169337</v>
       </c>
       <c r="C472" t="s">
         <v>28</v>
@@ -42452,13 +42452,13 @@
         <v>44954.5</v>
       </c>
       <c r="F472" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G472" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H472">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I472">
         <v>0</v>
@@ -42467,43 +42467,43 @@
         <v>43</v>
       </c>
       <c r="K472">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="L472">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M472">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="N472">
-        <v>2.25</v>
+        <v>1.142</v>
       </c>
       <c r="O472">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="P472">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="Q472">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R472">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S472">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T472">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U472">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V472">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W472">
-        <v>1.25</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X472">
         <v>-1</v>
@@ -42512,16 +42512,16 @@
         <v>-1</v>
       </c>
       <c r="Z472">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA472">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB472">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC472">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="473" spans="1:29">
@@ -46356,7 +46356,7 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>5169887</v>
+        <v>5355082</v>
       </c>
       <c r="C516" t="s">
         <v>28</v>
@@ -46368,76 +46368,76 @@
         <v>45017.45833333334</v>
       </c>
       <c r="F516" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G516" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J516" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K516">
-        <v>1.142</v>
+        <v>2.95</v>
       </c>
       <c r="L516">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="M516">
-        <v>15</v>
+        <v>2.4</v>
       </c>
       <c r="N516">
-        <v>1.111</v>
+        <v>3.2</v>
       </c>
       <c r="O516">
-        <v>11</v>
+        <v>3.25</v>
       </c>
       <c r="P516">
-        <v>15</v>
+        <v>2.25</v>
       </c>
       <c r="Q516">
-        <v>-2.5</v>
+        <v>0.25</v>
       </c>
       <c r="R516">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S516">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T516">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U516">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V516">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W516">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="X516">
         <v>-1</v>
       </c>
       <c r="Y516">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z516">
         <v>-1</v>
       </c>
       <c r="AA516">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB516">
         <v>-1</v>
       </c>
       <c r="AC516">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="517" spans="1:29">
@@ -46445,7 +46445,7 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>5355082</v>
+        <v>5169887</v>
       </c>
       <c r="C517" t="s">
         <v>28</v>
@@ -46457,76 +46457,76 @@
         <v>45017.45833333334</v>
       </c>
       <c r="F517" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G517" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J517" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K517">
-        <v>2.95</v>
+        <v>1.142</v>
       </c>
       <c r="L517">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="M517">
-        <v>2.4</v>
+        <v>15</v>
       </c>
       <c r="N517">
-        <v>3.2</v>
+        <v>1.111</v>
       </c>
       <c r="O517">
-        <v>3.25</v>
+        <v>11</v>
       </c>
       <c r="P517">
-        <v>2.25</v>
+        <v>15</v>
       </c>
       <c r="Q517">
-        <v>0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R517">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S517">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T517">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U517">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V517">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W517">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="X517">
         <v>-1</v>
       </c>
       <c r="Y517">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z517">
         <v>-1</v>
       </c>
       <c r="AA517">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB517">
         <v>-1</v>
       </c>
       <c r="AC517">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="518" spans="1:29">
@@ -46712,7 +46712,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>5423542</v>
+        <v>5394839</v>
       </c>
       <c r="C520" t="s">
         <v>28</v>
@@ -46724,49 +46724,49 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F520" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G520" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H520">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I520">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J520" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K520">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L520">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M520">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="N520">
         <v>2.2</v>
       </c>
       <c r="O520">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P520">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q520">
         <v>-0.25</v>
       </c>
       <c r="R520">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S520">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T520">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U520">
         <v>2.05</v>
@@ -46775,25 +46775,25 @@
         <v>1.8</v>
       </c>
       <c r="W520">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X520">
         <v>-1</v>
       </c>
       <c r="Y520">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z520">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA520">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB520">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC520">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="521" spans="1:29">
@@ -46801,7 +46801,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>5394839</v>
+        <v>5390404</v>
       </c>
       <c r="C521" t="s">
         <v>28</v>
@@ -46813,10 +46813,10 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F521" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G521" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H521">
         <v>0</v>
@@ -46828,40 +46828,40 @@
         <v>45</v>
       </c>
       <c r="K521">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="L521">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M521">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N521">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="O521">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P521">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q521">
         <v>-0.25</v>
       </c>
       <c r="R521">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S521">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T521">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U521">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V521">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W521">
         <v>-1</v>
@@ -46870,19 +46870,19 @@
         <v>-1</v>
       </c>
       <c r="Y521">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Z521">
         <v>-1</v>
       </c>
       <c r="AA521">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB521">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC521">
-        <v>0.8</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="522" spans="1:29">
@@ -46890,7 +46890,7 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>5390404</v>
+        <v>5356127</v>
       </c>
       <c r="C522" t="s">
         <v>28</v>
@@ -46902,76 +46902,76 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F522" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G522" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J522" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K522">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L522">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M522">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N522">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="O522">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P522">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q522">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R522">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S522">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T522">
         <v>2.25</v>
       </c>
       <c r="U522">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="V522">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W522">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X522">
         <v>-1</v>
       </c>
       <c r="Y522">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z522">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA522">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB522">
         <v>-0.5</v>
       </c>
       <c r="AC522">
-        <v>0.3875</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="523" spans="1:29">
@@ -46979,7 +46979,7 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>5356127</v>
+        <v>5423542</v>
       </c>
       <c r="C523" t="s">
         <v>28</v>
@@ -46991,13 +46991,13 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F523" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G523" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I523">
         <v>0</v>
@@ -47006,43 +47006,43 @@
         <v>43</v>
       </c>
       <c r="K523">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="L523">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M523">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="N523">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="O523">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P523">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q523">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R523">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S523">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T523">
         <v>2.25</v>
       </c>
       <c r="U523">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V523">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W523">
-        <v>0.8500000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="X523">
         <v>-1</v>
@@ -47051,16 +47051,16 @@
         <v>-1</v>
       </c>
       <c r="Z523">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA523">
         <v>-1</v>
       </c>
       <c r="AB523">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC523">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="524" spans="1:29">
@@ -47335,7 +47335,7 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>5465925</v>
+        <v>5423471</v>
       </c>
       <c r="C527" t="s">
         <v>28</v>
@@ -47347,76 +47347,76 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F527" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G527" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H527">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I527">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J527" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K527">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="L527">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M527">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="N527">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O527">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P527">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q527">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R527">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S527">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T527">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U527">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V527">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W527">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X527">
         <v>-1</v>
       </c>
       <c r="Y527">
-        <v>2.9</v>
+        <v>-1</v>
       </c>
       <c r="Z527">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA527">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB527">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC527">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="528" spans="1:29">
@@ -47424,7 +47424,7 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>5423471</v>
+        <v>5465925</v>
       </c>
       <c r="C528" t="s">
         <v>28</v>
@@ -47436,76 +47436,76 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F528" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G528" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I528">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J528" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K528">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="L528">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M528">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N528">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O528">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P528">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="Q528">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R528">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S528">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T528">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U528">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V528">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W528">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X528">
         <v>-1</v>
       </c>
       <c r="Y528">
-        <v>-1</v>
+        <v>2.9</v>
       </c>
       <c r="Z528">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA528">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB528">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC528">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="529" spans="1:29">
@@ -48225,7 +48225,7 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>6575425</v>
+        <v>6575426</v>
       </c>
       <c r="C537" t="s">
         <v>28</v>
@@ -48237,13 +48237,13 @@
         <v>45052.45833333334</v>
       </c>
       <c r="F537" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G537" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I537">
         <v>0</v>
@@ -48252,43 +48252,43 @@
         <v>43</v>
       </c>
       <c r="K537">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="L537">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M537">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N537">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="O537">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P537">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q537">
         <v>-0.25</v>
       </c>
       <c r="R537">
+        <v>2.025</v>
+      </c>
+      <c r="S537">
         <v>1.825</v>
-      </c>
-      <c r="S537">
-        <v>2.025</v>
       </c>
       <c r="T537">
         <v>2.25</v>
       </c>
       <c r="U537">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V537">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W537">
-        <v>1.1</v>
+        <v>1.375</v>
       </c>
       <c r="X537">
         <v>-1</v>
@@ -48297,16 +48297,16 @@
         <v>-1</v>
       </c>
       <c r="Z537">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA537">
         <v>-1</v>
       </c>
       <c r="AB537">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC537">
-        <v>0.4125</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="538" spans="1:29">
@@ -48314,7 +48314,7 @@
         <v>536</v>
       </c>
       <c r="B538">
-        <v>6575426</v>
+        <v>6575425</v>
       </c>
       <c r="C538" t="s">
         <v>28</v>
@@ -48326,13 +48326,13 @@
         <v>45052.45833333334</v>
       </c>
       <c r="F538" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G538" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H538">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I538">
         <v>0</v>
@@ -48341,43 +48341,43 @@
         <v>43</v>
       </c>
       <c r="K538">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="L538">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M538">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="N538">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="O538">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P538">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q538">
         <v>-0.25</v>
       </c>
       <c r="R538">
+        <v>1.825</v>
+      </c>
+      <c r="S538">
         <v>2.025</v>
-      </c>
-      <c r="S538">
-        <v>1.825</v>
       </c>
       <c r="T538">
         <v>2.25</v>
       </c>
       <c r="U538">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V538">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W538">
-        <v>1.375</v>
+        <v>1.1</v>
       </c>
       <c r="X538">
         <v>-1</v>
@@ -48386,16 +48386,16 @@
         <v>-1</v>
       </c>
       <c r="Z538">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AA538">
         <v>-1</v>
       </c>
       <c r="AB538">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC538">
-        <v>0.75</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="539" spans="1:29">
@@ -48848,7 +48848,7 @@
         <v>542</v>
       </c>
       <c r="B544">
-        <v>6576081</v>
+        <v>6576082</v>
       </c>
       <c r="C544" t="s">
         <v>28</v>
@@ -48860,76 +48860,76 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F544" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G544" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H544">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I544">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J544" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K544">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L544">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M544">
         <v>3.1</v>
       </c>
       <c r="N544">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O544">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P544">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q544">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R544">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S544">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T544">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U544">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V544">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W544">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X544">
         <v>-1</v>
       </c>
       <c r="Y544">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z544">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA544">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB544">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AC544">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="545" spans="1:29">
@@ -48937,7 +48937,7 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>6576083</v>
+        <v>6576081</v>
       </c>
       <c r="C545" t="s">
         <v>28</v>
@@ -48949,55 +48949,55 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F545" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G545" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I545">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J545" t="s">
         <v>45</v>
       </c>
       <c r="K545">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="L545">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M545">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="N545">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O545">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P545">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="Q545">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R545">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S545">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T545">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U545">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V545">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W545">
         <v>-1</v>
@@ -49006,19 +49006,19 @@
         <v>-1</v>
       </c>
       <c r="Y545">
-        <v>1.625</v>
+        <v>2.2</v>
       </c>
       <c r="Z545">
         <v>-1</v>
       </c>
       <c r="AA545">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB545">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC545">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="546" spans="1:29">
@@ -49026,7 +49026,7 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>6576070</v>
+        <v>6576071</v>
       </c>
       <c r="C546" t="s">
         <v>28</v>
@@ -49038,76 +49038,76 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F546" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G546" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J546" t="s">
         <v>44</v>
       </c>
       <c r="K546">
+        <v>2.45</v>
+      </c>
+      <c r="L546">
+        <v>3.1</v>
+      </c>
+      <c r="M546">
+        <v>2.625</v>
+      </c>
+      <c r="N546">
+        <v>2.8</v>
+      </c>
+      <c r="O546">
+        <v>3.3</v>
+      </c>
+      <c r="P546">
+        <v>2.55</v>
+      </c>
+      <c r="Q546">
+        <v>0</v>
+      </c>
+      <c r="R546">
+        <v>2.025</v>
+      </c>
+      <c r="S546">
+        <v>1.825</v>
+      </c>
+      <c r="T546">
+        <v>2.25</v>
+      </c>
+      <c r="U546">
+        <v>1.8</v>
+      </c>
+      <c r="V546">
         <v>2.05</v>
       </c>
-      <c r="L546">
-        <v>3.2</v>
-      </c>
-      <c r="M546">
-        <v>3.2</v>
-      </c>
-      <c r="N546">
-        <v>2.05</v>
-      </c>
-      <c r="O546">
-        <v>3.5</v>
-      </c>
-      <c r="P546">
-        <v>3.4</v>
-      </c>
-      <c r="Q546">
-        <v>-0.25</v>
-      </c>
-      <c r="R546">
-        <v>1.825</v>
-      </c>
-      <c r="S546">
-        <v>2.025</v>
-      </c>
-      <c r="T546">
-        <v>2.5</v>
-      </c>
-      <c r="U546">
-        <v>1.925</v>
-      </c>
-      <c r="V546">
-        <v>1.925</v>
-      </c>
       <c r="W546">
         <v>-1</v>
       </c>
       <c r="X546">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="Y546">
         <v>-1</v>
       </c>
       <c r="Z546">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA546">
-        <v>0.5125</v>
+        <v>-0</v>
       </c>
       <c r="AB546">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC546">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="547" spans="1:29">
@@ -49115,7 +49115,7 @@
         <v>545</v>
       </c>
       <c r="B547">
-        <v>6576082</v>
+        <v>6576083</v>
       </c>
       <c r="C547" t="s">
         <v>28</v>
@@ -49127,46 +49127,46 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F547" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G547" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J547" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K547">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="L547">
+        <v>3</v>
+      </c>
+      <c r="M547">
+        <v>2.55</v>
+      </c>
+      <c r="N547">
+        <v>2.8</v>
+      </c>
+      <c r="O547">
         <v>3.1</v>
       </c>
-      <c r="M547">
-        <v>3.1</v>
-      </c>
-      <c r="N547">
-        <v>1.8</v>
-      </c>
-      <c r="O547">
-        <v>3.6</v>
-      </c>
       <c r="P547">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q547">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R547">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S547">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T547">
         <v>2.25</v>
@@ -49178,19 +49178,19 @@
         <v>1.875</v>
       </c>
       <c r="W547">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X547">
         <v>-1</v>
       </c>
       <c r="Y547">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z547">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA547">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB547">
         <v>-0.5</v>
@@ -49204,7 +49204,7 @@
         <v>546</v>
       </c>
       <c r="B548">
-        <v>6576071</v>
+        <v>6576070</v>
       </c>
       <c r="C548" t="s">
         <v>28</v>
@@ -49216,76 +49216,76 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F548" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G548" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J548" t="s">
         <v>44</v>
       </c>
       <c r="K548">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="L548">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M548">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="N548">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="O548">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P548">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="Q548">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R548">
+        <v>1.825</v>
+      </c>
+      <c r="S548">
         <v>2.025</v>
       </c>
-      <c r="S548">
-        <v>1.825</v>
-      </c>
       <c r="T548">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U548">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V548">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W548">
         <v>-1</v>
       </c>
       <c r="X548">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Y548">
         <v>-1</v>
       </c>
       <c r="Z548">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA548">
-        <v>-0</v>
+        <v>0.5125</v>
       </c>
       <c r="AB548">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC548">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="549" spans="1:29">
@@ -49827,7 +49827,7 @@
         <v>553</v>
       </c>
       <c r="B555">
-        <v>6576087</v>
+        <v>6576076</v>
       </c>
       <c r="C555" t="s">
         <v>28</v>
@@ -49839,73 +49839,73 @@
         <v>45070.65625</v>
       </c>
       <c r="F555" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G555" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I555">
+        <v>2</v>
+      </c>
+      <c r="J555" t="s">
+        <v>43</v>
+      </c>
+      <c r="K555">
+        <v>6.5</v>
+      </c>
+      <c r="L555">
+        <v>5</v>
+      </c>
+      <c r="M555">
+        <v>1.4</v>
+      </c>
+      <c r="N555">
+        <v>5</v>
+      </c>
+      <c r="O555">
+        <v>4.2</v>
+      </c>
+      <c r="P555">
+        <v>1.666</v>
+      </c>
+      <c r="Q555">
+        <v>0.75</v>
+      </c>
+      <c r="R555">
+        <v>2.05</v>
+      </c>
+      <c r="S555">
+        <v>1.8</v>
+      </c>
+      <c r="T555">
         <v>3</v>
       </c>
-      <c r="J555" t="s">
-        <v>45</v>
-      </c>
-      <c r="K555">
-        <v>2.3</v>
-      </c>
-      <c r="L555">
-        <v>3.2</v>
-      </c>
-      <c r="M555">
-        <v>3</v>
-      </c>
-      <c r="N555">
-        <v>2.45</v>
-      </c>
-      <c r="O555">
-        <v>3.25</v>
-      </c>
-      <c r="P555">
-        <v>3</v>
-      </c>
-      <c r="Q555">
-        <v>0</v>
-      </c>
-      <c r="R555">
-        <v>1.775</v>
-      </c>
-      <c r="S555">
-        <v>2.1</v>
-      </c>
-      <c r="T555">
-        <v>2.25</v>
-      </c>
       <c r="U555">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V555">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W555">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="X555">
         <v>-1</v>
       </c>
       <c r="Y555">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z555">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA555">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB555">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC555">
         <v>-1</v>
@@ -50005,7 +50005,7 @@
         <v>555</v>
       </c>
       <c r="B557">
-        <v>6576076</v>
+        <v>6576087</v>
       </c>
       <c r="C557" t="s">
         <v>28</v>
@@ -50017,73 +50017,73 @@
         <v>45070.65625</v>
       </c>
       <c r="F557" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G557" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H557">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I557">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J557" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K557">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="L557">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M557">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="N557">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="O557">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P557">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="Q557">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R557">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S557">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T557">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U557">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V557">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W557">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="X557">
         <v>-1</v>
       </c>
       <c r="Y557">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z557">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA557">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB557">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC557">
         <v>-1</v>
@@ -50628,7 +50628,7 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>6576091</v>
+        <v>6576090</v>
       </c>
       <c r="C564" t="s">
         <v>28</v>
@@ -50640,58 +50640,58 @@
         <v>45074.45833333334</v>
       </c>
       <c r="F564" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G564" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H564">
         <v>3</v>
       </c>
       <c r="I564">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J564" t="s">
         <v>43</v>
       </c>
       <c r="K564">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L564">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M564">
         <v>3.6</v>
       </c>
       <c r="N564">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O564">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P564">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q564">
         <v>-0.5</v>
       </c>
       <c r="R564">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S564">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T564">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U564">
+        <v>1.975</v>
+      </c>
+      <c r="V564">
         <v>1.875</v>
       </c>
-      <c r="V564">
-        <v>1.975</v>
-      </c>
       <c r="W564">
-        <v>0.8</v>
+        <v>0.909</v>
       </c>
       <c r="X564">
         <v>-1</v>
@@ -50700,13 +50700,13 @@
         <v>-1</v>
       </c>
       <c r="Z564">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA564">
         <v>-1</v>
       </c>
       <c r="AB564">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC564">
         <v>-1</v>
@@ -50717,7 +50717,7 @@
         <v>563</v>
       </c>
       <c r="B565">
-        <v>6576090</v>
+        <v>6576091</v>
       </c>
       <c r="C565" t="s">
         <v>28</v>
@@ -50729,58 +50729,58 @@
         <v>45074.45833333334</v>
       </c>
       <c r="F565" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G565" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H565">
         <v>3</v>
       </c>
       <c r="I565">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J565" t="s">
         <v>43</v>
       </c>
       <c r="K565">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L565">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M565">
         <v>3.6</v>
       </c>
       <c r="N565">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O565">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P565">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q565">
         <v>-0.5</v>
       </c>
       <c r="R565">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S565">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T565">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U565">
+        <v>1.875</v>
+      </c>
+      <c r="V565">
         <v>1.975</v>
       </c>
-      <c r="V565">
-        <v>1.875</v>
-      </c>
       <c r="W565">
-        <v>0.909</v>
+        <v>0.8</v>
       </c>
       <c r="X565">
         <v>-1</v>
@@ -50789,13 +50789,13 @@
         <v>-1</v>
       </c>
       <c r="Z565">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA565">
         <v>-1</v>
       </c>
       <c r="AB565">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC565">
         <v>-1</v>
@@ -56057,7 +56057,7 @@
         <v>623</v>
       </c>
       <c r="B625">
-        <v>6844758</v>
+        <v>6844837</v>
       </c>
       <c r="C625" t="s">
         <v>28</v>
@@ -56069,58 +56069,58 @@
         <v>45231.69791666666</v>
       </c>
       <c r="F625" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G625" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I625">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J625" t="s">
         <v>43</v>
       </c>
       <c r="K625">
+        <v>1.727</v>
+      </c>
+      <c r="L625">
+        <v>3.75</v>
+      </c>
+      <c r="M625">
+        <v>4.5</v>
+      </c>
+      <c r="N625">
+        <v>1.45</v>
+      </c>
+      <c r="O625">
+        <v>4.5</v>
+      </c>
+      <c r="P625">
+        <v>6.5</v>
+      </c>
+      <c r="Q625">
+        <v>-1</v>
+      </c>
+      <c r="R625">
+        <v>1.825</v>
+      </c>
+      <c r="S625">
+        <v>2.025</v>
+      </c>
+      <c r="T625">
         <v>2.5</v>
       </c>
-      <c r="L625">
-        <v>3.1</v>
-      </c>
-      <c r="M625">
-        <v>2.9</v>
-      </c>
-      <c r="N625">
-        <v>3.75</v>
-      </c>
-      <c r="O625">
-        <v>3.1</v>
-      </c>
-      <c r="P625">
-        <v>2.15</v>
-      </c>
-      <c r="Q625">
-        <v>0.25</v>
-      </c>
-      <c r="R625">
-        <v>2</v>
-      </c>
-      <c r="S625">
-        <v>1.85</v>
-      </c>
-      <c r="T625">
-        <v>2.25</v>
-      </c>
       <c r="U625">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V625">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W625">
-        <v>2.75</v>
+        <v>0.45</v>
       </c>
       <c r="X625">
         <v>-1</v>
@@ -56129,16 +56129,16 @@
         <v>-1</v>
       </c>
       <c r="Z625">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA625">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB625">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC625">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="626" spans="1:29">
@@ -56146,7 +56146,7 @@
         <v>624</v>
       </c>
       <c r="B626">
-        <v>6844837</v>
+        <v>6844757</v>
       </c>
       <c r="C626" t="s">
         <v>28</v>
@@ -56158,49 +56158,49 @@
         <v>45231.69791666666</v>
       </c>
       <c r="F626" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G626" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H626">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I626">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J626" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K626">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="L626">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M626">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="N626">
-        <v>1.45</v>
+        <v>2.45</v>
       </c>
       <c r="O626">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="P626">
-        <v>6.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q626">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R626">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S626">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T626">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U626">
         <v>1.9</v>
@@ -56209,25 +56209,25 @@
         <v>1.95</v>
       </c>
       <c r="W626">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X626">
         <v>-1</v>
       </c>
       <c r="Y626">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z626">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA626">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB626">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC626">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="627" spans="1:29">
@@ -56235,7 +56235,7 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>6844757</v>
+        <v>6844754</v>
       </c>
       <c r="C627" t="s">
         <v>28</v>
@@ -56247,76 +56247,76 @@
         <v>45231.69791666666</v>
       </c>
       <c r="F627" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G627" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H627">
         <v>2</v>
       </c>
       <c r="I627">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J627" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K627">
-        <v>2.625</v>
+        <v>1.181</v>
       </c>
       <c r="L627">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="M627">
-        <v>2.7</v>
+        <v>13</v>
       </c>
       <c r="N627">
-        <v>2.45</v>
+        <v>1.2</v>
       </c>
       <c r="O627">
-        <v>3.25</v>
+        <v>7</v>
       </c>
       <c r="P627">
-        <v>2.9</v>
+        <v>13</v>
       </c>
       <c r="Q627">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R627">
+        <v>1.85</v>
+      </c>
+      <c r="S627">
+        <v>2</v>
+      </c>
+      <c r="T627">
+        <v>3</v>
+      </c>
+      <c r="U627">
         <v>1.8</v>
       </c>
-      <c r="S627">
+      <c r="V627">
         <v>2.05</v>
       </c>
-      <c r="T627">
-        <v>2.25</v>
-      </c>
-      <c r="U627">
-        <v>1.9</v>
-      </c>
-      <c r="V627">
-        <v>1.95</v>
-      </c>
       <c r="W627">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X627">
         <v>-1</v>
       </c>
       <c r="Y627">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z627">
         <v>-1</v>
       </c>
       <c r="AA627">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AB627">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC627">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="628" spans="1:29">
@@ -56324,7 +56324,7 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>6844754</v>
+        <v>6844758</v>
       </c>
       <c r="C628" t="s">
         <v>28</v>
@@ -56336,10 +56336,10 @@
         <v>45231.69791666666</v>
       </c>
       <c r="F628" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G628" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H628">
         <v>2</v>
@@ -56351,43 +56351,43 @@
         <v>43</v>
       </c>
       <c r="K628">
-        <v>1.181</v>
+        <v>2.5</v>
       </c>
       <c r="L628">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="M628">
-        <v>13</v>
+        <v>2.9</v>
       </c>
       <c r="N628">
-        <v>1.2</v>
+        <v>3.75</v>
       </c>
       <c r="O628">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="P628">
-        <v>13</v>
+        <v>2.15</v>
       </c>
       <c r="Q628">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R628">
+        <v>2</v>
+      </c>
+      <c r="S628">
         <v>1.85</v>
       </c>
-      <c r="S628">
-        <v>2</v>
-      </c>
       <c r="T628">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U628">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V628">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W628">
-        <v>0.2</v>
+        <v>2.75</v>
       </c>
       <c r="X628">
         <v>-1</v>
@@ -56396,16 +56396,16 @@
         <v>-1</v>
       </c>
       <c r="Z628">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA628">
+        <v>-1</v>
+      </c>
+      <c r="AB628">
         <v>1</v>
       </c>
-      <c r="AB628">
-        <v>0</v>
-      </c>
       <c r="AC628">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="629" spans="1:29">

--- a/Scotland Premiership/Scotland Premiership.xlsx
+++ b/Scotland Premiership/Scotland Premiership.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3528" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3532" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC702"/>
+  <dimension ref="A1:AC703"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31137,7 +31137,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>5169596</v>
+        <v>5169595</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -31149,64 +31149,64 @@
         <v>44779.45833333334</v>
       </c>
       <c r="F345" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G345" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H345">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I345">
+        <v>0</v>
+      </c>
+      <c r="J345" t="s">
+        <v>43</v>
+      </c>
+      <c r="K345">
+        <v>1.25</v>
+      </c>
+      <c r="L345">
+        <v>5.5</v>
+      </c>
+      <c r="M345">
+        <v>11</v>
+      </c>
+      <c r="N345">
+        <v>1.153</v>
+      </c>
+      <c r="O345">
+        <v>8</v>
+      </c>
+      <c r="P345">
+        <v>15</v>
+      </c>
+      <c r="Q345">
+        <v>-2</v>
+      </c>
+      <c r="R345">
+        <v>2</v>
+      </c>
+      <c r="S345">
+        <v>1.85</v>
+      </c>
+      <c r="T345">
         <v>3</v>
       </c>
-      <c r="J345" t="s">
-        <v>45</v>
-      </c>
-      <c r="K345">
-        <v>8</v>
-      </c>
-      <c r="L345">
-        <v>5</v>
-      </c>
-      <c r="M345">
-        <v>1.333</v>
-      </c>
-      <c r="N345">
-        <v>12</v>
-      </c>
-      <c r="O345">
-        <v>7</v>
-      </c>
-      <c r="P345">
-        <v>1.2</v>
-      </c>
-      <c r="Q345">
-        <v>2</v>
-      </c>
-      <c r="R345">
+      <c r="U345">
         <v>1.875</v>
       </c>
-      <c r="S345">
+      <c r="V345">
         <v>1.975</v>
       </c>
-      <c r="T345">
-        <v>3.25</v>
-      </c>
-      <c r="U345">
-        <v>2.05</v>
-      </c>
-      <c r="V345">
-        <v>1.8</v>
-      </c>
       <c r="W345">
-        <v>-1</v>
+        <v>0.153</v>
       </c>
       <c r="X345">
         <v>-1</v>
       </c>
       <c r="Y345">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z345">
         <v>0</v>
@@ -31215,10 +31215,10 @@
         <v>-0</v>
       </c>
       <c r="AB345">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC345">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="346" spans="1:29">
@@ -31226,7 +31226,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>5169595</v>
+        <v>5169280</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31238,76 +31238,76 @@
         <v>44779.45833333334</v>
       </c>
       <c r="F346" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G346" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I346">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J346" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K346">
-        <v>1.25</v>
+        <v>2.375</v>
       </c>
       <c r="L346">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="M346">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="N346">
-        <v>1.153</v>
+        <v>2.2</v>
       </c>
       <c r="O346">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="P346">
-        <v>15</v>
+        <v>3.75</v>
       </c>
       <c r="Q346">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R346">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S346">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T346">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U346">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V346">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W346">
-        <v>0.153</v>
+        <v>-1</v>
       </c>
       <c r="X346">
         <v>-1</v>
       </c>
       <c r="Y346">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z346">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA346">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB346">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC346">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -31315,7 +31315,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>5169280</v>
+        <v>5169278</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31327,73 +31327,73 @@
         <v>44779.45833333334</v>
       </c>
       <c r="F347" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G347" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H347">
+        <v>4</v>
+      </c>
+      <c r="I347">
         <v>1</v>
       </c>
-      <c r="I347">
-        <v>2</v>
-      </c>
       <c r="J347" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K347">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="L347">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M347">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N347">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O347">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P347">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q347">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R347">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S347">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T347">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U347">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V347">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W347">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X347">
         <v>-1</v>
       </c>
       <c r="Y347">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z347">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA347">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB347">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AC347">
         <v>-1</v>
@@ -31404,7 +31404,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>5169278</v>
+        <v>5169596</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31416,49 +31416,49 @@
         <v>44779.45833333334</v>
       </c>
       <c r="F348" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G348" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H348">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I348">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J348" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K348">
-        <v>1.95</v>
+        <v>8</v>
       </c>
       <c r="L348">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M348">
-        <v>4</v>
+        <v>1.333</v>
       </c>
       <c r="N348">
-        <v>1.8</v>
+        <v>12</v>
       </c>
       <c r="O348">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P348">
-        <v>4.75</v>
+        <v>1.2</v>
       </c>
       <c r="Q348">
-        <v>-0.5</v>
+        <v>2</v>
       </c>
       <c r="R348">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S348">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T348">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U348">
         <v>2.05</v>
@@ -31467,19 +31467,19 @@
         <v>1.8</v>
       </c>
       <c r="W348">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X348">
         <v>-1</v>
       </c>
       <c r="Y348">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z348">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA348">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB348">
         <v>1.05</v>
@@ -32739,7 +32739,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>5169602</v>
+        <v>5169601</v>
       </c>
       <c r="C363" t="s">
         <v>28</v>
@@ -32751,40 +32751,40 @@
         <v>44800.45833333334</v>
       </c>
       <c r="F363" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G363" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H363">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I363">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J363" t="s">
         <v>43</v>
       </c>
       <c r="K363">
-        <v>1.142</v>
+        <v>2.5</v>
       </c>
       <c r="L363">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="M363">
-        <v>15</v>
+        <v>2.9</v>
       </c>
       <c r="N363">
-        <v>1.111</v>
+        <v>2.75</v>
       </c>
       <c r="O363">
-        <v>9.5</v>
+        <v>3.25</v>
       </c>
       <c r="P363">
-        <v>21</v>
+        <v>2.7</v>
       </c>
       <c r="Q363">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="R363">
         <v>2</v>
@@ -32793,16 +32793,16 @@
         <v>1.85</v>
       </c>
       <c r="T363">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U363">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V363">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W363">
-        <v>0.111</v>
+        <v>1.75</v>
       </c>
       <c r="X363">
         <v>-1</v>
@@ -32817,7 +32817,7 @@
         <v>-1</v>
       </c>
       <c r="AB363">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC363">
         <v>-1</v>
@@ -32828,7 +32828,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>5169601</v>
+        <v>5169602</v>
       </c>
       <c r="C364" t="s">
         <v>28</v>
@@ -32840,40 +32840,40 @@
         <v>44800.45833333334</v>
       </c>
       <c r="F364" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G364" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I364">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J364" t="s">
         <v>43</v>
       </c>
       <c r="K364">
-        <v>2.5</v>
+        <v>1.142</v>
       </c>
       <c r="L364">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="M364">
-        <v>2.9</v>
+        <v>15</v>
       </c>
       <c r="N364">
-        <v>2.75</v>
+        <v>1.111</v>
       </c>
       <c r="O364">
-        <v>3.25</v>
+        <v>9.5</v>
       </c>
       <c r="P364">
-        <v>2.7</v>
+        <v>21</v>
       </c>
       <c r="Q364">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="R364">
         <v>2</v>
@@ -32882,16 +32882,16 @@
         <v>1.85</v>
       </c>
       <c r="T364">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U364">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V364">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W364">
-        <v>1.75</v>
+        <v>0.111</v>
       </c>
       <c r="X364">
         <v>-1</v>
@@ -32906,7 +32906,7 @@
         <v>-1</v>
       </c>
       <c r="AB364">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC364">
         <v>-1</v>
@@ -33807,7 +33807,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>5169854</v>
+        <v>5169608</v>
       </c>
       <c r="C375" t="s">
         <v>28</v>
@@ -33819,13 +33819,13 @@
         <v>44821.45833333334</v>
       </c>
       <c r="F375" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G375" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I375">
         <v>1</v>
@@ -33834,43 +33834,43 @@
         <v>43</v>
       </c>
       <c r="K375">
-        <v>1.111</v>
+        <v>2.6</v>
       </c>
       <c r="L375">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="M375">
-        <v>19</v>
+        <v>2.6</v>
       </c>
       <c r="N375">
-        <v>1.142</v>
+        <v>2.25</v>
       </c>
       <c r="O375">
-        <v>8</v>
+        <v>3.3</v>
       </c>
       <c r="P375">
-        <v>17</v>
+        <v>3.3</v>
       </c>
       <c r="Q375">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R375">
+        <v>1.95</v>
+      </c>
+      <c r="S375">
+        <v>1.9</v>
+      </c>
+      <c r="T375">
+        <v>2.25</v>
+      </c>
+      <c r="U375">
+        <v>1.875</v>
+      </c>
+      <c r="V375">
         <v>1.975</v>
       </c>
-      <c r="S375">
-        <v>1.875</v>
-      </c>
-      <c r="T375">
-        <v>3.25</v>
-      </c>
-      <c r="U375">
-        <v>1.9</v>
-      </c>
-      <c r="V375">
-        <v>1.95</v>
-      </c>
       <c r="W375">
-        <v>0.1419999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X375">
         <v>-1</v>
@@ -33879,16 +33879,16 @@
         <v>-1</v>
       </c>
       <c r="Z375">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA375">
+        <v>-1</v>
+      </c>
+      <c r="AB375">
         <v>0.875</v>
       </c>
-      <c r="AB375">
-        <v>-0.5</v>
-      </c>
       <c r="AC375">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="376" spans="1:29">
@@ -33896,7 +33896,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>5169608</v>
+        <v>5169297</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -33908,76 +33908,76 @@
         <v>44821.45833333334</v>
       </c>
       <c r="F376" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G376" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H376">
+        <v>0</v>
+      </c>
+      <c r="I376">
+        <v>0</v>
+      </c>
+      <c r="J376" t="s">
+        <v>44</v>
+      </c>
+      <c r="K376">
+        <v>2.375</v>
+      </c>
+      <c r="L376">
+        <v>3.3</v>
+      </c>
+      <c r="M376">
+        <v>3.1</v>
+      </c>
+      <c r="N376">
+        <v>2.6</v>
+      </c>
+      <c r="O376">
         <v>3</v>
       </c>
-      <c r="I376">
-        <v>1</v>
-      </c>
-      <c r="J376" t="s">
-        <v>43</v>
-      </c>
-      <c r="K376">
-        <v>2.6</v>
-      </c>
-      <c r="L376">
-        <v>3.5</v>
-      </c>
-      <c r="M376">
-        <v>2.6</v>
-      </c>
-      <c r="N376">
-        <v>2.25</v>
-      </c>
-      <c r="O376">
-        <v>3.3</v>
-      </c>
       <c r="P376">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="Q376">
         <v>-0.25</v>
       </c>
       <c r="R376">
-        <v>1.95</v>
+        <v>2.125</v>
       </c>
       <c r="S376">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T376">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U376">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V376">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W376">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X376">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y376">
         <v>-1</v>
       </c>
       <c r="Z376">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA376">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB376">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC376">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="377" spans="1:29">
@@ -33985,7 +33985,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>5169297</v>
+        <v>5169296</v>
       </c>
       <c r="C377" t="s">
         <v>28</v>
@@ -33997,49 +33997,49 @@
         <v>44821.45833333334</v>
       </c>
       <c r="F377" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G377" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I377">
         <v>0</v>
       </c>
       <c r="J377" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K377">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="L377">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M377">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="N377">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="O377">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P377">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q377">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R377">
-        <v>2.125</v>
+        <v>2.05</v>
       </c>
       <c r="S377">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T377">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U377">
         <v>2</v>
@@ -34048,19 +34048,19 @@
         <v>1.85</v>
       </c>
       <c r="W377">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X377">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y377">
         <v>-1</v>
       </c>
       <c r="Z377">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA377">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB377">
         <v>-1</v>
@@ -34074,7 +34074,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>5169296</v>
+        <v>5169854</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34086,76 +34086,76 @@
         <v>44821.45833333334</v>
       </c>
       <c r="F378" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G378" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H378">
+        <v>2</v>
+      </c>
+      <c r="I378">
         <v>1</v>
-      </c>
-      <c r="I378">
-        <v>0</v>
       </c>
       <c r="J378" t="s">
         <v>43</v>
       </c>
       <c r="K378">
-        <v>1.909</v>
+        <v>1.111</v>
       </c>
       <c r="L378">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="M378">
-        <v>4.333</v>
+        <v>19</v>
       </c>
       <c r="N378">
-        <v>2.05</v>
+        <v>1.142</v>
       </c>
       <c r="O378">
+        <v>8</v>
+      </c>
+      <c r="P378">
+        <v>17</v>
+      </c>
+      <c r="Q378">
+        <v>-2.25</v>
+      </c>
+      <c r="R378">
+        <v>1.975</v>
+      </c>
+      <c r="S378">
+        <v>1.875</v>
+      </c>
+      <c r="T378">
         <v>3.25</v>
       </c>
-      <c r="P378">
-        <v>3.8</v>
-      </c>
-      <c r="Q378">
+      <c r="U378">
+        <v>1.9</v>
+      </c>
+      <c r="V378">
+        <v>1.95</v>
+      </c>
+      <c r="W378">
+        <v>0.1419999999999999</v>
+      </c>
+      <c r="X378">
+        <v>-1</v>
+      </c>
+      <c r="Y378">
+        <v>-1</v>
+      </c>
+      <c r="Z378">
+        <v>-1</v>
+      </c>
+      <c r="AA378">
+        <v>0.875</v>
+      </c>
+      <c r="AB378">
         <v>-0.5</v>
       </c>
-      <c r="R378">
-        <v>2.05</v>
-      </c>
-      <c r="S378">
-        <v>1.8</v>
-      </c>
-      <c r="T378">
-        <v>2.25</v>
-      </c>
-      <c r="U378">
-        <v>2</v>
-      </c>
-      <c r="V378">
-        <v>1.85</v>
-      </c>
-      <c r="W378">
-        <v>1.05</v>
-      </c>
-      <c r="X378">
-        <v>-1</v>
-      </c>
-      <c r="Y378">
-        <v>-1</v>
-      </c>
-      <c r="Z378">
-        <v>1.05</v>
-      </c>
-      <c r="AA378">
-        <v>-1</v>
-      </c>
-      <c r="AB378">
-        <v>-1</v>
-      </c>
       <c r="AC378">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="379" spans="1:29">
@@ -36744,7 +36744,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>5169311</v>
+        <v>5169619</v>
       </c>
       <c r="C408" t="s">
         <v>28</v>
@@ -36756,58 +36756,58 @@
         <v>44863.45833333334</v>
       </c>
       <c r="F408" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G408" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H408">
+        <v>4</v>
+      </c>
+      <c r="I408">
         <v>1</v>
-      </c>
-      <c r="I408">
-        <v>0</v>
       </c>
       <c r="J408" t="s">
         <v>43</v>
       </c>
       <c r="K408">
-        <v>2.45</v>
+        <v>1.333</v>
       </c>
       <c r="L408">
+        <v>5.5</v>
+      </c>
+      <c r="M408">
+        <v>8</v>
+      </c>
+      <c r="N408">
+        <v>1.4</v>
+      </c>
+      <c r="O408">
+        <v>5.25</v>
+      </c>
+      <c r="P408">
+        <v>6.5</v>
+      </c>
+      <c r="Q408">
+        <v>-1.25</v>
+      </c>
+      <c r="R408">
+        <v>1.825</v>
+      </c>
+      <c r="S408">
+        <v>2.025</v>
+      </c>
+      <c r="T408">
         <v>3</v>
       </c>
-      <c r="M408">
-        <v>3.1</v>
-      </c>
-      <c r="N408">
-        <v>2.4</v>
-      </c>
-      <c r="O408">
-        <v>2.9</v>
-      </c>
-      <c r="P408">
-        <v>3.4</v>
-      </c>
-      <c r="Q408">
-        <v>-0.25</v>
-      </c>
-      <c r="R408">
-        <v>2</v>
-      </c>
-      <c r="S408">
-        <v>1.85</v>
-      </c>
-      <c r="T408">
-        <v>2</v>
-      </c>
       <c r="U408">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V408">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W408">
-        <v>1.4</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X408">
         <v>-1</v>
@@ -36816,16 +36816,16 @@
         <v>-1</v>
       </c>
       <c r="Z408">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA408">
         <v>-1</v>
       </c>
       <c r="AB408">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC408">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="409" spans="1:29">
@@ -36833,7 +36833,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>5169619</v>
+        <v>5169859</v>
       </c>
       <c r="C409" t="s">
         <v>28</v>
@@ -36845,76 +36845,76 @@
         <v>44863.45833333334</v>
       </c>
       <c r="F409" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G409" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H409">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I409">
         <v>1</v>
       </c>
       <c r="J409" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K409">
-        <v>1.333</v>
+        <v>2.625</v>
       </c>
       <c r="L409">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="M409">
-        <v>8</v>
+        <v>2.7</v>
       </c>
       <c r="N409">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="O409">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="P409">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q409">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R409">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="S409">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="T409">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U409">
+        <v>1.9</v>
+      </c>
+      <c r="V409">
         <v>1.95</v>
       </c>
-      <c r="V409">
-        <v>1.9</v>
-      </c>
       <c r="W409">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X409">
         <v>-1</v>
       </c>
       <c r="Y409">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z409">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA409">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB409">
+        <v>-1</v>
+      </c>
+      <c r="AC409">
         <v>0.95</v>
-      </c>
-      <c r="AC409">
-        <v>-1</v>
       </c>
     </row>
     <row r="410" spans="1:29">
@@ -36922,7 +36922,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>5169859</v>
+        <v>5169311</v>
       </c>
       <c r="C410" t="s">
         <v>28</v>
@@ -36934,76 +36934,76 @@
         <v>44863.45833333334</v>
       </c>
       <c r="F410" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G410" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I410">
+        <v>0</v>
+      </c>
+      <c r="J410" t="s">
+        <v>43</v>
+      </c>
+      <c r="K410">
+        <v>2.45</v>
+      </c>
+      <c r="L410">
+        <v>3</v>
+      </c>
+      <c r="M410">
+        <v>3.1</v>
+      </c>
+      <c r="N410">
+        <v>2.4</v>
+      </c>
+      <c r="O410">
+        <v>2.9</v>
+      </c>
+      <c r="P410">
+        <v>3.4</v>
+      </c>
+      <c r="Q410">
+        <v>-0.25</v>
+      </c>
+      <c r="R410">
+        <v>2</v>
+      </c>
+      <c r="S410">
+        <v>1.85</v>
+      </c>
+      <c r="T410">
+        <v>2</v>
+      </c>
+      <c r="U410">
+        <v>2</v>
+      </c>
+      <c r="V410">
+        <v>1.85</v>
+      </c>
+      <c r="W410">
+        <v>1.4</v>
+      </c>
+      <c r="X410">
+        <v>-1</v>
+      </c>
+      <c r="Y410">
+        <v>-1</v>
+      </c>
+      <c r="Z410">
         <v>1</v>
       </c>
-      <c r="J410" t="s">
-        <v>45</v>
-      </c>
-      <c r="K410">
-        <v>2.625</v>
-      </c>
-      <c r="L410">
-        <v>3.2</v>
-      </c>
-      <c r="M410">
-        <v>2.7</v>
-      </c>
-      <c r="N410">
-        <v>3</v>
-      </c>
-      <c r="O410">
-        <v>3.2</v>
-      </c>
-      <c r="P410">
-        <v>2.5</v>
-      </c>
-      <c r="Q410">
-        <v>0</v>
-      </c>
-      <c r="R410">
-        <v>2.1</v>
-      </c>
-      <c r="S410">
-        <v>1.775</v>
-      </c>
-      <c r="T410">
-        <v>2.25</v>
-      </c>
-      <c r="U410">
-        <v>1.9</v>
-      </c>
-      <c r="V410">
-        <v>1.95</v>
-      </c>
-      <c r="W410">
-        <v>-1</v>
-      </c>
-      <c r="X410">
-        <v>-1</v>
-      </c>
-      <c r="Y410">
-        <v>1.5</v>
-      </c>
-      <c r="Z410">
-        <v>-1</v>
-      </c>
       <c r="AA410">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB410">
         <v>-1</v>
       </c>
       <c r="AC410">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="411" spans="1:29">
@@ -43419,7 +43419,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>5169344</v>
+        <v>5169870</v>
       </c>
       <c r="C483" t="s">
         <v>28</v>
@@ -43431,49 +43431,49 @@
         <v>44961.5</v>
       </c>
       <c r="F483" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G483" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I483">
         <v>1</v>
       </c>
       <c r="J483" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K483">
-        <v>2.8</v>
+        <v>1.533</v>
       </c>
       <c r="L483">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M483">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="N483">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="O483">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P483">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="Q483">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R483">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="S483">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="T483">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U483">
         <v>1.95</v>
@@ -43482,25 +43482,25 @@
         <v>1.9</v>
       </c>
       <c r="W483">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X483">
         <v>-1</v>
       </c>
       <c r="Y483">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z483">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA483">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB483">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC483">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="484" spans="1:29">
@@ -43508,7 +43508,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>5169870</v>
+        <v>5169647</v>
       </c>
       <c r="C484" t="s">
         <v>28</v>
@@ -43520,10 +43520,10 @@
         <v>44961.5</v>
       </c>
       <c r="F484" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G484" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H484">
         <v>3</v>
@@ -43535,34 +43535,34 @@
         <v>43</v>
       </c>
       <c r="K484">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="L484">
+        <v>3.4</v>
+      </c>
+      <c r="M484">
         <v>4</v>
       </c>
-      <c r="M484">
-        <v>6</v>
-      </c>
       <c r="N484">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O484">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P484">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q484">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R484">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S484">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T484">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U484">
         <v>1.95</v>
@@ -43571,7 +43571,7 @@
         <v>1.9</v>
       </c>
       <c r="W484">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="X484">
         <v>-1</v>
@@ -43580,7 +43580,7 @@
         <v>-1</v>
       </c>
       <c r="Z484">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA484">
         <v>-1</v>
@@ -43597,7 +43597,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>5169647</v>
+        <v>5169344</v>
       </c>
       <c r="C485" t="s">
         <v>28</v>
@@ -43609,49 +43609,49 @@
         <v>44961.5</v>
       </c>
       <c r="F485" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G485" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H485">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I485">
         <v>1</v>
       </c>
       <c r="J485" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K485">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="L485">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M485">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N485">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="O485">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P485">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q485">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R485">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="S485">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="T485">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U485">
         <v>1.95</v>
@@ -43660,25 +43660,25 @@
         <v>1.9</v>
       </c>
       <c r="W485">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X485">
         <v>-1</v>
       </c>
       <c r="Y485">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z485">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA485">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB485">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC485">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="486" spans="1:29">
@@ -47335,7 +47335,7 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>5423471</v>
+        <v>5465925</v>
       </c>
       <c r="C527" t="s">
         <v>28</v>
@@ -47347,76 +47347,76 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F527" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G527" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I527">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J527" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K527">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="L527">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M527">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N527">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O527">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P527">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="Q527">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R527">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S527">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T527">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U527">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V527">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W527">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X527">
         <v>-1</v>
       </c>
       <c r="Y527">
-        <v>-1</v>
+        <v>2.9</v>
       </c>
       <c r="Z527">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA527">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB527">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC527">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="528" spans="1:29">
@@ -47424,7 +47424,7 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>5465925</v>
+        <v>5423471</v>
       </c>
       <c r="C528" t="s">
         <v>28</v>
@@ -47436,76 +47436,76 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F528" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G528" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H528">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I528">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J528" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K528">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="L528">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M528">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="N528">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O528">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P528">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q528">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R528">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S528">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T528">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U528">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V528">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W528">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X528">
         <v>-1</v>
       </c>
       <c r="Y528">
-        <v>2.9</v>
+        <v>-1</v>
       </c>
       <c r="Z528">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA528">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB528">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC528">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="529" spans="1:29">
@@ -57481,7 +57481,7 @@
         <v>639</v>
       </c>
       <c r="B641">
-        <v>6844768</v>
+        <v>6844769</v>
       </c>
       <c r="C641" t="s">
         <v>28</v>
@@ -57493,76 +57493,76 @@
         <v>45255.5</v>
       </c>
       <c r="F641" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G641" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H641">
         <v>1</v>
       </c>
       <c r="I641">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J641" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K641">
-        <v>1.125</v>
+        <v>2.75</v>
       </c>
       <c r="L641">
-        <v>8</v>
+        <v>3.3</v>
       </c>
       <c r="M641">
-        <v>21</v>
+        <v>2.5</v>
       </c>
       <c r="N641">
-        <v>1.166</v>
+        <v>2.9</v>
       </c>
       <c r="O641">
-        <v>8</v>
+        <v>3.3</v>
       </c>
       <c r="P641">
-        <v>13</v>
+        <v>2.4</v>
       </c>
       <c r="Q641">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R641">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S641">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T641">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U641">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V641">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W641">
         <v>-1</v>
       </c>
       <c r="X641">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Y641">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z641">
         <v>-1</v>
       </c>
       <c r="AA641">
-        <v>0.8500000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AB641">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC641">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="642" spans="1:29">
@@ -57570,7 +57570,7 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>6844769</v>
+        <v>6844768</v>
       </c>
       <c r="C642" t="s">
         <v>28</v>
@@ -57582,76 +57582,76 @@
         <v>45255.5</v>
       </c>
       <c r="F642" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G642" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H642">
         <v>1</v>
       </c>
       <c r="I642">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J642" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K642">
-        <v>2.75</v>
+        <v>1.125</v>
       </c>
       <c r="L642">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="M642">
-        <v>2.5</v>
+        <v>21</v>
       </c>
       <c r="N642">
-        <v>2.9</v>
+        <v>1.166</v>
       </c>
       <c r="O642">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="P642">
-        <v>2.4</v>
+        <v>13</v>
       </c>
       <c r="Q642">
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R642">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S642">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T642">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U642">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V642">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W642">
         <v>-1</v>
       </c>
       <c r="X642">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y642">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z642">
         <v>-1</v>
       </c>
       <c r="AA642">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB642">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC642">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="643" spans="1:29">
@@ -57659,7 +57659,7 @@
         <v>641</v>
       </c>
       <c r="B643">
-        <v>6844772</v>
+        <v>6844770</v>
       </c>
       <c r="C643" t="s">
         <v>28</v>
@@ -57671,10 +57671,10 @@
         <v>45255.5</v>
       </c>
       <c r="F643" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G643" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H643">
         <v>1</v>
@@ -57686,34 +57686,34 @@
         <v>43</v>
       </c>
       <c r="K643">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="L643">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M643">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="N643">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="O643">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P643">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="Q643">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R643">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="S643">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T643">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U643">
         <v>1.85</v>
@@ -57722,7 +57722,7 @@
         <v>2</v>
       </c>
       <c r="W643">
-        <v>0.909</v>
+        <v>0.5</v>
       </c>
       <c r="X643">
         <v>-1</v>
@@ -57731,10 +57731,10 @@
         <v>-1</v>
       </c>
       <c r="Z643">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA643">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB643">
         <v>-1</v>
@@ -57748,7 +57748,7 @@
         <v>642</v>
       </c>
       <c r="B644">
-        <v>6844770</v>
+        <v>6844771</v>
       </c>
       <c r="C644" t="s">
         <v>28</v>
@@ -57760,76 +57760,76 @@
         <v>45255.5</v>
       </c>
       <c r="F644" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G644" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H644">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I644">
         <v>0</v>
       </c>
       <c r="J644" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K644">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="L644">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M644">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="N644">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="O644">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P644">
-        <v>7.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q644">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R644">
+        <v>2.025</v>
+      </c>
+      <c r="S644">
+        <v>1.825</v>
+      </c>
+      <c r="T644">
+        <v>2</v>
+      </c>
+      <c r="U644">
+        <v>1.875</v>
+      </c>
+      <c r="V644">
+        <v>1.975</v>
+      </c>
+      <c r="W644">
+        <v>-1</v>
+      </c>
+      <c r="X644">
         <v>2.1</v>
       </c>
-      <c r="S644">
-        <v>1.775</v>
-      </c>
-      <c r="T644">
-        <v>2.5</v>
-      </c>
-      <c r="U644">
-        <v>1.85</v>
-      </c>
-      <c r="V644">
-        <v>2</v>
-      </c>
-      <c r="W644">
-        <v>0.5</v>
-      </c>
-      <c r="X644">
-        <v>-1</v>
-      </c>
       <c r="Y644">
         <v>-1</v>
       </c>
       <c r="Z644">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA644">
-        <v>0.3875</v>
+        <v>-0</v>
       </c>
       <c r="AB644">
         <v>-1</v>
       </c>
       <c r="AC644">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="645" spans="1:29">
@@ -57837,7 +57837,7 @@
         <v>643</v>
       </c>
       <c r="B645">
-        <v>6844771</v>
+        <v>6844772</v>
       </c>
       <c r="C645" t="s">
         <v>28</v>
@@ -57849,76 +57849,76 @@
         <v>45255.5</v>
       </c>
       <c r="F645" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G645" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I645">
         <v>0</v>
       </c>
       <c r="J645" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K645">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L645">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M645">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N645">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="O645">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P645">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q645">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R645">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S645">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T645">
         <v>2</v>
       </c>
       <c r="U645">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V645">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W645">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X645">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y645">
         <v>-1</v>
       </c>
       <c r="Z645">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA645">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB645">
         <v>-1</v>
       </c>
       <c r="AC645">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:29">
@@ -58104,7 +58104,7 @@
         <v>646</v>
       </c>
       <c r="B648">
-        <v>6844773</v>
+        <v>6844775</v>
       </c>
       <c r="C648" t="s">
         <v>28</v>
@@ -58116,76 +58116,76 @@
         <v>45262.5</v>
       </c>
       <c r="F648" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G648" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I648">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J648" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K648">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="L648">
         <v>3.25</v>
       </c>
       <c r="M648">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="N648">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="O648">
         <v>3.3</v>
       </c>
       <c r="P648">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q648">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R648">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S648">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T648">
         <v>2.25</v>
       </c>
       <c r="U648">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V648">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W648">
         <v>-1</v>
       </c>
       <c r="X648">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y648">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z648">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA648">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AB648">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC648">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="649" spans="1:29">
@@ -58193,7 +58193,7 @@
         <v>647</v>
       </c>
       <c r="B649">
-        <v>6844775</v>
+        <v>6844773</v>
       </c>
       <c r="C649" t="s">
         <v>28</v>
@@ -58205,76 +58205,76 @@
         <v>45262.5</v>
       </c>
       <c r="F649" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G649" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H649">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I649">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J649" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K649">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="L649">
         <v>3.25</v>
       </c>
       <c r="M649">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="N649">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="O649">
         <v>3.3</v>
       </c>
       <c r="P649">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q649">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R649">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S649">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T649">
         <v>2.25</v>
       </c>
       <c r="U649">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V649">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W649">
         <v>-1</v>
       </c>
       <c r="X649">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y649">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z649">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA649">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AB649">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC649">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:29">
@@ -59795,7 +59795,7 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>6844805</v>
+        <v>6845517</v>
       </c>
       <c r="C667" t="s">
         <v>28</v>
@@ -59807,76 +59807,76 @@
         <v>45276.5</v>
       </c>
       <c r="F667" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G667" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H667">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I667">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J667" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K667">
+        <v>1.25</v>
+      </c>
+      <c r="L667">
+        <v>6</v>
+      </c>
+      <c r="M667">
+        <v>10</v>
+      </c>
+      <c r="N667">
+        <v>1.2</v>
+      </c>
+      <c r="O667">
+        <v>7</v>
+      </c>
+      <c r="P667">
+        <v>12</v>
+      </c>
+      <c r="Q667">
+        <v>-2</v>
+      </c>
+      <c r="R667">
+        <v>1.95</v>
+      </c>
+      <c r="S667">
+        <v>1.9</v>
+      </c>
+      <c r="T667">
         <v>3.5</v>
       </c>
-      <c r="L667">
-        <v>3.25</v>
-      </c>
-      <c r="M667">
-        <v>2.1</v>
-      </c>
-      <c r="N667">
-        <v>3.6</v>
-      </c>
-      <c r="O667">
-        <v>3.4</v>
-      </c>
-      <c r="P667">
-        <v>2.05</v>
-      </c>
-      <c r="Q667">
-        <v>0.5</v>
-      </c>
-      <c r="R667">
-        <v>1.8</v>
-      </c>
-      <c r="S667">
-        <v>2.05</v>
-      </c>
-      <c r="T667">
-        <v>2.25</v>
-      </c>
       <c r="U667">
+        <v>2.025</v>
+      </c>
+      <c r="V667">
         <v>1.825</v>
       </c>
-      <c r="V667">
-        <v>2.025</v>
-      </c>
       <c r="W667">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X667">
         <v>-1</v>
       </c>
       <c r="Y667">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="Z667">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA667">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB667">
         <v>-1</v>
       </c>
       <c r="AC667">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="668" spans="1:29">
@@ -59884,7 +59884,7 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>6845517</v>
+        <v>6844805</v>
       </c>
       <c r="C668" t="s">
         <v>28</v>
@@ -59896,76 +59896,76 @@
         <v>45276.5</v>
       </c>
       <c r="F668" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G668" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I668">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J668" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K668">
-        <v>1.25</v>
+        <v>3.5</v>
       </c>
       <c r="L668">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M668">
-        <v>10</v>
+        <v>2.1</v>
       </c>
       <c r="N668">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="O668">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P668">
-        <v>12</v>
+        <v>2.05</v>
       </c>
       <c r="Q668">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R668">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S668">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T668">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U668">
+        <v>1.825</v>
+      </c>
+      <c r="V668">
         <v>2.025</v>
       </c>
-      <c r="V668">
-        <v>1.825</v>
-      </c>
       <c r="W668">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X668">
         <v>-1</v>
       </c>
       <c r="Y668">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="Z668">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA668">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB668">
         <v>-1</v>
       </c>
       <c r="AC668">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="669" spans="1:29">
@@ -61842,7 +61842,7 @@
         <v>688</v>
       </c>
       <c r="B690">
-        <v>7452605</v>
+        <v>7452337</v>
       </c>
       <c r="C690" t="s">
         <v>28</v>
@@ -61854,70 +61854,70 @@
         <v>45315.69791666666</v>
       </c>
       <c r="F690" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G690" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H690">
+        <v>0</v>
+      </c>
+      <c r="I690">
+        <v>3</v>
+      </c>
+      <c r="J690" t="s">
+        <v>45</v>
+      </c>
+      <c r="K690">
+        <v>7</v>
+      </c>
+      <c r="L690">
+        <v>4.5</v>
+      </c>
+      <c r="M690">
+        <v>1.444</v>
+      </c>
+      <c r="N690">
+        <v>8</v>
+      </c>
+      <c r="O690">
+        <v>5.25</v>
+      </c>
+      <c r="P690">
+        <v>1.333</v>
+      </c>
+      <c r="Q690">
+        <v>1.5</v>
+      </c>
+      <c r="R690">
+        <v>1.85</v>
+      </c>
+      <c r="S690">
+        <v>2</v>
+      </c>
+      <c r="T690">
+        <v>3</v>
+      </c>
+      <c r="U690">
+        <v>2.025</v>
+      </c>
+      <c r="V690">
+        <v>1.825</v>
+      </c>
+      <c r="W690">
+        <v>-1</v>
+      </c>
+      <c r="X690">
+        <v>-1</v>
+      </c>
+      <c r="Y690">
+        <v>0.333</v>
+      </c>
+      <c r="Z690">
+        <v>-1</v>
+      </c>
+      <c r="AA690">
         <v>1</v>
-      </c>
-      <c r="I690">
-        <v>1</v>
-      </c>
-      <c r="J690" t="s">
-        <v>44</v>
-      </c>
-      <c r="K690">
-        <v>3.75</v>
-      </c>
-      <c r="L690">
-        <v>3.4</v>
-      </c>
-      <c r="M690">
-        <v>2</v>
-      </c>
-      <c r="N690">
-        <v>3.75</v>
-      </c>
-      <c r="O690">
-        <v>3.1</v>
-      </c>
-      <c r="P690">
-        <v>2.15</v>
-      </c>
-      <c r="Q690">
-        <v>0.25</v>
-      </c>
-      <c r="R690">
-        <v>2.025</v>
-      </c>
-      <c r="S690">
-        <v>1.825</v>
-      </c>
-      <c r="T690">
-        <v>2</v>
-      </c>
-      <c r="U690">
-        <v>1.8</v>
-      </c>
-      <c r="V690">
-        <v>2.05</v>
-      </c>
-      <c r="W690">
-        <v>-1</v>
-      </c>
-      <c r="X690">
-        <v>2.1</v>
-      </c>
-      <c r="Y690">
-        <v>-1</v>
-      </c>
-      <c r="Z690">
-        <v>0.5125</v>
-      </c>
-      <c r="AA690">
-        <v>-0.5</v>
       </c>
       <c r="AB690">
         <v>0</v>
@@ -61931,7 +61931,7 @@
         <v>689</v>
       </c>
       <c r="B691">
-        <v>7452337</v>
+        <v>7452605</v>
       </c>
       <c r="C691" t="s">
         <v>28</v>
@@ -61943,70 +61943,70 @@
         <v>45315.69791666666</v>
       </c>
       <c r="F691" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G691" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I691">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J691" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K691">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="L691">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M691">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="N691">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="O691">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="P691">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="Q691">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R691">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S691">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T691">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U691">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V691">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W691">
         <v>-1</v>
       </c>
       <c r="X691">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y691">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z691">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA691">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB691">
         <v>0</v>
@@ -62584,28 +62584,28 @@
         <v>7</v>
       </c>
       <c r="O698">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P698">
-        <v>1.45</v>
+        <v>1.444</v>
       </c>
       <c r="Q698">
         <v>1.25</v>
       </c>
       <c r="R698">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S698">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T698">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U698">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V698">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W698">
         <v>0</v>
@@ -62741,19 +62741,19 @@
         <v>-0.5</v>
       </c>
       <c r="R700">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S700">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T700">
         <v>2.25</v>
       </c>
       <c r="U700">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V700">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W700">
         <v>0</v>
@@ -62803,31 +62803,31 @@
         <v>2.15</v>
       </c>
       <c r="N701">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="O701">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P701">
         <v>2.45</v>
       </c>
       <c r="Q701">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R701">
-        <v>2.125</v>
+        <v>1.775</v>
       </c>
       <c r="S701">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="T701">
         <v>2.25</v>
       </c>
       <c r="U701">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V701">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W701">
         <v>0</v>
@@ -62889,19 +62889,19 @@
         <v>-0.25</v>
       </c>
       <c r="R702">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S702">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T702">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U702">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V702">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W702">
         <v>0</v>
@@ -62916,6 +62916,80 @@
         <v>0</v>
       </c>
       <c r="AA702">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="703" spans="1:29">
+      <c r="A703" s="1">
+        <v>701</v>
+      </c>
+      <c r="B703">
+        <v>6844843</v>
+      </c>
+      <c r="C703" t="s">
+        <v>28</v>
+      </c>
+      <c r="D703" t="s">
+        <v>28</v>
+      </c>
+      <c r="E703" s="2">
+        <v>45325.5</v>
+      </c>
+      <c r="F703" t="s">
+        <v>29</v>
+      </c>
+      <c r="G703" t="s">
+        <v>36</v>
+      </c>
+      <c r="K703">
+        <v>1.111</v>
+      </c>
+      <c r="L703">
+        <v>9</v>
+      </c>
+      <c r="M703">
+        <v>19</v>
+      </c>
+      <c r="N703">
+        <v>1.1</v>
+      </c>
+      <c r="O703">
+        <v>9.5</v>
+      </c>
+      <c r="P703">
+        <v>19</v>
+      </c>
+      <c r="Q703">
+        <v>-2.25</v>
+      </c>
+      <c r="R703">
+        <v>1.8</v>
+      </c>
+      <c r="S703">
+        <v>2.05</v>
+      </c>
+      <c r="T703">
+        <v>3.25</v>
+      </c>
+      <c r="U703">
+        <v>1.975</v>
+      </c>
+      <c r="V703">
+        <v>1.875</v>
+      </c>
+      <c r="W703">
+        <v>0</v>
+      </c>
+      <c r="X703">
+        <v>0</v>
+      </c>
+      <c r="Y703">
+        <v>0</v>
+      </c>
+      <c r="Z703">
+        <v>0</v>
+      </c>
+      <c r="AA703">
         <v>0</v>
       </c>
     </row>

--- a/Scotland Premiership/Scotland Premiership.xlsx
+++ b/Scotland Premiership/Scotland Premiership.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -115,16 +115,16 @@
     <t>St Johnstone</t>
   </si>
   <si>
+    <t>Livingston</t>
+  </si>
+  <si>
     <t>Kilmarnock</t>
   </si>
   <si>
-    <t>Livingston</t>
+    <t>Ross County</t>
   </si>
   <si>
     <t>St Mirren</t>
-  </si>
-  <si>
-    <t>Ross County</t>
   </si>
   <si>
     <t>Celtic</t>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC257"/>
+  <dimension ref="A1:AC256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -800,7 +800,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5169328</v>
+        <v>5169329</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -978,73 +978,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
         <v>42</v>
       </c>
       <c r="K6">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="L6">
+        <v>3.4</v>
+      </c>
+      <c r="M6">
+        <v>3.2</v>
+      </c>
+      <c r="N6">
+        <v>2.9</v>
+      </c>
+      <c r="O6">
         <v>3.3</v>
       </c>
-      <c r="M6">
-        <v>2.3</v>
-      </c>
-      <c r="N6">
-        <v>2.625</v>
-      </c>
-      <c r="O6">
-        <v>3.25</v>
-      </c>
       <c r="P6">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R6">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S6">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T6">
         <v>2.25</v>
       </c>
       <c r="U6">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V6">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AA6">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC6">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1052,7 +1052,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5169329</v>
+        <v>5169328</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1067,73 +1067,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
         <v>42</v>
       </c>
       <c r="K7">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="L7">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M7">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="N7">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="O7">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P7">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q7">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S7">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T7">
         <v>2.25</v>
       </c>
       <c r="U7">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V7">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB7">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1141,7 +1141,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5169333</v>
+        <v>5169331</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1153,76 +1153,76 @@
         <v>44933.5</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K8">
+        <v>2.1</v>
+      </c>
+      <c r="L8">
+        <v>3.25</v>
+      </c>
+      <c r="M8">
         <v>3.5</v>
       </c>
-      <c r="L8">
-        <v>3.1</v>
-      </c>
-      <c r="M8">
-        <v>2.15</v>
-      </c>
       <c r="N8">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="O8">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P8">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R8">
+        <v>1.875</v>
+      </c>
+      <c r="S8">
         <v>1.975</v>
-      </c>
-      <c r="S8">
-        <v>1.875</v>
       </c>
       <c r="T8">
         <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X8">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA8">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
         <v>-1</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5169331</v>
+        <v>5169332</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,40 +1242,40 @@
         <v>44933.5</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K9">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L9">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M9">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="N9">
-        <v>1.615</v>
+        <v>2.7</v>
       </c>
       <c r="O9">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P9">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q9">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R9">
         <v>1.875</v>
@@ -1284,34 +1284,34 @@
         <v>1.975</v>
       </c>
       <c r="T9">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U9">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V9">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W9">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z9">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1319,7 +1319,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5169332</v>
+        <v>5169333</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1334,73 +1334,73 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K10">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="L10">
         <v>3.1</v>
       </c>
       <c r="M10">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="N10">
         <v>2.7</v>
       </c>
       <c r="O10">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P10">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
+        <v>1.975</v>
+      </c>
+      <c r="S10">
         <v>1.875</v>
       </c>
-      <c r="S10">
-        <v>1.975</v>
-      </c>
       <c r="T10">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U10">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V10">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W10">
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y10">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1423,7 +1423,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1690,7 +1690,7 @@
         <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1779,7 +1779,7 @@
         <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1957,7 +1957,7 @@
         <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2135,7 +2135,7 @@
         <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19">
         <v>4</v>
@@ -2221,7 +2221,7 @@
         <v>44944.70833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
         <v>29</v>
@@ -2310,7 +2310,7 @@
         <v>44954.5</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
         <v>38</v>
@@ -2577,10 +2577,10 @@
         <v>44954.5</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -2666,7 +2666,7 @@
         <v>44955.4375</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
         <v>30</v>
@@ -2844,7 +2844,7 @@
         <v>44957.69791666666</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
         <v>40</v>
@@ -2936,7 +2936,7 @@
         <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -3025,7 +3025,7 @@
         <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3289,7 +3289,7 @@
         <v>44958.69791666666</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
         <v>39</v>
@@ -3366,7 +3366,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5169648</v>
+        <v>5169342</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3378,13 +3378,13 @@
         <v>44961.5</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -3393,43 +3393,43 @@
         <v>43</v>
       </c>
       <c r="K33">
-        <v>1.125</v>
+        <v>1.8</v>
       </c>
       <c r="L33">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="M33">
-        <v>15</v>
+        <v>4.5</v>
       </c>
       <c r="N33">
-        <v>1.125</v>
+        <v>2.375</v>
       </c>
       <c r="O33">
-        <v>9.5</v>
+        <v>3.2</v>
       </c>
       <c r="P33">
-        <v>17</v>
+        <v>3.1</v>
       </c>
       <c r="Q33">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R33">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S33">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T33">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="U33">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V33">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W33">
-        <v>0.125</v>
+        <v>1.375</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3438,16 +3438,16 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA33">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC33">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3455,7 +3455,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5169870</v>
+        <v>5169648</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3467,13 +3467,13 @@
         <v>44961.5</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -3482,43 +3482,43 @@
         <v>43</v>
       </c>
       <c r="K34">
-        <v>1.533</v>
+        <v>1.125</v>
       </c>
       <c r="L34">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M34">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N34">
-        <v>1.7</v>
+        <v>1.125</v>
       </c>
       <c r="O34">
-        <v>3.75</v>
+        <v>9.5</v>
       </c>
       <c r="P34">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="Q34">
-        <v>-0.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R34">
+        <v>1.85</v>
+      </c>
+      <c r="S34">
+        <v>2</v>
+      </c>
+      <c r="T34">
+        <v>3.25</v>
+      </c>
+      <c r="U34">
         <v>1.875</v>
       </c>
-      <c r="S34">
+      <c r="V34">
         <v>1.975</v>
       </c>
-      <c r="T34">
-        <v>2.75</v>
-      </c>
-      <c r="U34">
-        <v>1.95</v>
-      </c>
-      <c r="V34">
-        <v>1.9</v>
-      </c>
       <c r="W34">
-        <v>0.7</v>
+        <v>0.125</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3527,16 +3527,16 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB34">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3544,7 +3544,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5169344</v>
+        <v>5169870</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3556,49 +3556,49 @@
         <v>44961.5</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K35">
-        <v>2.8</v>
+        <v>1.533</v>
       </c>
       <c r="L35">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M35">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="N35">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="O35">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P35">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="Q35">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R35">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="S35">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="T35">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U35">
         <v>1.95</v>
@@ -3607,25 +3607,25 @@
         <v>1.9</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA35">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC35">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3633,7 +3633,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5169342</v>
+        <v>5169344</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3645,76 +3645,76 @@
         <v>44961.5</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K36">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="L36">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M36">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N36">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="O36">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P36">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q36">
         <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>1.975</v>
+        <v>2.075</v>
       </c>
       <c r="S36">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="T36">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U36">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V36">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W36">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z36">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB36">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3915,7 +3915,7 @@
         <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -4090,7 +4090,7 @@
         <v>44975.5</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
         <v>29</v>
@@ -4268,10 +4268,10 @@
         <v>44975.5</v>
       </c>
       <c r="F43" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43" t="s">
         <v>35</v>
-      </c>
-      <c r="G43" t="s">
-        <v>36</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4360,7 +4360,7 @@
         <v>40</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4535,7 +4535,7 @@
         <v>44982.5</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G46" t="s">
         <v>38</v>
@@ -4627,7 +4627,7 @@
         <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4713,7 +4713,7 @@
         <v>44982.5</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G48" t="s">
         <v>39</v>
@@ -4805,7 +4805,7 @@
         <v>32</v>
       </c>
       <c r="G49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4983,7 +4983,7 @@
         <v>29</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H51">
         <v>3</v>
@@ -5069,7 +5069,7 @@
         <v>44989.5</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
         <v>38</v>
@@ -5158,7 +5158,7 @@
         <v>44989.5</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G53" t="s">
         <v>40</v>
@@ -5336,7 +5336,7 @@
         <v>44990.375</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
         <v>37</v>
@@ -5413,7 +5413,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6176752</v>
+        <v>5169872</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5425,76 +5425,76 @@
         <v>44993.69791666666</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K56">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="L56">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="M56">
-        <v>3.75</v>
+        <v>13</v>
       </c>
       <c r="N56">
-        <v>2.3</v>
+        <v>1.125</v>
       </c>
       <c r="O56">
-        <v>3.2</v>
+        <v>11</v>
       </c>
       <c r="P56">
-        <v>3.3</v>
+        <v>15</v>
       </c>
       <c r="Q56">
-        <v>-0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R56">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S56">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T56">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U56">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V56">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X56">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
       <c r="AB56">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC56">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5591,7 +5591,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5169872</v>
+        <v>6176752</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5603,76 +5603,76 @@
         <v>44993.69791666666</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G58" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K58">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="L58">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="M58">
-        <v>13</v>
+        <v>3.75</v>
       </c>
       <c r="N58">
-        <v>1.125</v>
+        <v>2.3</v>
       </c>
       <c r="O58">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="P58">
-        <v>15</v>
+        <v>3.3</v>
       </c>
       <c r="Q58">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R58">
+        <v>1.975</v>
+      </c>
+      <c r="S58">
+        <v>1.875</v>
+      </c>
+      <c r="T58">
+        <v>2.25</v>
+      </c>
+      <c r="U58">
         <v>2.025</v>
       </c>
-      <c r="S58">
+      <c r="V58">
         <v>1.825</v>
       </c>
-      <c r="T58">
-        <v>3.5</v>
-      </c>
-      <c r="U58">
-        <v>1.85</v>
-      </c>
-      <c r="V58">
-        <v>2</v>
-      </c>
       <c r="W58">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA58">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
       <c r="AB58">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5781,10 +5781,10 @@
         <v>45003.5</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -5959,7 +5959,7 @@
         <v>45003.5</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
         <v>32</v>
@@ -6036,7 +6036,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5169883</v>
+        <v>5169881</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6048,76 +6048,76 @@
         <v>45003.5</v>
       </c>
       <c r="F63" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K63">
         <v>2.5</v>
       </c>
       <c r="L63">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M63">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N63">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="O63">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P63">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R63">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S63">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T63">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U63">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V63">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X63">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA63">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC63">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6125,7 +6125,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5169881</v>
+        <v>5169883</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6137,76 +6137,76 @@
         <v>45003.5</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K64">
         <v>2.5</v>
       </c>
       <c r="L64">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M64">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="N64">
+        <v>2.7</v>
+      </c>
+      <c r="O64">
+        <v>3.25</v>
+      </c>
+      <c r="P64">
+        <v>2.625</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>1.95</v>
+      </c>
+      <c r="S64">
+        <v>1.9</v>
+      </c>
+      <c r="T64">
         <v>2.25</v>
       </c>
-      <c r="O64">
-        <v>3.4</v>
-      </c>
-      <c r="P64">
-        <v>3.2</v>
-      </c>
-      <c r="Q64">
-        <v>-0.25</v>
-      </c>
-      <c r="R64">
-        <v>1.925</v>
-      </c>
-      <c r="S64">
-        <v>1.925</v>
-      </c>
-      <c r="T64">
-        <v>2.5</v>
-      </c>
       <c r="U64">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V64">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W64">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB64">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6226,10 +6226,10 @@
         <v>45017.45833333334</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H65">
         <v>3</v>
@@ -6493,7 +6493,7 @@
         <v>45017.45833333334</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G68" t="s">
         <v>30</v>
@@ -6671,7 +6671,7 @@
         <v>45018.33333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G70" t="s">
         <v>37</v>
@@ -6852,7 +6852,7 @@
         <v>38</v>
       </c>
       <c r="G72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H72">
         <v>3</v>
@@ -6941,7 +6941,7 @@
         <v>32</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7030,7 +7030,7 @@
         <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -7119,7 +7119,7 @@
         <v>30</v>
       </c>
       <c r="G75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -7294,7 +7294,7 @@
         <v>45030.65625</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G77" t="s">
         <v>31</v>
@@ -7564,7 +7564,7 @@
         <v>29</v>
       </c>
       <c r="G80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H80">
         <v>5</v>
@@ -7650,7 +7650,7 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G81" t="s">
         <v>32</v>
@@ -7739,7 +7739,7 @@
         <v>45032.33333333334</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
         <v>37</v>
@@ -7831,7 +7831,7 @@
         <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H83">
         <v>6</v>
@@ -8095,10 +8095,10 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8187,7 +8187,7 @@
         <v>39</v>
       </c>
       <c r="G87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8365,7 +8365,7 @@
         <v>38</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8454,7 +8454,7 @@
         <v>40</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -8540,10 +8540,10 @@
         <v>45052.45833333334</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8985,7 +8985,7 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G96" t="s">
         <v>30</v>
@@ -9163,10 +9163,10 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F98" t="s">
+        <v>34</v>
+      </c>
+      <c r="G98" t="s">
         <v>33</v>
-      </c>
-      <c r="G98" t="s">
-        <v>34</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -9344,7 +9344,7 @@
         <v>39</v>
       </c>
       <c r="G100" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9522,7 +9522,7 @@
         <v>38</v>
       </c>
       <c r="G102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9608,7 +9608,7 @@
         <v>45066.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
         <v>39</v>
@@ -9700,7 +9700,7 @@
         <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H104">
         <v>2</v>
@@ -9786,7 +9786,7 @@
         <v>45066.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G105" t="s">
         <v>32</v>
@@ -9952,7 +9952,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6576088</v>
+        <v>6576077</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9964,76 +9964,76 @@
         <v>45070.65625</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G107" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J107" t="s">
         <v>42</v>
       </c>
       <c r="K107">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="L107">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="M107">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="N107">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="O107">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P107">
-        <v>2.2</v>
+        <v>7.5</v>
       </c>
       <c r="Q107">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R107">
+        <v>2.025</v>
+      </c>
+      <c r="S107">
+        <v>1.825</v>
+      </c>
+      <c r="T107">
+        <v>3.25</v>
+      </c>
+      <c r="U107">
+        <v>1.95</v>
+      </c>
+      <c r="V107">
         <v>1.9</v>
       </c>
-      <c r="S107">
-        <v>1.95</v>
-      </c>
-      <c r="T107">
-        <v>2.25</v>
-      </c>
-      <c r="U107">
-        <v>1.925</v>
-      </c>
-      <c r="V107">
-        <v>1.925</v>
-      </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB107">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC107">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10041,7 +10041,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6576075</v>
+        <v>6576076</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10053,58 +10053,58 @@
         <v>45070.65625</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G108" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H108">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J108" t="s">
         <v>43</v>
       </c>
       <c r="K108">
-        <v>1.833</v>
+        <v>6.5</v>
       </c>
       <c r="L108">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M108">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="N108">
+        <v>5</v>
+      </c>
+      <c r="O108">
+        <v>4.2</v>
+      </c>
+      <c r="P108">
+        <v>1.666</v>
+      </c>
+      <c r="Q108">
+        <v>0.75</v>
+      </c>
+      <c r="R108">
+        <v>2.05</v>
+      </c>
+      <c r="S108">
         <v>1.8</v>
       </c>
-      <c r="O108">
-        <v>3.6</v>
-      </c>
-      <c r="P108">
-        <v>4.5</v>
-      </c>
-      <c r="Q108">
-        <v>-0.5</v>
-      </c>
-      <c r="R108">
-        <v>1.85</v>
-      </c>
-      <c r="S108">
-        <v>2</v>
-      </c>
       <c r="T108">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U108">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V108">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W108">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="X108">
         <v>-1</v>
@@ -10113,13 +10113,13 @@
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA108">
         <v>-1</v>
       </c>
       <c r="AB108">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC108">
         <v>-1</v>
@@ -10142,7 +10142,7 @@
         <v>45070.65625</v>
       </c>
       <c r="F109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G109" t="s">
         <v>32</v>
@@ -10234,7 +10234,7 @@
         <v>39</v>
       </c>
       <c r="G110" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10308,7 +10308,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6576076</v>
+        <v>6576088</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10320,76 +10320,76 @@
         <v>45070.65625</v>
       </c>
       <c r="F111" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H111">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K111">
-        <v>6.5</v>
+        <v>2.6</v>
       </c>
       <c r="L111">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M111">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="N111">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="O111">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P111">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="Q111">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R111">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S111">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T111">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U111">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V111">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W111">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="X111">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y111">
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>1.05</v>
+        <v>0.45</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB111">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10397,7 +10397,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6576077</v>
+        <v>6576075</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10409,73 +10409,73 @@
         <v>45070.65625</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G112" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K112">
-        <v>1.363</v>
+        <v>1.833</v>
       </c>
       <c r="L112">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="M112">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="N112">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="O112">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P112">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q112">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R112">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S112">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T112">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U112">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V112">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X112">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA112">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10498,7 +10498,7 @@
         <v>45073.35416666666</v>
       </c>
       <c r="F113" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G113" t="s">
         <v>29</v>
@@ -10753,7 +10753,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6576091</v>
+        <v>6576092</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10765,58 +10765,58 @@
         <v>45074.45833333334</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G116" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
         <v>43</v>
       </c>
       <c r="K116">
+        <v>2.375</v>
+      </c>
+      <c r="L116">
+        <v>3.2</v>
+      </c>
+      <c r="M116">
+        <v>3</v>
+      </c>
+      <c r="N116">
         <v>1.95</v>
       </c>
-      <c r="L116">
-        <v>3.6</v>
-      </c>
-      <c r="M116">
-        <v>3.6</v>
-      </c>
-      <c r="N116">
-        <v>1.8</v>
-      </c>
       <c r="O116">
+        <v>3.4</v>
+      </c>
+      <c r="P116">
         <v>4</v>
-      </c>
-      <c r="P116">
-        <v>4.2</v>
       </c>
       <c r="Q116">
         <v>-0.5</v>
       </c>
       <c r="R116">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S116">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T116">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U116">
+        <v>1.975</v>
+      </c>
+      <c r="V116">
         <v>1.875</v>
       </c>
-      <c r="V116">
-        <v>1.975</v>
-      </c>
       <c r="W116">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="X116">
         <v>-1</v>
@@ -10825,16 +10825,16 @@
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA116">
         <v>-1</v>
       </c>
       <c r="AB116">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10842,7 +10842,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6576090</v>
+        <v>6576091</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10854,58 +10854,58 @@
         <v>45074.45833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H117">
         <v>3</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
         <v>43</v>
       </c>
       <c r="K117">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L117">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M117">
         <v>3.6</v>
       </c>
       <c r="N117">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O117">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P117">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q117">
         <v>-0.5</v>
       </c>
       <c r="R117">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S117">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T117">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U117">
+        <v>1.875</v>
+      </c>
+      <c r="V117">
         <v>1.975</v>
       </c>
-      <c r="V117">
-        <v>1.875</v>
-      </c>
       <c r="W117">
-        <v>0.909</v>
+        <v>0.8</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -10914,13 +10914,13 @@
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA117">
         <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10931,7 +10931,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6576092</v>
+        <v>6576090</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10943,49 +10943,49 @@
         <v>45074.45833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
         <v>43</v>
       </c>
       <c r="K118">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L118">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M118">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N118">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O118">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P118">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q118">
         <v>-0.5</v>
       </c>
       <c r="R118">
+        <v>1.9</v>
+      </c>
+      <c r="S118">
         <v>1.95</v>
       </c>
-      <c r="S118">
-        <v>1.9</v>
-      </c>
       <c r="T118">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U118">
         <v>1.975</v>
@@ -10994,7 +10994,7 @@
         <v>1.875</v>
       </c>
       <c r="W118">
-        <v>0.95</v>
+        <v>0.909</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11003,16 +11003,16 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA118">
         <v>-1</v>
       </c>
       <c r="AB118">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC118">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11035,7 +11035,7 @@
         <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H119">
         <v>4</v>
@@ -11121,7 +11121,7 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G120" t="s">
         <v>31</v>
@@ -11388,7 +11388,7 @@
         <v>45143.55208333334</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G123" t="s">
         <v>29</v>
@@ -11480,7 +11480,7 @@
         <v>40</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11566,7 +11566,7 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
         <v>41</v>
@@ -11655,7 +11655,7 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F126" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G126" t="s">
         <v>32</v>
@@ -11747,7 +11747,7 @@
         <v>29</v>
       </c>
       <c r="G127" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H127">
         <v>4</v>
@@ -11925,7 +11925,7 @@
         <v>30</v>
       </c>
       <c r="G129" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -12100,7 +12100,7 @@
         <v>45164.35416666666</v>
       </c>
       <c r="F131" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G131" t="s">
         <v>29</v>
@@ -12281,7 +12281,7 @@
         <v>38</v>
       </c>
       <c r="G133" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H133">
         <v>2</v>
@@ -12370,7 +12370,7 @@
         <v>40</v>
       </c>
       <c r="G134" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -12545,7 +12545,7 @@
         <v>45165.45833333334</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G136" t="s">
         <v>31</v>
@@ -12634,10 +12634,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F137" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -12723,10 +12723,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G138" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -13346,7 +13346,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G145" t="s">
         <v>40</v>
@@ -13438,7 +13438,7 @@
         <v>38</v>
       </c>
       <c r="G146" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13524,10 +13524,10 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F147" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13702,7 +13702,7 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F149" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G149" t="s">
         <v>37</v>
@@ -13791,7 +13791,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F150" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G150" t="s">
         <v>30</v>
@@ -13972,7 +13972,7 @@
         <v>41</v>
       </c>
       <c r="G152" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H152">
         <v>2</v>
@@ -14046,7 +14046,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6844730</v>
+        <v>6844733</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14058,13 +14058,13 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F153" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G153" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H153">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -14073,43 +14073,43 @@
         <v>43</v>
       </c>
       <c r="K153">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="L153">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M153">
-        <v>4.5</v>
+        <v>15</v>
       </c>
       <c r="N153">
-        <v>1.85</v>
+        <v>1.222</v>
       </c>
       <c r="O153">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P153">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="Q153">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R153">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S153">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T153">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U153">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V153">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W153">
-        <v>0.8500000000000001</v>
+        <v>0.222</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14118,16 +14118,16 @@
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB153">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14135,7 +14135,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6844733</v>
+        <v>6844730</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14147,13 +14147,13 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F154" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G154" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I154">
         <v>0</v>
@@ -14162,43 +14162,43 @@
         <v>43</v>
       </c>
       <c r="K154">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="L154">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M154">
-        <v>15</v>
+        <v>4.5</v>
       </c>
       <c r="N154">
-        <v>1.222</v>
+        <v>1.85</v>
       </c>
       <c r="O154">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P154">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="Q154">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R154">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S154">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T154">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U154">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V154">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W154">
-        <v>0.222</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X154">
         <v>-1</v>
@@ -14207,16 +14207,16 @@
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA154">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC154">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14417,7 +14417,7 @@
         <v>32</v>
       </c>
       <c r="G157" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -14592,10 +14592,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F159" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G159" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -14681,7 +14681,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F160" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G160" t="s">
         <v>30</v>
@@ -14770,7 +14770,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F161" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G161" t="s">
         <v>38</v>
@@ -14862,7 +14862,7 @@
         <v>37</v>
       </c>
       <c r="G162" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H162">
         <v>3</v>
@@ -15037,7 +15037,7 @@
         <v>45207.33333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G164" t="s">
         <v>29</v>
@@ -15215,10 +15215,10 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F166" t="s">
+        <v>34</v>
+      </c>
+      <c r="G166" t="s">
         <v>33</v>
-      </c>
-      <c r="G166" t="s">
-        <v>34</v>
       </c>
       <c r="H166">
         <v>3</v>
@@ -15485,7 +15485,7 @@
         <v>41</v>
       </c>
       <c r="G169" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -15571,7 +15571,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F170" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G170" t="s">
         <v>41</v>
@@ -15663,7 +15663,7 @@
         <v>38</v>
       </c>
       <c r="G171" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H171">
         <v>3</v>
@@ -15749,7 +15749,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F172" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G172" t="s">
         <v>32</v>
@@ -15927,7 +15927,7 @@
         <v>45228.375</v>
       </c>
       <c r="F174" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G174" t="s">
         <v>31</v>
@@ -16108,7 +16108,7 @@
         <v>40</v>
       </c>
       <c r="G176" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H176">
         <v>2</v>
@@ -16197,7 +16197,7 @@
         <v>30</v>
       </c>
       <c r="G177" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16286,7 +16286,7 @@
         <v>37</v>
       </c>
       <c r="G178" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16464,7 +16464,7 @@
         <v>32</v>
       </c>
       <c r="G180" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H180">
         <v>2</v>
@@ -16639,7 +16639,7 @@
         <v>45234.39583333334</v>
       </c>
       <c r="F182" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G182" t="s">
         <v>37</v>
@@ -16728,7 +16728,7 @@
         <v>45234.5</v>
       </c>
       <c r="F183" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G183" t="s">
         <v>38</v>
@@ -16820,7 +16820,7 @@
         <v>41</v>
       </c>
       <c r="G184" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H184">
         <v>1</v>
@@ -16995,7 +16995,7 @@
         <v>45238.69791666666</v>
       </c>
       <c r="F186" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G186" t="s">
         <v>40</v>
@@ -17087,7 +17087,7 @@
         <v>32</v>
       </c>
       <c r="G187" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17176,7 +17176,7 @@
         <v>40</v>
       </c>
       <c r="G188" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -17354,7 +17354,7 @@
         <v>41</v>
       </c>
       <c r="G190" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H190">
         <v>4</v>
@@ -17440,7 +17440,7 @@
         <v>45242.375</v>
       </c>
       <c r="F191" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G191" t="s">
         <v>29</v>
@@ -17618,10 +17618,10 @@
         <v>45255.5</v>
       </c>
       <c r="F193" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G193" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H193">
         <v>0</v>
@@ -17695,7 +17695,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6844770</v>
+        <v>6844772</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17707,10 +17707,10 @@
         <v>45255.5</v>
       </c>
       <c r="F194" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G194" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H194">
         <v>1</v>
@@ -17722,34 +17722,34 @@
         <v>43</v>
       </c>
       <c r="K194">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L194">
+        <v>3.3</v>
+      </c>
+      <c r="M194">
         <v>3.75</v>
       </c>
-      <c r="M194">
-        <v>6</v>
-      </c>
       <c r="N194">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O194">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P194">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q194">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R194">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S194">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T194">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U194">
         <v>1.85</v>
@@ -17758,7 +17758,7 @@
         <v>2</v>
       </c>
       <c r="W194">
-        <v>0.5</v>
+        <v>0.909</v>
       </c>
       <c r="X194">
         <v>-1</v>
@@ -17767,10 +17767,10 @@
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA194">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB194">
         <v>-1</v>
@@ -17784,7 +17784,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6844772</v>
+        <v>6844769</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17796,76 +17796,76 @@
         <v>45255.5</v>
       </c>
       <c r="F195" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G195" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H195">
         <v>1</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J195" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K195">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L195">
         <v>3.3</v>
       </c>
       <c r="M195">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N195">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="O195">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P195">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q195">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R195">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S195">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T195">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U195">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V195">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W195">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z195">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB195">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC195">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17873,7 +17873,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6844769</v>
+        <v>6844770</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17885,76 +17885,76 @@
         <v>45255.5</v>
       </c>
       <c r="F196" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G196" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H196">
         <v>1</v>
       </c>
       <c r="I196">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K196">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="L196">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M196">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="N196">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="O196">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P196">
-        <v>2.4</v>
+        <v>7.5</v>
       </c>
       <c r="Q196">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R196">
+        <v>2.1</v>
+      </c>
+      <c r="S196">
         <v>1.775</v>
-      </c>
-      <c r="S196">
-        <v>2.1</v>
       </c>
       <c r="T196">
         <v>2.5</v>
       </c>
       <c r="U196">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V196">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W196">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA196">
-        <v>1.1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB196">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -18152,10 +18152,10 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F199" t="s">
+        <v>35</v>
+      </c>
+      <c r="G199" t="s">
         <v>36</v>
-      </c>
-      <c r="G199" t="s">
-        <v>35</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18241,7 +18241,7 @@
         <v>45262.5</v>
       </c>
       <c r="F200" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G200" t="s">
         <v>30</v>
@@ -18600,7 +18600,7 @@
         <v>29</v>
       </c>
       <c r="G204" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H204">
         <v>2</v>
@@ -18686,7 +18686,7 @@
         <v>45265.69791666666</v>
       </c>
       <c r="F205" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G205" t="s">
         <v>38</v>
@@ -18778,7 +18778,7 @@
         <v>32</v>
       </c>
       <c r="G206" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H206">
         <v>1</v>
@@ -18852,7 +18852,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6845514</v>
+        <v>6844778</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18864,40 +18864,40 @@
         <v>45266.69791666666</v>
       </c>
       <c r="F207" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G207" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H207">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I207">
         <v>1</v>
       </c>
       <c r="J207" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K207">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="L207">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="M207">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="N207">
-        <v>1.222</v>
+        <v>2.1</v>
       </c>
       <c r="O207">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="P207">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="Q207">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R207">
         <v>2.05</v>
@@ -18906,34 +18906,34 @@
         <v>1.8</v>
       </c>
       <c r="T207">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U207">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V207">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W207">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X207">
         <v>-1</v>
       </c>
       <c r="Y207">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z207">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA207">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB207">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC207">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18941,7 +18941,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6844778</v>
+        <v>6845514</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18953,40 +18953,40 @@
         <v>45266.69791666666</v>
       </c>
       <c r="F208" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G208" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I208">
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K208">
-        <v>2.25</v>
+        <v>1.2</v>
       </c>
       <c r="L208">
-        <v>3.25</v>
+        <v>7.5</v>
       </c>
       <c r="M208">
-        <v>3.2</v>
+        <v>11</v>
       </c>
       <c r="N208">
-        <v>2.1</v>
+        <v>1.222</v>
       </c>
       <c r="O208">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="P208">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="Q208">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R208">
         <v>2.05</v>
@@ -18995,34 +18995,34 @@
         <v>1.8</v>
       </c>
       <c r="T208">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U208">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V208">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W208">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X208">
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z208">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA208">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB208">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC208">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19220,10 +19220,10 @@
         <v>45269.5</v>
       </c>
       <c r="F211" t="s">
+        <v>36</v>
+      </c>
+      <c r="G211" t="s">
         <v>35</v>
-      </c>
-      <c r="G211" t="s">
-        <v>36</v>
       </c>
       <c r="H211">
         <v>2</v>
@@ -19309,7 +19309,7 @@
         <v>45269.5</v>
       </c>
       <c r="F212" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G212" t="s">
         <v>40</v>
@@ -19576,7 +19576,7 @@
         <v>45270.375</v>
       </c>
       <c r="F215" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G215" t="s">
         <v>37</v>
@@ -19653,7 +19653,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6844805</v>
+        <v>6845517</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19665,76 +19665,76 @@
         <v>45276.5</v>
       </c>
       <c r="F216" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G216" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J216" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K216">
+        <v>1.25</v>
+      </c>
+      <c r="L216">
+        <v>6</v>
+      </c>
+      <c r="M216">
+        <v>10</v>
+      </c>
+      <c r="N216">
+        <v>1.2</v>
+      </c>
+      <c r="O216">
+        <v>7</v>
+      </c>
+      <c r="P216">
+        <v>12</v>
+      </c>
+      <c r="Q216">
+        <v>-2</v>
+      </c>
+      <c r="R216">
+        <v>1.95</v>
+      </c>
+      <c r="S216">
+        <v>1.9</v>
+      </c>
+      <c r="T216">
         <v>3.5</v>
       </c>
-      <c r="L216">
-        <v>3.25</v>
-      </c>
-      <c r="M216">
-        <v>2.1</v>
-      </c>
-      <c r="N216">
-        <v>3.6</v>
-      </c>
-      <c r="O216">
-        <v>3.4</v>
-      </c>
-      <c r="P216">
-        <v>2.05</v>
-      </c>
-      <c r="Q216">
-        <v>0.5</v>
-      </c>
-      <c r="R216">
-        <v>1.8</v>
-      </c>
-      <c r="S216">
-        <v>2.05</v>
-      </c>
-      <c r="T216">
-        <v>2.25</v>
-      </c>
       <c r="U216">
+        <v>2.025</v>
+      </c>
+      <c r="V216">
         <v>1.825</v>
       </c>
-      <c r="V216">
-        <v>2.025</v>
-      </c>
       <c r="W216">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X216">
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="Z216">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA216">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB216">
         <v>-1</v>
       </c>
       <c r="AC216">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19742,7 +19742,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6845517</v>
+        <v>6844805</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19754,76 +19754,76 @@
         <v>45276.5</v>
       </c>
       <c r="F217" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G217" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I217">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J217" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K217">
-        <v>1.25</v>
+        <v>3.5</v>
       </c>
       <c r="L217">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M217">
-        <v>10</v>
+        <v>2.1</v>
       </c>
       <c r="N217">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="O217">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P217">
-        <v>12</v>
+        <v>2.05</v>
       </c>
       <c r="Q217">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R217">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S217">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T217">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U217">
+        <v>1.825</v>
+      </c>
+      <c r="V217">
         <v>2.025</v>
       </c>
-      <c r="V217">
-        <v>1.825</v>
-      </c>
       <c r="W217">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X217">
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="Z217">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA217">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB217">
         <v>-1</v>
       </c>
       <c r="AC217">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19843,10 +19843,10 @@
         <v>45276.5</v>
       </c>
       <c r="F218" t="s">
+        <v>33</v>
+      </c>
+      <c r="G218" t="s">
         <v>34</v>
-      </c>
-      <c r="G218" t="s">
-        <v>33</v>
       </c>
       <c r="H218">
         <v>0</v>
@@ -19932,7 +19932,7 @@
         <v>45276.5</v>
       </c>
       <c r="F219" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G219" t="s">
         <v>41</v>
@@ -20021,7 +20021,7 @@
         <v>45276.5</v>
       </c>
       <c r="F220" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G220" t="s">
         <v>38</v>
@@ -20113,7 +20113,7 @@
         <v>31</v>
       </c>
       <c r="G221" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H221">
         <v>2</v>
@@ -20291,7 +20291,7 @@
         <v>30</v>
       </c>
       <c r="G223" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H223">
         <v>2</v>
@@ -20377,7 +20377,7 @@
         <v>45283.5</v>
       </c>
       <c r="F224" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G224" t="s">
         <v>32</v>
@@ -20469,7 +20469,7 @@
         <v>37</v>
       </c>
       <c r="G225" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H225">
         <v>2</v>
@@ -20721,7 +20721,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6844800</v>
+        <v>6844798</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20733,76 +20733,76 @@
         <v>45287.69791666666</v>
       </c>
       <c r="F228" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G228" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H228">
         <v>0</v>
       </c>
       <c r="I228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K228">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="L228">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M228">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="N228">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="O228">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P228">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q228">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R228">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S228">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T228">
         <v>2</v>
       </c>
       <c r="U228">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V228">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W228">
         <v>-1</v>
       </c>
       <c r="X228">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y228">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z228">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA228">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
       <c r="AB228">
         <v>-1</v>
       </c>
       <c r="AC228">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20810,7 +20810,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6844798</v>
+        <v>6844800</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20822,76 +20822,76 @@
         <v>45287.69791666666</v>
       </c>
       <c r="F229" t="s">
+        <v>36</v>
+      </c>
+      <c r="G229" t="s">
         <v>34</v>
       </c>
-      <c r="G229" t="s">
-        <v>32</v>
-      </c>
       <c r="H229">
         <v>0</v>
       </c>
       <c r="I229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J229" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K229">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="L229">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M229">
+        <v>2.625</v>
+      </c>
+      <c r="N229">
+        <v>2.875</v>
+      </c>
+      <c r="O229">
+        <v>2.9</v>
+      </c>
+      <c r="P229">
         <v>2.75</v>
       </c>
-      <c r="N229">
-        <v>2.3</v>
-      </c>
-      <c r="O229">
-        <v>3</v>
-      </c>
-      <c r="P229">
-        <v>3.4</v>
-      </c>
       <c r="Q229">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R229">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S229">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T229">
         <v>2</v>
       </c>
       <c r="U229">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V229">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W229">
         <v>-1</v>
       </c>
       <c r="X229">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z229">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA229">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
       <c r="AB229">
         <v>-1</v>
       </c>
       <c r="AC229">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -21092,7 +21092,7 @@
         <v>31</v>
       </c>
       <c r="G232" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H232">
         <v>0</v>
@@ -21181,7 +21181,7 @@
         <v>30</v>
       </c>
       <c r="G233" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H233">
         <v>2</v>
@@ -21267,7 +21267,7 @@
         <v>45290.5</v>
       </c>
       <c r="F234" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G234" t="s">
         <v>41</v>
@@ -21359,7 +21359,7 @@
         <v>38</v>
       </c>
       <c r="G235" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H235">
         <v>3</v>
@@ -21433,7 +21433,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6844807</v>
+        <v>6844808</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21445,73 +21445,73 @@
         <v>45293.5</v>
       </c>
       <c r="F236" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G236" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J236" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K236">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="L236">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="M236">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N236">
-        <v>1.909</v>
+        <v>1.222</v>
       </c>
       <c r="O236">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P236">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Q236">
+        <v>-1.75</v>
+      </c>
+      <c r="R236">
+        <v>1.825</v>
+      </c>
+      <c r="S236">
+        <v>2.025</v>
+      </c>
+      <c r="T236">
+        <v>3</v>
+      </c>
+      <c r="U236">
+        <v>2</v>
+      </c>
+      <c r="V236">
+        <v>1.85</v>
+      </c>
+      <c r="W236">
+        <v>0.222</v>
+      </c>
+      <c r="X236">
+        <v>-1</v>
+      </c>
+      <c r="Y236">
+        <v>-1</v>
+      </c>
+      <c r="Z236">
+        <v>0.4125</v>
+      </c>
+      <c r="AA236">
         <v>-0.5</v>
       </c>
-      <c r="R236">
-        <v>1.975</v>
-      </c>
-      <c r="S236">
-        <v>1.875</v>
-      </c>
-      <c r="T236">
-        <v>2.5</v>
-      </c>
-      <c r="U236">
-        <v>1.975</v>
-      </c>
-      <c r="V236">
-        <v>1.875</v>
-      </c>
-      <c r="W236">
-        <v>-1</v>
-      </c>
-      <c r="X236">
-        <v>2.4</v>
-      </c>
-      <c r="Y236">
-        <v>-1</v>
-      </c>
-      <c r="Z236">
-        <v>-1</v>
-      </c>
-      <c r="AA236">
-        <v>0.875</v>
-      </c>
       <c r="AB236">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC236">
         <v>-1</v>
@@ -21522,7 +21522,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6844842</v>
+        <v>6844807</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21534,73 +21534,73 @@
         <v>45293.5</v>
       </c>
       <c r="F237" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G237" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I237">
         <v>2</v>
       </c>
       <c r="J237" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K237">
+        <v>1.8</v>
+      </c>
+      <c r="L237">
         <v>3.25</v>
       </c>
-      <c r="L237">
-        <v>3.9</v>
-      </c>
       <c r="M237">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N237">
+        <v>1.909</v>
+      </c>
+      <c r="O237">
+        <v>3.4</v>
+      </c>
+      <c r="P237">
         <v>4</v>
       </c>
-      <c r="O237">
-        <v>3.6</v>
-      </c>
-      <c r="P237">
-        <v>1.909</v>
-      </c>
       <c r="Q237">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R237">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S237">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T237">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U237">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V237">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W237">
         <v>-1</v>
       </c>
       <c r="X237">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y237">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z237">
         <v>-1</v>
       </c>
       <c r="AA237">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB237">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC237">
         <v>-1</v>
@@ -21623,7 +21623,7 @@
         <v>45293.5</v>
       </c>
       <c r="F238" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G238" t="s">
         <v>31</v>
@@ -21700,7 +21700,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6844808</v>
+        <v>6844842</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21712,49 +21712,49 @@
         <v>45293.5</v>
       </c>
       <c r="F239" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G239" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H239">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J239" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K239">
-        <v>1.25</v>
+        <v>3.25</v>
       </c>
       <c r="L239">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="M239">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N239">
-        <v>1.222</v>
+        <v>4</v>
       </c>
       <c r="O239">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P239">
-        <v>11</v>
+        <v>1.909</v>
       </c>
       <c r="Q239">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R239">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S239">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T239">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U239">
         <v>2</v>
@@ -21763,19 +21763,19 @@
         <v>1.85</v>
       </c>
       <c r="W239">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z239">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA239">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB239">
         <v>1</v>
@@ -21801,7 +21801,7 @@
         <v>45293.58333333334</v>
       </c>
       <c r="F240" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G240" t="s">
         <v>37</v>
@@ -21967,7 +21967,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>7452337</v>
+        <v>7452605</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21979,70 +21979,70 @@
         <v>45315.69791666666</v>
       </c>
       <c r="F242" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G242" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I242">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J242" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K242">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="L242">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M242">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="N242">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="O242">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="P242">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="Q242">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R242">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S242">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T242">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U242">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V242">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W242">
         <v>-1</v>
       </c>
       <c r="X242">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y242">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z242">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA242">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB242">
         <v>0</v>
@@ -22056,7 +22056,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7452605</v>
+        <v>7452337</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22068,70 +22068,70 @@
         <v>45315.69791666666</v>
       </c>
       <c r="F243" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G243" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H243">
+        <v>0</v>
+      </c>
+      <c r="I243">
+        <v>3</v>
+      </c>
+      <c r="J243" t="s">
+        <v>44</v>
+      </c>
+      <c r="K243">
+        <v>7</v>
+      </c>
+      <c r="L243">
+        <v>4.5</v>
+      </c>
+      <c r="M243">
+        <v>1.444</v>
+      </c>
+      <c r="N243">
+        <v>8</v>
+      </c>
+      <c r="O243">
+        <v>5.25</v>
+      </c>
+      <c r="P243">
+        <v>1.333</v>
+      </c>
+      <c r="Q243">
+        <v>1.5</v>
+      </c>
+      <c r="R243">
+        <v>1.85</v>
+      </c>
+      <c r="S243">
+        <v>2</v>
+      </c>
+      <c r="T243">
+        <v>3</v>
+      </c>
+      <c r="U243">
+        <v>2.025</v>
+      </c>
+      <c r="V243">
+        <v>1.825</v>
+      </c>
+      <c r="W243">
+        <v>-1</v>
+      </c>
+      <c r="X243">
+        <v>-1</v>
+      </c>
+      <c r="Y243">
+        <v>0.333</v>
+      </c>
+      <c r="Z243">
+        <v>-1</v>
+      </c>
+      <c r="AA243">
         <v>1</v>
-      </c>
-      <c r="I243">
-        <v>1</v>
-      </c>
-      <c r="J243" t="s">
-        <v>42</v>
-      </c>
-      <c r="K243">
-        <v>3.75</v>
-      </c>
-      <c r="L243">
-        <v>3.4</v>
-      </c>
-      <c r="M243">
-        <v>2</v>
-      </c>
-      <c r="N243">
-        <v>3.75</v>
-      </c>
-      <c r="O243">
-        <v>3.1</v>
-      </c>
-      <c r="P243">
-        <v>2.15</v>
-      </c>
-      <c r="Q243">
-        <v>0.25</v>
-      </c>
-      <c r="R243">
-        <v>2.025</v>
-      </c>
-      <c r="S243">
-        <v>1.825</v>
-      </c>
-      <c r="T243">
-        <v>2</v>
-      </c>
-      <c r="U243">
-        <v>1.8</v>
-      </c>
-      <c r="V243">
-        <v>2.05</v>
-      </c>
-      <c r="W243">
-        <v>-1</v>
-      </c>
-      <c r="X243">
-        <v>2.1</v>
-      </c>
-      <c r="Y243">
-        <v>-1</v>
-      </c>
-      <c r="Z243">
-        <v>0.5125</v>
-      </c>
-      <c r="AA243">
-        <v>-0.5</v>
       </c>
       <c r="AB243">
         <v>0</v>
@@ -22157,7 +22157,7 @@
         <v>45318.39583333334</v>
       </c>
       <c r="F244" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G244" t="s">
         <v>29</v>
@@ -22234,7 +22234,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6845520</v>
+        <v>6844814</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22246,76 +22246,76 @@
         <v>45318.5</v>
       </c>
       <c r="F245" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G245" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J245" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K245">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L245">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M245">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N245">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="O245">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P245">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q245">
         <v>-0.25</v>
       </c>
       <c r="R245">
-        <v>1.825</v>
+        <v>2.125</v>
       </c>
       <c r="S245">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T245">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U245">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="V245">
+        <v>1.775</v>
+      </c>
+      <c r="W245">
+        <v>-1</v>
+      </c>
+      <c r="X245">
         <v>1.875</v>
       </c>
-      <c r="W245">
-        <v>1.05</v>
-      </c>
-      <c r="X245">
-        <v>-1</v>
-      </c>
       <c r="Y245">
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA245">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB245">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC245">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22323,7 +22323,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6844814</v>
+        <v>6844813</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22335,76 +22335,76 @@
         <v>45318.5</v>
       </c>
       <c r="F246" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G246" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H246">
         <v>1</v>
       </c>
       <c r="I246">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J246" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K246">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="L246">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M246">
+        <v>2.5</v>
+      </c>
+      <c r="N246">
+        <v>2.7</v>
+      </c>
+      <c r="O246">
         <v>3</v>
       </c>
-      <c r="N246">
-        <v>2.55</v>
-      </c>
-      <c r="O246">
-        <v>2.875</v>
-      </c>
       <c r="P246">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q246">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R246">
-        <v>2.125</v>
+        <v>1.875</v>
       </c>
       <c r="S246">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T246">
         <v>2</v>
       </c>
       <c r="U246">
+        <v>1.775</v>
+      </c>
+      <c r="V246">
         <v>2.1</v>
       </c>
-      <c r="V246">
-        <v>1.775</v>
-      </c>
       <c r="W246">
         <v>-1</v>
       </c>
       <c r="X246">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y246">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z246">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA246">
-        <v>0.375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB246">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC246">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22424,7 +22424,7 @@
         <v>45318.5</v>
       </c>
       <c r="F247" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G247" t="s">
         <v>40</v>
@@ -22501,7 +22501,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6844813</v>
+        <v>6845520</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22513,76 +22513,76 @@
         <v>45318.5</v>
       </c>
       <c r="F248" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G248" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I248">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J248" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K248">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L248">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M248">
+        <v>3.25</v>
+      </c>
+      <c r="N248">
+        <v>2.05</v>
+      </c>
+      <c r="O248">
+        <v>3.5</v>
+      </c>
+      <c r="P248">
+        <v>3.5</v>
+      </c>
+      <c r="Q248">
+        <v>-0.25</v>
+      </c>
+      <c r="R248">
+        <v>1.825</v>
+      </c>
+      <c r="S248">
+        <v>2.025</v>
+      </c>
+      <c r="T248">
         <v>2.5</v>
       </c>
-      <c r="N248">
-        <v>2.7</v>
-      </c>
-      <c r="O248">
-        <v>3</v>
-      </c>
-      <c r="P248">
-        <v>2.9</v>
-      </c>
-      <c r="Q248">
-        <v>0</v>
-      </c>
-      <c r="R248">
+      <c r="U248">
+        <v>1.975</v>
+      </c>
+      <c r="V248">
         <v>1.875</v>
       </c>
-      <c r="S248">
-        <v>1.975</v>
-      </c>
-      <c r="T248">
-        <v>2</v>
-      </c>
-      <c r="U248">
-        <v>1.775</v>
-      </c>
-      <c r="V248">
-        <v>2.1</v>
-      </c>
       <c r="W248">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X248">
         <v>-1</v>
       </c>
       <c r="Y248">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z248">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA248">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB248">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC248">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22605,7 +22605,7 @@
         <v>37</v>
       </c>
       <c r="G249" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H249">
         <v>1</v>
@@ -22691,10 +22691,10 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F250" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G250" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H250">
         <v>2</v>
@@ -22857,7 +22857,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6845521</v>
+        <v>6844816</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22866,49 +22866,49 @@
         <v>28</v>
       </c>
       <c r="E252" s="2">
-        <v>45325.39583333334</v>
+        <v>45325.5</v>
       </c>
       <c r="F252" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G252" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="K252">
-        <v>8</v>
+        <v>2.875</v>
       </c>
       <c r="L252">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M252">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="N252">
-        <v>8</v>
+        <v>2.9</v>
       </c>
       <c r="O252">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P252">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="Q252">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R252">
+        <v>1.8</v>
+      </c>
+      <c r="S252">
+        <v>2.05</v>
+      </c>
+      <c r="T252">
+        <v>2.5</v>
+      </c>
+      <c r="U252">
         <v>2.025</v>
       </c>
-      <c r="S252">
+      <c r="V252">
         <v>1.825</v>
-      </c>
-      <c r="T252">
-        <v>3</v>
-      </c>
-      <c r="U252">
-        <v>1.925</v>
-      </c>
-      <c r="V252">
-        <v>1.925</v>
       </c>
       <c r="W252">
         <v>0</v>
@@ -22931,7 +22931,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6844816</v>
+        <v>6844817</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22943,46 +22943,46 @@
         <v>45325.5</v>
       </c>
       <c r="F253" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G253" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K253">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="L253">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M253">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N253">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O253">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P253">
+        <v>4</v>
+      </c>
+      <c r="Q253">
+        <v>-0.5</v>
+      </c>
+      <c r="R253">
+        <v>2.025</v>
+      </c>
+      <c r="S253">
+        <v>1.825</v>
+      </c>
+      <c r="T253">
         <v>2.25</v>
       </c>
-      <c r="Q253">
-        <v>0.25</v>
-      </c>
-      <c r="R253">
+      <c r="U253">
+        <v>1.95</v>
+      </c>
+      <c r="V253">
         <v>1.9</v>
-      </c>
-      <c r="S253">
-        <v>1.95</v>
-      </c>
-      <c r="T253">
-        <v>2.5</v>
-      </c>
-      <c r="U253">
-        <v>1.9</v>
-      </c>
-      <c r="V253">
-        <v>1.95</v>
       </c>
       <c r="W253">
         <v>0</v>
@@ -23005,7 +23005,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6844817</v>
+        <v>6844818</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23017,46 +23017,46 @@
         <v>45325.5</v>
       </c>
       <c r="F254" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G254" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K254">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="L254">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M254">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="N254">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O254">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P254">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="Q254">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R254">
-        <v>2.025</v>
+        <v>2.125</v>
       </c>
       <c r="S254">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T254">
         <v>2.25</v>
       </c>
       <c r="U254">
+        <v>1.975</v>
+      </c>
+      <c r="V254">
         <v>1.875</v>
-      </c>
-      <c r="V254">
-        <v>1.975</v>
       </c>
       <c r="W254">
         <v>0</v>
@@ -23079,7 +23079,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6844818</v>
+        <v>6844819</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23091,46 +23091,46 @@
         <v>45325.5</v>
       </c>
       <c r="F255" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G255" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K255">
+        <v>2.3</v>
+      </c>
+      <c r="L255">
+        <v>3</v>
+      </c>
+      <c r="M255">
         <v>3.4</v>
       </c>
-      <c r="L255">
-        <v>3.25</v>
-      </c>
-      <c r="M255">
-        <v>2.15</v>
-      </c>
       <c r="N255">
+        <v>2.375</v>
+      </c>
+      <c r="O255">
         <v>3.1</v>
       </c>
-      <c r="O255">
-        <v>3.2</v>
-      </c>
       <c r="P255">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="Q255">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R255">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S255">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T255">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U255">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V255">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W255">
         <v>0</v>
@@ -23153,7 +23153,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6844819</v>
+        <v>6844843</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23165,46 +23165,46 @@
         <v>45325.5</v>
       </c>
       <c r="F256" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G256" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K256">
-        <v>2.3</v>
+        <v>1.111</v>
       </c>
       <c r="L256">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M256">
-        <v>3.4</v>
+        <v>19</v>
       </c>
       <c r="N256">
-        <v>2.375</v>
+        <v>1.083</v>
       </c>
       <c r="O256">
-        <v>3.1</v>
+        <v>11</v>
       </c>
       <c r="P256">
-        <v>3.3</v>
+        <v>26</v>
       </c>
       <c r="Q256">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R256">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S256">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T256">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U256">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V256">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W256">
         <v>0</v>
@@ -23219,80 +23219,6 @@
         <v>0</v>
       </c>
       <c r="AA256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:27">
-      <c r="A257" s="1">
-        <v>255</v>
-      </c>
-      <c r="B257">
-        <v>6844843</v>
-      </c>
-      <c r="C257" t="s">
-        <v>28</v>
-      </c>
-      <c r="D257" t="s">
-        <v>28</v>
-      </c>
-      <c r="E257" s="2">
-        <v>45325.5</v>
-      </c>
-      <c r="F257" t="s">
-        <v>29</v>
-      </c>
-      <c r="G257" t="s">
-        <v>34</v>
-      </c>
-      <c r="K257">
-        <v>1.111</v>
-      </c>
-      <c r="L257">
-        <v>9</v>
-      </c>
-      <c r="M257">
-        <v>19</v>
-      </c>
-      <c r="N257">
-        <v>1.083</v>
-      </c>
-      <c r="O257">
-        <v>11</v>
-      </c>
-      <c r="P257">
-        <v>26</v>
-      </c>
-      <c r="Q257">
-        <v>-2.25</v>
-      </c>
-      <c r="R257">
-        <v>1.825</v>
-      </c>
-      <c r="S257">
-        <v>2.025</v>
-      </c>
-      <c r="T257">
-        <v>3.25</v>
-      </c>
-      <c r="U257">
-        <v>2</v>
-      </c>
-      <c r="V257">
-        <v>1.85</v>
-      </c>
-      <c r="W257">
-        <v>0</v>
-      </c>
-      <c r="X257">
-        <v>0</v>
-      </c>
-      <c r="Y257">
-        <v>0</v>
-      </c>
-      <c r="Z257">
-        <v>0</v>
-      </c>
-      <c r="AA257">
         <v>0</v>
       </c>
     </row>

--- a/Scotland Premiership/Scotland Premiership.xlsx
+++ b/Scotland Premiership/Scotland Premiership.xlsx
@@ -109,10 +109,10 @@
     <t>St Johnstone</t>
   </si>
   <si>
-    <t>Livingston</t>
+    <t>Kilmarnock</t>
   </si>
   <si>
-    <t>Kilmarnock</t>
+    <t>Livingston</t>
   </si>
   <si>
     <t>Aberdeen</t>
@@ -785,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5169329</v>
+        <v>5169328</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -800,73 +800,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>42</v>
       </c>
       <c r="K4">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="L4">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M4">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="N4">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="O4">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P4">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q4">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S4">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T4">
         <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V4">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -874,7 +874,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5169328</v>
+        <v>5169329</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -889,73 +889,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>42</v>
       </c>
       <c r="K5">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="L5">
+        <v>3.4</v>
+      </c>
+      <c r="M5">
+        <v>3.2</v>
+      </c>
+      <c r="N5">
+        <v>2.9</v>
+      </c>
+      <c r="O5">
         <v>3.3</v>
       </c>
-      <c r="M5">
-        <v>2.3</v>
-      </c>
-      <c r="N5">
-        <v>2.625</v>
-      </c>
-      <c r="O5">
-        <v>3.25</v>
-      </c>
       <c r="P5">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R5">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S5">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T5">
         <v>2.25</v>
       </c>
       <c r="U5">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V5">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC5">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1245,7 +1245,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1334,7 +1334,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1957,7 +1957,7 @@
         <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2031,7 +2031,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5169639</v>
+        <v>5169334</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2043,13 +2043,13 @@
         <v>44944.69791666666</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2058,43 +2058,43 @@
         <v>44</v>
       </c>
       <c r="K18">
-        <v>2.375</v>
+        <v>1.111</v>
       </c>
       <c r="L18">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="M18">
-        <v>2.9</v>
+        <v>21</v>
       </c>
       <c r="N18">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="O18">
+        <v>9</v>
+      </c>
+      <c r="P18">
+        <v>26</v>
+      </c>
+      <c r="Q18">
+        <v>-2.25</v>
+      </c>
+      <c r="R18">
+        <v>1.85</v>
+      </c>
+      <c r="S18">
+        <v>2</v>
+      </c>
+      <c r="T18">
         <v>3.5</v>
       </c>
-      <c r="P18">
-        <v>3.5</v>
-      </c>
-      <c r="Q18">
-        <v>-0.25</v>
-      </c>
-      <c r="R18">
-        <v>1.8</v>
-      </c>
-      <c r="S18">
-        <v>2.05</v>
-      </c>
-      <c r="T18">
-        <v>2.75</v>
-      </c>
       <c r="U18">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V18">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W18">
-        <v>1.1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2103,13 +2103,13 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA18">
         <v>-1</v>
       </c>
       <c r="AB18">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2120,7 +2120,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5169334</v>
+        <v>5169639</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2132,13 +2132,13 @@
         <v>44944.69791666666</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2147,44 +2147,44 @@
         <v>44</v>
       </c>
       <c r="K19">
-        <v>1.111</v>
+        <v>2.375</v>
       </c>
       <c r="L19">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="M19">
-        <v>21</v>
+        <v>2.9</v>
       </c>
       <c r="N19">
+        <v>2.1</v>
+      </c>
+      <c r="O19">
+        <v>3.5</v>
+      </c>
+      <c r="P19">
+        <v>3.5</v>
+      </c>
+      <c r="Q19">
+        <v>-0.25</v>
+      </c>
+      <c r="R19">
+        <v>1.8</v>
+      </c>
+      <c r="S19">
+        <v>2.05</v>
+      </c>
+      <c r="T19">
+        <v>2.75</v>
+      </c>
+      <c r="U19">
+        <v>1.925</v>
+      </c>
+      <c r="V19">
+        <v>1.925</v>
+      </c>
+      <c r="W19">
         <v>1.1</v>
       </c>
-      <c r="O19">
-        <v>9</v>
-      </c>
-      <c r="P19">
-        <v>26</v>
-      </c>
-      <c r="Q19">
-        <v>-2.25</v>
-      </c>
-      <c r="R19">
-        <v>1.85</v>
-      </c>
-      <c r="S19">
-        <v>2</v>
-      </c>
-      <c r="T19">
-        <v>3.5</v>
-      </c>
-      <c r="U19">
-        <v>2</v>
-      </c>
-      <c r="V19">
-        <v>1.85</v>
-      </c>
-      <c r="W19">
-        <v>0.1000000000000001</v>
-      </c>
       <c r="X19">
         <v>-1</v>
       </c>
@@ -2192,13 +2192,13 @@
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA19">
         <v>-1</v>
       </c>
       <c r="AB19">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2221,7 +2221,7 @@
         <v>44944.70833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
         <v>29</v>
@@ -2313,7 +2313,7 @@
         <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -2666,7 +2666,7 @@
         <v>44955.4375</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
         <v>34</v>
@@ -3010,7 +3010,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5169869</v>
+        <v>5169645</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3022,76 +3022,76 @@
         <v>44958.69791666666</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="L29">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M29">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="N29">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="O29">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P29">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q29">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
+        <v>1.925</v>
+      </c>
+      <c r="S29">
+        <v>1.925</v>
+      </c>
+      <c r="T29">
+        <v>2.25</v>
+      </c>
+      <c r="U29">
         <v>2.05</v>
       </c>
-      <c r="S29">
+      <c r="V29">
         <v>1.8</v>
       </c>
-      <c r="T29">
-        <v>3</v>
-      </c>
-      <c r="U29">
-        <v>1.975</v>
-      </c>
-      <c r="V29">
-        <v>1.875</v>
-      </c>
       <c r="W29">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA29">
+        <v>-1</v>
+      </c>
+      <c r="AB29">
+        <v>-1</v>
+      </c>
+      <c r="AC29">
         <v>0.8</v>
-      </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
-      <c r="AC29">
-        <v>-0</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3099,7 +3099,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5169645</v>
+        <v>5169869</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3111,76 +3111,76 @@
         <v>44958.69791666666</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K30">
+        <v>6</v>
+      </c>
+      <c r="L30">
+        <v>4.333</v>
+      </c>
+      <c r="M30">
+        <v>1.5</v>
+      </c>
+      <c r="N30">
+        <v>6</v>
+      </c>
+      <c r="O30">
+        <v>4.5</v>
+      </c>
+      <c r="P30">
+        <v>1.5</v>
+      </c>
+      <c r="Q30">
         <v>1</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30" t="s">
-        <v>44</v>
-      </c>
-      <c r="K30">
-        <v>2.25</v>
-      </c>
-      <c r="L30">
-        <v>3.2</v>
-      </c>
-      <c r="M30">
-        <v>3.2</v>
-      </c>
-      <c r="N30">
-        <v>2.25</v>
-      </c>
-      <c r="O30">
-        <v>3.2</v>
-      </c>
-      <c r="P30">
-        <v>3.25</v>
-      </c>
-      <c r="Q30">
-        <v>-0.25</v>
-      </c>
       <c r="R30">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S30">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T30">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U30">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V30">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W30">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z30">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC30">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3203,7 +3203,7 @@
         <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H31">
         <v>3</v>
@@ -3378,10 +3378,10 @@
         <v>44961.5</v>
       </c>
       <c r="F33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" t="s">
         <v>31</v>
-      </c>
-      <c r="G33" t="s">
-        <v>32</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -4093,7 +4093,7 @@
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4268,7 +4268,7 @@
         <v>44975.5</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G43" t="s">
         <v>29</v>
@@ -4627,7 +4627,7 @@
         <v>33</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4802,7 +4802,7 @@
         <v>44982.5</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
         <v>38</v>
@@ -4891,7 +4891,7 @@
         <v>44989.5</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
         <v>40</v>
@@ -5072,7 +5072,7 @@
         <v>29</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5603,7 +5603,7 @@
         <v>44993.69791666666</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
         <v>39</v>
@@ -5781,7 +5781,7 @@
         <v>45003.5</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G60" t="s">
         <v>30</v>
@@ -5870,7 +5870,7 @@
         <v>45003.5</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G61" t="s">
         <v>36</v>
@@ -5947,7 +5947,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5169881</v>
+        <v>5169882</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5959,49 +5959,49 @@
         <v>45003.5</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H62">
         <v>3</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
         <v>44</v>
       </c>
       <c r="K62">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="L62">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="M62">
-        <v>2.75</v>
+        <v>15</v>
       </c>
       <c r="N62">
-        <v>2.25</v>
+        <v>1.111</v>
       </c>
       <c r="O62">
-        <v>3.4</v>
+        <v>10</v>
       </c>
       <c r="P62">
-        <v>3.2</v>
+        <v>19</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R62">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S62">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T62">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U62">
         <v>1.85</v>
@@ -6010,7 +6010,7 @@
         <v>2</v>
       </c>
       <c r="W62">
-        <v>1.25</v>
+        <v>0.111</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6019,10 +6019,10 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB62">
         <v>0.8500000000000001</v>
@@ -6036,7 +6036,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5169882</v>
+        <v>5169881</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6048,49 +6048,49 @@
         <v>45003.5</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G63" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H63">
         <v>3</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
         <v>44</v>
       </c>
       <c r="K63">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="L63">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="M63">
-        <v>15</v>
+        <v>2.75</v>
       </c>
       <c r="N63">
-        <v>1.111</v>
+        <v>2.25</v>
       </c>
       <c r="O63">
-        <v>10</v>
+        <v>3.4</v>
       </c>
       <c r="P63">
-        <v>19</v>
+        <v>3.2</v>
       </c>
       <c r="Q63">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R63">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S63">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T63">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U63">
         <v>1.85</v>
@@ -6099,7 +6099,7 @@
         <v>2</v>
       </c>
       <c r="W63">
-        <v>0.111</v>
+        <v>1.25</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6108,10 +6108,10 @@
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA63">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
         <v>0.8500000000000001</v>
@@ -6226,7 +6226,7 @@
         <v>45017.45833333334</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
         <v>34</v>
@@ -6585,7 +6585,7 @@
         <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -6852,7 +6852,7 @@
         <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -6926,7 +6926,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5394839</v>
+        <v>5390404</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6938,10 +6938,10 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -6953,40 +6953,40 @@
         <v>43</v>
       </c>
       <c r="K73">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="L73">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M73">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N73">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="O73">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P73">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q73">
         <v>-0.25</v>
       </c>
       <c r="R73">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S73">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T73">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U73">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V73">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W73">
         <v>-1</v>
@@ -6995,19 +6995,19 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC73">
-        <v>0.8</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7015,7 +7015,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5390404</v>
+        <v>5394839</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7027,10 +7027,10 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -7042,41 +7042,41 @@
         <v>43</v>
       </c>
       <c r="K74">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="L74">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M74">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N74">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="O74">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P74">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q74">
         <v>-0.25</v>
       </c>
       <c r="R74">
+        <v>1.9</v>
+      </c>
+      <c r="S74">
+        <v>1.95</v>
+      </c>
+      <c r="T74">
+        <v>2.5</v>
+      </c>
+      <c r="U74">
         <v>2.05</v>
       </c>
-      <c r="S74">
+      <c r="V74">
         <v>1.8</v>
       </c>
-      <c r="T74">
-        <v>2.25</v>
-      </c>
-      <c r="U74">
-        <v>2.1</v>
-      </c>
-      <c r="V74">
-        <v>1.775</v>
-      </c>
       <c r="W74">
         <v>-1</v>
       </c>
@@ -7084,19 +7084,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
+        <v>0.95</v>
+      </c>
+      <c r="AB74">
+        <v>-1</v>
+      </c>
+      <c r="AC74">
         <v>0.8</v>
-      </c>
-      <c r="AB74">
-        <v>-0.5</v>
-      </c>
-      <c r="AC74">
-        <v>0.3875</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7119,7 +7119,7 @@
         <v>38</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H75">
         <v>3</v>
@@ -7460,7 +7460,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5423472</v>
+        <v>5423471</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7472,49 +7472,49 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H79">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
         <v>44</v>
       </c>
       <c r="K79">
-        <v>1.2</v>
+        <v>2.15</v>
       </c>
       <c r="L79">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="M79">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="N79">
-        <v>1.222</v>
+        <v>2.1</v>
       </c>
       <c r="O79">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="P79">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="Q79">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S79">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T79">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U79">
         <v>1.85</v>
@@ -7523,7 +7523,7 @@
         <v>2</v>
       </c>
       <c r="W79">
-        <v>0.222</v>
+        <v>1.1</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7532,16 +7532,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7549,7 +7549,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5465925</v>
+        <v>5423472</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7561,73 +7561,73 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G80" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I80">
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K80">
-        <v>1.727</v>
+        <v>1.2</v>
       </c>
       <c r="L80">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="M80">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="N80">
-        <v>1.95</v>
+        <v>1.222</v>
       </c>
       <c r="O80">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="P80">
-        <v>3.9</v>
+        <v>11</v>
       </c>
       <c r="Q80">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R80">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S80">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T80">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U80">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V80">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W80">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>2.9</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA80">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC80">
         <v>-1</v>
@@ -7638,7 +7638,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5423471</v>
+        <v>5465925</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7650,76 +7650,76 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G81" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K81">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="L81">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M81">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N81">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O81">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P81">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="Q81">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R81">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S81">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T81">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U81">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V81">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W81">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>2.9</v>
       </c>
       <c r="Z81">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB81">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC81">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7739,7 +7739,7 @@
         <v>45032.33333333334</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
         <v>37</v>
@@ -8009,7 +8009,7 @@
         <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8187,7 +8187,7 @@
         <v>39</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8350,7 +8350,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6575424</v>
+        <v>6575426</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8362,13 +8362,13 @@
         <v>45052.45833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -8377,19 +8377,19 @@
         <v>44</v>
       </c>
       <c r="K89">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="L89">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M89">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N89">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O89">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P89">
         <v>3.1</v>
@@ -8398,22 +8398,22 @@
         <v>-0.25</v>
       </c>
       <c r="R89">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S89">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U89">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V89">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W89">
-        <v>1.25</v>
+        <v>1.375</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8422,7 +8422,7 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA89">
         <v>-1</v>
@@ -8431,7 +8431,7 @@
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8454,7 +8454,7 @@
         <v>36</v>
       </c>
       <c r="G90" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -8528,7 +8528,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6575426</v>
+        <v>6575424</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8540,13 +8540,13 @@
         <v>45052.45833333334</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G91" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -8555,19 +8555,19 @@
         <v>44</v>
       </c>
       <c r="K91">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="L91">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M91">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N91">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O91">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P91">
         <v>3.1</v>
@@ -8576,22 +8576,22 @@
         <v>-0.25</v>
       </c>
       <c r="R91">
+        <v>1.975</v>
+      </c>
+      <c r="S91">
+        <v>1.875</v>
+      </c>
+      <c r="T91">
+        <v>2.5</v>
+      </c>
+      <c r="U91">
         <v>2.025</v>
       </c>
-      <c r="S91">
+      <c r="V91">
         <v>1.825</v>
       </c>
-      <c r="T91">
-        <v>2.25</v>
-      </c>
-      <c r="U91">
-        <v>2.05</v>
-      </c>
-      <c r="V91">
-        <v>1.75</v>
-      </c>
       <c r="W91">
-        <v>1.375</v>
+        <v>1.25</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8600,7 +8600,7 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA91">
         <v>-1</v>
@@ -8609,7 +8609,7 @@
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -9252,10 +9252,10 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F99" t="s">
+        <v>31</v>
+      </c>
+      <c r="G99" t="s">
         <v>32</v>
-      </c>
-      <c r="G99" t="s">
-        <v>31</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9608,7 +9608,7 @@
         <v>45066.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
         <v>30</v>
@@ -9786,7 +9786,7 @@
         <v>45066.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G105" t="s">
         <v>39</v>
@@ -9952,7 +9952,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6576077</v>
+        <v>6576075</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9964,73 +9964,73 @@
         <v>45070.65625</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K107">
-        <v>1.363</v>
+        <v>1.833</v>
       </c>
       <c r="L107">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="M107">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="N107">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="O107">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P107">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q107">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R107">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S107">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T107">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U107">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V107">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X107">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA107">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AC107">
         <v>-1</v>
@@ -10041,7 +10041,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6576087</v>
+        <v>6576077</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10053,73 +10053,73 @@
         <v>45070.65625</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G108" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K108">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="L108">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="M108">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N108">
-        <v>2.45</v>
+        <v>1.4</v>
       </c>
       <c r="O108">
+        <v>5</v>
+      </c>
+      <c r="P108">
+        <v>7.5</v>
+      </c>
+      <c r="Q108">
+        <v>-1.5</v>
+      </c>
+      <c r="R108">
+        <v>2.025</v>
+      </c>
+      <c r="S108">
+        <v>1.825</v>
+      </c>
+      <c r="T108">
         <v>3.25</v>
       </c>
-      <c r="P108">
-        <v>3</v>
-      </c>
-      <c r="Q108">
-        <v>0</v>
-      </c>
-      <c r="R108">
-        <v>1.775</v>
-      </c>
-      <c r="S108">
-        <v>2.1</v>
-      </c>
-      <c r="T108">
-        <v>2.25</v>
-      </c>
       <c r="U108">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V108">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y108">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>1.1</v>
+        <v>0.825</v>
       </c>
       <c r="AB108">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC108">
         <v>-1</v>
@@ -10130,7 +10130,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6576075</v>
+        <v>6576076</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10142,58 +10142,58 @@
         <v>45070.65625</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H109">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J109" t="s">
         <v>44</v>
       </c>
       <c r="K109">
-        <v>1.833</v>
+        <v>6.5</v>
       </c>
       <c r="L109">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M109">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="N109">
+        <v>5</v>
+      </c>
+      <c r="O109">
+        <v>4.2</v>
+      </c>
+      <c r="P109">
+        <v>1.666</v>
+      </c>
+      <c r="Q109">
+        <v>0.75</v>
+      </c>
+      <c r="R109">
+        <v>2.05</v>
+      </c>
+      <c r="S109">
         <v>1.8</v>
       </c>
-      <c r="O109">
-        <v>3.6</v>
-      </c>
-      <c r="P109">
-        <v>4.5</v>
-      </c>
-      <c r="Q109">
-        <v>-0.5</v>
-      </c>
-      <c r="R109">
-        <v>1.85</v>
-      </c>
-      <c r="S109">
-        <v>2</v>
-      </c>
       <c r="T109">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U109">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V109">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W109">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="X109">
         <v>-1</v>
@@ -10202,13 +10202,13 @@
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA109">
         <v>-1</v>
       </c>
       <c r="AB109">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC109">
         <v>-1</v>
@@ -10320,7 +10320,7 @@
         <v>45070.65625</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G111" t="s">
         <v>38</v>
@@ -10397,7 +10397,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6576076</v>
+        <v>6576087</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10409,73 +10409,73 @@
         <v>45070.65625</v>
       </c>
       <c r="F112" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G112" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H112">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J112" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K112">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="L112">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M112">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="N112">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="O112">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P112">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="Q112">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R112">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S112">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T112">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U112">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V112">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W112">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z112">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB112">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10768,7 +10768,7 @@
         <v>30</v>
       </c>
       <c r="G116" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -10943,7 +10943,7 @@
         <v>45074.45833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G118" t="s">
         <v>36</v>
@@ -11210,7 +11210,7 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G121" t="s">
         <v>33</v>
@@ -11388,7 +11388,7 @@
         <v>45143.55208333334</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G123" t="s">
         <v>29</v>
@@ -11658,7 +11658,7 @@
         <v>29</v>
       </c>
       <c r="G126" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H126">
         <v>4</v>
@@ -12014,7 +12014,7 @@
         <v>34</v>
       </c>
       <c r="G130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12281,7 +12281,7 @@
         <v>40</v>
       </c>
       <c r="G133" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H133">
         <v>2</v>
@@ -12370,7 +12370,7 @@
         <v>38</v>
       </c>
       <c r="G134" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -12444,7 +12444,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7075288</v>
+        <v>6844717</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12456,40 +12456,40 @@
         <v>45165.45833333334</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G135" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K135">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="L135">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M135">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N135">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="O135">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P135">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q135">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R135">
         <v>2.1</v>
@@ -12498,34 +12498,34 @@
         <v>1.775</v>
       </c>
       <c r="T135">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U135">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V135">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X135">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AA135">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12533,7 +12533,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6844717</v>
+        <v>7075288</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12545,40 +12545,40 @@
         <v>45165.45833333334</v>
       </c>
       <c r="F136" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K136">
+        <v>2.55</v>
+      </c>
+      <c r="L136">
         <v>3.2</v>
       </c>
-      <c r="L136">
-        <v>3.4</v>
-      </c>
       <c r="M136">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N136">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="O136">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P136">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q136">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R136">
         <v>2.1</v>
@@ -12587,34 +12587,34 @@
         <v>1.775</v>
       </c>
       <c r="T136">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U136">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V136">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W136">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC136">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12634,7 +12634,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G137" t="s">
         <v>36</v>
@@ -12723,7 +12723,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F138" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G138" t="s">
         <v>35</v>
@@ -13260,7 +13260,7 @@
         <v>36</v>
       </c>
       <c r="G144" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -13435,7 +13435,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F146" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G146" t="s">
         <v>40</v>
@@ -13702,7 +13702,7 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G149" t="s">
         <v>37</v>
@@ -13883,7 +13883,7 @@
         <v>41</v>
       </c>
       <c r="G151" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H151">
         <v>2</v>
@@ -14313,7 +14313,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6845506</v>
+        <v>6844740</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14325,76 +14325,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G156" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H156">
         <v>1</v>
       </c>
       <c r="I156">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K156">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="L156">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M156">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="N156">
-        <v>1.363</v>
+        <v>2.4</v>
       </c>
       <c r="O156">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P156">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="Q156">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R156">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S156">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T156">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U156">
+        <v>1.875</v>
+      </c>
+      <c r="V156">
         <v>1.975</v>
       </c>
-      <c r="V156">
-        <v>1.875</v>
-      </c>
       <c r="W156">
         <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y156">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA156">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB156">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC156">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14402,7 +14402,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6844740</v>
+        <v>6844739</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14414,76 +14414,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G157" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157">
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K157">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="L157">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M157">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="N157">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="O157">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P157">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q157">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R157">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S157">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T157">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U157">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V157">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W157">
         <v>-1</v>
       </c>
       <c r="X157">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z157">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AB157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14491,7 +14491,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6844739</v>
+        <v>6844737</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14503,76 +14503,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F158" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G158" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158">
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K158">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="L158">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M158">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="N158">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="O158">
+        <v>3.3</v>
+      </c>
+      <c r="P158">
         <v>3.25</v>
       </c>
-      <c r="P158">
-        <v>2.3</v>
-      </c>
       <c r="Q158">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R158">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S158">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T158">
         <v>2.25</v>
       </c>
       <c r="U158">
+        <v>2.025</v>
+      </c>
+      <c r="V158">
         <v>1.825</v>
       </c>
-      <c r="V158">
-        <v>2.025</v>
-      </c>
       <c r="W158">
         <v>-1</v>
       </c>
       <c r="X158">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y158">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA158">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC158">
-        <v>1.025</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14580,7 +14580,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6844737</v>
+        <v>6844736</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14592,76 +14592,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F159" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G159" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="s">
         <v>42</v>
       </c>
       <c r="K159">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L159">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M159">
+        <v>5</v>
+      </c>
+      <c r="N159">
+        <v>1.615</v>
+      </c>
+      <c r="O159">
+        <v>4</v>
+      </c>
+      <c r="P159">
+        <v>5.25</v>
+      </c>
+      <c r="Q159">
+        <v>-0.75</v>
+      </c>
+      <c r="R159">
+        <v>1.8</v>
+      </c>
+      <c r="S159">
+        <v>2.05</v>
+      </c>
+      <c r="T159">
+        <v>2.75</v>
+      </c>
+      <c r="U159">
+        <v>1.95</v>
+      </c>
+      <c r="V159">
+        <v>1.9</v>
+      </c>
+      <c r="W159">
+        <v>-1</v>
+      </c>
+      <c r="X159">
         <v>3</v>
       </c>
-      <c r="N159">
-        <v>2.2</v>
-      </c>
-      <c r="O159">
-        <v>3.3</v>
-      </c>
-      <c r="P159">
-        <v>3.25</v>
-      </c>
-      <c r="Q159">
-        <v>-0.25</v>
-      </c>
-      <c r="R159">
-        <v>1.875</v>
-      </c>
-      <c r="S159">
-        <v>1.975</v>
-      </c>
-      <c r="T159">
-        <v>2.25</v>
-      </c>
-      <c r="U159">
-        <v>2.025</v>
-      </c>
-      <c r="V159">
-        <v>1.825</v>
-      </c>
-      <c r="W159">
-        <v>-1</v>
-      </c>
-      <c r="X159">
-        <v>2.3</v>
-      </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
-        <v>0.4875</v>
+        <v>1.05</v>
       </c>
       <c r="AB159">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14669,7 +14669,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6844736</v>
+        <v>6845506</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14681,76 +14681,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F160" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G160" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J160" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K160">
-        <v>1.666</v>
+        <v>1.333</v>
       </c>
       <c r="L160">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M160">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N160">
-        <v>1.615</v>
+        <v>1.363</v>
       </c>
       <c r="O160">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P160">
-        <v>5.25</v>
+        <v>8</v>
       </c>
       <c r="Q160">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R160">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S160">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T160">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U160">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V160">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W160">
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z160">
         <v>-1</v>
       </c>
       <c r="AA160">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC160">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14773,7 +14773,7 @@
         <v>37</v>
       </c>
       <c r="G161" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H161">
         <v>3</v>
@@ -14859,7 +14859,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F162" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G162" t="s">
         <v>38</v>
@@ -15304,10 +15304,10 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F167" t="s">
+        <v>31</v>
+      </c>
+      <c r="G167" t="s">
         <v>32</v>
-      </c>
-      <c r="G167" t="s">
-        <v>31</v>
       </c>
       <c r="H167">
         <v>3</v>
@@ -15749,7 +15749,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F172" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G172" t="s">
         <v>41</v>
@@ -15927,7 +15927,7 @@
         <v>45228.375</v>
       </c>
       <c r="F174" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G174" t="s">
         <v>33</v>
@@ -16286,7 +16286,7 @@
         <v>30</v>
       </c>
       <c r="G178" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16464,7 +16464,7 @@
         <v>34</v>
       </c>
       <c r="G180" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H180">
         <v>1</v>
@@ -16728,7 +16728,7 @@
         <v>45234.5</v>
       </c>
       <c r="F183" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G183" t="s">
         <v>38</v>
@@ -16820,7 +16820,7 @@
         <v>41</v>
       </c>
       <c r="G184" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H184">
         <v>1</v>
@@ -17176,7 +17176,7 @@
         <v>40</v>
       </c>
       <c r="G188" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -17440,7 +17440,7 @@
         <v>45242.375</v>
       </c>
       <c r="F191" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G191" t="s">
         <v>29</v>
@@ -17621,7 +17621,7 @@
         <v>36</v>
       </c>
       <c r="G193" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H193">
         <v>0</v>
@@ -17710,7 +17710,7 @@
         <v>35</v>
       </c>
       <c r="G194" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H194">
         <v>1</v>
@@ -18229,7 +18229,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6844775</v>
+        <v>6844773</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18241,76 +18241,76 @@
         <v>45262.5</v>
       </c>
       <c r="F200" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G200" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H200">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K200">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="L200">
         <v>3.25</v>
       </c>
       <c r="M200">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="N200">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="O200">
         <v>3.3</v>
       </c>
       <c r="P200">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q200">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R200">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S200">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T200">
         <v>2.25</v>
       </c>
       <c r="U200">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V200">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W200">
         <v>-1</v>
       </c>
       <c r="X200">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y200">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z200">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA200">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AB200">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC200">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18318,7 +18318,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6844773</v>
+        <v>6844775</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18330,76 +18330,76 @@
         <v>45262.5</v>
       </c>
       <c r="F201" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G201" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I201">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J201" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K201">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="L201">
         <v>3.25</v>
       </c>
       <c r="M201">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="N201">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="O201">
         <v>3.3</v>
       </c>
       <c r="P201">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q201">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R201">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S201">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T201">
         <v>2.25</v>
       </c>
       <c r="U201">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V201">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W201">
         <v>-1</v>
       </c>
       <c r="X201">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y201">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z201">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA201">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AB201">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC201">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18763,7 +18763,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6844781</v>
+        <v>6845514</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18775,58 +18775,58 @@
         <v>45266.69791666666</v>
       </c>
       <c r="F206" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G206" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H206">
+        <v>4</v>
+      </c>
+      <c r="I206">
         <v>1</v>
-      </c>
-      <c r="I206">
-        <v>0</v>
       </c>
       <c r="J206" t="s">
         <v>44</v>
       </c>
       <c r="K206">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="L206">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="M206">
-        <v>2.6</v>
+        <v>11</v>
       </c>
       <c r="N206">
-        <v>3</v>
+        <v>1.222</v>
       </c>
       <c r="O206">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="P206">
-        <v>2.625</v>
+        <v>12</v>
       </c>
       <c r="Q206">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R206">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S206">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T206">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U206">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V206">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W206">
-        <v>2</v>
+        <v>0.222</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18835,16 +18835,16 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA206">
         <v>-1</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC206">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18852,7 +18852,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6845514</v>
+        <v>6844781</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18864,58 +18864,58 @@
         <v>45266.69791666666</v>
       </c>
       <c r="F207" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G207" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H207">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207" t="s">
         <v>44</v>
       </c>
       <c r="K207">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="L207">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="M207">
-        <v>11</v>
+        <v>2.6</v>
       </c>
       <c r="N207">
-        <v>1.222</v>
+        <v>3</v>
       </c>
       <c r="O207">
-        <v>6.5</v>
+        <v>2.9</v>
       </c>
       <c r="P207">
-        <v>12</v>
+        <v>2.625</v>
       </c>
       <c r="Q207">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R207">
+        <v>1.925</v>
+      </c>
+      <c r="S207">
+        <v>1.925</v>
+      </c>
+      <c r="T207">
+        <v>2</v>
+      </c>
+      <c r="U207">
         <v>2.05</v>
       </c>
-      <c r="S207">
+      <c r="V207">
         <v>1.8</v>
       </c>
-      <c r="T207">
-        <v>3.25</v>
-      </c>
-      <c r="U207">
-        <v>1.875</v>
-      </c>
-      <c r="V207">
-        <v>1.975</v>
-      </c>
       <c r="W207">
-        <v>0.222</v>
+        <v>2</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -18924,16 +18924,16 @@
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA207">
         <v>-1</v>
       </c>
       <c r="AB207">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC207">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18956,7 +18956,7 @@
         <v>33</v>
       </c>
       <c r="G208" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -19487,7 +19487,7 @@
         <v>45269.5</v>
       </c>
       <c r="F214" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G214" t="s">
         <v>40</v>
@@ -19576,7 +19576,7 @@
         <v>45270.375</v>
       </c>
       <c r="F215" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G215" t="s">
         <v>37</v>
@@ -19653,7 +19653,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6844788</v>
+        <v>6844787</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19665,76 +19665,76 @@
         <v>45276.5</v>
       </c>
       <c r="F216" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G216" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H216">
         <v>0</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K216">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="L216">
         <v>3.25</v>
       </c>
       <c r="M216">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="N216">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="O216">
         <v>3.3</v>
       </c>
       <c r="P216">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q216">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R216">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S216">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T216">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U216">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V216">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W216">
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y216">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA216">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB216">
         <v>-1</v>
       </c>
       <c r="AC216">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19742,7 +19742,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6844787</v>
+        <v>6844788</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19754,76 +19754,76 @@
         <v>45276.5</v>
       </c>
       <c r="F217" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G217" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H217">
         <v>0</v>
       </c>
       <c r="I217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K217">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="L217">
         <v>3.25</v>
       </c>
       <c r="M217">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="N217">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="O217">
         <v>3.3</v>
       </c>
       <c r="P217">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q217">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R217">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S217">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T217">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U217">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V217">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W217">
         <v>-1</v>
       </c>
       <c r="X217">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y217">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z217">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB217">
         <v>-1</v>
       </c>
       <c r="AC217">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -20113,7 +20113,7 @@
         <v>33</v>
       </c>
       <c r="G221" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H221">
         <v>2</v>
@@ -20377,7 +20377,7 @@
         <v>45283.5</v>
       </c>
       <c r="F224" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G224" t="s">
         <v>30</v>
@@ -20469,7 +20469,7 @@
         <v>37</v>
       </c>
       <c r="G225" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H225">
         <v>2</v>
@@ -20721,7 +20721,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6844798</v>
+        <v>6844800</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20733,76 +20733,76 @@
         <v>45287.69791666666</v>
       </c>
       <c r="F228" t="s">
+        <v>35</v>
+      </c>
+      <c r="G228" t="s">
         <v>31</v>
       </c>
-      <c r="G228" t="s">
-        <v>30</v>
-      </c>
       <c r="H228">
         <v>0</v>
       </c>
       <c r="I228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K228">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="L228">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M228">
+        <v>2.625</v>
+      </c>
+      <c r="N228">
+        <v>2.875</v>
+      </c>
+      <c r="O228">
+        <v>2.9</v>
+      </c>
+      <c r="P228">
         <v>2.75</v>
       </c>
-      <c r="N228">
-        <v>2.3</v>
-      </c>
-      <c r="O228">
-        <v>3</v>
-      </c>
-      <c r="P228">
-        <v>3.4</v>
-      </c>
       <c r="Q228">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R228">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S228">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T228">
         <v>2</v>
       </c>
       <c r="U228">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V228">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W228">
         <v>-1</v>
       </c>
       <c r="X228">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y228">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z228">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA228">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
       <c r="AB228">
         <v>-1</v>
       </c>
       <c r="AC228">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20810,7 +20810,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6844800</v>
+        <v>6844798</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20822,76 +20822,76 @@
         <v>45287.69791666666</v>
       </c>
       <c r="F229" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G229" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H229">
         <v>0</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K229">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="L229">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M229">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="N229">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="O229">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P229">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q229">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R229">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S229">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T229">
         <v>2</v>
       </c>
       <c r="U229">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V229">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W229">
         <v>-1</v>
       </c>
       <c r="X229">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y229">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA229">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
       <c r="AB229">
         <v>-1</v>
       </c>
       <c r="AC229">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -21092,7 +21092,7 @@
         <v>38</v>
       </c>
       <c r="G232" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H232">
         <v>3</v>
@@ -21166,7 +21166,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6844803</v>
+        <v>6844801</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21178,73 +21178,73 @@
         <v>45290.5</v>
       </c>
       <c r="F233" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G233" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J233" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K233">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L233">
+        <v>3.4</v>
+      </c>
+      <c r="M233">
         <v>3.5</v>
       </c>
-      <c r="M233">
-        <v>3.9</v>
-      </c>
       <c r="N233">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="O233">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P233">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q233">
         <v>-0.75</v>
       </c>
       <c r="R233">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S233">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T233">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U233">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V233">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W233">
         <v>-1</v>
       </c>
       <c r="X233">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y233">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z233">
         <v>-1</v>
       </c>
       <c r="AA233">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB233">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC233">
         <v>-1</v>
@@ -21255,7 +21255,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6844801</v>
+        <v>6844803</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21267,73 +21267,73 @@
         <v>45290.5</v>
       </c>
       <c r="F234" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G234" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J234" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K234">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L234">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M234">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="N234">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O234">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P234">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q234">
         <v>-0.75</v>
       </c>
       <c r="R234">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S234">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T234">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U234">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V234">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W234">
         <v>-1</v>
       </c>
       <c r="X234">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y234">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z234">
         <v>-1</v>
       </c>
       <c r="AA234">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB234">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC234">
         <v>-1</v>
@@ -21537,7 +21537,7 @@
         <v>29</v>
       </c>
       <c r="G237" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H237">
         <v>3</v>
@@ -21712,7 +21712,7 @@
         <v>45293.5</v>
       </c>
       <c r="F239" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G239" t="s">
         <v>34</v>
@@ -22335,7 +22335,7 @@
         <v>45318.5</v>
       </c>
       <c r="F246" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G246" t="s">
         <v>41</v>
@@ -22602,7 +22602,7 @@
         <v>45318.5</v>
       </c>
       <c r="F249" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G249" t="s">
         <v>40</v>
@@ -22780,7 +22780,7 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F251" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G251" t="s">
         <v>36</v>
@@ -22961,7 +22961,7 @@
         <v>29</v>
       </c>
       <c r="G253" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H253">
         <v>3</v>
@@ -23139,7 +23139,7 @@
         <v>38</v>
       </c>
       <c r="G255" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H255">
         <v>1</v>
@@ -23569,7 +23569,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6844822</v>
+        <v>6844821</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23581,76 +23581,76 @@
         <v>45329.69791666666</v>
       </c>
       <c r="F260" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G260" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J260" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K260">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="L260">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M260">
-        <v>3.1</v>
+        <v>1.952</v>
       </c>
       <c r="N260">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="O260">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P260">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q260">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R260">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S260">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T260">
         <v>2.25</v>
       </c>
       <c r="U260">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V260">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W260">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X260">
         <v>-1</v>
       </c>
       <c r="Y260">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z260">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA260">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB260">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC260">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="261" spans="1:29">
@@ -23670,10 +23670,10 @@
         <v>45329.69791666666</v>
       </c>
       <c r="F261" t="s">
+        <v>31</v>
+      </c>
+      <c r="G261" t="s">
         <v>32</v>
-      </c>
-      <c r="G261" t="s">
-        <v>31</v>
       </c>
       <c r="H261">
         <v>1</v>
@@ -23747,7 +23747,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6844821</v>
+        <v>6844822</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23759,76 +23759,76 @@
         <v>45329.69791666666</v>
       </c>
       <c r="F262" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G262" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J262" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K262">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="L262">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M262">
-        <v>1.952</v>
+        <v>3.1</v>
       </c>
       <c r="N262">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="O262">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P262">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="Q262">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R262">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S262">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T262">
         <v>2.25</v>
       </c>
       <c r="U262">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V262">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W262">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X262">
         <v>-1</v>
       </c>
       <c r="Y262">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z262">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA262">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB262">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC262">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -24014,7 +24014,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7667636</v>
+        <v>7667637</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24026,40 +24026,40 @@
         <v>45336.69791666666</v>
       </c>
       <c r="F265" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G265" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H265">
         <v>3</v>
       </c>
       <c r="I265">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J265" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K265">
-        <v>1.1</v>
+        <v>1.85</v>
       </c>
       <c r="L265">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="M265">
-        <v>23</v>
+        <v>4.2</v>
       </c>
       <c r="N265">
-        <v>1.09</v>
+        <v>1.95</v>
       </c>
       <c r="O265">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="P265">
-        <v>19</v>
+        <v>3.8</v>
       </c>
       <c r="Q265">
-        <v>-2.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R265">
         <v>2</v>
@@ -24068,19 +24068,19 @@
         <v>1.85</v>
       </c>
       <c r="T265">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U265">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V265">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W265">
-        <v>0.09000000000000008</v>
+        <v>-1</v>
       </c>
       <c r="X265">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y265">
         <v>-1</v>
@@ -24092,10 +24092,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB265">
-        <v>0.475</v>
+        <v>1.05</v>
       </c>
       <c r="AC265">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24103,7 +24103,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>7667637</v>
+        <v>7667636</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24115,40 +24115,40 @@
         <v>45336.69791666666</v>
       </c>
       <c r="F266" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G266" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H266">
         <v>3</v>
       </c>
       <c r="I266">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J266" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K266">
-        <v>1.85</v>
+        <v>1.1</v>
       </c>
       <c r="L266">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="M266">
-        <v>4.2</v>
+        <v>23</v>
       </c>
       <c r="N266">
-        <v>1.95</v>
+        <v>1.09</v>
       </c>
       <c r="O266">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="P266">
-        <v>3.8</v>
+        <v>19</v>
       </c>
       <c r="Q266">
-        <v>-0.5</v>
+        <v>-2.75</v>
       </c>
       <c r="R266">
         <v>2</v>
@@ -24157,19 +24157,19 @@
         <v>1.85</v>
       </c>
       <c r="T266">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U266">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V266">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W266">
-        <v>-1</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="X266">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y266">
         <v>-1</v>
@@ -24181,10 +24181,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB266">
-        <v>1.05</v>
+        <v>0.475</v>
       </c>
       <c r="AC266">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -24192,7 +24192,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6852273</v>
+        <v>6844824</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24204,46 +24204,46 @@
         <v>45339.5</v>
       </c>
       <c r="F267" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G267" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K267">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="L267">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M267">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="N267">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="O267">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P267">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q267">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R267">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S267">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="T267">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U267">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V267">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W267">
         <v>0</v>
@@ -24266,7 +24266,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6844823</v>
+        <v>6845524</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24278,31 +24278,31 @@
         <v>45339.5</v>
       </c>
       <c r="F268" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G268" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K268">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="L268">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M268">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N268">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="O268">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P268">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="Q268">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R268">
         <v>2.025</v>
@@ -24314,10 +24314,10 @@
         <v>2.5</v>
       </c>
       <c r="U268">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V268">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W268">
         <v>0</v>
@@ -24340,7 +24340,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6844824</v>
+        <v>6845525</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24352,46 +24352,46 @@
         <v>45339.5</v>
       </c>
       <c r="F269" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G269" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K269">
-        <v>1.8</v>
+        <v>1.222</v>
       </c>
       <c r="L269">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M269">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="N269">
-        <v>1.727</v>
+        <v>1.2</v>
       </c>
       <c r="O269">
-        <v>3.7</v>
+        <v>7</v>
       </c>
       <c r="P269">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="Q269">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R269">
+        <v>1.825</v>
+      </c>
+      <c r="S269">
+        <v>2.025</v>
+      </c>
+      <c r="T269">
+        <v>3.25</v>
+      </c>
+      <c r="U269">
+        <v>1.95</v>
+      </c>
+      <c r="V269">
         <v>1.9</v>
-      </c>
-      <c r="S269">
-        <v>1.95</v>
-      </c>
-      <c r="T269">
-        <v>2.5</v>
-      </c>
-      <c r="U269">
-        <v>2.025</v>
-      </c>
-      <c r="V269">
-        <v>1.825</v>
       </c>
       <c r="W269">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>6845524</v>
+        <v>6844823</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24426,46 +24426,46 @@
         <v>45339.5</v>
       </c>
       <c r="F270" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G270" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K270">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="L270">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M270">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N270">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O270">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P270">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q270">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R270">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S270">
+        <v>1.825</v>
+      </c>
+      <c r="T270">
+        <v>2.75</v>
+      </c>
+      <c r="U270">
+        <v>2</v>
+      </c>
+      <c r="V270">
         <v>1.85</v>
-      </c>
-      <c r="T270">
-        <v>2.5</v>
-      </c>
-      <c r="U270">
-        <v>1.9</v>
-      </c>
-      <c r="V270">
-        <v>1.95</v>
       </c>
       <c r="W270">
         <v>0</v>
@@ -24488,7 +24488,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6845525</v>
+        <v>6852273</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24500,40 +24500,40 @@
         <v>45339.5</v>
       </c>
       <c r="F271" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G271" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K271">
-        <v>1.222</v>
+        <v>2.875</v>
       </c>
       <c r="L271">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="M271">
-        <v>11</v>
+        <v>2.3</v>
       </c>
       <c r="N271">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="O271">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="P271">
-        <v>12</v>
+        <v>2.375</v>
       </c>
       <c r="Q271">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R271">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S271">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T271">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="U271">
         <v>2.025</v>
@@ -24589,22 +24589,22 @@
         <v>1.2</v>
       </c>
       <c r="N272">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O272">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="P272">
-        <v>1.25</v>
+        <v>1.285</v>
       </c>
       <c r="Q272">
         <v>1.75</v>
       </c>
       <c r="R272">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S272">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T272">
         <v>3</v>

--- a/Scotland Premiership/Scotland Premiership.xlsx
+++ b/Scotland Premiership/Scotland Premiership.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>St Johnstone</t>
   </si>
   <si>
-    <t>Kilmarnock</t>
+    <t>Livingston</t>
   </si>
   <si>
-    <t>Livingston</t>
+    <t>Kilmarnock</t>
   </si>
   <si>
     <t>Aberdeen</t>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC272"/>
+  <dimension ref="A1:AC267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -785,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5169328</v>
+        <v>5169329</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -800,73 +800,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>42</v>
       </c>
       <c r="K4">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="L4">
+        <v>3.4</v>
+      </c>
+      <c r="M4">
+        <v>3.2</v>
+      </c>
+      <c r="N4">
+        <v>2.9</v>
+      </c>
+      <c r="O4">
         <v>3.3</v>
       </c>
-      <c r="M4">
-        <v>2.3</v>
-      </c>
-      <c r="N4">
-        <v>2.625</v>
-      </c>
-      <c r="O4">
-        <v>3.25</v>
-      </c>
       <c r="P4">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S4">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T4">
         <v>2.25</v>
       </c>
       <c r="U4">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V4">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AA4">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC4">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -874,7 +874,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5169329</v>
+        <v>5169328</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -889,73 +889,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>42</v>
       </c>
       <c r="K5">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="L5">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M5">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="N5">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="O5">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P5">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q5">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S5">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T5">
         <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V5">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1245,7 +1245,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1334,7 +1334,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1957,7 +1957,7 @@
         <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2031,7 +2031,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5169334</v>
+        <v>5169639</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2043,13 +2043,13 @@
         <v>44944.69791666666</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2058,44 +2058,44 @@
         <v>44</v>
       </c>
       <c r="K18">
-        <v>1.111</v>
+        <v>2.375</v>
       </c>
       <c r="L18">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="M18">
-        <v>21</v>
+        <v>2.9</v>
       </c>
       <c r="N18">
+        <v>2.1</v>
+      </c>
+      <c r="O18">
+        <v>3.5</v>
+      </c>
+      <c r="P18">
+        <v>3.5</v>
+      </c>
+      <c r="Q18">
+        <v>-0.25</v>
+      </c>
+      <c r="R18">
+        <v>1.8</v>
+      </c>
+      <c r="S18">
+        <v>2.05</v>
+      </c>
+      <c r="T18">
+        <v>2.75</v>
+      </c>
+      <c r="U18">
+        <v>1.925</v>
+      </c>
+      <c r="V18">
+        <v>1.925</v>
+      </c>
+      <c r="W18">
         <v>1.1</v>
       </c>
-      <c r="O18">
-        <v>9</v>
-      </c>
-      <c r="P18">
-        <v>26</v>
-      </c>
-      <c r="Q18">
-        <v>-2.25</v>
-      </c>
-      <c r="R18">
-        <v>1.85</v>
-      </c>
-      <c r="S18">
-        <v>2</v>
-      </c>
-      <c r="T18">
-        <v>3.5</v>
-      </c>
-      <c r="U18">
-        <v>2</v>
-      </c>
-      <c r="V18">
-        <v>1.85</v>
-      </c>
-      <c r="W18">
-        <v>0.1000000000000001</v>
-      </c>
       <c r="X18">
         <v>-1</v>
       </c>
@@ -2103,13 +2103,13 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA18">
         <v>-1</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2120,7 +2120,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5169639</v>
+        <v>5169334</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2132,13 +2132,13 @@
         <v>44944.69791666666</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2147,43 +2147,43 @@
         <v>44</v>
       </c>
       <c r="K19">
-        <v>2.375</v>
+        <v>1.111</v>
       </c>
       <c r="L19">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="M19">
-        <v>2.9</v>
+        <v>21</v>
       </c>
       <c r="N19">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="O19">
+        <v>9</v>
+      </c>
+      <c r="P19">
+        <v>26</v>
+      </c>
+      <c r="Q19">
+        <v>-2.25</v>
+      </c>
+      <c r="R19">
+        <v>1.85</v>
+      </c>
+      <c r="S19">
+        <v>2</v>
+      </c>
+      <c r="T19">
         <v>3.5</v>
       </c>
-      <c r="P19">
-        <v>3.5</v>
-      </c>
-      <c r="Q19">
-        <v>-0.25</v>
-      </c>
-      <c r="R19">
-        <v>1.8</v>
-      </c>
-      <c r="S19">
-        <v>2.05</v>
-      </c>
-      <c r="T19">
-        <v>2.75</v>
-      </c>
       <c r="U19">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
-        <v>1.1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X19">
         <v>-1</v>
@@ -2192,13 +2192,13 @@
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA19">
         <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2221,7 +2221,7 @@
         <v>44944.70833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
         <v>29</v>
@@ -2313,7 +2313,7 @@
         <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -2666,7 +2666,7 @@
         <v>44955.4375</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
         <v>34</v>
@@ -3010,7 +3010,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5169645</v>
+        <v>5169869</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3022,76 +3022,76 @@
         <v>44958.69791666666</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G29" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29" t="s">
+        <v>43</v>
+      </c>
+      <c r="K29">
+        <v>6</v>
+      </c>
+      <c r="L29">
+        <v>4.333</v>
+      </c>
+      <c r="M29">
+        <v>1.5</v>
+      </c>
+      <c r="N29">
+        <v>6</v>
+      </c>
+      <c r="O29">
+        <v>4.5</v>
+      </c>
+      <c r="P29">
+        <v>1.5</v>
+      </c>
+      <c r="Q29">
         <v>1</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29" t="s">
-        <v>44</v>
-      </c>
-      <c r="K29">
-        <v>2.25</v>
-      </c>
-      <c r="L29">
-        <v>3.2</v>
-      </c>
-      <c r="M29">
-        <v>3.2</v>
-      </c>
-      <c r="N29">
-        <v>2.25</v>
-      </c>
-      <c r="O29">
-        <v>3.2</v>
-      </c>
-      <c r="P29">
-        <v>3.25</v>
-      </c>
-      <c r="Q29">
-        <v>-0.25</v>
-      </c>
       <c r="R29">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S29">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T29">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U29">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V29">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W29">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z29">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC29">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3099,7 +3099,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5169869</v>
+        <v>5169645</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3111,76 +3111,76 @@
         <v>44958.69791666666</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="L30">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M30">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="N30">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="O30">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P30">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q30">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
+        <v>1.925</v>
+      </c>
+      <c r="S30">
+        <v>1.925</v>
+      </c>
+      <c r="T30">
+        <v>2.25</v>
+      </c>
+      <c r="U30">
         <v>2.05</v>
       </c>
-      <c r="S30">
+      <c r="V30">
         <v>1.8</v>
       </c>
-      <c r="T30">
-        <v>3</v>
-      </c>
-      <c r="U30">
-        <v>1.975</v>
-      </c>
-      <c r="V30">
-        <v>1.875</v>
-      </c>
       <c r="W30">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA30">
+        <v>-1</v>
+      </c>
+      <c r="AB30">
+        <v>-1</v>
+      </c>
+      <c r="AC30">
         <v>0.8</v>
-      </c>
-      <c r="AB30">
-        <v>0</v>
-      </c>
-      <c r="AC30">
-        <v>-0</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3203,7 +3203,7 @@
         <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H31">
         <v>3</v>
@@ -3378,10 +3378,10 @@
         <v>44961.5</v>
       </c>
       <c r="F33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" t="s">
         <v>32</v>
-      </c>
-      <c r="G33" t="s">
-        <v>31</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -4093,7 +4093,7 @@
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4268,7 +4268,7 @@
         <v>44975.5</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
         <v>29</v>
@@ -4627,7 +4627,7 @@
         <v>33</v>
       </c>
       <c r="G47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4802,7 +4802,7 @@
         <v>44982.5</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
         <v>38</v>
@@ -4891,7 +4891,7 @@
         <v>44989.5</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
         <v>40</v>
@@ -5072,7 +5072,7 @@
         <v>29</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5413,7 +5413,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5169873</v>
+        <v>5169872</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5425,73 +5425,73 @@
         <v>44993.69791666666</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H56">
+        <v>3</v>
+      </c>
+      <c r="I56">
         <v>1</v>
       </c>
-      <c r="I56">
-        <v>4</v>
-      </c>
       <c r="J56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K56">
-        <v>6</v>
+        <v>1.2</v>
       </c>
       <c r="L56">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="M56">
-        <v>1.533</v>
+        <v>13</v>
       </c>
       <c r="N56">
-        <v>5.25</v>
+        <v>1.125</v>
       </c>
       <c r="O56">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="P56">
-        <v>1.6</v>
+        <v>15</v>
       </c>
       <c r="Q56">
-        <v>1</v>
+        <v>-2.5</v>
       </c>
       <c r="R56">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S56">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T56">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U56">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V56">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
         <v>-1</v>
       </c>
       <c r="AA56">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB56">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC56">
         <v>-1</v>
@@ -5502,7 +5502,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5169872</v>
+        <v>6176752</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5514,76 +5514,76 @@
         <v>44993.69791666666</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K57">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="L57">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="M57">
-        <v>13</v>
+        <v>3.75</v>
       </c>
       <c r="N57">
-        <v>1.125</v>
+        <v>2.3</v>
       </c>
       <c r="O57">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="P57">
-        <v>15</v>
+        <v>3.3</v>
       </c>
       <c r="Q57">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R57">
+        <v>1.975</v>
+      </c>
+      <c r="S57">
+        <v>1.875</v>
+      </c>
+      <c r="T57">
+        <v>2.25</v>
+      </c>
+      <c r="U57">
         <v>2.025</v>
       </c>
-      <c r="S57">
+      <c r="V57">
         <v>1.825</v>
       </c>
-      <c r="T57">
-        <v>3.5</v>
-      </c>
-      <c r="U57">
-        <v>1.85</v>
-      </c>
-      <c r="V57">
-        <v>2</v>
-      </c>
       <c r="W57">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA57">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
       <c r="AB57">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5591,7 +5591,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6176752</v>
+        <v>5169873</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5603,49 +5603,49 @@
         <v>44993.69791666666</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G58" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H58">
         <v>1</v>
       </c>
       <c r="I58">
+        <v>4</v>
+      </c>
+      <c r="J58" t="s">
+        <v>43</v>
+      </c>
+      <c r="K58">
+        <v>6</v>
+      </c>
+      <c r="L58">
+        <v>4.2</v>
+      </c>
+      <c r="M58">
+        <v>1.533</v>
+      </c>
+      <c r="N58">
+        <v>5.25</v>
+      </c>
+      <c r="O58">
+        <v>4.2</v>
+      </c>
+      <c r="P58">
+        <v>1.6</v>
+      </c>
+      <c r="Q58">
         <v>1</v>
       </c>
-      <c r="J58" t="s">
-        <v>42</v>
-      </c>
-      <c r="K58">
-        <v>2.1</v>
-      </c>
-      <c r="L58">
-        <v>3.1</v>
-      </c>
-      <c r="M58">
-        <v>3.75</v>
-      </c>
-      <c r="N58">
-        <v>2.3</v>
-      </c>
-      <c r="O58">
-        <v>3.2</v>
-      </c>
-      <c r="P58">
-        <v>3.3</v>
-      </c>
-      <c r="Q58">
-        <v>-0.25</v>
-      </c>
       <c r="R58">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S58">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T58">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U58">
         <v>2.025</v>
@@ -5657,22 +5657,22 @@
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z58">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.4375</v>
+        <v>1.05</v>
       </c>
       <c r="AB58">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC58">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5781,7 +5781,7 @@
         <v>45003.5</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G60" t="s">
         <v>30</v>
@@ -5870,7 +5870,7 @@
         <v>45003.5</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
         <v>36</v>
@@ -5947,7 +5947,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5169882</v>
+        <v>5169881</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5959,49 +5959,49 @@
         <v>45003.5</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G62" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H62">
         <v>3</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
         <v>44</v>
       </c>
       <c r="K62">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="L62">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="M62">
-        <v>15</v>
+        <v>2.75</v>
       </c>
       <c r="N62">
-        <v>1.111</v>
+        <v>2.25</v>
       </c>
       <c r="O62">
-        <v>10</v>
+        <v>3.4</v>
       </c>
       <c r="P62">
-        <v>19</v>
+        <v>3.2</v>
       </c>
       <c r="Q62">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S62">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T62">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U62">
         <v>1.85</v>
@@ -6010,7 +6010,7 @@
         <v>2</v>
       </c>
       <c r="W62">
-        <v>0.111</v>
+        <v>1.25</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6019,10 +6019,10 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA62">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
         <v>0.8500000000000001</v>
@@ -6036,7 +6036,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5169881</v>
+        <v>5169882</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6048,49 +6048,49 @@
         <v>45003.5</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H63">
         <v>3</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
         <v>44</v>
       </c>
       <c r="K63">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="L63">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="M63">
-        <v>2.75</v>
+        <v>15</v>
       </c>
       <c r="N63">
-        <v>2.25</v>
+        <v>1.111</v>
       </c>
       <c r="O63">
-        <v>3.4</v>
+        <v>10</v>
       </c>
       <c r="P63">
-        <v>3.2</v>
+        <v>19</v>
       </c>
       <c r="Q63">
-        <v>-0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R63">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S63">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U63">
         <v>1.85</v>
@@ -6099,7 +6099,7 @@
         <v>2</v>
       </c>
       <c r="W63">
-        <v>1.25</v>
+        <v>0.111</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6108,10 +6108,10 @@
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB63">
         <v>0.8500000000000001</v>
@@ -6226,7 +6226,7 @@
         <v>45017.45833333334</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
         <v>34</v>
@@ -6585,7 +6585,7 @@
         <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -6852,7 +6852,7 @@
         <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -7119,7 +7119,7 @@
         <v>38</v>
       </c>
       <c r="G75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H75">
         <v>3</v>
@@ -7460,7 +7460,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5423471</v>
+        <v>5423472</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7472,49 +7472,49 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
         <v>44</v>
       </c>
       <c r="K79">
-        <v>2.15</v>
+        <v>1.2</v>
       </c>
       <c r="L79">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="M79">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="N79">
-        <v>2.1</v>
+        <v>1.222</v>
       </c>
       <c r="O79">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="P79">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R79">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S79">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T79">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U79">
         <v>1.85</v>
@@ -7523,7 +7523,7 @@
         <v>2</v>
       </c>
       <c r="W79">
-        <v>1.1</v>
+        <v>0.222</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7532,16 +7532,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC79">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7549,7 +7549,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5423472</v>
+        <v>5465925</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7561,73 +7561,73 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F80" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G80" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H80">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I80">
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K80">
-        <v>1.2</v>
+        <v>1.727</v>
       </c>
       <c r="L80">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="M80">
-        <v>11</v>
+        <v>4.2</v>
       </c>
       <c r="N80">
-        <v>1.222</v>
+        <v>1.95</v>
       </c>
       <c r="O80">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="P80">
-        <v>11</v>
+        <v>3.9</v>
       </c>
       <c r="Q80">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R80">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S80">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T80">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U80">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V80">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W80">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>2.9</v>
       </c>
       <c r="Z80">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB80">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC80">
         <v>-1</v>
@@ -7638,7 +7638,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5465925</v>
+        <v>5423471</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7650,76 +7650,76 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G81" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K81">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="L81">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M81">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="N81">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O81">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P81">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q81">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R81">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S81">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T81">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U81">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V81">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>2.9</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA81">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7739,7 +7739,7 @@
         <v>45032.33333333334</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
         <v>37</v>
@@ -8009,7 +8009,7 @@
         <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8187,7 +8187,7 @@
         <v>39</v>
       </c>
       <c r="G87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8454,7 +8454,7 @@
         <v>36</v>
       </c>
       <c r="G90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -8543,7 +8543,7 @@
         <v>38</v>
       </c>
       <c r="G91" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -9252,10 +9252,10 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F99" t="s">
+        <v>32</v>
+      </c>
+      <c r="G99" t="s">
         <v>31</v>
-      </c>
-      <c r="G99" t="s">
-        <v>32</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9608,7 +9608,7 @@
         <v>45066.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
         <v>30</v>
@@ -9786,7 +9786,7 @@
         <v>45066.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
         <v>39</v>
@@ -9952,7 +9952,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6576075</v>
+        <v>6576088</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9964,76 +9964,76 @@
         <v>45070.65625</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G107" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107" t="s">
+        <v>42</v>
+      </c>
+      <c r="K107">
+        <v>2.6</v>
+      </c>
+      <c r="L107">
         <v>3</v>
       </c>
-      <c r="I107">
-        <v>0</v>
-      </c>
-      <c r="J107" t="s">
-        <v>44</v>
-      </c>
-      <c r="K107">
-        <v>1.833</v>
-      </c>
-      <c r="L107">
-        <v>3.6</v>
-      </c>
       <c r="M107">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="N107">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="O107">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P107">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q107">
+        <v>0.25</v>
+      </c>
+      <c r="R107">
+        <v>1.9</v>
+      </c>
+      <c r="S107">
+        <v>1.95</v>
+      </c>
+      <c r="T107">
+        <v>2.25</v>
+      </c>
+      <c r="U107">
+        <v>1.925</v>
+      </c>
+      <c r="V107">
+        <v>1.925</v>
+      </c>
+      <c r="W107">
+        <v>-1</v>
+      </c>
+      <c r="X107">
+        <v>2.3</v>
+      </c>
+      <c r="Y107">
+        <v>-1</v>
+      </c>
+      <c r="Z107">
+        <v>0.45</v>
+      </c>
+      <c r="AA107">
         <v>-0.5</v>
       </c>
-      <c r="R107">
-        <v>1.85</v>
-      </c>
-      <c r="S107">
-        <v>2</v>
-      </c>
-      <c r="T107">
-        <v>2.5</v>
-      </c>
-      <c r="U107">
-        <v>2.05</v>
-      </c>
-      <c r="V107">
-        <v>1.8</v>
-      </c>
-      <c r="W107">
-        <v>0.8</v>
-      </c>
-      <c r="X107">
-        <v>-1</v>
-      </c>
-      <c r="Y107">
-        <v>-1</v>
-      </c>
-      <c r="Z107">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA107">
-        <v>-1</v>
-      </c>
       <c r="AB107">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10041,7 +10041,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6576077</v>
+        <v>6576089</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10053,49 +10053,49 @@
         <v>45070.65625</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G108" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J108" t="s">
         <v>42</v>
       </c>
       <c r="K108">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="L108">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="M108">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="N108">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="O108">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P108">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="Q108">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R108">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S108">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T108">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U108">
         <v>1.95</v>
@@ -10107,7 +10107,7 @@
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="Y108">
         <v>-1</v>
@@ -10116,7 +10116,7 @@
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB108">
         <v>0.95</v>
@@ -10219,7 +10219,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6576089</v>
+        <v>6576087</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10231,73 +10231,73 @@
         <v>45070.65625</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G110" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H110">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110">
         <v>3</v>
       </c>
       <c r="J110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K110">
         <v>2.3</v>
       </c>
       <c r="L110">
+        <v>3.2</v>
+      </c>
+      <c r="M110">
         <v>3</v>
       </c>
-      <c r="M110">
-        <v>3.2</v>
-      </c>
       <c r="N110">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="O110">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P110">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q110">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R110">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S110">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T110">
         <v>2.25</v>
       </c>
       <c r="U110">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V110">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z110">
         <v>-1</v>
       </c>
       <c r="AA110">
+        <v>1.1</v>
+      </c>
+      <c r="AB110">
         <v>0.925</v>
-      </c>
-      <c r="AB110">
-        <v>0.95</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10308,7 +10308,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6576088</v>
+        <v>6576077</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10320,76 +10320,76 @@
         <v>45070.65625</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G111" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
         <v>42</v>
       </c>
       <c r="K111">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="L111">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="M111">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="N111">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="O111">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P111">
-        <v>2.2</v>
+        <v>7.5</v>
       </c>
       <c r="Q111">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R111">
+        <v>2.025</v>
+      </c>
+      <c r="S111">
+        <v>1.825</v>
+      </c>
+      <c r="T111">
+        <v>3.25</v>
+      </c>
+      <c r="U111">
+        <v>1.95</v>
+      </c>
+      <c r="V111">
         <v>1.9</v>
       </c>
-      <c r="S111">
-        <v>1.95</v>
-      </c>
-      <c r="T111">
-        <v>2.25</v>
-      </c>
-      <c r="U111">
-        <v>1.925</v>
-      </c>
-      <c r="V111">
-        <v>1.925</v>
-      </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="Y111">
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB111">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC111">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10397,7 +10397,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6576087</v>
+        <v>6576075</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10409,73 +10409,73 @@
         <v>45070.65625</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I112">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K112">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="L112">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M112">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N112">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="O112">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P112">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q112">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R112">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S112">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T112">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U112">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V112">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA112">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10768,7 +10768,7 @@
         <v>30</v>
       </c>
       <c r="G116" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -10943,7 +10943,7 @@
         <v>45074.45833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G118" t="s">
         <v>36</v>
@@ -11210,7 +11210,7 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G121" t="s">
         <v>33</v>
@@ -11388,7 +11388,7 @@
         <v>45143.55208333334</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G123" t="s">
         <v>29</v>
@@ -11658,7 +11658,7 @@
         <v>29</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H126">
         <v>4</v>
@@ -12014,7 +12014,7 @@
         <v>34</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12177,7 +12177,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6844716</v>
+        <v>6844835</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12189,76 +12189,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J132" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K132">
-        <v>1.045</v>
+        <v>1.7</v>
       </c>
       <c r="L132">
-        <v>13</v>
+        <v>3.8</v>
       </c>
       <c r="M132">
-        <v>41</v>
+        <v>4.75</v>
       </c>
       <c r="N132">
-        <v>1.071</v>
+        <v>1.833</v>
       </c>
       <c r="O132">
-        <v>13</v>
+        <v>3.75</v>
       </c>
       <c r="P132">
-        <v>21</v>
+        <v>4.333</v>
       </c>
       <c r="Q132">
-        <v>-2.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R132">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S132">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T132">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U132">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V132">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC132">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12266,7 +12266,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6844835</v>
+        <v>6844716</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12278,76 +12278,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F133" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G133" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K133">
-        <v>1.7</v>
+        <v>1.045</v>
       </c>
       <c r="L133">
-        <v>3.8</v>
+        <v>13</v>
       </c>
       <c r="M133">
-        <v>4.75</v>
+        <v>41</v>
       </c>
       <c r="N133">
-        <v>1.833</v>
+        <v>1.071</v>
       </c>
       <c r="O133">
+        <v>13</v>
+      </c>
+      <c r="P133">
+        <v>21</v>
+      </c>
+      <c r="Q133">
+        <v>-2.75</v>
+      </c>
+      <c r="R133">
+        <v>1.875</v>
+      </c>
+      <c r="S133">
+        <v>1.975</v>
+      </c>
+      <c r="T133">
         <v>3.75</v>
       </c>
-      <c r="P133">
-        <v>4.333</v>
-      </c>
-      <c r="Q133">
-        <v>-0.5</v>
-      </c>
-      <c r="R133">
-        <v>1.8</v>
-      </c>
-      <c r="S133">
-        <v>2.05</v>
-      </c>
-      <c r="T133">
-        <v>2.5</v>
-      </c>
       <c r="U133">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V133">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="Y133">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB133">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>38</v>
       </c>
       <c r="G134" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -12444,7 +12444,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6844717</v>
+        <v>7075288</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12456,40 +12456,40 @@
         <v>45165.45833333334</v>
       </c>
       <c r="F135" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G135" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K135">
+        <v>2.55</v>
+      </c>
+      <c r="L135">
         <v>3.2</v>
       </c>
-      <c r="L135">
-        <v>3.4</v>
-      </c>
       <c r="M135">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N135">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="O135">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P135">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q135">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R135">
         <v>2.1</v>
@@ -12498,34 +12498,34 @@
         <v>1.775</v>
       </c>
       <c r="T135">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U135">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V135">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W135">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC135">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12533,7 +12533,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7075288</v>
+        <v>6844717</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12545,40 +12545,40 @@
         <v>45165.45833333334</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G136" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K136">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="L136">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M136">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N136">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="O136">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P136">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q136">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R136">
         <v>2.1</v>
@@ -12587,34 +12587,34 @@
         <v>1.775</v>
       </c>
       <c r="T136">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U136">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V136">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X136">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AA136">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12634,7 +12634,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G137" t="s">
         <v>36</v>
@@ -12723,7 +12723,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G138" t="s">
         <v>35</v>
@@ -13260,7 +13260,7 @@
         <v>36</v>
       </c>
       <c r="G144" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -13435,7 +13435,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F146" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G146" t="s">
         <v>40</v>
@@ -13702,7 +13702,7 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F149" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G149" t="s">
         <v>37</v>
@@ -13883,7 +13883,7 @@
         <v>41</v>
       </c>
       <c r="G151" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H151">
         <v>2</v>
@@ -14313,7 +14313,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6844740</v>
+        <v>6845506</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14325,76 +14325,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G156" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H156">
         <v>1</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J156" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K156">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="L156">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M156">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="N156">
-        <v>2.4</v>
+        <v>1.363</v>
       </c>
       <c r="O156">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="P156">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="Q156">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R156">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S156">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T156">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U156">
+        <v>1.975</v>
+      </c>
+      <c r="V156">
         <v>1.875</v>
       </c>
-      <c r="V156">
-        <v>1.975</v>
-      </c>
       <c r="W156">
         <v>-1</v>
       </c>
       <c r="X156">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z156">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB156">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC156">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14402,7 +14402,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6844739</v>
+        <v>6844740</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14414,76 +14414,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G157" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157">
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K157">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="L157">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M157">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="N157">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="O157">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P157">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q157">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R157">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S157">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T157">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U157">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V157">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W157">
         <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y157">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA157">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC157">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14491,7 +14491,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6844737</v>
+        <v>6844739</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14503,76 +14503,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F158" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158">
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K158">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="L158">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M158">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="N158">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="O158">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P158">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q158">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R158">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S158">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T158">
         <v>2.25</v>
       </c>
       <c r="U158">
+        <v>1.825</v>
+      </c>
+      <c r="V158">
         <v>2.025</v>
       </c>
-      <c r="V158">
-        <v>1.825</v>
-      </c>
       <c r="W158">
         <v>-1</v>
       </c>
       <c r="X158">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z158">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AB158">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>0.4125</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14580,7 +14580,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6844736</v>
+        <v>6844737</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14592,76 +14592,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F159" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G159" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="s">
         <v>42</v>
       </c>
       <c r="K159">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L159">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M159">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N159">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="O159">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P159">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="Q159">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R159">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S159">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T159">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U159">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V159">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W159">
         <v>-1</v>
       </c>
       <c r="X159">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA159">
-        <v>1.05</v>
+        <v>0.4875</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC159">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14669,7 +14669,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6845506</v>
+        <v>6844736</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14681,76 +14681,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F160" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G160" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160" t="s">
+        <v>42</v>
+      </c>
+      <c r="K160">
+        <v>1.666</v>
+      </c>
+      <c r="L160">
+        <v>3.75</v>
+      </c>
+      <c r="M160">
+        <v>5</v>
+      </c>
+      <c r="N160">
+        <v>1.615</v>
+      </c>
+      <c r="O160">
+        <v>4</v>
+      </c>
+      <c r="P160">
+        <v>5.25</v>
+      </c>
+      <c r="Q160">
+        <v>-0.75</v>
+      </c>
+      <c r="R160">
+        <v>1.8</v>
+      </c>
+      <c r="S160">
+        <v>2.05</v>
+      </c>
+      <c r="T160">
+        <v>2.75</v>
+      </c>
+      <c r="U160">
+        <v>1.95</v>
+      </c>
+      <c r="V160">
+        <v>1.9</v>
+      </c>
+      <c r="W160">
+        <v>-1</v>
+      </c>
+      <c r="X160">
         <v>3</v>
       </c>
-      <c r="J160" t="s">
-        <v>43</v>
-      </c>
-      <c r="K160">
-        <v>1.333</v>
-      </c>
-      <c r="L160">
-        <v>5</v>
-      </c>
-      <c r="M160">
-        <v>9</v>
-      </c>
-      <c r="N160">
-        <v>1.363</v>
-      </c>
-      <c r="O160">
-        <v>4.75</v>
-      </c>
-      <c r="P160">
-        <v>8</v>
-      </c>
-      <c r="Q160">
-        <v>-1.5</v>
-      </c>
-      <c r="R160">
-        <v>2</v>
-      </c>
-      <c r="S160">
-        <v>1.85</v>
-      </c>
-      <c r="T160">
-        <v>3</v>
-      </c>
-      <c r="U160">
-        <v>1.975</v>
-      </c>
-      <c r="V160">
-        <v>1.875</v>
-      </c>
-      <c r="W160">
-        <v>-1</v>
-      </c>
-      <c r="X160">
-        <v>-1</v>
-      </c>
       <c r="Y160">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
         <v>-1</v>
       </c>
       <c r="AA160">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB160">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14758,7 +14758,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6844742</v>
+        <v>6844744</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14770,49 +14770,49 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F161" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G161" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H161">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161" t="s">
         <v>44</v>
       </c>
       <c r="K161">
-        <v>1.125</v>
+        <v>2.9</v>
       </c>
       <c r="L161">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="M161">
-        <v>13</v>
+        <v>2.25</v>
       </c>
       <c r="N161">
-        <v>1.181</v>
+        <v>3</v>
       </c>
       <c r="O161">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="P161">
-        <v>13</v>
+        <v>2.5</v>
       </c>
       <c r="Q161">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R161">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="S161">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="T161">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U161">
         <v>1.975</v>
@@ -14821,7 +14821,7 @@
         <v>1.875</v>
       </c>
       <c r="W161">
-        <v>0.181</v>
+        <v>2</v>
       </c>
       <c r="X161">
         <v>-1</v>
@@ -14830,16 +14830,16 @@
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>0</v>
+        <v>1.075</v>
       </c>
       <c r="AA161">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14847,7 +14847,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6844744</v>
+        <v>6844742</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14859,49 +14859,49 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F162" t="s">
+        <v>37</v>
+      </c>
+      <c r="G162" t="s">
         <v>32</v>
       </c>
-      <c r="G162" t="s">
-        <v>38</v>
-      </c>
       <c r="H162">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" t="s">
         <v>44</v>
       </c>
       <c r="K162">
-        <v>2.9</v>
+        <v>1.125</v>
       </c>
       <c r="L162">
+        <v>8</v>
+      </c>
+      <c r="M162">
+        <v>13</v>
+      </c>
+      <c r="N162">
+        <v>1.181</v>
+      </c>
+      <c r="O162">
+        <v>7.5</v>
+      </c>
+      <c r="P162">
+        <v>13</v>
+      </c>
+      <c r="Q162">
+        <v>-2</v>
+      </c>
+      <c r="R162">
+        <v>2.025</v>
+      </c>
+      <c r="S162">
+        <v>1.825</v>
+      </c>
+      <c r="T162">
         <v>3.25</v>
-      </c>
-      <c r="M162">
-        <v>2.25</v>
-      </c>
-      <c r="N162">
-        <v>3</v>
-      </c>
-      <c r="O162">
-        <v>3.2</v>
-      </c>
-      <c r="P162">
-        <v>2.5</v>
-      </c>
-      <c r="Q162">
-        <v>0</v>
-      </c>
-      <c r="R162">
-        <v>2.075</v>
-      </c>
-      <c r="S162">
-        <v>1.725</v>
-      </c>
-      <c r="T162">
-        <v>2.25</v>
       </c>
       <c r="U162">
         <v>1.975</v>
@@ -14910,7 +14910,7 @@
         <v>1.875</v>
       </c>
       <c r="W162">
-        <v>2</v>
+        <v>0.181</v>
       </c>
       <c r="X162">
         <v>-1</v>
@@ -14919,16 +14919,16 @@
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>1.075</v>
+        <v>0</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB162">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC162">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -15304,10 +15304,10 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F167" t="s">
+        <v>32</v>
+      </c>
+      <c r="G167" t="s">
         <v>31</v>
-      </c>
-      <c r="G167" t="s">
-        <v>32</v>
       </c>
       <c r="H167">
         <v>3</v>
@@ -15648,7 +15648,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6844752</v>
+        <v>6844751</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15660,49 +15660,49 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F171" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G171" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H171">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J171" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K171">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L171">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M171">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="N171">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="O171">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P171">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q171">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R171">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S171">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T171">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U171">
         <v>2.025</v>
@@ -15714,22 +15714,22 @@
         <v>-1</v>
       </c>
       <c r="X171">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y171">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z171">
         <v>-1</v>
       </c>
       <c r="AA171">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB171">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15737,7 +15737,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6844751</v>
+        <v>6844752</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15749,49 +15749,49 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F172" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G172" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J172" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K172">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L172">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M172">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N172">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="O172">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P172">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q172">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R172">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S172">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T172">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U172">
         <v>2.025</v>
@@ -15803,22 +15803,22 @@
         <v>-1</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y172">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
         <v>-1</v>
       </c>
       <c r="AA172">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB172">
         <v>1.025</v>
       </c>
-      <c r="AB172">
-        <v>-0.5</v>
-      </c>
       <c r="AC172">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15927,7 +15927,7 @@
         <v>45228.375</v>
       </c>
       <c r="F174" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G174" t="s">
         <v>33</v>
@@ -16286,7 +16286,7 @@
         <v>30</v>
       </c>
       <c r="G178" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16464,7 +16464,7 @@
         <v>34</v>
       </c>
       <c r="G180" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H180">
         <v>1</v>
@@ -16728,7 +16728,7 @@
         <v>45234.5</v>
       </c>
       <c r="F183" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G183" t="s">
         <v>38</v>
@@ -16820,7 +16820,7 @@
         <v>41</v>
       </c>
       <c r="G184" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H184">
         <v>1</v>
@@ -17176,7 +17176,7 @@
         <v>40</v>
       </c>
       <c r="G188" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -17440,7 +17440,7 @@
         <v>45242.375</v>
       </c>
       <c r="F191" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G191" t="s">
         <v>29</v>
@@ -17621,7 +17621,7 @@
         <v>36</v>
       </c>
       <c r="G193" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H193">
         <v>0</v>
@@ -17710,7 +17710,7 @@
         <v>35</v>
       </c>
       <c r="G194" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H194">
         <v>1</v>
@@ -18241,7 +18241,7 @@
         <v>45262.5</v>
       </c>
       <c r="F200" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G200" t="s">
         <v>34</v>
@@ -18956,7 +18956,7 @@
         <v>33</v>
       </c>
       <c r="G208" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -19487,7 +19487,7 @@
         <v>45269.5</v>
       </c>
       <c r="F214" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G214" t="s">
         <v>40</v>
@@ -19576,7 +19576,7 @@
         <v>45270.375</v>
       </c>
       <c r="F215" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G215" t="s">
         <v>37</v>
@@ -19665,10 +19665,10 @@
         <v>45276.5</v>
       </c>
       <c r="F216" t="s">
+        <v>31</v>
+      </c>
+      <c r="G216" t="s">
         <v>32</v>
-      </c>
-      <c r="G216" t="s">
-        <v>31</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -20113,7 +20113,7 @@
         <v>33</v>
       </c>
       <c r="G221" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H221">
         <v>2</v>
@@ -20377,7 +20377,7 @@
         <v>45283.5</v>
       </c>
       <c r="F224" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G224" t="s">
         <v>30</v>
@@ -20469,7 +20469,7 @@
         <v>37</v>
       </c>
       <c r="G225" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H225">
         <v>2</v>
@@ -20736,7 +20736,7 @@
         <v>35</v>
       </c>
       <c r="G228" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H228">
         <v>0</v>
@@ -20822,7 +20822,7 @@
         <v>45287.69791666666</v>
       </c>
       <c r="F229" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G229" t="s">
         <v>30</v>
@@ -21092,7 +21092,7 @@
         <v>38</v>
       </c>
       <c r="G232" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H232">
         <v>3</v>
@@ -21166,7 +21166,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6844801</v>
+        <v>6844803</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21178,73 +21178,73 @@
         <v>45290.5</v>
       </c>
       <c r="F233" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G233" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J233" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K233">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L233">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M233">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="N233">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O233">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P233">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q233">
         <v>-0.75</v>
       </c>
       <c r="R233">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S233">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T233">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U233">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V233">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W233">
         <v>-1</v>
       </c>
       <c r="X233">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y233">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z233">
         <v>-1</v>
       </c>
       <c r="AA233">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB233">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC233">
         <v>-1</v>
@@ -21255,7 +21255,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6844803</v>
+        <v>6844801</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21267,73 +21267,73 @@
         <v>45290.5</v>
       </c>
       <c r="F234" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G234" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J234" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K234">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L234">
+        <v>3.4</v>
+      </c>
+      <c r="M234">
         <v>3.5</v>
       </c>
-      <c r="M234">
-        <v>3.9</v>
-      </c>
       <c r="N234">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="O234">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P234">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q234">
         <v>-0.75</v>
       </c>
       <c r="R234">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S234">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T234">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U234">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V234">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W234">
         <v>-1</v>
       </c>
       <c r="X234">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y234">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z234">
         <v>-1</v>
       </c>
       <c r="AA234">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB234">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC234">
         <v>-1</v>
@@ -21433,7 +21433,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6844807</v>
+        <v>6844842</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21445,73 +21445,73 @@
         <v>45293.5</v>
       </c>
       <c r="F236" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G236" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I236">
         <v>2</v>
       </c>
       <c r="J236" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K236">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="L236">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="M236">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N236">
+        <v>4</v>
+      </c>
+      <c r="O236">
+        <v>3.6</v>
+      </c>
+      <c r="P236">
         <v>1.909</v>
       </c>
-      <c r="O236">
-        <v>3.4</v>
-      </c>
-      <c r="P236">
-        <v>4</v>
-      </c>
       <c r="Q236">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R236">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S236">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T236">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U236">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V236">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W236">
         <v>-1</v>
       </c>
       <c r="X236">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y236">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z236">
         <v>-1</v>
       </c>
       <c r="AA236">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB236">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC236">
         <v>-1</v>
@@ -21522,7 +21522,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6844808</v>
+        <v>6844809</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21534,73 +21534,73 @@
         <v>45293.5</v>
       </c>
       <c r="F237" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G237" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H237">
+        <v>0</v>
+      </c>
+      <c r="I237">
         <v>3</v>
       </c>
-      <c r="I237">
+      <c r="J237" t="s">
+        <v>43</v>
+      </c>
+      <c r="K237">
+        <v>3</v>
+      </c>
+      <c r="L237">
+        <v>3.4</v>
+      </c>
+      <c r="M237">
+        <v>2.3</v>
+      </c>
+      <c r="N237">
+        <v>3.25</v>
+      </c>
+      <c r="O237">
+        <v>3.3</v>
+      </c>
+      <c r="P237">
+        <v>2.3</v>
+      </c>
+      <c r="Q237">
+        <v>0.25</v>
+      </c>
+      <c r="R237">
+        <v>1.85</v>
+      </c>
+      <c r="S237">
+        <v>2</v>
+      </c>
+      <c r="T237">
+        <v>2.25</v>
+      </c>
+      <c r="U237">
+        <v>1.8</v>
+      </c>
+      <c r="V237">
+        <v>2.05</v>
+      </c>
+      <c r="W237">
+        <v>-1</v>
+      </c>
+      <c r="X237">
+        <v>-1</v>
+      </c>
+      <c r="Y237">
+        <v>1.3</v>
+      </c>
+      <c r="Z237">
+        <v>-1</v>
+      </c>
+      <c r="AA237">
         <v>1</v>
       </c>
-      <c r="J237" t="s">
-        <v>44</v>
-      </c>
-      <c r="K237">
-        <v>1.25</v>
-      </c>
-      <c r="L237">
-        <v>5.5</v>
-      </c>
-      <c r="M237">
-        <v>12</v>
-      </c>
-      <c r="N237">
-        <v>1.222</v>
-      </c>
-      <c r="O237">
-        <v>7</v>
-      </c>
-      <c r="P237">
-        <v>11</v>
-      </c>
-      <c r="Q237">
-        <v>-1.75</v>
-      </c>
-      <c r="R237">
-        <v>1.825</v>
-      </c>
-      <c r="S237">
-        <v>2.025</v>
-      </c>
-      <c r="T237">
-        <v>3</v>
-      </c>
-      <c r="U237">
-        <v>2</v>
-      </c>
-      <c r="V237">
-        <v>1.85</v>
-      </c>
-      <c r="W237">
-        <v>0.222</v>
-      </c>
-      <c r="X237">
-        <v>-1</v>
-      </c>
-      <c r="Y237">
-        <v>-1</v>
-      </c>
-      <c r="Z237">
-        <v>0.4125</v>
-      </c>
-      <c r="AA237">
-        <v>-0.5</v>
-      </c>
       <c r="AB237">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC237">
         <v>-1</v>
@@ -21611,7 +21611,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6844809</v>
+        <v>6844808</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21623,73 +21623,73 @@
         <v>45293.5</v>
       </c>
       <c r="F238" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G238" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I238">
+        <v>1</v>
+      </c>
+      <c r="J238" t="s">
+        <v>44</v>
+      </c>
+      <c r="K238">
+        <v>1.25</v>
+      </c>
+      <c r="L238">
+        <v>5.5</v>
+      </c>
+      <c r="M238">
+        <v>12</v>
+      </c>
+      <c r="N238">
+        <v>1.222</v>
+      </c>
+      <c r="O238">
+        <v>7</v>
+      </c>
+      <c r="P238">
+        <v>11</v>
+      </c>
+      <c r="Q238">
+        <v>-1.75</v>
+      </c>
+      <c r="R238">
+        <v>1.825</v>
+      </c>
+      <c r="S238">
+        <v>2.025</v>
+      </c>
+      <c r="T238">
         <v>3</v>
       </c>
-      <c r="J238" t="s">
-        <v>43</v>
-      </c>
-      <c r="K238">
-        <v>3</v>
-      </c>
-      <c r="L238">
-        <v>3.4</v>
-      </c>
-      <c r="M238">
-        <v>2.3</v>
-      </c>
-      <c r="N238">
-        <v>3.25</v>
-      </c>
-      <c r="O238">
-        <v>3.3</v>
-      </c>
-      <c r="P238">
-        <v>2.3</v>
-      </c>
-      <c r="Q238">
-        <v>0.25</v>
-      </c>
-      <c r="R238">
+      <c r="U238">
+        <v>2</v>
+      </c>
+      <c r="V238">
         <v>1.85</v>
       </c>
-      <c r="S238">
-        <v>2</v>
-      </c>
-      <c r="T238">
-        <v>2.25</v>
-      </c>
-      <c r="U238">
-        <v>1.8</v>
-      </c>
-      <c r="V238">
-        <v>2.05</v>
-      </c>
       <c r="W238">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA238">
+        <v>-0.5</v>
+      </c>
+      <c r="AB238">
         <v>1</v>
-      </c>
-      <c r="AB238">
-        <v>0.8</v>
       </c>
       <c r="AC238">
         <v>-1</v>
@@ -21700,7 +21700,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6844842</v>
+        <v>6844807</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21712,73 +21712,73 @@
         <v>45293.5</v>
       </c>
       <c r="F239" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G239" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I239">
         <v>2</v>
       </c>
       <c r="J239" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K239">
+        <v>1.8</v>
+      </c>
+      <c r="L239">
         <v>3.25</v>
       </c>
-      <c r="L239">
-        <v>3.9</v>
-      </c>
       <c r="M239">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N239">
+        <v>1.909</v>
+      </c>
+      <c r="O239">
+        <v>3.4</v>
+      </c>
+      <c r="P239">
         <v>4</v>
       </c>
-      <c r="O239">
-        <v>3.6</v>
-      </c>
-      <c r="P239">
-        <v>1.909</v>
-      </c>
       <c r="Q239">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R239">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S239">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T239">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U239">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V239">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W239">
         <v>-1</v>
       </c>
       <c r="X239">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y239">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z239">
         <v>-1</v>
       </c>
       <c r="AA239">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB239">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC239">
         <v>-1</v>
@@ -22335,7 +22335,7 @@
         <v>45318.5</v>
       </c>
       <c r="F246" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G246" t="s">
         <v>41</v>
@@ -22602,7 +22602,7 @@
         <v>45318.5</v>
       </c>
       <c r="F249" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G249" t="s">
         <v>40</v>
@@ -22780,7 +22780,7 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F251" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G251" t="s">
         <v>36</v>
@@ -22961,7 +22961,7 @@
         <v>29</v>
       </c>
       <c r="G253" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H253">
         <v>3</v>
@@ -23139,7 +23139,7 @@
         <v>38</v>
       </c>
       <c r="G255" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H255">
         <v>1</v>
@@ -23670,10 +23670,10 @@
         <v>45329.69791666666</v>
       </c>
       <c r="F261" t="s">
+        <v>32</v>
+      </c>
+      <c r="G261" t="s">
         <v>31</v>
-      </c>
-      <c r="G261" t="s">
-        <v>32</v>
       </c>
       <c r="H261">
         <v>1</v>
@@ -24192,7 +24192,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6844824</v>
+        <v>6845526</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24201,49 +24201,49 @@
         <v>28</v>
       </c>
       <c r="E267" s="2">
-        <v>45339.5</v>
+        <v>45340.375</v>
       </c>
       <c r="F267" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G267" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="K267">
-        <v>1.8</v>
+        <v>11</v>
       </c>
       <c r="L267">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="M267">
-        <v>4.333</v>
+        <v>1.2</v>
       </c>
       <c r="N267">
+        <v>9.5</v>
+      </c>
+      <c r="O267">
+        <v>7</v>
+      </c>
+      <c r="P267">
+        <v>1.25</v>
+      </c>
+      <c r="Q267">
         <v>1.75</v>
       </c>
-      <c r="O267">
-        <v>3.6</v>
-      </c>
-      <c r="P267">
-        <v>4.75</v>
-      </c>
-      <c r="Q267">
-        <v>-0.75</v>
-      </c>
       <c r="R267">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S267">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T267">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U267">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V267">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W267">
         <v>0</v>
@@ -24258,376 +24258,6 @@
         <v>0</v>
       </c>
       <c r="AA267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:29">
-      <c r="A268" s="1">
-        <v>266</v>
-      </c>
-      <c r="B268">
-        <v>6845524</v>
-      </c>
-      <c r="C268" t="s">
-        <v>28</v>
-      </c>
-      <c r="D268" t="s">
-        <v>28</v>
-      </c>
-      <c r="E268" s="2">
-        <v>45339.5</v>
-      </c>
-      <c r="F268" t="s">
-        <v>33</v>
-      </c>
-      <c r="G268" t="s">
-        <v>40</v>
-      </c>
-      <c r="K268">
-        <v>2.1</v>
-      </c>
-      <c r="L268">
-        <v>3.25</v>
-      </c>
-      <c r="M268">
-        <v>3.5</v>
-      </c>
-      <c r="N268">
-        <v>2.3</v>
-      </c>
-      <c r="O268">
-        <v>3.5</v>
-      </c>
-      <c r="P268">
-        <v>3.1</v>
-      </c>
-      <c r="Q268">
-        <v>-0.25</v>
-      </c>
-      <c r="R268">
-        <v>2.025</v>
-      </c>
-      <c r="S268">
-        <v>1.825</v>
-      </c>
-      <c r="T268">
-        <v>2.5</v>
-      </c>
-      <c r="U268">
-        <v>1.95</v>
-      </c>
-      <c r="V268">
-        <v>1.9</v>
-      </c>
-      <c r="W268">
-        <v>0</v>
-      </c>
-      <c r="X268">
-        <v>0</v>
-      </c>
-      <c r="Y268">
-        <v>0</v>
-      </c>
-      <c r="Z268">
-        <v>0</v>
-      </c>
-      <c r="AA268">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:29">
-      <c r="A269" s="1">
-        <v>267</v>
-      </c>
-      <c r="B269">
-        <v>6845525</v>
-      </c>
-      <c r="C269" t="s">
-        <v>28</v>
-      </c>
-      <c r="D269" t="s">
-        <v>28</v>
-      </c>
-      <c r="E269" s="2">
-        <v>45339.5</v>
-      </c>
-      <c r="F269" t="s">
-        <v>37</v>
-      </c>
-      <c r="G269" t="s">
-        <v>31</v>
-      </c>
-      <c r="K269">
-        <v>1.222</v>
-      </c>
-      <c r="L269">
-        <v>6.5</v>
-      </c>
-      <c r="M269">
-        <v>11</v>
-      </c>
-      <c r="N269">
-        <v>1.2</v>
-      </c>
-      <c r="O269">
-        <v>7</v>
-      </c>
-      <c r="P269">
-        <v>13</v>
-      </c>
-      <c r="Q269">
-        <v>-1.75</v>
-      </c>
-      <c r="R269">
-        <v>1.825</v>
-      </c>
-      <c r="S269">
-        <v>2.025</v>
-      </c>
-      <c r="T269">
-        <v>3.25</v>
-      </c>
-      <c r="U269">
-        <v>1.95</v>
-      </c>
-      <c r="V269">
-        <v>1.9</v>
-      </c>
-      <c r="W269">
-        <v>0</v>
-      </c>
-      <c r="X269">
-        <v>0</v>
-      </c>
-      <c r="Y269">
-        <v>0</v>
-      </c>
-      <c r="Z269">
-        <v>0</v>
-      </c>
-      <c r="AA269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:29">
-      <c r="A270" s="1">
-        <v>268</v>
-      </c>
-      <c r="B270">
-        <v>6844823</v>
-      </c>
-      <c r="C270" t="s">
-        <v>28</v>
-      </c>
-      <c r="D270" t="s">
-        <v>28</v>
-      </c>
-      <c r="E270" s="2">
-        <v>45339.5</v>
-      </c>
-      <c r="F270" t="s">
-        <v>41</v>
-      </c>
-      <c r="G270" t="s">
-        <v>36</v>
-      </c>
-      <c r="K270">
-        <v>1.833</v>
-      </c>
-      <c r="L270">
-        <v>3.75</v>
-      </c>
-      <c r="M270">
-        <v>4</v>
-      </c>
-      <c r="N270">
-        <v>1.8</v>
-      </c>
-      <c r="O270">
-        <v>4</v>
-      </c>
-      <c r="P270">
-        <v>4</v>
-      </c>
-      <c r="Q270">
-        <v>-0.75</v>
-      </c>
-      <c r="R270">
-        <v>2.025</v>
-      </c>
-      <c r="S270">
-        <v>1.825</v>
-      </c>
-      <c r="T270">
-        <v>2.75</v>
-      </c>
-      <c r="U270">
-        <v>2</v>
-      </c>
-      <c r="V270">
-        <v>1.85</v>
-      </c>
-      <c r="W270">
-        <v>0</v>
-      </c>
-      <c r="X270">
-        <v>0</v>
-      </c>
-      <c r="Y270">
-        <v>0</v>
-      </c>
-      <c r="Z270">
-        <v>0</v>
-      </c>
-      <c r="AA270">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:29">
-      <c r="A271" s="1">
-        <v>269</v>
-      </c>
-      <c r="B271">
-        <v>6852273</v>
-      </c>
-      <c r="C271" t="s">
-        <v>28</v>
-      </c>
-      <c r="D271" t="s">
-        <v>28</v>
-      </c>
-      <c r="E271" s="2">
-        <v>45339.5</v>
-      </c>
-      <c r="F271" t="s">
-        <v>32</v>
-      </c>
-      <c r="G271" t="s">
-        <v>35</v>
-      </c>
-      <c r="K271">
-        <v>2.875</v>
-      </c>
-      <c r="L271">
-        <v>3.5</v>
-      </c>
-      <c r="M271">
-        <v>2.3</v>
-      </c>
-      <c r="N271">
-        <v>3.1</v>
-      </c>
-      <c r="O271">
-        <v>3.25</v>
-      </c>
-      <c r="P271">
-        <v>2.375</v>
-      </c>
-      <c r="Q271">
-        <v>0.25</v>
-      </c>
-      <c r="R271">
-        <v>1.775</v>
-      </c>
-      <c r="S271">
-        <v>2.1</v>
-      </c>
-      <c r="T271">
-        <v>2</v>
-      </c>
-      <c r="U271">
-        <v>2.025</v>
-      </c>
-      <c r="V271">
-        <v>1.825</v>
-      </c>
-      <c r="W271">
-        <v>0</v>
-      </c>
-      <c r="X271">
-        <v>0</v>
-      </c>
-      <c r="Y271">
-        <v>0</v>
-      </c>
-      <c r="Z271">
-        <v>0</v>
-      </c>
-      <c r="AA271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:29">
-      <c r="A272" s="1">
-        <v>270</v>
-      </c>
-      <c r="B272">
-        <v>6845526</v>
-      </c>
-      <c r="C272" t="s">
-        <v>28</v>
-      </c>
-      <c r="D272" t="s">
-        <v>28</v>
-      </c>
-      <c r="E272" s="2">
-        <v>45340.375</v>
-      </c>
-      <c r="F272" t="s">
-        <v>30</v>
-      </c>
-      <c r="G272" t="s">
-        <v>29</v>
-      </c>
-      <c r="K272">
-        <v>11</v>
-      </c>
-      <c r="L272">
-        <v>7</v>
-      </c>
-      <c r="M272">
-        <v>1.2</v>
-      </c>
-      <c r="N272">
-        <v>8.5</v>
-      </c>
-      <c r="O272">
-        <v>6.5</v>
-      </c>
-      <c r="P272">
-        <v>1.285</v>
-      </c>
-      <c r="Q272">
-        <v>1.75</v>
-      </c>
-      <c r="R272">
-        <v>1.85</v>
-      </c>
-      <c r="S272">
-        <v>2</v>
-      </c>
-      <c r="T272">
-        <v>3</v>
-      </c>
-      <c r="U272">
-        <v>1.95</v>
-      </c>
-      <c r="V272">
-        <v>1.9</v>
-      </c>
-      <c r="W272">
-        <v>0</v>
-      </c>
-      <c r="X272">
-        <v>0</v>
-      </c>
-      <c r="Y272">
-        <v>0</v>
-      </c>
-      <c r="Z272">
-        <v>0</v>
-      </c>
-      <c r="AA272">
         <v>0</v>
       </c>
     </row>

--- a/Scotland Premiership/Scotland Premiership.xlsx
+++ b/Scotland Premiership/Scotland Premiership.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -109,13 +109,13 @@
     <t>Kilmarnock</t>
   </si>
   <si>
+    <t>Aberdeen</t>
+  </si>
+  <si>
     <t>Hearts</t>
   </si>
   <si>
     <t>St Johnstone</t>
-  </si>
-  <si>
-    <t>Aberdeen</t>
   </si>
   <si>
     <t>Livingston</t>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC278"/>
+  <dimension ref="A1:AC284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -785,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5169636</v>
+        <v>5169635</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -800,73 +800,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L4">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M4">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N4">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="O4">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P4">
-        <v>3</v>
+        <v>5.75</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R4">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S4">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T4">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W4">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB4">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -874,7 +874,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5169330</v>
+        <v>5169636</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -889,73 +889,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>3.3</v>
+      </c>
+      <c r="M5">
+        <v>3.5</v>
+      </c>
+      <c r="N5">
         <v>2.25</v>
       </c>
-      <c r="L5">
-        <v>3.25</v>
-      </c>
-      <c r="M5">
-        <v>3</v>
-      </c>
-      <c r="N5">
-        <v>2.4</v>
-      </c>
       <c r="O5">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P5">
         <v>3</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S5">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T5">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V5">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA5">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC5">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5169635</v>
+        <v>5169330</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -978,73 +978,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K6">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L6">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N6">
-        <v>1.533</v>
+        <v>2.4</v>
       </c>
       <c r="O6">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="P6">
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="Q6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S6">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T6">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U6">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V6">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1156,7 +1156,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1331,10 +1331,10 @@
         <v>44933.5</v>
       </c>
       <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
         <v>33</v>
-      </c>
-      <c r="G10" t="s">
-        <v>32</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         <v>44939.69791666666</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
         <v>35</v>
@@ -1764,7 +1764,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5169640</v>
+        <v>5169335</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1776,49 +1776,49 @@
         <v>44940.5</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H15">
         <v>2</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K15">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="L15">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M15">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="N15">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="O15">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P15">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S15">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T15">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U15">
         <v>1.95</v>
@@ -1830,16 +1830,16 @@
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB15">
         <v>0.95</v>
@@ -1853,7 +1853,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5169335</v>
+        <v>5169640</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1865,49 +1865,49 @@
         <v>44940.5</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K16">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="L16">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="N16">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="O16">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P16">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R16">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S16">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T16">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U16">
         <v>1.95</v>
@@ -1919,16 +1919,16 @@
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y16">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB16">
         <v>0.95</v>
@@ -2031,7 +2031,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5169334</v>
+        <v>5169639</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2043,13 +2043,13 @@
         <v>44944.69791666666</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2058,44 +2058,44 @@
         <v>43</v>
       </c>
       <c r="K18">
-        <v>1.111</v>
+        <v>2.375</v>
       </c>
       <c r="L18">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="M18">
-        <v>21</v>
+        <v>2.9</v>
       </c>
       <c r="N18">
+        <v>2.1</v>
+      </c>
+      <c r="O18">
+        <v>3.5</v>
+      </c>
+      <c r="P18">
+        <v>3.5</v>
+      </c>
+      <c r="Q18">
+        <v>-0.25</v>
+      </c>
+      <c r="R18">
+        <v>1.8</v>
+      </c>
+      <c r="S18">
+        <v>2.05</v>
+      </c>
+      <c r="T18">
+        <v>2.75</v>
+      </c>
+      <c r="U18">
+        <v>1.925</v>
+      </c>
+      <c r="V18">
+        <v>1.925</v>
+      </c>
+      <c r="W18">
         <v>1.1</v>
       </c>
-      <c r="O18">
-        <v>9</v>
-      </c>
-      <c r="P18">
-        <v>26</v>
-      </c>
-      <c r="Q18">
-        <v>-2.25</v>
-      </c>
-      <c r="R18">
-        <v>1.85</v>
-      </c>
-      <c r="S18">
-        <v>2</v>
-      </c>
-      <c r="T18">
-        <v>3.5</v>
-      </c>
-      <c r="U18">
-        <v>2</v>
-      </c>
-      <c r="V18">
-        <v>1.85</v>
-      </c>
-      <c r="W18">
-        <v>0.1000000000000001</v>
-      </c>
       <c r="X18">
         <v>-1</v>
       </c>
@@ -2103,13 +2103,13 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA18">
         <v>-1</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2120,7 +2120,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5169639</v>
+        <v>5169334</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2132,13 +2132,13 @@
         <v>44944.69791666666</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2147,43 +2147,43 @@
         <v>43</v>
       </c>
       <c r="K19">
-        <v>2.375</v>
+        <v>1.111</v>
       </c>
       <c r="L19">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="M19">
-        <v>2.9</v>
+        <v>21</v>
       </c>
       <c r="N19">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="O19">
+        <v>9</v>
+      </c>
+      <c r="P19">
+        <v>26</v>
+      </c>
+      <c r="Q19">
+        <v>-2.25</v>
+      </c>
+      <c r="R19">
+        <v>1.85</v>
+      </c>
+      <c r="S19">
+        <v>2</v>
+      </c>
+      <c r="T19">
         <v>3.5</v>
       </c>
-      <c r="P19">
-        <v>3.5</v>
-      </c>
-      <c r="Q19">
-        <v>-0.25</v>
-      </c>
-      <c r="R19">
-        <v>1.8</v>
-      </c>
-      <c r="S19">
-        <v>2.05</v>
-      </c>
-      <c r="T19">
-        <v>2.75</v>
-      </c>
       <c r="U19">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
-        <v>1.1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X19">
         <v>-1</v>
@@ -2192,13 +2192,13 @@
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA19">
         <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2313,7 +2313,7 @@
         <v>40</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H21">
         <v>6</v>
@@ -2491,7 +2491,7 @@
         <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -2669,7 +2669,7 @@
         <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -3025,7 +3025,7 @@
         <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3111,7 +3111,7 @@
         <v>44958.69791666666</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
         <v>29</v>
@@ -3289,7 +3289,7 @@
         <v>44958.69791666666</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
         <v>35</v>
@@ -3378,7 +3378,7 @@
         <v>44961.5</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
         <v>38</v>
@@ -3645,7 +3645,7 @@
         <v>44961.5</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
         <v>39</v>
@@ -3823,7 +3823,7 @@
         <v>44962.375</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G38" t="s">
         <v>37</v>
@@ -3989,7 +3989,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5169651</v>
+        <v>5169650</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4001,13 +4001,13 @@
         <v>44975.5</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G40" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -4016,43 +4016,43 @@
         <v>43</v>
       </c>
       <c r="K40">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="L40">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M40">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N40">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O40">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P40">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R40">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S40">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T40">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U40">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V40">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W40">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4061,16 +4061,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC40">
-        <v>1.05</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4078,7 +4078,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5169650</v>
+        <v>5169651</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4090,13 +4090,13 @@
         <v>44975.5</v>
       </c>
       <c r="F41" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -4105,43 +4105,43 @@
         <v>43</v>
       </c>
       <c r="K41">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="L41">
+        <v>3.3</v>
+      </c>
+      <c r="M41">
+        <v>4.2</v>
+      </c>
+      <c r="N41">
+        <v>2.1</v>
+      </c>
+      <c r="O41">
+        <v>3.1</v>
+      </c>
+      <c r="P41">
         <v>3.8</v>
       </c>
-      <c r="M41">
-        <v>4.5</v>
-      </c>
-      <c r="N41">
-        <v>1.85</v>
-      </c>
-      <c r="O41">
-        <v>3.6</v>
-      </c>
-      <c r="P41">
-        <v>4</v>
-      </c>
       <c r="Q41">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R41">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S41">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T41">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U41">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V41">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W41">
-        <v>0.8500000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="X41">
         <v>-1</v>
@@ -4150,16 +4150,16 @@
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA41">
         <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>0.5125</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4182,7 +4182,7 @@
         <v>39</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4360,7 +4360,7 @@
         <v>37</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H44">
         <v>4</v>
@@ -4449,7 +4449,7 @@
         <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -4535,7 +4535,7 @@
         <v>44982.5</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
         <v>35</v>
@@ -4624,7 +4624,7 @@
         <v>44982.5</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
         <v>34</v>
@@ -4891,10 +4891,10 @@
         <v>44989.5</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H50">
         <v>3</v>
@@ -5250,7 +5250,7 @@
         <v>39</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5413,7 +5413,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6176752</v>
+        <v>5169872</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5425,76 +5425,76 @@
         <v>44993.69791666666</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K56">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="L56">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="M56">
-        <v>3.75</v>
+        <v>13</v>
       </c>
       <c r="N56">
-        <v>2.3</v>
+        <v>1.125</v>
       </c>
       <c r="O56">
-        <v>3.2</v>
+        <v>11</v>
       </c>
       <c r="P56">
-        <v>3.3</v>
+        <v>15</v>
       </c>
       <c r="Q56">
-        <v>-0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R56">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S56">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T56">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U56">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V56">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X56">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
       <c r="AB56">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC56">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5502,7 +5502,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5169872</v>
+        <v>5169873</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5514,73 +5514,73 @@
         <v>44993.69791666666</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I57">
+        <v>4</v>
+      </c>
+      <c r="J57" t="s">
+        <v>44</v>
+      </c>
+      <c r="K57">
+        <v>6</v>
+      </c>
+      <c r="L57">
+        <v>4.2</v>
+      </c>
+      <c r="M57">
+        <v>1.533</v>
+      </c>
+      <c r="N57">
+        <v>5.25</v>
+      </c>
+      <c r="O57">
+        <v>4.2</v>
+      </c>
+      <c r="P57">
+        <v>1.6</v>
+      </c>
+      <c r="Q57">
         <v>1</v>
       </c>
-      <c r="J57" t="s">
-        <v>43</v>
-      </c>
-      <c r="K57">
-        <v>1.2</v>
-      </c>
-      <c r="L57">
-        <v>6.5</v>
-      </c>
-      <c r="M57">
-        <v>13</v>
-      </c>
-      <c r="N57">
-        <v>1.125</v>
-      </c>
-      <c r="O57">
-        <v>11</v>
-      </c>
-      <c r="P57">
-        <v>15</v>
-      </c>
-      <c r="Q57">
-        <v>-2.5</v>
-      </c>
       <c r="R57">
+        <v>1.8</v>
+      </c>
+      <c r="S57">
+        <v>2.05</v>
+      </c>
+      <c r="T57">
+        <v>2.75</v>
+      </c>
+      <c r="U57">
         <v>2.025</v>
       </c>
-      <c r="S57">
+      <c r="V57">
         <v>1.825</v>
       </c>
-      <c r="T57">
-        <v>3.5</v>
-      </c>
-      <c r="U57">
-        <v>1.85</v>
-      </c>
-      <c r="V57">
-        <v>2</v>
-      </c>
       <c r="W57">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z57">
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB57">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC57">
         <v>-1</v>
@@ -5591,7 +5591,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5169873</v>
+        <v>6176752</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5603,49 +5603,49 @@
         <v>44993.69791666666</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G58" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H58">
         <v>1</v>
       </c>
       <c r="I58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K58">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="L58">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="M58">
-        <v>1.533</v>
+        <v>3.75</v>
       </c>
       <c r="N58">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="O58">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P58">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q58">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R58">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S58">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T58">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U58">
         <v>2.025</v>
@@ -5657,22 +5657,22 @@
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y58">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA58">
-        <v>1.05</v>
+        <v>0.4375</v>
       </c>
       <c r="AB58">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5769,7 +5769,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5305243</v>
+        <v>5169883</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5781,10 +5781,10 @@
         <v>45003.5</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G60" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5796,61 +5796,61 @@
         <v>42</v>
       </c>
       <c r="K60">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L60">
         <v>3.25</v>
       </c>
       <c r="M60">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="N60">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="O60">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P60">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q60">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R60">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S60">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T60">
         <v>2.25</v>
       </c>
       <c r="U60">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="V60">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W60">
         <v>-1</v>
       </c>
       <c r="X60">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA60">
-        <v>0.5125</v>
+        <v>-0</v>
       </c>
       <c r="AB60">
         <v>-0.5</v>
       </c>
       <c r="AC60">
-        <v>0.3875</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5858,7 +5858,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5169883</v>
+        <v>5169882</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5870,76 +5870,76 @@
         <v>45003.5</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I61">
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K61">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="L61">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="M61">
-        <v>2.8</v>
+        <v>15</v>
       </c>
       <c r="N61">
-        <v>2.7</v>
+        <v>1.111</v>
       </c>
       <c r="O61">
-        <v>3.25</v>
+        <v>10</v>
       </c>
       <c r="P61">
-        <v>2.625</v>
+        <v>19</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="R61">
+        <v>1.9</v>
+      </c>
+      <c r="S61">
         <v>1.95</v>
       </c>
-      <c r="S61">
-        <v>1.9</v>
-      </c>
       <c r="T61">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U61">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V61">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="X61">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB61">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC61">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5947,7 +5947,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5169882</v>
+        <v>5169881</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5959,49 +5959,49 @@
         <v>45003.5</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G62" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H62">
         <v>3</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
         <v>43</v>
       </c>
       <c r="K62">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="L62">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="M62">
-        <v>15</v>
+        <v>2.75</v>
       </c>
       <c r="N62">
-        <v>1.111</v>
+        <v>2.25</v>
       </c>
       <c r="O62">
-        <v>10</v>
+        <v>3.4</v>
       </c>
       <c r="P62">
-        <v>19</v>
+        <v>3.2</v>
       </c>
       <c r="Q62">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S62">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T62">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U62">
         <v>1.85</v>
@@ -6010,7 +6010,7 @@
         <v>2</v>
       </c>
       <c r="W62">
-        <v>0.111</v>
+        <v>1.25</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6019,10 +6019,10 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA62">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
         <v>0.8500000000000001</v>
@@ -6036,7 +6036,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5169881</v>
+        <v>5305243</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6048,76 +6048,76 @@
         <v>45003.5</v>
       </c>
       <c r="F63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G63" t="s">
         <v>33</v>
       </c>
-      <c r="G63" t="s">
-        <v>31</v>
-      </c>
       <c r="H63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K63">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L63">
+        <v>3.25</v>
+      </c>
+      <c r="M63">
+        <v>3.2</v>
+      </c>
+      <c r="N63">
+        <v>2.15</v>
+      </c>
+      <c r="O63">
         <v>3.3</v>
       </c>
-      <c r="M63">
-        <v>2.75</v>
-      </c>
-      <c r="N63">
-        <v>2.25</v>
-      </c>
-      <c r="O63">
-        <v>3.4</v>
-      </c>
       <c r="P63">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q63">
         <v>-0.25</v>
       </c>
       <c r="R63">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S63">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U63">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="V63">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W63">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB63">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6214,7 +6214,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>5169887</v>
+        <v>5169885</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6226,76 +6226,76 @@
         <v>45017.45833333334</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K65">
-        <v>1.142</v>
+        <v>1.9</v>
       </c>
       <c r="L65">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="M65">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="N65">
-        <v>1.111</v>
+        <v>1.85</v>
       </c>
       <c r="O65">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="P65">
-        <v>15</v>
+        <v>4.5</v>
       </c>
       <c r="Q65">
-        <v>-2.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R65">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S65">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T65">
+        <v>2.25</v>
+      </c>
+      <c r="U65">
+        <v>1.85</v>
+      </c>
+      <c r="V65">
+        <v>2</v>
+      </c>
+      <c r="W65">
+        <v>-1</v>
+      </c>
+      <c r="X65">
+        <v>-1</v>
+      </c>
+      <c r="Y65">
         <v>3.5</v>
       </c>
-      <c r="U65">
-        <v>1.9</v>
-      </c>
-      <c r="V65">
-        <v>1.95</v>
-      </c>
-      <c r="W65">
-        <v>0.111</v>
-      </c>
-      <c r="X65">
-        <v>-1</v>
-      </c>
-      <c r="Y65">
-        <v>-1</v>
-      </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC65">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6303,7 +6303,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5169885</v>
+        <v>5169886</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6315,73 +6315,73 @@
         <v>45017.45833333334</v>
       </c>
       <c r="F66" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H66">
+        <v>2</v>
+      </c>
+      <c r="I66">
         <v>1</v>
       </c>
-      <c r="I66">
-        <v>3</v>
-      </c>
       <c r="J66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K66">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="L66">
         <v>3.5</v>
       </c>
       <c r="M66">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N66">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="O66">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P66">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q66">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R66">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S66">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T66">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U66">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V66">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA66">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6392,7 +6392,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5169886</v>
+        <v>5169887</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6404,58 +6404,58 @@
         <v>45017.45833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H67">
         <v>2</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
         <v>43</v>
       </c>
       <c r="K67">
-        <v>3.1</v>
+        <v>1.142</v>
       </c>
       <c r="L67">
+        <v>7</v>
+      </c>
+      <c r="M67">
+        <v>15</v>
+      </c>
+      <c r="N67">
+        <v>1.111</v>
+      </c>
+      <c r="O67">
+        <v>11</v>
+      </c>
+      <c r="P67">
+        <v>15</v>
+      </c>
+      <c r="Q67">
+        <v>-2.5</v>
+      </c>
+      <c r="R67">
+        <v>1.975</v>
+      </c>
+      <c r="S67">
+        <v>1.875</v>
+      </c>
+      <c r="T67">
         <v>3.5</v>
       </c>
-      <c r="M67">
-        <v>2.2</v>
-      </c>
-      <c r="N67">
-        <v>2.6</v>
-      </c>
-      <c r="O67">
-        <v>3.4</v>
-      </c>
-      <c r="P67">
-        <v>2.7</v>
-      </c>
-      <c r="Q67">
-        <v>0</v>
-      </c>
-      <c r="R67">
+      <c r="U67">
         <v>1.9</v>
       </c>
-      <c r="S67">
+      <c r="V67">
         <v>1.95</v>
       </c>
-      <c r="T67">
-        <v>2.5</v>
-      </c>
-      <c r="U67">
-        <v>1.95</v>
-      </c>
-      <c r="V67">
-        <v>1.9</v>
-      </c>
       <c r="W67">
-        <v>1.6</v>
+        <v>0.111</v>
       </c>
       <c r="X67">
         <v>-1</v>
@@ -6464,16 +6464,16 @@
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB67">
+        <v>-1</v>
+      </c>
+      <c r="AC67">
         <v>0.95</v>
-      </c>
-      <c r="AC67">
-        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6481,7 +6481,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5355082</v>
+        <v>5355083</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6493,76 +6493,76 @@
         <v>45017.45833333334</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K68">
-        <v>2.95</v>
+        <v>2.25</v>
       </c>
       <c r="L68">
         <v>3.2</v>
       </c>
       <c r="M68">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="N68">
+        <v>2.05</v>
+      </c>
+      <c r="O68">
         <v>3.2</v>
       </c>
-      <c r="O68">
-        <v>3.25</v>
-      </c>
       <c r="P68">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q68">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R68">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S68">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T68">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U68">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V68">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA68">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC68">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6570,7 +6570,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5355083</v>
+        <v>5355082</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6582,76 +6582,76 @@
         <v>45017.45833333334</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K69">
-        <v>2.25</v>
+        <v>2.95</v>
       </c>
       <c r="L69">
         <v>3.2</v>
       </c>
       <c r="M69">
+        <v>2.4</v>
+      </c>
+      <c r="N69">
         <v>3.2</v>
       </c>
-      <c r="N69">
-        <v>2.05</v>
-      </c>
       <c r="O69">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P69">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q69">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R69">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S69">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T69">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V69">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W69">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z69">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB69">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6938,7 +6938,7 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G73" t="s">
         <v>35</v>
@@ -7027,7 +7027,7 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
         <v>30</v>
@@ -7116,7 +7116,7 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G75" t="s">
         <v>36</v>
@@ -7297,7 +7297,7 @@
         <v>36</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -7386,7 +7386,7 @@
         <v>40</v>
       </c>
       <c r="G78" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -7475,7 +7475,7 @@
         <v>34</v>
       </c>
       <c r="G79" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H79">
         <v>2</v>
@@ -7828,7 +7828,7 @@
         <v>45038.35416666666</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
         <v>36</v>
@@ -7905,7 +7905,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5498114</v>
+        <v>5466902</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7917,40 +7917,40 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F84" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K84">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L84">
+        <v>3.4</v>
+      </c>
+      <c r="M84">
+        <v>4</v>
+      </c>
+      <c r="N84">
+        <v>2.2</v>
+      </c>
+      <c r="O84">
         <v>3.2</v>
       </c>
-      <c r="M84">
-        <v>2.8</v>
-      </c>
-      <c r="N84">
-        <v>2.7</v>
-      </c>
-      <c r="O84">
-        <v>3.3</v>
-      </c>
       <c r="P84">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q84">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
         <v>1.9</v>
@@ -7959,34 +7959,34 @@
         <v>1.95</v>
       </c>
       <c r="T84">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V84">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W84">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z84">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB84">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC84">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7994,7 +7994,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5498624</v>
+        <v>5498114</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8006,76 +8006,76 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G85" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K85">
-        <v>1.125</v>
+        <v>2.5</v>
       </c>
       <c r="L85">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="M85">
-        <v>19</v>
+        <v>2.8</v>
       </c>
       <c r="N85">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="O85">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="P85">
-        <v>15</v>
+        <v>2.75</v>
       </c>
       <c r="Q85">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="R85">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S85">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T85">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U85">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V85">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X85">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA85">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC85">
-        <v>1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8083,7 +8083,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5466902</v>
+        <v>5498624</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8095,49 +8095,49 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G86" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K86">
-        <v>1.909</v>
+        <v>1.125</v>
       </c>
       <c r="L86">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="M86">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="N86">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="O86">
-        <v>3.2</v>
+        <v>13</v>
       </c>
       <c r="P86">
-        <v>3.6</v>
+        <v>15</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R86">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S86">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T86">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="U86">
         <v>1.85</v>
@@ -8149,22 +8149,22 @@
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="Y86">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB86">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8184,7 +8184,7 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G87" t="s">
         <v>40</v>
@@ -8273,7 +8273,7 @@
         <v>45039.52083333334</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
         <v>29</v>
@@ -8439,7 +8439,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6575424</v>
+        <v>6575425</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8451,10 +8451,10 @@
         <v>45052.45833333334</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G90" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -8466,34 +8466,34 @@
         <v>43</v>
       </c>
       <c r="K90">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L90">
         <v>3.25</v>
       </c>
       <c r="M90">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N90">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O90">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P90">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q90">
         <v>-0.25</v>
       </c>
       <c r="R90">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S90">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T90">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U90">
         <v>2.025</v>
@@ -8502,7 +8502,7 @@
         <v>1.825</v>
       </c>
       <c r="W90">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8511,16 +8511,16 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA90">
         <v>-1</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC90">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8540,7 +8540,7 @@
         <v>45052.45833333334</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G91" t="s">
         <v>39</v>
@@ -8617,7 +8617,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6575425</v>
+        <v>6575424</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8629,10 +8629,10 @@
         <v>45052.45833333334</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -8644,34 +8644,34 @@
         <v>43</v>
       </c>
       <c r="K92">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="L92">
         <v>3.25</v>
       </c>
       <c r="M92">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N92">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O92">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P92">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q92">
         <v>-0.25</v>
       </c>
       <c r="R92">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S92">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T92">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U92">
         <v>2.025</v>
@@ -8680,7 +8680,7 @@
         <v>1.825</v>
       </c>
       <c r="W92">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8689,16 +8689,16 @@
         <v>-1</v>
       </c>
       <c r="Z92">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA92">
+        <v>-1</v>
+      </c>
+      <c r="AB92">
+        <v>-1</v>
+      </c>
+      <c r="AC92">
         <v>0.825</v>
-      </c>
-      <c r="AA92">
-        <v>-1</v>
-      </c>
-      <c r="AB92">
-        <v>-0.5</v>
-      </c>
-      <c r="AC92">
-        <v>0.4125</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8718,7 +8718,7 @@
         <v>45053.42708333334</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G93" t="s">
         <v>37</v>
@@ -8810,7 +8810,7 @@
         <v>29</v>
       </c>
       <c r="G94" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8985,7 +8985,7 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
         <v>40</v>
@@ -9074,7 +9074,7 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G97" t="s">
         <v>38</v>
@@ -9255,7 +9255,7 @@
         <v>35</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9430,10 +9430,10 @@
         <v>45066.35416666666</v>
       </c>
       <c r="F101" t="s">
+        <v>32</v>
+      </c>
+      <c r="G101" t="s">
         <v>31</v>
-      </c>
-      <c r="G101" t="s">
-        <v>33</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -9507,7 +9507,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6576084</v>
+        <v>6576086</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9519,76 +9519,76 @@
         <v>45066.45833333334</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G102" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K102">
         <v>2.05</v>
       </c>
       <c r="L102">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M102">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N102">
         <v>1.95</v>
       </c>
       <c r="O102">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P102">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q102">
         <v>-0.5</v>
       </c>
       <c r="R102">
+        <v>1.95</v>
+      </c>
+      <c r="S102">
+        <v>1.9</v>
+      </c>
+      <c r="T102">
+        <v>2.5</v>
+      </c>
+      <c r="U102">
         <v>1.925</v>
       </c>
-      <c r="S102">
+      <c r="V102">
         <v>1.925</v>
       </c>
-      <c r="T102">
-        <v>2.25</v>
-      </c>
-      <c r="U102">
-        <v>2</v>
-      </c>
-      <c r="V102">
-        <v>1.85</v>
-      </c>
       <c r="W102">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA102">
+        <v>-1</v>
+      </c>
+      <c r="AB102">
+        <v>-1</v>
+      </c>
+      <c r="AC102">
         <v>0.925</v>
-      </c>
-      <c r="AB102">
-        <v>-1</v>
-      </c>
-      <c r="AC102">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9596,7 +9596,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6576085</v>
+        <v>6576084</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9608,76 +9608,76 @@
         <v>45066.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K103">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="L103">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M103">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N103">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="O103">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P103">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="Q103">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R103">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S103">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T103">
         <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V103">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W103">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z103">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB103">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9685,7 +9685,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6576086</v>
+        <v>6576085</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9697,58 +9697,58 @@
         <v>45066.45833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H104">
+        <v>2</v>
+      </c>
+      <c r="I104">
         <v>1</v>
-      </c>
-      <c r="I104">
-        <v>0</v>
       </c>
       <c r="J104" t="s">
         <v>43</v>
       </c>
       <c r="K104">
+        <v>2.35</v>
+      </c>
+      <c r="L104">
+        <v>3.1</v>
+      </c>
+      <c r="M104">
+        <v>3.1</v>
+      </c>
+      <c r="N104">
+        <v>2.55</v>
+      </c>
+      <c r="O104">
+        <v>3.2</v>
+      </c>
+      <c r="P104">
+        <v>2.875</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
+      </c>
+      <c r="R104">
+        <v>1.8</v>
+      </c>
+      <c r="S104">
         <v>2.05</v>
       </c>
-      <c r="L104">
-        <v>3.3</v>
-      </c>
-      <c r="M104">
-        <v>3.5</v>
-      </c>
-      <c r="N104">
+      <c r="T104">
+        <v>2.25</v>
+      </c>
+      <c r="U104">
+        <v>1.9</v>
+      </c>
+      <c r="V104">
         <v>1.95</v>
       </c>
-      <c r="O104">
-        <v>3.6</v>
-      </c>
-      <c r="P104">
-        <v>3.8</v>
-      </c>
-      <c r="Q104">
-        <v>-0.5</v>
-      </c>
-      <c r="R104">
-        <v>1.95</v>
-      </c>
-      <c r="S104">
-        <v>1.9</v>
-      </c>
-      <c r="T104">
-        <v>2.5</v>
-      </c>
-      <c r="U104">
-        <v>1.925</v>
-      </c>
-      <c r="V104">
-        <v>1.925</v>
-      </c>
       <c r="W104">
-        <v>0.95</v>
+        <v>1.55</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9757,16 +9757,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA104">
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC104">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9952,7 +9952,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6576089</v>
+        <v>6576076</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9964,73 +9964,73 @@
         <v>45070.65625</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G107" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H107">
+        <v>4</v>
+      </c>
+      <c r="I107">
+        <v>2</v>
+      </c>
+      <c r="J107" t="s">
+        <v>43</v>
+      </c>
+      <c r="K107">
+        <v>6.5</v>
+      </c>
+      <c r="L107">
+        <v>5</v>
+      </c>
+      <c r="M107">
+        <v>1.4</v>
+      </c>
+      <c r="N107">
+        <v>5</v>
+      </c>
+      <c r="O107">
+        <v>4.2</v>
+      </c>
+      <c r="P107">
+        <v>1.666</v>
+      </c>
+      <c r="Q107">
+        <v>0.75</v>
+      </c>
+      <c r="R107">
+        <v>2.05</v>
+      </c>
+      <c r="S107">
+        <v>1.8</v>
+      </c>
+      <c r="T107">
         <v>3</v>
       </c>
-      <c r="I107">
-        <v>3</v>
-      </c>
-      <c r="J107" t="s">
-        <v>42</v>
-      </c>
-      <c r="K107">
-        <v>2.3</v>
-      </c>
-      <c r="L107">
-        <v>3</v>
-      </c>
-      <c r="M107">
-        <v>3.2</v>
-      </c>
-      <c r="N107">
-        <v>1.95</v>
-      </c>
-      <c r="O107">
-        <v>3.4</v>
-      </c>
-      <c r="P107">
+      <c r="U107">
+        <v>2.025</v>
+      </c>
+      <c r="V107">
+        <v>1.825</v>
+      </c>
+      <c r="W107">
         <v>4</v>
       </c>
-      <c r="Q107">
-        <v>-0.5</v>
-      </c>
-      <c r="R107">
-        <v>1.925</v>
-      </c>
-      <c r="S107">
-        <v>1.925</v>
-      </c>
-      <c r="T107">
-        <v>2.25</v>
-      </c>
-      <c r="U107">
-        <v>1.95</v>
-      </c>
-      <c r="V107">
-        <v>1.9</v>
-      </c>
-      <c r="W107">
-        <v>-1</v>
-      </c>
       <c r="X107">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA107">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC107">
         <v>-1</v>
@@ -10041,7 +10041,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6576077</v>
+        <v>6576075</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10053,73 +10053,73 @@
         <v>45070.65625</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K108">
-        <v>1.363</v>
+        <v>1.833</v>
       </c>
       <c r="L108">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="M108">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="N108">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="O108">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P108">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q108">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R108">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S108">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T108">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U108">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V108">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X108">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA108">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AC108">
         <v>-1</v>
@@ -10308,7 +10308,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6576075</v>
+        <v>6576077</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10320,73 +10320,73 @@
         <v>45070.65625</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G111" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K111">
-        <v>1.833</v>
+        <v>1.363</v>
       </c>
       <c r="L111">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="M111">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="N111">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="O111">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P111">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q111">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R111">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S111">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T111">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U111">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V111">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W111">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X111">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y111">
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB111">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10397,7 +10397,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6576076</v>
+        <v>6576089</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10409,73 +10409,73 @@
         <v>45070.65625</v>
       </c>
       <c r="F112" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H112">
+        <v>3</v>
+      </c>
+      <c r="I112">
+        <v>3</v>
+      </c>
+      <c r="J112" t="s">
+        <v>42</v>
+      </c>
+      <c r="K112">
+        <v>2.3</v>
+      </c>
+      <c r="L112">
+        <v>3</v>
+      </c>
+      <c r="M112">
+        <v>3.2</v>
+      </c>
+      <c r="N112">
+        <v>1.95</v>
+      </c>
+      <c r="O112">
+        <v>3.4</v>
+      </c>
+      <c r="P112">
         <v>4</v>
       </c>
-      <c r="I112">
-        <v>2</v>
-      </c>
-      <c r="J112" t="s">
-        <v>43</v>
-      </c>
-      <c r="K112">
-        <v>6.5</v>
-      </c>
-      <c r="L112">
-        <v>5</v>
-      </c>
-      <c r="M112">
-        <v>1.4</v>
-      </c>
-      <c r="N112">
-        <v>5</v>
-      </c>
-      <c r="O112">
-        <v>4.2</v>
-      </c>
-      <c r="P112">
-        <v>1.666</v>
-      </c>
       <c r="Q112">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R112">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S112">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T112">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U112">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V112">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W112">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB112">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10498,7 +10498,7 @@
         <v>45073.35416666666</v>
       </c>
       <c r="F113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G113" t="s">
         <v>40</v>
@@ -10590,7 +10590,7 @@
         <v>37</v>
       </c>
       <c r="G114" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H114">
         <v>5</v>
@@ -10765,7 +10765,7 @@
         <v>45074.45833333334</v>
       </c>
       <c r="F116" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G116" t="s">
         <v>34</v>
@@ -10842,7 +10842,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6576091</v>
+        <v>6576090</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10854,58 +10854,58 @@
         <v>45074.45833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G117" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H117">
         <v>3</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
         <v>43</v>
       </c>
       <c r="K117">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L117">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M117">
         <v>3.6</v>
       </c>
       <c r="N117">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O117">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P117">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q117">
         <v>-0.5</v>
       </c>
       <c r="R117">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S117">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T117">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U117">
+        <v>1.975</v>
+      </c>
+      <c r="V117">
         <v>1.875</v>
       </c>
-      <c r="V117">
-        <v>1.975</v>
-      </c>
       <c r="W117">
-        <v>0.8</v>
+        <v>0.909</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -10914,13 +10914,13 @@
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA117">
         <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10931,7 +10931,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6576090</v>
+        <v>6576091</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10943,58 +10943,58 @@
         <v>45074.45833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G118" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H118">
         <v>3</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
         <v>43</v>
       </c>
       <c r="K118">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L118">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M118">
         <v>3.6</v>
       </c>
       <c r="N118">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O118">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P118">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q118">
         <v>-0.5</v>
       </c>
       <c r="R118">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S118">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T118">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U118">
+        <v>1.875</v>
+      </c>
+      <c r="V118">
         <v>1.975</v>
       </c>
-      <c r="V118">
-        <v>1.875</v>
-      </c>
       <c r="W118">
-        <v>0.909</v>
+        <v>0.8</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11003,13 +11003,13 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA118">
         <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11124,7 +11124,7 @@
         <v>34</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -11210,10 +11210,10 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F121" t="s">
+        <v>33</v>
+      </c>
+      <c r="G121" t="s">
         <v>32</v>
-      </c>
-      <c r="G121" t="s">
-        <v>31</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -11658,7 +11658,7 @@
         <v>36</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -11833,7 +11833,7 @@
         <v>45151.33333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G128" t="s">
         <v>37</v>
@@ -11910,7 +11910,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7026738</v>
+        <v>7026739</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11922,76 +11922,76 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G129" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K129">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L129">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M129">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="N129">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="O129">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P129">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q129">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R129">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S129">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T129">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U129">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V129">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X129">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA129">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC129">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11999,7 +11999,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7026739</v>
+        <v>7026738</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12011,76 +12011,76 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F130" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G130" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K130">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L130">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M130">
+        <v>4</v>
+      </c>
+      <c r="N130">
+        <v>1.909</v>
+      </c>
+      <c r="O130">
+        <v>3.4</v>
+      </c>
+      <c r="P130">
+        <v>4.2</v>
+      </c>
+      <c r="Q130">
+        <v>-0.5</v>
+      </c>
+      <c r="R130">
+        <v>1.875</v>
+      </c>
+      <c r="S130">
+        <v>1.975</v>
+      </c>
+      <c r="T130">
+        <v>2.5</v>
+      </c>
+      <c r="U130">
+        <v>1.875</v>
+      </c>
+      <c r="V130">
+        <v>1.975</v>
+      </c>
+      <c r="W130">
+        <v>-1</v>
+      </c>
+      <c r="X130">
         <v>2.4</v>
       </c>
-      <c r="N130">
-        <v>2.7</v>
-      </c>
-      <c r="O130">
-        <v>3.2</v>
-      </c>
-      <c r="P130">
-        <v>2.625</v>
-      </c>
-      <c r="Q130">
-        <v>0</v>
-      </c>
-      <c r="R130">
-        <v>1.95</v>
-      </c>
-      <c r="S130">
-        <v>1.9</v>
-      </c>
-      <c r="T130">
-        <v>2.25</v>
-      </c>
-      <c r="U130">
-        <v>1.825</v>
-      </c>
-      <c r="V130">
-        <v>2.025</v>
-      </c>
-      <c r="W130">
-        <v>1.7</v>
-      </c>
-      <c r="X130">
-        <v>-1</v>
-      </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB130">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>37</v>
       </c>
       <c r="G132" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12459,7 +12459,7 @@
         <v>35</v>
       </c>
       <c r="G135" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12548,7 +12548,7 @@
         <v>41</v>
       </c>
       <c r="G136" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -12634,7 +12634,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G137" t="s">
         <v>41</v>
@@ -12990,7 +12990,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F141" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G141" t="s">
         <v>38</v>
@@ -13079,7 +13079,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G142" t="s">
         <v>40</v>
@@ -13168,7 +13168,7 @@
         <v>45185.35416666666</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G143" t="s">
         <v>29</v>
@@ -13423,7 +13423,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6844727</v>
+        <v>6844728</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13435,76 +13435,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G146" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146">
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K146">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L146">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M146">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="N146">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="O146">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P146">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="Q146">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R146">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S146">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T146">
         <v>2.25</v>
       </c>
       <c r="U146">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V146">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y146">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA146">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC146">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13512,7 +13512,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6844728</v>
+        <v>6844727</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13524,76 +13524,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F147" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147">
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K147">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L147">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M147">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="N147">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="O147">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P147">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q147">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R147">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S147">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T147">
         <v>2.25</v>
       </c>
       <c r="U147">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V147">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z147">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AB147">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13613,10 +13613,10 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F148" t="s">
+        <v>32</v>
+      </c>
+      <c r="G148" t="s">
         <v>31</v>
-      </c>
-      <c r="G148" t="s">
-        <v>33</v>
       </c>
       <c r="H148">
         <v>2</v>
@@ -13883,7 +13883,7 @@
         <v>40</v>
       </c>
       <c r="G151" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H151">
         <v>2</v>
@@ -13972,7 +13972,7 @@
         <v>35</v>
       </c>
       <c r="G152" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14058,7 +14058,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F153" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G153" t="s">
         <v>36</v>
@@ -14328,7 +14328,7 @@
         <v>29</v>
       </c>
       <c r="G156" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -14417,7 +14417,7 @@
         <v>36</v>
       </c>
       <c r="G157" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14503,7 +14503,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F158" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G158" t="s">
         <v>34</v>
@@ -14948,7 +14948,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F163" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G163" t="s">
         <v>40</v>
@@ -15126,10 +15126,10 @@
         <v>45207.45833333334</v>
       </c>
       <c r="F165" t="s">
+        <v>31</v>
+      </c>
+      <c r="G165" t="s">
         <v>33</v>
-      </c>
-      <c r="G165" t="s">
-        <v>32</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -15393,7 +15393,7 @@
         <v>45221.42708333334</v>
       </c>
       <c r="F168" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G168" t="s">
         <v>37</v>
@@ -15574,7 +15574,7 @@
         <v>35</v>
       </c>
       <c r="G170" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H170">
         <v>4</v>
@@ -15648,7 +15648,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6845509</v>
+        <v>6844751</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15660,40 +15660,40 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F171" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G171" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H171">
         <v>0</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J171" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K171">
-        <v>7.5</v>
+        <v>2.6</v>
       </c>
       <c r="L171">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M171">
-        <v>1.363</v>
+        <v>2.7</v>
       </c>
       <c r="N171">
-        <v>5.75</v>
+        <v>2.45</v>
       </c>
       <c r="O171">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P171">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q171">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R171">
         <v>1.825</v>
@@ -15702,7 +15702,7 @@
         <v>2.025</v>
       </c>
       <c r="T171">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U171">
         <v>2.025</v>
@@ -15714,22 +15714,22 @@
         <v>-1</v>
       </c>
       <c r="X171">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y171">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z171">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA171">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC171">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15737,7 +15737,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6844751</v>
+        <v>6844752</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15749,49 +15749,49 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F172" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G172" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J172" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K172">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L172">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M172">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N172">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="O172">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P172">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q172">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R172">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S172">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T172">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U172">
         <v>2.025</v>
@@ -15803,22 +15803,22 @@
         <v>-1</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y172">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
         <v>-1</v>
       </c>
       <c r="AA172">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB172">
         <v>1.025</v>
       </c>
-      <c r="AB172">
-        <v>-0.5</v>
-      </c>
       <c r="AC172">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15826,7 +15826,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6844752</v>
+        <v>6845509</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15838,49 +15838,49 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F173" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G173" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H173">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
         <v>42</v>
       </c>
       <c r="K173">
-        <v>1.909</v>
+        <v>7.5</v>
       </c>
       <c r="L173">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M173">
-        <v>3.75</v>
+        <v>1.363</v>
       </c>
       <c r="N173">
-        <v>1.85</v>
+        <v>5.75</v>
       </c>
       <c r="O173">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P173">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="Q173">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R173">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S173">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T173">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U173">
         <v>2.025</v>
@@ -15892,22 +15892,22 @@
         <v>-1</v>
       </c>
       <c r="X173">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA173">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC173">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15930,7 +15930,7 @@
         <v>30</v>
       </c>
       <c r="G174" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16019,7 +16019,7 @@
         <v>29</v>
       </c>
       <c r="G175" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H175">
         <v>2</v>
@@ -16194,7 +16194,7 @@
         <v>45231.69791666666</v>
       </c>
       <c r="F177" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G177" t="s">
         <v>30</v>
@@ -16283,7 +16283,7 @@
         <v>45231.69791666666</v>
       </c>
       <c r="F178" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G178" t="s">
         <v>34</v>
@@ -16360,7 +16360,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6844754</v>
+        <v>6844757</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16372,76 +16372,76 @@
         <v>45231.69791666666</v>
       </c>
       <c r="F179" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G179" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H179">
         <v>2</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J179" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K179">
-        <v>1.181</v>
+        <v>2.625</v>
       </c>
       <c r="L179">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="M179">
-        <v>13</v>
+        <v>2.7</v>
       </c>
       <c r="N179">
-        <v>1.2</v>
+        <v>2.45</v>
       </c>
       <c r="O179">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="P179">
-        <v>13</v>
+        <v>2.9</v>
       </c>
       <c r="Q179">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R179">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S179">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T179">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U179">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V179">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W179">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z179">
         <v>-1</v>
       </c>
       <c r="AA179">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AB179">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC179">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16449,7 +16449,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6844757</v>
+        <v>6844754</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16461,76 +16461,76 @@
         <v>45231.69791666666</v>
       </c>
       <c r="F180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G180" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H180">
         <v>2</v>
       </c>
       <c r="I180">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K180">
-        <v>2.625</v>
+        <v>1.181</v>
       </c>
       <c r="L180">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="M180">
-        <v>2.7</v>
+        <v>13</v>
       </c>
       <c r="N180">
-        <v>2.45</v>
+        <v>1.2</v>
       </c>
       <c r="O180">
-        <v>3.25</v>
+        <v>7</v>
       </c>
       <c r="P180">
-        <v>2.9</v>
+        <v>13</v>
       </c>
       <c r="Q180">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R180">
+        <v>1.85</v>
+      </c>
+      <c r="S180">
+        <v>2</v>
+      </c>
+      <c r="T180">
+        <v>3</v>
+      </c>
+      <c r="U180">
         <v>1.8</v>
       </c>
-      <c r="S180">
+      <c r="V180">
         <v>2.05</v>
       </c>
-      <c r="T180">
-        <v>2.25</v>
-      </c>
-      <c r="U180">
-        <v>1.9</v>
-      </c>
-      <c r="V180">
-        <v>1.95</v>
-      </c>
       <c r="W180">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
         <v>-1</v>
       </c>
       <c r="AA180">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AB180">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16906,7 +16906,7 @@
         <v>45237.69791666666</v>
       </c>
       <c r="F185" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G185" t="s">
         <v>38</v>
@@ -17084,7 +17084,7 @@
         <v>45241.5</v>
       </c>
       <c r="F187" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G187" t="s">
         <v>36</v>
@@ -17176,7 +17176,7 @@
         <v>38</v>
       </c>
       <c r="G188" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -17532,7 +17532,7 @@
         <v>37</v>
       </c>
       <c r="G192" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H192">
         <v>6</v>
@@ -17606,7 +17606,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6844771</v>
+        <v>6844772</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17618,76 +17618,76 @@
         <v>45255.5</v>
       </c>
       <c r="F193" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G193" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I193">
         <v>0</v>
       </c>
       <c r="J193" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K193">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L193">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M193">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N193">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="O193">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P193">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q193">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R193">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S193">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T193">
         <v>2</v>
       </c>
       <c r="U193">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V193">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W193">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X193">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y193">
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA193">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB193">
         <v>-1</v>
       </c>
       <c r="AC193">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17695,7 +17695,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6844768</v>
+        <v>6844771</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17707,76 +17707,76 @@
         <v>45255.5</v>
       </c>
       <c r="F194" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G194" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J194" t="s">
         <v>42</v>
       </c>
       <c r="K194">
-        <v>1.125</v>
+        <v>2.6</v>
       </c>
       <c r="L194">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="M194">
-        <v>21</v>
+        <v>2.7</v>
       </c>
       <c r="N194">
-        <v>1.166</v>
+        <v>2.875</v>
       </c>
       <c r="O194">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="P194">
-        <v>13</v>
+        <v>2.6</v>
       </c>
       <c r="Q194">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="R194">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S194">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T194">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="U194">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V194">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W194">
         <v>-1</v>
       </c>
       <c r="X194">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="Y194">
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA194">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB194">
         <v>-1</v>
       </c>
       <c r="AC194">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17784,7 +17784,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6844770</v>
+        <v>6844768</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17796,76 +17796,76 @@
         <v>45255.5</v>
       </c>
       <c r="F195" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G195" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H195">
         <v>1</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K195">
-        <v>1.615</v>
+        <v>1.125</v>
       </c>
       <c r="L195">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="M195">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="N195">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="O195">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="P195">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="Q195">
-        <v>-1.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R195">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S195">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T195">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U195">
+        <v>2</v>
+      </c>
+      <c r="V195">
         <v>1.85</v>
       </c>
-      <c r="V195">
-        <v>2</v>
-      </c>
       <c r="W195">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X195">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y195">
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>0.3875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB195">
         <v>-1</v>
       </c>
       <c r="AC195">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17873,7 +17873,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6844769</v>
+        <v>6844770</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17885,76 +17885,76 @@
         <v>45255.5</v>
       </c>
       <c r="F196" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G196" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H196">
         <v>1</v>
       </c>
       <c r="I196">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K196">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="L196">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M196">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="N196">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="O196">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P196">
-        <v>2.4</v>
+        <v>7.5</v>
       </c>
       <c r="Q196">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R196">
+        <v>2.1</v>
+      </c>
+      <c r="S196">
         <v>1.775</v>
-      </c>
-      <c r="S196">
-        <v>2.1</v>
       </c>
       <c r="T196">
         <v>2.5</v>
       </c>
       <c r="U196">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V196">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W196">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA196">
-        <v>1.1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB196">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17962,7 +17962,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6844772</v>
+        <v>6844769</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17974,76 +17974,76 @@
         <v>45255.5</v>
       </c>
       <c r="F197" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G197" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H197">
         <v>1</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J197" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K197">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L197">
         <v>3.3</v>
       </c>
       <c r="M197">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N197">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="O197">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P197">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q197">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R197">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S197">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T197">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U197">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V197">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W197">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z197">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA197">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC197">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18063,7 +18063,7 @@
         <v>45256.375</v>
       </c>
       <c r="F198" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G198" t="s">
         <v>29</v>
@@ -18333,7 +18333,7 @@
         <v>30</v>
       </c>
       <c r="G201" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -18419,7 +18419,7 @@
         <v>45263.375</v>
       </c>
       <c r="F202" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G202" t="s">
         <v>37</v>
@@ -18600,7 +18600,7 @@
         <v>40</v>
       </c>
       <c r="G204" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H204">
         <v>2</v>
@@ -18775,7 +18775,7 @@
         <v>45266.69791666666</v>
       </c>
       <c r="F206" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G206" t="s">
         <v>30</v>
@@ -18852,7 +18852,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6845514</v>
+        <v>6844781</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18864,58 +18864,58 @@
         <v>45266.69791666666</v>
       </c>
       <c r="F207" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G207" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H207">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207" t="s">
         <v>43</v>
       </c>
       <c r="K207">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="L207">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="M207">
-        <v>11</v>
+        <v>2.6</v>
       </c>
       <c r="N207">
-        <v>1.222</v>
+        <v>3</v>
       </c>
       <c r="O207">
-        <v>6.5</v>
+        <v>2.9</v>
       </c>
       <c r="P207">
-        <v>12</v>
+        <v>2.625</v>
       </c>
       <c r="Q207">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R207">
+        <v>1.925</v>
+      </c>
+      <c r="S207">
+        <v>1.925</v>
+      </c>
+      <c r="T207">
+        <v>2</v>
+      </c>
+      <c r="U207">
         <v>2.05</v>
       </c>
-      <c r="S207">
+      <c r="V207">
         <v>1.8</v>
       </c>
-      <c r="T207">
-        <v>3.25</v>
-      </c>
-      <c r="U207">
-        <v>1.875</v>
-      </c>
-      <c r="V207">
-        <v>1.975</v>
-      </c>
       <c r="W207">
-        <v>0.222</v>
+        <v>2</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -18924,16 +18924,16 @@
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA207">
         <v>-1</v>
       </c>
       <c r="AB207">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC207">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18941,7 +18941,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6844781</v>
+        <v>6845514</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18953,58 +18953,58 @@
         <v>45266.69791666666</v>
       </c>
       <c r="F208" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G208" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H208">
+        <v>4</v>
+      </c>
+      <c r="I208">
         <v>1</v>
-      </c>
-      <c r="I208">
-        <v>0</v>
       </c>
       <c r="J208" t="s">
         <v>43</v>
       </c>
       <c r="K208">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="L208">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="M208">
-        <v>2.6</v>
+        <v>11</v>
       </c>
       <c r="N208">
-        <v>3</v>
+        <v>1.222</v>
       </c>
       <c r="O208">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="P208">
-        <v>2.625</v>
+        <v>12</v>
       </c>
       <c r="Q208">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R208">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S208">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T208">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U208">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V208">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W208">
-        <v>2</v>
+        <v>0.222</v>
       </c>
       <c r="X208">
         <v>-1</v>
@@ -19013,16 +19013,16 @@
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA208">
         <v>-1</v>
       </c>
       <c r="AB208">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC208">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19042,7 +19042,7 @@
         <v>45266.70833333334</v>
       </c>
       <c r="F209" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G209" t="s">
         <v>29</v>
@@ -19134,7 +19134,7 @@
         <v>38</v>
       </c>
       <c r="G210" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H210">
         <v>1</v>
@@ -19220,10 +19220,10 @@
         <v>45269.5</v>
       </c>
       <c r="F211" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G211" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H211">
         <v>2</v>
@@ -19668,7 +19668,7 @@
         <v>37</v>
       </c>
       <c r="G216" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -19742,7 +19742,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6844788</v>
+        <v>6844787</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19754,76 +19754,76 @@
         <v>45276.5</v>
       </c>
       <c r="F217" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G217" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H217">
         <v>0</v>
       </c>
       <c r="I217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K217">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="L217">
         <v>3.25</v>
       </c>
       <c r="M217">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="N217">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="O217">
         <v>3.3</v>
       </c>
       <c r="P217">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q217">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R217">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S217">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T217">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U217">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V217">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W217">
         <v>-1</v>
       </c>
       <c r="X217">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y217">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z217">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA217">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB217">
         <v>-1</v>
       </c>
       <c r="AC217">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19831,7 +19831,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6844790</v>
+        <v>6844788</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19843,76 +19843,76 @@
         <v>45276.5</v>
       </c>
       <c r="F218" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G218" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H218">
         <v>0</v>
       </c>
       <c r="I218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K218">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L218">
+        <v>3.25</v>
+      </c>
+      <c r="M218">
+        <v>3.25</v>
+      </c>
+      <c r="N218">
+        <v>2.25</v>
+      </c>
+      <c r="O218">
         <v>3.3</v>
       </c>
-      <c r="M218">
-        <v>3.75</v>
-      </c>
-      <c r="N218">
-        <v>1.95</v>
-      </c>
-      <c r="O218">
-        <v>3.4</v>
-      </c>
       <c r="P218">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q218">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R218">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S218">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T218">
         <v>2.25</v>
       </c>
       <c r="U218">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V218">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W218">
         <v>-1</v>
       </c>
       <c r="X218">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y218">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z218">
         <v>-1</v>
       </c>
       <c r="AA218">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB218">
         <v>-1</v>
       </c>
       <c r="AC218">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19920,7 +19920,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6844805</v>
+        <v>6844790</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19932,76 +19932,76 @@
         <v>45276.5</v>
       </c>
       <c r="F219" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G219" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219">
         <v>0</v>
       </c>
       <c r="J219" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K219">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="L219">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M219">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="N219">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="O219">
         <v>3.4</v>
       </c>
       <c r="P219">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="Q219">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R219">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S219">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T219">
         <v>2.25</v>
       </c>
       <c r="U219">
+        <v>2.025</v>
+      </c>
+      <c r="V219">
         <v>1.825</v>
       </c>
-      <c r="V219">
-        <v>2.025</v>
-      </c>
       <c r="W219">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X219">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y219">
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA219">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB219">
         <v>-1</v>
       </c>
       <c r="AC219">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20009,7 +20009,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6844787</v>
+        <v>6844805</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20021,49 +20021,49 @@
         <v>45276.5</v>
       </c>
       <c r="F220" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G220" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I220">
         <v>0</v>
       </c>
       <c r="J220" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K220">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L220">
         <v>3.25</v>
       </c>
       <c r="M220">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="N220">
         <v>3.6</v>
       </c>
       <c r="O220">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P220">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="Q220">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R220">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S220">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T220">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U220">
         <v>1.825</v>
@@ -20072,19 +20072,19 @@
         <v>2.025</v>
       </c>
       <c r="W220">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X220">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y220">
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>0.5125</v>
+        <v>0.8</v>
       </c>
       <c r="AA220">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB220">
         <v>-1</v>
@@ -20110,7 +20110,7 @@
         <v>45280.69791666666</v>
       </c>
       <c r="F221" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G221" t="s">
         <v>34</v>
@@ -20202,7 +20202,7 @@
         <v>29</v>
       </c>
       <c r="G222" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H222">
         <v>2</v>
@@ -20291,7 +20291,7 @@
         <v>30</v>
       </c>
       <c r="G223" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H223">
         <v>2</v>
@@ -20377,7 +20377,7 @@
         <v>45283.5</v>
       </c>
       <c r="F224" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G224" t="s">
         <v>35</v>
@@ -20825,7 +20825,7 @@
         <v>34</v>
       </c>
       <c r="G229" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H229">
         <v>0</v>
@@ -20914,7 +20914,7 @@
         <v>40</v>
       </c>
       <c r="G230" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H230">
         <v>0</v>
@@ -21178,7 +21178,7 @@
         <v>45290.5</v>
       </c>
       <c r="F233" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G233" t="s">
         <v>36</v>
@@ -21267,7 +21267,7 @@
         <v>45290.5</v>
       </c>
       <c r="F234" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G234" t="s">
         <v>35</v>
@@ -21522,7 +21522,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6844808</v>
+        <v>6844809</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21534,73 +21534,73 @@
         <v>45293.5</v>
       </c>
       <c r="F237" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G237" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H237">
+        <v>0</v>
+      </c>
+      <c r="I237">
         <v>3</v>
       </c>
-      <c r="I237">
+      <c r="J237" t="s">
+        <v>44</v>
+      </c>
+      <c r="K237">
+        <v>3</v>
+      </c>
+      <c r="L237">
+        <v>3.4</v>
+      </c>
+      <c r="M237">
+        <v>2.3</v>
+      </c>
+      <c r="N237">
+        <v>3.25</v>
+      </c>
+      <c r="O237">
+        <v>3.3</v>
+      </c>
+      <c r="P237">
+        <v>2.3</v>
+      </c>
+      <c r="Q237">
+        <v>0.25</v>
+      </c>
+      <c r="R237">
+        <v>1.85</v>
+      </c>
+      <c r="S237">
+        <v>2</v>
+      </c>
+      <c r="T237">
+        <v>2.25</v>
+      </c>
+      <c r="U237">
+        <v>1.8</v>
+      </c>
+      <c r="V237">
+        <v>2.05</v>
+      </c>
+      <c r="W237">
+        <v>-1</v>
+      </c>
+      <c r="X237">
+        <v>-1</v>
+      </c>
+      <c r="Y237">
+        <v>1.3</v>
+      </c>
+      <c r="Z237">
+        <v>-1</v>
+      </c>
+      <c r="AA237">
         <v>1</v>
       </c>
-      <c r="J237" t="s">
-        <v>43</v>
-      </c>
-      <c r="K237">
-        <v>1.25</v>
-      </c>
-      <c r="L237">
-        <v>5.5</v>
-      </c>
-      <c r="M237">
-        <v>12</v>
-      </c>
-      <c r="N237">
-        <v>1.222</v>
-      </c>
-      <c r="O237">
-        <v>7</v>
-      </c>
-      <c r="P237">
-        <v>11</v>
-      </c>
-      <c r="Q237">
-        <v>-1.75</v>
-      </c>
-      <c r="R237">
-        <v>1.825</v>
-      </c>
-      <c r="S237">
-        <v>2.025</v>
-      </c>
-      <c r="T237">
-        <v>3</v>
-      </c>
-      <c r="U237">
-        <v>2</v>
-      </c>
-      <c r="V237">
-        <v>1.85</v>
-      </c>
-      <c r="W237">
-        <v>0.222</v>
-      </c>
-      <c r="X237">
-        <v>-1</v>
-      </c>
-      <c r="Y237">
-        <v>-1</v>
-      </c>
-      <c r="Z237">
-        <v>0.4125</v>
-      </c>
-      <c r="AA237">
-        <v>-0.5</v>
-      </c>
       <c r="AB237">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC237">
         <v>-1</v>
@@ -21611,7 +21611,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6844809</v>
+        <v>6844808</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21623,73 +21623,73 @@
         <v>45293.5</v>
       </c>
       <c r="F238" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G238" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I238">
+        <v>1</v>
+      </c>
+      <c r="J238" t="s">
+        <v>43</v>
+      </c>
+      <c r="K238">
+        <v>1.25</v>
+      </c>
+      <c r="L238">
+        <v>5.5</v>
+      </c>
+      <c r="M238">
+        <v>12</v>
+      </c>
+      <c r="N238">
+        <v>1.222</v>
+      </c>
+      <c r="O238">
+        <v>7</v>
+      </c>
+      <c r="P238">
+        <v>11</v>
+      </c>
+      <c r="Q238">
+        <v>-1.75</v>
+      </c>
+      <c r="R238">
+        <v>1.825</v>
+      </c>
+      <c r="S238">
+        <v>2.025</v>
+      </c>
+      <c r="T238">
         <v>3</v>
       </c>
-      <c r="J238" t="s">
-        <v>44</v>
-      </c>
-      <c r="K238">
-        <v>3</v>
-      </c>
-      <c r="L238">
-        <v>3.4</v>
-      </c>
-      <c r="M238">
-        <v>2.3</v>
-      </c>
-      <c r="N238">
-        <v>3.25</v>
-      </c>
-      <c r="O238">
-        <v>3.3</v>
-      </c>
-      <c r="P238">
-        <v>2.3</v>
-      </c>
-      <c r="Q238">
-        <v>0.25</v>
-      </c>
-      <c r="R238">
+      <c r="U238">
+        <v>2</v>
+      </c>
+      <c r="V238">
         <v>1.85</v>
       </c>
-      <c r="S238">
-        <v>2</v>
-      </c>
-      <c r="T238">
-        <v>2.25</v>
-      </c>
-      <c r="U238">
-        <v>1.8</v>
-      </c>
-      <c r="V238">
-        <v>2.05</v>
-      </c>
       <c r="W238">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA238">
+        <v>-0.5</v>
+      </c>
+      <c r="AB238">
         <v>1</v>
-      </c>
-      <c r="AB238">
-        <v>0.8</v>
       </c>
       <c r="AC238">
         <v>-1</v>
@@ -21715,7 +21715,7 @@
         <v>34</v>
       </c>
       <c r="G239" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H239">
         <v>1</v>
@@ -21890,7 +21890,7 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F241" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G241" t="s">
         <v>41</v>
@@ -21967,7 +21967,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>7452605</v>
+        <v>7452337</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21979,70 +21979,70 @@
         <v>45315.69791666666</v>
       </c>
       <c r="F242" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G242" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H242">
+        <v>0</v>
+      </c>
+      <c r="I242">
+        <v>3</v>
+      </c>
+      <c r="J242" t="s">
+        <v>44</v>
+      </c>
+      <c r="K242">
+        <v>7</v>
+      </c>
+      <c r="L242">
+        <v>4.5</v>
+      </c>
+      <c r="M242">
+        <v>1.444</v>
+      </c>
+      <c r="N242">
+        <v>8</v>
+      </c>
+      <c r="O242">
+        <v>5.25</v>
+      </c>
+      <c r="P242">
+        <v>1.333</v>
+      </c>
+      <c r="Q242">
+        <v>1.5</v>
+      </c>
+      <c r="R242">
+        <v>1.85</v>
+      </c>
+      <c r="S242">
+        <v>2</v>
+      </c>
+      <c r="T242">
+        <v>3</v>
+      </c>
+      <c r="U242">
+        <v>2.025</v>
+      </c>
+      <c r="V242">
+        <v>1.825</v>
+      </c>
+      <c r="W242">
+        <v>-1</v>
+      </c>
+      <c r="X242">
+        <v>-1</v>
+      </c>
+      <c r="Y242">
+        <v>0.333</v>
+      </c>
+      <c r="Z242">
+        <v>-1</v>
+      </c>
+      <c r="AA242">
         <v>1</v>
-      </c>
-      <c r="I242">
-        <v>1</v>
-      </c>
-      <c r="J242" t="s">
-        <v>42</v>
-      </c>
-      <c r="K242">
-        <v>3.75</v>
-      </c>
-      <c r="L242">
-        <v>3.4</v>
-      </c>
-      <c r="M242">
-        <v>2</v>
-      </c>
-      <c r="N242">
-        <v>3.75</v>
-      </c>
-      <c r="O242">
-        <v>3.1</v>
-      </c>
-      <c r="P242">
-        <v>2.15</v>
-      </c>
-      <c r="Q242">
-        <v>0.25</v>
-      </c>
-      <c r="R242">
-        <v>2.025</v>
-      </c>
-      <c r="S242">
-        <v>1.825</v>
-      </c>
-      <c r="T242">
-        <v>2</v>
-      </c>
-      <c r="U242">
-        <v>1.8</v>
-      </c>
-      <c r="V242">
-        <v>2.05</v>
-      </c>
-      <c r="W242">
-        <v>-1</v>
-      </c>
-      <c r="X242">
-        <v>2.1</v>
-      </c>
-      <c r="Y242">
-        <v>-1</v>
-      </c>
-      <c r="Z242">
-        <v>0.5125</v>
-      </c>
-      <c r="AA242">
-        <v>-0.5</v>
       </c>
       <c r="AB242">
         <v>0</v>
@@ -22056,7 +22056,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7452337</v>
+        <v>7452605</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22068,70 +22068,70 @@
         <v>45315.69791666666</v>
       </c>
       <c r="F243" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G243" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I243">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J243" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K243">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="L243">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M243">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="N243">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="O243">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="P243">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="Q243">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R243">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S243">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T243">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U243">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V243">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W243">
         <v>-1</v>
       </c>
       <c r="X243">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y243">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z243">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA243">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB243">
         <v>0</v>
@@ -22513,10 +22513,10 @@
         <v>45318.5</v>
       </c>
       <c r="F248" t="s">
+        <v>32</v>
+      </c>
+      <c r="G248" t="s">
         <v>31</v>
-      </c>
-      <c r="G248" t="s">
-        <v>33</v>
       </c>
       <c r="H248">
         <v>2</v>
@@ -22602,7 +22602,7 @@
         <v>45318.5</v>
       </c>
       <c r="F249" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G249" t="s">
         <v>38</v>
@@ -22780,7 +22780,7 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F251" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G251" t="s">
         <v>41</v>
@@ -22869,7 +22869,7 @@
         <v>45325.39583333334</v>
       </c>
       <c r="F252" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G252" t="s">
         <v>37</v>
@@ -22946,7 +22946,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6844816</v>
+        <v>6844843</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22958,76 +22958,76 @@
         <v>45325.5</v>
       </c>
       <c r="F253" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G253" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I253">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J253" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K253">
-        <v>2.875</v>
+        <v>1.111</v>
       </c>
       <c r="L253">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="M253">
-        <v>2.3</v>
+        <v>19</v>
       </c>
       <c r="N253">
-        <v>2.8</v>
+        <v>1.083</v>
       </c>
       <c r="O253">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="P253">
-        <v>2.4</v>
+        <v>23</v>
       </c>
       <c r="Q253">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="R253">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S253">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T253">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U253">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V253">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W253">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="X253">
         <v>-1</v>
       </c>
       <c r="Y253">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z253">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA253">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB253">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC253">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="254" spans="1:29">
@@ -23035,7 +23035,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6844843</v>
+        <v>6844819</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23047,76 +23047,76 @@
         <v>45325.5</v>
       </c>
       <c r="F254" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G254" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H254">
+        <v>0</v>
+      </c>
+      <c r="I254">
+        <v>1</v>
+      </c>
+      <c r="J254" t="s">
+        <v>44</v>
+      </c>
+      <c r="K254">
+        <v>2.3</v>
+      </c>
+      <c r="L254">
         <v>3</v>
       </c>
-      <c r="I254">
-        <v>0</v>
-      </c>
-      <c r="J254" t="s">
-        <v>43</v>
-      </c>
-      <c r="K254">
-        <v>1.111</v>
-      </c>
-      <c r="L254">
-        <v>9</v>
-      </c>
       <c r="M254">
-        <v>19</v>
+        <v>3.4</v>
       </c>
       <c r="N254">
-        <v>1.083</v>
+        <v>2.3</v>
       </c>
       <c r="O254">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="P254">
-        <v>23</v>
+        <v>3.4</v>
       </c>
       <c r="Q254">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R254">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S254">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T254">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="U254">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V254">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W254">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="X254">
         <v>-1</v>
       </c>
       <c r="Y254">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z254">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA254">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB254">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC254">
-        <v>0.45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23124,7 +23124,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6844819</v>
+        <v>6844818</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23136,76 +23136,76 @@
         <v>45325.5</v>
       </c>
       <c r="F255" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G255" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I255">
         <v>1</v>
       </c>
       <c r="J255" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K255">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="L255">
+        <v>3.25</v>
+      </c>
+      <c r="M255">
+        <v>2.15</v>
+      </c>
+      <c r="N255">
+        <v>2.875</v>
+      </c>
+      <c r="O255">
         <v>3</v>
       </c>
-      <c r="M255">
-        <v>3.4</v>
-      </c>
-      <c r="N255">
-        <v>2.3</v>
-      </c>
-      <c r="O255">
-        <v>3.1</v>
-      </c>
       <c r="P255">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q255">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R255">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S255">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T255">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U255">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V255">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W255">
         <v>-1</v>
       </c>
       <c r="X255">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y255">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z255">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA255">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB255">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC255">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23213,7 +23213,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6844818</v>
+        <v>6844817</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23225,76 +23225,76 @@
         <v>45325.5</v>
       </c>
       <c r="F256" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G256" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J256" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K256">
+        <v>1.909</v>
+      </c>
+      <c r="L256">
         <v>3.4</v>
       </c>
-      <c r="L256">
-        <v>3.25</v>
-      </c>
       <c r="M256">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="N256">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="O256">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P256">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="Q256">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R256">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S256">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T256">
         <v>2.25</v>
       </c>
       <c r="U256">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V256">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W256">
         <v>-1</v>
       </c>
       <c r="X256">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y256">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z256">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA256">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB256">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC256">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -23302,7 +23302,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6844817</v>
+        <v>6844816</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23314,13 +23314,13 @@
         <v>45325.5</v>
       </c>
       <c r="F257" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G257" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257">
         <v>3</v>
@@ -23329,41 +23329,41 @@
         <v>44</v>
       </c>
       <c r="K257">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="L257">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M257">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N257">
+        <v>2.8</v>
+      </c>
+      <c r="O257">
+        <v>3.5</v>
+      </c>
+      <c r="P257">
+        <v>2.4</v>
+      </c>
+      <c r="Q257">
+        <v>0</v>
+      </c>
+      <c r="R257">
+        <v>2.05</v>
+      </c>
+      <c r="S257">
+        <v>1.8</v>
+      </c>
+      <c r="T257">
+        <v>2.5</v>
+      </c>
+      <c r="U257">
+        <v>2</v>
+      </c>
+      <c r="V257">
         <v>1.85</v>
       </c>
-      <c r="O257">
-        <v>3.4</v>
-      </c>
-      <c r="P257">
-        <v>4.5</v>
-      </c>
-      <c r="Q257">
-        <v>-0.5</v>
-      </c>
-      <c r="R257">
-        <v>1.85</v>
-      </c>
-      <c r="S257">
-        <v>2</v>
-      </c>
-      <c r="T257">
-        <v>2.25</v>
-      </c>
-      <c r="U257">
-        <v>1.95</v>
-      </c>
-      <c r="V257">
-        <v>1.9</v>
-      </c>
       <c r="W257">
         <v>-1</v>
       </c>
@@ -23371,16 +23371,16 @@
         <v>-1</v>
       </c>
       <c r="Y257">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="Z257">
         <v>-1</v>
       </c>
       <c r="AA257">
+        <v>0.8</v>
+      </c>
+      <c r="AB257">
         <v>1</v>
-      </c>
-      <c r="AB257">
-        <v>0.95</v>
       </c>
       <c r="AC257">
         <v>-1</v>
@@ -23495,7 +23495,7 @@
         <v>29</v>
       </c>
       <c r="G259" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H259">
         <v>2</v>
@@ -23581,10 +23581,10 @@
         <v>45329.69791666666</v>
       </c>
       <c r="F260" t="s">
+        <v>33</v>
+      </c>
+      <c r="G260" t="s">
         <v>32</v>
-      </c>
-      <c r="G260" t="s">
-        <v>31</v>
       </c>
       <c r="H260">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>41</v>
       </c>
       <c r="G264" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H264">
         <v>2</v>
@@ -24115,7 +24115,7 @@
         <v>45336.69791666666</v>
       </c>
       <c r="F266" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G266" t="s">
         <v>38</v>
@@ -24293,7 +24293,7 @@
         <v>45339.5</v>
       </c>
       <c r="F268" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G268" t="s">
         <v>40</v>
@@ -24471,7 +24471,7 @@
         <v>45339.5</v>
       </c>
       <c r="F270" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G270" t="s">
         <v>38</v>
@@ -24649,7 +24649,7 @@
         <v>45340.375</v>
       </c>
       <c r="F272" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G272" t="s">
         <v>29</v>
@@ -24741,7 +24741,7 @@
         <v>30</v>
       </c>
       <c r="G273" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K273">
         <v>2.05</v>
@@ -24753,31 +24753,31 @@
         <v>3.4</v>
       </c>
       <c r="N273">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="O273">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P273">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q273">
         <v>-0.25</v>
       </c>
       <c r="R273">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S273">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T273">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U273">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V273">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W273">
         <v>0</v>
@@ -24815,7 +24815,7 @@
         <v>29</v>
       </c>
       <c r="G274" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K274">
         <v>1.3</v>
@@ -24830,10 +24830,10 @@
         <v>1.285</v>
       </c>
       <c r="O274">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="P274">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Q274">
         <v>-1.5</v>
@@ -24848,10 +24848,10 @@
         <v>3</v>
       </c>
       <c r="U274">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V274">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W274">
         <v>0</v>
@@ -24901,31 +24901,31 @@
         <v>4</v>
       </c>
       <c r="N275">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O275">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P275">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q275">
         <v>-0.5</v>
       </c>
       <c r="R275">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S275">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T275">
         <v>2.75</v>
       </c>
       <c r="U275">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V275">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W275">
         <v>0</v>
@@ -24975,31 +24975,31 @@
         <v>3.5</v>
       </c>
       <c r="N276">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="O276">
         <v>3.25</v>
       </c>
       <c r="P276">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q276">
         <v>-0.25</v>
       </c>
       <c r="R276">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S276">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T276">
         <v>2.25</v>
       </c>
       <c r="U276">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V276">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W276">
         <v>0</v>
@@ -25037,7 +25037,7 @@
         <v>35</v>
       </c>
       <c r="G277" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K277">
         <v>1.727</v>
@@ -25049,31 +25049,31 @@
         <v>4.5</v>
       </c>
       <c r="N277">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O277">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P277">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q277">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R277">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S277">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T277">
         <v>2</v>
       </c>
       <c r="U277">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V277">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W277">
         <v>0</v>
@@ -25135,10 +25135,10 @@
         <v>1.5</v>
       </c>
       <c r="R278">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S278">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T278">
         <v>3</v>
@@ -25162,6 +25162,450 @@
         <v>0</v>
       </c>
       <c r="AA278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:27">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>6958698</v>
+      </c>
+      <c r="C279" t="s">
+        <v>28</v>
+      </c>
+      <c r="D279" t="s">
+        <v>28</v>
+      </c>
+      <c r="E279" s="2">
+        <v>45349.70833333334</v>
+      </c>
+      <c r="F279" t="s">
+        <v>36</v>
+      </c>
+      <c r="G279" t="s">
+        <v>35</v>
+      </c>
+      <c r="K279">
+        <v>2.9</v>
+      </c>
+      <c r="L279">
+        <v>3.1</v>
+      </c>
+      <c r="M279">
+        <v>2.45</v>
+      </c>
+      <c r="N279">
+        <v>2.9</v>
+      </c>
+      <c r="O279">
+        <v>3.1</v>
+      </c>
+      <c r="P279">
+        <v>2.45</v>
+      </c>
+      <c r="Q279">
+        <v>0.25</v>
+      </c>
+      <c r="R279">
+        <v>1.75</v>
+      </c>
+      <c r="S279">
+        <v>2.125</v>
+      </c>
+      <c r="T279">
+        <v>2.25</v>
+      </c>
+      <c r="U279">
+        <v>1.9</v>
+      </c>
+      <c r="V279">
+        <v>1.95</v>
+      </c>
+      <c r="W279">
+        <v>0</v>
+      </c>
+      <c r="X279">
+        <v>0</v>
+      </c>
+      <c r="Y279">
+        <v>0</v>
+      </c>
+      <c r="Z279">
+        <v>0</v>
+      </c>
+      <c r="AA279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:27">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>6956501</v>
+      </c>
+      <c r="C280" t="s">
+        <v>28</v>
+      </c>
+      <c r="D280" t="s">
+        <v>28</v>
+      </c>
+      <c r="E280" s="2">
+        <v>45350.69791666666</v>
+      </c>
+      <c r="F280" t="s">
+        <v>37</v>
+      </c>
+      <c r="G280" t="s">
+        <v>41</v>
+      </c>
+      <c r="K280">
+        <v>1.2</v>
+      </c>
+      <c r="L280">
+        <v>6</v>
+      </c>
+      <c r="M280">
+        <v>13</v>
+      </c>
+      <c r="N280">
+        <v>1.222</v>
+      </c>
+      <c r="O280">
+        <v>6</v>
+      </c>
+      <c r="P280">
+        <v>12</v>
+      </c>
+      <c r="Q280">
+        <v>-1.75</v>
+      </c>
+      <c r="R280">
+        <v>1.85</v>
+      </c>
+      <c r="S280">
+        <v>2</v>
+      </c>
+      <c r="T280">
+        <v>3</v>
+      </c>
+      <c r="U280">
+        <v>1.9</v>
+      </c>
+      <c r="V280">
+        <v>1.95</v>
+      </c>
+      <c r="W280">
+        <v>0</v>
+      </c>
+      <c r="X280">
+        <v>0</v>
+      </c>
+      <c r="Y280">
+        <v>0</v>
+      </c>
+      <c r="Z280">
+        <v>0</v>
+      </c>
+      <c r="AA280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:27">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>6957560</v>
+      </c>
+      <c r="C281" t="s">
+        <v>28</v>
+      </c>
+      <c r="D281" t="s">
+        <v>28</v>
+      </c>
+      <c r="E281" s="2">
+        <v>45350.69791666666</v>
+      </c>
+      <c r="F281" t="s">
+        <v>30</v>
+      </c>
+      <c r="G281" t="s">
+        <v>29</v>
+      </c>
+      <c r="K281">
+        <v>6</v>
+      </c>
+      <c r="L281">
+        <v>4.5</v>
+      </c>
+      <c r="M281">
+        <v>1.45</v>
+      </c>
+      <c r="N281">
+        <v>5.75</v>
+      </c>
+      <c r="O281">
+        <v>4.5</v>
+      </c>
+      <c r="P281">
+        <v>1.45</v>
+      </c>
+      <c r="Q281">
+        <v>1.25</v>
+      </c>
+      <c r="R281">
+        <v>1.8</v>
+      </c>
+      <c r="S281">
+        <v>2.05</v>
+      </c>
+      <c r="T281">
+        <v>2.75</v>
+      </c>
+      <c r="U281">
+        <v>1.9</v>
+      </c>
+      <c r="V281">
+        <v>1.95</v>
+      </c>
+      <c r="W281">
+        <v>0</v>
+      </c>
+      <c r="X281">
+        <v>0</v>
+      </c>
+      <c r="Y281">
+        <v>0</v>
+      </c>
+      <c r="Z281">
+        <v>0</v>
+      </c>
+      <c r="AA281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:27">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <v>6845536</v>
+      </c>
+      <c r="C282" t="s">
+        <v>28</v>
+      </c>
+      <c r="D282" t="s">
+        <v>28</v>
+      </c>
+      <c r="E282" s="2">
+        <v>45350.69791666666</v>
+      </c>
+      <c r="F282" t="s">
+        <v>32</v>
+      </c>
+      <c r="G282" t="s">
+        <v>40</v>
+      </c>
+      <c r="K282">
+        <v>1.9</v>
+      </c>
+      <c r="L282">
+        <v>3.5</v>
+      </c>
+      <c r="M282">
+        <v>3.8</v>
+      </c>
+      <c r="N282">
+        <v>1.909</v>
+      </c>
+      <c r="O282">
+        <v>3.5</v>
+      </c>
+      <c r="P282">
+        <v>3.8</v>
+      </c>
+      <c r="Q282">
+        <v>-0.5</v>
+      </c>
+      <c r="R282">
+        <v>1.925</v>
+      </c>
+      <c r="S282">
+        <v>1.925</v>
+      </c>
+      <c r="T282">
+        <v>2.75</v>
+      </c>
+      <c r="U282">
+        <v>2.025</v>
+      </c>
+      <c r="V282">
+        <v>1.825</v>
+      </c>
+      <c r="W282">
+        <v>0</v>
+      </c>
+      <c r="X282">
+        <v>0</v>
+      </c>
+      <c r="Y282">
+        <v>0</v>
+      </c>
+      <c r="Z282">
+        <v>0</v>
+      </c>
+      <c r="AA282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:27">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <v>6845529</v>
+      </c>
+      <c r="C283" t="s">
+        <v>28</v>
+      </c>
+      <c r="D283" t="s">
+        <v>28</v>
+      </c>
+      <c r="E283" s="2">
+        <v>45350.69791666666</v>
+      </c>
+      <c r="F283" t="s">
+        <v>31</v>
+      </c>
+      <c r="G283" t="s">
+        <v>33</v>
+      </c>
+      <c r="K283">
+        <v>1.65</v>
+      </c>
+      <c r="L283">
+        <v>3.75</v>
+      </c>
+      <c r="M283">
+        <v>5</v>
+      </c>
+      <c r="N283">
+        <v>1.65</v>
+      </c>
+      <c r="O283">
+        <v>3.75</v>
+      </c>
+      <c r="P283">
+        <v>5</v>
+      </c>
+      <c r="Q283">
+        <v>-0.75</v>
+      </c>
+      <c r="R283">
+        <v>1.85</v>
+      </c>
+      <c r="S283">
+        <v>2</v>
+      </c>
+      <c r="T283">
+        <v>2.5</v>
+      </c>
+      <c r="U283">
+        <v>1.975</v>
+      </c>
+      <c r="V283">
+        <v>1.875</v>
+      </c>
+      <c r="W283">
+        <v>0</v>
+      </c>
+      <c r="X283">
+        <v>0</v>
+      </c>
+      <c r="Y283">
+        <v>0</v>
+      </c>
+      <c r="Z283">
+        <v>0</v>
+      </c>
+      <c r="AA283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:27">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <v>6957814</v>
+      </c>
+      <c r="C284" t="s">
+        <v>28</v>
+      </c>
+      <c r="D284" t="s">
+        <v>28</v>
+      </c>
+      <c r="E284" s="2">
+        <v>45350.70833333334</v>
+      </c>
+      <c r="F284" t="s">
+        <v>34</v>
+      </c>
+      <c r="G284" t="s">
+        <v>38</v>
+      </c>
+      <c r="K284">
+        <v>2.75</v>
+      </c>
+      <c r="L284">
+        <v>3.75</v>
+      </c>
+      <c r="M284">
+        <v>2.25</v>
+      </c>
+      <c r="N284">
+        <v>2.7</v>
+      </c>
+      <c r="O284">
+        <v>3.75</v>
+      </c>
+      <c r="P284">
+        <v>2.3</v>
+      </c>
+      <c r="Q284">
+        <v>0</v>
+      </c>
+      <c r="R284">
+        <v>2.125</v>
+      </c>
+      <c r="S284">
+        <v>1.75</v>
+      </c>
+      <c r="T284">
+        <v>2.25</v>
+      </c>
+      <c r="U284">
+        <v>1.925</v>
+      </c>
+      <c r="V284">
+        <v>1.925</v>
+      </c>
+      <c r="W284">
+        <v>0</v>
+      </c>
+      <c r="X284">
+        <v>0</v>
+      </c>
+      <c r="Y284">
+        <v>0</v>
+      </c>
+      <c r="Z284">
+        <v>0</v>
+      </c>
+      <c r="AA284">
         <v>0</v>
       </c>
     </row>

--- a/Scotland Premiership/Scotland Premiership.xlsx
+++ b/Scotland Premiership/Scotland Premiership.xlsx
@@ -18496,7 +18496,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6844776</v>
+        <v>6845513</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18508,10 +18508,10 @@
         <v>45263.5</v>
       </c>
       <c r="F203" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G203" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H203">
         <v>2</v>
@@ -18523,43 +18523,43 @@
         <v>44</v>
       </c>
       <c r="K203">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="L203">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M203">
-        <v>8.5</v>
+        <v>3.3</v>
       </c>
       <c r="N203">
-        <v>1.166</v>
+        <v>2.3</v>
       </c>
       <c r="O203">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="P203">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="Q203">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R203">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S203">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T203">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U203">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V203">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W203">
-        <v>0.1659999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18568,16 +18568,16 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA203">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB203">
         <v>-1</v>
       </c>
       <c r="AC203">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18585,7 +18585,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6845513</v>
+        <v>6844776</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18597,10 +18597,10 @@
         <v>45263.5</v>
       </c>
       <c r="F204" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G204" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H204">
         <v>2</v>
@@ -18612,43 +18612,43 @@
         <v>44</v>
       </c>
       <c r="K204">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="L204">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M204">
-        <v>3.3</v>
+        <v>8.5</v>
       </c>
       <c r="N204">
-        <v>2.3</v>
+        <v>1.166</v>
       </c>
       <c r="O204">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="P204">
+        <v>17</v>
+      </c>
+      <c r="Q204">
+        <v>-2</v>
+      </c>
+      <c r="R204">
+        <v>1.875</v>
+      </c>
+      <c r="S204">
+        <v>1.975</v>
+      </c>
+      <c r="T204">
         <v>3</v>
       </c>
-      <c r="Q204">
-        <v>-0.25</v>
-      </c>
-      <c r="R204">
+      <c r="U204">
+        <v>1.825</v>
+      </c>
+      <c r="V204">
         <v>2.025</v>
       </c>
-      <c r="S204">
-        <v>1.825</v>
-      </c>
-      <c r="T204">
-        <v>2.5</v>
-      </c>
-      <c r="U204">
-        <v>1.95</v>
-      </c>
-      <c r="V204">
-        <v>1.9</v>
-      </c>
       <c r="W204">
-        <v>1.3</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X204">
         <v>-1</v>
@@ -18657,16 +18657,16 @@
         <v>-1</v>
       </c>
       <c r="Z204">
+        <v>0</v>
+      </c>
+      <c r="AA204">
+        <v>-0</v>
+      </c>
+      <c r="AB204">
+        <v>-1</v>
+      </c>
+      <c r="AC204">
         <v>1.025</v>
-      </c>
-      <c r="AA204">
-        <v>-1</v>
-      </c>
-      <c r="AB204">
-        <v>-1</v>
-      </c>
-      <c r="AC204">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -21255,7 +21255,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6844803</v>
+        <v>6844802</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21267,10 +21267,10 @@
         <v>45290.5</v>
       </c>
       <c r="F234" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G234" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H234">
         <v>2</v>
@@ -21282,46 +21282,46 @@
         <v>42</v>
       </c>
       <c r="K234">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L234">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M234">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="N234">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="O234">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P234">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q234">
         <v>-0.75</v>
       </c>
       <c r="R234">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S234">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T234">
         <v>2.5</v>
       </c>
       <c r="U234">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V234">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W234">
         <v>-1</v>
       </c>
       <c r="X234">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y234">
         <v>-1</v>
@@ -21330,10 +21330,10 @@
         <v>-1</v>
       </c>
       <c r="AA234">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AB234">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC234">
         <v>-1</v>
@@ -21344,7 +21344,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6844802</v>
+        <v>6844803</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21356,10 +21356,10 @@
         <v>45290.5</v>
       </c>
       <c r="F235" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G235" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H235">
         <v>2</v>
@@ -21371,46 +21371,46 @@
         <v>42</v>
       </c>
       <c r="K235">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L235">
+        <v>3.5</v>
+      </c>
+      <c r="M235">
+        <v>3.9</v>
+      </c>
+      <c r="N235">
+        <v>1.727</v>
+      </c>
+      <c r="O235">
         <v>3.75</v>
       </c>
-      <c r="M235">
-        <v>5</v>
-      </c>
-      <c r="N235">
-        <v>1.615</v>
-      </c>
-      <c r="O235">
-        <v>4</v>
-      </c>
       <c r="P235">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q235">
         <v>-0.75</v>
       </c>
       <c r="R235">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S235">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T235">
         <v>2.5</v>
       </c>
       <c r="U235">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V235">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W235">
         <v>-1</v>
       </c>
       <c r="X235">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y235">
         <v>-1</v>
@@ -21419,10 +21419,10 @@
         <v>-1</v>
       </c>
       <c r="AA235">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AB235">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC235">
         <v>-1</v>
@@ -24014,7 +24014,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7667636</v>
+        <v>7667637</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24026,40 +24026,40 @@
         <v>45336.69791666666</v>
       </c>
       <c r="F265" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G265" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H265">
         <v>3</v>
       </c>
       <c r="I265">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J265" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K265">
-        <v>1.1</v>
+        <v>1.85</v>
       </c>
       <c r="L265">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="M265">
-        <v>23</v>
+        <v>4.2</v>
       </c>
       <c r="N265">
-        <v>1.09</v>
+        <v>1.95</v>
       </c>
       <c r="O265">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="P265">
-        <v>19</v>
+        <v>3.8</v>
       </c>
       <c r="Q265">
-        <v>-2.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R265">
         <v>2</v>
@@ -24068,19 +24068,19 @@
         <v>1.85</v>
       </c>
       <c r="T265">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U265">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V265">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W265">
-        <v>0.09000000000000008</v>
+        <v>-1</v>
       </c>
       <c r="X265">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y265">
         <v>-1</v>
@@ -24092,10 +24092,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB265">
-        <v>0.475</v>
+        <v>1.05</v>
       </c>
       <c r="AC265">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24103,7 +24103,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>7667637</v>
+        <v>7667636</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24115,40 +24115,40 @@
         <v>45336.69791666666</v>
       </c>
       <c r="F266" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G266" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H266">
         <v>3</v>
       </c>
       <c r="I266">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J266" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K266">
-        <v>1.85</v>
+        <v>1.1</v>
       </c>
       <c r="L266">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="M266">
-        <v>4.2</v>
+        <v>23</v>
       </c>
       <c r="N266">
-        <v>1.95</v>
+        <v>1.09</v>
       </c>
       <c r="O266">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="P266">
-        <v>3.8</v>
+        <v>19</v>
       </c>
       <c r="Q266">
-        <v>-0.5</v>
+        <v>-2.75</v>
       </c>
       <c r="R266">
         <v>2</v>
@@ -24157,19 +24157,19 @@
         <v>1.85</v>
       </c>
       <c r="T266">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U266">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V266">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W266">
-        <v>-1</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="X266">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y266">
         <v>-1</v>
@@ -24181,10 +24181,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB266">
-        <v>1.05</v>
+        <v>0.475</v>
       </c>
       <c r="AC266">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -25210,10 +25210,10 @@
         <v>1.5</v>
       </c>
       <c r="R278">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S278">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T278">
         <v>3</v>

--- a/Scotland Premiership/Scotland Premiership.xlsx
+++ b/Scotland Premiership/Scotland Premiership.xlsx
@@ -106,13 +106,13 @@
     <t>Celtic</t>
   </si>
   <si>
-    <t>Dundee</t>
-  </si>
-  <si>
     <t>Livingston</t>
   </si>
   <si>
     <t>St Johnstone</t>
+  </si>
+  <si>
+    <t>Dundee</t>
   </si>
   <si>
     <t>Kilmarnock</t>
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6844708</v>
+        <v>6844833</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,13 +708,13 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>42</v>
@@ -729,52 +729,52 @@
         <v>2.375</v>
       </c>
       <c r="N3">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="O3">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P3">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S3">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T3">
         <v>2.25</v>
       </c>
       <c r="U3">
+        <v>1.9</v>
+      </c>
+      <c r="V3">
         <v>1.95</v>
       </c>
-      <c r="V3">
-        <v>1.9</v>
-      </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
       <c r="AB3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6844833</v>
+        <v>6844709</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,73 +797,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="L4">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M4">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="N4">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="O4">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P4">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R4">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S4">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T4">
         <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V4">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC4">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6844709</v>
+        <v>6844708</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,73 +886,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K5">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="L5">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M5">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="N5">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="O5">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P5">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q5">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S5">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T5">
         <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V5">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y5">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA5">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AB5">
         <v>-0.5</v>
       </c>
       <c r="AC5">
-        <v>0.5125</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1153,7 +1153,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1242,7 +1242,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1331,7 +1331,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -1776,7 +1776,7 @@
         <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6844718</v>
+        <v>6844835</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,49 +1862,49 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K16">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="L16">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M16">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="N16">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="O16">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P16">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R16">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S16">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T16">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U16">
         <v>2</v>
@@ -1913,19 +1913,19 @@
         <v>1.85</v>
       </c>
       <c r="W16">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z16">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB16">
         <v>1</v>
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6844835</v>
+        <v>6844718</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,49 +1951,49 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H17">
         <v>2</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K17">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="L17">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M17">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="N17">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="O17">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P17">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="Q17">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S17">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T17">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U17">
         <v>2</v>
@@ -2002,19 +2002,19 @@
         <v>1.85</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA17">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
         <v>1</v>
@@ -2129,7 +2129,7 @@
         <v>45165.45833333334</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
         <v>40</v>
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6844724</v>
+        <v>6844723</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,76 +2218,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
         <v>42</v>
       </c>
       <c r="K20">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L20">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M20">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20">
         <v>3.1</v>
       </c>
-      <c r="O20">
-        <v>3.25</v>
-      </c>
       <c r="P20">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Q20">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="S20">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T20">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U20">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V20">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB20">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6844723</v>
+        <v>6844724</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2399,73 +2399,73 @@
         <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
         <v>42</v>
       </c>
       <c r="K22">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L22">
+        <v>3.2</v>
+      </c>
+      <c r="M22">
+        <v>2.9</v>
+      </c>
+      <c r="N22">
+        <v>3.1</v>
+      </c>
+      <c r="O22">
         <v>3.25</v>
       </c>
-      <c r="M22">
-        <v>2.6</v>
-      </c>
-      <c r="N22">
-        <v>3</v>
-      </c>
-      <c r="O22">
-        <v>3.1</v>
-      </c>
       <c r="P22">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R22">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S22">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T22">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U22">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V22">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA22">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC22">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6845503</v>
+        <v>7126250</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,55 +2574,55 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
         <v>43</v>
       </c>
       <c r="K24">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L24">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N24">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="O24">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P24">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R24">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S24">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T24">
         <v>2.5</v>
       </c>
       <c r="U24">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V24">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W24">
         <v>-1</v>
@@ -2631,19 +2631,19 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB24">
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2651,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7126250</v>
+        <v>6845503</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2663,55 +2663,55 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
         <v>43</v>
       </c>
       <c r="K25">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L25">
+        <v>3.25</v>
+      </c>
+      <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="N25">
+        <v>2.3</v>
+      </c>
+      <c r="O25">
         <v>3.4</v>
       </c>
-      <c r="M25">
-        <v>3.5</v>
-      </c>
-      <c r="N25">
-        <v>1.7</v>
-      </c>
-      <c r="O25">
-        <v>3.8</v>
-      </c>
       <c r="P25">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q25">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R25">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S25">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T25">
         <v>2.5</v>
       </c>
       <c r="U25">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V25">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W25">
         <v>-1</v>
@@ -2720,19 +2720,19 @@
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB25">
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2752,7 +2752,7 @@
         <v>45185.35416666666</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
         <v>37</v>
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6844725</v>
+        <v>6844726</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,76 +2841,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27">
         <v>3</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27" t="s">
-        <v>41</v>
-      </c>
-      <c r="K27">
-        <v>1.083</v>
-      </c>
       <c r="L27">
-        <v>9</v>
+        <v>3.2</v>
       </c>
       <c r="M27">
-        <v>23</v>
+        <v>2.15</v>
       </c>
       <c r="N27">
-        <v>1.2</v>
+        <v>2.55</v>
       </c>
       <c r="O27">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="P27">
-        <v>11</v>
+        <v>2.8</v>
       </c>
       <c r="Q27">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S27">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T27">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U27">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V27">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W27">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC27">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6844726</v>
+        <v>6844725</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,76 +2930,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>1.083</v>
       </c>
       <c r="L28">
-        <v>3.2</v>
+        <v>9</v>
       </c>
       <c r="M28">
-        <v>2.15</v>
+        <v>23</v>
       </c>
       <c r="N28">
-        <v>2.55</v>
+        <v>1.2</v>
       </c>
       <c r="O28">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="P28">
-        <v>2.8</v>
+        <v>11</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R28">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S28">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T28">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U28">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V28">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X28">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA28">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6844727</v>
+        <v>6845505</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,76 +3019,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M29">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N29">
+        <v>2.1</v>
+      </c>
+      <c r="O29">
+        <v>3.5</v>
+      </c>
+      <c r="P29">
+        <v>3.4</v>
+      </c>
+      <c r="Q29">
+        <v>-0.25</v>
+      </c>
+      <c r="R29">
+        <v>1.825</v>
+      </c>
+      <c r="S29">
+        <v>2.025</v>
+      </c>
+      <c r="T29">
         <v>2.75</v>
       </c>
-      <c r="O29">
-        <v>3.25</v>
-      </c>
-      <c r="P29">
-        <v>2.625</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>1.975</v>
-      </c>
-      <c r="S29">
-        <v>1.875</v>
-      </c>
-      <c r="T29">
-        <v>2.25</v>
-      </c>
       <c r="U29">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V29">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA29">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
         <v>-1</v>
       </c>
       <c r="AC29">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6845505</v>
+        <v>6844728</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,76 +3108,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L30">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M30">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="N30">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O30">
+        <v>3.2</v>
+      </c>
+      <c r="P30">
         <v>3.5</v>
-      </c>
-      <c r="P30">
-        <v>3.4</v>
       </c>
       <c r="Q30">
         <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S30">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T30">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U30">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V30">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W30">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC30">
-        <v>0.925</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3185,7 +3185,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6844728</v>
+        <v>6844727</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3197,76 +3197,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L31">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M31">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="N31">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="O31">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P31">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q31">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S31">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T31">
         <v>2.25</v>
       </c>
       <c r="U31">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V31">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AB31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3286,7 +3286,7 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
         <v>29</v>
@@ -3375,7 +3375,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
         <v>33</v>
@@ -3452,7 +3452,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6844732</v>
+        <v>6844735</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3464,13 +3464,13 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -3479,43 +3479,43 @@
         <v>41</v>
       </c>
       <c r="K34">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="L34">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M34">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="N34">
-        <v>1.55</v>
+        <v>2.75</v>
       </c>
       <c r="O34">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P34">
-        <v>5.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S34">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T34">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U34">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V34">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W34">
-        <v>0.55</v>
+        <v>1.75</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3524,7 +3524,7 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA34">
         <v>-1</v>
@@ -3533,7 +3533,7 @@
         <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3541,7 +3541,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6844735</v>
+        <v>6844732</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3553,13 +3553,13 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -3568,43 +3568,43 @@
         <v>41</v>
       </c>
       <c r="K35">
+        <v>1.571</v>
+      </c>
+      <c r="L35">
+        <v>4</v>
+      </c>
+      <c r="M35">
+        <v>5.5</v>
+      </c>
+      <c r="N35">
+        <v>1.55</v>
+      </c>
+      <c r="O35">
+        <v>4.2</v>
+      </c>
+      <c r="P35">
+        <v>5.75</v>
+      </c>
+      <c r="Q35">
+        <v>-1</v>
+      </c>
+      <c r="R35">
+        <v>2.025</v>
+      </c>
+      <c r="S35">
+        <v>1.825</v>
+      </c>
+      <c r="T35">
         <v>2.5</v>
       </c>
-      <c r="L35">
-        <v>3.3</v>
-      </c>
-      <c r="M35">
-        <v>2.8</v>
-      </c>
-      <c r="N35">
-        <v>2.75</v>
-      </c>
-      <c r="O35">
-        <v>3.3</v>
-      </c>
-      <c r="P35">
-        <v>2.6</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>2</v>
-      </c>
-      <c r="S35">
-        <v>1.85</v>
-      </c>
-      <c r="T35">
-        <v>2.25</v>
-      </c>
       <c r="U35">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V35">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W35">
-        <v>1.75</v>
+        <v>0.55</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3613,7 +3613,7 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA35">
         <v>-1</v>
@@ -3622,7 +3622,7 @@
         <v>-1</v>
       </c>
       <c r="AC35">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3630,7 +3630,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6844733</v>
+        <v>6844730</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3642,13 +3642,13 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3657,43 +3657,43 @@
         <v>41</v>
       </c>
       <c r="K36">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="L36">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M36">
-        <v>15</v>
+        <v>4.5</v>
       </c>
       <c r="N36">
-        <v>1.222</v>
+        <v>1.85</v>
       </c>
       <c r="O36">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P36">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="Q36">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R36">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S36">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T36">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U36">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V36">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W36">
-        <v>0.222</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3702,16 +3702,16 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA36">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC36">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6844730</v>
+        <v>6844733</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,13 +3731,13 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -3746,43 +3746,43 @@
         <v>41</v>
       </c>
       <c r="K37">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="L37">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M37">
-        <v>4.5</v>
+        <v>15</v>
       </c>
       <c r="N37">
-        <v>1.85</v>
+        <v>1.222</v>
       </c>
       <c r="O37">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P37">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="Q37">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R37">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S37">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T37">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U37">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V37">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W37">
-        <v>0.8500000000000001</v>
+        <v>0.222</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3791,16 +3791,16 @@
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB37">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6844739</v>
+        <v>6844736</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,76 +3909,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K39">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="L39">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M39">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="N39">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="O39">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P39">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q39">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R39">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S39">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T39">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U39">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V39">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y39">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3986,7 +3986,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6844736</v>
+        <v>6844739</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3998,76 +3998,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K40">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L40">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M40">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="N40">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="O40">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P40">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R40">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S40">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T40">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U40">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V40">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AB40">
         <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4164,7 +4164,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6844737</v>
+        <v>6844740</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4176,10 +4176,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G42" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4191,46 +4191,46 @@
         <v>42</v>
       </c>
       <c r="K42">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L42">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M42">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N42">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="O42">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P42">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q42">
         <v>-0.25</v>
       </c>
       <c r="R42">
+        <v>2.05</v>
+      </c>
+      <c r="S42">
+        <v>1.8</v>
+      </c>
+      <c r="T42">
+        <v>2</v>
+      </c>
+      <c r="U42">
         <v>1.875</v>
       </c>
-      <c r="S42">
+      <c r="V42">
         <v>1.975</v>
       </c>
-      <c r="T42">
-        <v>2.25</v>
-      </c>
-      <c r="U42">
-        <v>2.025</v>
-      </c>
-      <c r="V42">
-        <v>1.825</v>
-      </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
@@ -4239,13 +4239,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA42">
-        <v>0.4875</v>
+        <v>0.4</v>
       </c>
       <c r="AB42">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC42">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4253,7 +4253,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6844740</v>
+        <v>6844737</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4265,10 +4265,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G43" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4280,46 +4280,46 @@
         <v>42</v>
       </c>
       <c r="K43">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L43">
+        <v>3.5</v>
+      </c>
+      <c r="M43">
+        <v>3</v>
+      </c>
+      <c r="N43">
+        <v>2.2</v>
+      </c>
+      <c r="O43">
         <v>3.3</v>
       </c>
-      <c r="M43">
-        <v>2.8</v>
-      </c>
-      <c r="N43">
-        <v>2.4</v>
-      </c>
-      <c r="O43">
-        <v>3.1</v>
-      </c>
       <c r="P43">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q43">
         <v>-0.25</v>
       </c>
       <c r="R43">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S43">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T43">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U43">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V43">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W43">
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Y43">
         <v>-1</v>
@@ -4328,13 +4328,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA43">
-        <v>0.4</v>
+        <v>0.4875</v>
       </c>
       <c r="AB43">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC43">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4342,7 +4342,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6844742</v>
+        <v>6844744</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4354,49 +4354,49 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
         <v>41</v>
       </c>
       <c r="K44">
-        <v>1.125</v>
+        <v>2.9</v>
       </c>
       <c r="L44">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="M44">
-        <v>13</v>
+        <v>2.25</v>
       </c>
       <c r="N44">
-        <v>1.181</v>
+        <v>3</v>
       </c>
       <c r="O44">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="P44">
-        <v>13</v>
+        <v>2.5</v>
       </c>
       <c r="Q44">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="S44">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="T44">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U44">
         <v>1.975</v>
@@ -4405,7 +4405,7 @@
         <v>1.875</v>
       </c>
       <c r="W44">
-        <v>0.181</v>
+        <v>2</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4414,16 +4414,16 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0</v>
+        <v>1.075</v>
       </c>
       <c r="AA44">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4431,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6844744</v>
+        <v>6844742</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4443,49 +4443,49 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G45" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
         <v>41</v>
       </c>
       <c r="K45">
-        <v>2.9</v>
+        <v>1.125</v>
       </c>
       <c r="L45">
+        <v>8</v>
+      </c>
+      <c r="M45">
+        <v>13</v>
+      </c>
+      <c r="N45">
+        <v>1.181</v>
+      </c>
+      <c r="O45">
+        <v>7.5</v>
+      </c>
+      <c r="P45">
+        <v>13</v>
+      </c>
+      <c r="Q45">
+        <v>-2</v>
+      </c>
+      <c r="R45">
+        <v>2.025</v>
+      </c>
+      <c r="S45">
+        <v>1.825</v>
+      </c>
+      <c r="T45">
         <v>3.25</v>
-      </c>
-      <c r="M45">
-        <v>2.25</v>
-      </c>
-      <c r="N45">
-        <v>3</v>
-      </c>
-      <c r="O45">
-        <v>3.2</v>
-      </c>
-      <c r="P45">
-        <v>2.5</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45">
-        <v>2.075</v>
-      </c>
-      <c r="S45">
-        <v>1.725</v>
-      </c>
-      <c r="T45">
-        <v>2.25</v>
       </c>
       <c r="U45">
         <v>1.975</v>
@@ -4494,7 +4494,7 @@
         <v>1.875</v>
       </c>
       <c r="W45">
-        <v>2</v>
+        <v>0.181</v>
       </c>
       <c r="X45">
         <v>-1</v>
@@ -4503,16 +4503,16 @@
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>1.075</v>
+        <v>0</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB45">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC45">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4713,7 +4713,7 @@
         <v>38</v>
       </c>
       <c r="G48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4787,7 +4787,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6844747</v>
+        <v>6845508</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4799,58 +4799,58 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
         <v>41</v>
       </c>
       <c r="K49">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="L49">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M49">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="N49">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="O49">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P49">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="Q49">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R49">
+        <v>1.85</v>
+      </c>
+      <c r="S49">
+        <v>2</v>
+      </c>
+      <c r="T49">
+        <v>3</v>
+      </c>
+      <c r="U49">
+        <v>1.9</v>
+      </c>
+      <c r="V49">
         <v>1.95</v>
       </c>
-      <c r="S49">
-        <v>1.9</v>
-      </c>
-      <c r="T49">
-        <v>2.25</v>
-      </c>
-      <c r="U49">
-        <v>2</v>
-      </c>
-      <c r="V49">
-        <v>1.85</v>
-      </c>
       <c r="W49">
-        <v>0.909</v>
+        <v>0.444</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -4859,13 +4859,13 @@
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA49">
         <v>-1</v>
       </c>
       <c r="AB49">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6845508</v>
+        <v>6844747</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,58 +4888,58 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
         <v>41</v>
       </c>
       <c r="K50">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L50">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M50">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="N50">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="O50">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P50">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="Q50">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R50">
+        <v>1.95</v>
+      </c>
+      <c r="S50">
+        <v>1.9</v>
+      </c>
+      <c r="T50">
+        <v>2.25</v>
+      </c>
+      <c r="U50">
+        <v>2</v>
+      </c>
+      <c r="V50">
         <v>1.85</v>
       </c>
-      <c r="S50">
-        <v>2</v>
-      </c>
-      <c r="T50">
-        <v>3</v>
-      </c>
-      <c r="U50">
-        <v>1.9</v>
-      </c>
-      <c r="V50">
-        <v>1.95</v>
-      </c>
       <c r="W50">
-        <v>0.444</v>
+        <v>0.909</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4948,13 +4948,13 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -5066,7 +5066,7 @@
         <v>45223.65625</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G52" t="s">
         <v>36</v>
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6844753</v>
+        <v>6844751</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,76 +5244,76 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G54" t="s">
         <v>32</v>
       </c>
       <c r="H54">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K54">
-        <v>1.666</v>
+        <v>2.6</v>
       </c>
       <c r="L54">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M54">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="N54">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="O54">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P54">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q54">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R54">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S54">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T54">
         <v>2.25</v>
       </c>
       <c r="U54">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="V54">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W54">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z54">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB54">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6844751</v>
+        <v>6844753</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,76 +5422,76 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F56" t="s">
+        <v>35</v>
+      </c>
+      <c r="G56" t="s">
         <v>31</v>
       </c>
-      <c r="G56" t="s">
-        <v>30</v>
-      </c>
       <c r="H56">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K56">
-        <v>2.6</v>
+        <v>1.666</v>
       </c>
       <c r="L56">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M56">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="N56">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="O56">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P56">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R56">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S56">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T56">
         <v>2.25</v>
       </c>
       <c r="U56">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="V56">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA56">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AC56">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5766,7 +5766,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6844757</v>
+        <v>6844837</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5778,49 +5778,49 @@
         <v>45231.69791666666</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G60" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K60">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="L60">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M60">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="N60">
-        <v>2.45</v>
+        <v>1.45</v>
       </c>
       <c r="O60">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="P60">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R60">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S60">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T60">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U60">
         <v>1.9</v>
@@ -5829,25 +5829,25 @@
         <v>1.95</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA60">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB60">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5855,7 +5855,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6844758</v>
+        <v>6844754</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5867,10 +5867,10 @@
         <v>45231.69791666666</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G61" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5882,43 +5882,43 @@
         <v>41</v>
       </c>
       <c r="K61">
-        <v>2.5</v>
+        <v>1.181</v>
       </c>
       <c r="L61">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="M61">
-        <v>2.9</v>
+        <v>13</v>
       </c>
       <c r="N61">
-        <v>3.75</v>
+        <v>1.2</v>
       </c>
       <c r="O61">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="P61">
-        <v>2.15</v>
+        <v>13</v>
       </c>
       <c r="Q61">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R61">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S61">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T61">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U61">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V61">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W61">
-        <v>2.75</v>
+        <v>0.2</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5927,16 +5927,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
+        <v>-1</v>
+      </c>
+      <c r="AA61">
         <v>1</v>
       </c>
-      <c r="AA61">
-        <v>-1</v>
-      </c>
       <c r="AB61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6844754</v>
+        <v>6844758</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,10 +5956,10 @@
         <v>45231.69791666666</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -5971,43 +5971,43 @@
         <v>41</v>
       </c>
       <c r="K62">
-        <v>1.181</v>
+        <v>2.5</v>
       </c>
       <c r="L62">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="M62">
-        <v>13</v>
+        <v>2.9</v>
       </c>
       <c r="N62">
-        <v>1.2</v>
+        <v>3.75</v>
       </c>
       <c r="O62">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="P62">
-        <v>13</v>
+        <v>2.15</v>
       </c>
       <c r="Q62">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R62">
+        <v>2</v>
+      </c>
+      <c r="S62">
         <v>1.85</v>
       </c>
-      <c r="S62">
-        <v>2</v>
-      </c>
       <c r="T62">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U62">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V62">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W62">
-        <v>0.2</v>
+        <v>2.75</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6016,16 +6016,16 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA62">
+        <v>-1</v>
+      </c>
+      <c r="AB62">
         <v>1</v>
       </c>
-      <c r="AB62">
-        <v>0</v>
-      </c>
       <c r="AC62">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6844837</v>
+        <v>6844757</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,49 +6045,49 @@
         <v>45231.69791666666</v>
       </c>
       <c r="F63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J63" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K63">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="L63">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M63">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="N63">
-        <v>1.45</v>
+        <v>2.45</v>
       </c>
       <c r="O63">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="P63">
-        <v>6.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q63">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R63">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S63">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U63">
         <v>1.9</v>
@@ -6096,25 +6096,25 @@
         <v>1.95</v>
       </c>
       <c r="W63">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z63">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC63">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,7 +6134,7 @@
         <v>45231.72916666666</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G64" t="s">
         <v>37</v>
@@ -6401,10 +6401,10 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F67" t="s">
+        <v>32</v>
+      </c>
+      <c r="G67" t="s">
         <v>30</v>
-      </c>
-      <c r="G67" t="s">
-        <v>31</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6490,7 +6490,7 @@
         <v>45237.69791666666</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G68" t="s">
         <v>39</v>
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6844766</v>
+        <v>6844764</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,73 +6668,73 @@
         <v>45241.5</v>
       </c>
       <c r="F70" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K70">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="L70">
         <v>3.2</v>
       </c>
       <c r="M70">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="N70">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="O70">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P70">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="Q70">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R70">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S70">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T70">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U70">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V70">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA70">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC70">
         <v>-1</v>
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6844764</v>
+        <v>6844766</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,73 +6757,73 @@
         <v>45241.5</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G71" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H71">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K71">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="L71">
         <v>3.2</v>
       </c>
       <c r="M71">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="N71">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="O71">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P71">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R71">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S71">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T71">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U71">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V71">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W71">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z71">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB71">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6844765</v>
+        <v>6844767</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,10 +6846,10 @@
         <v>45241.5</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -6861,43 +6861,43 @@
         <v>41</v>
       </c>
       <c r="K72">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="L72">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M72">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N72">
+        <v>2.5</v>
+      </c>
+      <c r="O72">
+        <v>3.1</v>
+      </c>
+      <c r="P72">
+        <v>3</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>1.775</v>
+      </c>
+      <c r="S72">
         <v>2.1</v>
       </c>
-      <c r="O72">
-        <v>3.5</v>
-      </c>
-      <c r="P72">
-        <v>3.4</v>
-      </c>
-      <c r="Q72">
-        <v>-0.25</v>
-      </c>
-      <c r="R72">
-        <v>1.85</v>
-      </c>
-      <c r="S72">
-        <v>2</v>
-      </c>
       <c r="T72">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U72">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="V72">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W72">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6906,7 +6906,7 @@
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA72">
         <v>-1</v>
@@ -6915,7 +6915,7 @@
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6844767</v>
+        <v>6844765</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,10 +6935,10 @@
         <v>45241.5</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -6950,43 +6950,43 @@
         <v>41</v>
       </c>
       <c r="K73">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="L73">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M73">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N73">
+        <v>2.1</v>
+      </c>
+      <c r="O73">
+        <v>3.5</v>
+      </c>
+      <c r="P73">
+        <v>3.4</v>
+      </c>
+      <c r="Q73">
+        <v>-0.25</v>
+      </c>
+      <c r="R73">
+        <v>1.85</v>
+      </c>
+      <c r="S73">
+        <v>2</v>
+      </c>
+      <c r="T73">
         <v>2.5</v>
       </c>
-      <c r="O73">
-        <v>3.1</v>
-      </c>
-      <c r="P73">
-        <v>3</v>
-      </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
-      <c r="R73">
-        <v>1.775</v>
-      </c>
-      <c r="S73">
-        <v>2.1</v>
-      </c>
-      <c r="T73">
-        <v>2.25</v>
-      </c>
       <c r="U73">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="V73">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W73">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="X73">
         <v>-1</v>
@@ -6995,7 +6995,7 @@
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA73">
         <v>-1</v>
@@ -7004,7 +7004,7 @@
         <v>-1</v>
       </c>
       <c r="AC73">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7024,7 +7024,7 @@
         <v>45242.375</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s">
         <v>37</v>
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6844772</v>
+        <v>6844770</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,7 +7202,7 @@
         <v>45255.5</v>
       </c>
       <c r="F76" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G76" t="s">
         <v>31</v>
@@ -7217,34 +7217,34 @@
         <v>41</v>
       </c>
       <c r="K76">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="L76">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M76">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="N76">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="O76">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P76">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="Q76">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R76">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="S76">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T76">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U76">
         <v>1.85</v>
@@ -7253,7 +7253,7 @@
         <v>2</v>
       </c>
       <c r="W76">
-        <v>0.909</v>
+        <v>0.5</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7262,10 +7262,10 @@
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB76">
         <v>-1</v>
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6844770</v>
+        <v>6844772</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,10 +7380,10 @@
         <v>45255.5</v>
       </c>
       <c r="F78" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -7395,34 +7395,34 @@
         <v>41</v>
       </c>
       <c r="K78">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L78">
+        <v>3.3</v>
+      </c>
+      <c r="M78">
         <v>3.75</v>
       </c>
-      <c r="M78">
-        <v>6</v>
-      </c>
       <c r="N78">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O78">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P78">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q78">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R78">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S78">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U78">
         <v>1.85</v>
@@ -7431,7 +7431,7 @@
         <v>2</v>
       </c>
       <c r="W78">
-        <v>0.5</v>
+        <v>0.909</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7440,10 +7440,10 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA78">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
         <v>-1</v>
@@ -7469,7 +7469,7 @@
         <v>45255.5</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
         <v>34</v>
@@ -7917,7 +7917,7 @@
         <v>39</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -8003,7 +8003,7 @@
         <v>45263.375</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
         <v>29</v>
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6844781</v>
+        <v>6845514</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8359,58 +8359,58 @@
         <v>45266.69791666666</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H89">
+        <v>4</v>
+      </c>
+      <c r="I89">
         <v>1</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
       </c>
       <c r="J89" t="s">
         <v>41</v>
       </c>
       <c r="K89">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="L89">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="M89">
-        <v>2.6</v>
+        <v>11</v>
       </c>
       <c r="N89">
-        <v>3</v>
+        <v>1.222</v>
       </c>
       <c r="O89">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="P89">
-        <v>2.625</v>
+        <v>12</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R89">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S89">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T89">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U89">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V89">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W89">
-        <v>2</v>
+        <v>0.222</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8419,16 +8419,16 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA89">
         <v>-1</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC89">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6844778</v>
+        <v>6844781</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,76 +8448,76 @@
         <v>45266.69791666666</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K90">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="L90">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M90">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="N90">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="O90">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P90">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q90">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R90">
+        <v>1.925</v>
+      </c>
+      <c r="S90">
+        <v>1.925</v>
+      </c>
+      <c r="T90">
+        <v>2</v>
+      </c>
+      <c r="U90">
         <v>2.05</v>
       </c>
-      <c r="S90">
+      <c r="V90">
         <v>1.8</v>
       </c>
-      <c r="T90">
-        <v>2.25</v>
-      </c>
-      <c r="U90">
-        <v>1.9</v>
-      </c>
-      <c r="V90">
-        <v>1.95</v>
-      </c>
       <c r="W90">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA90">
+        <v>-1</v>
+      </c>
+      <c r="AB90">
+        <v>-1</v>
+      </c>
+      <c r="AC90">
         <v>0.8</v>
-      </c>
-      <c r="AB90">
-        <v>-1</v>
-      </c>
-      <c r="AC90">
-        <v>0.95</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6845514</v>
+        <v>6844778</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,40 +8537,40 @@
         <v>45266.69791666666</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H91">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K91">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="L91">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="M91">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="N91">
-        <v>1.222</v>
+        <v>2.1</v>
       </c>
       <c r="O91">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="P91">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="Q91">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R91">
         <v>2.05</v>
@@ -8579,34 +8579,34 @@
         <v>1.8</v>
       </c>
       <c r="T91">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U91">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V91">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W91">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z91">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB91">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6845516</v>
+        <v>6844783</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,13 +8804,13 @@
         <v>45269.5</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G94" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I94">
         <v>1</v>
@@ -8819,43 +8819,43 @@
         <v>41</v>
       </c>
       <c r="K94">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="L94">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M94">
-        <v>2.5</v>
+        <v>17</v>
       </c>
       <c r="N94">
-        <v>2.4</v>
+        <v>1.111</v>
       </c>
       <c r="O94">
+        <v>9</v>
+      </c>
+      <c r="P94">
+        <v>21</v>
+      </c>
+      <c r="Q94">
+        <v>-2.5</v>
+      </c>
+      <c r="R94">
+        <v>2</v>
+      </c>
+      <c r="S94">
+        <v>1.85</v>
+      </c>
+      <c r="T94">
         <v>3.5</v>
       </c>
-      <c r="P94">
-        <v>2.875</v>
-      </c>
-      <c r="Q94">
-        <v>0</v>
-      </c>
-      <c r="R94">
-        <v>1.75</v>
-      </c>
-      <c r="S94">
-        <v>2.05</v>
-      </c>
-      <c r="T94">
-        <v>2.5</v>
-      </c>
       <c r="U94">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V94">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W94">
-        <v>1.4</v>
+        <v>0.111</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8864,13 +8864,13 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB94">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC94">
         <v>-1</v>
@@ -8896,7 +8896,7 @@
         <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6844783</v>
+        <v>6845516</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,13 +8982,13 @@
         <v>45269.5</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G96" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -8997,43 +8997,43 @@
         <v>41</v>
       </c>
       <c r="K96">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="L96">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M96">
-        <v>17</v>
+        <v>2.5</v>
       </c>
       <c r="N96">
-        <v>1.111</v>
+        <v>2.4</v>
       </c>
       <c r="O96">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="P96">
-        <v>21</v>
+        <v>2.875</v>
       </c>
       <c r="Q96">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="R96">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S96">
+        <v>2.05</v>
+      </c>
+      <c r="T96">
+        <v>2.5</v>
+      </c>
+      <c r="U96">
+        <v>2</v>
+      </c>
+      <c r="V96">
         <v>1.85</v>
       </c>
-      <c r="T96">
-        <v>3.5</v>
-      </c>
-      <c r="U96">
-        <v>1.975</v>
-      </c>
-      <c r="V96">
-        <v>1.875</v>
-      </c>
       <c r="W96">
-        <v>0.111</v>
+        <v>1.4</v>
       </c>
       <c r="X96">
         <v>-1</v>
@@ -9042,13 +9042,13 @@
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA96">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9071,7 +9071,7 @@
         <v>45269.5</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s">
         <v>34</v>
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6844787</v>
+        <v>6844790</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,10 +9249,10 @@
         <v>45276.5</v>
       </c>
       <c r="F99" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9264,61 +9264,61 @@
         <v>42</v>
       </c>
       <c r="K99">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="L99">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M99">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="N99">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="O99">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P99">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q99">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R99">
+        <v>1.975</v>
+      </c>
+      <c r="S99">
+        <v>1.875</v>
+      </c>
+      <c r="T99">
+        <v>2.25</v>
+      </c>
+      <c r="U99">
         <v>2.025</v>
       </c>
-      <c r="S99">
+      <c r="V99">
         <v>1.825</v>
       </c>
-      <c r="T99">
-        <v>2</v>
-      </c>
-      <c r="U99">
-        <v>1.825</v>
-      </c>
-      <c r="V99">
-        <v>2.025</v>
-      </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6845517</v>
+        <v>6844787</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,76 +9338,76 @@
         <v>45276.5</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K100">
-        <v>1.25</v>
+        <v>3.1</v>
       </c>
       <c r="L100">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M100">
-        <v>10</v>
+        <v>2.3</v>
       </c>
       <c r="N100">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="O100">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="P100">
-        <v>12</v>
+        <v>2.15</v>
       </c>
       <c r="Q100">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R100">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S100">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T100">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="U100">
+        <v>1.825</v>
+      </c>
+      <c r="V100">
         <v>2.025</v>
       </c>
-      <c r="V100">
-        <v>1.825</v>
-      </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y100">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA100">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9430,7 +9430,7 @@
         <v>36</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9516,7 +9516,7 @@
         <v>45276.5</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G102" t="s">
         <v>34</v>
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6844790</v>
+        <v>6845517</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,49 +9605,49 @@
         <v>45276.5</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G103" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K103">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="L103">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="M103">
-        <v>3.75</v>
+        <v>10</v>
       </c>
       <c r="N103">
+        <v>1.2</v>
+      </c>
+      <c r="O103">
+        <v>7</v>
+      </c>
+      <c r="P103">
+        <v>12</v>
+      </c>
+      <c r="Q103">
+        <v>-2</v>
+      </c>
+      <c r="R103">
         <v>1.95</v>
       </c>
-      <c r="O103">
-        <v>3.4</v>
-      </c>
-      <c r="P103">
-        <v>4</v>
-      </c>
-      <c r="Q103">
-        <v>-0.5</v>
-      </c>
-      <c r="R103">
-        <v>1.975</v>
-      </c>
       <c r="S103">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T103">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U103">
         <v>2.025</v>
@@ -9659,16 +9659,16 @@
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB103">
         <v>-1</v>
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7451733</v>
+        <v>7451620</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,58 +9694,58 @@
         <v>45280.69791666666</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G104" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H104">
         <v>2</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
         <v>41</v>
       </c>
       <c r="K104">
-        <v>1.125</v>
+        <v>1.727</v>
       </c>
       <c r="L104">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="M104">
-        <v>17</v>
+        <v>4.5</v>
       </c>
       <c r="N104">
-        <v>1.125</v>
+        <v>1.6</v>
       </c>
       <c r="O104">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="P104">
-        <v>19</v>
+        <v>5.5</v>
       </c>
       <c r="Q104">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R104">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S104">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T104">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U104">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V104">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W104">
-        <v>0.125</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9754,16 +9754,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA104">
-        <v>0.4625</v>
+        <v>-0</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC104">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7451620</v>
+        <v>7451733</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,7 +9783,7 @@
         <v>45280.69791666666</v>
       </c>
       <c r="F105" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G105" t="s">
         <v>31</v>
@@ -9792,49 +9792,49 @@
         <v>2</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
         <v>41</v>
       </c>
       <c r="K105">
-        <v>1.727</v>
+        <v>1.125</v>
       </c>
       <c r="L105">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="M105">
-        <v>4.5</v>
+        <v>17</v>
       </c>
       <c r="N105">
-        <v>1.6</v>
+        <v>1.125</v>
       </c>
       <c r="O105">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="P105">
-        <v>5.5</v>
+        <v>19</v>
       </c>
       <c r="Q105">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R105">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S105">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T105">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U105">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V105">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W105">
-        <v>0.6000000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9843,16 +9843,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA105">
-        <v>-0</v>
+        <v>0.4625</v>
       </c>
       <c r="AB105">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9875,7 +9875,7 @@
         <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -9964,7 +9964,7 @@
         <v>33</v>
       </c>
       <c r="G107" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -10228,7 +10228,7 @@
         <v>45286.5</v>
       </c>
       <c r="F110" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G110" t="s">
         <v>29</v>
@@ -10406,10 +10406,10 @@
         <v>45287.69791666666</v>
       </c>
       <c r="F112" t="s">
+        <v>30</v>
+      </c>
+      <c r="G112" t="s">
         <v>31</v>
-      </c>
-      <c r="G112" t="s">
-        <v>32</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10676,7 +10676,7 @@
         <v>39</v>
       </c>
       <c r="G115" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -10750,7 +10750,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6844803</v>
+        <v>6844801</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10762,73 +10762,73 @@
         <v>45290.5</v>
       </c>
       <c r="F116" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G116" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J116" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K116">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L116">
+        <v>3.4</v>
+      </c>
+      <c r="M116">
         <v>3.5</v>
       </c>
-      <c r="M116">
-        <v>3.9</v>
-      </c>
       <c r="N116">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="O116">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P116">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q116">
         <v>-0.75</v>
       </c>
       <c r="R116">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S116">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T116">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U116">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V116">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z116">
         <v>-1</v>
       </c>
       <c r="AA116">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB116">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10928,7 +10928,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6844801</v>
+        <v>6844803</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10940,73 +10940,73 @@
         <v>45290.5</v>
       </c>
       <c r="F118" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K118">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L118">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M118">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="N118">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O118">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P118">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q118">
         <v>-0.75</v>
       </c>
       <c r="R118">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S118">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T118">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U118">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V118">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y118">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB118">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11017,7 +11017,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6844842</v>
+        <v>6844807</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11029,73 +11029,73 @@
         <v>45293.5</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G119" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119">
         <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K119">
+        <v>1.8</v>
+      </c>
+      <c r="L119">
         <v>3.25</v>
       </c>
-      <c r="L119">
-        <v>3.9</v>
-      </c>
       <c r="M119">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N119">
+        <v>1.909</v>
+      </c>
+      <c r="O119">
+        <v>3.4</v>
+      </c>
+      <c r="P119">
         <v>4</v>
       </c>
-      <c r="O119">
-        <v>3.6</v>
-      </c>
-      <c r="P119">
-        <v>1.909</v>
-      </c>
       <c r="Q119">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R119">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S119">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T119">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U119">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V119">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y119">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB119">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11106,7 +11106,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6844809</v>
+        <v>6844808</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11118,73 +11118,73 @@
         <v>45293.5</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G120" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120" t="s">
+        <v>41</v>
+      </c>
+      <c r="K120">
+        <v>1.25</v>
+      </c>
+      <c r="L120">
+        <v>5.5</v>
+      </c>
+      <c r="M120">
+        <v>12</v>
+      </c>
+      <c r="N120">
+        <v>1.222</v>
+      </c>
+      <c r="O120">
+        <v>7</v>
+      </c>
+      <c r="P120">
+        <v>11</v>
+      </c>
+      <c r="Q120">
+        <v>-1.75</v>
+      </c>
+      <c r="R120">
+        <v>1.825</v>
+      </c>
+      <c r="S120">
+        <v>2.025</v>
+      </c>
+      <c r="T120">
         <v>3</v>
       </c>
-      <c r="J120" t="s">
-        <v>43</v>
-      </c>
-      <c r="K120">
-        <v>3</v>
-      </c>
-      <c r="L120">
-        <v>3.4</v>
-      </c>
-      <c r="M120">
-        <v>2.3</v>
-      </c>
-      <c r="N120">
-        <v>3.25</v>
-      </c>
-      <c r="O120">
-        <v>3.3</v>
-      </c>
-      <c r="P120">
-        <v>2.3</v>
-      </c>
-      <c r="Q120">
-        <v>0.25</v>
-      </c>
-      <c r="R120">
+      <c r="U120">
+        <v>2</v>
+      </c>
+      <c r="V120">
         <v>1.85</v>
       </c>
-      <c r="S120">
-        <v>2</v>
-      </c>
-      <c r="T120">
-        <v>2.25</v>
-      </c>
-      <c r="U120">
-        <v>1.8</v>
-      </c>
-      <c r="V120">
-        <v>2.05</v>
-      </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA120">
+        <v>-0.5</v>
+      </c>
+      <c r="AB120">
         <v>1</v>
-      </c>
-      <c r="AB120">
-        <v>0.8</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11195,7 +11195,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6844807</v>
+        <v>6844809</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11207,73 +11207,73 @@
         <v>45293.5</v>
       </c>
       <c r="F121" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G121" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J121" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K121">
+        <v>3</v>
+      </c>
+      <c r="L121">
+        <v>3.4</v>
+      </c>
+      <c r="M121">
+        <v>2.3</v>
+      </c>
+      <c r="N121">
+        <v>3.25</v>
+      </c>
+      <c r="O121">
+        <v>3.3</v>
+      </c>
+      <c r="P121">
+        <v>2.3</v>
+      </c>
+      <c r="Q121">
+        <v>0.25</v>
+      </c>
+      <c r="R121">
+        <v>1.85</v>
+      </c>
+      <c r="S121">
+        <v>2</v>
+      </c>
+      <c r="T121">
+        <v>2.25</v>
+      </c>
+      <c r="U121">
         <v>1.8</v>
       </c>
-      <c r="L121">
-        <v>3.25</v>
-      </c>
-      <c r="M121">
-        <v>5</v>
-      </c>
-      <c r="N121">
-        <v>1.909</v>
-      </c>
-      <c r="O121">
-        <v>3.4</v>
-      </c>
-      <c r="P121">
-        <v>4</v>
-      </c>
-      <c r="Q121">
-        <v>-0.5</v>
-      </c>
-      <c r="R121">
-        <v>1.975</v>
-      </c>
-      <c r="S121">
-        <v>1.875</v>
-      </c>
-      <c r="T121">
-        <v>2.5</v>
-      </c>
-      <c r="U121">
-        <v>1.975</v>
-      </c>
       <c r="V121">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB121">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC121">
         <v>-1</v>
@@ -11284,7 +11284,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6844808</v>
+        <v>6844842</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11296,49 +11296,49 @@
         <v>45293.5</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G122" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K122">
-        <v>1.25</v>
+        <v>3.25</v>
       </c>
       <c r="L122">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="M122">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N122">
-        <v>1.222</v>
+        <v>4</v>
       </c>
       <c r="O122">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P122">
-        <v>11</v>
+        <v>1.909</v>
       </c>
       <c r="Q122">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R122">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S122">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T122">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U122">
         <v>2</v>
@@ -11347,19 +11347,19 @@
         <v>1.85</v>
       </c>
       <c r="W122">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z122">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB122">
         <v>1</v>
@@ -11477,7 +11477,7 @@
         <v>40</v>
       </c>
       <c r="G124" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H124">
         <v>3</v>
@@ -11652,7 +11652,7 @@
         <v>45315.69791666666</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G126" t="s">
         <v>38</v>
@@ -11818,7 +11818,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6844813</v>
+        <v>6844811</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11830,76 +11830,76 @@
         <v>45318.5</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G128" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H128">
         <v>1</v>
       </c>
       <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128" t="s">
+        <v>41</v>
+      </c>
+      <c r="K128">
+        <v>1.125</v>
+      </c>
+      <c r="L128">
+        <v>8</v>
+      </c>
+      <c r="M128">
+        <v>21</v>
+      </c>
+      <c r="N128">
+        <v>1.045</v>
+      </c>
+      <c r="O128">
+        <v>13</v>
+      </c>
+      <c r="P128">
+        <v>34</v>
+      </c>
+      <c r="Q128">
+        <v>-3</v>
+      </c>
+      <c r="R128">
+        <v>1.9</v>
+      </c>
+      <c r="S128">
+        <v>1.95</v>
+      </c>
+      <c r="T128">
         <v>4</v>
       </c>
-      <c r="J128" t="s">
-        <v>43</v>
-      </c>
-      <c r="K128">
-        <v>3</v>
-      </c>
-      <c r="L128">
-        <v>3</v>
-      </c>
-      <c r="M128">
-        <v>2.5</v>
-      </c>
-      <c r="N128">
-        <v>2.7</v>
-      </c>
-      <c r="O128">
-        <v>3</v>
-      </c>
-      <c r="P128">
-        <v>2.9</v>
-      </c>
-      <c r="Q128">
-        <v>0</v>
-      </c>
-      <c r="R128">
-        <v>1.875</v>
-      </c>
-      <c r="S128">
-        <v>1.975</v>
-      </c>
-      <c r="T128">
-        <v>2</v>
-      </c>
       <c r="U128">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="V128">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB128">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6844811</v>
+        <v>6845520</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,13 +11919,13 @@
         <v>45318.5</v>
       </c>
       <c r="F129" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -11934,43 +11934,43 @@
         <v>41</v>
       </c>
       <c r="K129">
-        <v>1.125</v>
+        <v>2.2</v>
       </c>
       <c r="L129">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="M129">
-        <v>21</v>
+        <v>3.25</v>
       </c>
       <c r="N129">
-        <v>1.045</v>
+        <v>2.05</v>
       </c>
       <c r="O129">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="P129">
-        <v>34</v>
+        <v>3.5</v>
       </c>
       <c r="Q129">
-        <v>-3</v>
+        <v>-0.25</v>
       </c>
       <c r="R129">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S129">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T129">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="U129">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V129">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W129">
-        <v>0.04499999999999993</v>
+        <v>1.05</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -11979,16 +11979,16 @@
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA129">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
         <v>-1</v>
       </c>
       <c r="AC129">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6844812</v>
+        <v>6844814</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,61 +12008,61 @@
         <v>45318.5</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
         <v>42</v>
       </c>
       <c r="K130">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L130">
         <v>3.2</v>
       </c>
       <c r="M130">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N130">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O130">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P130">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q130">
         <v>-0.25</v>
       </c>
       <c r="R130">
-        <v>1.85</v>
+        <v>2.125</v>
       </c>
       <c r="S130">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T130">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U130">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V130">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>2.4</v>
+        <v>1.875</v>
       </c>
       <c r="Y130">
         <v>-1</v>
@@ -12071,13 +12071,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA130">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AB130">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6845520</v>
+        <v>6844812</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,76 +12097,76 @@
         <v>45318.5</v>
       </c>
       <c r="F131" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G131" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H131">
         <v>2</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K131">
         <v>2.2</v>
       </c>
       <c r="L131">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M131">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N131">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O131">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P131">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q131">
         <v>-0.25</v>
       </c>
       <c r="R131">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S131">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T131">
         <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V131">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W131">
+        <v>-1</v>
+      </c>
+      <c r="X131">
+        <v>2.4</v>
+      </c>
+      <c r="Y131">
+        <v>-1</v>
+      </c>
+      <c r="Z131">
+        <v>-0.5</v>
+      </c>
+      <c r="AA131">
+        <v>0.5</v>
+      </c>
+      <c r="AB131">
         <v>1.05</v>
       </c>
-      <c r="X131">
-        <v>-1</v>
-      </c>
-      <c r="Y131">
-        <v>-1</v>
-      </c>
-      <c r="Z131">
-        <v>0.825</v>
-      </c>
-      <c r="AA131">
-        <v>-1</v>
-      </c>
-      <c r="AB131">
-        <v>-1</v>
-      </c>
       <c r="AC131">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12174,7 +12174,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6844814</v>
+        <v>6844813</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12186,76 +12186,76 @@
         <v>45318.5</v>
       </c>
       <c r="F132" t="s">
+        <v>30</v>
+      </c>
+      <c r="G132" t="s">
         <v>32</v>
-      </c>
-      <c r="G132" t="s">
-        <v>39</v>
       </c>
       <c r="H132">
         <v>1</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J132" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K132">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="L132">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M132">
+        <v>2.5</v>
+      </c>
+      <c r="N132">
+        <v>2.7</v>
+      </c>
+      <c r="O132">
         <v>3</v>
       </c>
-      <c r="N132">
-        <v>2.55</v>
-      </c>
-      <c r="O132">
-        <v>2.875</v>
-      </c>
       <c r="P132">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q132">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R132">
-        <v>2.125</v>
+        <v>1.875</v>
       </c>
       <c r="S132">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T132">
         <v>2</v>
       </c>
       <c r="U132">
+        <v>1.775</v>
+      </c>
+      <c r="V132">
         <v>2.1</v>
       </c>
-      <c r="V132">
-        <v>1.775</v>
-      </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z132">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB132">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC132">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12278,7 +12278,7 @@
         <v>38</v>
       </c>
       <c r="G133" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12364,7 +12364,7 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G134" t="s">
         <v>36</v>
@@ -12530,7 +12530,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6844843</v>
+        <v>6844816</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12542,76 +12542,76 @@
         <v>45325.5</v>
       </c>
       <c r="F136" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G136" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H136">
+        <v>2</v>
+      </c>
+      <c r="I136">
         <v>3</v>
       </c>
-      <c r="I136">
-        <v>0</v>
-      </c>
       <c r="J136" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K136">
-        <v>1.111</v>
+        <v>2.875</v>
       </c>
       <c r="L136">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="M136">
-        <v>19</v>
+        <v>2.3</v>
       </c>
       <c r="N136">
-        <v>1.083</v>
+        <v>2.8</v>
       </c>
       <c r="O136">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="P136">
-        <v>23</v>
+        <v>2.4</v>
       </c>
       <c r="Q136">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="R136">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S136">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T136">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V136">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W136">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z136">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB136">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC136">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12619,7 +12619,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6844819</v>
+        <v>6844817</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12631,56 +12631,56 @@
         <v>45325.5</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G137" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H137">
         <v>0</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J137" t="s">
         <v>43</v>
       </c>
       <c r="K137">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L137">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M137">
+        <v>4</v>
+      </c>
+      <c r="N137">
+        <v>1.85</v>
+      </c>
+      <c r="O137">
         <v>3.4</v>
       </c>
-      <c r="N137">
-        <v>2.3</v>
-      </c>
-      <c r="O137">
-        <v>3.1</v>
-      </c>
       <c r="P137">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q137">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R137">
+        <v>1.85</v>
+      </c>
+      <c r="S137">
+        <v>2</v>
+      </c>
+      <c r="T137">
+        <v>2.25</v>
+      </c>
+      <c r="U137">
         <v>1.95</v>
       </c>
-      <c r="S137">
+      <c r="V137">
         <v>1.9</v>
       </c>
-      <c r="T137">
-        <v>2</v>
-      </c>
-      <c r="U137">
-        <v>1.85</v>
-      </c>
-      <c r="V137">
-        <v>2</v>
-      </c>
       <c r="W137">
         <v>-1</v>
       </c>
@@ -12688,19 +12688,19 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC137">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12797,7 +12797,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6844817</v>
+        <v>6844819</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12809,55 +12809,55 @@
         <v>45325.5</v>
       </c>
       <c r="F139" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G139" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H139">
         <v>0</v>
       </c>
       <c r="I139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
         <v>43</v>
       </c>
       <c r="K139">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L139">
+        <v>3</v>
+      </c>
+      <c r="M139">
         <v>3.4</v>
       </c>
-      <c r="M139">
-        <v>4</v>
-      </c>
       <c r="N139">
+        <v>2.3</v>
+      </c>
+      <c r="O139">
+        <v>3.1</v>
+      </c>
+      <c r="P139">
+        <v>3.4</v>
+      </c>
+      <c r="Q139">
+        <v>-0.25</v>
+      </c>
+      <c r="R139">
+        <v>1.95</v>
+      </c>
+      <c r="S139">
+        <v>1.9</v>
+      </c>
+      <c r="T139">
+        <v>2</v>
+      </c>
+      <c r="U139">
         <v>1.85</v>
       </c>
-      <c r="O139">
-        <v>3.4</v>
-      </c>
-      <c r="P139">
-        <v>4.5</v>
-      </c>
-      <c r="Q139">
-        <v>-0.5</v>
-      </c>
-      <c r="R139">
-        <v>1.85</v>
-      </c>
-      <c r="S139">
-        <v>2</v>
-      </c>
-      <c r="T139">
-        <v>2.25</v>
-      </c>
-      <c r="U139">
-        <v>1.95</v>
-      </c>
       <c r="V139">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W139">
         <v>-1</v>
@@ -12866,19 +12866,19 @@
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="Z139">
         <v>-1</v>
       </c>
       <c r="AA139">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB139">
+        <v>-1</v>
+      </c>
+      <c r="AC139">
         <v>1</v>
-      </c>
-      <c r="AB139">
-        <v>0.95</v>
-      </c>
-      <c r="AC139">
-        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12886,7 +12886,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6844816</v>
+        <v>6844843</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12898,76 +12898,76 @@
         <v>45325.5</v>
       </c>
       <c r="F140" t="s">
+        <v>37</v>
+      </c>
+      <c r="G140" t="s">
         <v>30</v>
       </c>
-      <c r="G140" t="s">
-        <v>40</v>
-      </c>
       <c r="H140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I140">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K140">
-        <v>2.875</v>
+        <v>1.111</v>
       </c>
       <c r="L140">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="M140">
-        <v>2.3</v>
+        <v>19</v>
       </c>
       <c r="N140">
-        <v>2.8</v>
+        <v>1.083</v>
       </c>
       <c r="O140">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="P140">
-        <v>2.4</v>
+        <v>23</v>
       </c>
       <c r="Q140">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="R140">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S140">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T140">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U140">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V140">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA140">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13153,7 +13153,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6844822</v>
+        <v>6844844</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13165,13 +13165,13 @@
         <v>45329.69791666666</v>
       </c>
       <c r="F143" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G143" t="s">
         <v>30</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143">
         <v>0</v>
@@ -13180,43 +13180,43 @@
         <v>41</v>
       </c>
       <c r="K143">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="L143">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M143">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="N143">
-        <v>2.375</v>
+        <v>1.6</v>
       </c>
       <c r="O143">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P143">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R143">
         <v>2.05</v>
       </c>
       <c r="S143">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T143">
         <v>2.25</v>
       </c>
       <c r="U143">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V143">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W143">
-        <v>1.375</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X143">
         <v>-1</v>
@@ -13225,16 +13225,16 @@
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13242,7 +13242,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6844844</v>
+        <v>6844821</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13254,76 +13254,76 @@
         <v>45329.69791666666</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G144" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
         <v>1</v>
       </c>
-      <c r="I144">
-        <v>0</v>
-      </c>
       <c r="J144" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K144">
-        <v>1.533</v>
+        <v>3.6</v>
       </c>
       <c r="L144">
+        <v>3.6</v>
+      </c>
+      <c r="M144">
+        <v>1.952</v>
+      </c>
+      <c r="N144">
         <v>4</v>
       </c>
-      <c r="M144">
-        <v>6</v>
-      </c>
-      <c r="N144">
-        <v>1.6</v>
-      </c>
       <c r="O144">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P144">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="Q144">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R144">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S144">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T144">
         <v>2.25</v>
       </c>
       <c r="U144">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V144">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W144">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB144">
         <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13331,7 +13331,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6844821</v>
+        <v>6844822</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13343,76 +13343,76 @@
         <v>45329.69791666666</v>
       </c>
       <c r="F145" t="s">
+        <v>35</v>
+      </c>
+      <c r="G145" t="s">
         <v>32</v>
       </c>
-      <c r="G145" t="s">
-        <v>40</v>
-      </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K145">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="L145">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M145">
-        <v>1.952</v>
+        <v>3.1</v>
       </c>
       <c r="N145">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="O145">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P145">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="Q145">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R145">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S145">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T145">
         <v>2.25</v>
       </c>
       <c r="U145">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V145">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA145">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC145">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13521,10 +13521,10 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F147" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G147" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -13788,7 +13788,7 @@
         <v>45339.5</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G150" t="s">
         <v>35</v>
@@ -13877,7 +13877,7 @@
         <v>45339.5</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G151" t="s">
         <v>36</v>
@@ -14233,7 +14233,7 @@
         <v>45340.375</v>
       </c>
       <c r="F155" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G155" t="s">
         <v>37</v>
@@ -14310,7 +14310,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6921112</v>
+        <v>6845535</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14322,7 +14322,7 @@
         <v>45346.5</v>
       </c>
       <c r="F156" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G156" t="s">
         <v>32</v>
@@ -14331,49 +14331,49 @@
         <v>2</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="s">
         <v>41</v>
       </c>
       <c r="K156">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L156">
         <v>3.75</v>
       </c>
       <c r="M156">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N156">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O156">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P156">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="Q156">
         <v>-0.5</v>
       </c>
       <c r="R156">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S156">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T156">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U156">
+        <v>1.9</v>
+      </c>
+      <c r="V156">
         <v>1.95</v>
       </c>
-      <c r="V156">
-        <v>1.9</v>
-      </c>
       <c r="W156">
-        <v>0.8</v>
+        <v>0.909</v>
       </c>
       <c r="X156">
         <v>-1</v>
@@ -14382,16 +14382,16 @@
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA156">
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AC156">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14399,7 +14399,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6845528</v>
+        <v>6845527</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14411,13 +14411,13 @@
         <v>45346.5</v>
       </c>
       <c r="F157" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G157" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H157">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -14426,43 +14426,43 @@
         <v>41</v>
       </c>
       <c r="K157">
-        <v>1.3</v>
+        <v>2.05</v>
       </c>
       <c r="L157">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M157">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="N157">
-        <v>1.285</v>
+        <v>2.5</v>
       </c>
       <c r="O157">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="P157">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q157">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R157">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="S157">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="T157">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U157">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V157">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W157">
-        <v>0.2849999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="X157">
         <v>-1</v>
@@ -14471,16 +14471,16 @@
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.825</v>
+        <v>1.075</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14488,7 +14488,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6845527</v>
+        <v>6921111</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14500,58 +14500,58 @@
         <v>45346.5</v>
       </c>
       <c r="F158" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G158" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J158" t="s">
         <v>41</v>
       </c>
       <c r="K158">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L158">
+        <v>3.25</v>
+      </c>
+      <c r="M158">
         <v>3.5</v>
       </c>
-      <c r="M158">
-        <v>3.4</v>
-      </c>
       <c r="N158">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="O158">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P158">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q158">
         <v>-0.25</v>
       </c>
       <c r="R158">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="S158">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="T158">
         <v>2.25</v>
       </c>
       <c r="U158">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V158">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W158">
-        <v>1.5</v>
+        <v>1.375</v>
       </c>
       <c r="X158">
         <v>-1</v>
@@ -14560,16 +14560,16 @@
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>1.075</v>
+        <v>1.025</v>
       </c>
       <c r="AA158">
         <v>-1</v>
       </c>
       <c r="AB158">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC158">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14577,7 +14577,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6845535</v>
+        <v>6921112</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14589,58 +14589,58 @@
         <v>45346.5</v>
       </c>
       <c r="F159" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G159" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H159">
         <v>2</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="s">
         <v>41</v>
       </c>
       <c r="K159">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L159">
         <v>3.75</v>
       </c>
       <c r="M159">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N159">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O159">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P159">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q159">
         <v>-0.5</v>
       </c>
       <c r="R159">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S159">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T159">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U159">
+        <v>1.95</v>
+      </c>
+      <c r="V159">
         <v>1.9</v>
       </c>
-      <c r="V159">
-        <v>1.95</v>
-      </c>
       <c r="W159">
-        <v>0.909</v>
+        <v>0.8</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -14649,16 +14649,16 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA159">
         <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AC159">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14666,7 +14666,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6921111</v>
+        <v>6845528</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14678,58 +14678,58 @@
         <v>45346.5</v>
       </c>
       <c r="F160" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G160" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H160">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J160" t="s">
         <v>41</v>
       </c>
       <c r="K160">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="L160">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="M160">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="N160">
-        <v>2.375</v>
+        <v>1.285</v>
       </c>
       <c r="O160">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="P160">
-        <v>3.2</v>
+        <v>9</v>
       </c>
       <c r="Q160">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R160">
+        <v>1.825</v>
+      </c>
+      <c r="S160">
         <v>2.025</v>
       </c>
-      <c r="S160">
-        <v>1.825</v>
-      </c>
       <c r="T160">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U160">
+        <v>1.9</v>
+      </c>
+      <c r="V160">
         <v>1.95</v>
       </c>
-      <c r="V160">
-        <v>1.9</v>
-      </c>
       <c r="W160">
-        <v>1.375</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14738,13 +14738,13 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AA160">
         <v>-1</v>
       </c>
       <c r="AB160">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC160">
         <v>-1</v>
@@ -14933,7 +14933,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6845529</v>
+        <v>6956501</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14945,76 +14945,76 @@
         <v>45350.69791666666</v>
       </c>
       <c r="F163" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G163" t="s">
         <v>32</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K163">
-        <v>1.65</v>
+        <v>1.2</v>
       </c>
       <c r="L163">
+        <v>6</v>
+      </c>
+      <c r="M163">
+        <v>13</v>
+      </c>
+      <c r="N163">
+        <v>1.142</v>
+      </c>
+      <c r="O163">
+        <v>8.5</v>
+      </c>
+      <c r="P163">
+        <v>15</v>
+      </c>
+      <c r="Q163">
+        <v>-2.25</v>
+      </c>
+      <c r="R163">
+        <v>1.85</v>
+      </c>
+      <c r="S163">
+        <v>2</v>
+      </c>
+      <c r="T163">
         <v>3.75</v>
       </c>
-      <c r="M163">
-        <v>5</v>
-      </c>
-      <c r="N163">
-        <v>1.666</v>
-      </c>
-      <c r="O163">
-        <v>3.4</v>
-      </c>
-      <c r="P163">
-        <v>6</v>
-      </c>
-      <c r="Q163">
-        <v>-0.75</v>
-      </c>
-      <c r="R163">
-        <v>1.875</v>
-      </c>
-      <c r="S163">
-        <v>1.975</v>
-      </c>
-      <c r="T163">
-        <v>2.25</v>
-      </c>
       <c r="U163">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V163">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA163">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC163">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15022,7 +15022,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6956501</v>
+        <v>6957560</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15034,73 +15034,73 @@
         <v>45350.69791666666</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G164" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H164">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I164">
+        <v>2</v>
+      </c>
+      <c r="J164" t="s">
+        <v>43</v>
+      </c>
+      <c r="K164">
+        <v>6</v>
+      </c>
+      <c r="L164">
+        <v>4.5</v>
+      </c>
+      <c r="M164">
+        <v>1.45</v>
+      </c>
+      <c r="N164">
+        <v>8</v>
+      </c>
+      <c r="O164">
+        <v>4.2</v>
+      </c>
+      <c r="P164">
+        <v>1.45</v>
+      </c>
+      <c r="Q164">
         <v>1</v>
       </c>
-      <c r="J164" t="s">
-        <v>41</v>
-      </c>
-      <c r="K164">
-        <v>1.2</v>
-      </c>
-      <c r="L164">
-        <v>6</v>
-      </c>
-      <c r="M164">
-        <v>13</v>
-      </c>
-      <c r="N164">
-        <v>1.142</v>
-      </c>
-      <c r="O164">
-        <v>8.5</v>
-      </c>
-      <c r="P164">
-        <v>15</v>
-      </c>
-      <c r="Q164">
-        <v>-2.25</v>
-      </c>
       <c r="R164">
+        <v>2.05</v>
+      </c>
+      <c r="S164">
+        <v>1.8</v>
+      </c>
+      <c r="T164">
+        <v>2.5</v>
+      </c>
+      <c r="U164">
         <v>1.85</v>
       </c>
-      <c r="S164">
-        <v>2</v>
-      </c>
-      <c r="T164">
-        <v>3.75</v>
-      </c>
-      <c r="U164">
-        <v>1.95</v>
-      </c>
       <c r="V164">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W164">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z164">
+        <v>0</v>
+      </c>
+      <c r="AA164">
+        <v>-0</v>
+      </c>
+      <c r="AB164">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA164">
-        <v>-1</v>
-      </c>
-      <c r="AB164">
-        <v>0.95</v>
       </c>
       <c r="AC164">
         <v>-1</v>
@@ -15111,7 +15111,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6845536</v>
+        <v>6845529</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15123,76 +15123,76 @@
         <v>45350.69791666666</v>
       </c>
       <c r="F165" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G165" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J165" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K165">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="L165">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M165">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="N165">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="O165">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P165">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="Q165">
+        <v>-0.75</v>
+      </c>
+      <c r="R165">
+        <v>1.875</v>
+      </c>
+      <c r="S165">
+        <v>1.975</v>
+      </c>
+      <c r="T165">
+        <v>2.25</v>
+      </c>
+      <c r="U165">
+        <v>2.05</v>
+      </c>
+      <c r="V165">
+        <v>1.8</v>
+      </c>
+      <c r="W165">
+        <v>-1</v>
+      </c>
+      <c r="X165">
+        <v>-1</v>
+      </c>
+      <c r="Y165">
+        <v>5</v>
+      </c>
+      <c r="Z165">
+        <v>-1</v>
+      </c>
+      <c r="AA165">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB165">
         <v>-0.5</v>
       </c>
-      <c r="R165">
-        <v>2</v>
-      </c>
-      <c r="S165">
-        <v>1.85</v>
-      </c>
-      <c r="T165">
-        <v>2.75</v>
-      </c>
-      <c r="U165">
-        <v>2.025</v>
-      </c>
-      <c r="V165">
-        <v>1.825</v>
-      </c>
-      <c r="W165">
-        <v>-1</v>
-      </c>
-      <c r="X165">
-        <v>2.5</v>
-      </c>
-      <c r="Y165">
-        <v>-1</v>
-      </c>
-      <c r="Z165">
-        <v>-1</v>
-      </c>
-      <c r="AA165">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB165">
-        <v>-1</v>
-      </c>
       <c r="AC165">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15200,7 +15200,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6957560</v>
+        <v>6845536</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15212,76 +15212,76 @@
         <v>45350.69791666666</v>
       </c>
       <c r="F166" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G166" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H166">
         <v>1</v>
       </c>
       <c r="I166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K166">
-        <v>6</v>
+        <v>1.9</v>
       </c>
       <c r="L166">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M166">
-        <v>1.45</v>
+        <v>3.8</v>
       </c>
       <c r="N166">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O166">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P166">
-        <v>1.45</v>
+        <v>3.8</v>
       </c>
       <c r="Q166">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R166">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S166">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T166">
+        <v>2.75</v>
+      </c>
+      <c r="U166">
+        <v>2.025</v>
+      </c>
+      <c r="V166">
+        <v>1.825</v>
+      </c>
+      <c r="W166">
+        <v>-1</v>
+      </c>
+      <c r="X166">
         <v>2.5</v>
       </c>
-      <c r="U166">
-        <v>1.85</v>
-      </c>
-      <c r="V166">
-        <v>2</v>
-      </c>
-      <c r="W166">
-        <v>-1</v>
-      </c>
-      <c r="X166">
-        <v>-1</v>
-      </c>
       <c r="Y166">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB166">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15301,7 +15301,7 @@
         <v>45350.70833333334</v>
       </c>
       <c r="F167" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G167" t="s">
         <v>39</v>
@@ -15378,7 +15378,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6979649</v>
+        <v>6845530</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15390,46 +15390,46 @@
         <v>45353.5</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G168" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K168">
+        <v>2.4</v>
+      </c>
+      <c r="L168">
+        <v>3.4</v>
+      </c>
+      <c r="M168">
+        <v>2.5</v>
+      </c>
+      <c r="N168">
         <v>2.25</v>
       </c>
-      <c r="L168">
-        <v>3.6</v>
-      </c>
-      <c r="M168">
-        <v>2.7</v>
-      </c>
-      <c r="N168">
-        <v>2.375</v>
-      </c>
       <c r="O168">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P168">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="Q168">
         <v>-0.25</v>
       </c>
       <c r="R168">
-        <v>2.15</v>
+        <v>1.975</v>
       </c>
       <c r="S168">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="T168">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U168">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V168">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W168">
         <v>0</v>
@@ -15464,10 +15464,10 @@
         <v>45353.5</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G169" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K169">
         <v>2.25</v>
@@ -15479,31 +15479,31 @@
         <v>2.75</v>
       </c>
       <c r="N169">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O169">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P169">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q169">
         <v>-0.25</v>
       </c>
       <c r="R169">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S169">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T169">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U169">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V169">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W169">
         <v>0</v>
@@ -15553,31 +15553,31 @@
         <v>11</v>
       </c>
       <c r="N170">
-        <v>1.166</v>
+        <v>1.142</v>
       </c>
       <c r="O170">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P170">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q170">
-        <v>-2</v>
+        <v>-2.25</v>
       </c>
       <c r="R170">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S170">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T170">
         <v>3.25</v>
       </c>
       <c r="U170">
+        <v>1.9</v>
+      </c>
+      <c r="V170">
         <v>1.95</v>
-      </c>
-      <c r="V170">
-        <v>1.9</v>
       </c>
       <c r="W170">
         <v>0</v>
@@ -15600,7 +15600,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6979650</v>
+        <v>6979649</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15612,46 +15612,46 @@
         <v>45353.5</v>
       </c>
       <c r="F171" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G171" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K171">
-        <v>1.1</v>
+        <v>2.25</v>
       </c>
       <c r="L171">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="M171">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="N171">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="O171">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P171">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="Q171">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R171">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S171">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T171">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U171">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V171">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W171">
         <v>0</v>
@@ -15674,7 +15674,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6845530</v>
+        <v>6979650</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15686,46 +15686,46 @@
         <v>45353.5</v>
       </c>
       <c r="F172" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G172" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K172">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="L172">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="M172">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N172">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="O172">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P172">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="Q172">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R172">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S172">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T172">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U172">
+        <v>1.825</v>
+      </c>
+      <c r="V172">
         <v>2.025</v>
-      </c>
-      <c r="V172">
-        <v>1.825</v>
       </c>
       <c r="W172">
         <v>0</v>
@@ -15775,22 +15775,22 @@
         <v>1.55</v>
       </c>
       <c r="N173">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O173">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P173">
         <v>1.5</v>
       </c>
       <c r="Q173">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="R173">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S173">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T173">
         <v>3</v>

--- a/Scotland Premiership/Scotland Premiership.xlsx
+++ b/Scotland Premiership/Scotland Premiership.xlsx
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6844751</v>
+        <v>6844752</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,49 +5333,49 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K55">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L55">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M55">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N55">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="O55">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P55">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q55">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R55">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S55">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T55">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U55">
         <v>2.025</v>
@@ -5387,22 +5387,22 @@
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y55">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
         <v>-1</v>
       </c>
       <c r="AA55">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB55">
         <v>1.025</v>
       </c>
-      <c r="AB55">
-        <v>-0.5</v>
-      </c>
       <c r="AC55">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6844752</v>
+        <v>6844751</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,49 +5422,49 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G56" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K56">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L56">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M56">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="N56">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="O56">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P56">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q56">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R56">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S56">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T56">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U56">
         <v>2.025</v>
@@ -5476,22 +5476,22 @@
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z56">
         <v>-1</v>
       </c>
       <c r="AA56">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB56">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6844772</v>
+        <v>6844769</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,76 +7202,76 @@
         <v>45255.5</v>
       </c>
       <c r="F76" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K76">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L76">
         <v>3.3</v>
       </c>
       <c r="M76">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N76">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="O76">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P76">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q76">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R76">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S76">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T76">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U76">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V76">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W76">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z76">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC76">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7279,7 +7279,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6844771</v>
+        <v>6844772</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7291,76 +7291,76 @@
         <v>45255.5</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K77">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L77">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M77">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N77">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="O77">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P77">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q77">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R77">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S77">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T77">
         <v>2</v>
       </c>
       <c r="U77">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V77">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X77">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA77">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6844770</v>
+        <v>6844771</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,76 +7380,76 @@
         <v>45255.5</v>
       </c>
       <c r="F78" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K78">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="L78">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M78">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="N78">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="O78">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P78">
-        <v>7.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q78">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R78">
+        <v>2.025</v>
+      </c>
+      <c r="S78">
+        <v>1.825</v>
+      </c>
+      <c r="T78">
+        <v>2</v>
+      </c>
+      <c r="U78">
+        <v>1.875</v>
+      </c>
+      <c r="V78">
+        <v>1.975</v>
+      </c>
+      <c r="W78">
+        <v>-1</v>
+      </c>
+      <c r="X78">
         <v>2.1</v>
       </c>
-      <c r="S78">
-        <v>1.775</v>
-      </c>
-      <c r="T78">
-        <v>2.5</v>
-      </c>
-      <c r="U78">
-        <v>1.85</v>
-      </c>
-      <c r="V78">
-        <v>2</v>
-      </c>
-      <c r="W78">
-        <v>0.5</v>
-      </c>
-      <c r="X78">
-        <v>-1</v>
-      </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA78">
-        <v>0.3875</v>
+        <v>-0</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6844769</v>
+        <v>6844770</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,76 +7469,76 @@
         <v>45255.5</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G79" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H79">
         <v>1</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K79">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="L79">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M79">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="N79">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="O79">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P79">
-        <v>2.4</v>
+        <v>7.5</v>
       </c>
       <c r="Q79">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R79">
+        <v>2.1</v>
+      </c>
+      <c r="S79">
         <v>1.775</v>
-      </c>
-      <c r="S79">
-        <v>2.1</v>
       </c>
       <c r="T79">
         <v>2.5</v>
       </c>
       <c r="U79">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V79">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W79">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA79">
-        <v>1.1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB79">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -8080,7 +8080,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6845513</v>
+        <v>6844776</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8092,10 +8092,10 @@
         <v>45263.5</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G86" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8107,43 +8107,43 @@
         <v>41</v>
       </c>
       <c r="K86">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="L86">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M86">
-        <v>3.3</v>
+        <v>8.5</v>
       </c>
       <c r="N86">
-        <v>2.3</v>
+        <v>1.166</v>
       </c>
       <c r="O86">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="P86">
+        <v>17</v>
+      </c>
+      <c r="Q86">
+        <v>-2</v>
+      </c>
+      <c r="R86">
+        <v>1.875</v>
+      </c>
+      <c r="S86">
+        <v>1.975</v>
+      </c>
+      <c r="T86">
         <v>3</v>
       </c>
-      <c r="Q86">
-        <v>-0.25</v>
-      </c>
-      <c r="R86">
+      <c r="U86">
+        <v>1.825</v>
+      </c>
+      <c r="V86">
         <v>2.025</v>
       </c>
-      <c r="S86">
-        <v>1.825</v>
-      </c>
-      <c r="T86">
-        <v>2.5</v>
-      </c>
-      <c r="U86">
-        <v>1.95</v>
-      </c>
-      <c r="V86">
-        <v>1.9</v>
-      </c>
       <c r="W86">
-        <v>1.3</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8152,16 +8152,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
+        <v>0</v>
+      </c>
+      <c r="AA86">
+        <v>-0</v>
+      </c>
+      <c r="AB86">
+        <v>-1</v>
+      </c>
+      <c r="AC86">
         <v>1.025</v>
-      </c>
-      <c r="AA86">
-        <v>-1</v>
-      </c>
-      <c r="AB86">
-        <v>-1</v>
-      </c>
-      <c r="AC86">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6844776</v>
+        <v>6845513</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,10 +8181,10 @@
         <v>45263.5</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8196,43 +8196,43 @@
         <v>41</v>
       </c>
       <c r="K87">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="L87">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M87">
-        <v>8.5</v>
+        <v>3.3</v>
       </c>
       <c r="N87">
-        <v>1.166</v>
+        <v>2.3</v>
       </c>
       <c r="O87">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="P87">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="Q87">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S87">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T87">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U87">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V87">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W87">
-        <v>0.1659999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8241,16 +8241,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA87">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
         <v>-1</v>
       </c>
       <c r="AC87">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6844778</v>
+        <v>6844781</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8359,76 +8359,76 @@
         <v>45266.69791666666</v>
       </c>
       <c r="F89" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K89">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="L89">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M89">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="N89">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="O89">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P89">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q89">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R89">
+        <v>1.925</v>
+      </c>
+      <c r="S89">
+        <v>1.925</v>
+      </c>
+      <c r="T89">
+        <v>2</v>
+      </c>
+      <c r="U89">
         <v>2.05</v>
       </c>
-      <c r="S89">
+      <c r="V89">
         <v>1.8</v>
       </c>
-      <c r="T89">
-        <v>2.25</v>
-      </c>
-      <c r="U89">
-        <v>1.9</v>
-      </c>
-      <c r="V89">
-        <v>1.95</v>
-      </c>
       <c r="W89">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA89">
+        <v>-1</v>
+      </c>
+      <c r="AB89">
+        <v>-1</v>
+      </c>
+      <c r="AC89">
         <v>0.8</v>
-      </c>
-      <c r="AB89">
-        <v>-1</v>
-      </c>
-      <c r="AC89">
-        <v>0.95</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6844781</v>
+        <v>6844778</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,76 +8448,76 @@
         <v>45266.69791666666</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
         <v>1</v>
       </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
       <c r="J90" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K90">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="L90">
+        <v>3.25</v>
+      </c>
+      <c r="M90">
         <v>3.2</v>
       </c>
-      <c r="M90">
+      <c r="N90">
+        <v>2.1</v>
+      </c>
+      <c r="O90">
+        <v>3.4</v>
+      </c>
+      <c r="P90">
+        <v>3.6</v>
+      </c>
+      <c r="Q90">
+        <v>-0.5</v>
+      </c>
+      <c r="R90">
+        <v>2.05</v>
+      </c>
+      <c r="S90">
+        <v>1.8</v>
+      </c>
+      <c r="T90">
+        <v>2.25</v>
+      </c>
+      <c r="U90">
+        <v>1.9</v>
+      </c>
+      <c r="V90">
+        <v>1.95</v>
+      </c>
+      <c r="W90">
+        <v>-1</v>
+      </c>
+      <c r="X90">
+        <v>-1</v>
+      </c>
+      <c r="Y90">
         <v>2.6</v>
       </c>
-      <c r="N90">
-        <v>3</v>
-      </c>
-      <c r="O90">
-        <v>2.9</v>
-      </c>
-      <c r="P90">
-        <v>2.625</v>
-      </c>
-      <c r="Q90">
-        <v>0</v>
-      </c>
-      <c r="R90">
-        <v>1.925</v>
-      </c>
-      <c r="S90">
-        <v>1.925</v>
-      </c>
-      <c r="T90">
-        <v>2</v>
-      </c>
-      <c r="U90">
-        <v>2.05</v>
-      </c>
-      <c r="V90">
-        <v>1.8</v>
-      </c>
-      <c r="W90">
-        <v>2</v>
-      </c>
-      <c r="X90">
-        <v>-1</v>
-      </c>
-      <c r="Y90">
-        <v>-1</v>
-      </c>
       <c r="Z90">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6844788</v>
+        <v>6844790</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,76 +9427,76 @@
         <v>45276.5</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H101">
         <v>0</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K101">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L101">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M101">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="N101">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="O101">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P101">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q101">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R101">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S101">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T101">
         <v>2.25</v>
       </c>
       <c r="U101">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V101">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y101">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB101">
         <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9504,7 +9504,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6844790</v>
+        <v>6844788</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9516,76 +9516,76 @@
         <v>45276.5</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G102" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K102">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L102">
+        <v>3.25</v>
+      </c>
+      <c r="M102">
+        <v>3.25</v>
+      </c>
+      <c r="N102">
+        <v>2.25</v>
+      </c>
+      <c r="O102">
         <v>3.3</v>
       </c>
-      <c r="M102">
-        <v>3.75</v>
-      </c>
-      <c r="N102">
-        <v>1.95</v>
-      </c>
-      <c r="O102">
-        <v>3.4</v>
-      </c>
       <c r="P102">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q102">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R102">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S102">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T102">
         <v>2.25</v>
       </c>
       <c r="U102">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V102">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z102">
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB102">
         <v>-1</v>
       </c>
       <c r="AC102">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -11017,7 +11017,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6844809</v>
+        <v>6844842</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11029,55 +11029,55 @@
         <v>45293.5</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
         <v>43</v>
       </c>
       <c r="K119">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L119">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="M119">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="N119">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="O119">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P119">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="Q119">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R119">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S119">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T119">
         <v>2.25</v>
       </c>
       <c r="U119">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V119">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W119">
         <v>-1</v>
@@ -11086,16 +11086,16 @@
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>1.3</v>
+        <v>0.909</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
+        <v>0.95</v>
+      </c>
+      <c r="AB119">
         <v>1</v>
-      </c>
-      <c r="AB119">
-        <v>0.8</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11106,7 +11106,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6844842</v>
+        <v>6844809</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11118,55 +11118,55 @@
         <v>45293.5</v>
       </c>
       <c r="F120" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G120" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J120" t="s">
         <v>43</v>
       </c>
       <c r="K120">
+        <v>3</v>
+      </c>
+      <c r="L120">
+        <v>3.4</v>
+      </c>
+      <c r="M120">
+        <v>2.3</v>
+      </c>
+      <c r="N120">
         <v>3.25</v>
       </c>
-      <c r="L120">
-        <v>3.9</v>
-      </c>
-      <c r="M120">
-        <v>2</v>
-      </c>
-      <c r="N120">
-        <v>4</v>
-      </c>
       <c r="O120">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P120">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="Q120">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R120">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S120">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T120">
         <v>2.25</v>
       </c>
       <c r="U120">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V120">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W120">
         <v>-1</v>
@@ -11175,16 +11175,16 @@
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>0.909</v>
+        <v>1.3</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB120">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6844811</v>
+        <v>6844814</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,76 +12097,76 @@
         <v>45318.5</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G131" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K131">
-        <v>1.125</v>
+        <v>2.375</v>
       </c>
       <c r="L131">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="M131">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="N131">
-        <v>1.045</v>
+        <v>2.55</v>
       </c>
       <c r="O131">
-        <v>13</v>
+        <v>2.875</v>
       </c>
       <c r="P131">
-        <v>34</v>
+        <v>3.1</v>
       </c>
       <c r="Q131">
-        <v>-3</v>
+        <v>-0.25</v>
       </c>
       <c r="R131">
-        <v>1.9</v>
+        <v>2.125</v>
       </c>
       <c r="S131">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T131">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U131">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="V131">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W131">
-        <v>0.04499999999999993</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA131">
-        <v>0.95</v>
+        <v>0.375</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC131">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12174,7 +12174,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6844814</v>
+        <v>6844811</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12186,76 +12186,76 @@
         <v>45318.5</v>
       </c>
       <c r="F132" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G132" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H132">
         <v>1</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K132">
-        <v>2.375</v>
+        <v>1.125</v>
       </c>
       <c r="L132">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="M132">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="N132">
-        <v>2.55</v>
+        <v>1.045</v>
       </c>
       <c r="O132">
-        <v>2.875</v>
+        <v>13</v>
       </c>
       <c r="P132">
-        <v>3.1</v>
+        <v>34</v>
       </c>
       <c r="Q132">
-        <v>-0.25</v>
+        <v>-3</v>
       </c>
       <c r="R132">
-        <v>2.125</v>
+        <v>1.9</v>
       </c>
       <c r="S132">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T132">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U132">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="V132">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="X132">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.375</v>
+        <v>0.95</v>
       </c>
       <c r="AB132">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12619,7 +12619,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6844818</v>
+        <v>6844819</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12631,76 +12631,76 @@
         <v>45325.5</v>
       </c>
       <c r="F137" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G137" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137">
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K137">
+        <v>2.3</v>
+      </c>
+      <c r="L137">
+        <v>3</v>
+      </c>
+      <c r="M137">
         <v>3.4</v>
       </c>
-      <c r="L137">
-        <v>3.25</v>
-      </c>
-      <c r="M137">
-        <v>2.15</v>
-      </c>
       <c r="N137">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="O137">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P137">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="Q137">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R137">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S137">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T137">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U137">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V137">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB137">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12708,7 +12708,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6844817</v>
+        <v>6844818</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12720,76 +12720,76 @@
         <v>45325.5</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G138" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138" t="s">
+        <v>42</v>
+      </c>
+      <c r="K138">
+        <v>3.4</v>
+      </c>
+      <c r="L138">
+        <v>3.25</v>
+      </c>
+      <c r="M138">
+        <v>2.15</v>
+      </c>
+      <c r="N138">
+        <v>2.875</v>
+      </c>
+      <c r="O138">
         <v>3</v>
       </c>
-      <c r="J138" t="s">
-        <v>43</v>
-      </c>
-      <c r="K138">
-        <v>1.909</v>
-      </c>
-      <c r="L138">
-        <v>3.4</v>
-      </c>
-      <c r="M138">
-        <v>4</v>
-      </c>
-      <c r="N138">
-        <v>1.85</v>
-      </c>
-      <c r="O138">
-        <v>3.4</v>
-      </c>
       <c r="P138">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q138">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R138">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S138">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T138">
         <v>2.25</v>
       </c>
       <c r="U138">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V138">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y138">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA138">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB138">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12797,7 +12797,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6844816</v>
+        <v>6844817</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12809,13 +12809,13 @@
         <v>45325.5</v>
       </c>
       <c r="F139" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G139" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139">
         <v>3</v>
@@ -12824,58 +12824,58 @@
         <v>43</v>
       </c>
       <c r="K139">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="L139">
+        <v>3.4</v>
+      </c>
+      <c r="M139">
+        <v>4</v>
+      </c>
+      <c r="N139">
+        <v>1.85</v>
+      </c>
+      <c r="O139">
+        <v>3.4</v>
+      </c>
+      <c r="P139">
+        <v>4.5</v>
+      </c>
+      <c r="Q139">
+        <v>-0.5</v>
+      </c>
+      <c r="R139">
+        <v>1.85</v>
+      </c>
+      <c r="S139">
+        <v>2</v>
+      </c>
+      <c r="T139">
+        <v>2.25</v>
+      </c>
+      <c r="U139">
+        <v>1.95</v>
+      </c>
+      <c r="V139">
+        <v>1.9</v>
+      </c>
+      <c r="W139">
+        <v>-1</v>
+      </c>
+      <c r="X139">
+        <v>-1</v>
+      </c>
+      <c r="Y139">
         <v>3.5</v>
       </c>
-      <c r="M139">
-        <v>2.3</v>
-      </c>
-      <c r="N139">
-        <v>2.8</v>
-      </c>
-      <c r="O139">
-        <v>3.5</v>
-      </c>
-      <c r="P139">
-        <v>2.4</v>
-      </c>
-      <c r="Q139">
-        <v>0</v>
-      </c>
-      <c r="R139">
-        <v>2.05</v>
-      </c>
-      <c r="S139">
-        <v>1.8</v>
-      </c>
-      <c r="T139">
-        <v>2.5</v>
-      </c>
-      <c r="U139">
-        <v>2</v>
-      </c>
-      <c r="V139">
-        <v>1.85</v>
-      </c>
-      <c r="W139">
-        <v>-1</v>
-      </c>
-      <c r="X139">
-        <v>-1</v>
-      </c>
-      <c r="Y139">
-        <v>1.4</v>
-      </c>
       <c r="Z139">
         <v>-1</v>
       </c>
       <c r="AA139">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB139">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -12886,7 +12886,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6844819</v>
+        <v>6844816</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12898,56 +12898,56 @@
         <v>45325.5</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G140" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J140" t="s">
         <v>43</v>
       </c>
       <c r="K140">
+        <v>2.875</v>
+      </c>
+      <c r="L140">
+        <v>3.5</v>
+      </c>
+      <c r="M140">
         <v>2.3</v>
       </c>
-      <c r="L140">
-        <v>3</v>
-      </c>
-      <c r="M140">
-        <v>3.4</v>
-      </c>
       <c r="N140">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="O140">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P140">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R140">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S140">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T140">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U140">
+        <v>2</v>
+      </c>
+      <c r="V140">
         <v>1.85</v>
       </c>
-      <c r="V140">
-        <v>2</v>
-      </c>
       <c r="W140">
         <v>-1</v>
       </c>
@@ -12955,19 +12955,19 @@
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="Z140">
         <v>-1</v>
       </c>
       <c r="AA140">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC140">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13598,7 +13598,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7667636</v>
+        <v>7667637</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13610,40 +13610,40 @@
         <v>45336.69791666666</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G148" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H148">
         <v>3</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J148" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K148">
-        <v>1.1</v>
+        <v>1.85</v>
       </c>
       <c r="L148">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="M148">
-        <v>23</v>
+        <v>4.2</v>
       </c>
       <c r="N148">
-        <v>1.09</v>
+        <v>1.95</v>
       </c>
       <c r="O148">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="P148">
-        <v>19</v>
+        <v>3.8</v>
       </c>
       <c r="Q148">
-        <v>-2.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R148">
         <v>2</v>
@@ -13652,19 +13652,19 @@
         <v>1.85</v>
       </c>
       <c r="T148">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V148">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W148">
-        <v>0.09000000000000008</v>
+        <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y148">
         <v>-1</v>
@@ -13676,10 +13676,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB148">
-        <v>0.475</v>
+        <v>1.05</v>
       </c>
       <c r="AC148">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13687,7 +13687,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7667637</v>
+        <v>7667636</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13699,40 +13699,40 @@
         <v>45336.69791666666</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G149" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H149">
         <v>3</v>
       </c>
       <c r="I149">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K149">
-        <v>1.85</v>
+        <v>1.1</v>
       </c>
       <c r="L149">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="M149">
-        <v>4.2</v>
+        <v>23</v>
       </c>
       <c r="N149">
-        <v>1.95</v>
+        <v>1.09</v>
       </c>
       <c r="O149">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="P149">
-        <v>3.8</v>
+        <v>19</v>
       </c>
       <c r="Q149">
-        <v>-0.5</v>
+        <v>-2.75</v>
       </c>
       <c r="R149">
         <v>2</v>
@@ -13741,19 +13741,19 @@
         <v>1.85</v>
       </c>
       <c r="T149">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U149">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V149">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="X149">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
         <v>-1</v>
@@ -13765,10 +13765,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB149">
-        <v>1.05</v>
+        <v>0.475</v>
       </c>
       <c r="AC149">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -14310,7 +14310,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6845527</v>
+        <v>6921111</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14322,58 +14322,58 @@
         <v>45346.5</v>
       </c>
       <c r="F156" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G156" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J156" t="s">
         <v>41</v>
       </c>
       <c r="K156">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L156">
+        <v>3.25</v>
+      </c>
+      <c r="M156">
         <v>3.5</v>
       </c>
-      <c r="M156">
-        <v>3.4</v>
-      </c>
       <c r="N156">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="O156">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P156">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q156">
         <v>-0.25</v>
       </c>
       <c r="R156">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="S156">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="T156">
         <v>2.25</v>
       </c>
       <c r="U156">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V156">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W156">
-        <v>1.5</v>
+        <v>1.375</v>
       </c>
       <c r="X156">
         <v>-1</v>
@@ -14382,16 +14382,16 @@
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>1.075</v>
+        <v>1.025</v>
       </c>
       <c r="AA156">
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC156">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14399,7 +14399,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6921111</v>
+        <v>6845535</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14411,58 +14411,58 @@
         <v>45346.5</v>
       </c>
       <c r="F157" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G157" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H157">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J157" t="s">
         <v>41</v>
       </c>
       <c r="K157">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="L157">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M157">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N157">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O157">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P157">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q157">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R157">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S157">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T157">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U157">
+        <v>1.9</v>
+      </c>
+      <c r="V157">
         <v>1.95</v>
       </c>
-      <c r="V157">
-        <v>1.9</v>
-      </c>
       <c r="W157">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="X157">
         <v>-1</v>
@@ -14471,16 +14471,16 @@
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14488,7 +14488,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6845535</v>
+        <v>6845528</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14500,49 +14500,49 @@
         <v>45346.5</v>
       </c>
       <c r="F158" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G158" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
         <v>41</v>
       </c>
       <c r="K158">
-        <v>1.833</v>
+        <v>1.3</v>
       </c>
       <c r="L158">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M158">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N158">
-        <v>1.909</v>
+        <v>1.285</v>
       </c>
       <c r="O158">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="P158">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q158">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R158">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S158">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T158">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U158">
         <v>1.9</v>
@@ -14551,7 +14551,7 @@
         <v>1.95</v>
       </c>
       <c r="W158">
-        <v>0.909</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X158">
         <v>-1</v>
@@ -14560,16 +14560,16 @@
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA158">
         <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC158">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14577,7 +14577,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6845528</v>
+        <v>6845527</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14589,13 +14589,13 @@
         <v>45346.5</v>
       </c>
       <c r="F159" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G159" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H159">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -14604,43 +14604,43 @@
         <v>41</v>
       </c>
       <c r="K159">
-        <v>1.3</v>
+        <v>2.05</v>
       </c>
       <c r="L159">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M159">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="N159">
-        <v>1.285</v>
+        <v>2.5</v>
       </c>
       <c r="O159">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="P159">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q159">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R159">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="S159">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="T159">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U159">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V159">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W159">
-        <v>0.2849999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -14649,16 +14649,16 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.825</v>
+        <v>1.075</v>
       </c>
       <c r="AA159">
         <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14933,7 +14933,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6956501</v>
+        <v>6957560</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14945,73 +14945,73 @@
         <v>45350.69791666666</v>
       </c>
       <c r="F163" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G163" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H163">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I163">
+        <v>2</v>
+      </c>
+      <c r="J163" t="s">
+        <v>43</v>
+      </c>
+      <c r="K163">
+        <v>6</v>
+      </c>
+      <c r="L163">
+        <v>4.5</v>
+      </c>
+      <c r="M163">
+        <v>1.45</v>
+      </c>
+      <c r="N163">
+        <v>8</v>
+      </c>
+      <c r="O163">
+        <v>4.2</v>
+      </c>
+      <c r="P163">
+        <v>1.45</v>
+      </c>
+      <c r="Q163">
         <v>1</v>
       </c>
-      <c r="J163" t="s">
-        <v>41</v>
-      </c>
-      <c r="K163">
-        <v>1.2</v>
-      </c>
-      <c r="L163">
-        <v>6</v>
-      </c>
-      <c r="M163">
-        <v>13</v>
-      </c>
-      <c r="N163">
-        <v>1.142</v>
-      </c>
-      <c r="O163">
-        <v>8.5</v>
-      </c>
-      <c r="P163">
-        <v>15</v>
-      </c>
-      <c r="Q163">
-        <v>-2.25</v>
-      </c>
       <c r="R163">
+        <v>2.05</v>
+      </c>
+      <c r="S163">
+        <v>1.8</v>
+      </c>
+      <c r="T163">
+        <v>2.5</v>
+      </c>
+      <c r="U163">
         <v>1.85</v>
       </c>
-      <c r="S163">
-        <v>2</v>
-      </c>
-      <c r="T163">
-        <v>3.75</v>
-      </c>
-      <c r="U163">
-        <v>1.95</v>
-      </c>
       <c r="V163">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W163">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z163">
+        <v>0</v>
+      </c>
+      <c r="AA163">
+        <v>-0</v>
+      </c>
+      <c r="AB163">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA163">
-        <v>-1</v>
-      </c>
-      <c r="AB163">
-        <v>0.95</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -15022,7 +15022,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6957560</v>
+        <v>6956501</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15034,73 +15034,73 @@
         <v>45350.69791666666</v>
       </c>
       <c r="F164" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H164">
+        <v>7</v>
+      </c>
+      <c r="I164">
         <v>1</v>
       </c>
-      <c r="I164">
-        <v>2</v>
-      </c>
       <c r="J164" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K164">
+        <v>1.2</v>
+      </c>
+      <c r="L164">
         <v>6</v>
       </c>
-      <c r="L164">
-        <v>4.5</v>
-      </c>
       <c r="M164">
-        <v>1.45</v>
+        <v>13</v>
       </c>
       <c r="N164">
-        <v>8</v>
+        <v>1.142</v>
       </c>
       <c r="O164">
-        <v>4.2</v>
+        <v>8.5</v>
       </c>
       <c r="P164">
-        <v>1.45</v>
+        <v>15</v>
       </c>
       <c r="Q164">
-        <v>1</v>
+        <v>-2.25</v>
       </c>
       <c r="R164">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S164">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T164">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U164">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V164">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA164">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC164">
         <v>-1</v>
@@ -16731,10 +16731,10 @@
         <v>2.5</v>
       </c>
       <c r="U183">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V183">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W183">
         <v>0</v>
@@ -16787,28 +16787,28 @@
         <v>1.285</v>
       </c>
       <c r="O184">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="P184">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Q184">
         <v>-1.75</v>
       </c>
       <c r="R184">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S184">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T184">
         <v>3</v>
       </c>
       <c r="U184">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V184">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W184">
         <v>0</v>
@@ -16858,10 +16858,10 @@
         <v>2.5</v>
       </c>
       <c r="N185">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="O185">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P185">
         <v>2.6</v>
@@ -16879,10 +16879,10 @@
         <v>2.25</v>
       </c>
       <c r="U185">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V185">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W185">
         <v>0</v>

--- a/Scotland Premiership/Scotland Premiership.xlsx
+++ b/Scotland Premiership/Scotland Premiership.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC186"/>
+  <dimension ref="A1:AC183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6844752</v>
+        <v>6844751</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,49 +5333,49 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G55" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K55">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L55">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M55">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="N55">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="O55">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P55">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q55">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R55">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S55">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T55">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U55">
         <v>2.025</v>
@@ -5387,22 +5387,22 @@
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z55">
         <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB55">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6844751</v>
+        <v>6844752</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,49 +5422,49 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K56">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L56">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M56">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N56">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="O56">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P56">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R56">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S56">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T56">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U56">
         <v>2.025</v>
@@ -5476,22 +5476,22 @@
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y56">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
         <v>-1</v>
       </c>
       <c r="AA56">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB56">
         <v>1.025</v>
       </c>
-      <c r="AB56">
-        <v>-0.5</v>
-      </c>
       <c r="AC56">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -8080,7 +8080,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6844776</v>
+        <v>6845513</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8092,10 +8092,10 @@
         <v>45263.5</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8107,43 +8107,43 @@
         <v>41</v>
       </c>
       <c r="K86">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="L86">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M86">
-        <v>8.5</v>
+        <v>3.3</v>
       </c>
       <c r="N86">
-        <v>1.166</v>
+        <v>2.3</v>
       </c>
       <c r="O86">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="P86">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="Q86">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S86">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T86">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U86">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V86">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W86">
-        <v>0.1659999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8152,16 +8152,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA86">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6845513</v>
+        <v>6844776</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,10 +8181,10 @@
         <v>45263.5</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8196,43 +8196,43 @@
         <v>41</v>
       </c>
       <c r="K87">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="L87">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M87">
-        <v>3.3</v>
+        <v>8.5</v>
       </c>
       <c r="N87">
-        <v>2.3</v>
+        <v>1.166</v>
       </c>
       <c r="O87">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="P87">
+        <v>17</v>
+      </c>
+      <c r="Q87">
+        <v>-2</v>
+      </c>
+      <c r="R87">
+        <v>1.875</v>
+      </c>
+      <c r="S87">
+        <v>1.975</v>
+      </c>
+      <c r="T87">
         <v>3</v>
       </c>
-      <c r="Q87">
-        <v>-0.25</v>
-      </c>
-      <c r="R87">
+      <c r="U87">
+        <v>1.825</v>
+      </c>
+      <c r="V87">
         <v>2.025</v>
       </c>
-      <c r="S87">
-        <v>1.825</v>
-      </c>
-      <c r="T87">
-        <v>2.5</v>
-      </c>
-      <c r="U87">
-        <v>1.95</v>
-      </c>
-      <c r="V87">
-        <v>1.9</v>
-      </c>
       <c r="W87">
-        <v>1.3</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8241,16 +8241,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
+        <v>0</v>
+      </c>
+      <c r="AA87">
+        <v>-0</v>
+      </c>
+      <c r="AB87">
+        <v>-1</v>
+      </c>
+      <c r="AC87">
         <v>1.025</v>
-      </c>
-      <c r="AA87">
-        <v>-1</v>
-      </c>
-      <c r="AB87">
-        <v>-1</v>
-      </c>
-      <c r="AC87">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6844781</v>
+        <v>6844778</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8359,76 +8359,76 @@
         <v>45266.69791666666</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G89" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
         <v>1</v>
       </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
       <c r="J89" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K89">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="L89">
+        <v>3.25</v>
+      </c>
+      <c r="M89">
         <v>3.2</v>
       </c>
-      <c r="M89">
+      <c r="N89">
+        <v>2.1</v>
+      </c>
+      <c r="O89">
+        <v>3.4</v>
+      </c>
+      <c r="P89">
+        <v>3.6</v>
+      </c>
+      <c r="Q89">
+        <v>-0.5</v>
+      </c>
+      <c r="R89">
+        <v>2.05</v>
+      </c>
+      <c r="S89">
+        <v>1.8</v>
+      </c>
+      <c r="T89">
+        <v>2.25</v>
+      </c>
+      <c r="U89">
+        <v>1.9</v>
+      </c>
+      <c r="V89">
+        <v>1.95</v>
+      </c>
+      <c r="W89">
+        <v>-1</v>
+      </c>
+      <c r="X89">
+        <v>-1</v>
+      </c>
+      <c r="Y89">
         <v>2.6</v>
       </c>
-      <c r="N89">
-        <v>3</v>
-      </c>
-      <c r="O89">
-        <v>2.9</v>
-      </c>
-      <c r="P89">
-        <v>2.625</v>
-      </c>
-      <c r="Q89">
-        <v>0</v>
-      </c>
-      <c r="R89">
-        <v>1.925</v>
-      </c>
-      <c r="S89">
-        <v>1.925</v>
-      </c>
-      <c r="T89">
-        <v>2</v>
-      </c>
-      <c r="U89">
-        <v>2.05</v>
-      </c>
-      <c r="V89">
-        <v>1.8</v>
-      </c>
-      <c r="W89">
-        <v>2</v>
-      </c>
-      <c r="X89">
-        <v>-1</v>
-      </c>
-      <c r="Y89">
-        <v>-1</v>
-      </c>
       <c r="Z89">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6844778</v>
+        <v>6844781</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,76 +8448,76 @@
         <v>45266.69791666666</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K90">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="L90">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M90">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="N90">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="O90">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P90">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q90">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R90">
+        <v>1.925</v>
+      </c>
+      <c r="S90">
+        <v>1.925</v>
+      </c>
+      <c r="T90">
+        <v>2</v>
+      </c>
+      <c r="U90">
         <v>2.05</v>
       </c>
-      <c r="S90">
+      <c r="V90">
         <v>1.8</v>
       </c>
-      <c r="T90">
-        <v>2.25</v>
-      </c>
-      <c r="U90">
-        <v>1.9</v>
-      </c>
-      <c r="V90">
-        <v>1.95</v>
-      </c>
       <c r="W90">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA90">
+        <v>-1</v>
+      </c>
+      <c r="AB90">
+        <v>-1</v>
+      </c>
+      <c r="AC90">
         <v>0.8</v>
-      </c>
-      <c r="AB90">
-        <v>-1</v>
-      </c>
-      <c r="AC90">
-        <v>0.95</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -9504,7 +9504,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6844788</v>
+        <v>6844787</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9516,76 +9516,76 @@
         <v>45276.5</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K102">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="L102">
         <v>3.25</v>
       </c>
       <c r="M102">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="N102">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="O102">
         <v>3.3</v>
       </c>
       <c r="P102">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q102">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R102">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S102">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T102">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U102">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V102">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y102">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA102">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB102">
         <v>-1</v>
       </c>
       <c r="AC102">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6844787</v>
+        <v>6844788</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,76 +9605,76 @@
         <v>45276.5</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G103" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K103">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="L103">
         <v>3.25</v>
       </c>
       <c r="M103">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="N103">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="O103">
         <v>3.3</v>
       </c>
       <c r="P103">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R103">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S103">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T103">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V103">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z103">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB103">
         <v>-1</v>
       </c>
       <c r="AC103">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -10305,7 +10305,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6844798</v>
+        <v>6844800</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10317,76 +10317,76 @@
         <v>45287.69791666666</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H111">
         <v>0</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K111">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="L111">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M111">
+        <v>2.625</v>
+      </c>
+      <c r="N111">
+        <v>2.875</v>
+      </c>
+      <c r="O111">
+        <v>2.9</v>
+      </c>
+      <c r="P111">
         <v>2.75</v>
       </c>
-      <c r="N111">
-        <v>2.3</v>
-      </c>
-      <c r="O111">
-        <v>3</v>
-      </c>
-      <c r="P111">
-        <v>3.4</v>
-      </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R111">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S111">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T111">
         <v>2</v>
       </c>
       <c r="U111">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V111">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z111">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
       <c r="AB111">
         <v>-1</v>
       </c>
       <c r="AC111">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6844800</v>
+        <v>6844798</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,76 +10406,76 @@
         <v>45287.69791666666</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G112" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H112">
         <v>0</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K112">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="L112">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M112">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="N112">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="O112">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P112">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q112">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S112">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T112">
         <v>2</v>
       </c>
       <c r="U112">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V112">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y112">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA112">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
       <c r="AB112">
         <v>-1</v>
       </c>
       <c r="AC112">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -11017,7 +11017,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6844842</v>
+        <v>6844808</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11029,49 +11029,49 @@
         <v>45293.5</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H119">
+        <v>3</v>
+      </c>
+      <c r="I119">
         <v>1</v>
       </c>
-      <c r="I119">
-        <v>2</v>
-      </c>
       <c r="J119" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K119">
-        <v>3.25</v>
+        <v>1.25</v>
       </c>
       <c r="L119">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
       <c r="M119">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N119">
-        <v>4</v>
+        <v>1.222</v>
       </c>
       <c r="O119">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P119">
-        <v>1.909</v>
+        <v>11</v>
       </c>
       <c r="Q119">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R119">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S119">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T119">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U119">
         <v>2</v>
@@ -11080,19 +11080,19 @@
         <v>1.85</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA119">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB119">
         <v>1</v>
@@ -11106,7 +11106,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6844809</v>
+        <v>6844807</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11118,73 +11118,73 @@
         <v>45293.5</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G120" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K120">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L120">
+        <v>3.25</v>
+      </c>
+      <c r="M120">
+        <v>5</v>
+      </c>
+      <c r="N120">
+        <v>1.909</v>
+      </c>
+      <c r="O120">
         <v>3.4</v>
       </c>
-      <c r="M120">
-        <v>2.3</v>
-      </c>
-      <c r="N120">
-        <v>3.25</v>
-      </c>
-      <c r="O120">
-        <v>3.3</v>
-      </c>
       <c r="P120">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="Q120">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S120">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T120">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V120">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y120">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB120">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11195,7 +11195,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6844807</v>
+        <v>6844842</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11207,73 +11207,73 @@
         <v>45293.5</v>
       </c>
       <c r="F121" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G121" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121">
         <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K121">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="L121">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="M121">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N121">
+        <v>4</v>
+      </c>
+      <c r="O121">
+        <v>3.6</v>
+      </c>
+      <c r="P121">
         <v>1.909</v>
       </c>
-      <c r="O121">
-        <v>3.4</v>
-      </c>
-      <c r="P121">
-        <v>4</v>
-      </c>
       <c r="Q121">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R121">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S121">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T121">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U121">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V121">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB121">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC121">
         <v>-1</v>
@@ -11284,7 +11284,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6844808</v>
+        <v>6844809</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11296,73 +11296,73 @@
         <v>45293.5</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
         <v>3</v>
       </c>
-      <c r="I122">
+      <c r="J122" t="s">
+        <v>43</v>
+      </c>
+      <c r="K122">
+        <v>3</v>
+      </c>
+      <c r="L122">
+        <v>3.4</v>
+      </c>
+      <c r="M122">
+        <v>2.3</v>
+      </c>
+      <c r="N122">
+        <v>3.25</v>
+      </c>
+      <c r="O122">
+        <v>3.3</v>
+      </c>
+      <c r="P122">
+        <v>2.3</v>
+      </c>
+      <c r="Q122">
+        <v>0.25</v>
+      </c>
+      <c r="R122">
+        <v>1.85</v>
+      </c>
+      <c r="S122">
+        <v>2</v>
+      </c>
+      <c r="T122">
+        <v>2.25</v>
+      </c>
+      <c r="U122">
+        <v>1.8</v>
+      </c>
+      <c r="V122">
+        <v>2.05</v>
+      </c>
+      <c r="W122">
+        <v>-1</v>
+      </c>
+      <c r="X122">
+        <v>-1</v>
+      </c>
+      <c r="Y122">
+        <v>1.3</v>
+      </c>
+      <c r="Z122">
+        <v>-1</v>
+      </c>
+      <c r="AA122">
         <v>1</v>
       </c>
-      <c r="J122" t="s">
-        <v>41</v>
-      </c>
-      <c r="K122">
-        <v>1.25</v>
-      </c>
-      <c r="L122">
-        <v>5.5</v>
-      </c>
-      <c r="M122">
-        <v>12</v>
-      </c>
-      <c r="N122">
-        <v>1.222</v>
-      </c>
-      <c r="O122">
-        <v>7</v>
-      </c>
-      <c r="P122">
-        <v>11</v>
-      </c>
-      <c r="Q122">
-        <v>-1.75</v>
-      </c>
-      <c r="R122">
-        <v>1.825</v>
-      </c>
-      <c r="S122">
-        <v>2.025</v>
-      </c>
-      <c r="T122">
-        <v>3</v>
-      </c>
-      <c r="U122">
-        <v>2</v>
-      </c>
-      <c r="V122">
-        <v>1.85</v>
-      </c>
-      <c r="W122">
-        <v>0.222</v>
-      </c>
-      <c r="X122">
-        <v>-1</v>
-      </c>
-      <c r="Y122">
-        <v>-1</v>
-      </c>
-      <c r="Z122">
-        <v>0.4125</v>
-      </c>
-      <c r="AA122">
-        <v>-0.5</v>
-      </c>
       <c r="AB122">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC122">
         <v>-1</v>
@@ -11551,7 +11551,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7452605</v>
+        <v>7452337</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11563,70 +11563,70 @@
         <v>45315.69791666666</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G125" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>3</v>
+      </c>
+      <c r="J125" t="s">
+        <v>43</v>
+      </c>
+      <c r="K125">
+        <v>7</v>
+      </c>
+      <c r="L125">
+        <v>4.5</v>
+      </c>
+      <c r="M125">
+        <v>1.444</v>
+      </c>
+      <c r="N125">
+        <v>8</v>
+      </c>
+      <c r="O125">
+        <v>5.25</v>
+      </c>
+      <c r="P125">
+        <v>1.333</v>
+      </c>
+      <c r="Q125">
+        <v>1.5</v>
+      </c>
+      <c r="R125">
+        <v>1.85</v>
+      </c>
+      <c r="S125">
+        <v>2</v>
+      </c>
+      <c r="T125">
+        <v>3</v>
+      </c>
+      <c r="U125">
+        <v>2.025</v>
+      </c>
+      <c r="V125">
+        <v>1.825</v>
+      </c>
+      <c r="W125">
+        <v>-1</v>
+      </c>
+      <c r="X125">
+        <v>-1</v>
+      </c>
+      <c r="Y125">
+        <v>0.333</v>
+      </c>
+      <c r="Z125">
+        <v>-1</v>
+      </c>
+      <c r="AA125">
         <v>1</v>
-      </c>
-      <c r="I125">
-        <v>1</v>
-      </c>
-      <c r="J125" t="s">
-        <v>42</v>
-      </c>
-      <c r="K125">
-        <v>3.75</v>
-      </c>
-      <c r="L125">
-        <v>3.4</v>
-      </c>
-      <c r="M125">
-        <v>2</v>
-      </c>
-      <c r="N125">
-        <v>3.75</v>
-      </c>
-      <c r="O125">
-        <v>3.1</v>
-      </c>
-      <c r="P125">
-        <v>2.15</v>
-      </c>
-      <c r="Q125">
-        <v>0.25</v>
-      </c>
-      <c r="R125">
-        <v>2.025</v>
-      </c>
-      <c r="S125">
-        <v>1.825</v>
-      </c>
-      <c r="T125">
-        <v>2</v>
-      </c>
-      <c r="U125">
-        <v>1.8</v>
-      </c>
-      <c r="V125">
-        <v>2.05</v>
-      </c>
-      <c r="W125">
-        <v>-1</v>
-      </c>
-      <c r="X125">
-        <v>2.1</v>
-      </c>
-      <c r="Y125">
-        <v>-1</v>
-      </c>
-      <c r="Z125">
-        <v>0.5125</v>
-      </c>
-      <c r="AA125">
-        <v>-0.5</v>
       </c>
       <c r="AB125">
         <v>0</v>
@@ -11640,7 +11640,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7452337</v>
+        <v>7452605</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11652,70 +11652,70 @@
         <v>45315.69791666666</v>
       </c>
       <c r="F126" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G126" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K126">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="L126">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M126">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="N126">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="O126">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="P126">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="Q126">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R126">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S126">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U126">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V126">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W126">
         <v>-1</v>
       </c>
       <c r="X126">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y126">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA126">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB126">
         <v>0</v>
@@ -12530,7 +12530,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6844843</v>
+        <v>6844819</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12542,76 +12542,76 @@
         <v>45325.5</v>
       </c>
       <c r="F136" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G136" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136" t="s">
+        <v>43</v>
+      </c>
+      <c r="K136">
+        <v>2.3</v>
+      </c>
+      <c r="L136">
         <v>3</v>
       </c>
-      <c r="I136">
-        <v>0</v>
-      </c>
-      <c r="J136" t="s">
-        <v>41</v>
-      </c>
-      <c r="K136">
-        <v>1.111</v>
-      </c>
-      <c r="L136">
-        <v>9</v>
-      </c>
       <c r="M136">
-        <v>19</v>
+        <v>3.4</v>
       </c>
       <c r="N136">
-        <v>1.083</v>
+        <v>2.3</v>
       </c>
       <c r="O136">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="P136">
-        <v>23</v>
+        <v>3.4</v>
       </c>
       <c r="Q136">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S136">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T136">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="U136">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V136">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W136">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z136">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>0.45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12619,7 +12619,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6844819</v>
+        <v>6844818</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12631,76 +12631,76 @@
         <v>45325.5</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G137" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137">
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K137">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="L137">
+        <v>3.25</v>
+      </c>
+      <c r="M137">
+        <v>2.15</v>
+      </c>
+      <c r="N137">
+        <v>2.875</v>
+      </c>
+      <c r="O137">
         <v>3</v>
       </c>
-      <c r="M137">
-        <v>3.4</v>
-      </c>
-      <c r="N137">
-        <v>2.3</v>
-      </c>
-      <c r="O137">
-        <v>3.1</v>
-      </c>
       <c r="P137">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q137">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R137">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S137">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T137">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U137">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V137">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y137">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA137">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC137">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12708,7 +12708,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6844818</v>
+        <v>6844817</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12720,76 +12720,76 @@
         <v>45325.5</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G138" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J138" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K138">
+        <v>1.909</v>
+      </c>
+      <c r="L138">
         <v>3.4</v>
       </c>
-      <c r="L138">
-        <v>3.25</v>
-      </c>
       <c r="M138">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="N138">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="O138">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P138">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="Q138">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R138">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S138">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T138">
         <v>2.25</v>
       </c>
       <c r="U138">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V138">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z138">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB138">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC138">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12797,7 +12797,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6844817</v>
+        <v>6844816</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12809,13 +12809,13 @@
         <v>45325.5</v>
       </c>
       <c r="F139" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G139" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139">
         <v>3</v>
@@ -12824,41 +12824,41 @@
         <v>43</v>
       </c>
       <c r="K139">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="L139">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M139">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N139">
+        <v>2.8</v>
+      </c>
+      <c r="O139">
+        <v>3.5</v>
+      </c>
+      <c r="P139">
+        <v>2.4</v>
+      </c>
+      <c r="Q139">
+        <v>0</v>
+      </c>
+      <c r="R139">
+        <v>2.05</v>
+      </c>
+      <c r="S139">
+        <v>1.8</v>
+      </c>
+      <c r="T139">
+        <v>2.5</v>
+      </c>
+      <c r="U139">
+        <v>2</v>
+      </c>
+      <c r="V139">
         <v>1.85</v>
       </c>
-      <c r="O139">
-        <v>3.4</v>
-      </c>
-      <c r="P139">
-        <v>4.5</v>
-      </c>
-      <c r="Q139">
-        <v>-0.5</v>
-      </c>
-      <c r="R139">
-        <v>1.85</v>
-      </c>
-      <c r="S139">
-        <v>2</v>
-      </c>
-      <c r="T139">
-        <v>2.25</v>
-      </c>
-      <c r="U139">
-        <v>1.95</v>
-      </c>
-      <c r="V139">
-        <v>1.9</v>
-      </c>
       <c r="W139">
         <v>-1</v>
       </c>
@@ -12866,16 +12866,16 @@
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="Z139">
         <v>-1</v>
       </c>
       <c r="AA139">
+        <v>0.8</v>
+      </c>
+      <c r="AB139">
         <v>1</v>
-      </c>
-      <c r="AB139">
-        <v>0.95</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -12886,7 +12886,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6844816</v>
+        <v>6844843</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12898,76 +12898,76 @@
         <v>45325.5</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G140" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I140">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K140">
-        <v>2.875</v>
+        <v>1.111</v>
       </c>
       <c r="L140">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="M140">
-        <v>2.3</v>
+        <v>19</v>
       </c>
       <c r="N140">
-        <v>2.8</v>
+        <v>1.083</v>
       </c>
       <c r="O140">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="P140">
-        <v>2.4</v>
+        <v>23</v>
       </c>
       <c r="Q140">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="R140">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S140">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T140">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U140">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V140">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA140">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -16535,7 +16535,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7060944</v>
+        <v>7060945</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16544,49 +16544,49 @@
         <v>28</v>
       </c>
       <c r="E181" s="2">
-        <v>45381.5</v>
+        <v>45382.33333333334</v>
       </c>
       <c r="F181" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G181" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="K181">
-        <v>1.909</v>
+        <v>8</v>
       </c>
       <c r="L181">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M181">
-        <v>3.6</v>
+        <v>1.25</v>
       </c>
       <c r="N181">
-        <v>1.727</v>
+        <v>12</v>
       </c>
       <c r="O181">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="P181">
-        <v>4.75</v>
+        <v>1.222</v>
       </c>
       <c r="Q181">
-        <v>-0.75</v>
+        <v>2</v>
       </c>
       <c r="R181">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S181">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T181">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U181">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V181">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W181">
         <v>0</v>
@@ -16609,7 +16609,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7060946</v>
+        <v>7060947</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16618,49 +16618,49 @@
         <v>28</v>
       </c>
       <c r="E182" s="2">
-        <v>45381.5</v>
+        <v>45388.45833333334</v>
       </c>
       <c r="F182" t="s">
+        <v>30</v>
+      </c>
+      <c r="G182" t="s">
         <v>40</v>
       </c>
-      <c r="G182" t="s">
-        <v>35</v>
-      </c>
       <c r="K182">
-        <v>2.2</v>
+        <v>1.952</v>
       </c>
       <c r="L182">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M182">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N182">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="O182">
         <v>3.4</v>
       </c>
       <c r="P182">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q182">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R182">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S182">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T182">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U182">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V182">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W182">
         <v>0</v>
@@ -16683,7 +16683,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7065209</v>
+        <v>7092308</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16692,49 +16692,49 @@
         <v>28</v>
       </c>
       <c r="E183" s="2">
-        <v>45381.5</v>
+        <v>45388.45833333334</v>
       </c>
       <c r="F183" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G183" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K183">
-        <v>1.8</v>
+        <v>1.533</v>
       </c>
       <c r="L183">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M183">
+        <v>6</v>
+      </c>
+      <c r="N183">
+        <v>1.5</v>
+      </c>
+      <c r="O183">
         <v>4</v>
       </c>
-      <c r="N183">
-        <v>2</v>
-      </c>
-      <c r="O183">
-        <v>3.5</v>
-      </c>
       <c r="P183">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="Q183">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R183">
+        <v>1.825</v>
+      </c>
+      <c r="S183">
         <v>2.025</v>
-      </c>
-      <c r="S183">
-        <v>1.825</v>
       </c>
       <c r="T183">
         <v>2.5</v>
       </c>
       <c r="U183">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V183">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W183">
         <v>0</v>
@@ -16749,228 +16749,6 @@
         <v>0</v>
       </c>
       <c r="AA183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:29">
-      <c r="A184" s="1">
-        <v>182</v>
-      </c>
-      <c r="B184">
-        <v>7083334</v>
-      </c>
-      <c r="C184" t="s">
-        <v>28</v>
-      </c>
-      <c r="D184" t="s">
-        <v>28</v>
-      </c>
-      <c r="E184" s="2">
-        <v>45381.5</v>
-      </c>
-      <c r="F184" t="s">
-        <v>37</v>
-      </c>
-      <c r="G184" t="s">
-        <v>34</v>
-      </c>
-      <c r="K184">
-        <v>1.285</v>
-      </c>
-      <c r="L184">
-        <v>6</v>
-      </c>
-      <c r="M184">
-        <v>6.5</v>
-      </c>
-      <c r="N184">
-        <v>1.285</v>
-      </c>
-      <c r="O184">
-        <v>6.5</v>
-      </c>
-      <c r="P184">
-        <v>8</v>
-      </c>
-      <c r="Q184">
-        <v>-1.75</v>
-      </c>
-      <c r="R184">
-        <v>2.025</v>
-      </c>
-      <c r="S184">
-        <v>1.825</v>
-      </c>
-      <c r="T184">
-        <v>3</v>
-      </c>
-      <c r="U184">
-        <v>1.875</v>
-      </c>
-      <c r="V184">
-        <v>1.975</v>
-      </c>
-      <c r="W184">
-        <v>0</v>
-      </c>
-      <c r="X184">
-        <v>0</v>
-      </c>
-      <c r="Y184">
-        <v>0</v>
-      </c>
-      <c r="Z184">
-        <v>0</v>
-      </c>
-      <c r="AA184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:29">
-      <c r="A185" s="1">
-        <v>183</v>
-      </c>
-      <c r="B185">
-        <v>7023915</v>
-      </c>
-      <c r="C185" t="s">
-        <v>28</v>
-      </c>
-      <c r="D185" t="s">
-        <v>28</v>
-      </c>
-      <c r="E185" s="2">
-        <v>45381.5</v>
-      </c>
-      <c r="F185" t="s">
-        <v>32</v>
-      </c>
-      <c r="G185" t="s">
-        <v>30</v>
-      </c>
-      <c r="K185">
-        <v>2.5</v>
-      </c>
-      <c r="L185">
-        <v>3.4</v>
-      </c>
-      <c r="M185">
-        <v>2.5</v>
-      </c>
-      <c r="N185">
-        <v>2.75</v>
-      </c>
-      <c r="O185">
-        <v>3.25</v>
-      </c>
-      <c r="P185">
-        <v>2.6</v>
-      </c>
-      <c r="Q185">
-        <v>0</v>
-      </c>
-      <c r="R185">
-        <v>2</v>
-      </c>
-      <c r="S185">
-        <v>1.85</v>
-      </c>
-      <c r="T185">
-        <v>2.25</v>
-      </c>
-      <c r="U185">
-        <v>1.975</v>
-      </c>
-      <c r="V185">
-        <v>1.875</v>
-      </c>
-      <c r="W185">
-        <v>0</v>
-      </c>
-      <c r="X185">
-        <v>0</v>
-      </c>
-      <c r="Y185">
-        <v>0</v>
-      </c>
-      <c r="Z185">
-        <v>0</v>
-      </c>
-      <c r="AA185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:29">
-      <c r="A186" s="1">
-        <v>184</v>
-      </c>
-      <c r="B186">
-        <v>7060945</v>
-      </c>
-      <c r="C186" t="s">
-        <v>28</v>
-      </c>
-      <c r="D186" t="s">
-        <v>28</v>
-      </c>
-      <c r="E186" s="2">
-        <v>45382.33333333334</v>
-      </c>
-      <c r="F186" t="s">
-        <v>31</v>
-      </c>
-      <c r="G186" t="s">
-        <v>29</v>
-      </c>
-      <c r="K186">
-        <v>8</v>
-      </c>
-      <c r="L186">
-        <v>6</v>
-      </c>
-      <c r="M186">
-        <v>1.25</v>
-      </c>
-      <c r="N186">
-        <v>12</v>
-      </c>
-      <c r="O186">
-        <v>7</v>
-      </c>
-      <c r="P186">
-        <v>1.222</v>
-      </c>
-      <c r="Q186">
-        <v>2</v>
-      </c>
-      <c r="R186">
-        <v>1.85</v>
-      </c>
-      <c r="S186">
-        <v>2</v>
-      </c>
-      <c r="T186">
-        <v>3.25</v>
-      </c>
-      <c r="U186">
-        <v>1.925</v>
-      </c>
-      <c r="V186">
-        <v>1.925</v>
-      </c>
-      <c r="W186">
-        <v>0</v>
-      </c>
-      <c r="X186">
-        <v>0</v>
-      </c>
-      <c r="Y186">
-        <v>0</v>
-      </c>
-      <c r="Z186">
-        <v>0</v>
-      </c>
-      <c r="AA186">
         <v>0</v>
       </c>
     </row>

--- a/Scotland Premiership/Scotland Premiership.xlsx
+++ b/Scotland Premiership/Scotland Premiership.xlsx
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6844781</v>
+        <v>6844778</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,76 +8448,76 @@
         <v>45266.69791666666</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
         <v>1</v>
       </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
       <c r="J90" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K90">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="L90">
+        <v>3.25</v>
+      </c>
+      <c r="M90">
         <v>3.2</v>
       </c>
-      <c r="M90">
+      <c r="N90">
+        <v>2.1</v>
+      </c>
+      <c r="O90">
+        <v>3.4</v>
+      </c>
+      <c r="P90">
+        <v>3.6</v>
+      </c>
+      <c r="Q90">
+        <v>-0.5</v>
+      </c>
+      <c r="R90">
+        <v>2.05</v>
+      </c>
+      <c r="S90">
+        <v>1.8</v>
+      </c>
+      <c r="T90">
+        <v>2.25</v>
+      </c>
+      <c r="U90">
+        <v>1.9</v>
+      </c>
+      <c r="V90">
+        <v>1.95</v>
+      </c>
+      <c r="W90">
+        <v>-1</v>
+      </c>
+      <c r="X90">
+        <v>-1</v>
+      </c>
+      <c r="Y90">
         <v>2.6</v>
       </c>
-      <c r="N90">
-        <v>3</v>
-      </c>
-      <c r="O90">
-        <v>2.9</v>
-      </c>
-      <c r="P90">
-        <v>2.625</v>
-      </c>
-      <c r="Q90">
-        <v>0</v>
-      </c>
-      <c r="R90">
-        <v>1.925</v>
-      </c>
-      <c r="S90">
-        <v>1.925</v>
-      </c>
-      <c r="T90">
-        <v>2</v>
-      </c>
-      <c r="U90">
-        <v>2.05</v>
-      </c>
-      <c r="V90">
-        <v>1.8</v>
-      </c>
-      <c r="W90">
-        <v>2</v>
-      </c>
-      <c r="X90">
-        <v>-1</v>
-      </c>
-      <c r="Y90">
-        <v>-1</v>
-      </c>
       <c r="Z90">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6844778</v>
+        <v>6844781</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,76 +8537,76 @@
         <v>45266.69791666666</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K91">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="L91">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M91">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="N91">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="O91">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P91">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q91">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R91">
+        <v>1.925</v>
+      </c>
+      <c r="S91">
+        <v>1.925</v>
+      </c>
+      <c r="T91">
+        <v>2</v>
+      </c>
+      <c r="U91">
         <v>2.05</v>
       </c>
-      <c r="S91">
+      <c r="V91">
         <v>1.8</v>
       </c>
-      <c r="T91">
-        <v>2.25</v>
-      </c>
-      <c r="U91">
-        <v>1.9</v>
-      </c>
-      <c r="V91">
-        <v>1.95</v>
-      </c>
       <c r="W91">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA91">
+        <v>-1</v>
+      </c>
+      <c r="AB91">
+        <v>-1</v>
+      </c>
+      <c r="AC91">
         <v>0.8</v>
-      </c>
-      <c r="AB91">
-        <v>-1</v>
-      </c>
-      <c r="AC91">
-        <v>0.95</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6844783</v>
+        <v>6844782</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,76 +8893,76 @@
         <v>45269.5</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I95">
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K95">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="L95">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="M95">
-        <v>17</v>
+        <v>3.2</v>
       </c>
       <c r="N95">
-        <v>1.111</v>
+        <v>2.25</v>
       </c>
       <c r="O95">
-        <v>9</v>
+        <v>3.2</v>
       </c>
       <c r="P95">
-        <v>21</v>
+        <v>3.25</v>
       </c>
       <c r="Q95">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R95">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S95">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T95">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U95">
+        <v>1.875</v>
+      </c>
+      <c r="V95">
         <v>1.975</v>
       </c>
-      <c r="V95">
-        <v>1.875</v>
-      </c>
       <c r="W95">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA95">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AB95">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6844782</v>
+        <v>6844783</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,76 +8982,76 @@
         <v>45269.5</v>
       </c>
       <c r="F96" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G96" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I96">
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K96">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="L96">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="M96">
-        <v>3.2</v>
+        <v>17</v>
       </c>
       <c r="N96">
-        <v>2.25</v>
+        <v>1.111</v>
       </c>
       <c r="O96">
-        <v>3.2</v>
+        <v>9</v>
       </c>
       <c r="P96">
-        <v>3.25</v>
+        <v>21</v>
       </c>
       <c r="Q96">
-        <v>-0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R96">
+        <v>2</v>
+      </c>
+      <c r="S96">
+        <v>1.85</v>
+      </c>
+      <c r="T96">
+        <v>3.5</v>
+      </c>
+      <c r="U96">
         <v>1.975</v>
       </c>
-      <c r="S96">
+      <c r="V96">
         <v>1.875</v>
       </c>
-      <c r="T96">
-        <v>2.25</v>
-      </c>
-      <c r="U96">
-        <v>1.875</v>
-      </c>
-      <c r="V96">
-        <v>1.975</v>
-      </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="X96">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB96">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC96">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -10305,7 +10305,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6844798</v>
+        <v>6844800</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10317,76 +10317,76 @@
         <v>45287.69791666666</v>
       </c>
       <c r="F111" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H111">
         <v>0</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K111">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="L111">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M111">
+        <v>2.625</v>
+      </c>
+      <c r="N111">
+        <v>2.875</v>
+      </c>
+      <c r="O111">
+        <v>2.9</v>
+      </c>
+      <c r="P111">
         <v>2.75</v>
       </c>
-      <c r="N111">
-        <v>2.3</v>
-      </c>
-      <c r="O111">
-        <v>3</v>
-      </c>
-      <c r="P111">
-        <v>3.4</v>
-      </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R111">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S111">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T111">
         <v>2</v>
       </c>
       <c r="U111">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V111">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z111">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
       <c r="AB111">
         <v>-1</v>
       </c>
       <c r="AC111">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6844800</v>
+        <v>6844798</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,76 +10406,76 @@
         <v>45287.69791666666</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G112" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H112">
         <v>0</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K112">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="L112">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M112">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="N112">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="O112">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P112">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q112">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S112">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T112">
         <v>2</v>
       </c>
       <c r="U112">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V112">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y112">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA112">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
       <c r="AB112">
         <v>-1</v>
       </c>
       <c r="AC112">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10661,7 +10661,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6844804</v>
+        <v>6844803</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10673,73 +10673,73 @@
         <v>45290.5</v>
       </c>
       <c r="F115" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G115" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K115">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="L115">
         <v>3.5</v>
       </c>
       <c r="M115">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="N115">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="O115">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P115">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q115">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R115">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S115">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T115">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U115">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V115">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W115">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB115">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC115">
         <v>-1</v>
@@ -10750,7 +10750,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6844803</v>
+        <v>6844802</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10762,10 +10762,10 @@
         <v>45290.5</v>
       </c>
       <c r="F116" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G116" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -10777,46 +10777,46 @@
         <v>42</v>
       </c>
       <c r="K116">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L116">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M116">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="N116">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="O116">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P116">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q116">
         <v>-0.75</v>
       </c>
       <c r="R116">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S116">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T116">
         <v>2.5</v>
       </c>
       <c r="U116">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V116">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y116">
         <v>-1</v>
@@ -10825,10 +10825,10 @@
         <v>-1</v>
       </c>
       <c r="AA116">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AB116">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10839,7 +10839,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6844802</v>
+        <v>6844804</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10851,40 +10851,40 @@
         <v>45290.5</v>
       </c>
       <c r="F117" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G117" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K117">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="L117">
+        <v>3.5</v>
+      </c>
+      <c r="M117">
+        <v>4.2</v>
+      </c>
+      <c r="N117">
+        <v>2.15</v>
+      </c>
+      <c r="O117">
+        <v>3.25</v>
+      </c>
+      <c r="P117">
         <v>3.75</v>
       </c>
-      <c r="M117">
-        <v>5</v>
-      </c>
-      <c r="N117">
-        <v>1.615</v>
-      </c>
-      <c r="O117">
-        <v>4</v>
-      </c>
-      <c r="P117">
-        <v>5.25</v>
-      </c>
       <c r="Q117">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R117">
         <v>1.8</v>
@@ -10893,31 +10893,31 @@
         <v>2.05</v>
       </c>
       <c r="T117">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U117">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V117">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X117">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA117">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -11017,7 +11017,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6844808</v>
+        <v>6844807</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11029,73 +11029,73 @@
         <v>45293.5</v>
       </c>
       <c r="F119" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K119">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="L119">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M119">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N119">
-        <v>1.222</v>
+        <v>1.909</v>
       </c>
       <c r="O119">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P119">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="Q119">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R119">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S119">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T119">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U119">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V119">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W119">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB119">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11106,7 +11106,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6844842</v>
+        <v>6844808</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11118,49 +11118,49 @@
         <v>45293.5</v>
       </c>
       <c r="F120" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G120" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H120">
+        <v>3</v>
+      </c>
+      <c r="I120">
         <v>1</v>
       </c>
-      <c r="I120">
-        <v>2</v>
-      </c>
       <c r="J120" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K120">
-        <v>3.25</v>
+        <v>1.25</v>
       </c>
       <c r="L120">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
       <c r="M120">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N120">
-        <v>4</v>
+        <v>1.222</v>
       </c>
       <c r="O120">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P120">
-        <v>1.909</v>
+        <v>11</v>
       </c>
       <c r="Q120">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R120">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S120">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T120">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U120">
         <v>2</v>
@@ -11169,19 +11169,19 @@
         <v>1.85</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA120">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB120">
         <v>1</v>
@@ -11284,7 +11284,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6844807</v>
+        <v>6844842</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11296,73 +11296,73 @@
         <v>45293.5</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G122" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122">
         <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K122">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="L122">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="M122">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N122">
+        <v>4</v>
+      </c>
+      <c r="O122">
+        <v>3.6</v>
+      </c>
+      <c r="P122">
         <v>1.909</v>
       </c>
-      <c r="O122">
-        <v>3.4</v>
-      </c>
-      <c r="P122">
-        <v>4</v>
-      </c>
       <c r="Q122">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R122">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S122">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T122">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U122">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V122">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z122">
         <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB122">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC122">
         <v>-1</v>
@@ -12263,7 +12263,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7668001</v>
+        <v>7572459</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12275,76 +12275,76 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F133" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G133" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
         <v>42</v>
       </c>
       <c r="K133">
+        <v>2.5</v>
+      </c>
+      <c r="L133">
+        <v>3.2</v>
+      </c>
+      <c r="M133">
+        <v>2.8</v>
+      </c>
+      <c r="N133">
+        <v>2.25</v>
+      </c>
+      <c r="O133">
+        <v>3.25</v>
+      </c>
+      <c r="P133">
+        <v>3.3</v>
+      </c>
+      <c r="Q133">
+        <v>-0.25</v>
+      </c>
+      <c r="R133">
+        <v>1.975</v>
+      </c>
+      <c r="S133">
+        <v>1.875</v>
+      </c>
+      <c r="T133">
+        <v>2</v>
+      </c>
+      <c r="U133">
         <v>1.75</v>
       </c>
-      <c r="L133">
-        <v>3.5</v>
-      </c>
-      <c r="M133">
-        <v>4.75</v>
-      </c>
-      <c r="N133">
-        <v>1.909</v>
-      </c>
-      <c r="O133">
-        <v>3.4</v>
-      </c>
-      <c r="P133">
-        <v>4.333</v>
-      </c>
-      <c r="Q133">
+      <c r="V133">
+        <v>2.05</v>
+      </c>
+      <c r="W133">
+        <v>-1</v>
+      </c>
+      <c r="X133">
+        <v>2.25</v>
+      </c>
+      <c r="Y133">
+        <v>-1</v>
+      </c>
+      <c r="Z133">
         <v>-0.5</v>
       </c>
-      <c r="R133">
-        <v>1.875</v>
-      </c>
-      <c r="S133">
-        <v>1.975</v>
-      </c>
-      <c r="T133">
-        <v>2.5</v>
-      </c>
-      <c r="U133">
-        <v>1.975</v>
-      </c>
-      <c r="V133">
-        <v>1.875</v>
-      </c>
-      <c r="W133">
-        <v>-1</v>
-      </c>
-      <c r="X133">
-        <v>2.4</v>
-      </c>
-      <c r="Y133">
-        <v>-1</v>
-      </c>
-      <c r="Z133">
-        <v>-1</v>
-      </c>
       <c r="AA133">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC133">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12352,7 +12352,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7572459</v>
+        <v>7668001</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12364,76 +12364,76 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F134" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G134" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
         <v>42</v>
       </c>
       <c r="K134">
+        <v>1.75</v>
+      </c>
+      <c r="L134">
+        <v>3.5</v>
+      </c>
+      <c r="M134">
+        <v>4.75</v>
+      </c>
+      <c r="N134">
+        <v>1.909</v>
+      </c>
+      <c r="O134">
+        <v>3.4</v>
+      </c>
+      <c r="P134">
+        <v>4.333</v>
+      </c>
+      <c r="Q134">
+        <v>-0.5</v>
+      </c>
+      <c r="R134">
+        <v>1.875</v>
+      </c>
+      <c r="S134">
+        <v>1.975</v>
+      </c>
+      <c r="T134">
         <v>2.5</v>
       </c>
-      <c r="L134">
-        <v>3.2</v>
-      </c>
-      <c r="M134">
-        <v>2.8</v>
-      </c>
-      <c r="N134">
-        <v>2.25</v>
-      </c>
-      <c r="O134">
-        <v>3.25</v>
-      </c>
-      <c r="P134">
-        <v>3.3</v>
-      </c>
-      <c r="Q134">
-        <v>-0.25</v>
-      </c>
-      <c r="R134">
+      <c r="U134">
         <v>1.975</v>
       </c>
-      <c r="S134">
+      <c r="V134">
         <v>1.875</v>
       </c>
-      <c r="T134">
-        <v>2</v>
-      </c>
-      <c r="U134">
-        <v>1.75</v>
-      </c>
-      <c r="V134">
-        <v>2.05</v>
-      </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB134">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -14310,7 +14310,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6921112</v>
+        <v>6921111</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14322,49 +14322,49 @@
         <v>45346.5</v>
       </c>
       <c r="F156" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G156" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J156" t="s">
         <v>41</v>
       </c>
       <c r="K156">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L156">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M156">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N156">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="O156">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P156">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q156">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R156">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S156">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T156">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U156">
         <v>1.95</v>
@@ -14373,7 +14373,7 @@
         <v>1.9</v>
       </c>
       <c r="W156">
-        <v>0.8</v>
+        <v>1.375</v>
       </c>
       <c r="X156">
         <v>-1</v>
@@ -14382,16 +14382,16 @@
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AA156">
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC156">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14399,7 +14399,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6921111</v>
+        <v>6845535</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14411,58 +14411,58 @@
         <v>45346.5</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G157" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H157">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J157" t="s">
         <v>41</v>
       </c>
       <c r="K157">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="L157">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M157">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N157">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O157">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P157">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q157">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R157">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S157">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T157">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U157">
+        <v>1.9</v>
+      </c>
+      <c r="V157">
         <v>1.95</v>
       </c>
-      <c r="V157">
-        <v>1.9</v>
-      </c>
       <c r="W157">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="X157">
         <v>-1</v>
@@ -14471,16 +14471,16 @@
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14488,7 +14488,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6845535</v>
+        <v>6845528</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14500,49 +14500,49 @@
         <v>45346.5</v>
       </c>
       <c r="F158" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G158" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
         <v>41</v>
       </c>
       <c r="K158">
-        <v>1.833</v>
+        <v>1.3</v>
       </c>
       <c r="L158">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M158">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N158">
-        <v>1.909</v>
+        <v>1.285</v>
       </c>
       <c r="O158">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="P158">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q158">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R158">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S158">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T158">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U158">
         <v>1.9</v>
@@ -14551,7 +14551,7 @@
         <v>1.95</v>
       </c>
       <c r="W158">
-        <v>0.909</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X158">
         <v>-1</v>
@@ -14560,16 +14560,16 @@
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA158">
         <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC158">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14577,7 +14577,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6845528</v>
+        <v>6845527</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14589,13 +14589,13 @@
         <v>45346.5</v>
       </c>
       <c r="F159" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G159" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H159">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -14604,43 +14604,43 @@
         <v>41</v>
       </c>
       <c r="K159">
-        <v>1.3</v>
+        <v>2.05</v>
       </c>
       <c r="L159">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M159">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="N159">
-        <v>1.285</v>
+        <v>2.5</v>
       </c>
       <c r="O159">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="P159">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q159">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R159">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="S159">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="T159">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U159">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V159">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W159">
-        <v>0.2849999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -14649,16 +14649,16 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.825</v>
+        <v>1.075</v>
       </c>
       <c r="AA159">
         <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14666,7 +14666,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6845527</v>
+        <v>6921112</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14678,10 +14678,10 @@
         <v>45346.5</v>
       </c>
       <c r="F160" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G160" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H160">
         <v>2</v>
@@ -14693,43 +14693,43 @@
         <v>41</v>
       </c>
       <c r="K160">
+        <v>1.727</v>
+      </c>
+      <c r="L160">
+        <v>3.75</v>
+      </c>
+      <c r="M160">
+        <v>4.5</v>
+      </c>
+      <c r="N160">
+        <v>1.8</v>
+      </c>
+      <c r="O160">
+        <v>3.3</v>
+      </c>
+      <c r="P160">
+        <v>5.5</v>
+      </c>
+      <c r="Q160">
+        <v>-0.5</v>
+      </c>
+      <c r="R160">
+        <v>1.8</v>
+      </c>
+      <c r="S160">
         <v>2.05</v>
       </c>
-      <c r="L160">
-        <v>3.5</v>
-      </c>
-      <c r="M160">
-        <v>3.4</v>
-      </c>
-      <c r="N160">
-        <v>2.5</v>
-      </c>
-      <c r="O160">
-        <v>3.1</v>
-      </c>
-      <c r="P160">
-        <v>3</v>
-      </c>
-      <c r="Q160">
-        <v>-0.25</v>
-      </c>
-      <c r="R160">
-        <v>2.075</v>
-      </c>
-      <c r="S160">
-        <v>1.725</v>
-      </c>
       <c r="T160">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U160">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V160">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W160">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14738,16 +14738,16 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>1.075</v>
+        <v>0.8</v>
       </c>
       <c r="AA160">
         <v>-1</v>
       </c>
       <c r="AB160">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC160">
-        <v>0.4625</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -15022,7 +15022,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6845536</v>
+        <v>6956501</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15034,76 +15034,76 @@
         <v>45350.69791666666</v>
       </c>
       <c r="F164" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I164">
         <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K164">
+        <v>1.2</v>
+      </c>
+      <c r="L164">
+        <v>6</v>
+      </c>
+      <c r="M164">
+        <v>13</v>
+      </c>
+      <c r="N164">
+        <v>1.142</v>
+      </c>
+      <c r="O164">
+        <v>8.5</v>
+      </c>
+      <c r="P164">
+        <v>15</v>
+      </c>
+      <c r="Q164">
+        <v>-2.25</v>
+      </c>
+      <c r="R164">
+        <v>1.85</v>
+      </c>
+      <c r="S164">
+        <v>2</v>
+      </c>
+      <c r="T164">
+        <v>3.75</v>
+      </c>
+      <c r="U164">
+        <v>1.95</v>
+      </c>
+      <c r="V164">
         <v>1.9</v>
       </c>
-      <c r="L164">
-        <v>3.5</v>
-      </c>
-      <c r="M164">
-        <v>3.8</v>
-      </c>
-      <c r="N164">
-        <v>2</v>
-      </c>
-      <c r="O164">
-        <v>3.5</v>
-      </c>
-      <c r="P164">
-        <v>3.8</v>
-      </c>
-      <c r="Q164">
-        <v>-0.5</v>
-      </c>
-      <c r="R164">
-        <v>2</v>
-      </c>
-      <c r="S164">
-        <v>1.85</v>
-      </c>
-      <c r="T164">
-        <v>2.75</v>
-      </c>
-      <c r="U164">
-        <v>2.025</v>
-      </c>
-      <c r="V164">
-        <v>1.825</v>
-      </c>
       <c r="W164">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X164">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA164">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC164">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15111,7 +15111,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6845529</v>
+        <v>6845536</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15123,76 +15123,76 @@
         <v>45350.69791666666</v>
       </c>
       <c r="F165" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G165" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K165">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="L165">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M165">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="N165">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="O165">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P165">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="Q165">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R165">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S165">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T165">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U165">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V165">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W165">
         <v>-1</v>
       </c>
       <c r="X165">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y165">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
         <v>-1</v>
       </c>
       <c r="AA165">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB165">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15200,7 +15200,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6956501</v>
+        <v>6845529</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15212,76 +15212,76 @@
         <v>45350.69791666666</v>
       </c>
       <c r="F166" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G166" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H166">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K166">
-        <v>1.2</v>
+        <v>1.65</v>
       </c>
       <c r="L166">
+        <v>3.75</v>
+      </c>
+      <c r="M166">
+        <v>5</v>
+      </c>
+      <c r="N166">
+        <v>1.666</v>
+      </c>
+      <c r="O166">
+        <v>3.4</v>
+      </c>
+      <c r="P166">
         <v>6</v>
       </c>
-      <c r="M166">
-        <v>13</v>
-      </c>
-      <c r="N166">
-        <v>1.142</v>
-      </c>
-      <c r="O166">
-        <v>8.5</v>
-      </c>
-      <c r="P166">
-        <v>15</v>
-      </c>
       <c r="Q166">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R166">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S166">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T166">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U166">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V166">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W166">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z166">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB166">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -16624,7 +16624,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7083334</v>
+        <v>7065209</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16636,76 +16636,76 @@
         <v>45381.5</v>
       </c>
       <c r="F182" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G182" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I182">
         <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K182">
-        <v>1.285</v>
+        <v>1.8</v>
       </c>
       <c r="L182">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M182">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="N182">
-        <v>1.25</v>
+        <v>2.25</v>
       </c>
       <c r="O182">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P182">
-        <v>9</v>
+        <v>3.2</v>
       </c>
       <c r="Q182">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R182">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S182">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T182">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U182">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V182">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W182">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X182">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA182">
+        <v>0.425</v>
+      </c>
+      <c r="AB182">
         <v>-0.5</v>
       </c>
-      <c r="AB182">
-        <v>0.925</v>
-      </c>
       <c r="AC182">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16802,7 +16802,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7065209</v>
+        <v>7083334</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16814,76 +16814,76 @@
         <v>45381.5</v>
       </c>
       <c r="F184" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G184" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I184">
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K184">
-        <v>1.8</v>
+        <v>1.285</v>
       </c>
       <c r="L184">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M184">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N184">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="O184">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P184">
-        <v>3.2</v>
+        <v>9</v>
       </c>
       <c r="Q184">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R184">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S184">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T184">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U184">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V184">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W184">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X184">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
+        <v>0.4375</v>
+      </c>
+      <c r="AA184">
         <v>-0.5</v>
       </c>
-      <c r="AA184">
-        <v>0.425</v>
-      </c>
       <c r="AB184">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC184">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -17256,10 +17256,10 @@
         <v>-1</v>
       </c>
       <c r="R189">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S189">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T189">
         <v>2.5</v>
@@ -17404,19 +17404,19 @@
         <v>0</v>
       </c>
       <c r="R191">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S191">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T191">
         <v>2.25</v>
       </c>
       <c r="U191">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V191">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W191">
         <v>0</v>

--- a/Scotland Premiership/Scotland Premiership.xlsx
+++ b/Scotland Premiership/Scotland Premiership.xlsx
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6844778</v>
+        <v>6844781</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,76 +8448,76 @@
         <v>45266.69791666666</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K90">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="L90">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M90">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="N90">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="O90">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P90">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q90">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R90">
+        <v>1.925</v>
+      </c>
+      <c r="S90">
+        <v>1.925</v>
+      </c>
+      <c r="T90">
+        <v>2</v>
+      </c>
+      <c r="U90">
         <v>2.05</v>
       </c>
-      <c r="S90">
+      <c r="V90">
         <v>1.8</v>
       </c>
-      <c r="T90">
-        <v>2.25</v>
-      </c>
-      <c r="U90">
-        <v>1.9</v>
-      </c>
-      <c r="V90">
-        <v>1.95</v>
-      </c>
       <c r="W90">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA90">
+        <v>-1</v>
+      </c>
+      <c r="AB90">
+        <v>-1</v>
+      </c>
+      <c r="AC90">
         <v>0.8</v>
-      </c>
-      <c r="AB90">
-        <v>-1</v>
-      </c>
-      <c r="AC90">
-        <v>0.95</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6844781</v>
+        <v>6844778</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,76 +8537,76 @@
         <v>45266.69791666666</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G91" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
         <v>1</v>
       </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
       <c r="J91" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K91">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="L91">
+        <v>3.25</v>
+      </c>
+      <c r="M91">
         <v>3.2</v>
       </c>
-      <c r="M91">
+      <c r="N91">
+        <v>2.1</v>
+      </c>
+      <c r="O91">
+        <v>3.4</v>
+      </c>
+      <c r="P91">
+        <v>3.6</v>
+      </c>
+      <c r="Q91">
+        <v>-0.5</v>
+      </c>
+      <c r="R91">
+        <v>2.05</v>
+      </c>
+      <c r="S91">
+        <v>1.8</v>
+      </c>
+      <c r="T91">
+        <v>2.25</v>
+      </c>
+      <c r="U91">
+        <v>1.9</v>
+      </c>
+      <c r="V91">
+        <v>1.95</v>
+      </c>
+      <c r="W91">
+        <v>-1</v>
+      </c>
+      <c r="X91">
+        <v>-1</v>
+      </c>
+      <c r="Y91">
         <v>2.6</v>
       </c>
-      <c r="N91">
-        <v>3</v>
-      </c>
-      <c r="O91">
-        <v>2.9</v>
-      </c>
-      <c r="P91">
-        <v>2.625</v>
-      </c>
-      <c r="Q91">
-        <v>0</v>
-      </c>
-      <c r="R91">
-        <v>1.925</v>
-      </c>
-      <c r="S91">
-        <v>1.925</v>
-      </c>
-      <c r="T91">
-        <v>2</v>
-      </c>
-      <c r="U91">
-        <v>2.05</v>
-      </c>
-      <c r="V91">
-        <v>1.8</v>
-      </c>
-      <c r="W91">
-        <v>2</v>
-      </c>
-      <c r="X91">
-        <v>-1</v>
-      </c>
-      <c r="Y91">
-        <v>-1</v>
-      </c>
       <c r="Z91">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB91">
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6844782</v>
+        <v>6844783</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,76 +8893,76 @@
         <v>45269.5</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I95">
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K95">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="L95">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="M95">
-        <v>3.2</v>
+        <v>17</v>
       </c>
       <c r="N95">
-        <v>2.25</v>
+        <v>1.111</v>
       </c>
       <c r="O95">
-        <v>3.2</v>
+        <v>9</v>
       </c>
       <c r="P95">
-        <v>3.25</v>
+        <v>21</v>
       </c>
       <c r="Q95">
-        <v>-0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R95">
+        <v>2</v>
+      </c>
+      <c r="S95">
+        <v>1.85</v>
+      </c>
+      <c r="T95">
+        <v>3.5</v>
+      </c>
+      <c r="U95">
         <v>1.975</v>
       </c>
-      <c r="S95">
+      <c r="V95">
         <v>1.875</v>
       </c>
-      <c r="T95">
-        <v>2.25</v>
-      </c>
-      <c r="U95">
-        <v>1.875</v>
-      </c>
-      <c r="V95">
-        <v>1.975</v>
-      </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="X95">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB95">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC95">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6844783</v>
+        <v>6844782</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,76 +8982,76 @@
         <v>45269.5</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I96">
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K96">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="L96">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="M96">
-        <v>17</v>
+        <v>3.2</v>
       </c>
       <c r="N96">
-        <v>1.111</v>
+        <v>2.25</v>
       </c>
       <c r="O96">
-        <v>9</v>
+        <v>3.2</v>
       </c>
       <c r="P96">
-        <v>21</v>
+        <v>3.25</v>
       </c>
       <c r="Q96">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R96">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S96">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T96">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U96">
+        <v>1.875</v>
+      </c>
+      <c r="V96">
         <v>1.975</v>
       </c>
-      <c r="V96">
-        <v>1.875</v>
-      </c>
       <c r="W96">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA96">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AB96">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -10305,7 +10305,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6844800</v>
+        <v>6844798</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10317,76 +10317,76 @@
         <v>45287.69791666666</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G111" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H111">
         <v>0</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K111">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="L111">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M111">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="N111">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="O111">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P111">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q111">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S111">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T111">
         <v>2</v>
       </c>
       <c r="U111">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V111">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y111">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA111">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
       <c r="AB111">
         <v>-1</v>
       </c>
       <c r="AC111">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6844798</v>
+        <v>6844800</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,76 +10406,76 @@
         <v>45287.69791666666</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H112">
         <v>0</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K112">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="L112">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M112">
+        <v>2.625</v>
+      </c>
+      <c r="N112">
+        <v>2.875</v>
+      </c>
+      <c r="O112">
+        <v>2.9</v>
+      </c>
+      <c r="P112">
         <v>2.75</v>
       </c>
-      <c r="N112">
-        <v>2.3</v>
-      </c>
-      <c r="O112">
-        <v>3</v>
-      </c>
-      <c r="P112">
-        <v>3.4</v>
-      </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R112">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S112">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T112">
         <v>2</v>
       </c>
       <c r="U112">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V112">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z112">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
       <c r="AB112">
         <v>-1</v>
       </c>
       <c r="AC112">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10661,7 +10661,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6844803</v>
+        <v>6844804</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10673,73 +10673,73 @@
         <v>45290.5</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K115">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="L115">
         <v>3.5</v>
       </c>
       <c r="M115">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="N115">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="O115">
+        <v>3.25</v>
+      </c>
+      <c r="P115">
         <v>3.75</v>
       </c>
-      <c r="P115">
-        <v>4.75</v>
-      </c>
       <c r="Q115">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R115">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S115">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T115">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U115">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V115">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X115">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA115">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC115">
         <v>-1</v>
@@ -10750,7 +10750,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6844802</v>
+        <v>6844803</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10762,10 +10762,10 @@
         <v>45290.5</v>
       </c>
       <c r="F116" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G116" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -10777,46 +10777,46 @@
         <v>42</v>
       </c>
       <c r="K116">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L116">
+        <v>3.5</v>
+      </c>
+      <c r="M116">
+        <v>3.9</v>
+      </c>
+      <c r="N116">
+        <v>1.727</v>
+      </c>
+      <c r="O116">
         <v>3.75</v>
       </c>
-      <c r="M116">
-        <v>5</v>
-      </c>
-      <c r="N116">
-        <v>1.615</v>
-      </c>
-      <c r="O116">
-        <v>4</v>
-      </c>
       <c r="P116">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q116">
         <v>-0.75</v>
       </c>
       <c r="R116">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S116">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T116">
         <v>2.5</v>
       </c>
       <c r="U116">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V116">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y116">
         <v>-1</v>
@@ -10825,10 +10825,10 @@
         <v>-1</v>
       </c>
       <c r="AA116">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AB116">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10839,7 +10839,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6844804</v>
+        <v>6844802</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10851,40 +10851,40 @@
         <v>45290.5</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G117" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K117">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="L117">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M117">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="N117">
-        <v>2.15</v>
+        <v>1.615</v>
       </c>
       <c r="O117">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P117">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q117">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R117">
         <v>1.8</v>
@@ -10893,31 +10893,31 @@
         <v>2.05</v>
       </c>
       <c r="T117">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U117">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V117">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W117">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB117">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -11017,7 +11017,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6844807</v>
+        <v>6844808</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11029,73 +11029,73 @@
         <v>45293.5</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K119">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="L119">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="M119">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N119">
-        <v>1.909</v>
+        <v>1.222</v>
       </c>
       <c r="O119">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P119">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Q119">
+        <v>-1.75</v>
+      </c>
+      <c r="R119">
+        <v>1.825</v>
+      </c>
+      <c r="S119">
+        <v>2.025</v>
+      </c>
+      <c r="T119">
+        <v>3</v>
+      </c>
+      <c r="U119">
+        <v>2</v>
+      </c>
+      <c r="V119">
+        <v>1.85</v>
+      </c>
+      <c r="W119">
+        <v>0.222</v>
+      </c>
+      <c r="X119">
+        <v>-1</v>
+      </c>
+      <c r="Y119">
+        <v>-1</v>
+      </c>
+      <c r="Z119">
+        <v>0.4125</v>
+      </c>
+      <c r="AA119">
         <v>-0.5</v>
       </c>
-      <c r="R119">
-        <v>1.975</v>
-      </c>
-      <c r="S119">
-        <v>1.875</v>
-      </c>
-      <c r="T119">
-        <v>2.5</v>
-      </c>
-      <c r="U119">
-        <v>1.975</v>
-      </c>
-      <c r="V119">
-        <v>1.875</v>
-      </c>
-      <c r="W119">
-        <v>-1</v>
-      </c>
-      <c r="X119">
-        <v>2.4</v>
-      </c>
-      <c r="Y119">
-        <v>-1</v>
-      </c>
-      <c r="Z119">
-        <v>-1</v>
-      </c>
-      <c r="AA119">
-        <v>0.875</v>
-      </c>
       <c r="AB119">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11106,7 +11106,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6844808</v>
+        <v>6844842</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11118,49 +11118,49 @@
         <v>45293.5</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K120">
-        <v>1.25</v>
+        <v>3.25</v>
       </c>
       <c r="L120">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="M120">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N120">
-        <v>1.222</v>
+        <v>4</v>
       </c>
       <c r="O120">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P120">
-        <v>11</v>
+        <v>1.909</v>
       </c>
       <c r="Q120">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R120">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S120">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T120">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U120">
         <v>2</v>
@@ -11169,19 +11169,19 @@
         <v>1.85</v>
       </c>
       <c r="W120">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z120">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB120">
         <v>1</v>
@@ -11284,7 +11284,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6844842</v>
+        <v>6844807</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11296,73 +11296,73 @@
         <v>45293.5</v>
       </c>
       <c r="F122" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G122" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122">
         <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K122">
+        <v>1.8</v>
+      </c>
+      <c r="L122">
         <v>3.25</v>
       </c>
-      <c r="L122">
-        <v>3.9</v>
-      </c>
       <c r="M122">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N122">
+        <v>1.909</v>
+      </c>
+      <c r="O122">
+        <v>3.4</v>
+      </c>
+      <c r="P122">
         <v>4</v>
       </c>
-      <c r="O122">
-        <v>3.6</v>
-      </c>
-      <c r="P122">
-        <v>1.909</v>
-      </c>
       <c r="Q122">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R122">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S122">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T122">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U122">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V122">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y122">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
         <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB122">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC122">
         <v>-1</v>
@@ -12263,7 +12263,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7572459</v>
+        <v>7668001</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12275,76 +12275,76 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F133" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G133" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
         <v>42</v>
       </c>
       <c r="K133">
+        <v>1.75</v>
+      </c>
+      <c r="L133">
+        <v>3.5</v>
+      </c>
+      <c r="M133">
+        <v>4.75</v>
+      </c>
+      <c r="N133">
+        <v>1.909</v>
+      </c>
+      <c r="O133">
+        <v>3.4</v>
+      </c>
+      <c r="P133">
+        <v>4.333</v>
+      </c>
+      <c r="Q133">
+        <v>-0.5</v>
+      </c>
+      <c r="R133">
+        <v>1.875</v>
+      </c>
+      <c r="S133">
+        <v>1.975</v>
+      </c>
+      <c r="T133">
         <v>2.5</v>
       </c>
-      <c r="L133">
-        <v>3.2</v>
-      </c>
-      <c r="M133">
-        <v>2.8</v>
-      </c>
-      <c r="N133">
-        <v>2.25</v>
-      </c>
-      <c r="O133">
-        <v>3.25</v>
-      </c>
-      <c r="P133">
-        <v>3.3</v>
-      </c>
-      <c r="Q133">
-        <v>-0.25</v>
-      </c>
-      <c r="R133">
+      <c r="U133">
         <v>1.975</v>
       </c>
-      <c r="S133">
+      <c r="V133">
         <v>1.875</v>
       </c>
-      <c r="T133">
-        <v>2</v>
-      </c>
-      <c r="U133">
-        <v>1.75</v>
-      </c>
-      <c r="V133">
-        <v>2.05</v>
-      </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB133">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12352,7 +12352,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7668001</v>
+        <v>7572459</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12364,76 +12364,76 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F134" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G134" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J134" t="s">
         <v>42</v>
       </c>
       <c r="K134">
+        <v>2.5</v>
+      </c>
+      <c r="L134">
+        <v>3.2</v>
+      </c>
+      <c r="M134">
+        <v>2.8</v>
+      </c>
+      <c r="N134">
+        <v>2.25</v>
+      </c>
+      <c r="O134">
+        <v>3.25</v>
+      </c>
+      <c r="P134">
+        <v>3.3</v>
+      </c>
+      <c r="Q134">
+        <v>-0.25</v>
+      </c>
+      <c r="R134">
+        <v>1.975</v>
+      </c>
+      <c r="S134">
+        <v>1.875</v>
+      </c>
+      <c r="T134">
+        <v>2</v>
+      </c>
+      <c r="U134">
         <v>1.75</v>
       </c>
-      <c r="L134">
-        <v>3.5</v>
-      </c>
-      <c r="M134">
-        <v>4.75</v>
-      </c>
-      <c r="N134">
-        <v>1.909</v>
-      </c>
-      <c r="O134">
-        <v>3.4</v>
-      </c>
-      <c r="P134">
-        <v>4.333</v>
-      </c>
-      <c r="Q134">
+      <c r="V134">
+        <v>2.05</v>
+      </c>
+      <c r="W134">
+        <v>-1</v>
+      </c>
+      <c r="X134">
+        <v>2.25</v>
+      </c>
+      <c r="Y134">
+        <v>-1</v>
+      </c>
+      <c r="Z134">
         <v>-0.5</v>
       </c>
-      <c r="R134">
-        <v>1.875</v>
-      </c>
-      <c r="S134">
-        <v>1.975</v>
-      </c>
-      <c r="T134">
-        <v>2.5</v>
-      </c>
-      <c r="U134">
-        <v>1.975</v>
-      </c>
-      <c r="V134">
-        <v>1.875</v>
-      </c>
-      <c r="W134">
-        <v>-1</v>
-      </c>
-      <c r="X134">
-        <v>2.4</v>
-      </c>
-      <c r="Y134">
-        <v>-1</v>
-      </c>
-      <c r="Z134">
-        <v>-1</v>
-      </c>
       <c r="AA134">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC134">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -14310,7 +14310,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6921111</v>
+        <v>6921112</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14322,49 +14322,49 @@
         <v>45346.5</v>
       </c>
       <c r="F156" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G156" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H156">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I156">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J156" t="s">
         <v>41</v>
       </c>
       <c r="K156">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L156">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M156">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N156">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="O156">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P156">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q156">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R156">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S156">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T156">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U156">
         <v>1.95</v>
@@ -14373,7 +14373,7 @@
         <v>1.9</v>
       </c>
       <c r="W156">
-        <v>1.375</v>
+        <v>0.8</v>
       </c>
       <c r="X156">
         <v>-1</v>
@@ -14382,16 +14382,16 @@
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AA156">
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC156">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14399,7 +14399,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6845535</v>
+        <v>6921111</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14411,58 +14411,58 @@
         <v>45346.5</v>
       </c>
       <c r="F157" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J157" t="s">
         <v>41</v>
       </c>
       <c r="K157">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="L157">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M157">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N157">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O157">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P157">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q157">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R157">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S157">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T157">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U157">
+        <v>1.95</v>
+      </c>
+      <c r="V157">
         <v>1.9</v>
       </c>
-      <c r="V157">
-        <v>1.95</v>
-      </c>
       <c r="W157">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="X157">
         <v>-1</v>
@@ -14471,16 +14471,16 @@
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AC157">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14488,7 +14488,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6845528</v>
+        <v>6845535</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14500,49 +14500,49 @@
         <v>45346.5</v>
       </c>
       <c r="F158" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G158" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H158">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
         <v>41</v>
       </c>
       <c r="K158">
-        <v>1.3</v>
+        <v>1.833</v>
       </c>
       <c r="L158">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M158">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N158">
-        <v>1.285</v>
+        <v>1.909</v>
       </c>
       <c r="O158">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P158">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q158">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R158">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S158">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T158">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U158">
         <v>1.9</v>
@@ -14551,7 +14551,7 @@
         <v>1.95</v>
       </c>
       <c r="W158">
-        <v>0.2849999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X158">
         <v>-1</v>
@@ -14560,16 +14560,16 @@
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA158">
         <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14577,7 +14577,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6845527</v>
+        <v>6845528</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14589,13 +14589,13 @@
         <v>45346.5</v>
       </c>
       <c r="F159" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G159" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -14604,43 +14604,43 @@
         <v>41</v>
       </c>
       <c r="K159">
-        <v>2.05</v>
+        <v>1.3</v>
       </c>
       <c r="L159">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M159">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="N159">
-        <v>2.5</v>
+        <v>1.285</v>
       </c>
       <c r="O159">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="P159">
+        <v>9</v>
+      </c>
+      <c r="Q159">
+        <v>-1.5</v>
+      </c>
+      <c r="R159">
+        <v>1.825</v>
+      </c>
+      <c r="S159">
+        <v>2.025</v>
+      </c>
+      <c r="T159">
         <v>3</v>
       </c>
-      <c r="Q159">
-        <v>-0.25</v>
-      </c>
-      <c r="R159">
-        <v>2.075</v>
-      </c>
-      <c r="S159">
-        <v>1.725</v>
-      </c>
-      <c r="T159">
-        <v>2.25</v>
-      </c>
       <c r="U159">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V159">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W159">
-        <v>1.5</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -14649,16 +14649,16 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>1.075</v>
+        <v>0.825</v>
       </c>
       <c r="AA159">
         <v>-1</v>
       </c>
       <c r="AB159">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC159">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14666,7 +14666,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6921112</v>
+        <v>6845527</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14678,10 +14678,10 @@
         <v>45346.5</v>
       </c>
       <c r="F160" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G160" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H160">
         <v>2</v>
@@ -14693,61 +14693,61 @@
         <v>41</v>
       </c>
       <c r="K160">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="L160">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M160">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="N160">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="O160">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P160">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q160">
+        <v>-0.25</v>
+      </c>
+      <c r="R160">
+        <v>2.075</v>
+      </c>
+      <c r="S160">
+        <v>1.725</v>
+      </c>
+      <c r="T160">
+        <v>2.25</v>
+      </c>
+      <c r="U160">
+        <v>1.925</v>
+      </c>
+      <c r="V160">
+        <v>1.925</v>
+      </c>
+      <c r="W160">
+        <v>1.5</v>
+      </c>
+      <c r="X160">
+        <v>-1</v>
+      </c>
+      <c r="Y160">
+        <v>-1</v>
+      </c>
+      <c r="Z160">
+        <v>1.075</v>
+      </c>
+      <c r="AA160">
+        <v>-1</v>
+      </c>
+      <c r="AB160">
         <v>-0.5</v>
       </c>
-      <c r="R160">
-        <v>1.8</v>
-      </c>
-      <c r="S160">
-        <v>2.05</v>
-      </c>
-      <c r="T160">
-        <v>2</v>
-      </c>
-      <c r="U160">
-        <v>1.95</v>
-      </c>
-      <c r="V160">
-        <v>1.9</v>
-      </c>
-      <c r="W160">
-        <v>0.8</v>
-      </c>
-      <c r="X160">
-        <v>-1</v>
-      </c>
-      <c r="Y160">
-        <v>-1</v>
-      </c>
-      <c r="Z160">
-        <v>0.8</v>
-      </c>
-      <c r="AA160">
-        <v>-1</v>
-      </c>
-      <c r="AB160">
-        <v>0</v>
-      </c>
       <c r="AC160">
-        <v>-0</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -15022,7 +15022,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6956501</v>
+        <v>6845536</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15034,76 +15034,76 @@
         <v>45350.69791666666</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G164" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H164">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I164">
         <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K164">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="L164">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M164">
-        <v>13</v>
+        <v>3.8</v>
       </c>
       <c r="N164">
-        <v>1.142</v>
+        <v>2</v>
       </c>
       <c r="O164">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="P164">
-        <v>15</v>
+        <v>3.8</v>
       </c>
       <c r="Q164">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R164">
+        <v>2</v>
+      </c>
+      <c r="S164">
         <v>1.85</v>
       </c>
-      <c r="S164">
-        <v>2</v>
-      </c>
       <c r="T164">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U164">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V164">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W164">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X164">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
+        <v>-1</v>
+      </c>
+      <c r="AA164">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA164">
-        <v>-1</v>
-      </c>
       <c r="AB164">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15111,7 +15111,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6845536</v>
+        <v>6845529</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15123,76 +15123,76 @@
         <v>45350.69791666666</v>
       </c>
       <c r="F165" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G165" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J165" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K165">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="L165">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M165">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="N165">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="O165">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P165">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="Q165">
+        <v>-0.75</v>
+      </c>
+      <c r="R165">
+        <v>1.875</v>
+      </c>
+      <c r="S165">
+        <v>1.975</v>
+      </c>
+      <c r="T165">
+        <v>2.25</v>
+      </c>
+      <c r="U165">
+        <v>2.05</v>
+      </c>
+      <c r="V165">
+        <v>1.8</v>
+      </c>
+      <c r="W165">
+        <v>-1</v>
+      </c>
+      <c r="X165">
+        <v>-1</v>
+      </c>
+      <c r="Y165">
+        <v>5</v>
+      </c>
+      <c r="Z165">
+        <v>-1</v>
+      </c>
+      <c r="AA165">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB165">
         <v>-0.5</v>
       </c>
-      <c r="R165">
-        <v>2</v>
-      </c>
-      <c r="S165">
-        <v>1.85</v>
-      </c>
-      <c r="T165">
-        <v>2.75</v>
-      </c>
-      <c r="U165">
-        <v>2.025</v>
-      </c>
-      <c r="V165">
-        <v>1.825</v>
-      </c>
-      <c r="W165">
-        <v>-1</v>
-      </c>
-      <c r="X165">
-        <v>2.5</v>
-      </c>
-      <c r="Y165">
-        <v>-1</v>
-      </c>
-      <c r="Z165">
-        <v>-1</v>
-      </c>
-      <c r="AA165">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB165">
-        <v>-1</v>
-      </c>
       <c r="AC165">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15200,7 +15200,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6845529</v>
+        <v>6956501</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15212,76 +15212,76 @@
         <v>45350.69791666666</v>
       </c>
       <c r="F166" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G166" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K166">
-        <v>1.65</v>
+        <v>1.2</v>
       </c>
       <c r="L166">
+        <v>6</v>
+      </c>
+      <c r="M166">
+        <v>13</v>
+      </c>
+      <c r="N166">
+        <v>1.142</v>
+      </c>
+      <c r="O166">
+        <v>8.5</v>
+      </c>
+      <c r="P166">
+        <v>15</v>
+      </c>
+      <c r="Q166">
+        <v>-2.25</v>
+      </c>
+      <c r="R166">
+        <v>1.85</v>
+      </c>
+      <c r="S166">
+        <v>2</v>
+      </c>
+      <c r="T166">
         <v>3.75</v>
       </c>
-      <c r="M166">
-        <v>5</v>
-      </c>
-      <c r="N166">
-        <v>1.666</v>
-      </c>
-      <c r="O166">
-        <v>3.4</v>
-      </c>
-      <c r="P166">
-        <v>6</v>
-      </c>
-      <c r="Q166">
-        <v>-0.75</v>
-      </c>
-      <c r="R166">
-        <v>1.875</v>
-      </c>
-      <c r="S166">
-        <v>1.975</v>
-      </c>
-      <c r="T166">
-        <v>2.25</v>
-      </c>
       <c r="U166">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V166">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W166">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA166">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC166">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -16624,7 +16624,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7065209</v>
+        <v>7083334</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16636,76 +16636,76 @@
         <v>45381.5</v>
       </c>
       <c r="F182" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G182" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I182">
         <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K182">
-        <v>1.8</v>
+        <v>1.285</v>
       </c>
       <c r="L182">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M182">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N182">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="O182">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P182">
-        <v>3.2</v>
+        <v>9</v>
       </c>
       <c r="Q182">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R182">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S182">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T182">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U182">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V182">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W182">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X182">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
+        <v>0.4375</v>
+      </c>
+      <c r="AA182">
         <v>-0.5</v>
       </c>
-      <c r="AA182">
-        <v>0.425</v>
-      </c>
       <c r="AB182">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC182">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16802,7 +16802,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7083334</v>
+        <v>7065209</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16814,76 +16814,76 @@
         <v>45381.5</v>
       </c>
       <c r="F184" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G184" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H184">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I184">
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K184">
-        <v>1.285</v>
+        <v>1.8</v>
       </c>
       <c r="L184">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M184">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="N184">
-        <v>1.25</v>
+        <v>2.25</v>
       </c>
       <c r="O184">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P184">
-        <v>9</v>
+        <v>3.2</v>
       </c>
       <c r="Q184">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R184">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S184">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T184">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U184">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V184">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W184">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X184">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA184">
+        <v>0.425</v>
+      </c>
+      <c r="AB184">
         <v>-0.5</v>
       </c>
-      <c r="AB184">
-        <v>0.925</v>
-      </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -17096,31 +17096,31 @@
         <v>3.75</v>
       </c>
       <c r="N187">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="O187">
         <v>3.3</v>
       </c>
       <c r="P187">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q187">
         <v>-0.25</v>
       </c>
       <c r="R187">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S187">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T187">
         <v>2.5</v>
       </c>
       <c r="U187">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V187">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W187">
         <v>0</v>
@@ -17170,13 +17170,13 @@
         <v>6</v>
       </c>
       <c r="N188">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="O188">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P188">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q188">
         <v>-1</v>
@@ -17247,7 +17247,7 @@
         <v>1.5</v>
       </c>
       <c r="O189">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P189">
         <v>7</v>
@@ -17256,19 +17256,19 @@
         <v>-1</v>
       </c>
       <c r="R189">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S189">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T189">
         <v>2.5</v>
       </c>
       <c r="U189">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V189">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W189">
         <v>0</v>
@@ -17318,13 +17318,13 @@
         <v>2.05</v>
       </c>
       <c r="N190">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O190">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P190">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Q190">
         <v>0.25</v>
@@ -17392,7 +17392,7 @@
         <v>2.8</v>
       </c>
       <c r="N191">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="O191">
         <v>3.1</v>
@@ -17404,10 +17404,10 @@
         <v>0</v>
       </c>
       <c r="R191">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S191">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T191">
         <v>2.25</v>
@@ -17466,31 +17466,31 @@
         <v>3</v>
       </c>
       <c r="N192">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O192">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P192">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q192">
         <v>-0.25</v>
       </c>
       <c r="R192">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S192">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T192">
         <v>2.75</v>
       </c>
       <c r="U192">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V192">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W192">
         <v>0</v>

--- a/Scotland Premiership/Scotland Premiership.xlsx
+++ b/Scotland Premiership/Scotland Premiership.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC192"/>
+  <dimension ref="A1:AC190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3363,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6844732</v>
+        <v>6844735</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3375,13 +3375,13 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -3390,43 +3390,43 @@
         <v>41</v>
       </c>
       <c r="K33">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M33">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="N33">
-        <v>1.55</v>
+        <v>2.75</v>
       </c>
       <c r="O33">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P33">
-        <v>5.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R33">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S33">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T33">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U33">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V33">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W33">
-        <v>0.55</v>
+        <v>1.75</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3435,7 +3435,7 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA33">
         <v>-1</v>
@@ -3444,7 +3444,7 @@
         <v>-1</v>
       </c>
       <c r="AC33">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3452,7 +3452,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6844735</v>
+        <v>6844732</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3464,13 +3464,13 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -3479,43 +3479,43 @@
         <v>41</v>
       </c>
       <c r="K34">
+        <v>1.571</v>
+      </c>
+      <c r="L34">
+        <v>4</v>
+      </c>
+      <c r="M34">
+        <v>5.5</v>
+      </c>
+      <c r="N34">
+        <v>1.55</v>
+      </c>
+      <c r="O34">
+        <v>4.2</v>
+      </c>
+      <c r="P34">
+        <v>5.75</v>
+      </c>
+      <c r="Q34">
+        <v>-1</v>
+      </c>
+      <c r="R34">
+        <v>2.025</v>
+      </c>
+      <c r="S34">
+        <v>1.825</v>
+      </c>
+      <c r="T34">
         <v>2.5</v>
       </c>
-      <c r="L34">
-        <v>3.3</v>
-      </c>
-      <c r="M34">
-        <v>2.8</v>
-      </c>
-      <c r="N34">
-        <v>2.75</v>
-      </c>
-      <c r="O34">
-        <v>3.3</v>
-      </c>
-      <c r="P34">
-        <v>2.6</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>2</v>
-      </c>
-      <c r="S34">
-        <v>1.85</v>
-      </c>
-      <c r="T34">
-        <v>2.25</v>
-      </c>
       <c r="U34">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V34">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W34">
-        <v>1.75</v>
+        <v>0.55</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3524,7 +3524,7 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA34">
         <v>-1</v>
@@ -3533,7 +3533,7 @@
         <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -4342,7 +4342,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6845533</v>
+        <v>6844744</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4354,76 +4354,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H44">
         <v>2</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K44">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="L44">
+        <v>3.25</v>
+      </c>
+      <c r="M44">
+        <v>2.25</v>
+      </c>
+      <c r="N44">
+        <v>3</v>
+      </c>
+      <c r="O44">
         <v>3.2</v>
       </c>
-      <c r="M44">
-        <v>3.3</v>
-      </c>
-      <c r="N44">
-        <v>2.4</v>
-      </c>
-      <c r="O44">
-        <v>3.5</v>
-      </c>
       <c r="P44">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="Q44">
         <v>0</v>
       </c>
       <c r="R44">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="S44">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="T44">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U44">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V44">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X44">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0</v>
+        <v>1.075</v>
       </c>
       <c r="AA44">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4431,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6844744</v>
+        <v>6845533</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4443,76 +4443,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H45">
         <v>2</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K45">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="L45">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M45">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="N45">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="O45">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P45">
+        <v>2.875</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>1.8</v>
+      </c>
+      <c r="S45">
+        <v>2.05</v>
+      </c>
+      <c r="T45">
         <v>2.5</v>
       </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45">
-        <v>2.075</v>
-      </c>
-      <c r="S45">
-        <v>1.725</v>
-      </c>
-      <c r="T45">
-        <v>2.25</v>
-      </c>
       <c r="U45">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W45">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>1.075</v>
+        <v>0</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB45">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC45">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6844764</v>
+        <v>6844767</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,13 +6846,13 @@
         <v>45241.5</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H72">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -6861,43 +6861,43 @@
         <v>41</v>
       </c>
       <c r="K72">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="L72">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M72">
+        <v>2.625</v>
+      </c>
+      <c r="N72">
+        <v>2.5</v>
+      </c>
+      <c r="O72">
+        <v>3.1</v>
+      </c>
+      <c r="P72">
         <v>3</v>
       </c>
-      <c r="N72">
-        <v>2.625</v>
-      </c>
-      <c r="O72">
-        <v>3.2</v>
-      </c>
-      <c r="P72">
-        <v>2.75</v>
-      </c>
       <c r="Q72">
         <v>0</v>
       </c>
       <c r="R72">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S72">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T72">
         <v>2.25</v>
       </c>
       <c r="U72">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="V72">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W72">
-        <v>1.625</v>
+        <v>1.5</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6906,16 +6906,16 @@
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA72">
         <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6844767</v>
+        <v>6844764</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,13 +6935,13 @@
         <v>45241.5</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -6950,43 +6950,43 @@
         <v>41</v>
       </c>
       <c r="K73">
+        <v>2.4</v>
+      </c>
+      <c r="L73">
+        <v>3.2</v>
+      </c>
+      <c r="M73">
+        <v>3</v>
+      </c>
+      <c r="N73">
         <v>2.625</v>
       </c>
-      <c r="L73">
-        <v>3.25</v>
-      </c>
-      <c r="M73">
-        <v>2.625</v>
-      </c>
-      <c r="N73">
-        <v>2.5</v>
-      </c>
       <c r="O73">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P73">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q73">
         <v>0</v>
       </c>
       <c r="R73">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S73">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T73">
         <v>2.25</v>
       </c>
       <c r="U73">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="V73">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W73">
-        <v>1.5</v>
+        <v>1.625</v>
       </c>
       <c r="X73">
         <v>-1</v>
@@ -6995,16 +6995,16 @@
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA73">
         <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC73">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7279,7 +7279,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6844768</v>
+        <v>6844771</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7291,76 +7291,76 @@
         <v>45255.5</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G77" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
         <v>42</v>
       </c>
       <c r="K77">
-        <v>1.125</v>
+        <v>2.6</v>
       </c>
       <c r="L77">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="M77">
-        <v>21</v>
+        <v>2.7</v>
       </c>
       <c r="N77">
-        <v>1.166</v>
+        <v>2.875</v>
       </c>
       <c r="O77">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="P77">
-        <v>13</v>
+        <v>2.6</v>
       </c>
       <c r="Q77">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="R77">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S77">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T77">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="U77">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V77">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA77">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7546,7 +7546,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6844771</v>
+        <v>6844768</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7558,76 +7558,76 @@
         <v>45255.5</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G80" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="s">
         <v>42</v>
       </c>
       <c r="K80">
-        <v>2.6</v>
+        <v>1.125</v>
       </c>
       <c r="L80">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="M80">
-        <v>2.7</v>
+        <v>21</v>
       </c>
       <c r="N80">
-        <v>2.875</v>
+        <v>1.166</v>
       </c>
       <c r="O80">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="P80">
-        <v>2.6</v>
+        <v>13</v>
       </c>
       <c r="Q80">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R80">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S80">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T80">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="U80">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V80">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>2.1</v>
+        <v>7</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB80">
         <v>-1</v>
       </c>
       <c r="AC80">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6844778</v>
+        <v>6844781</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8359,76 +8359,76 @@
         <v>45266.69791666666</v>
       </c>
       <c r="F89" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K89">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="L89">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M89">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="N89">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="O89">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P89">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q89">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R89">
+        <v>1.925</v>
+      </c>
+      <c r="S89">
+        <v>1.925</v>
+      </c>
+      <c r="T89">
+        <v>2</v>
+      </c>
+      <c r="U89">
         <v>2.05</v>
       </c>
-      <c r="S89">
+      <c r="V89">
         <v>1.8</v>
       </c>
-      <c r="T89">
-        <v>2.25</v>
-      </c>
-      <c r="U89">
-        <v>1.9</v>
-      </c>
-      <c r="V89">
-        <v>1.95</v>
-      </c>
       <c r="W89">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA89">
+        <v>-1</v>
+      </c>
+      <c r="AB89">
+        <v>-1</v>
+      </c>
+      <c r="AC89">
         <v>0.8</v>
-      </c>
-      <c r="AB89">
-        <v>-1</v>
-      </c>
-      <c r="AC89">
-        <v>0.95</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6845514</v>
+        <v>6844778</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,40 +8448,40 @@
         <v>45266.69791666666</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H90">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I90">
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K90">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="L90">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="M90">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="N90">
-        <v>1.222</v>
+        <v>2.1</v>
       </c>
       <c r="O90">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="P90">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="Q90">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R90">
         <v>2.05</v>
@@ -8490,34 +8490,34 @@
         <v>1.8</v>
       </c>
       <c r="T90">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U90">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V90">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W90">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z90">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB90">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6844781</v>
+        <v>6845514</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,58 +8537,58 @@
         <v>45266.69791666666</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H91">
+        <v>4</v>
+      </c>
+      <c r="I91">
         <v>1</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
       </c>
       <c r="J91" t="s">
         <v>41</v>
       </c>
       <c r="K91">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="L91">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="M91">
-        <v>2.6</v>
+        <v>11</v>
       </c>
       <c r="N91">
-        <v>3</v>
+        <v>1.222</v>
       </c>
       <c r="O91">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="P91">
-        <v>2.625</v>
+        <v>12</v>
       </c>
       <c r="Q91">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R91">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S91">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T91">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U91">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V91">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W91">
-        <v>2</v>
+        <v>0.222</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8597,16 +8597,16 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA91">
         <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC91">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6844793</v>
+        <v>6844841</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,58 +9872,58 @@
         <v>45283.5</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H106">
         <v>2</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
         <v>41</v>
       </c>
       <c r="K106">
-        <v>1.666</v>
+        <v>1.125</v>
       </c>
       <c r="L106">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="M106">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="N106">
-        <v>1.65</v>
+        <v>1.071</v>
       </c>
       <c r="O106">
-        <v>3.8</v>
+        <v>11</v>
       </c>
       <c r="P106">
-        <v>5.75</v>
+        <v>29</v>
       </c>
       <c r="Q106">
-        <v>-0.75</v>
+        <v>-2.75</v>
       </c>
       <c r="R106">
+        <v>1.95</v>
+      </c>
+      <c r="S106">
+        <v>1.9</v>
+      </c>
+      <c r="T106">
+        <v>3.5</v>
+      </c>
+      <c r="U106">
         <v>1.825</v>
       </c>
-      <c r="S106">
+      <c r="V106">
         <v>2.025</v>
       </c>
-      <c r="T106">
-        <v>2.25</v>
-      </c>
-      <c r="U106">
-        <v>1.875</v>
-      </c>
-      <c r="V106">
-        <v>1.975</v>
-      </c>
       <c r="W106">
-        <v>0.6499999999999999</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9932,16 +9932,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB106">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6844841</v>
+        <v>6844793</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,58 +9961,58 @@
         <v>45283.5</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G107" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H107">
         <v>2</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="s">
         <v>41</v>
       </c>
       <c r="K107">
-        <v>1.125</v>
+        <v>1.666</v>
       </c>
       <c r="L107">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="M107">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="N107">
-        <v>1.071</v>
+        <v>1.65</v>
       </c>
       <c r="O107">
-        <v>11</v>
+        <v>3.8</v>
       </c>
       <c r="P107">
-        <v>29</v>
+        <v>5.75</v>
       </c>
       <c r="Q107">
-        <v>-2.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R107">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S107">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T107">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U107">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V107">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W107">
-        <v>0.07099999999999995</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10021,16 +10021,16 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA107">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC107">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10305,7 +10305,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6844800</v>
+        <v>6844798</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10317,76 +10317,76 @@
         <v>45287.69791666666</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G111" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H111">
         <v>0</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K111">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="L111">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M111">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="N111">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="O111">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P111">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q111">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S111">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T111">
         <v>2</v>
       </c>
       <c r="U111">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V111">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y111">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA111">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
       <c r="AB111">
         <v>-1</v>
       </c>
       <c r="AC111">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6844798</v>
+        <v>6844800</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,76 +10406,76 @@
         <v>45287.69791666666</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H112">
         <v>0</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K112">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="L112">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M112">
+        <v>2.625</v>
+      </c>
+      <c r="N112">
+        <v>2.875</v>
+      </c>
+      <c r="O112">
+        <v>2.9</v>
+      </c>
+      <c r="P112">
         <v>2.75</v>
       </c>
-      <c r="N112">
-        <v>2.3</v>
-      </c>
-      <c r="O112">
-        <v>3</v>
-      </c>
-      <c r="P112">
-        <v>3.4</v>
-      </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R112">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S112">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T112">
         <v>2</v>
       </c>
       <c r="U112">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V112">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z112">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
       <c r="AB112">
         <v>-1</v>
       </c>
       <c r="AC112">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -11551,7 +11551,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7452605</v>
+        <v>7452337</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11563,70 +11563,70 @@
         <v>45315.69791666666</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G125" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>3</v>
+      </c>
+      <c r="J125" t="s">
+        <v>43</v>
+      </c>
+      <c r="K125">
+        <v>7</v>
+      </c>
+      <c r="L125">
+        <v>4.5</v>
+      </c>
+      <c r="M125">
+        <v>1.444</v>
+      </c>
+      <c r="N125">
+        <v>8</v>
+      </c>
+      <c r="O125">
+        <v>5.25</v>
+      </c>
+      <c r="P125">
+        <v>1.333</v>
+      </c>
+      <c r="Q125">
+        <v>1.5</v>
+      </c>
+      <c r="R125">
+        <v>1.85</v>
+      </c>
+      <c r="S125">
+        <v>2</v>
+      </c>
+      <c r="T125">
+        <v>3</v>
+      </c>
+      <c r="U125">
+        <v>2.025</v>
+      </c>
+      <c r="V125">
+        <v>1.825</v>
+      </c>
+      <c r="W125">
+        <v>-1</v>
+      </c>
+      <c r="X125">
+        <v>-1</v>
+      </c>
+      <c r="Y125">
+        <v>0.333</v>
+      </c>
+      <c r="Z125">
+        <v>-1</v>
+      </c>
+      <c r="AA125">
         <v>1</v>
-      </c>
-      <c r="I125">
-        <v>1</v>
-      </c>
-      <c r="J125" t="s">
-        <v>42</v>
-      </c>
-      <c r="K125">
-        <v>3.75</v>
-      </c>
-      <c r="L125">
-        <v>3.4</v>
-      </c>
-      <c r="M125">
-        <v>2</v>
-      </c>
-      <c r="N125">
-        <v>3.75</v>
-      </c>
-      <c r="O125">
-        <v>3.1</v>
-      </c>
-      <c r="P125">
-        <v>2.15</v>
-      </c>
-      <c r="Q125">
-        <v>0.25</v>
-      </c>
-      <c r="R125">
-        <v>2.025</v>
-      </c>
-      <c r="S125">
-        <v>1.825</v>
-      </c>
-      <c r="T125">
-        <v>2</v>
-      </c>
-      <c r="U125">
-        <v>1.8</v>
-      </c>
-      <c r="V125">
-        <v>2.05</v>
-      </c>
-      <c r="W125">
-        <v>-1</v>
-      </c>
-      <c r="X125">
-        <v>2.1</v>
-      </c>
-      <c r="Y125">
-        <v>-1</v>
-      </c>
-      <c r="Z125">
-        <v>0.5125</v>
-      </c>
-      <c r="AA125">
-        <v>-0.5</v>
       </c>
       <c r="AB125">
         <v>0</v>
@@ -11640,7 +11640,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7452337</v>
+        <v>7452605</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11652,70 +11652,70 @@
         <v>45315.69791666666</v>
       </c>
       <c r="F126" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G126" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K126">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="L126">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M126">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="N126">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="O126">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="P126">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="Q126">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R126">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S126">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U126">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V126">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W126">
         <v>-1</v>
       </c>
       <c r="X126">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y126">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA126">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB126">
         <v>0</v>
@@ -13242,7 +13242,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6844844</v>
+        <v>6844821</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13254,76 +13254,76 @@
         <v>45329.69791666666</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G144" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
         <v>1</v>
       </c>
-      <c r="I144">
-        <v>0</v>
-      </c>
       <c r="J144" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K144">
-        <v>1.533</v>
+        <v>3.6</v>
       </c>
       <c r="L144">
+        <v>3.6</v>
+      </c>
+      <c r="M144">
+        <v>1.952</v>
+      </c>
+      <c r="N144">
         <v>4</v>
       </c>
-      <c r="M144">
-        <v>6</v>
-      </c>
-      <c r="N144">
-        <v>1.6</v>
-      </c>
       <c r="O144">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P144">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="Q144">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R144">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S144">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T144">
         <v>2.25</v>
       </c>
       <c r="U144">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V144">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W144">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB144">
         <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13331,7 +13331,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6844821</v>
+        <v>6844844</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13343,76 +13343,76 @@
         <v>45329.69791666666</v>
       </c>
       <c r="F145" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G145" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K145">
-        <v>3.6</v>
+        <v>1.533</v>
       </c>
       <c r="L145">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M145">
-        <v>1.952</v>
+        <v>6</v>
       </c>
       <c r="N145">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="O145">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P145">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="Q145">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R145">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S145">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T145">
         <v>2.25</v>
       </c>
       <c r="U145">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V145">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA145">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB145">
         <v>-1</v>
       </c>
       <c r="AC145">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13598,7 +13598,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7667637</v>
+        <v>7667636</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13610,40 +13610,40 @@
         <v>45336.69791666666</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G148" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H148">
         <v>3</v>
       </c>
       <c r="I148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K148">
-        <v>1.85</v>
+        <v>1.1</v>
       </c>
       <c r="L148">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="M148">
-        <v>4.2</v>
+        <v>23</v>
       </c>
       <c r="N148">
-        <v>1.95</v>
+        <v>1.09</v>
       </c>
       <c r="O148">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="P148">
-        <v>3.8</v>
+        <v>19</v>
       </c>
       <c r="Q148">
-        <v>-0.5</v>
+        <v>-2.75</v>
       </c>
       <c r="R148">
         <v>2</v>
@@ -13652,19 +13652,19 @@
         <v>1.85</v>
       </c>
       <c r="T148">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U148">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V148">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="X148">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
         <v>-1</v>
@@ -13676,10 +13676,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB148">
-        <v>1.05</v>
+        <v>0.475</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13687,7 +13687,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7667636</v>
+        <v>7667637</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13699,40 +13699,40 @@
         <v>45336.69791666666</v>
       </c>
       <c r="F149" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G149" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H149">
         <v>3</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J149" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K149">
-        <v>1.1</v>
+        <v>1.85</v>
       </c>
       <c r="L149">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="M149">
-        <v>23</v>
+        <v>4.2</v>
       </c>
       <c r="N149">
-        <v>1.09</v>
+        <v>1.95</v>
       </c>
       <c r="O149">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="P149">
-        <v>19</v>
+        <v>3.8</v>
       </c>
       <c r="Q149">
-        <v>-2.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R149">
         <v>2</v>
@@ -13741,19 +13741,19 @@
         <v>1.85</v>
       </c>
       <c r="T149">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U149">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V149">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W149">
-        <v>0.09000000000000008</v>
+        <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y149">
         <v>-1</v>
@@ -13765,10 +13765,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB149">
-        <v>0.475</v>
+        <v>1.05</v>
       </c>
       <c r="AC149">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -14577,7 +14577,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6845528</v>
+        <v>6921112</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14589,13 +14589,13 @@
         <v>45346.5</v>
       </c>
       <c r="F159" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G159" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H159">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -14604,43 +14604,43 @@
         <v>41</v>
       </c>
       <c r="K159">
-        <v>1.3</v>
+        <v>1.727</v>
       </c>
       <c r="L159">
+        <v>3.75</v>
+      </c>
+      <c r="M159">
+        <v>4.5</v>
+      </c>
+      <c r="N159">
+        <v>1.8</v>
+      </c>
+      <c r="O159">
+        <v>3.3</v>
+      </c>
+      <c r="P159">
         <v>5.5</v>
       </c>
-      <c r="M159">
-        <v>9</v>
-      </c>
-      <c r="N159">
-        <v>1.285</v>
-      </c>
-      <c r="O159">
-        <v>6</v>
-      </c>
-      <c r="P159">
-        <v>9</v>
-      </c>
       <c r="Q159">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R159">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S159">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T159">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U159">
+        <v>1.95</v>
+      </c>
+      <c r="V159">
         <v>1.9</v>
       </c>
-      <c r="V159">
-        <v>1.95</v>
-      </c>
       <c r="W159">
-        <v>0.2849999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -14649,16 +14649,16 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA159">
         <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14666,7 +14666,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6921112</v>
+        <v>6845528</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14678,13 +14678,13 @@
         <v>45346.5</v>
       </c>
       <c r="F160" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G160" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I160">
         <v>0</v>
@@ -14693,43 +14693,43 @@
         <v>41</v>
       </c>
       <c r="K160">
-        <v>1.727</v>
+        <v>1.3</v>
       </c>
       <c r="L160">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M160">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="N160">
-        <v>1.8</v>
+        <v>1.285</v>
       </c>
       <c r="O160">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="P160">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="Q160">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R160">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S160">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T160">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U160">
+        <v>1.9</v>
+      </c>
+      <c r="V160">
         <v>1.95</v>
       </c>
-      <c r="V160">
-        <v>1.9</v>
-      </c>
       <c r="W160">
-        <v>0.8</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14738,16 +14738,16 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA160">
         <v>-1</v>
       </c>
       <c r="AB160">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC160">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14933,7 +14933,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6845536</v>
+        <v>6845529</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14945,76 +14945,76 @@
         <v>45350.69791666666</v>
       </c>
       <c r="F163" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G163" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J163" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K163">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="L163">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M163">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="N163">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="O163">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P163">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="Q163">
+        <v>-0.75</v>
+      </c>
+      <c r="R163">
+        <v>1.875</v>
+      </c>
+      <c r="S163">
+        <v>1.975</v>
+      </c>
+      <c r="T163">
+        <v>2.25</v>
+      </c>
+      <c r="U163">
+        <v>2.05</v>
+      </c>
+      <c r="V163">
+        <v>1.8</v>
+      </c>
+      <c r="W163">
+        <v>-1</v>
+      </c>
+      <c r="X163">
+        <v>-1</v>
+      </c>
+      <c r="Y163">
+        <v>5</v>
+      </c>
+      <c r="Z163">
+        <v>-1</v>
+      </c>
+      <c r="AA163">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB163">
         <v>-0.5</v>
       </c>
-      <c r="R163">
-        <v>2</v>
-      </c>
-      <c r="S163">
-        <v>1.85</v>
-      </c>
-      <c r="T163">
-        <v>2.75</v>
-      </c>
-      <c r="U163">
-        <v>2.025</v>
-      </c>
-      <c r="V163">
-        <v>1.825</v>
-      </c>
-      <c r="W163">
-        <v>-1</v>
-      </c>
-      <c r="X163">
-        <v>2.5</v>
-      </c>
-      <c r="Y163">
-        <v>-1</v>
-      </c>
-      <c r="Z163">
-        <v>-1</v>
-      </c>
-      <c r="AA163">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB163">
-        <v>-1</v>
-      </c>
       <c r="AC163">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15022,7 +15022,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6845529</v>
+        <v>6845536</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15034,76 +15034,76 @@
         <v>45350.69791666666</v>
       </c>
       <c r="F164" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G164" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K164">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="L164">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M164">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="N164">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="O164">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P164">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="Q164">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R164">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S164">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T164">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U164">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V164">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W164">
         <v>-1</v>
       </c>
       <c r="X164">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y164">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB164">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15111,7 +15111,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6957560</v>
+        <v>6956501</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15123,73 +15123,73 @@
         <v>45350.69791666666</v>
       </c>
       <c r="F165" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G165" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H165">
+        <v>7</v>
+      </c>
+      <c r="I165">
         <v>1</v>
       </c>
-      <c r="I165">
-        <v>2</v>
-      </c>
       <c r="J165" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K165">
+        <v>1.2</v>
+      </c>
+      <c r="L165">
         <v>6</v>
       </c>
-      <c r="L165">
-        <v>4.5</v>
-      </c>
       <c r="M165">
-        <v>1.45</v>
+        <v>13</v>
       </c>
       <c r="N165">
-        <v>8</v>
+        <v>1.142</v>
       </c>
       <c r="O165">
-        <v>4.2</v>
+        <v>8.5</v>
       </c>
       <c r="P165">
-        <v>1.45</v>
+        <v>15</v>
       </c>
       <c r="Q165">
-        <v>1</v>
+        <v>-2.25</v>
       </c>
       <c r="R165">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S165">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T165">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U165">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V165">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA165">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC165">
         <v>-1</v>
@@ -15200,7 +15200,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6956501</v>
+        <v>6957560</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15212,73 +15212,73 @@
         <v>45350.69791666666</v>
       </c>
       <c r="F166" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G166" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H166">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I166">
+        <v>2</v>
+      </c>
+      <c r="J166" t="s">
+        <v>43</v>
+      </c>
+      <c r="K166">
+        <v>6</v>
+      </c>
+      <c r="L166">
+        <v>4.5</v>
+      </c>
+      <c r="M166">
+        <v>1.45</v>
+      </c>
+      <c r="N166">
+        <v>8</v>
+      </c>
+      <c r="O166">
+        <v>4.2</v>
+      </c>
+      <c r="P166">
+        <v>1.45</v>
+      </c>
+      <c r="Q166">
         <v>1</v>
       </c>
-      <c r="J166" t="s">
-        <v>41</v>
-      </c>
-      <c r="K166">
-        <v>1.2</v>
-      </c>
-      <c r="L166">
-        <v>6</v>
-      </c>
-      <c r="M166">
-        <v>13</v>
-      </c>
-      <c r="N166">
-        <v>1.142</v>
-      </c>
-      <c r="O166">
-        <v>8.5</v>
-      </c>
-      <c r="P166">
-        <v>15</v>
-      </c>
-      <c r="Q166">
-        <v>-2.25</v>
-      </c>
       <c r="R166">
+        <v>2.05</v>
+      </c>
+      <c r="S166">
+        <v>1.8</v>
+      </c>
+      <c r="T166">
+        <v>2.5</v>
+      </c>
+      <c r="U166">
         <v>1.85</v>
       </c>
-      <c r="S166">
-        <v>2</v>
-      </c>
-      <c r="T166">
-        <v>3.75</v>
-      </c>
-      <c r="U166">
-        <v>1.95</v>
-      </c>
       <c r="V166">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W166">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z166">
+        <v>0</v>
+      </c>
+      <c r="AA166">
+        <v>-0</v>
+      </c>
+      <c r="AB166">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA166">
-        <v>-1</v>
-      </c>
-      <c r="AB166">
-        <v>0.95</v>
       </c>
       <c r="AC166">
         <v>-1</v>
@@ -15912,7 +15912,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7667638</v>
+        <v>7667639</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15924,40 +15924,40 @@
         <v>45364.69791666666</v>
       </c>
       <c r="F174" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G174" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K174">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="L174">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M174">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N174">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="O174">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P174">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q174">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R174">
         <v>1.825</v>
@@ -15966,19 +15966,19 @@
         <v>2.025</v>
       </c>
       <c r="T174">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U174">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V174">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W174">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X174">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y174">
         <v>-1</v>
@@ -15990,10 +15990,10 @@
         <v>-1</v>
       </c>
       <c r="AB174">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC174">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16001,7 +16001,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7667639</v>
+        <v>7667638</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16013,40 +16013,40 @@
         <v>45364.69791666666</v>
       </c>
       <c r="F175" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G175" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K175">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="L175">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M175">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N175">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="O175">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P175">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="Q175">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R175">
         <v>1.825</v>
@@ -16055,19 +16055,19 @@
         <v>2.025</v>
       </c>
       <c r="T175">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U175">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V175">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W175">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X175">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y175">
         <v>-1</v>
@@ -16079,10 +16079,10 @@
         <v>-1</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC175">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16090,7 +16090,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6995241</v>
+        <v>6845538</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16102,58 +16102,58 @@
         <v>45367.5</v>
       </c>
       <c r="F176" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G176" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H176">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J176" t="s">
         <v>41</v>
       </c>
       <c r="K176">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="L176">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M176">
-        <v>3.25</v>
+        <v>1.727</v>
       </c>
       <c r="N176">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="O176">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P176">
-        <v>4.333</v>
+        <v>1.833</v>
       </c>
       <c r="Q176">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R176">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S176">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T176">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U176">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V176">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W176">
-        <v>1.05</v>
+        <v>3.333</v>
       </c>
       <c r="X176">
         <v>-1</v>
@@ -16162,13 +16162,13 @@
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>1.1</v>
+        <v>1.025</v>
       </c>
       <c r="AA176">
         <v>-1</v>
       </c>
       <c r="AB176">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC176">
         <v>-1</v>
@@ -16179,7 +16179,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6995239</v>
+        <v>6995241</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16191,58 +16191,58 @@
         <v>45367.5</v>
       </c>
       <c r="F177" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G177" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J177" t="s">
         <v>41</v>
       </c>
       <c r="K177">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="L177">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="M177">
-        <v>11</v>
+        <v>3.25</v>
       </c>
       <c r="N177">
-        <v>1.125</v>
+        <v>2.05</v>
       </c>
       <c r="O177">
-        <v>8.5</v>
+        <v>2.9</v>
       </c>
       <c r="P177">
-        <v>21</v>
+        <v>4.333</v>
       </c>
       <c r="Q177">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S177">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T177">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="U177">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V177">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W177">
-        <v>0.125</v>
+        <v>1.05</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16251,13 +16251,13 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AA177">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AC177">
         <v>-1</v>
@@ -16268,7 +16268,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6995240</v>
+        <v>6995239</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16280,58 +16280,58 @@
         <v>45367.5</v>
       </c>
       <c r="F178" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G178" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H178">
         <v>3</v>
       </c>
       <c r="I178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" t="s">
         <v>41</v>
       </c>
       <c r="K178">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="L178">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M178">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="N178">
-        <v>1.5</v>
+        <v>1.125</v>
       </c>
       <c r="O178">
-        <v>4.2</v>
+        <v>8.5</v>
       </c>
       <c r="P178">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="Q178">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R178">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S178">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T178">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U178">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V178">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W178">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16340,13 +16340,13 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB178">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16357,7 +16357,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6845538</v>
+        <v>6995240</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16369,58 +16369,58 @@
         <v>45367.5</v>
       </c>
       <c r="F179" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G179" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J179" t="s">
         <v>41</v>
       </c>
       <c r="K179">
+        <v>1.5</v>
+      </c>
+      <c r="L179">
+        <v>4</v>
+      </c>
+      <c r="M179">
+        <v>5.5</v>
+      </c>
+      <c r="N179">
+        <v>1.5</v>
+      </c>
+      <c r="O179">
         <v>4.2</v>
       </c>
-      <c r="L179">
-        <v>3.6</v>
-      </c>
-      <c r="M179">
-        <v>1.727</v>
-      </c>
-      <c r="N179">
-        <v>4.333</v>
-      </c>
-      <c r="O179">
-        <v>3.6</v>
-      </c>
       <c r="P179">
-        <v>1.833</v>
+        <v>8</v>
       </c>
       <c r="Q179">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R179">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S179">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T179">
         <v>2.5</v>
       </c>
       <c r="U179">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V179">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W179">
-        <v>3.333</v>
+        <v>0.5</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16429,13 +16429,13 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC179">
         <v>-1</v>
@@ -16535,7 +16535,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7060946</v>
+        <v>7023915</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16547,76 +16547,76 @@
         <v>45381.5</v>
       </c>
       <c r="F181" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G181" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H181">
         <v>1</v>
       </c>
       <c r="I181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K181">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L181">
         <v>3.4</v>
       </c>
       <c r="M181">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="N181">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="O181">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P181">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q181">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R181">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S181">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T181">
         <v>2.25</v>
       </c>
       <c r="U181">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V181">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W181">
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z181">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB181">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC181">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16624,7 +16624,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7023915</v>
+        <v>7060944</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16636,73 +16636,73 @@
         <v>45381.5</v>
       </c>
       <c r="F182" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G182" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H182">
+        <v>2</v>
+      </c>
+      <c r="I182">
         <v>1</v>
       </c>
-      <c r="I182">
-        <v>2</v>
-      </c>
       <c r="J182" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K182">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L182">
         <v>3.4</v>
       </c>
       <c r="M182">
+        <v>3.6</v>
+      </c>
+      <c r="N182">
+        <v>1.55</v>
+      </c>
+      <c r="O182">
+        <v>4</v>
+      </c>
+      <c r="P182">
+        <v>6.5</v>
+      </c>
+      <c r="Q182">
+        <v>-1</v>
+      </c>
+      <c r="R182">
+        <v>1.925</v>
+      </c>
+      <c r="S182">
+        <v>1.925</v>
+      </c>
+      <c r="T182">
         <v>2.5</v>
       </c>
-      <c r="N182">
-        <v>3</v>
-      </c>
-      <c r="O182">
-        <v>3.25</v>
-      </c>
-      <c r="P182">
-        <v>2.375</v>
-      </c>
-      <c r="Q182">
-        <v>0.25</v>
-      </c>
-      <c r="R182">
-        <v>1.8</v>
-      </c>
-      <c r="S182">
-        <v>2.05</v>
-      </c>
-      <c r="T182">
-        <v>2.25</v>
-      </c>
       <c r="U182">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V182">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W182">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA182">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB182">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC182">
         <v>-1</v>
@@ -16713,7 +16713,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7060944</v>
+        <v>7060946</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16725,61 +16725,61 @@
         <v>45381.5</v>
       </c>
       <c r="F183" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G183" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183">
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K183">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L183">
         <v>3.4</v>
       </c>
       <c r="M183">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="N183">
-        <v>1.55</v>
+        <v>2.55</v>
       </c>
       <c r="O183">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P183">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q183">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R183">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S183">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T183">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U183">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V183">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W183">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X183">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y183">
         <v>-1</v>
@@ -16791,10 +16791,10 @@
         <v>-0</v>
       </c>
       <c r="AB183">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC183">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -17069,7 +17069,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7092318</v>
+        <v>7097952</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17078,34 +17078,34 @@
         <v>28</v>
       </c>
       <c r="E187" s="2">
-        <v>45388.45833333334</v>
+        <v>45389.33333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G187" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="K187">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="L187">
+        <v>3.6</v>
+      </c>
+      <c r="M187">
+        <v>3</v>
+      </c>
+      <c r="N187">
+        <v>2.2</v>
+      </c>
+      <c r="O187">
+        <v>3.6</v>
+      </c>
+      <c r="P187">
         <v>3.1</v>
       </c>
-      <c r="M187">
-        <v>2.8</v>
-      </c>
-      <c r="N187">
-        <v>2.875</v>
-      </c>
-      <c r="O187">
-        <v>3.1</v>
-      </c>
-      <c r="P187">
-        <v>2.6</v>
-      </c>
       <c r="Q187">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R187">
         <v>1.95</v>
@@ -17114,13 +17114,13 @@
         <v>1.9</v>
       </c>
       <c r="T187">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U187">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V187">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W187">
         <v>0</v>
@@ -17143,7 +17143,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7092309</v>
+        <v>7129354</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17152,28 +17152,28 @@
         <v>28</v>
       </c>
       <c r="E188" s="2">
-        <v>45388.45833333334</v>
+        <v>45395.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G188" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K188">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="L188">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M188">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="N188">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O188">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P188">
         <v>2.1</v>
@@ -17182,19 +17182,19 @@
         <v>0.25</v>
       </c>
       <c r="R188">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S188">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T188">
         <v>2.25</v>
       </c>
       <c r="U188">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V188">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W188">
         <v>0</v>
@@ -17217,7 +17217,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7092308</v>
+        <v>7128270</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17226,49 +17226,49 @@
         <v>28</v>
       </c>
       <c r="E189" s="2">
-        <v>45388.45833333334</v>
+        <v>45395.45833333334</v>
       </c>
       <c r="F189" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G189" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K189">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="L189">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M189">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="N189">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="O189">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P189">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="Q189">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R189">
-        <v>1.875</v>
+        <v>1.7</v>
       </c>
       <c r="S189">
-        <v>1.975</v>
+        <v>2.2</v>
       </c>
       <c r="T189">
         <v>2.5</v>
       </c>
       <c r="U189">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V189">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W189">
         <v>0</v>
@@ -17291,7 +17291,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7060951</v>
+        <v>7158273</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17300,49 +17300,49 @@
         <v>28</v>
       </c>
       <c r="E190" s="2">
-        <v>45388.45833333334</v>
+        <v>45395.45833333334</v>
       </c>
       <c r="F190" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G190" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K190">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="L190">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="M190">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N190">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="O190">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P190">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q190">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R190">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S190">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T190">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U190">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V190">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W190">
         <v>0</v>
@@ -17357,154 +17357,6 @@
         <v>0</v>
       </c>
       <c r="AA190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:29">
-      <c r="A191" s="1">
-        <v>189</v>
-      </c>
-      <c r="B191">
-        <v>7060947</v>
-      </c>
-      <c r="C191" t="s">
-        <v>28</v>
-      </c>
-      <c r="D191" t="s">
-        <v>28</v>
-      </c>
-      <c r="E191" s="2">
-        <v>45388.45833333334</v>
-      </c>
-      <c r="F191" t="s">
-        <v>32</v>
-      </c>
-      <c r="G191" t="s">
-        <v>39</v>
-      </c>
-      <c r="K191">
-        <v>1.952</v>
-      </c>
-      <c r="L191">
-        <v>3.5</v>
-      </c>
-      <c r="M191">
-        <v>3.75</v>
-      </c>
-      <c r="N191">
-        <v>2.375</v>
-      </c>
-      <c r="O191">
-        <v>3.3</v>
-      </c>
-      <c r="P191">
-        <v>3.1</v>
-      </c>
-      <c r="Q191">
-        <v>-0.25</v>
-      </c>
-      <c r="R191">
-        <v>2</v>
-      </c>
-      <c r="S191">
-        <v>1.85</v>
-      </c>
-      <c r="T191">
-        <v>2.5</v>
-      </c>
-      <c r="U191">
-        <v>1.975</v>
-      </c>
-      <c r="V191">
-        <v>1.875</v>
-      </c>
-      <c r="W191">
-        <v>0</v>
-      </c>
-      <c r="X191">
-        <v>0</v>
-      </c>
-      <c r="Y191">
-        <v>0</v>
-      </c>
-      <c r="Z191">
-        <v>0</v>
-      </c>
-      <c r="AA191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:29">
-      <c r="A192" s="1">
-        <v>190</v>
-      </c>
-      <c r="B192">
-        <v>7097952</v>
-      </c>
-      <c r="C192" t="s">
-        <v>28</v>
-      </c>
-      <c r="D192" t="s">
-        <v>28</v>
-      </c>
-      <c r="E192" s="2">
-        <v>45389.33333333334</v>
-      </c>
-      <c r="F192" t="s">
-        <v>37</v>
-      </c>
-      <c r="G192" t="s">
-        <v>29</v>
-      </c>
-      <c r="K192">
-        <v>2.2</v>
-      </c>
-      <c r="L192">
-        <v>3.6</v>
-      </c>
-      <c r="M192">
-        <v>3</v>
-      </c>
-      <c r="N192">
-        <v>2.2</v>
-      </c>
-      <c r="O192">
-        <v>3.6</v>
-      </c>
-      <c r="P192">
-        <v>3.1</v>
-      </c>
-      <c r="Q192">
-        <v>-0.25</v>
-      </c>
-      <c r="R192">
-        <v>1.95</v>
-      </c>
-      <c r="S192">
-        <v>1.9</v>
-      </c>
-      <c r="T192">
-        <v>2.75</v>
-      </c>
-      <c r="U192">
-        <v>1.95</v>
-      </c>
-      <c r="V192">
-        <v>1.9</v>
-      </c>
-      <c r="W192">
-        <v>0</v>
-      </c>
-      <c r="X192">
-        <v>0</v>
-      </c>
-      <c r="Y192">
-        <v>0</v>
-      </c>
-      <c r="Z192">
-        <v>0</v>
-      </c>
-      <c r="AA192">
         <v>0</v>
       </c>
     </row>

--- a/Scotland Premiership/Scotland Premiership.xlsx
+++ b/Scotland Premiership/Scotland Premiership.xlsx
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6844835</v>
+        <v>6844716</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,76 +1773,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K15">
-        <v>1.7</v>
+        <v>1.045</v>
       </c>
       <c r="L15">
-        <v>3.8</v>
+        <v>13</v>
       </c>
       <c r="M15">
-        <v>4.75</v>
+        <v>41</v>
       </c>
       <c r="N15">
-        <v>1.833</v>
+        <v>1.071</v>
       </c>
       <c r="O15">
+        <v>13</v>
+      </c>
+      <c r="P15">
+        <v>21</v>
+      </c>
+      <c r="Q15">
+        <v>-2.75</v>
+      </c>
+      <c r="R15">
+        <v>1.875</v>
+      </c>
+      <c r="S15">
+        <v>1.975</v>
+      </c>
+      <c r="T15">
         <v>3.75</v>
       </c>
-      <c r="P15">
-        <v>4.333</v>
-      </c>
-      <c r="Q15">
-        <v>-0.5</v>
-      </c>
-      <c r="R15">
-        <v>1.8</v>
-      </c>
-      <c r="S15">
-        <v>2.05</v>
-      </c>
-      <c r="T15">
-        <v>2.5</v>
-      </c>
       <c r="U15">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V15">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="Y15">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6844718</v>
+        <v>6844835</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,49 +1862,49 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K16">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="L16">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M16">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="N16">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="O16">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P16">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R16">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S16">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T16">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U16">
         <v>2</v>
@@ -1913,19 +1913,19 @@
         <v>1.85</v>
       </c>
       <c r="W16">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z16">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB16">
         <v>1</v>
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6844716</v>
+        <v>6844718</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,76 +1951,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K17">
-        <v>1.045</v>
+        <v>2.2</v>
       </c>
       <c r="L17">
-        <v>13</v>
+        <v>3.25</v>
       </c>
       <c r="M17">
-        <v>41</v>
+        <v>3.3</v>
       </c>
       <c r="N17">
-        <v>1.071</v>
+        <v>2.7</v>
       </c>
       <c r="O17">
-        <v>13</v>
+        <v>3.1</v>
       </c>
       <c r="P17">
-        <v>21</v>
+        <v>2.75</v>
       </c>
       <c r="Q17">
-        <v>-2.75</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S17">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T17">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U17">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V17">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X17">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA17">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC17">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6844717</v>
+        <v>7075288</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,40 +2040,40 @@
         <v>45165.45833333334</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K18">
+        <v>2.55</v>
+      </c>
+      <c r="L18">
         <v>3.2</v>
       </c>
-      <c r="L18">
-        <v>3.4</v>
-      </c>
       <c r="M18">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N18">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="O18">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P18">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R18">
         <v>2.1</v>
@@ -2082,34 +2082,34 @@
         <v>1.775</v>
       </c>
       <c r="T18">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V18">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W18">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC18">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7075288</v>
+        <v>6844717</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2129,40 +2129,40 @@
         <v>45165.45833333334</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K19">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="L19">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M19">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N19">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="O19">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P19">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q19">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R19">
         <v>2.1</v>
@@ -2171,34 +2171,34 @@
         <v>1.775</v>
       </c>
       <c r="T19">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U19">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V19">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X19">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AA19">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6844724</v>
+        <v>6844722</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,76 +2218,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K20">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M20">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="N20">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="O20">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P20">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="Q20">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R20">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S20">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T20">
         <v>2.25</v>
       </c>
       <c r="U20">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V20">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z20">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB20">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6844722</v>
+        <v>6844724</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2396,76 +2396,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L22">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M22">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="N22">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="O22">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P22">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="Q22">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R22">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S22">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T22">
         <v>2.25</v>
       </c>
       <c r="U22">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V22">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y22">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA22">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC22">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7126250</v>
+        <v>6845503</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,55 +2574,55 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
         <v>42</v>
       </c>
       <c r="K24">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L24">
+        <v>3.25</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <v>2.3</v>
+      </c>
+      <c r="O24">
         <v>3.4</v>
       </c>
-      <c r="M24">
-        <v>3.5</v>
-      </c>
-      <c r="N24">
-        <v>1.7</v>
-      </c>
-      <c r="O24">
-        <v>3.8</v>
-      </c>
       <c r="P24">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q24">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S24">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T24">
         <v>2.5</v>
       </c>
       <c r="U24">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V24">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W24">
         <v>-1</v>
@@ -2631,19 +2631,19 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB24">
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2651,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6845503</v>
+        <v>7126250</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2663,55 +2663,55 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
         <v>42</v>
       </c>
       <c r="K25">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L25">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M25">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N25">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="O25">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P25">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q25">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R25">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S25">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T25">
         <v>2.5</v>
       </c>
       <c r="U25">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V25">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W25">
         <v>-1</v>
@@ -2720,19 +2720,19 @@
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB25">
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6845505</v>
+        <v>6844728</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,76 +2841,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L27">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M27">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="N27">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O27">
+        <v>3.2</v>
+      </c>
+      <c r="P27">
         <v>3.5</v>
-      </c>
-      <c r="P27">
-        <v>3.4</v>
       </c>
       <c r="Q27">
         <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S27">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T27">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U27">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V27">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W27">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC27">
-        <v>0.925</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6844728</v>
+        <v>6845505</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,76 +2930,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L28">
+        <v>3.4</v>
+      </c>
+      <c r="M28">
         <v>3.1</v>
       </c>
-      <c r="M28">
-        <v>2.7</v>
-      </c>
       <c r="N28">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O28">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P28">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q28">
         <v>-0.25</v>
       </c>
       <c r="R28">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S28">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T28">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U28">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V28">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X28">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA28">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.425</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6844726</v>
+        <v>6844727</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,76 +3019,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K29">
+        <v>2.25</v>
+      </c>
+      <c r="L29">
         <v>3</v>
       </c>
-      <c r="L29">
-        <v>3.2</v>
-      </c>
       <c r="M29">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="N29">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="O29">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P29">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q29">
         <v>0</v>
       </c>
       <c r="R29">
+        <v>1.975</v>
+      </c>
+      <c r="S29">
         <v>1.875</v>
-      </c>
-      <c r="S29">
-        <v>1.975</v>
       </c>
       <c r="T29">
         <v>2.25</v>
       </c>
       <c r="U29">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V29">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB29">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6844727</v>
+        <v>6844726</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,76 +3108,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M30">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="N30">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="O30">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P30">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="Q30">
         <v>0</v>
       </c>
       <c r="R30">
+        <v>1.875</v>
+      </c>
+      <c r="S30">
         <v>1.975</v>
-      </c>
-      <c r="S30">
-        <v>1.875</v>
       </c>
       <c r="T30">
         <v>2.25</v>
       </c>
       <c r="U30">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V30">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y30">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC30">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3363,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6844732</v>
+        <v>6844735</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3375,13 +3375,13 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -3390,43 +3390,43 @@
         <v>41</v>
       </c>
       <c r="K33">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M33">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="N33">
-        <v>1.55</v>
+        <v>2.75</v>
       </c>
       <c r="O33">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P33">
-        <v>5.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R33">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S33">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T33">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U33">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V33">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W33">
-        <v>0.55</v>
+        <v>1.75</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3435,7 +3435,7 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA33">
         <v>-1</v>
@@ -3444,7 +3444,7 @@
         <v>-1</v>
       </c>
       <c r="AC33">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3452,7 +3452,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6844731</v>
+        <v>6844732</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3464,76 +3464,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H34">
         <v>2</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K34">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="L34">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M34">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="N34">
-        <v>2.4</v>
+        <v>1.55</v>
       </c>
       <c r="O34">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P34">
-        <v>3</v>
+        <v>5.75</v>
       </c>
       <c r="Q34">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R34">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S34">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T34">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U34">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V34">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X34">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA34">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3541,7 +3541,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6844735</v>
+        <v>6844731</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3553,76 +3553,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G35" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K35">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L35">
         <v>3.3</v>
       </c>
       <c r="M35">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="N35">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="O35">
         <v>3.3</v>
       </c>
       <c r="P35">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S35">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T35">
         <v>2.25</v>
       </c>
       <c r="U35">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V35">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W35">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC35">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6844736</v>
+        <v>6844737</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,76 +3909,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
         <v>43</v>
       </c>
       <c r="K39">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L39">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N39">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="O39">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P39">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="Q39">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S39">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T39">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U39">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V39">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA39">
-        <v>1.05</v>
+        <v>0.4875</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC39">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3986,7 +3986,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6844739</v>
+        <v>6844736</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3998,76 +3998,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K40">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="L40">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M40">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="N40">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="O40">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P40">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q40">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R40">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S40">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T40">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V40">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y40">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AB40">
         <v>-1</v>
       </c>
       <c r="AC40">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4075,7 +4075,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6844740</v>
+        <v>6845506</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4087,76 +4087,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K41">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="L41">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M41">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="N41">
-        <v>2.4</v>
+        <v>1.363</v>
       </c>
       <c r="O41">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="P41">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="Q41">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R41">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S41">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U41">
+        <v>1.975</v>
+      </c>
+      <c r="V41">
         <v>1.875</v>
       </c>
-      <c r="V41">
-        <v>1.975</v>
-      </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z41">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC41">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4164,7 +4164,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6845506</v>
+        <v>6844740</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4176,76 +4176,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K42">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="L42">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M42">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="N42">
-        <v>1.363</v>
+        <v>2.4</v>
       </c>
       <c r="O42">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P42">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="Q42">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R42">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S42">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U42">
+        <v>1.875</v>
+      </c>
+      <c r="V42">
         <v>1.975</v>
       </c>
-      <c r="V42">
-        <v>1.875</v>
-      </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y42">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA42">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB42">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4253,7 +4253,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6844737</v>
+        <v>6844739</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4265,76 +4265,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K43">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="L43">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M43">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="N43">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="O43">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P43">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q43">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R43">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S43">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T43">
         <v>2.25</v>
       </c>
       <c r="U43">
+        <v>1.825</v>
+      </c>
+      <c r="V43">
         <v>2.025</v>
       </c>
-      <c r="V43">
-        <v>1.825</v>
-      </c>
       <c r="W43">
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z43">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AB43">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>0.4125</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4342,7 +4342,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6845533</v>
+        <v>6844742</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4354,61 +4354,61 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K44">
-        <v>2.1</v>
+        <v>1.125</v>
       </c>
       <c r="L44">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="M44">
-        <v>3.3</v>
+        <v>13</v>
       </c>
       <c r="N44">
-        <v>2.4</v>
+        <v>1.181</v>
       </c>
       <c r="O44">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="P44">
-        <v>2.875</v>
+        <v>13</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R44">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S44">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T44">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U44">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V44">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X44">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
@@ -4420,7 +4420,7 @@
         <v>-0</v>
       </c>
       <c r="AB44">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4520,7 +4520,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6844742</v>
+        <v>6845533</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4532,61 +4532,61 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K46">
-        <v>1.125</v>
+        <v>2.1</v>
       </c>
       <c r="L46">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="M46">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="N46">
-        <v>1.181</v>
+        <v>2.4</v>
       </c>
       <c r="O46">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P46">
-        <v>13</v>
+        <v>2.875</v>
       </c>
       <c r="Q46">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S46">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T46">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U46">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V46">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W46">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y46">
         <v>-1</v>
@@ -4598,7 +4598,7 @@
         <v>-0</v>
       </c>
       <c r="AB46">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -5766,7 +5766,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6844758</v>
+        <v>6844837</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5778,58 +5778,58 @@
         <v>45231.69791666666</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
         <v>41</v>
       </c>
       <c r="K60">
+        <v>1.727</v>
+      </c>
+      <c r="L60">
+        <v>3.75</v>
+      </c>
+      <c r="M60">
+        <v>4.5</v>
+      </c>
+      <c r="N60">
+        <v>1.45</v>
+      </c>
+      <c r="O60">
+        <v>4.5</v>
+      </c>
+      <c r="P60">
+        <v>6.5</v>
+      </c>
+      <c r="Q60">
+        <v>-1</v>
+      </c>
+      <c r="R60">
+        <v>1.825</v>
+      </c>
+      <c r="S60">
+        <v>2.025</v>
+      </c>
+      <c r="T60">
         <v>2.5</v>
       </c>
-      <c r="L60">
-        <v>3.1</v>
-      </c>
-      <c r="M60">
-        <v>2.9</v>
-      </c>
-      <c r="N60">
-        <v>3.75</v>
-      </c>
-      <c r="O60">
-        <v>3.1</v>
-      </c>
-      <c r="P60">
-        <v>2.15</v>
-      </c>
-      <c r="Q60">
-        <v>0.25</v>
-      </c>
-      <c r="R60">
-        <v>2</v>
-      </c>
-      <c r="S60">
-        <v>1.85</v>
-      </c>
-      <c r="T60">
-        <v>2.25</v>
-      </c>
       <c r="U60">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V60">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W60">
-        <v>2.75</v>
+        <v>0.45</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5838,16 +5838,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB60">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6844837</v>
+        <v>6844758</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,58 +6045,58 @@
         <v>45231.69791666666</v>
       </c>
       <c r="F63" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H63">
+        <v>2</v>
+      </c>
+      <c r="I63">
         <v>1</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
       </c>
       <c r="J63" t="s">
         <v>41</v>
       </c>
       <c r="K63">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L63">
+        <v>3.1</v>
+      </c>
+      <c r="M63">
+        <v>2.9</v>
+      </c>
+      <c r="N63">
         <v>3.75</v>
       </c>
-      <c r="M63">
-        <v>4.5</v>
-      </c>
-      <c r="N63">
-        <v>1.45</v>
-      </c>
       <c r="O63">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P63">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q63">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R63">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S63">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U63">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V63">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W63">
-        <v>0.45</v>
+        <v>2.75</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6105,16 +6105,16 @@
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA63">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC63">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6844767</v>
+        <v>6844766</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,76 +6668,76 @@
         <v>45241.5</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G70" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H70">
         <v>1</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K70">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="L70">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M70">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="N70">
+        <v>3.1</v>
+      </c>
+      <c r="O70">
+        <v>3.3</v>
+      </c>
+      <c r="P70">
+        <v>2.375</v>
+      </c>
+      <c r="Q70">
+        <v>0.25</v>
+      </c>
+      <c r="R70">
+        <v>1.825</v>
+      </c>
+      <c r="S70">
+        <v>2.025</v>
+      </c>
+      <c r="T70">
         <v>2.5</v>
       </c>
-      <c r="O70">
-        <v>3.1</v>
-      </c>
-      <c r="P70">
-        <v>3</v>
-      </c>
-      <c r="Q70">
-        <v>0</v>
-      </c>
-      <c r="R70">
-        <v>1.775</v>
-      </c>
-      <c r="S70">
-        <v>2.1</v>
-      </c>
-      <c r="T70">
-        <v>2.25</v>
-      </c>
       <c r="U70">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V70">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W70">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z70">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC70">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6844766</v>
+        <v>6844765</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,76 +6757,76 @@
         <v>45241.5</v>
       </c>
       <c r="F71" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G71" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K71">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="L71">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M71">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="N71">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="O71">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P71">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="Q71">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R71">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S71">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T71">
         <v>2.5</v>
       </c>
       <c r="U71">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V71">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA71">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6844765</v>
+        <v>6844764</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,13 +6846,13 @@
         <v>45241.5</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -6861,43 +6861,43 @@
         <v>41</v>
       </c>
       <c r="K72">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L72">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M72">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N72">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="O72">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P72">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q72">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S72">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T72">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U72">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V72">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W72">
-        <v>1.1</v>
+        <v>1.625</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6906,16 +6906,16 @@
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA72">
         <v>-1</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC72">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6844764</v>
+        <v>6844767</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,13 +6935,13 @@
         <v>45241.5</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H73">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -6950,43 +6950,43 @@
         <v>41</v>
       </c>
       <c r="K73">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="L73">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M73">
+        <v>2.625</v>
+      </c>
+      <c r="N73">
+        <v>2.5</v>
+      </c>
+      <c r="O73">
+        <v>3.1</v>
+      </c>
+      <c r="P73">
         <v>3</v>
       </c>
-      <c r="N73">
-        <v>2.625</v>
-      </c>
-      <c r="O73">
-        <v>3.2</v>
-      </c>
-      <c r="P73">
-        <v>2.75</v>
-      </c>
       <c r="Q73">
         <v>0</v>
       </c>
       <c r="R73">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S73">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T73">
         <v>2.25</v>
       </c>
       <c r="U73">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="V73">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W73">
-        <v>1.625</v>
+        <v>1.5</v>
       </c>
       <c r="X73">
         <v>-1</v>
@@ -6995,16 +6995,16 @@
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA73">
         <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7279,7 +7279,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6844771</v>
+        <v>6844770</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7291,76 +7291,76 @@
         <v>45255.5</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K77">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="L77">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M77">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="N77">
-        <v>2.875</v>
+        <v>1.5</v>
       </c>
       <c r="O77">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="P77">
-        <v>2.6</v>
+        <v>7.5</v>
       </c>
       <c r="Q77">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R77">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S77">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T77">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U77">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V77">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X77">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA77">
-        <v>-0</v>
+        <v>0.3875</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6844770</v>
+        <v>6844771</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,76 +7380,76 @@
         <v>45255.5</v>
       </c>
       <c r="F78" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K78">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="L78">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M78">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="N78">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="O78">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P78">
-        <v>7.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q78">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R78">
+        <v>2.025</v>
+      </c>
+      <c r="S78">
+        <v>1.825</v>
+      </c>
+      <c r="T78">
+        <v>2</v>
+      </c>
+      <c r="U78">
+        <v>1.875</v>
+      </c>
+      <c r="V78">
+        <v>1.975</v>
+      </c>
+      <c r="W78">
+        <v>-1</v>
+      </c>
+      <c r="X78">
         <v>2.1</v>
       </c>
-      <c r="S78">
-        <v>1.775</v>
-      </c>
-      <c r="T78">
-        <v>2.5</v>
-      </c>
-      <c r="U78">
-        <v>1.85</v>
-      </c>
-      <c r="V78">
-        <v>2</v>
-      </c>
-      <c r="W78">
-        <v>0.5</v>
-      </c>
-      <c r="X78">
-        <v>-1</v>
-      </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA78">
-        <v>0.3875</v>
+        <v>-0</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -8080,7 +8080,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6844776</v>
+        <v>6845513</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8092,10 +8092,10 @@
         <v>45263.5</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8107,43 +8107,43 @@
         <v>41</v>
       </c>
       <c r="K86">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="L86">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M86">
-        <v>8.5</v>
+        <v>3.3</v>
       </c>
       <c r="N86">
-        <v>1.166</v>
+        <v>2.3</v>
       </c>
       <c r="O86">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="P86">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="Q86">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S86">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T86">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U86">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V86">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W86">
-        <v>0.1659999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8152,16 +8152,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA86">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6845513</v>
+        <v>6844776</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,10 +8181,10 @@
         <v>45263.5</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8196,43 +8196,43 @@
         <v>41</v>
       </c>
       <c r="K87">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="L87">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M87">
-        <v>3.3</v>
+        <v>8.5</v>
       </c>
       <c r="N87">
-        <v>2.3</v>
+        <v>1.166</v>
       </c>
       <c r="O87">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="P87">
+        <v>17</v>
+      </c>
+      <c r="Q87">
+        <v>-2</v>
+      </c>
+      <c r="R87">
+        <v>1.875</v>
+      </c>
+      <c r="S87">
+        <v>1.975</v>
+      </c>
+      <c r="T87">
         <v>3</v>
       </c>
-      <c r="Q87">
-        <v>-0.25</v>
-      </c>
-      <c r="R87">
+      <c r="U87">
+        <v>1.825</v>
+      </c>
+      <c r="V87">
         <v>2.025</v>
       </c>
-      <c r="S87">
-        <v>1.825</v>
-      </c>
-      <c r="T87">
-        <v>2.5</v>
-      </c>
-      <c r="U87">
-        <v>1.95</v>
-      </c>
-      <c r="V87">
-        <v>1.9</v>
-      </c>
       <c r="W87">
-        <v>1.3</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8241,16 +8241,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
+        <v>0</v>
+      </c>
+      <c r="AA87">
+        <v>-0</v>
+      </c>
+      <c r="AB87">
+        <v>-1</v>
+      </c>
+      <c r="AC87">
         <v>1.025</v>
-      </c>
-      <c r="AA87">
-        <v>-1</v>
-      </c>
-      <c r="AB87">
-        <v>-1</v>
-      </c>
-      <c r="AC87">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6844785</v>
+        <v>6845516</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,58 +8804,58 @@
         <v>45269.5</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H94">
         <v>2</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="s">
         <v>41</v>
       </c>
       <c r="K94">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L94">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M94">
+        <v>2.5</v>
+      </c>
+      <c r="N94">
+        <v>2.4</v>
+      </c>
+      <c r="O94">
         <v>3.5</v>
       </c>
-      <c r="N94">
-        <v>2.15</v>
-      </c>
-      <c r="O94">
-        <v>3.2</v>
-      </c>
       <c r="P94">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="Q94">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R94">
+        <v>1.75</v>
+      </c>
+      <c r="S94">
+        <v>2.05</v>
+      </c>
+      <c r="T94">
+        <v>2.5</v>
+      </c>
+      <c r="U94">
+        <v>2</v>
+      </c>
+      <c r="V94">
         <v>1.85</v>
       </c>
-      <c r="S94">
-        <v>2</v>
-      </c>
-      <c r="T94">
-        <v>2</v>
-      </c>
-      <c r="U94">
-        <v>1.9</v>
-      </c>
-      <c r="V94">
-        <v>1.95</v>
-      </c>
       <c r="W94">
-        <v>1.15</v>
+        <v>1.4</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8864,16 +8864,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA94">
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC94">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6844783</v>
+        <v>6844785</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,58 +8893,58 @@
         <v>45269.5</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
         <v>41</v>
       </c>
       <c r="K95">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="L95">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="M95">
-        <v>17</v>
+        <v>3.5</v>
       </c>
       <c r="N95">
-        <v>1.111</v>
+        <v>2.15</v>
       </c>
       <c r="O95">
-        <v>9</v>
+        <v>3.2</v>
       </c>
       <c r="P95">
-        <v>21</v>
+        <v>3.6</v>
       </c>
       <c r="Q95">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R95">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S95">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T95">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="U95">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V95">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W95">
-        <v>0.111</v>
+        <v>1.15</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8953,16 +8953,16 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA95">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6845516</v>
+        <v>6844783</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,13 +9071,13 @@
         <v>45269.5</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G97" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I97">
         <v>1</v>
@@ -9086,43 +9086,43 @@
         <v>41</v>
       </c>
       <c r="K97">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="L97">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M97">
-        <v>2.5</v>
+        <v>17</v>
       </c>
       <c r="N97">
-        <v>2.4</v>
+        <v>1.111</v>
       </c>
       <c r="O97">
+        <v>9</v>
+      </c>
+      <c r="P97">
+        <v>21</v>
+      </c>
+      <c r="Q97">
+        <v>-2.5</v>
+      </c>
+      <c r="R97">
+        <v>2</v>
+      </c>
+      <c r="S97">
+        <v>1.85</v>
+      </c>
+      <c r="T97">
         <v>3.5</v>
       </c>
-      <c r="P97">
-        <v>2.875</v>
-      </c>
-      <c r="Q97">
-        <v>0</v>
-      </c>
-      <c r="R97">
-        <v>1.75</v>
-      </c>
-      <c r="S97">
-        <v>2.05</v>
-      </c>
-      <c r="T97">
-        <v>2.5</v>
-      </c>
       <c r="U97">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V97">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W97">
-        <v>1.4</v>
+        <v>0.111</v>
       </c>
       <c r="X97">
         <v>-1</v>
@@ -9131,13 +9131,13 @@
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB97">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6844788</v>
+        <v>6844805</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,76 +9249,76 @@
         <v>45276.5</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G99" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K99">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="L99">
         <v>3.25</v>
       </c>
       <c r="M99">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="N99">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="O99">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P99">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R99">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S99">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T99">
         <v>2.25</v>
       </c>
       <c r="U99">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V99">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA99">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6844787</v>
+        <v>6845517</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,76 +9338,76 @@
         <v>45276.5</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K100">
-        <v>3.1</v>
+        <v>1.25</v>
       </c>
       <c r="L100">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="M100">
-        <v>2.3</v>
+        <v>10</v>
       </c>
       <c r="N100">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="O100">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="P100">
-        <v>2.15</v>
+        <v>12</v>
       </c>
       <c r="Q100">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R100">
+        <v>1.95</v>
+      </c>
+      <c r="S100">
+        <v>1.9</v>
+      </c>
+      <c r="T100">
+        <v>3.5</v>
+      </c>
+      <c r="U100">
         <v>2.025</v>
       </c>
-      <c r="S100">
+      <c r="V100">
         <v>1.825</v>
       </c>
-      <c r="T100">
-        <v>2</v>
-      </c>
-      <c r="U100">
-        <v>1.825</v>
-      </c>
-      <c r="V100">
-        <v>2.025</v>
-      </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="Z100">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6844805</v>
+        <v>6844788</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,76 +9427,76 @@
         <v>45276.5</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G101" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
         <v>1</v>
       </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
       <c r="J101" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K101">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="L101">
         <v>3.25</v>
       </c>
       <c r="M101">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="N101">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="O101">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P101">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="Q101">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R101">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S101">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T101">
         <v>2.25</v>
       </c>
       <c r="U101">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V101">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W101">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z101">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB101">
         <v>-1</v>
       </c>
       <c r="AC101">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6845517</v>
+        <v>6844787</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,76 +9605,76 @@
         <v>45276.5</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K103">
-        <v>1.25</v>
+        <v>3.1</v>
       </c>
       <c r="L103">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M103">
-        <v>10</v>
+        <v>2.3</v>
       </c>
       <c r="N103">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="O103">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="P103">
-        <v>12</v>
+        <v>2.15</v>
       </c>
       <c r="Q103">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S103">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T103">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="U103">
+        <v>1.825</v>
+      </c>
+      <c r="V103">
         <v>2.025</v>
       </c>
-      <c r="V103">
-        <v>1.825</v>
-      </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y103">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA103">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB103">
         <v>-1</v>
       </c>
       <c r="AC103">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6844792</v>
+        <v>6844841</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,10 +9961,10 @@
         <v>45283.5</v>
       </c>
       <c r="F107" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G107" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -9976,43 +9976,43 @@
         <v>41</v>
       </c>
       <c r="K107">
-        <v>1.909</v>
+        <v>1.125</v>
       </c>
       <c r="L107">
+        <v>8</v>
+      </c>
+      <c r="M107">
+        <v>21</v>
+      </c>
+      <c r="N107">
+        <v>1.071</v>
+      </c>
+      <c r="O107">
+        <v>11</v>
+      </c>
+      <c r="P107">
+        <v>29</v>
+      </c>
+      <c r="Q107">
+        <v>-2.75</v>
+      </c>
+      <c r="R107">
+        <v>1.95</v>
+      </c>
+      <c r="S107">
+        <v>1.9</v>
+      </c>
+      <c r="T107">
         <v>3.5</v>
       </c>
-      <c r="M107">
-        <v>4</v>
-      </c>
-      <c r="N107">
-        <v>1.833</v>
-      </c>
-      <c r="O107">
-        <v>3.5</v>
-      </c>
-      <c r="P107">
-        <v>4.75</v>
-      </c>
-      <c r="Q107">
-        <v>-0.5</v>
-      </c>
-      <c r="R107">
-        <v>1.875</v>
-      </c>
-      <c r="S107">
-        <v>1.975</v>
-      </c>
-      <c r="T107">
-        <v>2.25</v>
-      </c>
       <c r="U107">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V107">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W107">
-        <v>0.833</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10021,16 +10021,16 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB107">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.4625</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10038,7 +10038,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6844841</v>
+        <v>6844792</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10050,10 +10050,10 @@
         <v>45283.5</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G108" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10065,43 +10065,43 @@
         <v>41</v>
       </c>
       <c r="K108">
-        <v>1.125</v>
+        <v>1.909</v>
       </c>
       <c r="L108">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="M108">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="N108">
-        <v>1.071</v>
+        <v>1.833</v>
       </c>
       <c r="O108">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="P108">
-        <v>29</v>
+        <v>4.75</v>
       </c>
       <c r="Q108">
-        <v>-2.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R108">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S108">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T108">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U108">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V108">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W108">
-        <v>0.07099999999999995</v>
+        <v>0.833</v>
       </c>
       <c r="X108">
         <v>-1</v>
@@ -10110,16 +10110,16 @@
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA108">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC108">
-        <v>1.025</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10661,7 +10661,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6844804</v>
+        <v>6844803</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10673,73 +10673,73 @@
         <v>45290.5</v>
       </c>
       <c r="F115" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G115" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K115">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="L115">
         <v>3.5</v>
       </c>
       <c r="M115">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="N115">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="O115">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P115">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q115">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R115">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S115">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T115">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U115">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V115">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W115">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB115">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC115">
         <v>-1</v>
@@ -10750,7 +10750,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6844801</v>
+        <v>6844804</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10762,73 +10762,73 @@
         <v>45290.5</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I116">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K116">
+        <v>1.833</v>
+      </c>
+      <c r="L116">
+        <v>3.5</v>
+      </c>
+      <c r="M116">
+        <v>4.2</v>
+      </c>
+      <c r="N116">
+        <v>2.15</v>
+      </c>
+      <c r="O116">
+        <v>3.25</v>
+      </c>
+      <c r="P116">
+        <v>3.75</v>
+      </c>
+      <c r="Q116">
+        <v>-0.25</v>
+      </c>
+      <c r="R116">
+        <v>1.8</v>
+      </c>
+      <c r="S116">
         <v>2.05</v>
       </c>
-      <c r="L116">
-        <v>3.4</v>
-      </c>
-      <c r="M116">
-        <v>3.5</v>
-      </c>
-      <c r="N116">
-        <v>1.8</v>
-      </c>
-      <c r="O116">
-        <v>3.5</v>
-      </c>
-      <c r="P116">
-        <v>5</v>
-      </c>
-      <c r="Q116">
-        <v>-0.75</v>
-      </c>
-      <c r="R116">
+      <c r="T116">
+        <v>2</v>
+      </c>
+      <c r="U116">
+        <v>1.75</v>
+      </c>
+      <c r="V116">
         <v>2.05</v>
       </c>
-      <c r="S116">
-        <v>1.8</v>
-      </c>
-      <c r="T116">
-        <v>2.25</v>
-      </c>
-      <c r="U116">
-        <v>2</v>
-      </c>
-      <c r="V116">
-        <v>1.85</v>
-      </c>
       <c r="W116">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA116">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10928,7 +10928,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6844803</v>
+        <v>6844801</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10940,73 +10940,73 @@
         <v>45290.5</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G118" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K118">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L118">
+        <v>3.4</v>
+      </c>
+      <c r="M118">
         <v>3.5</v>
       </c>
-      <c r="M118">
-        <v>3.9</v>
-      </c>
       <c r="N118">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="O118">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P118">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q118">
         <v>-0.75</v>
       </c>
       <c r="R118">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S118">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T118">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U118">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V118">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB118">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11818,7 +11818,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6844811</v>
+        <v>6844812</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11830,76 +11830,76 @@
         <v>45318.5</v>
       </c>
       <c r="F128" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G128" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K128">
-        <v>1.125</v>
+        <v>2.2</v>
       </c>
       <c r="L128">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="M128">
-        <v>21</v>
+        <v>3.4</v>
       </c>
       <c r="N128">
-        <v>1.045</v>
+        <v>2.1</v>
       </c>
       <c r="O128">
-        <v>13</v>
+        <v>3.4</v>
       </c>
       <c r="P128">
-        <v>34</v>
+        <v>3.6</v>
       </c>
       <c r="Q128">
-        <v>-3</v>
+        <v>-0.25</v>
       </c>
       <c r="R128">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S128">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T128">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="U128">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V128">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W128">
-        <v>0.04499999999999993</v>
+        <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA128">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC128">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6844812</v>
+        <v>6844811</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,76 +11919,76 @@
         <v>45318.5</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G129" t="s">
+        <v>35</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129" t="s">
+        <v>41</v>
+      </c>
+      <c r="K129">
+        <v>1.125</v>
+      </c>
+      <c r="L129">
+        <v>8</v>
+      </c>
+      <c r="M129">
+        <v>21</v>
+      </c>
+      <c r="N129">
+        <v>1.045</v>
+      </c>
+      <c r="O129">
+        <v>13</v>
+      </c>
+      <c r="P129">
         <v>34</v>
       </c>
-      <c r="H129">
-        <v>2</v>
-      </c>
-      <c r="I129">
-        <v>2</v>
-      </c>
-      <c r="J129" t="s">
-        <v>43</v>
-      </c>
-      <c r="K129">
-        <v>2.2</v>
-      </c>
-      <c r="L129">
-        <v>3.2</v>
-      </c>
-      <c r="M129">
-        <v>3.4</v>
-      </c>
-      <c r="N129">
-        <v>2.1</v>
-      </c>
-      <c r="O129">
-        <v>3.4</v>
-      </c>
-      <c r="P129">
-        <v>3.6</v>
-      </c>
       <c r="Q129">
-        <v>-0.25</v>
+        <v>-3</v>
       </c>
       <c r="R129">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S129">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T129">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U129">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V129">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="X129">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB129">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6844814</v>
+        <v>6844813</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,76 +12008,76 @@
         <v>45318.5</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G130" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H130">
         <v>1</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J130" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K130">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="L130">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M130">
+        <v>2.5</v>
+      </c>
+      <c r="N130">
+        <v>2.7</v>
+      </c>
+      <c r="O130">
         <v>3</v>
       </c>
-      <c r="N130">
-        <v>2.55</v>
-      </c>
-      <c r="O130">
-        <v>2.875</v>
-      </c>
       <c r="P130">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q130">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R130">
-        <v>2.125</v>
+        <v>1.875</v>
       </c>
       <c r="S130">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T130">
         <v>2</v>
       </c>
       <c r="U130">
+        <v>1.775</v>
+      </c>
+      <c r="V130">
         <v>2.1</v>
       </c>
-      <c r="V130">
-        <v>1.775</v>
-      </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z130">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0.375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB130">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC130">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6844813</v>
+        <v>6844814</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,76 +12097,76 @@
         <v>45318.5</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
       <c r="I131">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K131">
+        <v>2.375</v>
+      </c>
+      <c r="L131">
+        <v>3.2</v>
+      </c>
+      <c r="M131">
         <v>3</v>
       </c>
-      <c r="L131">
-        <v>3</v>
-      </c>
-      <c r="M131">
-        <v>2.5</v>
-      </c>
       <c r="N131">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="O131">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P131">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q131">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R131">
+        <v>2.125</v>
+      </c>
+      <c r="S131">
+        <v>1.75</v>
+      </c>
+      <c r="T131">
+        <v>2</v>
+      </c>
+      <c r="U131">
+        <v>2.1</v>
+      </c>
+      <c r="V131">
+        <v>1.775</v>
+      </c>
+      <c r="W131">
+        <v>-1</v>
+      </c>
+      <c r="X131">
         <v>1.875</v>
       </c>
-      <c r="S131">
-        <v>1.975</v>
-      </c>
-      <c r="T131">
-        <v>2</v>
-      </c>
-      <c r="U131">
-        <v>1.775</v>
-      </c>
-      <c r="V131">
-        <v>2.1</v>
-      </c>
-      <c r="W131">
-        <v>-1</v>
-      </c>
-      <c r="X131">
-        <v>-1</v>
-      </c>
       <c r="Y131">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA131">
-        <v>0.9750000000000001</v>
+        <v>0.375</v>
       </c>
       <c r="AB131">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12263,7 +12263,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7668001</v>
+        <v>7572459</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12275,76 +12275,76 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F133" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G133" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
         <v>43</v>
       </c>
       <c r="K133">
+        <v>2.5</v>
+      </c>
+      <c r="L133">
+        <v>3.2</v>
+      </c>
+      <c r="M133">
+        <v>2.8</v>
+      </c>
+      <c r="N133">
+        <v>2.25</v>
+      </c>
+      <c r="O133">
+        <v>3.25</v>
+      </c>
+      <c r="P133">
+        <v>3.3</v>
+      </c>
+      <c r="Q133">
+        <v>-0.25</v>
+      </c>
+      <c r="R133">
+        <v>1.975</v>
+      </c>
+      <c r="S133">
+        <v>1.875</v>
+      </c>
+      <c r="T133">
+        <v>2</v>
+      </c>
+      <c r="U133">
         <v>1.75</v>
       </c>
-      <c r="L133">
-        <v>3.5</v>
-      </c>
-      <c r="M133">
-        <v>4.75</v>
-      </c>
-      <c r="N133">
-        <v>1.909</v>
-      </c>
-      <c r="O133">
-        <v>3.4</v>
-      </c>
-      <c r="P133">
-        <v>4.333</v>
-      </c>
-      <c r="Q133">
+      <c r="V133">
+        <v>2.05</v>
+      </c>
+      <c r="W133">
+        <v>-1</v>
+      </c>
+      <c r="X133">
+        <v>2.25</v>
+      </c>
+      <c r="Y133">
+        <v>-1</v>
+      </c>
+      <c r="Z133">
         <v>-0.5</v>
       </c>
-      <c r="R133">
-        <v>1.875</v>
-      </c>
-      <c r="S133">
-        <v>1.975</v>
-      </c>
-      <c r="T133">
-        <v>2.5</v>
-      </c>
-      <c r="U133">
-        <v>1.975</v>
-      </c>
-      <c r="V133">
-        <v>1.875</v>
-      </c>
-      <c r="W133">
-        <v>-1</v>
-      </c>
-      <c r="X133">
-        <v>2.4</v>
-      </c>
-      <c r="Y133">
-        <v>-1</v>
-      </c>
-      <c r="Z133">
-        <v>-1</v>
-      </c>
       <c r="AA133">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC133">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12352,7 +12352,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7572459</v>
+        <v>7668001</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12364,76 +12364,76 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G134" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
         <v>43</v>
       </c>
       <c r="K134">
+        <v>1.75</v>
+      </c>
+      <c r="L134">
+        <v>3.5</v>
+      </c>
+      <c r="M134">
+        <v>4.75</v>
+      </c>
+      <c r="N134">
+        <v>1.909</v>
+      </c>
+      <c r="O134">
+        <v>3.4</v>
+      </c>
+      <c r="P134">
+        <v>4.333</v>
+      </c>
+      <c r="Q134">
+        <v>-0.5</v>
+      </c>
+      <c r="R134">
+        <v>1.875</v>
+      </c>
+      <c r="S134">
+        <v>1.975</v>
+      </c>
+      <c r="T134">
         <v>2.5</v>
       </c>
-      <c r="L134">
-        <v>3.2</v>
-      </c>
-      <c r="M134">
-        <v>2.8</v>
-      </c>
-      <c r="N134">
-        <v>2.25</v>
-      </c>
-      <c r="O134">
-        <v>3.25</v>
-      </c>
-      <c r="P134">
-        <v>3.3</v>
-      </c>
-      <c r="Q134">
-        <v>-0.25</v>
-      </c>
-      <c r="R134">
+      <c r="U134">
         <v>1.975</v>
       </c>
-      <c r="S134">
+      <c r="V134">
         <v>1.875</v>
       </c>
-      <c r="T134">
-        <v>2</v>
-      </c>
-      <c r="U134">
-        <v>1.75</v>
-      </c>
-      <c r="V134">
-        <v>2.05</v>
-      </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB134">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12530,7 +12530,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6844816</v>
+        <v>6844818</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12542,76 +12542,76 @@
         <v>45325.5</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G136" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136" t="s">
+        <v>43</v>
+      </c>
+      <c r="K136">
+        <v>3.4</v>
+      </c>
+      <c r="L136">
+        <v>3.25</v>
+      </c>
+      <c r="M136">
+        <v>2.15</v>
+      </c>
+      <c r="N136">
+        <v>2.875</v>
+      </c>
+      <c r="O136">
         <v>3</v>
       </c>
-      <c r="J136" t="s">
-        <v>42</v>
-      </c>
-      <c r="K136">
-        <v>2.875</v>
-      </c>
-      <c r="L136">
-        <v>3.5</v>
-      </c>
-      <c r="M136">
-        <v>2.3</v>
-      </c>
-      <c r="N136">
-        <v>2.8</v>
-      </c>
-      <c r="O136">
-        <v>3.5</v>
-      </c>
       <c r="P136">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q136">
         <v>0</v>
       </c>
       <c r="R136">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S136">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T136">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U136">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V136">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y136">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA136">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB136">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12619,7 +12619,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6844817</v>
+        <v>6844819</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12631,55 +12631,55 @@
         <v>45325.5</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H137">
         <v>0</v>
       </c>
       <c r="I137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
         <v>42</v>
       </c>
       <c r="K137">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L137">
+        <v>3</v>
+      </c>
+      <c r="M137">
         <v>3.4</v>
       </c>
-      <c r="M137">
-        <v>4</v>
-      </c>
       <c r="N137">
+        <v>2.3</v>
+      </c>
+      <c r="O137">
+        <v>3.1</v>
+      </c>
+      <c r="P137">
+        <v>3.4</v>
+      </c>
+      <c r="Q137">
+        <v>-0.25</v>
+      </c>
+      <c r="R137">
+        <v>1.95</v>
+      </c>
+      <c r="S137">
+        <v>1.9</v>
+      </c>
+      <c r="T137">
+        <v>2</v>
+      </c>
+      <c r="U137">
         <v>1.85</v>
       </c>
-      <c r="O137">
-        <v>3.4</v>
-      </c>
-      <c r="P137">
-        <v>4.5</v>
-      </c>
-      <c r="Q137">
-        <v>-0.5</v>
-      </c>
-      <c r="R137">
-        <v>1.85</v>
-      </c>
-      <c r="S137">
-        <v>2</v>
-      </c>
-      <c r="T137">
-        <v>2.25</v>
-      </c>
-      <c r="U137">
-        <v>1.95</v>
-      </c>
       <c r="V137">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W137">
         <v>-1</v>
@@ -12688,19 +12688,19 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB137">
+        <v>-1</v>
+      </c>
+      <c r="AC137">
         <v>1</v>
-      </c>
-      <c r="AB137">
-        <v>0.95</v>
-      </c>
-      <c r="AC137">
-        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12708,7 +12708,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6844818</v>
+        <v>6844817</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12720,76 +12720,76 @@
         <v>45325.5</v>
       </c>
       <c r="F138" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G138" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J138" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K138">
+        <v>1.909</v>
+      </c>
+      <c r="L138">
         <v>3.4</v>
       </c>
-      <c r="L138">
-        <v>3.25</v>
-      </c>
       <c r="M138">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="N138">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="O138">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P138">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="Q138">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R138">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S138">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T138">
         <v>2.25</v>
       </c>
       <c r="U138">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V138">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z138">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB138">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC138">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12797,7 +12797,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6844819</v>
+        <v>6844843</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12809,76 +12809,76 @@
         <v>45325.5</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G139" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K139">
-        <v>2.3</v>
+        <v>1.111</v>
       </c>
       <c r="L139">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M139">
-        <v>3.4</v>
+        <v>19</v>
       </c>
       <c r="N139">
-        <v>2.3</v>
+        <v>1.083</v>
       </c>
       <c r="O139">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="P139">
-        <v>3.4</v>
+        <v>23</v>
       </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R139">
+        <v>2.025</v>
+      </c>
+      <c r="S139">
+        <v>1.825</v>
+      </c>
+      <c r="T139">
+        <v>3.25</v>
+      </c>
+      <c r="U139">
         <v>1.95</v>
       </c>
-      <c r="S139">
+      <c r="V139">
         <v>1.9</v>
       </c>
-      <c r="T139">
-        <v>2</v>
-      </c>
-      <c r="U139">
-        <v>1.85</v>
-      </c>
-      <c r="V139">
-        <v>2</v>
-      </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA139">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC139">
-        <v>1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12886,7 +12886,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6844843</v>
+        <v>6844816</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12898,76 +12898,76 @@
         <v>45325.5</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G140" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H140">
+        <v>2</v>
+      </c>
+      <c r="I140">
         <v>3</v>
       </c>
-      <c r="I140">
-        <v>0</v>
-      </c>
       <c r="J140" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K140">
-        <v>1.111</v>
+        <v>2.875</v>
       </c>
       <c r="L140">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="M140">
-        <v>19</v>
+        <v>2.3</v>
       </c>
       <c r="N140">
-        <v>1.083</v>
+        <v>2.8</v>
       </c>
       <c r="O140">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="P140">
-        <v>23</v>
+        <v>2.4</v>
       </c>
       <c r="Q140">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="R140">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S140">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T140">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U140">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V140">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W140">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z140">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB140">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC140">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13153,7 +13153,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6844844</v>
+        <v>6844821</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13165,76 +13165,76 @@
         <v>45329.69791666666</v>
       </c>
       <c r="F143" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G143" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
         <v>1</v>
       </c>
-      <c r="I143">
-        <v>0</v>
-      </c>
       <c r="J143" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K143">
-        <v>1.533</v>
+        <v>3.6</v>
       </c>
       <c r="L143">
+        <v>3.6</v>
+      </c>
+      <c r="M143">
+        <v>1.952</v>
+      </c>
+      <c r="N143">
         <v>4</v>
       </c>
-      <c r="M143">
-        <v>6</v>
-      </c>
-      <c r="N143">
-        <v>1.6</v>
-      </c>
       <c r="O143">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P143">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="Q143">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R143">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S143">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T143">
         <v>2.25</v>
       </c>
       <c r="U143">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V143">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W143">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z143">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB143">
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13242,7 +13242,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6844821</v>
+        <v>6844822</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13254,76 +13254,76 @@
         <v>45329.69791666666</v>
       </c>
       <c r="F144" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G144" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K144">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="L144">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M144">
-        <v>1.952</v>
+        <v>3.1</v>
       </c>
       <c r="N144">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="O144">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P144">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="Q144">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R144">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S144">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T144">
         <v>2.25</v>
       </c>
       <c r="U144">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V144">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA144">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC144">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13331,7 +13331,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6844822</v>
+        <v>6844844</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13343,13 +13343,13 @@
         <v>45329.69791666666</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G145" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145">
         <v>0</v>
@@ -13358,43 +13358,43 @@
         <v>41</v>
       </c>
       <c r="K145">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="L145">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M145">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="N145">
-        <v>2.375</v>
+        <v>1.6</v>
       </c>
       <c r="O145">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P145">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="Q145">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R145">
         <v>2.05</v>
       </c>
       <c r="S145">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T145">
         <v>2.25</v>
       </c>
       <c r="U145">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V145">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W145">
-        <v>1.375</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13403,16 +13403,16 @@
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13865,7 +13865,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6845524</v>
+        <v>6852273</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13877,76 +13877,76 @@
         <v>45339.5</v>
       </c>
       <c r="F151" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G151" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K151">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="L151">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M151">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="N151">
+        <v>3.2</v>
+      </c>
+      <c r="O151">
+        <v>3.1</v>
+      </c>
+      <c r="P151">
+        <v>2.375</v>
+      </c>
+      <c r="Q151">
+        <v>0.25</v>
+      </c>
+      <c r="R151">
+        <v>1.825</v>
+      </c>
+      <c r="S151">
+        <v>2.025</v>
+      </c>
+      <c r="T151">
+        <v>2</v>
+      </c>
+      <c r="U151">
+        <v>1.975</v>
+      </c>
+      <c r="V151">
+        <v>1.875</v>
+      </c>
+      <c r="W151">
         <v>2.2</v>
       </c>
-      <c r="O151">
-        <v>3.5</v>
-      </c>
-      <c r="P151">
-        <v>3.25</v>
-      </c>
-      <c r="Q151">
-        <v>-0.25</v>
-      </c>
-      <c r="R151">
-        <v>1.925</v>
-      </c>
-      <c r="S151">
-        <v>1.925</v>
-      </c>
-      <c r="T151">
-        <v>2.5</v>
-      </c>
-      <c r="U151">
-        <v>1.95</v>
-      </c>
-      <c r="V151">
-        <v>1.9</v>
-      </c>
-      <c r="W151">
-        <v>-1</v>
-      </c>
       <c r="X151">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y151">
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA151">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC151">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13954,7 +13954,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6852273</v>
+        <v>6844823</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13966,13 +13966,13 @@
         <v>45339.5</v>
       </c>
       <c r="F152" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G152" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -13981,43 +13981,43 @@
         <v>41</v>
       </c>
       <c r="K152">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="L152">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M152">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N152">
-        <v>3.2</v>
+        <v>1.571</v>
       </c>
       <c r="O152">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P152">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="Q152">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R152">
+        <v>2</v>
+      </c>
+      <c r="S152">
+        <v>1.85</v>
+      </c>
+      <c r="T152">
+        <v>2.75</v>
+      </c>
+      <c r="U152">
         <v>1.825</v>
       </c>
-      <c r="S152">
+      <c r="V152">
         <v>2.025</v>
       </c>
-      <c r="T152">
-        <v>2</v>
-      </c>
-      <c r="U152">
-        <v>1.975</v>
-      </c>
-      <c r="V152">
-        <v>1.875</v>
-      </c>
       <c r="W152">
-        <v>2.2</v>
+        <v>0.571</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14026,7 +14026,7 @@
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA152">
         <v>-1</v>
@@ -14035,7 +14035,7 @@
         <v>-1</v>
       </c>
       <c r="AC152">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14043,7 +14043,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6844823</v>
+        <v>6845524</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14055,76 +14055,76 @@
         <v>45339.5</v>
       </c>
       <c r="F153" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G153" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H153">
         <v>2</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K153">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="L153">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M153">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N153">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="O153">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P153">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="Q153">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R153">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S153">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T153">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U153">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V153">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W153">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X153">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC153">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14310,7 +14310,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6921112</v>
+        <v>6845535</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14322,58 +14322,58 @@
         <v>45346.5</v>
       </c>
       <c r="F156" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G156" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H156">
         <v>2</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="s">
         <v>41</v>
       </c>
       <c r="K156">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L156">
         <v>3.75</v>
       </c>
       <c r="M156">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N156">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O156">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P156">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="Q156">
         <v>-0.5</v>
       </c>
       <c r="R156">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S156">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T156">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U156">
+        <v>1.9</v>
+      </c>
+      <c r="V156">
         <v>1.95</v>
       </c>
-      <c r="V156">
-        <v>1.9</v>
-      </c>
       <c r="W156">
-        <v>0.8</v>
+        <v>0.909</v>
       </c>
       <c r="X156">
         <v>-1</v>
@@ -14382,16 +14382,16 @@
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA156">
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AC156">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14399,7 +14399,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6845527</v>
+        <v>6845528</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14411,13 +14411,13 @@
         <v>45346.5</v>
       </c>
       <c r="F157" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G157" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -14426,43 +14426,43 @@
         <v>41</v>
       </c>
       <c r="K157">
-        <v>2.05</v>
+        <v>1.3</v>
       </c>
       <c r="L157">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M157">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="N157">
-        <v>2.5</v>
+        <v>1.285</v>
       </c>
       <c r="O157">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="P157">
+        <v>9</v>
+      </c>
+      <c r="Q157">
+        <v>-1.5</v>
+      </c>
+      <c r="R157">
+        <v>1.825</v>
+      </c>
+      <c r="S157">
+        <v>2.025</v>
+      </c>
+      <c r="T157">
         <v>3</v>
       </c>
-      <c r="Q157">
-        <v>-0.25</v>
-      </c>
-      <c r="R157">
-        <v>2.075</v>
-      </c>
-      <c r="S157">
-        <v>1.725</v>
-      </c>
-      <c r="T157">
-        <v>2.25</v>
-      </c>
       <c r="U157">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V157">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W157">
-        <v>1.5</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X157">
         <v>-1</v>
@@ -14471,16 +14471,16 @@
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>1.075</v>
+        <v>0.825</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC157">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14488,7 +14488,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6845528</v>
+        <v>6921111</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14500,58 +14500,58 @@
         <v>45346.5</v>
       </c>
       <c r="F158" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G158" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H158">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J158" t="s">
         <v>41</v>
       </c>
       <c r="K158">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="L158">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M158">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="N158">
-        <v>1.285</v>
+        <v>2.375</v>
       </c>
       <c r="O158">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="P158">
-        <v>9</v>
+        <v>3.2</v>
       </c>
       <c r="Q158">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R158">
+        <v>2.025</v>
+      </c>
+      <c r="S158">
         <v>1.825</v>
       </c>
-      <c r="S158">
-        <v>2.025</v>
-      </c>
       <c r="T158">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U158">
+        <v>1.95</v>
+      </c>
+      <c r="V158">
         <v>1.9</v>
       </c>
-      <c r="V158">
-        <v>1.95</v>
-      </c>
       <c r="W158">
-        <v>0.2849999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="X158">
         <v>-1</v>
@@ -14560,13 +14560,13 @@
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA158">
         <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC158">
         <v>-1</v>
@@ -14577,7 +14577,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6845535</v>
+        <v>6921112</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14589,58 +14589,58 @@
         <v>45346.5</v>
       </c>
       <c r="F159" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G159" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H159">
         <v>2</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="s">
         <v>41</v>
       </c>
       <c r="K159">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L159">
         <v>3.75</v>
       </c>
       <c r="M159">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N159">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O159">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P159">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q159">
         <v>-0.5</v>
       </c>
       <c r="R159">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S159">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T159">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U159">
+        <v>1.95</v>
+      </c>
+      <c r="V159">
         <v>1.9</v>
       </c>
-      <c r="V159">
-        <v>1.95</v>
-      </c>
       <c r="W159">
-        <v>0.909</v>
+        <v>0.8</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -14649,16 +14649,16 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA159">
         <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AC159">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14666,7 +14666,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6921111</v>
+        <v>6845527</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14678,58 +14678,58 @@
         <v>45346.5</v>
       </c>
       <c r="F160" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G160" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H160">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J160" t="s">
         <v>41</v>
       </c>
       <c r="K160">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L160">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M160">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N160">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="O160">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P160">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q160">
         <v>-0.25</v>
       </c>
       <c r="R160">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="S160">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="T160">
         <v>2.25</v>
       </c>
       <c r="U160">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V160">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W160">
-        <v>1.375</v>
+        <v>1.5</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14738,16 +14738,16 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>1.025</v>
+        <v>1.075</v>
       </c>
       <c r="AA160">
         <v>-1</v>
       </c>
       <c r="AB160">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14933,7 +14933,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6845536</v>
+        <v>6957560</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14945,76 +14945,76 @@
         <v>45350.69791666666</v>
       </c>
       <c r="F163" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G163" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H163">
         <v>1</v>
       </c>
       <c r="I163">
+        <v>2</v>
+      </c>
+      <c r="J163" t="s">
+        <v>42</v>
+      </c>
+      <c r="K163">
+        <v>6</v>
+      </c>
+      <c r="L163">
+        <v>4.5</v>
+      </c>
+      <c r="M163">
+        <v>1.45</v>
+      </c>
+      <c r="N163">
+        <v>8</v>
+      </c>
+      <c r="O163">
+        <v>4.2</v>
+      </c>
+      <c r="P163">
+        <v>1.45</v>
+      </c>
+      <c r="Q163">
         <v>1</v>
       </c>
-      <c r="J163" t="s">
-        <v>43</v>
-      </c>
-      <c r="K163">
-        <v>1.9</v>
-      </c>
-      <c r="L163">
-        <v>3.5</v>
-      </c>
-      <c r="M163">
-        <v>3.8</v>
-      </c>
-      <c r="N163">
-        <v>2</v>
-      </c>
-      <c r="O163">
-        <v>3.5</v>
-      </c>
-      <c r="P163">
-        <v>3.8</v>
-      </c>
-      <c r="Q163">
-        <v>-0.5</v>
-      </c>
       <c r="R163">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S163">
+        <v>1.8</v>
+      </c>
+      <c r="T163">
+        <v>2.5</v>
+      </c>
+      <c r="U163">
         <v>1.85</v>
       </c>
-      <c r="T163">
-        <v>2.75</v>
-      </c>
-      <c r="U163">
-        <v>2.025</v>
-      </c>
       <c r="V163">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W163">
         <v>-1</v>
       </c>
       <c r="X163">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA163">
+        <v>-0</v>
+      </c>
+      <c r="AB163">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB163">
-        <v>-1</v>
-      </c>
       <c r="AC163">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15022,7 +15022,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6956501</v>
+        <v>6845529</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15034,76 +15034,76 @@
         <v>45350.69791666666</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G164" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H164">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K164">
-        <v>1.2</v>
+        <v>1.65</v>
       </c>
       <c r="L164">
+        <v>3.75</v>
+      </c>
+      <c r="M164">
+        <v>5</v>
+      </c>
+      <c r="N164">
+        <v>1.666</v>
+      </c>
+      <c r="O164">
+        <v>3.4</v>
+      </c>
+      <c r="P164">
         <v>6</v>
       </c>
-      <c r="M164">
-        <v>13</v>
-      </c>
-      <c r="N164">
-        <v>1.142</v>
-      </c>
-      <c r="O164">
-        <v>8.5</v>
-      </c>
-      <c r="P164">
-        <v>15</v>
-      </c>
       <c r="Q164">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R164">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S164">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T164">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U164">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V164">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W164">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z164">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB164">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15111,7 +15111,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6957560</v>
+        <v>6956501</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15123,73 +15123,73 @@
         <v>45350.69791666666</v>
       </c>
       <c r="F165" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G165" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H165">
+        <v>7</v>
+      </c>
+      <c r="I165">
         <v>1</v>
       </c>
-      <c r="I165">
-        <v>2</v>
-      </c>
       <c r="J165" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K165">
+        <v>1.2</v>
+      </c>
+      <c r="L165">
         <v>6</v>
       </c>
-      <c r="L165">
-        <v>4.5</v>
-      </c>
       <c r="M165">
-        <v>1.45</v>
+        <v>13</v>
       </c>
       <c r="N165">
-        <v>8</v>
+        <v>1.142</v>
       </c>
       <c r="O165">
-        <v>4.2</v>
+        <v>8.5</v>
       </c>
       <c r="P165">
-        <v>1.45</v>
+        <v>15</v>
       </c>
       <c r="Q165">
-        <v>1</v>
+        <v>-2.25</v>
       </c>
       <c r="R165">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S165">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T165">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U165">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V165">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA165">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC165">
         <v>-1</v>
@@ -15200,7 +15200,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6845529</v>
+        <v>6845536</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15212,76 +15212,76 @@
         <v>45350.69791666666</v>
       </c>
       <c r="F166" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G166" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K166">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="L166">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M166">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="N166">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="O166">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P166">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="Q166">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R166">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S166">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T166">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U166">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V166">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W166">
         <v>-1</v>
       </c>
       <c r="X166">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y166">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
         <v>-1</v>
       </c>
       <c r="AA166">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB166">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15912,7 +15912,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7667639</v>
+        <v>7667638</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15924,40 +15924,40 @@
         <v>45364.69791666666</v>
       </c>
       <c r="F174" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G174" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J174" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K174">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="L174">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M174">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N174">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="O174">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P174">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="Q174">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R174">
         <v>1.825</v>
@@ -15966,19 +15966,19 @@
         <v>2.025</v>
       </c>
       <c r="T174">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U174">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V174">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W174">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X174">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y174">
         <v>-1</v>
@@ -15990,10 +15990,10 @@
         <v>-1</v>
       </c>
       <c r="AB174">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC174">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16001,7 +16001,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7667638</v>
+        <v>7667639</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16013,40 +16013,40 @@
         <v>45364.69791666666</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G175" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K175">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="L175">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M175">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N175">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="O175">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P175">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q175">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R175">
         <v>1.825</v>
@@ -16055,19 +16055,19 @@
         <v>2.025</v>
       </c>
       <c r="T175">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U175">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V175">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W175">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X175">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y175">
         <v>-1</v>
@@ -16079,10 +16079,10 @@
         <v>-1</v>
       </c>
       <c r="AB175">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16090,7 +16090,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6845531</v>
+        <v>6995241</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16102,76 +16102,76 @@
         <v>45367.5</v>
       </c>
       <c r="F176" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G176" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K176">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L176">
         <v>3.25</v>
       </c>
       <c r="M176">
+        <v>3.25</v>
+      </c>
+      <c r="N176">
+        <v>2.05</v>
+      </c>
+      <c r="O176">
         <v>2.9</v>
       </c>
-      <c r="N176">
-        <v>2.375</v>
-      </c>
-      <c r="O176">
-        <v>3.3</v>
-      </c>
       <c r="P176">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="Q176">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R176">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S176">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T176">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U176">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V176">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA176">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC176">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16179,7 +16179,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6845538</v>
+        <v>6995240</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16191,58 +16191,58 @@
         <v>45367.5</v>
       </c>
       <c r="F177" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G177" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="s">
         <v>41</v>
       </c>
       <c r="K177">
+        <v>1.5</v>
+      </c>
+      <c r="L177">
+        <v>4</v>
+      </c>
+      <c r="M177">
+        <v>5.5</v>
+      </c>
+      <c r="N177">
+        <v>1.5</v>
+      </c>
+      <c r="O177">
         <v>4.2</v>
       </c>
-      <c r="L177">
-        <v>3.6</v>
-      </c>
-      <c r="M177">
-        <v>1.727</v>
-      </c>
-      <c r="N177">
-        <v>4.333</v>
-      </c>
-      <c r="O177">
-        <v>3.6</v>
-      </c>
       <c r="P177">
-        <v>1.833</v>
+        <v>8</v>
       </c>
       <c r="Q177">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R177">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S177">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T177">
         <v>2.5</v>
       </c>
       <c r="U177">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V177">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W177">
-        <v>3.333</v>
+        <v>0.5</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16251,13 +16251,13 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AA177">
         <v>-1</v>
       </c>
       <c r="AB177">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC177">
         <v>-1</v>
@@ -16268,7 +16268,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6995239</v>
+        <v>6845531</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16280,76 +16280,76 @@
         <v>45367.5</v>
       </c>
       <c r="F178" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G178" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H178">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178">
         <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K178">
-        <v>1.166</v>
+        <v>2.25</v>
       </c>
       <c r="L178">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="M178">
-        <v>11</v>
+        <v>2.9</v>
       </c>
       <c r="N178">
-        <v>1.125</v>
+        <v>2.375</v>
       </c>
       <c r="O178">
-        <v>8.5</v>
+        <v>3.3</v>
       </c>
       <c r="P178">
-        <v>21</v>
+        <v>3.1</v>
       </c>
       <c r="Q178">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R178">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S178">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T178">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U178">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V178">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W178">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z178">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB178">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16357,7 +16357,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6995240</v>
+        <v>6995239</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16369,58 +16369,58 @@
         <v>45367.5</v>
       </c>
       <c r="F179" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G179" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H179">
         <v>3</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="s">
         <v>41</v>
       </c>
       <c r="K179">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="L179">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M179">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="N179">
-        <v>1.5</v>
+        <v>1.125</v>
       </c>
       <c r="O179">
-        <v>4.2</v>
+        <v>8.5</v>
       </c>
       <c r="P179">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="Q179">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R179">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S179">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T179">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U179">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V179">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W179">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16429,13 +16429,13 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB179">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC179">
         <v>-1</v>
@@ -16446,7 +16446,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6995241</v>
+        <v>6845538</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16458,58 +16458,58 @@
         <v>45367.5</v>
       </c>
       <c r="F180" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G180" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H180">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J180" t="s">
         <v>41</v>
       </c>
       <c r="K180">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="L180">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M180">
-        <v>3.25</v>
+        <v>1.727</v>
       </c>
       <c r="N180">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="O180">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P180">
-        <v>4.333</v>
+        <v>1.833</v>
       </c>
       <c r="Q180">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R180">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S180">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T180">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U180">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V180">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W180">
-        <v>1.05</v>
+        <v>3.333</v>
       </c>
       <c r="X180">
         <v>-1</v>
@@ -16518,13 +16518,13 @@
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>1.1</v>
+        <v>1.025</v>
       </c>
       <c r="AA180">
         <v>-1</v>
       </c>
       <c r="AB180">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC180">
         <v>-1</v>
@@ -16535,7 +16535,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7023915</v>
+        <v>7083334</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16547,73 +16547,73 @@
         <v>45381.5</v>
       </c>
       <c r="F181" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G181" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H181">
+        <v>3</v>
+      </c>
+      <c r="I181">
         <v>1</v>
       </c>
-      <c r="I181">
-        <v>2</v>
-      </c>
       <c r="J181" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K181">
-        <v>2.5</v>
+        <v>1.285</v>
       </c>
       <c r="L181">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M181">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="N181">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="O181">
+        <v>7</v>
+      </c>
+      <c r="P181">
+        <v>9</v>
+      </c>
+      <c r="Q181">
+        <v>-1.75</v>
+      </c>
+      <c r="R181">
+        <v>1.875</v>
+      </c>
+      <c r="S181">
+        <v>1.975</v>
+      </c>
+      <c r="T181">
         <v>3.25</v>
       </c>
-      <c r="P181">
-        <v>2.375</v>
-      </c>
-      <c r="Q181">
+      <c r="U181">
+        <v>1.925</v>
+      </c>
+      <c r="V181">
+        <v>1.925</v>
+      </c>
+      <c r="W181">
         <v>0.25</v>
       </c>
-      <c r="R181">
-        <v>1.8</v>
-      </c>
-      <c r="S181">
-        <v>2.05</v>
-      </c>
-      <c r="T181">
-        <v>2.25</v>
-      </c>
-      <c r="U181">
-        <v>2.05</v>
-      </c>
-      <c r="V181">
-        <v>1.75</v>
-      </c>
-      <c r="W181">
-        <v>-1</v>
-      </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA181">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB181">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AC181">
         <v>-1</v>
@@ -16624,7 +16624,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7083334</v>
+        <v>7023915</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16636,73 +16636,73 @@
         <v>45381.5</v>
       </c>
       <c r="F182" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G182" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H182">
+        <v>1</v>
+      </c>
+      <c r="I182">
+        <v>2</v>
+      </c>
+      <c r="J182" t="s">
+        <v>42</v>
+      </c>
+      <c r="K182">
+        <v>2.5</v>
+      </c>
+      <c r="L182">
+        <v>3.4</v>
+      </c>
+      <c r="M182">
+        <v>2.5</v>
+      </c>
+      <c r="N182">
         <v>3</v>
       </c>
-      <c r="I182">
-        <v>1</v>
-      </c>
-      <c r="J182" t="s">
-        <v>41</v>
-      </c>
-      <c r="K182">
-        <v>1.285</v>
-      </c>
-      <c r="L182">
-        <v>6</v>
-      </c>
-      <c r="M182">
-        <v>6.5</v>
-      </c>
-      <c r="N182">
-        <v>1.25</v>
-      </c>
       <c r="O182">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="P182">
-        <v>9</v>
+        <v>2.375</v>
       </c>
       <c r="Q182">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R182">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S182">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T182">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U182">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V182">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="W182">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z182">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA182">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB182">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AC182">
         <v>-1</v>
@@ -16713,7 +16713,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7065209</v>
+        <v>7060946</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16725,10 +16725,10 @@
         <v>45381.5</v>
       </c>
       <c r="F183" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G183" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -16740,40 +16740,40 @@
         <v>43</v>
       </c>
       <c r="K183">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L183">
         <v>3.4</v>
       </c>
       <c r="M183">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N183">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="O183">
         <v>3.4</v>
       </c>
       <c r="P183">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q183">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R183">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S183">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T183">
         <v>2.25</v>
       </c>
       <c r="U183">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V183">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W183">
         <v>-1</v>
@@ -16785,16 +16785,16 @@
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA183">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
       <c r="AB183">
         <v>-0.5</v>
       </c>
       <c r="AC183">
-        <v>0.5249999999999999</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16802,7 +16802,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7060946</v>
+        <v>7065209</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16814,10 +16814,10 @@
         <v>45381.5</v>
       </c>
       <c r="F184" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G184" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H184">
         <v>1</v>
@@ -16829,40 +16829,40 @@
         <v>43</v>
       </c>
       <c r="K184">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L184">
         <v>3.4</v>
       </c>
       <c r="M184">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="N184">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="O184">
         <v>3.4</v>
       </c>
       <c r="P184">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q184">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R184">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S184">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T184">
         <v>2.25</v>
       </c>
       <c r="U184">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V184">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W184">
         <v>-1</v>
@@ -16874,16 +16874,16 @@
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA184">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
       <c r="AB184">
         <v>-0.5</v>
       </c>
       <c r="AC184">
-        <v>0.45</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -17069,7 +17069,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7092309</v>
+        <v>7060947</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17081,76 +17081,76 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G187" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J187" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K187">
-        <v>3.4</v>
+        <v>1.952</v>
       </c>
       <c r="L187">
         <v>3.5</v>
       </c>
       <c r="M187">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="N187">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="O187">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P187">
-        <v>1.95</v>
+        <v>3.3</v>
       </c>
       <c r="Q187">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R187">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S187">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T187">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U187">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V187">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W187">
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y187">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z187">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC187">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17158,7 +17158,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7092308</v>
+        <v>7060951</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17170,25 +17170,25 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G188" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H188">
         <v>1</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K188">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="L188">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M188">
         <v>6</v>
@@ -17197,49 +17197,49 @@
         <v>1.533</v>
       </c>
       <c r="O188">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P188">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q188">
         <v>-1</v>
       </c>
       <c r="R188">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S188">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T188">
         <v>2.5</v>
       </c>
       <c r="U188">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V188">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W188">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z188">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB188">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC188">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17247,7 +17247,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7060951</v>
+        <v>7092318</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17259,10 +17259,10 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F189" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G189" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17274,40 +17274,40 @@
         <v>42</v>
       </c>
       <c r="K189">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="L189">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="M189">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="N189">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="O189">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P189">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="Q189">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R189">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S189">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T189">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U189">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V189">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W189">
         <v>-1</v>
@@ -17316,16 +17316,16 @@
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="Z189">
         <v>-1</v>
       </c>
       <c r="AA189">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB189">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17336,7 +17336,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7060947</v>
+        <v>7092309</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17348,76 +17348,76 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F190" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G190" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J190" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K190">
-        <v>1.952</v>
+        <v>3.4</v>
       </c>
       <c r="L190">
         <v>3.5</v>
       </c>
       <c r="M190">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="N190">
+        <v>4.2</v>
+      </c>
+      <c r="O190">
+        <v>3.4</v>
+      </c>
+      <c r="P190">
+        <v>1.95</v>
+      </c>
+      <c r="Q190">
+        <v>0.5</v>
+      </c>
+      <c r="R190">
+        <v>1.95</v>
+      </c>
+      <c r="S190">
+        <v>1.9</v>
+      </c>
+      <c r="T190">
         <v>2.25</v>
       </c>
-      <c r="O190">
-        <v>3.3</v>
-      </c>
-      <c r="P190">
-        <v>3.3</v>
-      </c>
-      <c r="Q190">
-        <v>-0.25</v>
-      </c>
-      <c r="R190">
+      <c r="U190">
         <v>1.925</v>
       </c>
-      <c r="S190">
+      <c r="V190">
         <v>1.925</v>
       </c>
-      <c r="T190">
-        <v>2.5</v>
-      </c>
-      <c r="U190">
-        <v>2</v>
-      </c>
-      <c r="V190">
-        <v>1.85</v>
-      </c>
       <c r="W190">
         <v>-1</v>
       </c>
       <c r="X190">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y190">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA190">
+        <v>-1</v>
+      </c>
+      <c r="AB190">
+        <v>-1</v>
+      </c>
+      <c r="AC190">
         <v>0.925</v>
-      </c>
-      <c r="AB190">
-        <v>1</v>
-      </c>
-      <c r="AC190">
-        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17425,7 +17425,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7092318</v>
+        <v>7092308</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17437,76 +17437,76 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F191" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G191" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H191">
         <v>1</v>
       </c>
       <c r="I191">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J191" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K191">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="L191">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M191">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="N191">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="O191">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P191">
-        <v>3.25</v>
+        <v>7</v>
       </c>
       <c r="Q191">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R191">
+        <v>1.875</v>
+      </c>
+      <c r="S191">
+        <v>1.975</v>
+      </c>
+      <c r="T191">
+        <v>2.5</v>
+      </c>
+      <c r="U191">
         <v>2.025</v>
       </c>
-      <c r="S191">
+      <c r="V191">
         <v>1.825</v>
       </c>
-      <c r="T191">
-        <v>2.25</v>
-      </c>
-      <c r="U191">
-        <v>2</v>
-      </c>
-      <c r="V191">
-        <v>1.85</v>
-      </c>
       <c r="W191">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA191">
+        <v>-0</v>
+      </c>
+      <c r="AB191">
+        <v>-1</v>
+      </c>
+      <c r="AC191">
         <v>0.825</v>
-      </c>
-      <c r="AB191">
-        <v>1</v>
-      </c>
-      <c r="AC191">
-        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17630,31 +17630,31 @@
         <v>1.4</v>
       </c>
       <c r="N193">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="O193">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="P193">
-        <v>1.333</v>
+        <v>1.285</v>
       </c>
       <c r="Q193">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="R193">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S193">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T193">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U193">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V193">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W193">
         <v>0</v>
@@ -17704,13 +17704,13 @@
         <v>2.25</v>
       </c>
       <c r="N194">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O194">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P194">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Q194">
         <v>0.5</v>
@@ -17781,10 +17781,10 @@
         <v>1.2</v>
       </c>
       <c r="O195">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="P195">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q195">
         <v>-2</v>
@@ -17852,22 +17852,22 @@
         <v>2.625</v>
       </c>
       <c r="N196">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="O196">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P196">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="Q196">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R196">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="S196">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="T196">
         <v>2.5</v>
@@ -17929,10 +17929,10 @@
         <v>1.333</v>
       </c>
       <c r="O197">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="P197">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Q197">
         <v>-1.25</v>

--- a/Scotland Premiership/Scotland Premiership.xlsx
+++ b/Scotland Premiership/Scotland Premiership.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC197"/>
+  <dimension ref="A1:AC199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6844781</v>
+        <v>6844778</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8359,76 +8359,76 @@
         <v>45266.69791666666</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G89" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
         <v>1</v>
       </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
       <c r="J89" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K89">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="L89">
+        <v>3.25</v>
+      </c>
+      <c r="M89">
         <v>3.2</v>
       </c>
-      <c r="M89">
+      <c r="N89">
+        <v>2.1</v>
+      </c>
+      <c r="O89">
+        <v>3.4</v>
+      </c>
+      <c r="P89">
+        <v>3.6</v>
+      </c>
+      <c r="Q89">
+        <v>-0.5</v>
+      </c>
+      <c r="R89">
+        <v>2.05</v>
+      </c>
+      <c r="S89">
+        <v>1.8</v>
+      </c>
+      <c r="T89">
+        <v>2.25</v>
+      </c>
+      <c r="U89">
+        <v>1.9</v>
+      </c>
+      <c r="V89">
+        <v>1.95</v>
+      </c>
+      <c r="W89">
+        <v>-1</v>
+      </c>
+      <c r="X89">
+        <v>-1</v>
+      </c>
+      <c r="Y89">
         <v>2.6</v>
       </c>
-      <c r="N89">
-        <v>3</v>
-      </c>
-      <c r="O89">
-        <v>2.9</v>
-      </c>
-      <c r="P89">
-        <v>2.625</v>
-      </c>
-      <c r="Q89">
-        <v>0</v>
-      </c>
-      <c r="R89">
-        <v>1.925</v>
-      </c>
-      <c r="S89">
-        <v>1.925</v>
-      </c>
-      <c r="T89">
-        <v>2</v>
-      </c>
-      <c r="U89">
-        <v>2.05</v>
-      </c>
-      <c r="V89">
-        <v>1.8</v>
-      </c>
-      <c r="W89">
-        <v>2</v>
-      </c>
-      <c r="X89">
-        <v>-1</v>
-      </c>
-      <c r="Y89">
-        <v>-1</v>
-      </c>
       <c r="Z89">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6844778</v>
+        <v>6844781</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,76 +8537,76 @@
         <v>45266.69791666666</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K91">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="L91">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M91">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="N91">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="O91">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P91">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q91">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R91">
+        <v>1.925</v>
+      </c>
+      <c r="S91">
+        <v>1.925</v>
+      </c>
+      <c r="T91">
+        <v>2</v>
+      </c>
+      <c r="U91">
         <v>2.05</v>
       </c>
-      <c r="S91">
+      <c r="V91">
         <v>1.8</v>
       </c>
-      <c r="T91">
-        <v>2.25</v>
-      </c>
-      <c r="U91">
-        <v>1.9</v>
-      </c>
-      <c r="V91">
-        <v>1.95</v>
-      </c>
       <c r="W91">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA91">
+        <v>-1</v>
+      </c>
+      <c r="AB91">
+        <v>-1</v>
+      </c>
+      <c r="AC91">
         <v>0.8</v>
-      </c>
-      <c r="AB91">
-        <v>-1</v>
-      </c>
-      <c r="AC91">
-        <v>0.95</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6844787</v>
+        <v>6844788</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,76 +9249,76 @@
         <v>45276.5</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K99">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="L99">
         <v>3.25</v>
       </c>
       <c r="M99">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="N99">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="O99">
         <v>3.3</v>
       </c>
       <c r="P99">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q99">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S99">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T99">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U99">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V99">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z99">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6844788</v>
+        <v>6844787</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,76 +9338,76 @@
         <v>45276.5</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K100">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="L100">
         <v>3.25</v>
       </c>
       <c r="M100">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="N100">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="O100">
         <v>3.3</v>
       </c>
       <c r="P100">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q100">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R100">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S100">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T100">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U100">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V100">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y100">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA100">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7451620</v>
+        <v>7451733</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,58 +9694,58 @@
         <v>45280.69791666666</v>
       </c>
       <c r="F104" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H104">
         <v>2</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
         <v>41</v>
       </c>
       <c r="K104">
-        <v>1.727</v>
+        <v>1.125</v>
       </c>
       <c r="L104">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="M104">
-        <v>4.5</v>
+        <v>17</v>
       </c>
       <c r="N104">
-        <v>1.6</v>
+        <v>1.125</v>
       </c>
       <c r="O104">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="P104">
-        <v>5.5</v>
+        <v>19</v>
       </c>
       <c r="Q104">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R104">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S104">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T104">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U104">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V104">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W104">
-        <v>0.6000000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9754,16 +9754,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA104">
-        <v>-0</v>
+        <v>0.4625</v>
       </c>
       <c r="AB104">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7451733</v>
+        <v>7451620</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,58 +9783,58 @@
         <v>45280.69791666666</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G105" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H105">
         <v>2</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
         <v>41</v>
       </c>
       <c r="K105">
-        <v>1.125</v>
+        <v>1.727</v>
       </c>
       <c r="L105">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="M105">
-        <v>17</v>
+        <v>4.5</v>
       </c>
       <c r="N105">
-        <v>1.125</v>
+        <v>1.6</v>
       </c>
       <c r="O105">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="P105">
-        <v>19</v>
+        <v>5.5</v>
       </c>
       <c r="Q105">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R105">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S105">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T105">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U105">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V105">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W105">
-        <v>0.125</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9843,16 +9843,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA105">
-        <v>0.4625</v>
+        <v>-0</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC105">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -11551,7 +11551,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7452337</v>
+        <v>7452605</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11563,70 +11563,70 @@
         <v>45315.69791666666</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G125" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K125">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="L125">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M125">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="N125">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="O125">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="P125">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="Q125">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R125">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S125">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U125">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V125">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y125">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA125">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB125">
         <v>0</v>
@@ -11640,7 +11640,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7452605</v>
+        <v>7452337</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11652,70 +11652,70 @@
         <v>45315.69791666666</v>
       </c>
       <c r="F126" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G126" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>3</v>
+      </c>
+      <c r="J126" t="s">
+        <v>42</v>
+      </c>
+      <c r="K126">
+        <v>7</v>
+      </c>
+      <c r="L126">
+        <v>4.5</v>
+      </c>
+      <c r="M126">
+        <v>1.444</v>
+      </c>
+      <c r="N126">
+        <v>8</v>
+      </c>
+      <c r="O126">
+        <v>5.25</v>
+      </c>
+      <c r="P126">
+        <v>1.333</v>
+      </c>
+      <c r="Q126">
+        <v>1.5</v>
+      </c>
+      <c r="R126">
+        <v>1.85</v>
+      </c>
+      <c r="S126">
+        <v>2</v>
+      </c>
+      <c r="T126">
+        <v>3</v>
+      </c>
+      <c r="U126">
+        <v>2.025</v>
+      </c>
+      <c r="V126">
+        <v>1.825</v>
+      </c>
+      <c r="W126">
+        <v>-1</v>
+      </c>
+      <c r="X126">
+        <v>-1</v>
+      </c>
+      <c r="Y126">
+        <v>0.333</v>
+      </c>
+      <c r="Z126">
+        <v>-1</v>
+      </c>
+      <c r="AA126">
         <v>1</v>
-      </c>
-      <c r="I126">
-        <v>1</v>
-      </c>
-      <c r="J126" t="s">
-        <v>43</v>
-      </c>
-      <c r="K126">
-        <v>3.75</v>
-      </c>
-      <c r="L126">
-        <v>3.4</v>
-      </c>
-      <c r="M126">
-        <v>2</v>
-      </c>
-      <c r="N126">
-        <v>3.75</v>
-      </c>
-      <c r="O126">
-        <v>3.1</v>
-      </c>
-      <c r="P126">
-        <v>2.15</v>
-      </c>
-      <c r="Q126">
-        <v>0.25</v>
-      </c>
-      <c r="R126">
-        <v>2.025</v>
-      </c>
-      <c r="S126">
-        <v>1.825</v>
-      </c>
-      <c r="T126">
-        <v>2</v>
-      </c>
-      <c r="U126">
-        <v>1.8</v>
-      </c>
-      <c r="V126">
-        <v>2.05</v>
-      </c>
-      <c r="W126">
-        <v>-1</v>
-      </c>
-      <c r="X126">
-        <v>2.1</v>
-      </c>
-      <c r="Y126">
-        <v>-1</v>
-      </c>
-      <c r="Z126">
-        <v>0.5125</v>
-      </c>
-      <c r="AA126">
-        <v>-0.5</v>
       </c>
       <c r="AB126">
         <v>0</v>
@@ -11818,7 +11818,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6844814</v>
+        <v>6844812</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11830,61 +11830,61 @@
         <v>45318.5</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G128" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J128" t="s">
         <v>43</v>
       </c>
       <c r="K128">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L128">
         <v>3.2</v>
       </c>
       <c r="M128">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N128">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="O128">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P128">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q128">
         <v>-0.25</v>
       </c>
       <c r="R128">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="S128">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T128">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U128">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V128">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W128">
         <v>-1</v>
       </c>
       <c r="X128">
-        <v>1.875</v>
+        <v>2.4</v>
       </c>
       <c r="Y128">
         <v>-1</v>
@@ -11893,13 +11893,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA128">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="AB128">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AC128">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6845520</v>
+        <v>6844814</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,76 +11919,76 @@
         <v>45318.5</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G129" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K129">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L129">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M129">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N129">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="O129">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P129">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q129">
         <v>-0.25</v>
       </c>
       <c r="R129">
-        <v>1.825</v>
+        <v>2.125</v>
       </c>
       <c r="S129">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T129">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U129">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="V129">
+        <v>1.775</v>
+      </c>
+      <c r="W129">
+        <v>-1</v>
+      </c>
+      <c r="X129">
         <v>1.875</v>
       </c>
-      <c r="W129">
-        <v>1.05</v>
-      </c>
-      <c r="X129">
-        <v>-1</v>
-      </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC129">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6844813</v>
+        <v>6845520</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,76 +12008,76 @@
         <v>45318.5</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K130">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L130">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M130">
+        <v>3.25</v>
+      </c>
+      <c r="N130">
+        <v>2.05</v>
+      </c>
+      <c r="O130">
+        <v>3.5</v>
+      </c>
+      <c r="P130">
+        <v>3.5</v>
+      </c>
+      <c r="Q130">
+        <v>-0.25</v>
+      </c>
+      <c r="R130">
+        <v>1.825</v>
+      </c>
+      <c r="S130">
+        <v>2.025</v>
+      </c>
+      <c r="T130">
         <v>2.5</v>
       </c>
-      <c r="N130">
-        <v>2.7</v>
-      </c>
-      <c r="O130">
-        <v>3</v>
-      </c>
-      <c r="P130">
-        <v>2.9</v>
-      </c>
-      <c r="Q130">
-        <v>0</v>
-      </c>
-      <c r="R130">
+      <c r="U130">
+        <v>1.975</v>
+      </c>
+      <c r="V130">
         <v>1.875</v>
       </c>
-      <c r="S130">
-        <v>1.975</v>
-      </c>
-      <c r="T130">
-        <v>2</v>
-      </c>
-      <c r="U130">
-        <v>1.775</v>
-      </c>
-      <c r="V130">
-        <v>2.1</v>
-      </c>
       <c r="W130">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA130">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6844811</v>
+        <v>6844813</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,76 +12097,76 @@
         <v>45318.5</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J131" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K131">
-        <v>1.125</v>
+        <v>3</v>
       </c>
       <c r="L131">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M131">
-        <v>21</v>
+        <v>2.5</v>
       </c>
       <c r="N131">
-        <v>1.045</v>
+        <v>2.7</v>
       </c>
       <c r="O131">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="P131">
-        <v>34</v>
+        <v>2.9</v>
       </c>
       <c r="Q131">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="R131">
+        <v>1.875</v>
+      </c>
+      <c r="S131">
+        <v>1.975</v>
+      </c>
+      <c r="T131">
+        <v>2</v>
+      </c>
+      <c r="U131">
+        <v>1.775</v>
+      </c>
+      <c r="V131">
+        <v>2.1</v>
+      </c>
+      <c r="W131">
+        <v>-1</v>
+      </c>
+      <c r="X131">
+        <v>-1</v>
+      </c>
+      <c r="Y131">
         <v>1.9</v>
       </c>
-      <c r="S131">
-        <v>1.95</v>
-      </c>
-      <c r="T131">
-        <v>4</v>
-      </c>
-      <c r="U131">
-        <v>2.025</v>
-      </c>
-      <c r="V131">
-        <v>1.825</v>
-      </c>
-      <c r="W131">
-        <v>0.04499999999999993</v>
-      </c>
-      <c r="X131">
-        <v>-1</v>
-      </c>
-      <c r="Y131">
-        <v>-1</v>
-      </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC131">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12174,7 +12174,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6844812</v>
+        <v>6844811</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12186,76 +12186,76 @@
         <v>45318.5</v>
       </c>
       <c r="F132" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G132" t="s">
+        <v>37</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132" t="s">
+        <v>41</v>
+      </c>
+      <c r="K132">
+        <v>1.125</v>
+      </c>
+      <c r="L132">
+        <v>8</v>
+      </c>
+      <c r="M132">
+        <v>21</v>
+      </c>
+      <c r="N132">
+        <v>1.045</v>
+      </c>
+      <c r="O132">
+        <v>13</v>
+      </c>
+      <c r="P132">
         <v>34</v>
       </c>
-      <c r="H132">
-        <v>2</v>
-      </c>
-      <c r="I132">
-        <v>2</v>
-      </c>
-      <c r="J132" t="s">
-        <v>43</v>
-      </c>
-      <c r="K132">
-        <v>2.2</v>
-      </c>
-      <c r="L132">
-        <v>3.2</v>
-      </c>
-      <c r="M132">
-        <v>3.4</v>
-      </c>
-      <c r="N132">
-        <v>2.1</v>
-      </c>
-      <c r="O132">
-        <v>3.4</v>
-      </c>
-      <c r="P132">
-        <v>3.6</v>
-      </c>
       <c r="Q132">
-        <v>-0.25</v>
+        <v>-3</v>
       </c>
       <c r="R132">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S132">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T132">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U132">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V132">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="X132">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB132">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -13153,7 +13153,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6844822</v>
+        <v>6844844</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13165,13 +13165,13 @@
         <v>45329.69791666666</v>
       </c>
       <c r="F143" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G143" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143">
         <v>0</v>
@@ -13180,43 +13180,43 @@
         <v>41</v>
       </c>
       <c r="K143">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="L143">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M143">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="N143">
-        <v>2.375</v>
+        <v>1.6</v>
       </c>
       <c r="O143">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P143">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R143">
         <v>2.05</v>
       </c>
       <c r="S143">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T143">
         <v>2.25</v>
       </c>
       <c r="U143">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V143">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W143">
-        <v>1.375</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X143">
         <v>-1</v>
@@ -13225,16 +13225,16 @@
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13242,7 +13242,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6844844</v>
+        <v>6844821</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13254,76 +13254,76 @@
         <v>45329.69791666666</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G144" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
         <v>1</v>
       </c>
-      <c r="I144">
-        <v>0</v>
-      </c>
       <c r="J144" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K144">
-        <v>1.533</v>
+        <v>3.6</v>
       </c>
       <c r="L144">
+        <v>3.6</v>
+      </c>
+      <c r="M144">
+        <v>1.952</v>
+      </c>
+      <c r="N144">
         <v>4</v>
       </c>
-      <c r="M144">
-        <v>6</v>
-      </c>
-      <c r="N144">
-        <v>1.6</v>
-      </c>
       <c r="O144">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P144">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="Q144">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R144">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S144">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T144">
         <v>2.25</v>
       </c>
       <c r="U144">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V144">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W144">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB144">
         <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13331,7 +13331,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6844821</v>
+        <v>6844822</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13343,76 +13343,76 @@
         <v>45329.69791666666</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G145" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K145">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="L145">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M145">
-        <v>1.952</v>
+        <v>3.1</v>
       </c>
       <c r="N145">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="O145">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P145">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="Q145">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R145">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S145">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T145">
         <v>2.25</v>
       </c>
       <c r="U145">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V145">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA145">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC145">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -15022,7 +15022,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6845529</v>
+        <v>6956501</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15034,76 +15034,76 @@
         <v>45350.69791666666</v>
       </c>
       <c r="F164" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K164">
-        <v>1.65</v>
+        <v>1.2</v>
       </c>
       <c r="L164">
+        <v>6</v>
+      </c>
+      <c r="M164">
+        <v>13</v>
+      </c>
+      <c r="N164">
+        <v>1.142</v>
+      </c>
+      <c r="O164">
+        <v>8.5</v>
+      </c>
+      <c r="P164">
+        <v>15</v>
+      </c>
+      <c r="Q164">
+        <v>-2.25</v>
+      </c>
+      <c r="R164">
+        <v>1.85</v>
+      </c>
+      <c r="S164">
+        <v>2</v>
+      </c>
+      <c r="T164">
         <v>3.75</v>
       </c>
-      <c r="M164">
-        <v>5</v>
-      </c>
-      <c r="N164">
-        <v>1.666</v>
-      </c>
-      <c r="O164">
-        <v>3.4</v>
-      </c>
-      <c r="P164">
-        <v>6</v>
-      </c>
-      <c r="Q164">
-        <v>-0.75</v>
-      </c>
-      <c r="R164">
-        <v>1.875</v>
-      </c>
-      <c r="S164">
-        <v>1.975</v>
-      </c>
-      <c r="T164">
-        <v>2.25</v>
-      </c>
       <c r="U164">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V164">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA164">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC164">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15111,7 +15111,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6956501</v>
+        <v>6957560</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15123,73 +15123,73 @@
         <v>45350.69791666666</v>
       </c>
       <c r="F165" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G165" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H165">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I165">
+        <v>2</v>
+      </c>
+      <c r="J165" t="s">
+        <v>42</v>
+      </c>
+      <c r="K165">
+        <v>6</v>
+      </c>
+      <c r="L165">
+        <v>4.5</v>
+      </c>
+      <c r="M165">
+        <v>1.45</v>
+      </c>
+      <c r="N165">
+        <v>8</v>
+      </c>
+      <c r="O165">
+        <v>4.2</v>
+      </c>
+      <c r="P165">
+        <v>1.45</v>
+      </c>
+      <c r="Q165">
         <v>1</v>
       </c>
-      <c r="J165" t="s">
-        <v>41</v>
-      </c>
-      <c r="K165">
-        <v>1.2</v>
-      </c>
-      <c r="L165">
-        <v>6</v>
-      </c>
-      <c r="M165">
-        <v>13</v>
-      </c>
-      <c r="N165">
-        <v>1.142</v>
-      </c>
-      <c r="O165">
-        <v>8.5</v>
-      </c>
-      <c r="P165">
-        <v>15</v>
-      </c>
-      <c r="Q165">
-        <v>-2.25</v>
-      </c>
       <c r="R165">
+        <v>2.05</v>
+      </c>
+      <c r="S165">
+        <v>1.8</v>
+      </c>
+      <c r="T165">
+        <v>2.5</v>
+      </c>
+      <c r="U165">
         <v>1.85</v>
       </c>
-      <c r="S165">
-        <v>2</v>
-      </c>
-      <c r="T165">
-        <v>3.75</v>
-      </c>
-      <c r="U165">
-        <v>1.95</v>
-      </c>
       <c r="V165">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W165">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z165">
+        <v>0</v>
+      </c>
+      <c r="AA165">
+        <v>-0</v>
+      </c>
+      <c r="AB165">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA165">
-        <v>-1</v>
-      </c>
-      <c r="AB165">
-        <v>0.95</v>
       </c>
       <c r="AC165">
         <v>-1</v>
@@ -15200,7 +15200,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6957560</v>
+        <v>6845529</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15212,13 +15212,13 @@
         <v>45350.69791666666</v>
       </c>
       <c r="F166" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G166" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166">
         <v>2</v>
@@ -15227,41 +15227,41 @@
         <v>42</v>
       </c>
       <c r="K166">
+        <v>1.65</v>
+      </c>
+      <c r="L166">
+        <v>3.75</v>
+      </c>
+      <c r="M166">
+        <v>5</v>
+      </c>
+      <c r="N166">
+        <v>1.666</v>
+      </c>
+      <c r="O166">
+        <v>3.4</v>
+      </c>
+      <c r="P166">
         <v>6</v>
       </c>
-      <c r="L166">
-        <v>4.5</v>
-      </c>
-      <c r="M166">
-        <v>1.45</v>
-      </c>
-      <c r="N166">
-        <v>8</v>
-      </c>
-      <c r="O166">
-        <v>4.2</v>
-      </c>
-      <c r="P166">
-        <v>1.45</v>
-      </c>
       <c r="Q166">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R166">
+        <v>1.875</v>
+      </c>
+      <c r="S166">
+        <v>1.975</v>
+      </c>
+      <c r="T166">
+        <v>2.25</v>
+      </c>
+      <c r="U166">
         <v>2.05</v>
       </c>
-      <c r="S166">
+      <c r="V166">
         <v>1.8</v>
       </c>
-      <c r="T166">
-        <v>2.5</v>
-      </c>
-      <c r="U166">
-        <v>1.85</v>
-      </c>
-      <c r="V166">
-        <v>2</v>
-      </c>
       <c r="W166">
         <v>-1</v>
       </c>
@@ -15269,19 +15269,19 @@
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>0.45</v>
+        <v>5</v>
       </c>
       <c r="Z166">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB166">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -17603,7 +17603,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7989873</v>
+        <v>7133711</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17612,49 +17612,49 @@
         <v>28</v>
       </c>
       <c r="E193" s="2">
-        <v>45392.66666666666</v>
+        <v>45395.45833333334</v>
       </c>
       <c r="F193" t="s">
+        <v>38</v>
+      </c>
+      <c r="G193" t="s">
         <v>31</v>
       </c>
-      <c r="G193" t="s">
-        <v>36</v>
-      </c>
       <c r="K193">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="L193">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M193">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="N193">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="O193">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P193">
-        <v>1.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q193">
-        <v>1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R193">
+        <v>2</v>
+      </c>
+      <c r="S193">
+        <v>1.85</v>
+      </c>
+      <c r="T193">
+        <v>2.5</v>
+      </c>
+      <c r="U193">
         <v>1.875</v>
       </c>
-      <c r="S193">
+      <c r="V193">
         <v>1.975</v>
-      </c>
-      <c r="T193">
-        <v>3</v>
-      </c>
-      <c r="U193">
-        <v>1.825</v>
-      </c>
-      <c r="V193">
-        <v>2.025</v>
       </c>
       <c r="W193">
         <v>0</v>
@@ -17704,10 +17704,10 @@
         <v>2.25</v>
       </c>
       <c r="N194">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O194">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P194">
         <v>2</v>
@@ -17781,10 +17781,10 @@
         <v>1.2</v>
       </c>
       <c r="O195">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="P195">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q195">
         <v>-2</v>
@@ -17852,31 +17852,31 @@
         <v>2.625</v>
       </c>
       <c r="N196">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="O196">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P196">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q196">
         <v>0</v>
       </c>
       <c r="R196">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S196">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T196">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U196">
+        <v>2.025</v>
+      </c>
+      <c r="V196">
         <v>1.825</v>
-      </c>
-      <c r="V196">
-        <v>2.025</v>
       </c>
       <c r="W196">
         <v>0</v>
@@ -17926,13 +17926,13 @@
         <v>9</v>
       </c>
       <c r="N197">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="O197">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="P197">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q197">
         <v>-1.25</v>
@@ -17965,6 +17965,154 @@
         <v>0</v>
       </c>
       <c r="AA197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:27">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>7158274</v>
+      </c>
+      <c r="C198" t="s">
+        <v>28</v>
+      </c>
+      <c r="D198" t="s">
+        <v>28</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45396.33333333334</v>
+      </c>
+      <c r="F198" t="s">
+        <v>37</v>
+      </c>
+      <c r="G198" t="s">
+        <v>36</v>
+      </c>
+      <c r="K198">
+        <v>6.5</v>
+      </c>
+      <c r="L198">
+        <v>6</v>
+      </c>
+      <c r="M198">
+        <v>1.285</v>
+      </c>
+      <c r="N198">
+        <v>13</v>
+      </c>
+      <c r="O198">
+        <v>7</v>
+      </c>
+      <c r="P198">
+        <v>1.2</v>
+      </c>
+      <c r="Q198">
+        <v>1.75</v>
+      </c>
+      <c r="R198">
+        <v>2</v>
+      </c>
+      <c r="S198">
+        <v>1.85</v>
+      </c>
+      <c r="T198">
+        <v>3</v>
+      </c>
+      <c r="U198">
+        <v>1.8</v>
+      </c>
+      <c r="V198">
+        <v>2.05</v>
+      </c>
+      <c r="W198">
+        <v>0</v>
+      </c>
+      <c r="X198">
+        <v>0</v>
+      </c>
+      <c r="Y198">
+        <v>0</v>
+      </c>
+      <c r="Z198">
+        <v>0</v>
+      </c>
+      <c r="AA198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:27">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>8080680</v>
+      </c>
+      <c r="C199" t="s">
+        <v>28</v>
+      </c>
+      <c r="D199" t="s">
+        <v>28</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45399.66666666666</v>
+      </c>
+      <c r="F199" t="s">
+        <v>31</v>
+      </c>
+      <c r="G199" t="s">
+        <v>36</v>
+      </c>
+      <c r="K199">
+        <v>12</v>
+      </c>
+      <c r="L199">
+        <v>7</v>
+      </c>
+      <c r="M199">
+        <v>1.2</v>
+      </c>
+      <c r="N199">
+        <v>13</v>
+      </c>
+      <c r="O199">
+        <v>7</v>
+      </c>
+      <c r="P199">
+        <v>1.2</v>
+      </c>
+      <c r="Q199">
+        <v>2</v>
+      </c>
+      <c r="R199">
+        <v>1.85</v>
+      </c>
+      <c r="S199">
+        <v>2</v>
+      </c>
+      <c r="T199">
+        <v>3</v>
+      </c>
+      <c r="U199">
+        <v>1.85</v>
+      </c>
+      <c r="V199">
+        <v>2</v>
+      </c>
+      <c r="W199">
+        <v>0</v>
+      </c>
+      <c r="X199">
+        <v>0</v>
+      </c>
+      <c r="Y199">
+        <v>0</v>
+      </c>
+      <c r="Z199">
+        <v>0</v>
+      </c>
+      <c r="AA199">
         <v>0</v>
       </c>
     </row>

--- a/Scotland Premiership/Scotland Premiership.xlsx
+++ b/Scotland Premiership/Scotland Premiership.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC199"/>
+  <dimension ref="A1:AC203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6844717</v>
+        <v>7075288</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,40 +2040,40 @@
         <v>45165.45833333334</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K18">
+        <v>2.55</v>
+      </c>
+      <c r="L18">
         <v>3.2</v>
       </c>
-      <c r="L18">
-        <v>3.4</v>
-      </c>
       <c r="M18">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N18">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="O18">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P18">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R18">
         <v>2.1</v>
@@ -2082,34 +2082,34 @@
         <v>1.775</v>
       </c>
       <c r="T18">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V18">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W18">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC18">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7075288</v>
+        <v>6844717</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2129,40 +2129,40 @@
         <v>45165.45833333334</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K19">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="L19">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M19">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N19">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="O19">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P19">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q19">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R19">
         <v>2.1</v>
@@ -2171,34 +2171,34 @@
         <v>1.775</v>
       </c>
       <c r="T19">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U19">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V19">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X19">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AA19">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6844727</v>
+        <v>6844726</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,76 +2930,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M28">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="N28">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="O28">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P28">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="Q28">
         <v>0</v>
       </c>
       <c r="R28">
+        <v>1.875</v>
+      </c>
+      <c r="S28">
         <v>1.975</v>
-      </c>
-      <c r="S28">
-        <v>1.875</v>
       </c>
       <c r="T28">
         <v>2.25</v>
       </c>
       <c r="U28">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V28">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y28">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC28">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6844726</v>
+        <v>6844725</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,76 +3019,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>1.083</v>
       </c>
       <c r="L29">
-        <v>3.2</v>
+        <v>9</v>
       </c>
       <c r="M29">
-        <v>2.15</v>
+        <v>23</v>
       </c>
       <c r="N29">
-        <v>2.55</v>
+        <v>1.2</v>
       </c>
       <c r="O29">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="P29">
-        <v>2.8</v>
+        <v>11</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R29">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S29">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T29">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U29">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V29">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X29">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA29">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6844725</v>
+        <v>6844727</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,76 +3108,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K30">
+        <v>2.25</v>
+      </c>
+      <c r="L30">
         <v>3</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30" t="s">
-        <v>41</v>
-      </c>
-      <c r="K30">
-        <v>1.083</v>
-      </c>
-      <c r="L30">
-        <v>9</v>
-      </c>
       <c r="M30">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="N30">
-        <v>1.2</v>
+        <v>2.75</v>
       </c>
       <c r="O30">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="P30">
-        <v>11</v>
+        <v>2.625</v>
       </c>
       <c r="Q30">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S30">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T30">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U30">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W30">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z30">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB30">
         <v>-1</v>
       </c>
       <c r="AC30">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -5766,7 +5766,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6844757</v>
+        <v>6844754</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5778,76 +5778,76 @@
         <v>45231.69791666666</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G60" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H60">
         <v>2</v>
       </c>
       <c r="I60">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K60">
-        <v>2.625</v>
+        <v>1.181</v>
       </c>
       <c r="L60">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="M60">
-        <v>2.7</v>
+        <v>13</v>
       </c>
       <c r="N60">
-        <v>2.45</v>
+        <v>1.2</v>
       </c>
       <c r="O60">
-        <v>3.25</v>
+        <v>7</v>
       </c>
       <c r="P60">
-        <v>2.9</v>
+        <v>13</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R60">
+        <v>1.85</v>
+      </c>
+      <c r="S60">
+        <v>2</v>
+      </c>
+      <c r="T60">
+        <v>3</v>
+      </c>
+      <c r="U60">
         <v>1.8</v>
       </c>
-      <c r="S60">
+      <c r="V60">
         <v>2.05</v>
       </c>
-      <c r="T60">
-        <v>2.25</v>
-      </c>
-      <c r="U60">
-        <v>1.9</v>
-      </c>
-      <c r="V60">
-        <v>1.95</v>
-      </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
         <v>-1</v>
       </c>
       <c r="AA60">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AB60">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5855,7 +5855,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6844754</v>
+        <v>6844758</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5867,10 +5867,10 @@
         <v>45231.69791666666</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5882,43 +5882,43 @@
         <v>41</v>
       </c>
       <c r="K61">
-        <v>1.181</v>
+        <v>2.5</v>
       </c>
       <c r="L61">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="M61">
-        <v>13</v>
+        <v>2.9</v>
       </c>
       <c r="N61">
-        <v>1.2</v>
+        <v>3.75</v>
       </c>
       <c r="O61">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="P61">
-        <v>13</v>
+        <v>2.15</v>
       </c>
       <c r="Q61">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R61">
+        <v>2</v>
+      </c>
+      <c r="S61">
         <v>1.85</v>
       </c>
-      <c r="S61">
-        <v>2</v>
-      </c>
       <c r="T61">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U61">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V61">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W61">
-        <v>0.2</v>
+        <v>2.75</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5927,16 +5927,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA61">
+        <v>-1</v>
+      </c>
+      <c r="AB61">
         <v>1</v>
       </c>
-      <c r="AB61">
-        <v>0</v>
-      </c>
       <c r="AC61">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6844758</v>
+        <v>6844837</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,58 +5956,58 @@
         <v>45231.69791666666</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
         <v>41</v>
       </c>
       <c r="K62">
+        <v>1.727</v>
+      </c>
+      <c r="L62">
+        <v>3.75</v>
+      </c>
+      <c r="M62">
+        <v>4.5</v>
+      </c>
+      <c r="N62">
+        <v>1.45</v>
+      </c>
+      <c r="O62">
+        <v>4.5</v>
+      </c>
+      <c r="P62">
+        <v>6.5</v>
+      </c>
+      <c r="Q62">
+        <v>-1</v>
+      </c>
+      <c r="R62">
+        <v>1.825</v>
+      </c>
+      <c r="S62">
+        <v>2.025</v>
+      </c>
+      <c r="T62">
         <v>2.5</v>
       </c>
-      <c r="L62">
-        <v>3.1</v>
-      </c>
-      <c r="M62">
-        <v>2.9</v>
-      </c>
-      <c r="N62">
-        <v>3.75</v>
-      </c>
-      <c r="O62">
-        <v>3.1</v>
-      </c>
-      <c r="P62">
-        <v>2.15</v>
-      </c>
-      <c r="Q62">
-        <v>0.25</v>
-      </c>
-      <c r="R62">
-        <v>2</v>
-      </c>
-      <c r="S62">
-        <v>1.85</v>
-      </c>
-      <c r="T62">
-        <v>2.25</v>
-      </c>
       <c r="U62">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V62">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W62">
-        <v>2.75</v>
+        <v>0.45</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6016,16 +6016,16 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB62">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6844837</v>
+        <v>6844757</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,49 +6045,49 @@
         <v>45231.69791666666</v>
       </c>
       <c r="F63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J63" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K63">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="L63">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M63">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="N63">
-        <v>1.45</v>
+        <v>2.45</v>
       </c>
       <c r="O63">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="P63">
-        <v>6.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q63">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R63">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S63">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U63">
         <v>1.9</v>
@@ -6096,25 +6096,25 @@
         <v>1.95</v>
       </c>
       <c r="W63">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z63">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC63">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6844764</v>
+        <v>6844765</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,13 +6668,13 @@
         <v>45241.5</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G70" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H70">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -6683,43 +6683,43 @@
         <v>41</v>
       </c>
       <c r="K70">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L70">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M70">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N70">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="O70">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P70">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R70">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S70">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T70">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U70">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V70">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W70">
-        <v>1.625</v>
+        <v>1.1</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6728,16 +6728,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA70">
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6844765</v>
+        <v>6844764</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,13 +6757,13 @@
         <v>45241.5</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G71" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -6772,43 +6772,43 @@
         <v>41</v>
       </c>
       <c r="K71">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L71">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M71">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N71">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="O71">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P71">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q71">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R71">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S71">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T71">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U71">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V71">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W71">
-        <v>1.1</v>
+        <v>1.625</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6817,16 +6817,16 @@
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA71">
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC71">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6844771</v>
+        <v>6844772</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,76 +7469,76 @@
         <v>45255.5</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K79">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L79">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M79">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N79">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="O79">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P79">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q79">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R79">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S79">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T79">
         <v>2</v>
       </c>
       <c r="U79">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V79">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W79">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X79">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA79">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB79">
         <v>-1</v>
       </c>
       <c r="AC79">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7546,7 +7546,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6844772</v>
+        <v>6844771</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7558,76 +7558,76 @@
         <v>45255.5</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K80">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L80">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M80">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="N80">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="O80">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P80">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q80">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R80">
+        <v>2.025</v>
+      </c>
+      <c r="S80">
+        <v>1.825</v>
+      </c>
+      <c r="T80">
+        <v>2</v>
+      </c>
+      <c r="U80">
         <v>1.875</v>
       </c>
-      <c r="S80">
+      <c r="V80">
         <v>1.975</v>
       </c>
-      <c r="T80">
-        <v>2</v>
-      </c>
-      <c r="U80">
-        <v>1.85</v>
-      </c>
-      <c r="V80">
-        <v>2</v>
-      </c>
       <c r="W80">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB80">
         <v>-1</v>
       </c>
       <c r="AC80">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7813,7 +7813,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6844775</v>
+        <v>6844773</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7825,76 +7825,76 @@
         <v>45262.5</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K83">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="L83">
         <v>3.25</v>
       </c>
       <c r="M83">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="N83">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="O83">
         <v>3.3</v>
       </c>
       <c r="P83">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R83">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S83">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T83">
         <v>2.25</v>
       </c>
       <c r="U83">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V83">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z83">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AB83">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7902,7 +7902,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6844773</v>
+        <v>6844775</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7914,76 +7914,76 @@
         <v>45262.5</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G84" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K84">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="L84">
         <v>3.25</v>
       </c>
       <c r="M84">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="N84">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="O84">
         <v>3.3</v>
       </c>
       <c r="P84">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q84">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S84">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T84">
         <v>2.25</v>
       </c>
       <c r="U84">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V84">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y84">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA84">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC84">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6845514</v>
+        <v>6844781</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,58 +8448,58 @@
         <v>45266.69791666666</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
         <v>41</v>
       </c>
       <c r="K90">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="L90">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="M90">
-        <v>11</v>
+        <v>2.6</v>
       </c>
       <c r="N90">
-        <v>1.222</v>
+        <v>3</v>
       </c>
       <c r="O90">
-        <v>6.5</v>
+        <v>2.9</v>
       </c>
       <c r="P90">
-        <v>12</v>
+        <v>2.625</v>
       </c>
       <c r="Q90">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R90">
+        <v>1.925</v>
+      </c>
+      <c r="S90">
+        <v>1.925</v>
+      </c>
+      <c r="T90">
+        <v>2</v>
+      </c>
+      <c r="U90">
         <v>2.05</v>
       </c>
-      <c r="S90">
+      <c r="V90">
         <v>1.8</v>
       </c>
-      <c r="T90">
-        <v>3.25</v>
-      </c>
-      <c r="U90">
-        <v>1.875</v>
-      </c>
-      <c r="V90">
-        <v>1.975</v>
-      </c>
       <c r="W90">
-        <v>0.222</v>
+        <v>2</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8508,16 +8508,16 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA90">
         <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6844781</v>
+        <v>6845514</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,58 +8537,58 @@
         <v>45266.69791666666</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H91">
+        <v>4</v>
+      </c>
+      <c r="I91">
         <v>1</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
       </c>
       <c r="J91" t="s">
         <v>41</v>
       </c>
       <c r="K91">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="L91">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="M91">
-        <v>2.6</v>
+        <v>11</v>
       </c>
       <c r="N91">
-        <v>3</v>
+        <v>1.222</v>
       </c>
       <c r="O91">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="P91">
-        <v>2.625</v>
+        <v>12</v>
       </c>
       <c r="Q91">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R91">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S91">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T91">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U91">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V91">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W91">
-        <v>2</v>
+        <v>0.222</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8597,16 +8597,16 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA91">
         <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC91">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6844788</v>
+        <v>6844790</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,76 +9249,76 @@
         <v>45276.5</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G99" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K99">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L99">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M99">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="N99">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="O99">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P99">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R99">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S99">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T99">
         <v>2.25</v>
       </c>
       <c r="U99">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V99">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y99">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6844790</v>
+        <v>6845517</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,49 +9427,49 @@
         <v>45276.5</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G101" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H101">
         <v>0</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K101">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="L101">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="M101">
-        <v>3.75</v>
+        <v>10</v>
       </c>
       <c r="N101">
+        <v>1.2</v>
+      </c>
+      <c r="O101">
+        <v>7</v>
+      </c>
+      <c r="P101">
+        <v>12</v>
+      </c>
+      <c r="Q101">
+        <v>-2</v>
+      </c>
+      <c r="R101">
         <v>1.95</v>
       </c>
-      <c r="O101">
-        <v>3.4</v>
-      </c>
-      <c r="P101">
-        <v>4</v>
-      </c>
-      <c r="Q101">
-        <v>-0.5</v>
-      </c>
-      <c r="R101">
-        <v>1.975</v>
-      </c>
       <c r="S101">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T101">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U101">
         <v>2.025</v>
@@ -9481,16 +9481,16 @@
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB101">
         <v>-1</v>
@@ -9504,7 +9504,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6845517</v>
+        <v>6844788</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9516,55 +9516,55 @@
         <v>45276.5</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G102" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
         <v>43</v>
       </c>
       <c r="K102">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="L102">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M102">
-        <v>10</v>
+        <v>3.25</v>
       </c>
       <c r="N102">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="O102">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="P102">
-        <v>12</v>
+        <v>3.2</v>
       </c>
       <c r="Q102">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R102">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S102">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T102">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U102">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V102">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W102">
         <v>-1</v>
@@ -9573,19 +9573,19 @@
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>11</v>
+        <v>2.2</v>
       </c>
       <c r="Z102">
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB102">
         <v>-1</v>
       </c>
       <c r="AC102">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -11818,7 +11818,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6844814</v>
+        <v>6845520</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11830,76 +11830,76 @@
         <v>45318.5</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G128" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K128">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L128">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M128">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N128">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="O128">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="P128">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q128">
         <v>-0.25</v>
       </c>
       <c r="R128">
-        <v>2.125</v>
+        <v>1.825</v>
       </c>
       <c r="S128">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T128">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U128">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="V128">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X128">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA128">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6845520</v>
+        <v>6844814</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,76 +11919,76 @@
         <v>45318.5</v>
       </c>
       <c r="F129" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G129" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K129">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L129">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M129">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N129">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="O129">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P129">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q129">
         <v>-0.25</v>
       </c>
       <c r="R129">
-        <v>1.825</v>
+        <v>2.125</v>
       </c>
       <c r="S129">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T129">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U129">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="V129">
+        <v>1.775</v>
+      </c>
+      <c r="W129">
+        <v>-1</v>
+      </c>
+      <c r="X129">
         <v>1.875</v>
       </c>
-      <c r="W129">
-        <v>1.05</v>
-      </c>
-      <c r="X129">
-        <v>-1</v>
-      </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC129">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12263,7 +12263,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7668001</v>
+        <v>7572459</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12275,76 +12275,76 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F133" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G133" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
         <v>42</v>
       </c>
       <c r="K133">
+        <v>2.5</v>
+      </c>
+      <c r="L133">
+        <v>3.2</v>
+      </c>
+      <c r="M133">
+        <v>2.8</v>
+      </c>
+      <c r="N133">
+        <v>2.25</v>
+      </c>
+      <c r="O133">
+        <v>3.25</v>
+      </c>
+      <c r="P133">
+        <v>3.3</v>
+      </c>
+      <c r="Q133">
+        <v>-0.25</v>
+      </c>
+      <c r="R133">
+        <v>1.975</v>
+      </c>
+      <c r="S133">
+        <v>1.875</v>
+      </c>
+      <c r="T133">
+        <v>2</v>
+      </c>
+      <c r="U133">
         <v>1.75</v>
       </c>
-      <c r="L133">
-        <v>3.5</v>
-      </c>
-      <c r="M133">
-        <v>4.75</v>
-      </c>
-      <c r="N133">
-        <v>1.909</v>
-      </c>
-      <c r="O133">
-        <v>3.4</v>
-      </c>
-      <c r="P133">
-        <v>4.333</v>
-      </c>
-      <c r="Q133">
+      <c r="V133">
+        <v>2.05</v>
+      </c>
+      <c r="W133">
+        <v>-1</v>
+      </c>
+      <c r="X133">
+        <v>2.25</v>
+      </c>
+      <c r="Y133">
+        <v>-1</v>
+      </c>
+      <c r="Z133">
         <v>-0.5</v>
       </c>
-      <c r="R133">
-        <v>1.875</v>
-      </c>
-      <c r="S133">
-        <v>1.975</v>
-      </c>
-      <c r="T133">
-        <v>2.5</v>
-      </c>
-      <c r="U133">
-        <v>1.975</v>
-      </c>
-      <c r="V133">
-        <v>1.875</v>
-      </c>
-      <c r="W133">
-        <v>-1</v>
-      </c>
-      <c r="X133">
-        <v>2.4</v>
-      </c>
-      <c r="Y133">
-        <v>-1</v>
-      </c>
-      <c r="Z133">
-        <v>-1</v>
-      </c>
       <c r="AA133">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC133">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12352,7 +12352,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7572459</v>
+        <v>7668001</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12364,76 +12364,76 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G134" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
         <v>42</v>
       </c>
       <c r="K134">
+        <v>1.75</v>
+      </c>
+      <c r="L134">
+        <v>3.5</v>
+      </c>
+      <c r="M134">
+        <v>4.75</v>
+      </c>
+      <c r="N134">
+        <v>1.909</v>
+      </c>
+      <c r="O134">
+        <v>3.4</v>
+      </c>
+      <c r="P134">
+        <v>4.333</v>
+      </c>
+      <c r="Q134">
+        <v>-0.5</v>
+      </c>
+      <c r="R134">
+        <v>1.875</v>
+      </c>
+      <c r="S134">
+        <v>1.975</v>
+      </c>
+      <c r="T134">
         <v>2.5</v>
       </c>
-      <c r="L134">
-        <v>3.2</v>
-      </c>
-      <c r="M134">
-        <v>2.8</v>
-      </c>
-      <c r="N134">
-        <v>2.25</v>
-      </c>
-      <c r="O134">
-        <v>3.25</v>
-      </c>
-      <c r="P134">
-        <v>3.3</v>
-      </c>
-      <c r="Q134">
-        <v>-0.25</v>
-      </c>
-      <c r="R134">
+      <c r="U134">
         <v>1.975</v>
       </c>
-      <c r="S134">
+      <c r="V134">
         <v>1.875</v>
       </c>
-      <c r="T134">
-        <v>2</v>
-      </c>
-      <c r="U134">
-        <v>1.75</v>
-      </c>
-      <c r="V134">
-        <v>2.05</v>
-      </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB134">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -14577,7 +14577,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6921112</v>
+        <v>6921111</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14589,49 +14589,49 @@
         <v>45346.5</v>
       </c>
       <c r="F159" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G159" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J159" t="s">
         <v>41</v>
       </c>
       <c r="K159">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L159">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M159">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N159">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="O159">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P159">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q159">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R159">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S159">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T159">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U159">
         <v>1.95</v>
@@ -14640,7 +14640,7 @@
         <v>1.9</v>
       </c>
       <c r="W159">
-        <v>0.8</v>
+        <v>1.375</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -14649,16 +14649,16 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AA159">
         <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC159">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14666,7 +14666,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6921111</v>
+        <v>6921112</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14678,49 +14678,49 @@
         <v>45346.5</v>
       </c>
       <c r="F160" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G160" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H160">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J160" t="s">
         <v>41</v>
       </c>
       <c r="K160">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L160">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M160">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N160">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="O160">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P160">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q160">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R160">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S160">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T160">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U160">
         <v>1.95</v>
@@ -14729,7 +14729,7 @@
         <v>1.9</v>
       </c>
       <c r="W160">
-        <v>1.375</v>
+        <v>0.8</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14738,16 +14738,16 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AA160">
         <v>-1</v>
       </c>
       <c r="AB160">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -15022,7 +15022,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6956501</v>
+        <v>6845536</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15034,76 +15034,76 @@
         <v>45350.69791666666</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G164" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H164">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I164">
         <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K164">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="L164">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M164">
-        <v>13</v>
+        <v>3.8</v>
       </c>
       <c r="N164">
-        <v>1.142</v>
+        <v>2</v>
       </c>
       <c r="O164">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="P164">
-        <v>15</v>
+        <v>3.8</v>
       </c>
       <c r="Q164">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R164">
+        <v>2</v>
+      </c>
+      <c r="S164">
         <v>1.85</v>
       </c>
-      <c r="S164">
-        <v>2</v>
-      </c>
       <c r="T164">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U164">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V164">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W164">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X164">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
+        <v>-1</v>
+      </c>
+      <c r="AA164">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA164">
-        <v>-1</v>
-      </c>
       <c r="AB164">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15200,7 +15200,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6845536</v>
+        <v>6956501</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15212,76 +15212,76 @@
         <v>45350.69791666666</v>
       </c>
       <c r="F166" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G166" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I166">
         <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K166">
+        <v>1.2</v>
+      </c>
+      <c r="L166">
+        <v>6</v>
+      </c>
+      <c r="M166">
+        <v>13</v>
+      </c>
+      <c r="N166">
+        <v>1.142</v>
+      </c>
+      <c r="O166">
+        <v>8.5</v>
+      </c>
+      <c r="P166">
+        <v>15</v>
+      </c>
+      <c r="Q166">
+        <v>-2.25</v>
+      </c>
+      <c r="R166">
+        <v>1.85</v>
+      </c>
+      <c r="S166">
+        <v>2</v>
+      </c>
+      <c r="T166">
+        <v>3.75</v>
+      </c>
+      <c r="U166">
+        <v>1.95</v>
+      </c>
+      <c r="V166">
         <v>1.9</v>
       </c>
-      <c r="L166">
-        <v>3.5</v>
-      </c>
-      <c r="M166">
-        <v>3.8</v>
-      </c>
-      <c r="N166">
-        <v>2</v>
-      </c>
-      <c r="O166">
-        <v>3.5</v>
-      </c>
-      <c r="P166">
-        <v>3.8</v>
-      </c>
-      <c r="Q166">
-        <v>-0.5</v>
-      </c>
-      <c r="R166">
-        <v>2</v>
-      </c>
-      <c r="S166">
-        <v>1.85</v>
-      </c>
-      <c r="T166">
-        <v>2.75</v>
-      </c>
-      <c r="U166">
-        <v>2.025</v>
-      </c>
-      <c r="V166">
-        <v>1.825</v>
-      </c>
       <c r="W166">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X166">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA166">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC166">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15378,7 +15378,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6979330</v>
+        <v>6979650</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15390,40 +15390,40 @@
         <v>45353.5</v>
       </c>
       <c r="F168" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G168" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I168">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K168">
-        <v>1.166</v>
+        <v>1.1</v>
       </c>
       <c r="L168">
+        <v>3.9</v>
+      </c>
+      <c r="M168">
+        <v>5</v>
+      </c>
+      <c r="N168">
+        <v>1.4</v>
+      </c>
+      <c r="O168">
+        <v>5</v>
+      </c>
+      <c r="P168">
         <v>7</v>
       </c>
-      <c r="M168">
-        <v>11</v>
-      </c>
-      <c r="N168">
-        <v>1.142</v>
-      </c>
-      <c r="O168">
-        <v>9</v>
-      </c>
-      <c r="P168">
-        <v>15</v>
-      </c>
       <c r="Q168">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R168">
         <v>1.85</v>
@@ -15432,34 +15432,34 @@
         <v>2</v>
       </c>
       <c r="T168">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U168">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V168">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W168">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA168">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.4</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15467,7 +15467,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6979650</v>
+        <v>6979649</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15479,76 +15479,76 @@
         <v>45353.5</v>
       </c>
       <c r="F169" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G169" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H169">
         <v>2</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J169" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K169">
-        <v>1.1</v>
+        <v>2.25</v>
       </c>
       <c r="L169">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="M169">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="N169">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="O169">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P169">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="Q169">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R169">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S169">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T169">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U169">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V169">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W169">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X169">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AA169">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB169">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC169">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15556,7 +15556,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6979649</v>
+        <v>6979330</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15568,76 +15568,76 @@
         <v>45353.5</v>
       </c>
       <c r="F170" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G170" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170">
         <v>2</v>
       </c>
       <c r="J170" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K170">
-        <v>2.25</v>
+        <v>1.166</v>
       </c>
       <c r="L170">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="M170">
-        <v>2.7</v>
+        <v>11</v>
       </c>
       <c r="N170">
-        <v>3</v>
+        <v>1.142</v>
       </c>
       <c r="O170">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="P170">
-        <v>2.3</v>
+        <v>15</v>
       </c>
       <c r="Q170">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R170">
+        <v>1.85</v>
+      </c>
+      <c r="S170">
+        <v>2</v>
+      </c>
+      <c r="T170">
+        <v>3.25</v>
+      </c>
+      <c r="U170">
+        <v>2.05</v>
+      </c>
+      <c r="V170">
         <v>1.8</v>
       </c>
-      <c r="S170">
-        <v>2.05</v>
-      </c>
-      <c r="T170">
-        <v>2.25</v>
-      </c>
-      <c r="U170">
-        <v>1.825</v>
-      </c>
-      <c r="V170">
-        <v>2.025</v>
-      </c>
       <c r="W170">
         <v>-1</v>
       </c>
       <c r="X170">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="Z170">
+        <v>-1</v>
+      </c>
+      <c r="AA170">
+        <v>1</v>
+      </c>
+      <c r="AB170">
+        <v>-0.5</v>
+      </c>
+      <c r="AC170">
         <v>0.4</v>
-      </c>
-      <c r="AA170">
-        <v>-0.5</v>
-      </c>
-      <c r="AB170">
-        <v>0.825</v>
-      </c>
-      <c r="AC170">
-        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -16179,7 +16179,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6845531</v>
+        <v>6995241</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16191,76 +16191,76 @@
         <v>45367.5</v>
       </c>
       <c r="F177" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G177" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K177">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L177">
         <v>3.25</v>
       </c>
       <c r="M177">
+        <v>3.25</v>
+      </c>
+      <c r="N177">
+        <v>2.05</v>
+      </c>
+      <c r="O177">
         <v>2.9</v>
       </c>
-      <c r="N177">
-        <v>2.375</v>
-      </c>
-      <c r="O177">
-        <v>3.3</v>
-      </c>
       <c r="P177">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="Q177">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S177">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T177">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U177">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V177">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA177">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC177">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16268,7 +16268,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6995241</v>
+        <v>6995240</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16280,58 +16280,58 @@
         <v>45367.5</v>
       </c>
       <c r="F178" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G178" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H178">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I178">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J178" t="s">
         <v>41</v>
       </c>
       <c r="K178">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L178">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M178">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N178">
+        <v>1.5</v>
+      </c>
+      <c r="O178">
+        <v>4.2</v>
+      </c>
+      <c r="P178">
+        <v>8</v>
+      </c>
+      <c r="Q178">
+        <v>-1</v>
+      </c>
+      <c r="R178">
+        <v>1.75</v>
+      </c>
+      <c r="S178">
         <v>2.05</v>
       </c>
-      <c r="O178">
-        <v>2.9</v>
-      </c>
-      <c r="P178">
-        <v>4.333</v>
-      </c>
-      <c r="Q178">
-        <v>-0.5</v>
-      </c>
-      <c r="R178">
-        <v>2.1</v>
-      </c>
-      <c r="S178">
-        <v>1.775</v>
-      </c>
       <c r="T178">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U178">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V178">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W178">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16340,13 +16340,13 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>1.1</v>
+        <v>0.75</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16357,7 +16357,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6995240</v>
+        <v>6995239</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16369,58 +16369,58 @@
         <v>45367.5</v>
       </c>
       <c r="F179" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G179" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H179">
         <v>3</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="s">
         <v>41</v>
       </c>
       <c r="K179">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="L179">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M179">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="N179">
-        <v>1.5</v>
+        <v>1.125</v>
       </c>
       <c r="O179">
-        <v>4.2</v>
+        <v>8.5</v>
       </c>
       <c r="P179">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="Q179">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R179">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S179">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T179">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U179">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V179">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W179">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16429,13 +16429,13 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB179">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC179">
         <v>-1</v>
@@ -16446,7 +16446,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6995239</v>
+        <v>6845531</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16458,76 +16458,76 @@
         <v>45367.5</v>
       </c>
       <c r="F180" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G180" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H180">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180">
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K180">
-        <v>1.166</v>
+        <v>2.25</v>
       </c>
       <c r="L180">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="M180">
-        <v>11</v>
+        <v>2.9</v>
       </c>
       <c r="N180">
-        <v>1.125</v>
+        <v>2.375</v>
       </c>
       <c r="O180">
-        <v>8.5</v>
+        <v>3.3</v>
       </c>
       <c r="P180">
-        <v>21</v>
+        <v>3.1</v>
       </c>
       <c r="Q180">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R180">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S180">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T180">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U180">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V180">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W180">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z180">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB180">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -17069,7 +17069,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7092318</v>
+        <v>7060947</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17081,49 +17081,49 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G187" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I187">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J187" t="s">
         <v>43</v>
       </c>
       <c r="K187">
-        <v>2.6</v>
+        <v>1.952</v>
       </c>
       <c r="L187">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M187">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N187">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O187">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P187">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q187">
         <v>-0.25</v>
       </c>
       <c r="R187">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S187">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T187">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U187">
         <v>2</v>
@@ -17138,13 +17138,13 @@
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Z187">
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB187">
         <v>1</v>
@@ -17247,7 +17247,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7092308</v>
+        <v>7092318</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17259,76 +17259,76 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F189" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G189" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H189">
         <v>1</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K189">
-        <v>1.533</v>
+        <v>2.6</v>
       </c>
       <c r="L189">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M189">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="N189">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="O189">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P189">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="Q189">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R189">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S189">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T189">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U189">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V189">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W189">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z189">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC189">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17336,7 +17336,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7060947</v>
+        <v>7092308</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17348,76 +17348,76 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F190" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G190" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J190" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K190">
-        <v>1.952</v>
+        <v>1.533</v>
       </c>
       <c r="L190">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M190">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="N190">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="O190">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P190">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="Q190">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R190">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S190">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T190">
         <v>2.5</v>
       </c>
       <c r="U190">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V190">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W190">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA190">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB190">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC190">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -18219,6 +18219,302 @@
       </c>
       <c r="AC199">
         <v>0.925</v>
+      </c>
+    </row>
+    <row r="200" spans="1:29">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>8109083</v>
+      </c>
+      <c r="C200" t="s">
+        <v>28</v>
+      </c>
+      <c r="D200" t="s">
+        <v>28</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45409.45833333334</v>
+      </c>
+      <c r="F200" t="s">
+        <v>33</v>
+      </c>
+      <c r="G200" t="s">
+        <v>40</v>
+      </c>
+      <c r="K200">
+        <v>2.4</v>
+      </c>
+      <c r="L200">
+        <v>3.3</v>
+      </c>
+      <c r="M200">
+        <v>2.9</v>
+      </c>
+      <c r="N200">
+        <v>2.25</v>
+      </c>
+      <c r="O200">
+        <v>3.3</v>
+      </c>
+      <c r="P200">
+        <v>3.2</v>
+      </c>
+      <c r="Q200">
+        <v>-0.25</v>
+      </c>
+      <c r="R200">
+        <v>1.95</v>
+      </c>
+      <c r="S200">
+        <v>1.9</v>
+      </c>
+      <c r="T200">
+        <v>2.5</v>
+      </c>
+      <c r="U200">
+        <v>1.925</v>
+      </c>
+      <c r="V200">
+        <v>1.925</v>
+      </c>
+      <c r="W200">
+        <v>0</v>
+      </c>
+      <c r="X200">
+        <v>0</v>
+      </c>
+      <c r="Y200">
+        <v>0</v>
+      </c>
+      <c r="Z200">
+        <v>0</v>
+      </c>
+      <c r="AA200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:29">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>8109106</v>
+      </c>
+      <c r="C201" t="s">
+        <v>28</v>
+      </c>
+      <c r="D201" t="s">
+        <v>28</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45409.45833333334</v>
+      </c>
+      <c r="F201" t="s">
+        <v>32</v>
+      </c>
+      <c r="G201" t="s">
+        <v>35</v>
+      </c>
+      <c r="K201">
+        <v>2.375</v>
+      </c>
+      <c r="L201">
+        <v>3.4</v>
+      </c>
+      <c r="M201">
+        <v>2.875</v>
+      </c>
+      <c r="N201">
+        <v>2.5</v>
+      </c>
+      <c r="O201">
+        <v>3.4</v>
+      </c>
+      <c r="P201">
+        <v>2.7</v>
+      </c>
+      <c r="Q201">
+        <v>0</v>
+      </c>
+      <c r="R201">
+        <v>1.85</v>
+      </c>
+      <c r="S201">
+        <v>2</v>
+      </c>
+      <c r="T201">
+        <v>2.25</v>
+      </c>
+      <c r="U201">
+        <v>1.8</v>
+      </c>
+      <c r="V201">
+        <v>2.05</v>
+      </c>
+      <c r="W201">
+        <v>0</v>
+      </c>
+      <c r="X201">
+        <v>0</v>
+      </c>
+      <c r="Y201">
+        <v>0</v>
+      </c>
+      <c r="Z201">
+        <v>0</v>
+      </c>
+      <c r="AA201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:29">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>8109107</v>
+      </c>
+      <c r="C202" t="s">
+        <v>28</v>
+      </c>
+      <c r="D202" t="s">
+        <v>28</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45409.45833333334</v>
+      </c>
+      <c r="F202" t="s">
+        <v>31</v>
+      </c>
+      <c r="G202" t="s">
+        <v>34</v>
+      </c>
+      <c r="K202">
+        <v>3.3</v>
+      </c>
+      <c r="L202">
+        <v>3.5</v>
+      </c>
+      <c r="M202">
+        <v>2.1</v>
+      </c>
+      <c r="N202">
+        <v>3.75</v>
+      </c>
+      <c r="O202">
+        <v>3.6</v>
+      </c>
+      <c r="P202">
+        <v>1.95</v>
+      </c>
+      <c r="Q202">
+        <v>0.5</v>
+      </c>
+      <c r="R202">
+        <v>1.875</v>
+      </c>
+      <c r="S202">
+        <v>1.975</v>
+      </c>
+      <c r="T202">
+        <v>2.5</v>
+      </c>
+      <c r="U202">
+        <v>1.975</v>
+      </c>
+      <c r="V202">
+        <v>1.875</v>
+      </c>
+      <c r="W202">
+        <v>0</v>
+      </c>
+      <c r="X202">
+        <v>0</v>
+      </c>
+      <c r="Y202">
+        <v>0</v>
+      </c>
+      <c r="Z202">
+        <v>0</v>
+      </c>
+      <c r="AA202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:29">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>8108614</v>
+      </c>
+      <c r="C203" t="s">
+        <v>28</v>
+      </c>
+      <c r="D203" t="s">
+        <v>28</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45409.45833333334</v>
+      </c>
+      <c r="F203" t="s">
+        <v>38</v>
+      </c>
+      <c r="G203" t="s">
+        <v>39</v>
+      </c>
+      <c r="K203">
+        <v>2</v>
+      </c>
+      <c r="L203">
+        <v>3.4</v>
+      </c>
+      <c r="M203">
+        <v>3.75</v>
+      </c>
+      <c r="N203">
+        <v>2.05</v>
+      </c>
+      <c r="O203">
+        <v>3.4</v>
+      </c>
+      <c r="P203">
+        <v>3.6</v>
+      </c>
+      <c r="Q203">
+        <v>-0.5</v>
+      </c>
+      <c r="R203">
+        <v>2.05</v>
+      </c>
+      <c r="S203">
+        <v>1.8</v>
+      </c>
+      <c r="T203">
+        <v>2.5</v>
+      </c>
+      <c r="U203">
+        <v>1.975</v>
+      </c>
+      <c r="V203">
+        <v>1.875</v>
+      </c>
+      <c r="W203">
+        <v>0</v>
+      </c>
+      <c r="X203">
+        <v>0</v>
+      </c>
+      <c r="Y203">
+        <v>0</v>
+      </c>
+      <c r="Z203">
+        <v>0</v>
+      </c>
+      <c r="AA203">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Scotland Premiership/Scotland Premiership.xlsx
+++ b/Scotland Premiership/Scotland Premiership.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -97,22 +97,19 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>8108614</t>
+    <t>8109085</t>
   </si>
   <si>
-    <t>8109083</t>
+    <t>8108613</t>
   </si>
   <si>
-    <t>8109106</t>
+    <t>8109104</t>
   </si>
   <si>
-    <t>8109107</t>
+    <t>8109105</t>
   </si>
   <si>
-    <t>8109084</t>
-  </si>
-  <si>
-    <t>8109085</t>
+    <t>8109088</t>
   </si>
   <si>
     <t>Scotland Premiership</t>
@@ -522,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB205"/>
+  <dimension ref="A1:AB204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,16 +616,16 @@
         <v>6844707</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2">
         <v>45143.35416666666</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -637,7 +634,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J2">
         <v>1.111</v>
@@ -705,16 +702,16 @@
         <v>6844709</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2">
         <v>45143.45833333334</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -723,7 +720,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J3">
         <v>3.5</v>
@@ -791,16 +788,16 @@
         <v>6844708</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2">
         <v>45143.45833333334</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -809,7 +806,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J4">
         <v>2.875</v>
@@ -877,16 +874,16 @@
         <v>6844833</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2">
         <v>45143.45833333334</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -895,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J5">
         <v>2.875</v>
@@ -963,16 +960,16 @@
         <v>6844710</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2">
         <v>45143.55208333334</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -981,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J6">
         <v>7</v>
@@ -1049,16 +1046,16 @@
         <v>6844711</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2">
         <v>45144.45833333334</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1067,7 +1064,7 @@
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J7">
         <v>2</v>
@@ -1135,16 +1132,16 @@
         <v>6844834</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2">
         <v>45150.45833333334</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -1153,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8">
         <v>1.2</v>
@@ -1221,16 +1218,16 @@
         <v>6844715</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2">
         <v>45150.45833333334</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1239,7 +1236,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9">
         <v>1.909</v>
@@ -1307,16 +1304,16 @@
         <v>6844714</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2">
         <v>45150.45833333334</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1325,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -1393,16 +1390,16 @@
         <v>6845502</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2">
         <v>45151.33333333334</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1411,7 +1408,7 @@
         <v>3</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J11">
         <v>7</v>
@@ -1479,16 +1476,16 @@
         <v>7026739</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2">
         <v>45151.45833333334</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1497,7 +1494,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J12">
         <v>2.75</v>
@@ -1565,16 +1562,16 @@
         <v>7026738</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2">
         <v>45151.45833333334</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1583,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J13">
         <v>1.8</v>
@@ -1651,16 +1648,16 @@
         <v>6844719</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2">
         <v>45164.35416666666</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1669,7 +1666,7 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J14">
         <v>9.5</v>
@@ -1737,16 +1734,16 @@
         <v>6844835</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="2">
         <v>45164.45833333334</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1755,7 +1752,7 @@
         <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J15">
         <v>1.7</v>
@@ -1823,16 +1820,16 @@
         <v>6844718</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2">
         <v>45164.45833333334</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -1841,7 +1838,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J16">
         <v>2.2</v>
@@ -1909,17 +1906,17 @@
         <v>6844716</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="2">
         <v>45164.45833333334</v>
       </c>
       <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s">
         <v>34</v>
       </c>
-      <c r="F17" t="s">
-        <v>35</v>
-      </c>
       <c r="G17">
         <v>0</v>
       </c>
@@ -1927,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J17">
         <v>1.045</v>
@@ -1995,16 +1992,16 @@
         <v>6844717</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2">
         <v>45165.45833333334</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2013,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J18">
         <v>3.2</v>
@@ -2081,16 +2078,16 @@
         <v>7075288</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2">
         <v>45165.45833333334</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2099,7 +2096,7 @@
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J19">
         <v>2.55</v>
@@ -2167,17 +2164,17 @@
         <v>6844724</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" t="s">
         <v>35</v>
       </c>
-      <c r="F20" t="s">
-        <v>36</v>
-      </c>
       <c r="G20">
         <v>2</v>
       </c>
@@ -2185,7 +2182,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J20">
         <v>2.5</v>
@@ -2253,16 +2250,16 @@
         <v>6844722</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2271,7 +2268,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J21">
         <v>2</v>
@@ -2339,16 +2336,16 @@
         <v>6844723</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2357,7 +2354,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J22">
         <v>2.75</v>
@@ -2425,16 +2422,16 @@
         <v>6845504</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" s="2">
         <v>45172.33333333334</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2443,7 +2440,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J23">
         <v>2.7</v>
@@ -2511,16 +2508,16 @@
         <v>7126250</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2">
         <v>45172.45833333334</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2529,7 +2526,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J24">
         <v>2.1</v>
@@ -2597,16 +2594,16 @@
         <v>6845503</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" s="2">
         <v>45172.45833333334</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2615,7 +2612,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J25">
         <v>2.4</v>
@@ -2683,16 +2680,16 @@
         <v>6844729</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" s="2">
         <v>45185.35416666666</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2701,7 +2698,7 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J26">
         <v>9</v>
@@ -2769,17 +2766,17 @@
         <v>6844726</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" t="s">
         <v>38</v>
       </c>
-      <c r="F27" t="s">
-        <v>39</v>
-      </c>
       <c r="G27">
         <v>2</v>
       </c>
@@ -2787,7 +2784,7 @@
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J27">
         <v>3</v>
@@ -2852,85 +2849,85 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6845505</v>
+        <v>6844727</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="s">
         <v>46</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="K28">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M28">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="N28">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="O28">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="P28">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="R28">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S28">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T28">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="U28">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V28">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y28">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA28">
         <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -2938,85 +2935,85 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6844728</v>
+        <v>6845505</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
         <v>42</v>
       </c>
-      <c r="F29" t="s">
-        <v>37</v>
-      </c>
       <c r="G29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J29">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="K29">
+        <v>3.4</v>
+      </c>
+      <c r="L29">
         <v>3.1</v>
       </c>
-      <c r="L29">
-        <v>2.7</v>
-      </c>
       <c r="M29">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N29">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="O29">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P29">
         <v>-0.25</v>
       </c>
       <c r="Q29">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R29">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S29">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T29">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U29">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V29">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W29">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="Z29">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.425</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -3024,22 +3021,22 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6844727</v>
+        <v>6844728</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D30" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3048,61 +3045,61 @@
         <v>47</v>
       </c>
       <c r="J30">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L30">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="M30">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N30">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O30">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q30">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R30">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S30">
         <v>2.25</v>
       </c>
       <c r="T30">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="U30">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V30">
         <v>-1</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X30">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z30">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB30">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -3113,16 +3110,16 @@
         <v>6844725</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D31" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3131,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J31">
         <v>1.083</v>
@@ -3199,16 +3196,16 @@
         <v>6844836</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D32" s="2">
         <v>45192.35416666666</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3217,7 +3214,7 @@
         <v>3</v>
       </c>
       <c r="I32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J32">
         <v>15</v>
@@ -3285,16 +3282,16 @@
         <v>6844735</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D33" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3303,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J33">
         <v>2.5</v>
@@ -3371,16 +3368,16 @@
         <v>6844731</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3389,7 +3386,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J34">
         <v>2.4</v>
@@ -3457,16 +3454,16 @@
         <v>6844732</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D35" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -3475,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J35">
         <v>1.571</v>
@@ -3543,16 +3540,16 @@
         <v>6844733</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D36" s="2">
         <v>45193.45833333334</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3561,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J36">
         <v>1.2</v>
@@ -3629,16 +3626,16 @@
         <v>6844730</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D37" s="2">
         <v>45193.45833333334</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -3647,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J37">
         <v>1.8</v>
@@ -3715,16 +3712,16 @@
         <v>7226392</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D38" s="2">
         <v>45199.35416666666</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -3733,7 +3730,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J38">
         <v>9</v>
@@ -3801,16 +3798,16 @@
         <v>6844737</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D39" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3819,7 +3816,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J39">
         <v>2.25</v>
@@ -3887,16 +3884,16 @@
         <v>6845506</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D40" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3905,7 +3902,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J40">
         <v>1.333</v>
@@ -3973,16 +3970,16 @@
         <v>6844740</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D41" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3991,7 +3988,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J41">
         <v>2.5</v>
@@ -4059,16 +4056,16 @@
         <v>6844739</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D42" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4077,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J42">
         <v>2.875</v>
@@ -4145,16 +4142,16 @@
         <v>6844736</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D43" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4163,7 +4160,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J43">
         <v>1.666</v>
@@ -4231,16 +4228,16 @@
         <v>6844744</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D44" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -4249,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J44">
         <v>2.9</v>
@@ -4317,16 +4314,16 @@
         <v>6845533</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D45" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4335,7 +4332,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J45">
         <v>2.1</v>
@@ -4403,16 +4400,16 @@
         <v>6844742</v>
       </c>
       <c r="C46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D46" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4421,7 +4418,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J46">
         <v>1.125</v>
@@ -4489,16 +4486,16 @@
         <v>6844745</v>
       </c>
       <c r="C47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D47" s="2">
         <v>45207.33333333334</v>
       </c>
       <c r="E47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4507,7 +4504,7 @@
         <v>3</v>
       </c>
       <c r="I47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J47">
         <v>8</v>
@@ -4575,16 +4572,16 @@
         <v>6844741</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D48" s="2">
         <v>45207.45833333334</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -4593,7 +4590,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J48">
         <v>1.571</v>
@@ -4661,16 +4658,16 @@
         <v>6844747</v>
       </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D49" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -4679,7 +4676,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J49">
         <v>2</v>
@@ -4747,16 +4744,16 @@
         <v>6845508</v>
       </c>
       <c r="C50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D50" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G50">
         <v>4</v>
@@ -4765,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J50">
         <v>1.333</v>
@@ -4833,16 +4830,16 @@
         <v>6845507</v>
       </c>
       <c r="C51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D51" s="2">
         <v>45221.42708333334</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4851,7 +4848,7 @@
         <v>4</v>
       </c>
       <c r="I51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J51">
         <v>6.5</v>
@@ -4919,16 +4916,16 @@
         <v>7344342</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D52" s="2">
         <v>45223.65625</v>
       </c>
       <c r="E52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -4937,7 +4934,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J52">
         <v>2.3</v>
@@ -5005,16 +5002,16 @@
         <v>6844752</v>
       </c>
       <c r="C53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D53" s="2">
         <v>45227.45833333334</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -5023,7 +5020,7 @@
         <v>3</v>
       </c>
       <c r="I53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J53">
         <v>1.909</v>
@@ -5091,16 +5088,16 @@
         <v>6844751</v>
       </c>
       <c r="C54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D54" s="2">
         <v>45227.45833333334</v>
       </c>
       <c r="E54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5109,7 +5106,7 @@
         <v>2</v>
       </c>
       <c r="I54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J54">
         <v>2.6</v>
@@ -5174,85 +5171,85 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6845509</v>
+        <v>6844753</v>
       </c>
       <c r="C55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D55" s="2">
         <v>45227.45833333334</v>
       </c>
       <c r="E55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F55" t="s">
         <v>34</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J55">
-        <v>7.5</v>
+        <v>1.666</v>
       </c>
       <c r="K55">
+        <v>3.8</v>
+      </c>
+      <c r="L55">
         <v>5</v>
       </c>
-      <c r="L55">
-        <v>1.363</v>
-      </c>
       <c r="M55">
-        <v>5.75</v>
+        <v>1.727</v>
       </c>
       <c r="N55">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="O55">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="P55">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q55">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="R55">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S55">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="T55">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="U55">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V55">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W55">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="Z55">
         <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB55">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -5260,85 +5257,85 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6844753</v>
+        <v>6845509</v>
       </c>
       <c r="C56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D56" s="2">
         <v>45227.45833333334</v>
       </c>
       <c r="E56" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G56">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H56">
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J56">
-        <v>1.666</v>
+        <v>7.5</v>
       </c>
       <c r="K56">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="L56">
-        <v>5</v>
+        <v>1.363</v>
       </c>
       <c r="M56">
-        <v>1.727</v>
+        <v>5.75</v>
       </c>
       <c r="N56">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="O56">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="P56">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="Q56">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="R56">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S56">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="T56">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="U56">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V56">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="Z56">
         <v>-1</v>
       </c>
       <c r="AA56">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="57" spans="1:28">
@@ -5349,16 +5346,16 @@
         <v>6844750</v>
       </c>
       <c r="C57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D57" s="2">
         <v>45228.375</v>
       </c>
       <c r="E57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -5367,7 +5364,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J57">
         <v>2.6</v>
@@ -5435,16 +5432,16 @@
         <v>6845510</v>
       </c>
       <c r="C58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D58" s="2">
         <v>45228.5</v>
       </c>
       <c r="E58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5453,7 +5450,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J58">
         <v>1.363</v>
@@ -5521,16 +5518,16 @@
         <v>6844756</v>
       </c>
       <c r="C59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D59" s="2">
         <v>45230.69791666666</v>
       </c>
       <c r="E59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5539,7 +5536,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J59">
         <v>1.833</v>
@@ -5607,16 +5604,16 @@
         <v>6844837</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D60" s="2">
         <v>45231.69791666666</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5625,7 +5622,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J60">
         <v>1.727</v>
@@ -5693,16 +5690,16 @@
         <v>6844754</v>
       </c>
       <c r="C61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D61" s="2">
         <v>45231.69791666666</v>
       </c>
       <c r="E61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -5711,7 +5708,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J61">
         <v>1.181</v>
@@ -5779,16 +5776,16 @@
         <v>6844758</v>
       </c>
       <c r="C62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D62" s="2">
         <v>45231.69791666666</v>
       </c>
       <c r="E62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -5797,7 +5794,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J62">
         <v>2.5</v>
@@ -5865,16 +5862,16 @@
         <v>6844757</v>
       </c>
       <c r="C63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D63" s="2">
         <v>45231.69791666666</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5883,7 +5880,7 @@
         <v>4</v>
       </c>
       <c r="I63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J63">
         <v>2.625</v>
@@ -5951,16 +5948,16 @@
         <v>6844755</v>
       </c>
       <c r="C64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D64" s="2">
         <v>45231.72916666666</v>
       </c>
       <c r="E64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -5969,7 +5966,7 @@
         <v>5</v>
       </c>
       <c r="I64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J64">
         <v>11</v>
@@ -6037,16 +6034,16 @@
         <v>6844762</v>
       </c>
       <c r="C65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D65" s="2">
         <v>45234.39583333334</v>
       </c>
       <c r="E65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6055,7 +6052,7 @@
         <v>3</v>
       </c>
       <c r="I65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J65">
         <v>11</v>
@@ -6123,16 +6120,16 @@
         <v>6844760</v>
       </c>
       <c r="C66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D66" s="2">
         <v>45234.5</v>
       </c>
       <c r="E66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6141,7 +6138,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J66">
         <v>2.35</v>
@@ -6209,16 +6206,16 @@
         <v>6844779</v>
       </c>
       <c r="C67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D67" s="2">
         <v>45235.45833333334</v>
       </c>
       <c r="E67" t="s">
+        <v>35</v>
+      </c>
+      <c r="F67" t="s">
         <v>36</v>
-      </c>
-      <c r="F67" t="s">
-        <v>37</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6227,7 +6224,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J67">
         <v>2.25</v>
@@ -6295,16 +6292,16 @@
         <v>7386217</v>
       </c>
       <c r="C68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D68" s="2">
         <v>45237.69791666666</v>
       </c>
       <c r="E68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6313,7 +6310,7 @@
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J68">
         <v>2.7</v>
@@ -6381,16 +6378,16 @@
         <v>7362684</v>
       </c>
       <c r="C69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D69" s="2">
         <v>45238.69791666666</v>
       </c>
       <c r="E69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -6399,7 +6396,7 @@
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J69">
         <v>2.5</v>
@@ -6467,16 +6464,16 @@
         <v>6844767</v>
       </c>
       <c r="C70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D70" s="2">
         <v>45241.5</v>
       </c>
       <c r="E70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6485,7 +6482,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J70">
         <v>2.625</v>
@@ -6553,16 +6550,16 @@
         <v>6844766</v>
       </c>
       <c r="C71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D71" s="2">
         <v>45241.5</v>
       </c>
       <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
         <v>44</v>
-      </c>
-      <c r="F71" t="s">
-        <v>45</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6571,7 +6568,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J71">
         <v>2.75</v>
@@ -6639,16 +6636,16 @@
         <v>6844765</v>
       </c>
       <c r="C72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D72" s="2">
         <v>45241.5</v>
       </c>
       <c r="E72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6657,7 +6654,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J72">
         <v>2</v>
@@ -6725,16 +6722,16 @@
         <v>6844764</v>
       </c>
       <c r="C73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D73" s="2">
         <v>45241.5</v>
       </c>
       <c r="E73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G73">
         <v>4</v>
@@ -6743,7 +6740,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J73">
         <v>2.4</v>
@@ -6811,16 +6808,16 @@
         <v>6844839</v>
       </c>
       <c r="C74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D74" s="2">
         <v>45242.375</v>
       </c>
       <c r="E74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -6829,7 +6826,7 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J74">
         <v>11</v>
@@ -6897,16 +6894,16 @@
         <v>6845511</v>
       </c>
       <c r="C75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D75" s="2">
         <v>45242.47916666666</v>
       </c>
       <c r="E75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G75">
         <v>6</v>
@@ -6915,7 +6912,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J75">
         <v>1.181</v>
@@ -6983,16 +6980,16 @@
         <v>6844769</v>
       </c>
       <c r="C76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D76" s="2">
         <v>45255.5</v>
       </c>
       <c r="E76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -7001,7 +6998,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J76">
         <v>2.75</v>
@@ -7069,16 +7066,16 @@
         <v>6844772</v>
       </c>
       <c r="C77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D77" s="2">
         <v>45255.5</v>
       </c>
       <c r="E77" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7087,7 +7084,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J77">
         <v>2</v>
@@ -7155,16 +7152,16 @@
         <v>6844771</v>
       </c>
       <c r="C78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D78" s="2">
         <v>45255.5</v>
       </c>
       <c r="E78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -7173,7 +7170,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J78">
         <v>2.6</v>
@@ -7241,16 +7238,16 @@
         <v>6844770</v>
       </c>
       <c r="C79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D79" s="2">
         <v>45255.5</v>
       </c>
       <c r="E79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7259,7 +7256,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J79">
         <v>1.615</v>
@@ -7327,16 +7324,16 @@
         <v>6844768</v>
       </c>
       <c r="C80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D80" s="2">
         <v>45255.5</v>
       </c>
       <c r="E80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7345,7 +7342,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J80">
         <v>1.125</v>
@@ -7413,16 +7410,16 @@
         <v>6845512</v>
       </c>
       <c r="C81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D81" s="2">
         <v>45256.375</v>
       </c>
       <c r="E81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7431,7 +7428,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J81">
         <v>6</v>
@@ -7499,16 +7496,16 @@
         <v>7394319</v>
       </c>
       <c r="C82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D82" s="2">
         <v>45258.69791666666</v>
       </c>
       <c r="E82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7517,7 +7514,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J82">
         <v>2.5</v>
@@ -7585,16 +7582,16 @@
         <v>6844775</v>
       </c>
       <c r="C83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D83" s="2">
         <v>45262.5</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -7603,7 +7600,7 @@
         <v>3</v>
       </c>
       <c r="I83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J83">
         <v>2.15</v>
@@ -7671,16 +7668,16 @@
         <v>6844773</v>
       </c>
       <c r="C84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D84" s="2">
         <v>45262.5</v>
       </c>
       <c r="E84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F84" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -7689,7 +7686,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J84">
         <v>2.45</v>
@@ -7757,16 +7754,16 @@
         <v>6844777</v>
       </c>
       <c r="C85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D85" s="2">
         <v>45263.375</v>
       </c>
       <c r="E85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -7775,7 +7772,7 @@
         <v>3</v>
       </c>
       <c r="I85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J85">
         <v>8.5</v>
@@ -7843,16 +7840,16 @@
         <v>6845513</v>
       </c>
       <c r="C86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D86" s="2">
         <v>45263.5</v>
       </c>
       <c r="E86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G86">
         <v>2</v>
@@ -7861,7 +7858,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J86">
         <v>2</v>
@@ -7929,17 +7926,17 @@
         <v>6844776</v>
       </c>
       <c r="C87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D87" s="2">
         <v>45263.5</v>
       </c>
       <c r="E87" t="s">
+        <v>39</v>
+      </c>
+      <c r="F87" t="s">
         <v>40</v>
       </c>
-      <c r="F87" t="s">
-        <v>41</v>
-      </c>
       <c r="G87">
         <v>2</v>
       </c>
@@ -7947,7 +7944,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J87">
         <v>1.25</v>
@@ -8015,16 +8012,16 @@
         <v>6844780</v>
       </c>
       <c r="C88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D88" s="2">
         <v>45265.69791666666</v>
       </c>
       <c r="E88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F88" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G88">
         <v>3</v>
@@ -8033,7 +8030,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J88">
         <v>2.4</v>
@@ -8101,16 +8098,16 @@
         <v>6845514</v>
       </c>
       <c r="C89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D89" s="2">
         <v>45266.69791666666</v>
       </c>
       <c r="E89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G89">
         <v>4</v>
@@ -8119,7 +8116,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J89">
         <v>1.2</v>
@@ -8187,16 +8184,16 @@
         <v>6844778</v>
       </c>
       <c r="C90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D90" s="2">
         <v>45266.69791666666</v>
       </c>
       <c r="E90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8205,7 +8202,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J90">
         <v>2.25</v>
@@ -8273,16 +8270,16 @@
         <v>6844781</v>
       </c>
       <c r="C91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D91" s="2">
         <v>45266.69791666666</v>
       </c>
       <c r="E91" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8291,7 +8288,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J91">
         <v>2.7</v>
@@ -8359,16 +8356,16 @@
         <v>6845515</v>
       </c>
       <c r="C92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D92" s="2">
         <v>45266.70833333334</v>
       </c>
       <c r="E92" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F92" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8377,7 +8374,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J92">
         <v>6</v>
@@ -8442,22 +8439,22 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6844840</v>
+        <v>6844782</v>
       </c>
       <c r="C93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D93" s="2">
         <v>45269.5</v>
       </c>
       <c r="E93" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8466,61 +8463,61 @@
         <v>47</v>
       </c>
       <c r="J93">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="K93">
+        <v>3.2</v>
+      </c>
+      <c r="L93">
+        <v>3.2</v>
+      </c>
+      <c r="M93">
+        <v>2.25</v>
+      </c>
+      <c r="N93">
+        <v>3.2</v>
+      </c>
+      <c r="O93">
         <v>3.25</v>
       </c>
-      <c r="L93">
-        <v>2.3</v>
-      </c>
-      <c r="M93">
-        <v>3.8</v>
-      </c>
-      <c r="N93">
-        <v>3.3</v>
-      </c>
-      <c r="O93">
-        <v>2</v>
-      </c>
       <c r="P93">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q93">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R93">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S93">
         <v>2.25</v>
       </c>
       <c r="T93">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U93">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V93">
         <v>-1</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X93">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z93">
-        <v>1.05</v>
+        <v>0.4375</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB93">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="94" spans="1:28">
@@ -8528,85 +8525,85 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6844782</v>
+        <v>6844840</v>
       </c>
       <c r="C94" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D94" s="2">
         <v>45269.5</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94">
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J94">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="K94">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L94">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="M94">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="N94">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O94">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="P94">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q94">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="R94">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S94">
         <v>2.25</v>
       </c>
       <c r="T94">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U94">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V94">
         <v>-1</v>
       </c>
       <c r="W94">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.4375</v>
+        <v>1.05</v>
       </c>
       <c r="AA94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:28">
@@ -8614,67 +8611,67 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6844783</v>
+        <v>6845516</v>
       </c>
       <c r="C95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D95" s="2">
         <v>45269.5</v>
       </c>
       <c r="E95" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H95">
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J95">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="K95">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="L95">
-        <v>17</v>
+        <v>2.5</v>
       </c>
       <c r="M95">
-        <v>1.111</v>
+        <v>2.4</v>
       </c>
       <c r="N95">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="O95">
-        <v>21</v>
+        <v>2.875</v>
       </c>
       <c r="P95">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="Q95">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="R95">
+        <v>2.05</v>
+      </c>
+      <c r="S95">
+        <v>2.5</v>
+      </c>
+      <c r="T95">
+        <v>2</v>
+      </c>
+      <c r="U95">
         <v>1.85</v>
       </c>
-      <c r="S95">
-        <v>3.5</v>
-      </c>
-      <c r="T95">
-        <v>1.975</v>
-      </c>
-      <c r="U95">
-        <v>1.875</v>
-      </c>
       <c r="V95">
-        <v>0.111</v>
+        <v>1.4</v>
       </c>
       <c r="W95">
         <v>-1</v>
@@ -8683,13 +8680,13 @@
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z95">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB95">
         <v>-1</v>
@@ -8703,17 +8700,17 @@
         <v>6844785</v>
       </c>
       <c r="C96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D96" s="2">
         <v>45269.5</v>
       </c>
       <c r="E96" t="s">
+        <v>40</v>
+      </c>
+      <c r="F96" t="s">
         <v>41</v>
       </c>
-      <c r="F96" t="s">
-        <v>42</v>
-      </c>
       <c r="G96">
         <v>2</v>
       </c>
@@ -8721,7 +8718,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J96">
         <v>2.1</v>
@@ -8786,67 +8783,67 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6845516</v>
+        <v>6844783</v>
       </c>
       <c r="C97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D97" s="2">
         <v>45269.5</v>
       </c>
       <c r="E97" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F97" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H97">
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J97">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="K97">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="L97">
-        <v>2.5</v>
+        <v>17</v>
       </c>
       <c r="M97">
-        <v>2.4</v>
+        <v>1.111</v>
       </c>
       <c r="N97">
+        <v>9</v>
+      </c>
+      <c r="O97">
+        <v>21</v>
+      </c>
+      <c r="P97">
+        <v>-2.5</v>
+      </c>
+      <c r="Q97">
+        <v>2</v>
+      </c>
+      <c r="R97">
+        <v>1.85</v>
+      </c>
+      <c r="S97">
         <v>3.5</v>
       </c>
-      <c r="O97">
-        <v>2.875</v>
-      </c>
-      <c r="P97">
-        <v>0</v>
-      </c>
-      <c r="Q97">
-        <v>1.75</v>
-      </c>
-      <c r="R97">
-        <v>2.05</v>
-      </c>
-      <c r="S97">
-        <v>2.5</v>
-      </c>
       <c r="T97">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U97">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V97">
-        <v>1.4</v>
+        <v>0.111</v>
       </c>
       <c r="W97">
         <v>-1</v>
@@ -8855,13 +8852,13 @@
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA97">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB97">
         <v>-1</v>
@@ -8875,16 +8872,16 @@
         <v>6844786</v>
       </c>
       <c r="C98" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D98" s="2">
         <v>45270.375</v>
       </c>
       <c r="E98" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -8893,7 +8890,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J98">
         <v>5.5</v>
@@ -8958,10 +8955,10 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6845517</v>
+        <v>6844805</v>
       </c>
       <c r="C99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D99" s="2">
         <v>45276.5</v>
@@ -8970,73 +8967,73 @@
         <v>34</v>
       </c>
       <c r="F99" t="s">
+        <v>38</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99" t="s">
         <v>45</v>
       </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <v>2</v>
-      </c>
-      <c r="I99" t="s">
-        <v>47</v>
-      </c>
       <c r="J99">
-        <v>1.25</v>
+        <v>3.5</v>
       </c>
       <c r="K99">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="L99">
-        <v>10</v>
+        <v>2.1</v>
       </c>
       <c r="M99">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="N99">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="O99">
-        <v>12</v>
+        <v>2.05</v>
       </c>
       <c r="P99">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="Q99">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R99">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S99">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="T99">
+        <v>1.825</v>
+      </c>
+      <c r="U99">
         <v>2.025</v>
       </c>
-      <c r="U99">
-        <v>1.825</v>
-      </c>
       <c r="V99">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z99">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="100" spans="1:28">
@@ -9044,85 +9041,85 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6844805</v>
+        <v>6845517</v>
       </c>
       <c r="C100" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D100" s="2">
         <v>45276.5</v>
       </c>
       <c r="E100" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F100" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="s">
         <v>46</v>
       </c>
       <c r="J100">
+        <v>1.25</v>
+      </c>
+      <c r="K100">
+        <v>6</v>
+      </c>
+      <c r="L100">
+        <v>10</v>
+      </c>
+      <c r="M100">
+        <v>1.2</v>
+      </c>
+      <c r="N100">
+        <v>7</v>
+      </c>
+      <c r="O100">
+        <v>12</v>
+      </c>
+      <c r="P100">
+        <v>-2</v>
+      </c>
+      <c r="Q100">
+        <v>1.95</v>
+      </c>
+      <c r="R100">
+        <v>1.9</v>
+      </c>
+      <c r="S100">
         <v>3.5</v>
       </c>
-      <c r="K100">
-        <v>3.25</v>
-      </c>
-      <c r="L100">
-        <v>2.1</v>
-      </c>
-      <c r="M100">
-        <v>3.6</v>
-      </c>
-      <c r="N100">
-        <v>3.4</v>
-      </c>
-      <c r="O100">
-        <v>2.05</v>
-      </c>
-      <c r="P100">
-        <v>0.5</v>
-      </c>
-      <c r="Q100">
-        <v>1.8</v>
-      </c>
-      <c r="R100">
-        <v>2.05</v>
-      </c>
-      <c r="S100">
-        <v>2.25</v>
-      </c>
       <c r="T100">
+        <v>2.025</v>
+      </c>
+      <c r="U100">
         <v>1.825</v>
       </c>
-      <c r="U100">
-        <v>2.025</v>
-      </c>
       <c r="V100">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="Y100">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9133,16 +9130,16 @@
         <v>6844790</v>
       </c>
       <c r="C101" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D101" s="2">
         <v>45276.5</v>
       </c>
       <c r="E101" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F101" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -9151,7 +9148,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J101">
         <v>2</v>
@@ -9219,16 +9216,16 @@
         <v>6844788</v>
       </c>
       <c r="C102" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D102" s="2">
         <v>45276.5</v>
       </c>
       <c r="E102" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9237,7 +9234,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J102">
         <v>2.2</v>
@@ -9305,17 +9302,17 @@
         <v>6844787</v>
       </c>
       <c r="C103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D103" s="2">
         <v>45276.5</v>
       </c>
       <c r="E103" t="s">
+        <v>36</v>
+      </c>
+      <c r="F103" t="s">
         <v>37</v>
       </c>
-      <c r="F103" t="s">
-        <v>38</v>
-      </c>
       <c r="G103">
         <v>0</v>
       </c>
@@ -9323,7 +9320,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J103">
         <v>3.1</v>
@@ -9391,16 +9388,16 @@
         <v>7451733</v>
       </c>
       <c r="C104" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D104" s="2">
         <v>45280.69791666666</v>
       </c>
       <c r="E104" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9409,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J104">
         <v>1.125</v>
@@ -9477,16 +9474,16 @@
         <v>7451620</v>
       </c>
       <c r="C105" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D105" s="2">
         <v>45280.69791666666</v>
       </c>
       <c r="E105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G105">
         <v>2</v>
@@ -9495,7 +9492,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J105">
         <v>1.727</v>
@@ -9563,16 +9560,16 @@
         <v>6844841</v>
       </c>
       <c r="C106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D106" s="2">
         <v>45283.5</v>
       </c>
       <c r="E106" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -9581,7 +9578,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J106">
         <v>1.125</v>
@@ -9649,16 +9646,16 @@
         <v>6844793</v>
       </c>
       <c r="C107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D107" s="2">
         <v>45283.5</v>
       </c>
       <c r="E107" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G107">
         <v>2</v>
@@ -9667,7 +9664,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J107">
         <v>1.666</v>
@@ -9735,25 +9732,25 @@
         <v>6844792</v>
       </c>
       <c r="C108" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D108" s="2">
         <v>45283.5</v>
       </c>
       <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>40</v>
+      </c>
+      <c r="G108">
+        <v>2</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108" t="s">
         <v>45</v>
-      </c>
-      <c r="F108" t="s">
-        <v>41</v>
-      </c>
-      <c r="G108">
-        <v>2</v>
-      </c>
-      <c r="H108">
-        <v>0</v>
-      </c>
-      <c r="I108" t="s">
-        <v>46</v>
       </c>
       <c r="J108">
         <v>1.909</v>
@@ -9821,16 +9818,16 @@
         <v>6844794</v>
       </c>
       <c r="C109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D109" s="2">
         <v>45284.375</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F109" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -9839,7 +9836,7 @@
         <v>2</v>
       </c>
       <c r="I109" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J109">
         <v>9.5</v>
@@ -9907,16 +9904,16 @@
         <v>6844797</v>
       </c>
       <c r="C110" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D110" s="2">
         <v>45286.5</v>
       </c>
       <c r="E110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -9925,7 +9922,7 @@
         <v>3</v>
       </c>
       <c r="I110" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J110">
         <v>9</v>
@@ -9993,16 +9990,16 @@
         <v>6844800</v>
       </c>
       <c r="C111" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D111" s="2">
         <v>45287.69791666666</v>
       </c>
       <c r="E111" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F111" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -10011,7 +10008,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J111">
         <v>2.5</v>
@@ -10079,16 +10076,16 @@
         <v>6844798</v>
       </c>
       <c r="C112" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D112" s="2">
         <v>45287.69791666666</v>
       </c>
       <c r="E112" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -10097,7 +10094,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J112">
         <v>2.45</v>
@@ -10165,16 +10162,16 @@
         <v>6845534</v>
       </c>
       <c r="C113" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D113" s="2">
         <v>45287.70833333334</v>
       </c>
       <c r="E113" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F113" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10183,7 +10180,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J113">
         <v>2.3</v>
@@ -10251,16 +10248,16 @@
         <v>6845519</v>
       </c>
       <c r="C114" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D114" s="2">
         <v>45290.39583333334</v>
       </c>
       <c r="E114" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F114" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -10269,7 +10266,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J114">
         <v>2.1</v>
@@ -10334,82 +10331,82 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6844803</v>
+        <v>6844804</v>
       </c>
       <c r="C115" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D115" s="2">
         <v>45290.5</v>
       </c>
       <c r="E115" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F115" t="s">
         <v>36</v>
       </c>
       <c r="G115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J115">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="K115">
         <v>3.5</v>
       </c>
       <c r="L115">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="M115">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="N115">
+        <v>3.25</v>
+      </c>
+      <c r="O115">
         <v>3.75</v>
       </c>
-      <c r="O115">
-        <v>4.75</v>
-      </c>
       <c r="P115">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q115">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="R115">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S115">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T115">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="U115">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V115">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W115">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z115">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB115">
         <v>-1</v>
@@ -10420,82 +10417,82 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6844802</v>
+        <v>6844801</v>
       </c>
       <c r="C116" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D116" s="2">
         <v>45290.5</v>
       </c>
       <c r="E116" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F116" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I116" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J116">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="K116">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L116">
+        <v>3.5</v>
+      </c>
+      <c r="M116">
+        <v>1.8</v>
+      </c>
+      <c r="N116">
+        <v>3.5</v>
+      </c>
+      <c r="O116">
         <v>5</v>
-      </c>
-      <c r="M116">
-        <v>1.615</v>
-      </c>
-      <c r="N116">
-        <v>4</v>
-      </c>
-      <c r="O116">
-        <v>5.25</v>
       </c>
       <c r="P116">
         <v>-0.75</v>
       </c>
       <c r="Q116">
+        <v>2.05</v>
+      </c>
+      <c r="R116">
         <v>1.8</v>
       </c>
-      <c r="R116">
-        <v>2.05</v>
-      </c>
       <c r="S116">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T116">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U116">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V116">
         <v>-1</v>
       </c>
       <c r="W116">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AA116">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB116">
         <v>-1</v>
@@ -10506,82 +10503,82 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6844801</v>
+        <v>6844802</v>
       </c>
       <c r="C117" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D117" s="2">
         <v>45290.5</v>
       </c>
       <c r="E117" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F117" t="s">
         <v>41</v>
       </c>
       <c r="G117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117" t="s">
         <v>47</v>
       </c>
       <c r="J117">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="K117">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L117">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M117">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="N117">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O117">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="P117">
         <v>-0.75</v>
       </c>
       <c r="Q117">
+        <v>1.8</v>
+      </c>
+      <c r="R117">
         <v>2.05</v>
       </c>
-      <c r="R117">
-        <v>1.8</v>
-      </c>
       <c r="S117">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T117">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U117">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V117">
         <v>-1</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X117">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AA117">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB117">
         <v>-1</v>
@@ -10592,82 +10589,82 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6844804</v>
+        <v>6844803</v>
       </c>
       <c r="C118" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D118" s="2">
         <v>45290.5</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J118">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="K118">
         <v>3.5</v>
       </c>
       <c r="L118">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="M118">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="N118">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="O118">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P118">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q118">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R118">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S118">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T118">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="U118">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V118">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA118">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB118">
         <v>-1</v>
@@ -10681,16 +10678,16 @@
         <v>6844807</v>
       </c>
       <c r="C119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D119" s="2">
         <v>45293.5</v>
       </c>
       <c r="E119" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F119" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G119">
         <v>2</v>
@@ -10699,7 +10696,7 @@
         <v>2</v>
       </c>
       <c r="I119" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J119">
         <v>1.8</v>
@@ -10764,82 +10761,82 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6844809</v>
+        <v>6844808</v>
       </c>
       <c r="C120" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D120" s="2">
         <v>45293.5</v>
       </c>
       <c r="E120" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F120" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120" t="s">
+        <v>45</v>
+      </c>
+      <c r="J120">
+        <v>1.25</v>
+      </c>
+      <c r="K120">
+        <v>5.5</v>
+      </c>
+      <c r="L120">
+        <v>12</v>
+      </c>
+      <c r="M120">
+        <v>1.222</v>
+      </c>
+      <c r="N120">
+        <v>7</v>
+      </c>
+      <c r="O120">
+        <v>11</v>
+      </c>
+      <c r="P120">
+        <v>-1.75</v>
+      </c>
+      <c r="Q120">
+        <v>1.825</v>
+      </c>
+      <c r="R120">
+        <v>2.025</v>
+      </c>
+      <c r="S120">
         <v>3</v>
       </c>
-      <c r="I120" t="s">
-        <v>47</v>
-      </c>
-      <c r="J120">
-        <v>3</v>
-      </c>
-      <c r="K120">
-        <v>3.4</v>
-      </c>
-      <c r="L120">
-        <v>2.3</v>
-      </c>
-      <c r="M120">
-        <v>3.25</v>
-      </c>
-      <c r="N120">
-        <v>3.3</v>
-      </c>
-      <c r="O120">
-        <v>2.3</v>
-      </c>
-      <c r="P120">
-        <v>0.25</v>
-      </c>
-      <c r="Q120">
+      <c r="T120">
+        <v>2</v>
+      </c>
+      <c r="U120">
         <v>1.85</v>
       </c>
-      <c r="R120">
-        <v>2</v>
-      </c>
-      <c r="S120">
-        <v>2.25</v>
-      </c>
-      <c r="T120">
-        <v>1.8</v>
-      </c>
-      <c r="U120">
-        <v>2.05</v>
-      </c>
       <c r="V120">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="Z120">
+        <v>-0.5</v>
+      </c>
+      <c r="AA120">
         <v>1</v>
-      </c>
-      <c r="AA120">
-        <v>0.8</v>
       </c>
       <c r="AB120">
         <v>-1</v>
@@ -10850,82 +10847,82 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6844808</v>
+        <v>6844809</v>
       </c>
       <c r="C121" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D121" s="2">
         <v>45293.5</v>
       </c>
       <c r="E121" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F121" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
         <v>3</v>
-      </c>
-      <c r="H121">
-        <v>1</v>
       </c>
       <c r="I121" t="s">
         <v>46</v>
       </c>
       <c r="J121">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="K121">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="L121">
-        <v>12</v>
+        <v>2.3</v>
       </c>
       <c r="M121">
-        <v>1.222</v>
+        <v>3.25</v>
       </c>
       <c r="N121">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="O121">
-        <v>11</v>
+        <v>2.3</v>
       </c>
       <c r="P121">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q121">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="R121">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S121">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T121">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U121">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V121">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y121">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA121">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB121">
         <v>-1</v>
@@ -10939,16 +10936,16 @@
         <v>6844842</v>
       </c>
       <c r="C122" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D122" s="2">
         <v>45293.5</v>
       </c>
       <c r="E122" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F122" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10957,7 +10954,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J122">
         <v>3.25</v>
@@ -11025,16 +11022,16 @@
         <v>6844810</v>
       </c>
       <c r="C123" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D123" s="2">
         <v>45293.58333333334</v>
       </c>
       <c r="E123" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F123" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11043,7 +11040,7 @@
         <v>3</v>
       </c>
       <c r="I123" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J123">
         <v>9</v>
@@ -11111,16 +11108,16 @@
         <v>7453037</v>
       </c>
       <c r="C124" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D124" s="2">
         <v>45314.69791666666</v>
       </c>
       <c r="E124" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G124">
         <v>3</v>
@@ -11129,7 +11126,7 @@
         <v>2</v>
       </c>
       <c r="I124" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J124">
         <v>1.666</v>
@@ -11197,16 +11194,16 @@
         <v>7452337</v>
       </c>
       <c r="C125" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D125" s="2">
         <v>45315.69791666666</v>
       </c>
       <c r="E125" t="s">
+        <v>38</v>
+      </c>
+      <c r="F125" t="s">
         <v>39</v>
-      </c>
-      <c r="F125" t="s">
-        <v>40</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -11215,7 +11212,7 @@
         <v>3</v>
       </c>
       <c r="I125" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J125">
         <v>7</v>
@@ -11283,16 +11280,16 @@
         <v>7452605</v>
       </c>
       <c r="C126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D126" s="2">
         <v>45315.69791666666</v>
       </c>
       <c r="E126" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F126" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11301,7 +11298,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J126">
         <v>3.75</v>
@@ -11369,16 +11366,16 @@
         <v>6844815</v>
       </c>
       <c r="C127" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D127" s="2">
         <v>45318.39583333334</v>
       </c>
       <c r="E127" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F127" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -11387,7 +11384,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J127">
         <v>7.5</v>
@@ -11455,16 +11452,16 @@
         <v>6844811</v>
       </c>
       <c r="C128" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D128" s="2">
         <v>45318.5</v>
       </c>
       <c r="E128" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F128" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11473,7 +11470,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J128">
         <v>1.125</v>
@@ -11541,17 +11538,17 @@
         <v>6844812</v>
       </c>
       <c r="C129" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D129" s="2">
         <v>45318.5</v>
       </c>
       <c r="E129" t="s">
+        <v>37</v>
+      </c>
+      <c r="F129" t="s">
         <v>38</v>
       </c>
-      <c r="F129" t="s">
-        <v>39</v>
-      </c>
       <c r="G129">
         <v>2</v>
       </c>
@@ -11559,7 +11556,7 @@
         <v>2</v>
       </c>
       <c r="I129" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J129">
         <v>2.2</v>
@@ -11627,16 +11624,16 @@
         <v>6844813</v>
       </c>
       <c r="C130" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D130" s="2">
         <v>45318.5</v>
       </c>
       <c r="E130" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F130" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -11645,7 +11642,7 @@
         <v>4</v>
       </c>
       <c r="I130" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J130">
         <v>3</v>
@@ -11713,16 +11710,16 @@
         <v>6844814</v>
       </c>
       <c r="C131" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D131" s="2">
         <v>45318.5</v>
       </c>
       <c r="E131" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F131" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -11731,7 +11728,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J131">
         <v>2.375</v>
@@ -11799,25 +11796,25 @@
         <v>6845520</v>
       </c>
       <c r="C132" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D132" s="2">
         <v>45318.5</v>
       </c>
       <c r="E132" t="s">
+        <v>44</v>
+      </c>
+      <c r="F132" t="s">
+        <v>42</v>
+      </c>
+      <c r="G132">
+        <v>2</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132" t="s">
         <v>45</v>
-      </c>
-      <c r="F132" t="s">
-        <v>43</v>
-      </c>
-      <c r="G132">
-        <v>2</v>
-      </c>
-      <c r="H132">
-        <v>0</v>
-      </c>
-      <c r="I132" t="s">
-        <v>46</v>
       </c>
       <c r="J132">
         <v>2.2</v>
@@ -11885,16 +11882,16 @@
         <v>7572459</v>
       </c>
       <c r="C133" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D133" s="2">
         <v>45321.69791666666</v>
       </c>
       <c r="E133" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G133">
         <v>2</v>
@@ -11903,7 +11900,7 @@
         <v>2</v>
       </c>
       <c r="I133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J133">
         <v>2.5</v>
@@ -11971,16 +11968,16 @@
         <v>7668001</v>
       </c>
       <c r="C134" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D134" s="2">
         <v>45321.69791666666</v>
       </c>
       <c r="E134" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F134" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11989,7 +11986,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J134">
         <v>1.75</v>
@@ -12057,16 +12054,16 @@
         <v>6845521</v>
       </c>
       <c r="C135" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D135" s="2">
         <v>45325.39583333334</v>
       </c>
       <c r="E135" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -12075,7 +12072,7 @@
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J135">
         <v>8</v>
@@ -12143,16 +12140,16 @@
         <v>6844817</v>
       </c>
       <c r="C136" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D136" s="2">
         <v>45325.5</v>
       </c>
       <c r="E136" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F136" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12161,7 +12158,7 @@
         <v>3</v>
       </c>
       <c r="I136" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J136">
         <v>1.909</v>
@@ -12229,16 +12226,16 @@
         <v>6844816</v>
       </c>
       <c r="C137" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D137" s="2">
         <v>45325.5</v>
       </c>
       <c r="E137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F137" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G137">
         <v>2</v>
@@ -12247,7 +12244,7 @@
         <v>3</v>
       </c>
       <c r="I137" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J137">
         <v>2.875</v>
@@ -12312,85 +12309,85 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6844843</v>
+        <v>6844818</v>
       </c>
       <c r="C138" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D138" s="2">
         <v>45325.5</v>
       </c>
       <c r="E138" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F138" t="s">
         <v>37</v>
       </c>
       <c r="G138">
+        <v>1</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="I138" t="s">
+        <v>47</v>
+      </c>
+      <c r="J138">
+        <v>3.4</v>
+      </c>
+      <c r="K138">
+        <v>3.25</v>
+      </c>
+      <c r="L138">
+        <v>2.15</v>
+      </c>
+      <c r="M138">
+        <v>2.875</v>
+      </c>
+      <c r="N138">
         <v>3</v>
       </c>
-      <c r="H138">
-        <v>0</v>
-      </c>
-      <c r="I138" t="s">
-        <v>46</v>
-      </c>
-      <c r="J138">
-        <v>1.111</v>
-      </c>
-      <c r="K138">
-        <v>9</v>
-      </c>
-      <c r="L138">
-        <v>19</v>
-      </c>
-      <c r="M138">
-        <v>1.083</v>
-      </c>
-      <c r="N138">
-        <v>10</v>
-      </c>
       <c r="O138">
-        <v>23</v>
+        <v>2.55</v>
       </c>
       <c r="P138">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="Q138">
+        <v>2.1</v>
+      </c>
+      <c r="R138">
+        <v>1.775</v>
+      </c>
+      <c r="S138">
+        <v>2.25</v>
+      </c>
+      <c r="T138">
         <v>2.025</v>
       </c>
-      <c r="R138">
+      <c r="U138">
         <v>1.825</v>
       </c>
-      <c r="S138">
-        <v>3.25</v>
-      </c>
-      <c r="T138">
-        <v>1.95</v>
-      </c>
-      <c r="U138">
-        <v>1.9</v>
-      </c>
       <c r="V138">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA138">
         <v>-0.5</v>
       </c>
       <c r="AB138">
-        <v>0.45</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="139" spans="1:28">
@@ -12398,85 +12395,85 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6844818</v>
+        <v>6844819</v>
       </c>
       <c r="C139" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D139" s="2">
         <v>45325.5</v>
       </c>
       <c r="E139" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F139" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H139">
         <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J139">
+        <v>2.3</v>
+      </c>
+      <c r="K139">
+        <v>3</v>
+      </c>
+      <c r="L139">
         <v>3.4</v>
       </c>
-      <c r="K139">
-        <v>3.25</v>
-      </c>
-      <c r="L139">
-        <v>2.15</v>
-      </c>
       <c r="M139">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="N139">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O139">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="P139">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q139">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="R139">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S139">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T139">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U139">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V139">
         <v>-1</v>
       </c>
       <c r="W139">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y139">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA139">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:28">
@@ -12484,85 +12481,85 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6844819</v>
+        <v>6844843</v>
       </c>
       <c r="C140" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D140" s="2">
         <v>45325.5</v>
       </c>
       <c r="E140" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G140">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J140">
-        <v>2.3</v>
+        <v>1.111</v>
       </c>
       <c r="K140">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L140">
-        <v>3.4</v>
+        <v>19</v>
       </c>
       <c r="M140">
-        <v>2.3</v>
+        <v>1.083</v>
       </c>
       <c r="N140">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="O140">
-        <v>3.4</v>
+        <v>23</v>
       </c>
       <c r="P140">
-        <v>-0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="Q140">
+        <v>2.025</v>
+      </c>
+      <c r="R140">
+        <v>1.825</v>
+      </c>
+      <c r="S140">
+        <v>3.25</v>
+      </c>
+      <c r="T140">
         <v>1.95</v>
       </c>
-      <c r="R140">
+      <c r="U140">
         <v>1.9</v>
       </c>
-      <c r="S140">
-        <v>2</v>
-      </c>
-      <c r="T140">
-        <v>1.85</v>
-      </c>
-      <c r="U140">
-        <v>2</v>
-      </c>
       <c r="V140">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="W140">
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z140">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB140">
-        <v>1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="141" spans="1:28">
@@ -12573,16 +12570,16 @@
         <v>6844820</v>
       </c>
       <c r="C141" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D141" s="2">
         <v>45328.69791666666</v>
       </c>
       <c r="E141" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F141" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G141">
         <v>5</v>
@@ -12591,7 +12588,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J141">
         <v>2.1</v>
@@ -12659,16 +12656,16 @@
         <v>6845523</v>
       </c>
       <c r="C142" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D142" s="2">
         <v>45328.70833333334</v>
       </c>
       <c r="E142" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -12677,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J142">
         <v>1.285</v>
@@ -12745,16 +12742,16 @@
         <v>6844844</v>
       </c>
       <c r="C143" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D143" s="2">
         <v>45329.69791666666</v>
       </c>
       <c r="E143" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -12763,7 +12760,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J143">
         <v>1.533</v>
@@ -12828,85 +12825,85 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6844822</v>
+        <v>6844821</v>
       </c>
       <c r="C144" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D144" s="2">
         <v>45329.69791666666</v>
       </c>
       <c r="E144" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" t="s">
         <v>46</v>
       </c>
       <c r="J144">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="K144">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L144">
-        <v>3.1</v>
+        <v>1.952</v>
       </c>
       <c r="M144">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N144">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="O144">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="P144">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q144">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R144">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S144">
         <v>2.25</v>
       </c>
       <c r="T144">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U144">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V144">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y144">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="145" spans="1:28">
@@ -12914,85 +12911,85 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6844821</v>
+        <v>6844822</v>
       </c>
       <c r="C145" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D145" s="2">
         <v>45329.69791666666</v>
       </c>
       <c r="E145" t="s">
+        <v>40</v>
+      </c>
+      <c r="F145" t="s">
         <v>35</v>
       </c>
-      <c r="F145" t="s">
+      <c r="G145">
+        <v>2</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145" t="s">
         <v>45</v>
       </c>
-      <c r="G145">
-        <v>0</v>
-      </c>
-      <c r="H145">
-        <v>1</v>
-      </c>
-      <c r="I145" t="s">
-        <v>47</v>
-      </c>
       <c r="J145">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="K145">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L145">
-        <v>1.952</v>
+        <v>3.1</v>
       </c>
       <c r="M145">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N145">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="O145">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="P145">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q145">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R145">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S145">
         <v>2.25</v>
       </c>
       <c r="T145">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U145">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V145">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z145">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB145">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="146" spans="1:28">
@@ -13003,16 +13000,16 @@
         <v>6845522</v>
       </c>
       <c r="C146" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D146" s="2">
         <v>45329.70833333334</v>
       </c>
       <c r="E146" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F146" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13021,7 +13018,7 @@
         <v>2</v>
       </c>
       <c r="I146" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J146">
         <v>8.5</v>
@@ -13089,16 +13086,16 @@
         <v>7803746</v>
       </c>
       <c r="C147" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D147" s="2">
         <v>45333.45833333334</v>
       </c>
       <c r="E147" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F147" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G147">
         <v>2</v>
@@ -13107,7 +13104,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J147">
         <v>2</v>
@@ -13175,16 +13172,16 @@
         <v>7667636</v>
       </c>
       <c r="C148" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D148" s="2">
         <v>45336.69791666666</v>
       </c>
       <c r="E148" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F148" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G148">
         <v>3</v>
@@ -13193,7 +13190,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J148">
         <v>1.1</v>
@@ -13261,16 +13258,16 @@
         <v>7667637</v>
       </c>
       <c r="C149" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D149" s="2">
         <v>45336.69791666666</v>
       </c>
       <c r="E149" t="s">
+        <v>42</v>
+      </c>
+      <c r="F149" t="s">
         <v>43</v>
-      </c>
-      <c r="F149" t="s">
-        <v>44</v>
       </c>
       <c r="G149">
         <v>3</v>
@@ -13279,7 +13276,7 @@
         <v>3</v>
       </c>
       <c r="I149" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J149">
         <v>1.85</v>
@@ -13347,16 +13344,16 @@
         <v>6852273</v>
       </c>
       <c r="C150" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D150" s="2">
         <v>45339.5</v>
       </c>
       <c r="E150" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F150" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -13365,7 +13362,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J150">
         <v>2.875</v>
@@ -13433,16 +13430,16 @@
         <v>6845525</v>
       </c>
       <c r="C151" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D151" s="2">
         <v>45339.5</v>
       </c>
       <c r="E151" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F151" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13451,7 +13448,7 @@
         <v>1</v>
       </c>
       <c r="I151" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J151">
         <v>1.222</v>
@@ -13519,16 +13516,16 @@
         <v>6845524</v>
       </c>
       <c r="C152" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D152" s="2">
         <v>45339.5</v>
       </c>
       <c r="E152" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -13537,7 +13534,7 @@
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J152">
         <v>2.1</v>
@@ -13605,25 +13602,25 @@
         <v>6844824</v>
       </c>
       <c r="C153" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D153" s="2">
         <v>45339.5</v>
       </c>
       <c r="E153" t="s">
+        <v>44</v>
+      </c>
+      <c r="F153" t="s">
+        <v>43</v>
+      </c>
+      <c r="G153">
+        <v>2</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153" t="s">
         <v>45</v>
-      </c>
-      <c r="F153" t="s">
-        <v>44</v>
-      </c>
-      <c r="G153">
-        <v>2</v>
-      </c>
-      <c r="H153">
-        <v>0</v>
-      </c>
-      <c r="I153" t="s">
-        <v>46</v>
       </c>
       <c r="J153">
         <v>1.8</v>
@@ -13691,16 +13688,16 @@
         <v>6844823</v>
       </c>
       <c r="C154" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D154" s="2">
         <v>45339.5</v>
       </c>
       <c r="E154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F154" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G154">
         <v>2</v>
@@ -13709,7 +13706,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J154">
         <v>1.833</v>
@@ -13777,16 +13774,16 @@
         <v>6845526</v>
       </c>
       <c r="C155" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D155" s="2">
         <v>45340.375</v>
       </c>
       <c r="E155" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F155" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13795,7 +13792,7 @@
         <v>3</v>
       </c>
       <c r="I155" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J155">
         <v>11</v>
@@ -13863,16 +13860,16 @@
         <v>6845527</v>
       </c>
       <c r="C156" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D156" s="2">
         <v>45346.5</v>
       </c>
       <c r="E156" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F156" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G156">
         <v>2</v>
@@ -13881,7 +13878,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J156">
         <v>2.05</v>
@@ -13946,10 +13943,10 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6845535</v>
+        <v>6845528</v>
       </c>
       <c r="C157" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D157" s="2">
         <v>45346.5</v>
@@ -13958,46 +13955,46 @@
         <v>39</v>
       </c>
       <c r="F157" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G157">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J157">
-        <v>1.833</v>
+        <v>1.3</v>
       </c>
       <c r="K157">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="L157">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M157">
-        <v>1.909</v>
+        <v>1.285</v>
       </c>
       <c r="N157">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="O157">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P157">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="Q157">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R157">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S157">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T157">
         <v>1.9</v>
@@ -14006,7 +14003,7 @@
         <v>1.95</v>
       </c>
       <c r="V157">
-        <v>0.909</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="W157">
         <v>-1</v>
@@ -14015,16 +14012,16 @@
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="Z157">
         <v>-1</v>
       </c>
       <c r="AA157">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB157">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:28">
@@ -14032,10 +14029,10 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6921112</v>
+        <v>6921111</v>
       </c>
       <c r="C158" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D158" s="2">
         <v>45346.5</v>
@@ -14044,46 +14041,46 @@
         <v>41</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G158">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J158">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="K158">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="L158">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M158">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="N158">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O158">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="P158">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q158">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="R158">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S158">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T158">
         <v>1.95</v>
@@ -14092,7 +14089,7 @@
         <v>1.9</v>
       </c>
       <c r="V158">
-        <v>0.8</v>
+        <v>1.375</v>
       </c>
       <c r="W158">
         <v>-1</v>
@@ -14101,16 +14098,16 @@
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="Z158">
         <v>-1</v>
       </c>
       <c r="AA158">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AB158">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:28">
@@ -14118,58 +14115,58 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6921111</v>
+        <v>6921112</v>
       </c>
       <c r="C159" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D159" s="2">
         <v>45346.5</v>
       </c>
       <c r="E159" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F159" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G159">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J159">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="K159">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="L159">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M159">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="N159">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O159">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="P159">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q159">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="R159">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S159">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T159">
         <v>1.95</v>
@@ -14178,7 +14175,7 @@
         <v>1.9</v>
       </c>
       <c r="V159">
-        <v>1.375</v>
+        <v>0.8</v>
       </c>
       <c r="W159">
         <v>-1</v>
@@ -14187,16 +14184,16 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:28">
@@ -14204,58 +14201,58 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6845528</v>
+        <v>6845535</v>
       </c>
       <c r="C160" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D160" s="2">
         <v>45346.5</v>
       </c>
       <c r="E160" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F160" t="s">
+        <v>35</v>
+      </c>
+      <c r="G160">
+        <v>2</v>
+      </c>
+      <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="I160" t="s">
         <v>45</v>
       </c>
-      <c r="G160">
-        <v>5</v>
-      </c>
-      <c r="H160">
-        <v>0</v>
-      </c>
-      <c r="I160" t="s">
-        <v>46</v>
-      </c>
       <c r="J160">
-        <v>1.3</v>
+        <v>1.833</v>
       </c>
       <c r="K160">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="L160">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M160">
-        <v>1.285</v>
+        <v>1.909</v>
       </c>
       <c r="N160">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="O160">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P160">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q160">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R160">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S160">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T160">
         <v>1.9</v>
@@ -14264,7 +14261,7 @@
         <v>1.95</v>
       </c>
       <c r="V160">
-        <v>0.2849999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="W160">
         <v>-1</v>
@@ -14273,16 +14270,16 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="Z160">
         <v>-1</v>
       </c>
       <c r="AA160">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="161" spans="1:28">
@@ -14293,16 +14290,16 @@
         <v>6852297</v>
       </c>
       <c r="C161" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D161" s="2">
         <v>45347.375</v>
       </c>
       <c r="E161" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F161" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14311,7 +14308,7 @@
         <v>3</v>
       </c>
       <c r="I161" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J161">
         <v>10</v>
@@ -14379,16 +14376,16 @@
         <v>6958698</v>
       </c>
       <c r="C162" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D162" s="2">
         <v>45349.70833333334</v>
       </c>
       <c r="E162" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F162" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -14397,7 +14394,7 @@
         <v>1</v>
       </c>
       <c r="I162" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J162">
         <v>2.9</v>
@@ -14465,16 +14462,16 @@
         <v>6957560</v>
       </c>
       <c r="C163" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D163" s="2">
         <v>45350.69791666666</v>
       </c>
       <c r="E163" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F163" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14483,7 +14480,7 @@
         <v>2</v>
       </c>
       <c r="I163" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J163">
         <v>6</v>
@@ -14551,16 +14548,16 @@
         <v>6956501</v>
       </c>
       <c r="C164" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D164" s="2">
         <v>45350.69791666666</v>
       </c>
       <c r="E164" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F164" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G164">
         <v>7</v>
@@ -14569,7 +14566,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J164">
         <v>1.2</v>
@@ -14637,16 +14634,16 @@
         <v>6845536</v>
       </c>
       <c r="C165" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D165" s="2">
         <v>45350.69791666666</v>
       </c>
       <c r="E165" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F165" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -14655,7 +14652,7 @@
         <v>1</v>
       </c>
       <c r="I165" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J165">
         <v>1.9</v>
@@ -14723,16 +14720,16 @@
         <v>6845529</v>
       </c>
       <c r="C166" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D166" s="2">
         <v>45350.69791666666</v>
       </c>
       <c r="E166" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F166" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -14741,7 +14738,7 @@
         <v>2</v>
       </c>
       <c r="I166" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J166">
         <v>1.65</v>
@@ -14809,16 +14806,16 @@
         <v>6957814</v>
       </c>
       <c r="C167" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D167" s="2">
         <v>45350.70833333334</v>
       </c>
       <c r="E167" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F167" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -14827,7 +14824,7 @@
         <v>3</v>
       </c>
       <c r="I167" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J167">
         <v>2.75</v>
@@ -14892,49 +14889,49 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6975475</v>
+        <v>6979650</v>
       </c>
       <c r="C168" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D168" s="2">
         <v>45353.5</v>
       </c>
       <c r="E168" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F168" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J168">
-        <v>2.25</v>
+        <v>1.1</v>
       </c>
       <c r="K168">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="L168">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="M168">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="N168">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="O168">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P168">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q168">
         <v>1.85</v>
@@ -14943,34 +14940,34 @@
         <v>2</v>
       </c>
       <c r="S168">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="T168">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U168">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V168">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W168">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z168">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="169" spans="1:28">
@@ -14978,49 +14975,49 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6979650</v>
+        <v>6975475</v>
       </c>
       <c r="C169" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D169" s="2">
         <v>45353.5</v>
       </c>
       <c r="E169" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F169" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J169">
-        <v>1.1</v>
+        <v>2.25</v>
       </c>
       <c r="K169">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="L169">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="M169">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="N169">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="O169">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P169">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q169">
         <v>1.85</v>
@@ -15029,34 +15026,34 @@
         <v>2</v>
       </c>
       <c r="S169">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="T169">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U169">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V169">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W169">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X169">
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="Z169">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA169">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB169">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="170" spans="1:28">
@@ -15067,16 +15064,16 @@
         <v>6979649</v>
       </c>
       <c r="C170" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D170" s="2">
         <v>45353.5</v>
       </c>
       <c r="E170" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F170" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G170">
         <v>2</v>
@@ -15085,7 +15082,7 @@
         <v>2</v>
       </c>
       <c r="I170" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J170">
         <v>2.25</v>
@@ -15150,85 +15147,85 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6845530</v>
+        <v>6979330</v>
       </c>
       <c r="C171" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D171" s="2">
         <v>45353.5</v>
       </c>
       <c r="E171" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F171" t="s">
         <v>43</v>
       </c>
       <c r="G171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171" t="s">
         <v>46</v>
       </c>
       <c r="J171">
-        <v>2.4</v>
+        <v>1.166</v>
       </c>
       <c r="K171">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="L171">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="M171">
-        <v>2.3</v>
+        <v>1.142</v>
       </c>
       <c r="N171">
+        <v>9</v>
+      </c>
+      <c r="O171">
+        <v>15</v>
+      </c>
+      <c r="P171">
+        <v>-2</v>
+      </c>
+      <c r="Q171">
+        <v>1.85</v>
+      </c>
+      <c r="R171">
+        <v>2</v>
+      </c>
+      <c r="S171">
         <v>3.25</v>
       </c>
-      <c r="O171">
-        <v>3.1</v>
-      </c>
-      <c r="P171">
-        <v>-0.25</v>
-      </c>
-      <c r="Q171">
-        <v>2.025</v>
-      </c>
-      <c r="R171">
-        <v>1.825</v>
-      </c>
-      <c r="S171">
-        <v>2</v>
-      </c>
       <c r="T171">
+        <v>2.05</v>
+      </c>
+      <c r="U171">
         <v>1.8</v>
       </c>
-      <c r="U171">
-        <v>2.05</v>
-      </c>
       <c r="V171">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="W171">
         <v>-1</v>
       </c>
       <c r="X171">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="Y171">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA171">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="172" spans="1:28">
@@ -15236,10 +15233,10 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6979330</v>
+        <v>6845530</v>
       </c>
       <c r="C172" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D172" s="2">
         <v>45353.5</v>
@@ -15248,73 +15245,73 @@
         <v>40</v>
       </c>
       <c r="F172" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G172">
+        <v>2</v>
+      </c>
+      <c r="H172">
         <v>1</v>
       </c>
-      <c r="H172">
-        <v>2</v>
-      </c>
       <c r="I172" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J172">
-        <v>1.166</v>
+        <v>2.4</v>
       </c>
       <c r="K172">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="L172">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="M172">
-        <v>1.142</v>
+        <v>2.3</v>
       </c>
       <c r="N172">
-        <v>9</v>
+        <v>3.25</v>
       </c>
       <c r="O172">
-        <v>15</v>
+        <v>3.1</v>
       </c>
       <c r="P172">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="Q172">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="R172">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S172">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="T172">
+        <v>1.8</v>
+      </c>
+      <c r="U172">
         <v>2.05</v>
       </c>
-      <c r="U172">
-        <v>1.8</v>
-      </c>
       <c r="V172">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="W172">
         <v>-1</v>
       </c>
       <c r="X172">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z172">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB172">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:28">
@@ -15325,25 +15322,25 @@
         <v>6845537</v>
       </c>
       <c r="C173" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D173" s="2">
         <v>45354.375</v>
       </c>
       <c r="E173" t="s">
+        <v>44</v>
+      </c>
+      <c r="F173" t="s">
+        <v>33</v>
+      </c>
+      <c r="G173">
+        <v>2</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173" t="s">
         <v>45</v>
-      </c>
-      <c r="F173" t="s">
-        <v>34</v>
-      </c>
-      <c r="G173">
-        <v>2</v>
-      </c>
-      <c r="H173">
-        <v>0</v>
-      </c>
-      <c r="I173" t="s">
-        <v>46</v>
       </c>
       <c r="J173">
         <v>5.5</v>
@@ -15411,16 +15408,16 @@
         <v>7667639</v>
       </c>
       <c r="C174" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D174" s="2">
         <v>45364.69791666666</v>
       </c>
       <c r="E174" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F174" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15429,7 +15426,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J174">
         <v>2.25</v>
@@ -15497,16 +15494,16 @@
         <v>7667638</v>
       </c>
       <c r="C175" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D175" s="2">
         <v>45364.69791666666</v>
       </c>
       <c r="E175" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F175" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G175">
         <v>2</v>
@@ -15515,7 +15512,7 @@
         <v>2</v>
       </c>
       <c r="I175" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J175">
         <v>2.9</v>
@@ -15583,16 +15580,16 @@
         <v>6845538</v>
       </c>
       <c r="C176" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D176" s="2">
         <v>45367.5</v>
       </c>
       <c r="E176" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F176" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G176">
         <v>2</v>
@@ -15601,7 +15598,7 @@
         <v>1</v>
       </c>
       <c r="I176" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J176">
         <v>4.2</v>
@@ -15666,67 +15663,67 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6995240</v>
+        <v>6995239</v>
       </c>
       <c r="C177" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D177" s="2">
         <v>45367.5</v>
       </c>
       <c r="E177" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F177" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G177">
         <v>3</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J177">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="K177">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L177">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="M177">
-        <v>1.5</v>
+        <v>1.125</v>
       </c>
       <c r="N177">
-        <v>4.2</v>
+        <v>8.5</v>
       </c>
       <c r="O177">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="P177">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="Q177">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="R177">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S177">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="T177">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U177">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V177">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="W177">
         <v>-1</v>
@@ -15735,13 +15732,13 @@
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA177">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB177">
         <v>-1</v>
@@ -15752,85 +15749,85 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6845531</v>
+        <v>6995240</v>
       </c>
       <c r="C178" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D178" s="2">
         <v>45367.5</v>
       </c>
       <c r="E178" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F178" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G178">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J178">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="K178">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="L178">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="M178">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="N178">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="O178">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="P178">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q178">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="R178">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S178">
         <v>2.5</v>
       </c>
       <c r="T178">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U178">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V178">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W178">
         <v>-1</v>
       </c>
       <c r="X178">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z178">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB178">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:28">
@@ -15838,85 +15835,85 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6995241</v>
+        <v>6845531</v>
       </c>
       <c r="C179" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D179" s="2">
         <v>45367.5</v>
       </c>
       <c r="E179" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F179" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G179">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179" t="s">
         <v>46</v>
       </c>
       <c r="J179">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="K179">
         <v>3.25</v>
       </c>
       <c r="L179">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="M179">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="N179">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="O179">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P179">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q179">
+        <v>2</v>
+      </c>
+      <c r="R179">
+        <v>1.85</v>
+      </c>
+      <c r="S179">
+        <v>2.5</v>
+      </c>
+      <c r="T179">
+        <v>1.975</v>
+      </c>
+      <c r="U179">
+        <v>1.875</v>
+      </c>
+      <c r="V179">
+        <v>-1</v>
+      </c>
+      <c r="W179">
+        <v>-1</v>
+      </c>
+      <c r="X179">
         <v>2.1</v>
       </c>
-      <c r="R179">
-        <v>1.775</v>
-      </c>
-      <c r="S179">
-        <v>2</v>
-      </c>
-      <c r="T179">
-        <v>2.05</v>
-      </c>
-      <c r="U179">
-        <v>1.8</v>
-      </c>
-      <c r="V179">
-        <v>1.05</v>
-      </c>
-      <c r="W179">
-        <v>-1</v>
-      </c>
-      <c r="X179">
-        <v>-1</v>
-      </c>
       <c r="Y179">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA179">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="180" spans="1:28">
@@ -15924,67 +15921,67 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6995239</v>
+        <v>6995241</v>
       </c>
       <c r="C180" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D180" s="2">
         <v>45367.5</v>
       </c>
       <c r="E180" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F180" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G180">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J180">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="K180">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="L180">
-        <v>11</v>
+        <v>3.25</v>
       </c>
       <c r="M180">
-        <v>1.125</v>
+        <v>2.05</v>
       </c>
       <c r="N180">
-        <v>8.5</v>
+        <v>2.9</v>
       </c>
       <c r="O180">
-        <v>21</v>
+        <v>4.333</v>
       </c>
       <c r="P180">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q180">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="R180">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S180">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="T180">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="U180">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V180">
-        <v>0.125</v>
+        <v>1.05</v>
       </c>
       <c r="W180">
         <v>-1</v>
@@ -15993,13 +15990,13 @@
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="Z180">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB180">
         <v>-1</v>
@@ -16013,16 +16010,16 @@
         <v>7060944</v>
       </c>
       <c r="C181" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D181" s="2">
         <v>45381.5</v>
       </c>
       <c r="E181" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F181" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G181">
         <v>2</v>
@@ -16031,7 +16028,7 @@
         <v>1</v>
       </c>
       <c r="I181" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J181">
         <v>1.909</v>
@@ -16099,16 +16096,16 @@
         <v>7023915</v>
       </c>
       <c r="C182" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D182" s="2">
         <v>45381.5</v>
       </c>
       <c r="E182" t="s">
+        <v>34</v>
+      </c>
+      <c r="F182" t="s">
         <v>35</v>
-      </c>
-      <c r="F182" t="s">
-        <v>36</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -16117,7 +16114,7 @@
         <v>2</v>
       </c>
       <c r="I182" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J182">
         <v>2.5</v>
@@ -16185,16 +16182,16 @@
         <v>7083334</v>
       </c>
       <c r="C183" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D183" s="2">
         <v>45381.5</v>
       </c>
       <c r="E183" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F183" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G183">
         <v>3</v>
@@ -16203,7 +16200,7 @@
         <v>1</v>
       </c>
       <c r="I183" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J183">
         <v>1.285</v>
@@ -16271,16 +16268,16 @@
         <v>7065209</v>
       </c>
       <c r="C184" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D184" s="2">
         <v>45381.5</v>
       </c>
       <c r="E184" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F184" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -16289,7 +16286,7 @@
         <v>1</v>
       </c>
       <c r="I184" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J184">
         <v>1.8</v>
@@ -16357,16 +16354,16 @@
         <v>7060946</v>
       </c>
       <c r="C185" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D185" s="2">
         <v>45381.5</v>
       </c>
       <c r="E185" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F185" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16375,7 +16372,7 @@
         <v>1</v>
       </c>
       <c r="I185" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J185">
         <v>2.2</v>
@@ -16443,16 +16440,16 @@
         <v>7060945</v>
       </c>
       <c r="C186" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D186" s="2">
         <v>45382.33333333334</v>
       </c>
       <c r="E186" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F186" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -16461,7 +16458,7 @@
         <v>3</v>
       </c>
       <c r="I186" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J186">
         <v>8</v>
@@ -16529,16 +16526,16 @@
         <v>7092309</v>
       </c>
       <c r="C187" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D187" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E187" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F187" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G187">
         <v>0</v>
@@ -16547,7 +16544,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J187">
         <v>3.4</v>
@@ -16615,16 +16612,16 @@
         <v>7060947</v>
       </c>
       <c r="C188" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D188" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E188" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F188" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G188">
         <v>2</v>
@@ -16633,7 +16630,7 @@
         <v>3</v>
       </c>
       <c r="I188" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J188">
         <v>1.952</v>
@@ -16701,16 +16698,16 @@
         <v>7060951</v>
       </c>
       <c r="C189" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D189" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E189" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F189" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -16719,7 +16716,7 @@
         <v>2</v>
       </c>
       <c r="I189" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J189">
         <v>1.5</v>
@@ -16784,85 +16781,85 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7092318</v>
+        <v>7092308</v>
       </c>
       <c r="C190" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D190" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E190" t="s">
+        <v>37</v>
+      </c>
+      <c r="F190" t="s">
         <v>41</v>
-      </c>
-      <c r="F190" t="s">
-        <v>45</v>
       </c>
       <c r="G190">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J190">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="K190">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="L190">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="M190">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="N190">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="O190">
-        <v>3.25</v>
+        <v>7</v>
       </c>
       <c r="P190">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q190">
+        <v>1.875</v>
+      </c>
+      <c r="R190">
+        <v>1.975</v>
+      </c>
+      <c r="S190">
+        <v>2.5</v>
+      </c>
+      <c r="T190">
         <v>2.025</v>
       </c>
-      <c r="R190">
+      <c r="U190">
         <v>1.825</v>
       </c>
-      <c r="S190">
-        <v>2.25</v>
-      </c>
-      <c r="T190">
-        <v>2</v>
-      </c>
-      <c r="U190">
-        <v>1.85</v>
-      </c>
       <c r="V190">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W190">
         <v>-1</v>
       </c>
       <c r="X190">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y190">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z190">
+        <v>0</v>
+      </c>
+      <c r="AA190">
+        <v>-1</v>
+      </c>
+      <c r="AB190">
         <v>0.825</v>
-      </c>
-      <c r="AA190">
-        <v>1</v>
-      </c>
-      <c r="AB190">
-        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:28">
@@ -16870,85 +16867,85 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7092308</v>
+        <v>7092318</v>
       </c>
       <c r="C191" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D191" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E191" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F191" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G191">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="s">
         <v>46</v>
       </c>
       <c r="J191">
-        <v>1.533</v>
+        <v>2.6</v>
       </c>
       <c r="K191">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="L191">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="M191">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="N191">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="O191">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="P191">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q191">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="R191">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S191">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T191">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U191">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V191">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W191">
         <v>-1</v>
       </c>
       <c r="X191">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y191">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA191">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB191">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:28">
@@ -16959,16 +16956,16 @@
         <v>7097952</v>
       </c>
       <c r="C192" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D192" s="2">
         <v>45389.33333333334</v>
       </c>
       <c r="E192" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F192" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G192">
         <v>3</v>
@@ -16977,7 +16974,7 @@
         <v>3</v>
       </c>
       <c r="I192" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J192">
         <v>2.2</v>
@@ -17045,16 +17042,16 @@
         <v>7129354</v>
       </c>
       <c r="C193" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D193" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E193" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F193" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -17063,7 +17060,7 @@
         <v>2</v>
       </c>
       <c r="I193" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J193">
         <v>2.9</v>
@@ -17128,85 +17125,85 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7133711</v>
+        <v>7158273</v>
       </c>
       <c r="C194" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D194" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E194" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F194" t="s">
         <v>36</v>
       </c>
       <c r="G194">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J194">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="K194">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="L194">
+        <v>9</v>
+      </c>
+      <c r="M194">
+        <v>1.45</v>
+      </c>
+      <c r="N194">
+        <v>4.75</v>
+      </c>
+      <c r="O194">
+        <v>6</v>
+      </c>
+      <c r="P194">
+        <v>-1.25</v>
+      </c>
+      <c r="Q194">
+        <v>2.05</v>
+      </c>
+      <c r="R194">
+        <v>1.8</v>
+      </c>
+      <c r="S194">
         <v>2.75</v>
       </c>
-      <c r="M194">
-        <v>1.909</v>
-      </c>
-      <c r="N194">
-        <v>3.5</v>
-      </c>
-      <c r="O194">
-        <v>4</v>
-      </c>
-      <c r="P194">
-        <v>-0.5</v>
-      </c>
-      <c r="Q194">
-        <v>1.95</v>
-      </c>
-      <c r="R194">
-        <v>1.9</v>
-      </c>
-      <c r="S194">
-        <v>2.5</v>
-      </c>
       <c r="T194">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U194">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V194">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="W194">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X194">
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z194">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA194">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB194">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:28">
@@ -17214,28 +17211,28 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7158273</v>
+        <v>7128467</v>
       </c>
       <c r="C195" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D195" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E195" t="s">
+        <v>33</v>
+      </c>
+      <c r="F195" t="s">
+        <v>40</v>
+      </c>
+      <c r="G195">
+        <v>3</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195" t="s">
         <v>45</v>
-      </c>
-      <c r="F195" t="s">
-        <v>37</v>
-      </c>
-      <c r="G195">
-        <v>4</v>
-      </c>
-      <c r="H195">
-        <v>2</v>
-      </c>
-      <c r="I195" t="s">
-        <v>46</v>
       </c>
       <c r="J195">
         <v>1.25</v>
@@ -17247,34 +17244,34 @@
         <v>9</v>
       </c>
       <c r="M195">
-        <v>1.45</v>
+        <v>1.166</v>
       </c>
       <c r="N195">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="O195">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="P195">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="Q195">
+        <v>2.025</v>
+      </c>
+      <c r="R195">
+        <v>1.825</v>
+      </c>
+      <c r="S195">
+        <v>3.25</v>
+      </c>
+      <c r="T195">
         <v>2.05</v>
       </c>
-      <c r="R195">
+      <c r="U195">
         <v>1.8</v>
       </c>
-      <c r="S195">
-        <v>2.75</v>
-      </c>
-      <c r="T195">
-        <v>2.025</v>
-      </c>
-      <c r="U195">
-        <v>1.825</v>
-      </c>
       <c r="V195">
-        <v>0.45</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="W195">
         <v>-1</v>
@@ -17283,16 +17280,16 @@
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="Z195">
         <v>-1</v>
       </c>
       <c r="AA195">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB195">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="196" spans="1:28">
@@ -17300,85 +17297,85 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7128467</v>
+        <v>7133711</v>
       </c>
       <c r="C196" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D196" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E196" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F196" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G196">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H196">
         <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J196">
-        <v>1.25</v>
+        <v>2.25</v>
       </c>
       <c r="K196">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="L196">
-        <v>9</v>
+        <v>2.75</v>
       </c>
       <c r="M196">
-        <v>1.166</v>
+        <v>1.909</v>
       </c>
       <c r="N196">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="O196">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="P196">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="Q196">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="R196">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S196">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T196">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="U196">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V196">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W196">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA196">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="197" spans="1:28">
@@ -17389,16 +17386,16 @@
         <v>7128270</v>
       </c>
       <c r="C197" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D197" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E197" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F197" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G197">
         <v>1</v>
@@ -17407,7 +17404,7 @@
         <v>1</v>
       </c>
       <c r="I197" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J197">
         <v>2.5</v>
@@ -17475,16 +17472,16 @@
         <v>7158274</v>
       </c>
       <c r="C198" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D198" s="2">
         <v>45396.33333333334</v>
       </c>
       <c r="E198" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F198" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G198">
         <v>3</v>
@@ -17493,7 +17490,7 @@
         <v>2</v>
       </c>
       <c r="I198" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J198">
         <v>6.5</v>
@@ -17561,16 +17558,16 @@
         <v>8080680</v>
       </c>
       <c r="C199" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D199" s="2">
         <v>45399.66666666666</v>
       </c>
       <c r="E199" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F199" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -17579,7 +17576,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J199">
         <v>12</v>
@@ -17647,52 +17644,52 @@
         <v>27</v>
       </c>
       <c r="C200" t="s">
+        <v>32</v>
+      </c>
+      <c r="D200" s="2">
+        <v>45410.45833333334</v>
+      </c>
+      <c r="E200" t="s">
+        <v>35</v>
+      </c>
+      <c r="F200" t="s">
         <v>33</v>
       </c>
-      <c r="D200" s="2">
-        <v>45409.45833333334</v>
-      </c>
-      <c r="E200" t="s">
-        <v>43</v>
-      </c>
-      <c r="F200" t="s">
-        <v>44</v>
-      </c>
       <c r="J200">
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="K200">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="L200">
-        <v>3.75</v>
+        <v>1.285</v>
       </c>
       <c r="M200">
-        <v>2.2</v>
+        <v>10</v>
       </c>
       <c r="N200">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="O200">
-        <v>3.3</v>
+        <v>1.222</v>
       </c>
       <c r="P200">
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="Q200">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="R200">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S200">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="T200">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U200">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V200">
         <v>0</v>
@@ -17712,52 +17709,52 @@
         <v>28</v>
       </c>
       <c r="C201" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D201" s="2">
-        <v>45409.45833333334</v>
+        <v>45416.45833333334</v>
       </c>
       <c r="E201" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F201" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="J201">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="K201">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L201">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="M201">
+        <v>1.666</v>
+      </c>
+      <c r="N201">
+        <v>3.5</v>
+      </c>
+      <c r="O201">
+        <v>5.5</v>
+      </c>
+      <c r="P201">
+        <v>-0.75</v>
+      </c>
+      <c r="Q201">
+        <v>1.875</v>
+      </c>
+      <c r="R201">
+        <v>1.975</v>
+      </c>
+      <c r="S201">
         <v>2.25</v>
       </c>
-      <c r="N201">
-        <v>3.3</v>
-      </c>
-      <c r="O201">
-        <v>3.3</v>
-      </c>
-      <c r="P201">
-        <v>-0.25</v>
-      </c>
-      <c r="Q201">
-        <v>1.975</v>
-      </c>
-      <c r="R201">
-        <v>1.875</v>
-      </c>
-      <c r="S201">
-        <v>2.5</v>
-      </c>
       <c r="T201">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U201">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V201">
         <v>0</v>
@@ -17777,52 +17774,52 @@
         <v>29</v>
       </c>
       <c r="C202" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D202" s="2">
-        <v>45409.45833333334</v>
+        <v>45416.45833333334</v>
       </c>
       <c r="E202" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F202" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J202">
-        <v>2.375</v>
+        <v>3.9</v>
       </c>
       <c r="K202">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L202">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="M202">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="N202">
         <v>3.4</v>
       </c>
       <c r="O202">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="P202">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q202">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R202">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S202">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T202">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U202">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V202">
         <v>0</v>
@@ -17842,52 +17839,52 @@
         <v>30</v>
       </c>
       <c r="C203" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D203" s="2">
-        <v>45409.45833333334</v>
+        <v>45416.45833333334</v>
       </c>
       <c r="E203" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F203" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J203">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="K203">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L203">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="M203">
-        <v>3.25</v>
+        <v>1.7</v>
       </c>
       <c r="N203">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="O203">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="P203">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q203">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R203">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S203">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T203">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U203">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V203">
         <v>0</v>
@@ -17907,46 +17904,46 @@
         <v>31</v>
       </c>
       <c r="C204" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D204" s="2">
-        <v>45410.35416666666</v>
+        <v>45417.375</v>
       </c>
       <c r="E204" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F204" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J204">
+        <v>1.166</v>
+      </c>
+      <c r="K204">
+        <v>7.5</v>
+      </c>
+      <c r="L204">
+        <v>13</v>
+      </c>
+      <c r="M204">
+        <v>1.25</v>
+      </c>
+      <c r="N204">
+        <v>6.5</v>
+      </c>
+      <c r="O204">
         <v>9</v>
       </c>
-      <c r="K204">
-        <v>5.5</v>
-      </c>
-      <c r="L204">
-        <v>1.3</v>
-      </c>
-      <c r="M204">
-        <v>8</v>
-      </c>
-      <c r="N204">
-        <v>5</v>
-      </c>
-      <c r="O204">
-        <v>1.363</v>
-      </c>
       <c r="P204">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="Q204">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="R204">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S204">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T204">
         <v>1.8</v>
@@ -17961,71 +17958,6 @@
         <v>0</v>
       </c>
       <c r="X204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:28">
-      <c r="A205" s="1">
-        <v>203</v>
-      </c>
-      <c r="B205" t="s">
-        <v>32</v>
-      </c>
-      <c r="C205" t="s">
-        <v>33</v>
-      </c>
-      <c r="D205" s="2">
-        <v>45410.45833333334</v>
-      </c>
-      <c r="E205" t="s">
-        <v>36</v>
-      </c>
-      <c r="F205" t="s">
-        <v>34</v>
-      </c>
-      <c r="J205">
-        <v>8.5</v>
-      </c>
-      <c r="K205">
-        <v>6</v>
-      </c>
-      <c r="L205">
-        <v>1.285</v>
-      </c>
-      <c r="M205">
-        <v>8</v>
-      </c>
-      <c r="N205">
-        <v>6</v>
-      </c>
-      <c r="O205">
-        <v>1.3</v>
-      </c>
-      <c r="P205">
-        <v>1.75</v>
-      </c>
-      <c r="Q205">
-        <v>1.825</v>
-      </c>
-      <c r="R205">
-        <v>2.025</v>
-      </c>
-      <c r="S205">
-        <v>3.25</v>
-      </c>
-      <c r="T205">
-        <v>1.85</v>
-      </c>
-      <c r="U205">
-        <v>2</v>
-      </c>
-      <c r="V205">
-        <v>0</v>
-      </c>
-      <c r="W205">
-        <v>0</v>
-      </c>
-      <c r="X205">
         <v>0</v>
       </c>
     </row>

--- a/Scotland Premiership/Scotland Premiership.xlsx
+++ b/Scotland Premiership/Scotland Premiership.xlsx
@@ -136,13 +136,13 @@
     <t>Hibernian</t>
   </si>
   <si>
-    <t>Ross County</t>
-  </si>
-  <si>
     <t>Rangers</t>
   </si>
   <si>
     <t>St Mirren</t>
+  </si>
+  <si>
+    <t>Ross County</t>
   </si>
   <si>
     <t>Aberdeen</t>
@@ -628,7 +628,7 @@
         <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -972,7 +972,7 @@
         <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1058,7 +1058,7 @@
         <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1132,7 +1132,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6844714</v>
+        <v>6844834</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
@@ -1144,10 +1144,10 @@
         <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1156,25 +1156,25 @@
         <v>46</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="K8">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="L8">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="M8">
-        <v>1.85</v>
+        <v>1.181</v>
       </c>
       <c r="N8">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="O8">
-        <v>4.2</v>
+        <v>12</v>
       </c>
       <c r="P8">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="Q8">
         <v>1.85</v>
@@ -1183,7 +1183,7 @@
         <v>2</v>
       </c>
       <c r="S8">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="T8">
         <v>1.875</v>
@@ -1192,7 +1192,7 @@
         <v>1.975</v>
       </c>
       <c r="V8">
-        <v>0.8500000000000001</v>
+        <v>0.181</v>
       </c>
       <c r="W8">
         <v>-1</v>
@@ -1207,10 +1207,10 @@
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB8">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1218,7 +1218,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6844834</v>
+        <v>6844715</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
@@ -1230,55 +1230,55 @@
         <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="s">
         <v>46</v>
       </c>
       <c r="J9">
-        <v>1.2</v>
+        <v>1.909</v>
       </c>
       <c r="K9">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="L9">
-        <v>11</v>
+        <v>3.75</v>
       </c>
       <c r="M9">
-        <v>1.181</v>
+        <v>2.25</v>
       </c>
       <c r="N9">
-        <v>8.5</v>
+        <v>3.3</v>
       </c>
       <c r="O9">
-        <v>12</v>
+        <v>3.2</v>
       </c>
       <c r="P9">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="Q9">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S9">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="T9">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U9">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V9">
-        <v>0.181</v>
+        <v>1.25</v>
       </c>
       <c r="W9">
         <v>-1</v>
@@ -1287,13 +1287,13 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB9">
         <v>-1</v>
@@ -1304,7 +1304,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6844715</v>
+        <v>6844714</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
@@ -1316,55 +1316,55 @@
         <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G10">
         <v>2</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="s">
         <v>46</v>
       </c>
       <c r="J10">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="K10">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L10">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M10">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="N10">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O10">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P10">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q10">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R10">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S10">
         <v>2.25</v>
       </c>
       <c r="T10">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="U10">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V10">
-        <v>1.25</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W10">
         <v>-1</v>
@@ -1373,16 +1373,16 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1657,10 +1657,10 @@
         <v>45164.35416666666</v>
       </c>
       <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
         <v>40</v>
-      </c>
-      <c r="F14" t="s">
-        <v>41</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>45165.45833333334</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
         <v>43</v>
@@ -2176,7 +2176,7 @@
         <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6844723</v>
+        <v>6844724</v>
       </c>
       <c r="C21" t="s">
         <v>33</v>
@@ -2259,76 +2259,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="s">
         <v>47</v>
       </c>
       <c r="J21">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="K21">
+        <v>3.2</v>
+      </c>
+      <c r="L21">
+        <v>2.9</v>
+      </c>
+      <c r="M21">
+        <v>3.1</v>
+      </c>
+      <c r="N21">
         <v>3.25</v>
       </c>
-      <c r="L21">
-        <v>2.6</v>
-      </c>
-      <c r="M21">
-        <v>3</v>
-      </c>
-      <c r="N21">
-        <v>3.1</v>
-      </c>
       <c r="O21">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q21">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="R21">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S21">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T21">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U21">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V21">
         <v>-1</v>
       </c>
       <c r="W21">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -2336,7 +2336,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6844724</v>
+        <v>6844723</v>
       </c>
       <c r="C22" t="s">
         <v>33</v>
@@ -2345,76 +2345,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="s">
         <v>47</v>
       </c>
       <c r="J22">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="K22">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L22">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="M22">
+        <v>3</v>
+      </c>
+      <c r="N22">
         <v>3.1</v>
       </c>
-      <c r="N22">
-        <v>3.25</v>
-      </c>
       <c r="O22">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="P22">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="R22">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S22">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T22">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U22">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V22">
         <v>-1</v>
       </c>
       <c r="W22">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2431,7 +2431,7 @@
         <v>45172.33333333334</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s">
         <v>34</v>
@@ -2692,7 +2692,7 @@
         <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6844727</v>
+        <v>6844728</v>
       </c>
       <c r="C28" t="s">
         <v>33</v>
@@ -2861,76 +2861,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J28">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L28">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="M28">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N28">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O28">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q28">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R28">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S28">
         <v>2.25</v>
       </c>
       <c r="T28">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="U28">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V28">
         <v>-1</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X28">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z28">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB28">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -2938,7 +2938,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6844728</v>
+        <v>6844726</v>
       </c>
       <c r="C29" t="s">
         <v>33</v>
@@ -2947,46 +2947,46 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="s">
         <v>47</v>
       </c>
       <c r="J29">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="K29">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L29">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="M29">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="N29">
         <v>3.2</v>
       </c>
       <c r="O29">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P29">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R29">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S29">
         <v>2.25</v>
@@ -3007,16 +3007,16 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z29">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB29">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -3024,7 +3024,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6844725</v>
+        <v>6844727</v>
       </c>
       <c r="C30" t="s">
         <v>33</v>
@@ -3033,76 +3033,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30">
+        <v>2.25</v>
+      </c>
+      <c r="K30">
         <v>3</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30" t="s">
-        <v>46</v>
-      </c>
-      <c r="J30">
-        <v>1.083</v>
-      </c>
-      <c r="K30">
-        <v>9</v>
-      </c>
       <c r="L30">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="M30">
-        <v>1.2</v>
+        <v>2.75</v>
       </c>
       <c r="N30">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="O30">
-        <v>11</v>
+        <v>2.625</v>
       </c>
       <c r="P30">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R30">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S30">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="T30">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="U30">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V30">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y30">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -3110,7 +3110,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6844726</v>
+        <v>6844725</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
@@ -3119,76 +3119,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J31">
-        <v>3</v>
+        <v>1.083</v>
       </c>
       <c r="K31">
-        <v>3.2</v>
+        <v>9</v>
       </c>
       <c r="L31">
-        <v>2.15</v>
+        <v>23</v>
       </c>
       <c r="M31">
-        <v>2.55</v>
+        <v>1.2</v>
       </c>
       <c r="N31">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="O31">
-        <v>2.8</v>
+        <v>11</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q31">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="R31">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S31">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="T31">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U31">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V31">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="W31">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -3291,7 +3291,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F33" t="s">
         <v>44</v>
@@ -3540,7 +3540,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6844733</v>
+        <v>6844730</v>
       </c>
       <c r="C36" t="s">
         <v>33</v>
@@ -3549,13 +3549,13 @@
         <v>45193.45833333334</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3564,43 +3564,43 @@
         <v>46</v>
       </c>
       <c r="J36">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="K36">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="L36">
-        <v>15</v>
+        <v>4.5</v>
       </c>
       <c r="M36">
-        <v>1.222</v>
+        <v>1.85</v>
       </c>
       <c r="N36">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="O36">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="P36">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="Q36">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="R36">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S36">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T36">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U36">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V36">
-        <v>0.222</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W36">
         <v>-1</v>
@@ -3609,16 +3609,16 @@
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z36">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB36">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -3626,7 +3626,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6844730</v>
+        <v>6844733</v>
       </c>
       <c r="C37" t="s">
         <v>33</v>
@@ -3635,13 +3635,13 @@
         <v>45193.45833333334</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3650,43 +3650,43 @@
         <v>46</v>
       </c>
       <c r="J37">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="K37">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="L37">
-        <v>4.5</v>
+        <v>15</v>
       </c>
       <c r="M37">
-        <v>1.85</v>
+        <v>1.222</v>
       </c>
       <c r="N37">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="O37">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="P37">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="Q37">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="R37">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S37">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T37">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U37">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V37">
-        <v>0.8500000000000001</v>
+        <v>0.222</v>
       </c>
       <c r="W37">
         <v>-1</v>
@@ -3695,16 +3695,16 @@
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA37">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -3807,7 +3807,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E39" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F39" t="s">
         <v>44</v>
@@ -4065,7 +4065,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F42" t="s">
         <v>43</v>
@@ -4154,7 +4154,7 @@
         <v>38</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4495,10 +4495,10 @@
         <v>45207.33333333334</v>
       </c>
       <c r="E47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4753,7 +4753,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F50" t="s">
         <v>39</v>
@@ -4928,7 +4928,7 @@
         <v>35</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -5097,7 +5097,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="E54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F54" t="s">
         <v>36</v>
@@ -5272,7 +5272,7 @@
         <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G56">
         <v>3</v>
@@ -5441,7 +5441,7 @@
         <v>45228.5</v>
       </c>
       <c r="E58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F58" t="s">
         <v>44</v>
@@ -5530,7 +5530,7 @@
         <v>39</v>
       </c>
       <c r="F59" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5702,7 +5702,7 @@
         <v>34</v>
       </c>
       <c r="F61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -5960,7 +5960,7 @@
         <v>35</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -6043,7 +6043,7 @@
         <v>45234.39583333334</v>
       </c>
       <c r="E65" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F65" t="s">
         <v>34</v>
@@ -6387,7 +6387,7 @@
         <v>45238.69791666666</v>
       </c>
       <c r="E69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F69" t="s">
         <v>39</v>
@@ -6476,7 +6476,7 @@
         <v>36</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6648,7 +6648,7 @@
         <v>35</v>
       </c>
       <c r="F72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G72">
         <v>4</v>
@@ -6820,7 +6820,7 @@
         <v>37</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -7247,7 +7247,7 @@
         <v>45255.5</v>
       </c>
       <c r="E79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F79" t="s">
         <v>37</v>
@@ -7333,7 +7333,7 @@
         <v>45255.5</v>
       </c>
       <c r="E80" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F80" t="s">
         <v>38</v>
@@ -7422,7 +7422,7 @@
         <v>43</v>
       </c>
       <c r="F81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7505,10 +7505,10 @@
         <v>45258.69791666666</v>
       </c>
       <c r="E82" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7935,10 +7935,10 @@
         <v>45263.5</v>
       </c>
       <c r="E87" t="s">
+        <v>40</v>
+      </c>
+      <c r="F87" t="s">
         <v>41</v>
-      </c>
-      <c r="F87" t="s">
-        <v>42</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -8021,7 +8021,7 @@
         <v>45265.69791666666</v>
       </c>
       <c r="E88" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F88" t="s">
         <v>45</v>
@@ -8110,7 +8110,7 @@
         <v>36</v>
       </c>
       <c r="F89" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8368,7 +8368,7 @@
         <v>44</v>
       </c>
       <c r="F92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8623,10 +8623,10 @@
         <v>45269.5</v>
       </c>
       <c r="E95" t="s">
+        <v>41</v>
+      </c>
+      <c r="F95" t="s">
         <v>42</v>
-      </c>
-      <c r="F95" t="s">
-        <v>40</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -8709,7 +8709,7 @@
         <v>45269.5</v>
       </c>
       <c r="E96" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F96" t="s">
         <v>35</v>
@@ -9053,7 +9053,7 @@
         <v>45276.5</v>
       </c>
       <c r="E100" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F100" t="s">
         <v>35</v>
@@ -9139,7 +9139,7 @@
         <v>45276.5</v>
       </c>
       <c r="E101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F101" t="s">
         <v>45</v>
@@ -9483,7 +9483,7 @@
         <v>45280.69791666666</v>
       </c>
       <c r="E105" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F105" t="s">
         <v>36</v>
@@ -9572,7 +9572,7 @@
         <v>44</v>
       </c>
       <c r="F106" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -9830,7 +9830,7 @@
         <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -9999,7 +9999,7 @@
         <v>45287.69791666666</v>
       </c>
       <c r="E111" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F111" t="s">
         <v>38</v>
@@ -10260,7 +10260,7 @@
         <v>34</v>
       </c>
       <c r="F114" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -10346,7 +10346,7 @@
         <v>44</v>
       </c>
       <c r="F115" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -10604,7 +10604,7 @@
         <v>43</v>
       </c>
       <c r="F118" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10687,7 +10687,7 @@
         <v>45293.5</v>
       </c>
       <c r="E119" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F119" t="s">
         <v>38</v>
@@ -10773,7 +10773,7 @@
         <v>45293.5</v>
       </c>
       <c r="E120" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F120" t="s">
         <v>43</v>
@@ -11031,7 +11031,7 @@
         <v>45293.58333333334</v>
       </c>
       <c r="E123" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F123" t="s">
         <v>34</v>
@@ -11206,7 +11206,7 @@
         <v>39</v>
       </c>
       <c r="F125" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>45318.39583333334</v>
       </c>
       <c r="E127" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F127" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -11808,7 +11808,7 @@
         <v>34</v>
       </c>
       <c r="F132" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -11980,7 +11980,7 @@
         <v>37</v>
       </c>
       <c r="F134" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -12140,7 +12140,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6844843</v>
+        <v>6844818</v>
       </c>
       <c r="C136" t="s">
         <v>33</v>
@@ -12149,76 +12149,76 @@
         <v>45325.5</v>
       </c>
       <c r="E136" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F136" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G136">
+        <v>1</v>
+      </c>
+      <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="I136" t="s">
+        <v>47</v>
+      </c>
+      <c r="J136">
+        <v>3.4</v>
+      </c>
+      <c r="K136">
+        <v>3.25</v>
+      </c>
+      <c r="L136">
+        <v>2.15</v>
+      </c>
+      <c r="M136">
+        <v>2.875</v>
+      </c>
+      <c r="N136">
         <v>3</v>
       </c>
-      <c r="H136">
-        <v>0</v>
-      </c>
-      <c r="I136" t="s">
-        <v>46</v>
-      </c>
-      <c r="J136">
-        <v>1.111</v>
-      </c>
-      <c r="K136">
-        <v>9</v>
-      </c>
-      <c r="L136">
-        <v>19</v>
-      </c>
-      <c r="M136">
-        <v>1.083</v>
-      </c>
-      <c r="N136">
-        <v>10</v>
-      </c>
       <c r="O136">
-        <v>23</v>
+        <v>2.55</v>
       </c>
       <c r="P136">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="Q136">
+        <v>2.1</v>
+      </c>
+      <c r="R136">
+        <v>1.775</v>
+      </c>
+      <c r="S136">
+        <v>2.25</v>
+      </c>
+      <c r="T136">
         <v>2.025</v>
       </c>
-      <c r="R136">
+      <c r="U136">
         <v>1.825</v>
       </c>
-      <c r="S136">
-        <v>3.25</v>
-      </c>
-      <c r="T136">
-        <v>1.95</v>
-      </c>
-      <c r="U136">
-        <v>1.9</v>
-      </c>
       <c r="V136">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA136">
         <v>-0.5</v>
       </c>
       <c r="AB136">
-        <v>0.45</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="137" spans="1:28">
@@ -12226,7 +12226,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6844819</v>
+        <v>6844843</v>
       </c>
       <c r="C137" t="s">
         <v>33</v>
@@ -12238,73 +12238,73 @@
         <v>40</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J137">
-        <v>2.3</v>
+        <v>1.111</v>
       </c>
       <c r="K137">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L137">
-        <v>3.4</v>
+        <v>19</v>
       </c>
       <c r="M137">
-        <v>2.3</v>
+        <v>1.083</v>
       </c>
       <c r="N137">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="O137">
-        <v>3.4</v>
+        <v>23</v>
       </c>
       <c r="P137">
-        <v>-0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="Q137">
+        <v>2.025</v>
+      </c>
+      <c r="R137">
+        <v>1.825</v>
+      </c>
+      <c r="S137">
+        <v>3.25</v>
+      </c>
+      <c r="T137">
         <v>1.95</v>
       </c>
-      <c r="R137">
+      <c r="U137">
         <v>1.9</v>
       </c>
-      <c r="S137">
-        <v>2</v>
-      </c>
-      <c r="T137">
-        <v>1.85</v>
-      </c>
-      <c r="U137">
-        <v>2</v>
-      </c>
       <c r="V137">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z137">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB137">
-        <v>1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="138" spans="1:28">
@@ -12312,7 +12312,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6844818</v>
+        <v>6844819</v>
       </c>
       <c r="C138" t="s">
         <v>33</v>
@@ -12321,76 +12321,76 @@
         <v>45325.5</v>
       </c>
       <c r="E138" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F138" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138">
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J138">
+        <v>2.3</v>
+      </c>
+      <c r="K138">
+        <v>3</v>
+      </c>
+      <c r="L138">
         <v>3.4</v>
       </c>
-      <c r="K138">
-        <v>3.25</v>
-      </c>
-      <c r="L138">
-        <v>2.15</v>
-      </c>
       <c r="M138">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="N138">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O138">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="P138">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q138">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="R138">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S138">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T138">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U138">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V138">
         <v>-1</v>
       </c>
       <c r="W138">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X138">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y138">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA138">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:28">
@@ -12398,7 +12398,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6844817</v>
+        <v>6844816</v>
       </c>
       <c r="C139" t="s">
         <v>33</v>
@@ -12407,13 +12407,13 @@
         <v>45325.5</v>
       </c>
       <c r="E139" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F139" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H139">
         <v>3</v>
@@ -12422,41 +12422,41 @@
         <v>48</v>
       </c>
       <c r="J139">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="K139">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L139">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="M139">
+        <v>2.8</v>
+      </c>
+      <c r="N139">
+        <v>3.5</v>
+      </c>
+      <c r="O139">
+        <v>2.4</v>
+      </c>
+      <c r="P139">
+        <v>0</v>
+      </c>
+      <c r="Q139">
+        <v>2.05</v>
+      </c>
+      <c r="R139">
+        <v>1.8</v>
+      </c>
+      <c r="S139">
+        <v>2.5</v>
+      </c>
+      <c r="T139">
+        <v>2</v>
+      </c>
+      <c r="U139">
         <v>1.85</v>
       </c>
-      <c r="N139">
-        <v>3.4</v>
-      </c>
-      <c r="O139">
-        <v>4.5</v>
-      </c>
-      <c r="P139">
-        <v>-0.5</v>
-      </c>
-      <c r="Q139">
-        <v>1.85</v>
-      </c>
-      <c r="R139">
-        <v>2</v>
-      </c>
-      <c r="S139">
-        <v>2.25</v>
-      </c>
-      <c r="T139">
-        <v>1.95</v>
-      </c>
-      <c r="U139">
-        <v>1.9</v>
-      </c>
       <c r="V139">
         <v>-1</v>
       </c>
@@ -12464,16 +12464,16 @@
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
+        <v>0.8</v>
+      </c>
+      <c r="AA139">
         <v>1</v>
-      </c>
-      <c r="AA139">
-        <v>0.95</v>
       </c>
       <c r="AB139">
         <v>-1</v>
@@ -12484,7 +12484,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6844816</v>
+        <v>6844817</v>
       </c>
       <c r="C140" t="s">
         <v>33</v>
@@ -12493,13 +12493,13 @@
         <v>45325.5</v>
       </c>
       <c r="E140" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F140" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H140">
         <v>3</v>
@@ -12508,58 +12508,58 @@
         <v>48</v>
       </c>
       <c r="J140">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="K140">
+        <v>3.4</v>
+      </c>
+      <c r="L140">
+        <v>4</v>
+      </c>
+      <c r="M140">
+        <v>1.85</v>
+      </c>
+      <c r="N140">
+        <v>3.4</v>
+      </c>
+      <c r="O140">
+        <v>4.5</v>
+      </c>
+      <c r="P140">
+        <v>-0.5</v>
+      </c>
+      <c r="Q140">
+        <v>1.85</v>
+      </c>
+      <c r="R140">
+        <v>2</v>
+      </c>
+      <c r="S140">
+        <v>2.25</v>
+      </c>
+      <c r="T140">
+        <v>1.95</v>
+      </c>
+      <c r="U140">
+        <v>1.9</v>
+      </c>
+      <c r="V140">
+        <v>-1</v>
+      </c>
+      <c r="W140">
+        <v>-1</v>
+      </c>
+      <c r="X140">
         <v>3.5</v>
       </c>
-      <c r="L140">
-        <v>2.3</v>
-      </c>
-      <c r="M140">
-        <v>2.8</v>
-      </c>
-      <c r="N140">
-        <v>3.5</v>
-      </c>
-      <c r="O140">
-        <v>2.4</v>
-      </c>
-      <c r="P140">
-        <v>0</v>
-      </c>
-      <c r="Q140">
-        <v>2.05</v>
-      </c>
-      <c r="R140">
-        <v>1.8</v>
-      </c>
-      <c r="S140">
-        <v>2.5</v>
-      </c>
-      <c r="T140">
-        <v>2</v>
-      </c>
-      <c r="U140">
-        <v>1.85</v>
-      </c>
-      <c r="V140">
-        <v>-1</v>
-      </c>
-      <c r="W140">
-        <v>-1</v>
-      </c>
-      <c r="X140">
-        <v>1.4</v>
-      </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA140">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB140">
         <v>-1</v>
@@ -12582,7 +12582,7 @@
         <v>45</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G141">
         <v>5</v>
@@ -12665,7 +12665,7 @@
         <v>45328.70833333334</v>
       </c>
       <c r="E142" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F142" t="s">
         <v>43</v>
@@ -12837,7 +12837,7 @@
         <v>45329.69791666666</v>
       </c>
       <c r="E144" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F144" t="s">
         <v>35</v>
@@ -13181,10 +13181,10 @@
         <v>45336.69791666666</v>
       </c>
       <c r="E148" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F148" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G148">
         <v>3</v>
@@ -13356,7 +13356,7 @@
         <v>35</v>
       </c>
       <c r="F150" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -13614,7 +13614,7 @@
         <v>37</v>
       </c>
       <c r="F153" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -13786,7 +13786,7 @@
         <v>36</v>
       </c>
       <c r="F155" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13955,7 +13955,7 @@
         <v>45346.5</v>
       </c>
       <c r="E157" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F157" t="s">
         <v>37</v>
@@ -14041,7 +14041,7 @@
         <v>45346.5</v>
       </c>
       <c r="E158" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F158" t="s">
         <v>44</v>
@@ -14213,7 +14213,7 @@
         <v>45346.5</v>
       </c>
       <c r="E160" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F160" t="s">
         <v>36</v>
@@ -14385,10 +14385,10 @@
         <v>45349.70833333334</v>
       </c>
       <c r="E162" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F162" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -14732,7 +14732,7 @@
         <v>38</v>
       </c>
       <c r="F166" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -14901,7 +14901,7 @@
         <v>45353.5</v>
       </c>
       <c r="E168" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F168" t="s">
         <v>43</v>
@@ -15076,7 +15076,7 @@
         <v>39</v>
       </c>
       <c r="F170" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G170">
         <v>2</v>
@@ -15159,7 +15159,7 @@
         <v>45353.5</v>
       </c>
       <c r="E171" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F171" t="s">
         <v>45</v>
@@ -15503,7 +15503,7 @@
         <v>45364.69791666666</v>
       </c>
       <c r="E175" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F175" t="s">
         <v>39</v>
@@ -15678,7 +15678,7 @@
         <v>38</v>
       </c>
       <c r="F177" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G177">
         <v>5</v>
@@ -15933,7 +15933,7 @@
         <v>45367.5</v>
       </c>
       <c r="E180" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F180" t="s">
         <v>44</v>
@@ -16108,7 +16108,7 @@
         <v>43</v>
       </c>
       <c r="F182" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G182">
         <v>2</v>
@@ -16277,7 +16277,7 @@
         <v>45381.5</v>
       </c>
       <c r="E184" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F184" t="s">
         <v>39</v>
@@ -16366,7 +16366,7 @@
         <v>45</v>
       </c>
       <c r="F185" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16538,7 +16538,7 @@
         <v>38</v>
       </c>
       <c r="F187" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -16793,7 +16793,7 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E190" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F190" t="s">
         <v>44</v>
@@ -16965,7 +16965,7 @@
         <v>45389.33333333334</v>
       </c>
       <c r="E192" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F192" t="s">
         <v>34</v>
@@ -17312,7 +17312,7 @@
         <v>34</v>
       </c>
       <c r="F196" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G196">
         <v>3</v>
@@ -17481,10 +17481,10 @@
         <v>45396.33333333334</v>
       </c>
       <c r="E198" t="s">
+        <v>42</v>
+      </c>
+      <c r="F198" t="s">
         <v>40</v>
-      </c>
-      <c r="F198" t="s">
-        <v>41</v>
       </c>
       <c r="G198">
         <v>3</v>
@@ -17570,7 +17570,7 @@
         <v>35</v>
       </c>
       <c r="F199" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -17828,7 +17828,7 @@
         <v>37</v>
       </c>
       <c r="F202" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G202">
         <v>2</v>
@@ -17997,10 +17997,10 @@
         <v>45410.35416666666</v>
       </c>
       <c r="E204" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F204" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -18187,10 +18187,10 @@
         <v>1.65</v>
       </c>
       <c r="N206">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O206">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="P206">
         <v>-0.75</v>
@@ -18249,31 +18249,31 @@
         <v>5.5</v>
       </c>
       <c r="M207">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="N207">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O207">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="P207">
         <v>-0.75</v>
       </c>
       <c r="Q207">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R207">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S207">
         <v>2.25</v>
       </c>
       <c r="T207">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U207">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V207">
         <v>0</v>
@@ -18314,31 +18314,31 @@
         <v>13</v>
       </c>
       <c r="M208">
-        <v>1.25</v>
+        <v>1.222</v>
       </c>
       <c r="N208">
         <v>6.5</v>
       </c>
       <c r="O208">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P208">
-        <v>-1.75</v>
+        <v>-2</v>
       </c>
       <c r="Q208">
+        <v>2.05</v>
+      </c>
+      <c r="R208">
+        <v>1.8</v>
+      </c>
+      <c r="S208">
+        <v>3.5</v>
+      </c>
+      <c r="T208">
+        <v>2.025</v>
+      </c>
+      <c r="U208">
         <v>1.825</v>
-      </c>
-      <c r="R208">
-        <v>2.025</v>
-      </c>
-      <c r="S208">
-        <v>3.25</v>
-      </c>
-      <c r="T208">
-        <v>1.875</v>
-      </c>
-      <c r="U208">
-        <v>1.975</v>
       </c>
       <c r="V208">
         <v>0</v>
@@ -18367,7 +18367,7 @@
         <v>35</v>
       </c>
       <c r="F209" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J209">
         <v>2.3</v>
@@ -18379,13 +18379,13 @@
         <v>3.1</v>
       </c>
       <c r="M209">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="N209">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O209">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="P209">
         <v>0</v>
@@ -18397,13 +18397,13 @@
         <v>2.05</v>
       </c>
       <c r="S209">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T209">
+        <v>1.8</v>
+      </c>
+      <c r="U209">
         <v>2.05</v>
-      </c>
-      <c r="U209">
-        <v>1.8</v>
       </c>
       <c r="V209">
         <v>0</v>
@@ -18429,7 +18429,7 @@
         <v>45416.45833333334</v>
       </c>
       <c r="E210" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F210" t="s">
         <v>39</v>
@@ -18447,7 +18447,7 @@
         <v>3.8</v>
       </c>
       <c r="N210">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O210">
         <v>2</v>
@@ -18456,10 +18456,10 @@
         <v>0.5</v>
       </c>
       <c r="Q210">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="R210">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S210">
         <v>2.75</v>
@@ -18494,7 +18494,7 @@
         <v>45417.375</v>
       </c>
       <c r="E211" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F211" t="s">
         <v>38</v>
@@ -18515,16 +18515,16 @@
         <v>6.5</v>
       </c>
       <c r="O211">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="P211">
         <v>-1.75</v>
       </c>
       <c r="Q211">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="R211">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S211">
         <v>3</v>

--- a/Scotland Premiership/Scotland Premiership.xlsx
+++ b/Scotland Premiership/Scotland Premiership.xlsx
@@ -97,7 +97,7 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>8109105</t>
+    <t>8109104</t>
   </si>
   <si>
     <t>8108613</t>
@@ -109,7 +109,7 @@
     <t>8109087</t>
   </si>
   <si>
-    <t>8109104</t>
+    <t>8109105</t>
   </si>
   <si>
     <t>8109088</t>
@@ -136,13 +136,13 @@
     <t>Hibernian</t>
   </si>
   <si>
+    <t>Ross County</t>
+  </si>
+  <si>
     <t>Rangers</t>
   </si>
   <si>
     <t>St Mirren</t>
-  </si>
-  <si>
-    <t>Ross County</t>
   </si>
   <si>
     <t>Aberdeen</t>
@@ -628,7 +628,7 @@
         <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -972,7 +972,7 @@
         <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1058,7 +1058,7 @@
         <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1132,7 +1132,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6844834</v>
+        <v>6844714</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
@@ -1144,10 +1144,10 @@
         <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1156,25 +1156,25 @@
         <v>46</v>
       </c>
       <c r="J8">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="K8">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="L8">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="M8">
-        <v>1.181</v>
+        <v>1.85</v>
       </c>
       <c r="N8">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="O8">
-        <v>12</v>
+        <v>4.2</v>
       </c>
       <c r="P8">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="Q8">
         <v>1.85</v>
@@ -1183,7 +1183,7 @@
         <v>2</v>
       </c>
       <c r="S8">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="T8">
         <v>1.875</v>
@@ -1192,7 +1192,7 @@
         <v>1.975</v>
       </c>
       <c r="V8">
-        <v>0.181</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W8">
         <v>-1</v>
@@ -1207,10 +1207,10 @@
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1218,7 +1218,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6844715</v>
+        <v>6844834</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
@@ -1230,55 +1230,55 @@
         <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="s">
         <v>46</v>
       </c>
       <c r="J9">
-        <v>1.909</v>
+        <v>1.2</v>
       </c>
       <c r="K9">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="L9">
-        <v>3.75</v>
+        <v>11</v>
       </c>
       <c r="M9">
-        <v>2.25</v>
+        <v>1.181</v>
       </c>
       <c r="N9">
-        <v>3.3</v>
+        <v>8.5</v>
       </c>
       <c r="O9">
-        <v>3.2</v>
+        <v>12</v>
       </c>
       <c r="P9">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="Q9">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R9">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="T9">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="U9">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V9">
-        <v>1.25</v>
+        <v>0.181</v>
       </c>
       <c r="W9">
         <v>-1</v>
@@ -1287,13 +1287,13 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB9">
         <v>-1</v>
@@ -1304,7 +1304,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6844714</v>
+        <v>6844715</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
@@ -1316,55 +1316,55 @@
         <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10">
         <v>2</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="s">
         <v>46</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="K10">
+        <v>3.3</v>
+      </c>
+      <c r="L10">
+        <v>3.75</v>
+      </c>
+      <c r="M10">
+        <v>2.25</v>
+      </c>
+      <c r="N10">
+        <v>3.3</v>
+      </c>
+      <c r="O10">
         <v>3.2</v>
       </c>
-      <c r="L10">
-        <v>3.6</v>
-      </c>
-      <c r="M10">
-        <v>1.85</v>
-      </c>
-      <c r="N10">
-        <v>3.5</v>
-      </c>
-      <c r="O10">
-        <v>4.2</v>
-      </c>
       <c r="P10">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q10">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S10">
         <v>2.25</v>
       </c>
       <c r="T10">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U10">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V10">
-        <v>0.8500000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="W10">
         <v>-1</v>
@@ -1373,16 +1373,16 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB10">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1657,10 +1657,10 @@
         <v>45164.35416666666</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>45165.45833333334</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
         <v>43</v>
@@ -2176,7 +2176,7 @@
         <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6844724</v>
+        <v>6844723</v>
       </c>
       <c r="C21" t="s">
         <v>33</v>
@@ -2259,76 +2259,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="s">
         <v>47</v>
       </c>
       <c r="J21">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="K21">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L21">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="M21">
+        <v>3</v>
+      </c>
+      <c r="N21">
         <v>3.1</v>
       </c>
-      <c r="N21">
-        <v>3.25</v>
-      </c>
       <c r="O21">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="P21">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="R21">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S21">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T21">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U21">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V21">
         <v>-1</v>
       </c>
       <c r="W21">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -2336,7 +2336,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6844723</v>
+        <v>6844724</v>
       </c>
       <c r="C22" t="s">
         <v>33</v>
@@ -2345,76 +2345,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="s">
         <v>47</v>
       </c>
       <c r="J22">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="K22">
+        <v>3.2</v>
+      </c>
+      <c r="L22">
+        <v>2.9</v>
+      </c>
+      <c r="M22">
+        <v>3.1</v>
+      </c>
+      <c r="N22">
         <v>3.25</v>
       </c>
-      <c r="L22">
-        <v>2.6</v>
-      </c>
-      <c r="M22">
-        <v>3</v>
-      </c>
-      <c r="N22">
-        <v>3.1</v>
-      </c>
       <c r="O22">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q22">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="R22">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S22">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T22">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U22">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V22">
         <v>-1</v>
       </c>
       <c r="W22">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2431,7 +2431,7 @@
         <v>45172.33333333334</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s">
         <v>34</v>
@@ -2692,7 +2692,7 @@
         <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6844728</v>
+        <v>6844727</v>
       </c>
       <c r="C28" t="s">
         <v>33</v>
@@ -2861,76 +2861,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" t="s">
         <v>42</v>
       </c>
-      <c r="F28" t="s">
-        <v>37</v>
-      </c>
       <c r="G28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J28">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="K28">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="M28">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N28">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O28">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="P28">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>1.9</v>
+        <v>1.975</v